--- a/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
+++ b/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barbj\Documents\CCDD not yet on GitHub\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8A9E83F8-01B9-45E1-9C0E-90A86DE11779}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5436"/>
   </bookViews>
   <sheets>
     <sheet name="Action Items, Open" sheetId="1" r:id="rId1"/>
@@ -18,17 +12,17 @@
     <sheet name="Completed AIs Released" sheetId="3" r:id="rId3"/>
     <sheet name="AIs no longer relevant" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="F116" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F116" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +34,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F130" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F130" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,38 +51,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>or should it be "nadroparin (nadroparin calcium)"?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">Link to label image
-https://drive.google.com/open?id=1_rdeWXY4haEvMsTTdbd4saBrwMLwYuf4
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G102" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="G20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F110" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="F21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +83,43 @@
         </r>
       </text>
     </comment>
-    <comment ref="H124" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="E88" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>or should it be "nadroparin (nadroparin calcium)"?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G96" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">Link to label image
+https://drive.google.com/open?id=1_rdeWXY4haEvMsTTdbd4saBrwMLwYuf4
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H117" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4173,7 +4177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
@@ -5515,28 +5519,28 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5849,40 +5853,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="19.44140625" style="181" customWidth="1"/>
-    <col min="2" max="2" width="25.71875" style="181" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="181" customWidth="1"/>
     <col min="3" max="3" width="9" style="181" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="181" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.109375" style="249" customWidth="1"/>
     <col min="6" max="6" width="28" style="181" customWidth="1"/>
-    <col min="7" max="7" width="35.27734375" style="181" customWidth="1"/>
+    <col min="7" max="7" width="35.21875" style="181" customWidth="1"/>
     <col min="8" max="8" width="33.109375" style="181" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.0546875" style="181" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="181" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="181" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="14.44140625" style="181"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.2">
+    <row r="1" spans="1:10" ht="27.6">
       <c r="A1" s="174" t="s">
         <v>0</v>
       </c>
@@ -6037,7 +6041,7 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="302.39999999999998">
+    <row r="7" spans="1:10" ht="288">
       <c r="A7" s="170" t="s">
         <v>444</v>
       </c>
@@ -6058,7 +6062,7 @@
       <c r="H7" s="178"/>
       <c r="I7" s="189"/>
     </row>
-    <row r="8" spans="1:10" ht="288">
+    <row r="8" spans="1:10" ht="259.2">
       <c r="A8" s="176" t="s">
         <v>951</v>
       </c>
@@ -6278,7 +6282,7 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="42.3">
+    <row r="18" spans="1:9" ht="41.4">
       <c r="A18" s="177" t="s">
         <v>137</v>
       </c>
@@ -6399,7 +6403,7 @@
         <v>43263</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="55.5" thickBot="1">
+    <row r="23" spans="1:9" ht="55.8" thickBot="1">
       <c r="A23" s="177" t="s">
         <v>159</v>
       </c>
@@ -6719,7 +6723,7 @@
       <c r="H36" s="178"/>
       <c r="I36" s="189"/>
     </row>
-    <row r="37" spans="1:10" ht="57">
+    <row r="37" spans="1:10" ht="43.2">
       <c r="A37" s="178" t="s">
         <v>250</v>
       </c>
@@ -6740,7 +6744,7 @@
       <c r="H37" s="178"/>
       <c r="I37" s="189"/>
     </row>
-    <row r="38" spans="1:10" ht="316.8">
+    <row r="38" spans="1:10" ht="302.39999999999998">
       <c r="A38" s="177" t="s">
         <v>979</v>
       </c>
@@ -6766,14 +6770,14 @@
         <v>981</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="288">
+    <row r="39" spans="1:10" ht="273.60000000000002">
       <c r="A39" s="178" t="s">
         <v>979</v>
       </c>
       <c r="B39" s="181" t="s">
         <v>952</v>
       </c>
-      <c r="C39" s="266">
+      <c r="C39" s="258">
         <v>2399733</v>
       </c>
       <c r="E39" s="244" t="s">
@@ -7090,7 +7094,7 @@
         <v>43278</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="69.3">
+    <row r="51" spans="1:10" ht="69.599999999999994">
       <c r="A51" s="177" t="s">
         <v>345</v>
       </c>
@@ -7402,7 +7406,7 @@
         <v>43283</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="43.5" thickBot="1">
+    <row r="64" spans="1:10" ht="43.8" thickBot="1">
       <c r="A64" s="178" t="s">
         <v>76</v>
       </c>
@@ -7429,7 +7433,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="43.5" thickBot="1">
+    <row r="65" spans="1:9" ht="43.8" thickBot="1">
       <c r="A65" s="178" t="s">
         <v>76</v>
       </c>
@@ -7456,7 +7460,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="43.5" thickBot="1">
+    <row r="66" spans="1:9" ht="43.8" thickBot="1">
       <c r="A66" s="178" t="s">
         <v>76</v>
       </c>
@@ -7483,7 +7487,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="43.5" thickBot="1">
+    <row r="67" spans="1:9" ht="43.8" thickBot="1">
       <c r="A67" s="178" t="s">
         <v>76</v>
       </c>
@@ -7510,7 +7514,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="43.5" thickBot="1">
+    <row r="68" spans="1:9" ht="43.8" thickBot="1">
       <c r="A68" s="178" t="s">
         <v>76</v>
       </c>
@@ -7535,7 +7539,7 @@
       <c r="H68" s="178"/>
       <c r="I68" s="189"/>
     </row>
-    <row r="69" spans="1:9" ht="43.5" thickBot="1">
+    <row r="69" spans="1:9" ht="43.8" thickBot="1">
       <c r="A69" s="178" t="s">
         <v>76</v>
       </c>
@@ -7560,7 +7564,7 @@
       <c r="H69" s="178"/>
       <c r="I69" s="189"/>
     </row>
-    <row r="70" spans="1:9" ht="43.5" thickBot="1">
+    <row r="70" spans="1:9" ht="43.8" thickBot="1">
       <c r="A70" s="178" t="s">
         <v>76</v>
       </c>
@@ -7585,7 +7589,7 @@
       <c r="H70" s="178"/>
       <c r="I70" s="189"/>
     </row>
-    <row r="71" spans="1:9" ht="43.5" thickBot="1">
+    <row r="71" spans="1:9" ht="43.8" thickBot="1">
       <c r="A71" s="178" t="s">
         <v>76</v>
       </c>
@@ -7687,7 +7691,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="56.4">
+    <row r="75" spans="1:9" ht="55.2">
       <c r="A75" s="177" t="s">
         <v>452</v>
       </c>
@@ -7714,7 +7718,7 @@
         <v>43290</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="56.4">
+    <row r="76" spans="1:9" ht="55.2">
       <c r="A76" s="180" t="s">
         <v>454</v>
       </c>
@@ -7737,7 +7741,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="187.5" thickBot="1">
+    <row r="77" spans="1:9" ht="187.8" thickBot="1">
       <c r="A77" s="177" t="s">
         <v>457</v>
       </c>
@@ -7764,7 +7768,7 @@
         <v>43291</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="43.5" thickBot="1">
+    <row r="78" spans="1:9" ht="43.8" thickBot="1">
       <c r="A78" s="177" t="s">
         <v>461</v>
       </c>
@@ -7812,7 +7816,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="158.4">
+    <row r="80" spans="1:9" ht="144">
       <c r="A80" s="177" t="s">
         <v>470</v>
       </c>
@@ -7839,7 +7843,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="138">
+    <row r="81" spans="1:10" ht="124.2">
       <c r="A81" s="177" t="s">
         <v>475</v>
       </c>
@@ -7864,7 +7868,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="409.5">
+    <row r="82" spans="1:10" ht="409.6">
       <c r="A82" s="177" t="s">
         <v>482</v>
       </c>
@@ -8124,7 +8128,7 @@
       <c r="H91" s="178"/>
       <c r="I91" s="189"/>
     </row>
-    <row r="92" spans="1:10" ht="234.9" thickBot="1">
+    <row r="92" spans="1:10" ht="235.2" thickBot="1">
       <c r="A92" s="178" t="s">
         <v>521</v>
       </c>
@@ -8145,7 +8149,7 @@
       <c r="H92" s="178"/>
       <c r="I92" s="189"/>
     </row>
-    <row r="93" spans="1:10" ht="72.3" thickBot="1">
+    <row r="93" spans="1:10" ht="72.599999999999994" thickBot="1">
       <c r="A93" s="177" t="s">
         <v>535</v>
       </c>
@@ -8390,7 +8394,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="41.7" thickBot="1">
+    <row r="103" spans="1:9" ht="42" thickBot="1">
       <c r="A103" s="177" t="s">
         <v>636</v>
       </c>
@@ -8505,7 +8509,7 @@
       <c r="H107" s="178"/>
       <c r="I107" s="189"/>
     </row>
-    <row r="108" spans="1:9" ht="96.9" thickBot="1">
+    <row r="108" spans="1:9" ht="83.4" thickBot="1">
       <c r="A108" s="177" t="s">
         <v>673</v>
       </c>
@@ -8530,7 +8534,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="41.7" thickBot="1">
+    <row r="109" spans="1:9" ht="42" thickBot="1">
       <c r="A109" s="177" t="s">
         <v>688</v>
       </c>
@@ -8680,7 +8684,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="43.5" thickBot="1">
+    <row r="115" spans="1:9" ht="43.8" thickBot="1">
       <c r="A115" s="178" t="s">
         <v>723</v>
       </c>
@@ -8705,7 +8709,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="41.7" thickBot="1">
+    <row r="116" spans="1:9" ht="28.2" thickBot="1">
       <c r="A116" s="177" t="s">
         <v>750</v>
       </c>
@@ -8780,7 +8784,7 @@
       <c r="H118" s="231"/>
       <c r="I118" s="189"/>
     </row>
-    <row r="119" spans="1:9" ht="29.1" thickBot="1">
+    <row r="119" spans="1:9" ht="29.4" thickBot="1">
       <c r="A119" s="178" t="s">
         <v>781</v>
       </c>
@@ -8801,7 +8805,7 @@
       <c r="H119" s="231"/>
       <c r="I119" s="189"/>
     </row>
-    <row r="120" spans="1:9" ht="29.1" thickBot="1">
+    <row r="120" spans="1:9" ht="29.4" thickBot="1">
       <c r="A120" s="178" t="s">
         <v>781</v>
       </c>
@@ -8822,7 +8826,7 @@
       <c r="H120" s="231"/>
       <c r="I120" s="189"/>
     </row>
-    <row r="121" spans="1:9" ht="41.7" thickBot="1">
+    <row r="121" spans="1:9" ht="28.2" thickBot="1">
       <c r="A121" s="178" t="s">
         <v>811</v>
       </c>
@@ -8847,7 +8851,7 @@
       <c r="H121" s="231"/>
       <c r="I121" s="189"/>
     </row>
-    <row r="122" spans="1:9" ht="14.7" thickBot="1">
+    <row r="122" spans="1:9" ht="15" thickBot="1">
       <c r="A122" s="177" t="s">
         <v>823</v>
       </c>
@@ -8872,7 +8876,7 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="96.9" thickBot="1">
+    <row r="123" spans="1:9" ht="97.2" thickBot="1">
       <c r="A123" s="177" t="s">
         <v>843</v>
       </c>
@@ -8918,7 +8922,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="43.5" thickBot="1">
+    <row r="125" spans="1:9" ht="43.8" thickBot="1">
       <c r="A125" s="177" t="s">
         <v>858</v>
       </c>
@@ -9041,7 +9045,7 @@
         <v>43270</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="41.4">
+    <row r="130" spans="1:9" ht="27.6">
       <c r="A130" s="177" t="s">
         <v>883</v>
       </c>
@@ -9068,7 +9072,7 @@
         <v>43250</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="27.9" thickBot="1">
+    <row r="131" spans="1:9" ht="28.2" thickBot="1">
       <c r="A131" s="177" t="s">
         <v>893</v>
       </c>
@@ -9181,7 +9185,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F108" r:id="rId1" location="gid=314589613&amp;range=309:309" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F108" r:id="rId1" location="gid=314589613&amp;range=309:309"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -9190,23 +9194,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.6">
+    <row r="1" spans="1:10" ht="26.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9231,12 +9235,12 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="258" t="s">
+      <c r="I1" s="259" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="259"/>
-    </row>
-    <row r="2" spans="1:10" ht="24.6">
+      <c r="J1" s="260"/>
+    </row>
+    <row r="2" spans="1:10" ht="26.4">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -9252,37 +9256,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="135.30000000000001">
-      <c r="A3" s="14" t="s">
-        <v>19</v>
+    <row r="3" spans="1:10" ht="105.6">
+      <c r="A3" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="22"/>
+        <v>151</v>
+      </c>
+      <c r="C3" s="13">
+        <v>8001144</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>155</v>
+      </c>
       <c r="H3" s="8" t="s">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="I3" s="12">
-        <v>43240</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="184.5">
+        <v>43196</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="158.4">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
@@ -9292,18 +9298,18 @@
       <c r="C4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>31</v>
+      <c r="D4" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I4" s="12">
         <v>43240</v>
@@ -9312,7 +9318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="184.5">
+    <row r="5" spans="1:10" ht="211.2">
       <c r="A5" s="14" t="s">
         <v>19</v>
       </c>
@@ -9323,7 +9329,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>33</v>
@@ -9342,7 +9348,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="184.5">
+    <row r="6" spans="1:10" ht="211.2">
       <c r="A6" s="14" t="s">
         <v>19</v>
       </c>
@@ -9352,8 +9358,8 @@
       <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>38</v>
+      <c r="D6" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>33</v>
@@ -9372,7 +9378,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="184.5">
+    <row r="7" spans="1:10" ht="211.2">
       <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
@@ -9383,7 +9389,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>33</v>
@@ -9402,36 +9408,38 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="86.1">
-      <c r="A8" s="6" t="s">
-        <v>44</v>
+    <row r="8" spans="1:10" ht="211.2">
+      <c r="A8" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="34"/>
+      <c r="D8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="22"/>
       <c r="H8" s="8" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="I8" s="12">
         <v>43240</v>
       </c>
-      <c r="J8" s="36"/>
-    </row>
-    <row r="9" spans="1:10" ht="86.1">
-      <c r="A9" s="8" t="s">
+      <c r="J8" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="92.4">
+      <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -9441,7 +9449,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>48</v>
@@ -9451,14 +9459,14 @@
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I9" s="12">
         <v>43240</v>
       </c>
       <c r="J9" s="36"/>
     </row>
-    <row r="10" spans="1:10" ht="86.1">
+    <row r="10" spans="1:10" ht="92.4">
       <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
@@ -9479,153 +9487,357 @@
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I10" s="12">
         <v>43240</v>
       </c>
       <c r="J10" s="36"/>
     </row>
-    <row r="11" spans="1:10" ht="98.4">
+    <row r="11" spans="1:10" ht="92.4">
       <c r="A11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="12">
+        <v>43240</v>
+      </c>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:10" ht="79.2">
+      <c r="A12" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="12">
+        <v>43250</v>
+      </c>
+      <c r="J12" s="36"/>
+    </row>
+    <row r="13" spans="1:10" ht="171.6">
+      <c r="A13" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="69" t="str">
+        <f>HYPERLINK("https://docs.google.com/spreadsheets/d/1CZZj8fSMSaEaqlK8KCBOVHZaJixwFi-xHDmvUY_rwCk/edit#gid=1997930010&amp;range=L34","Master: Antibacterials A")</f>
+        <v>Master: Antibacterials A</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" s="71"/>
+      <c r="F13" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="I13" s="12">
+        <v>43250</v>
+      </c>
+      <c r="J13" s="74" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="92.4">
+      <c r="A14" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="78">
+        <v>8001180</v>
+      </c>
+      <c r="D14" s="79" t="s">
+        <v>293</v>
+      </c>
+      <c r="E14" s="80" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="72" t="s">
+        <v>297</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="I14" s="12">
+        <v>43250</v>
+      </c>
+      <c r="J14" s="74" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="110.4">
+      <c r="A15" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79" t="s">
+        <v>301</v>
+      </c>
+      <c r="E15" s="80" t="s">
+        <v>302</v>
+      </c>
+      <c r="F15" s="81" t="s">
+        <v>303</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="I15" s="12">
+        <v>43250</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="105.6">
+      <c r="A16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B16" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C16" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D16" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="40" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="36"/>
-    </row>
-    <row r="12" spans="1:10" ht="57.6">
-      <c r="A12" s="8" t="s">
+      <c r="H16" s="9"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="1:10" ht="57.6">
+      <c r="A17" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B17" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C17" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D17" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E17" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F17" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="12">
+      <c r="H17" s="9"/>
+      <c r="I17" s="12">
         <v>43286</v>
       </c>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" spans="1:10" ht="57.6">
-      <c r="A13" s="8" t="s">
+      <c r="J17" s="36"/>
+    </row>
+    <row r="18" spans="1:10" ht="57.6">
+      <c r="A18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B18" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C18" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D18" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E18" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G18" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="1:10" ht="57.6">
-      <c r="A14" s="8" t="s">
+      <c r="H18" s="9"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="1:10" ht="58.2" thickBot="1">
+      <c r="A19" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B19" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C19" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D19" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E19" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F19" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G19" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="36"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="1:10" ht="66.599999999999994" thickBot="1">
+      <c r="A20" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>832</v>
+      </c>
+      <c r="D20" s="116" t="s">
+        <v>833</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>835</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="12">
+        <v>43240</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="106.2" thickBot="1">
+      <c r="A21" s="53" t="s">
+        <v>750</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="160" t="s">
+        <v>891</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>896</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="I21" s="12">
+        <v>43250</v>
+      </c>
+      <c r="J21" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J135"/>
+  <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" customWidth="1"/>
     <col min="5" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="35.27734375" customWidth="1"/>
-    <col min="8" max="8" width="40.83203125" customWidth="1"/>
+    <col min="7" max="7" width="35.21875" customWidth="1"/>
+    <col min="8" max="8" width="40.77734375" customWidth="1"/>
     <col min="9" max="9" width="14.109375" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.6">
+    <row r="1" spans="1:10" ht="26.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9650,12 +9862,12 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="258" t="s">
+      <c r="I1" s="259" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="259"/>
-    </row>
-    <row r="2" spans="1:10" ht="24.6">
+      <c r="J1" s="260"/>
+    </row>
+    <row r="2" spans="1:10" ht="26.4">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -9671,7 +9883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="49.2">
+    <row r="3" spans="1:10" ht="52.8">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -9697,7 +9909,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="24.6">
+    <row r="4" spans="1:10" ht="26.4">
       <c r="A4" s="17" t="s">
         <v>24</v>
       </c>
@@ -9727,10 +9939,10 @@
       <c r="A5" s="261" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="260" t="s">
+      <c r="B5" s="265" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="260" t="s">
+      <c r="C5" s="265" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -9752,9 +9964,9 @@
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="86.4">
-      <c r="A6" s="259"/>
-      <c r="B6" s="259"/>
-      <c r="C6" s="259"/>
+      <c r="A6" s="260"/>
+      <c r="B6" s="260"/>
+      <c r="C6" s="260"/>
       <c r="D6" s="13" t="s">
         <v>68</v>
       </c>
@@ -9771,7 +9983,7 @@
       </c>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="1:10" ht="36.9">
+    <row r="7" spans="1:10" ht="39.6">
       <c r="A7" s="261" t="s">
         <v>79</v>
       </c>
@@ -9801,8 +10013,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="36.9">
-      <c r="A8" s="259"/>
+    <row r="8" spans="1:10" ht="39.6">
+      <c r="A8" s="260"/>
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
@@ -9828,8 +10040,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="36.9">
-      <c r="A9" s="263"/>
+    <row r="9" spans="1:10" ht="39.6">
+      <c r="A9" s="262"/>
       <c r="B9" s="47" t="s">
         <v>21</v>
       </c>
@@ -9880,8 +10092,8 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="36.9">
-      <c r="A11" s="264" t="s">
+    <row r="11" spans="1:10" ht="39.6">
+      <c r="A11" s="263" t="s">
         <v>119</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -9909,8 +10121,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="36.9">
-      <c r="A12" s="259"/>
+    <row r="12" spans="1:10" ht="39.6">
+      <c r="A12" s="260"/>
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
@@ -9936,8 +10148,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="24.6">
-      <c r="A13" s="259"/>
+    <row r="13" spans="1:10" ht="39.6">
+      <c r="A13" s="260"/>
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -9963,8 +10175,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="36.9">
-      <c r="A14" s="259"/>
+    <row r="14" spans="1:10" ht="39.6">
+      <c r="A14" s="260"/>
       <c r="B14" s="47" t="s">
         <v>21</v>
       </c>
@@ -9991,143 +10203,143 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="98.4">
+    <row r="15" spans="1:10" ht="26.4">
       <c r="A15" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="13">
-        <v>8001144</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>154</v>
+        <v>159</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="62"/>
+      <c r="F15" s="60" t="s">
+        <v>165</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>156</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="H15" s="8"/>
       <c r="I15" s="12">
+        <v>43273</v>
+      </c>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="1:10" ht="26.4">
+      <c r="A16" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I16" s="12">
         <v>43196</v>
       </c>
-      <c r="J15" s="32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="24.6">
-      <c r="A16" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="J16" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="60" t="s">
-        <v>165</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="12">
-        <v>43273</v>
-      </c>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="1:10" ht="24.6">
-      <c r="A17" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="G17" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="I17" s="12">
-        <v>43196</v>
-      </c>
-      <c r="J17" s="32" t="s">
+    </row>
+    <row r="22" spans="1:10" ht="105.6">
+      <c r="A22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="98.4">
-      <c r="A23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="D22" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22" s="12">
+        <v>43240</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="79.2">
+      <c r="A26" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="I23" s="12">
+      <c r="C26" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="12">
         <v>43240</v>
       </c>
-      <c r="J23" s="32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="73.8">
-      <c r="A27" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="65" t="s">
-        <v>182</v>
+      <c r="J26" s="52">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="52.8">
+      <c r="A27" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>194</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="H27" s="9"/>
+        <v>196</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>198</v>
+      </c>
       <c r="I27" s="12">
         <v>43240</v>
       </c>
@@ -10135,365 +10347,360 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="36.9">
-      <c r="A28" s="66" t="s">
-        <v>190</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>198</v>
-      </c>
+    <row r="28" spans="1:10" ht="92.4">
+      <c r="A28" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="8">
+        <v>8001179</v>
+      </c>
+      <c r="D28" s="75" t="s">
+        <v>261</v>
+      </c>
+      <c r="E28" s="71" t="s">
+        <v>264</v>
+      </c>
+      <c r="F28" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="G28" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28" s="8"/>
       <c r="I28" s="12">
-        <v>43240</v>
-      </c>
-      <c r="J28" s="52">
-        <v>43282</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="61.5">
-      <c r="A29" s="8" t="s">
-        <v>199</v>
+        <v>43250</v>
+      </c>
+      <c r="J28" s="12">
+        <v>76138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="66">
+      <c r="A29" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="B29" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="E29" s="67" t="s">
-        <v>203</v>
-      </c>
-      <c r="F29" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="G29" s="68" t="s">
-        <v>216</v>
+      <c r="C29" s="76">
+        <v>2446901</v>
+      </c>
+      <c r="D29" s="77"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="72" t="s">
+        <v>285</v>
+      </c>
+      <c r="G29" s="58" t="s">
+        <v>287</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="12">
         <v>43250</v>
       </c>
-      <c r="J29" s="36"/>
-    </row>
-    <row r="30" spans="1:10" ht="147.6">
+      <c r="J29" s="52">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="28.8">
       <c r="A30" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B30" s="69" t="str">
-        <f>HYPERLINK("https://docs.google.com/spreadsheets/d/1CZZj8fSMSaEaqlK8KCBOVHZaJixwFi-xHDmvUY_rwCk/edit#gid=1997930010&amp;range=L34","Master: Antibacterials A")</f>
-        <v>Master: Antibacterials A</v>
-      </c>
-      <c r="C30" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="G30" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="I30" s="12">
+        <v>43210</v>
+      </c>
+      <c r="J30" s="52">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="43.2">
+      <c r="A31" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C31" s="78"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="36"/>
+    </row>
+    <row r="32" spans="1:10" ht="79.2">
+      <c r="A32" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="70" t="s">
-        <v>236</v>
-      </c>
-      <c r="E30" s="71"/>
-      <c r="F30" s="72" t="s">
-        <v>242</v>
-      </c>
-      <c r="G30" s="67" t="s">
-        <v>253</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="I30" s="12">
-        <v>43250</v>
-      </c>
-      <c r="J30" s="74" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="86.1">
-      <c r="A31" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C31" s="8">
-        <v>8001179</v>
-      </c>
-      <c r="D31" s="75" t="s">
-        <v>261</v>
-      </c>
-      <c r="E31" s="71" t="s">
-        <v>264</v>
-      </c>
-      <c r="F31" s="72" t="s">
-        <v>265</v>
-      </c>
-      <c r="G31" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="12">
-        <v>43250</v>
-      </c>
-      <c r="J31" s="12">
-        <v>76138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="61.5">
-      <c r="A32" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" s="76">
-        <v>2446901</v>
-      </c>
-      <c r="D32" s="77"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="72" t="s">
-        <v>285</v>
-      </c>
-      <c r="G32" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="H32" s="8"/>
+      <c r="D32" s="86" t="s">
+        <v>284</v>
+      </c>
+      <c r="E32" s="87" t="s">
+        <v>333</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="G32" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="I32" s="12">
-        <v>43250</v>
-      </c>
-      <c r="J32" s="52">
-        <v>43282</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="86.1">
-      <c r="A33" s="6" t="s">
-        <v>288</v>
+        <v>43240</v>
+      </c>
+      <c r="J32" s="36"/>
+    </row>
+    <row r="33" spans="1:10" ht="92.4">
+      <c r="A33" s="88" t="s">
+        <v>348</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C33" s="78">
-        <v>8001180</v>
-      </c>
-      <c r="D33" s="79" t="s">
-        <v>293</v>
-      </c>
-      <c r="E33" s="80" t="s">
-        <v>296</v>
-      </c>
-      <c r="F33" s="72" t="s">
-        <v>297</v>
-      </c>
-      <c r="G33" s="34"/>
-      <c r="H33" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="I33" s="12">
-        <v>43250</v>
-      </c>
-      <c r="J33" s="74" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="106.8">
-      <c r="A34" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="79" t="s">
-        <v>301</v>
-      </c>
-      <c r="E34" s="80" t="s">
-        <v>302</v>
-      </c>
-      <c r="F34" s="81" t="s">
-        <v>303</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>306</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="G33" s="64" t="s">
+        <v>355</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="J33" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="39.6">
+      <c r="A34" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="C34" s="35">
+        <v>8001077</v>
+      </c>
+      <c r="D34" s="83">
+        <v>2046113</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="G34" s="8"/>
       <c r="H34" s="8" t="s">
-        <v>307</v>
+        <v>363</v>
       </c>
       <c r="I34" s="12">
-        <v>43250</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="28.8">
+        <v>43210</v>
+      </c>
+      <c r="J34" s="32"/>
+    </row>
+    <row r="35" spans="1:10" ht="66">
       <c r="A35" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="G35" s="63" t="s">
-        <v>311</v>
+        <v>364</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="90" t="s">
+        <v>367</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="F35" s="64" t="s">
+        <v>371</v>
+      </c>
+      <c r="G35" s="64" t="s">
+        <v>372</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>312</v>
+        <v>83</v>
       </c>
       <c r="I35" s="12">
-        <v>43210</v>
-      </c>
-      <c r="J35" s="52">
-        <v>43221</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="43.2">
-      <c r="A36" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C36" s="78"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="36"/>
-    </row>
-    <row r="37" spans="1:10" ht="73.8">
-      <c r="A37" s="6" t="s">
-        <v>321</v>
-      </c>
+        <v>43240</v>
+      </c>
+      <c r="J35" s="12">
+        <v>43266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="39.6">
+      <c r="A36" s="264" t="s">
+        <v>377</v>
+      </c>
+      <c r="B36" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="92" t="s">
+        <v>393</v>
+      </c>
+      <c r="E36" s="93" t="s">
+        <v>400</v>
+      </c>
+      <c r="F36" s="94" t="s">
+        <v>401</v>
+      </c>
+      <c r="G36" s="95"/>
+      <c r="H36" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36" s="12">
+        <v>43240</v>
+      </c>
+      <c r="J36" s="12">
+        <v>43266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="39.6">
+      <c r="A37" s="260"/>
       <c r="B37" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="86" t="s">
-        <v>284</v>
-      </c>
-      <c r="E37" s="87" t="s">
-        <v>333</v>
-      </c>
-      <c r="F37" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="G37" s="64" t="s">
-        <v>289</v>
-      </c>
+      <c r="D37" s="96" t="s">
+        <v>406</v>
+      </c>
+      <c r="E37" s="97" t="s">
+        <v>408</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="G37" s="8"/>
       <c r="H37" s="8" t="s">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="I37" s="12">
         <v>43240</v>
       </c>
-      <c r="J37" s="36"/>
-    </row>
-    <row r="38" spans="1:10" ht="86.1">
-      <c r="A38" s="88" t="s">
-        <v>348</v>
-      </c>
+      <c r="J37" s="12">
+        <v>43266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="66">
+      <c r="A38" s="260"/>
       <c r="B38" s="8" t="s">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" s="55" t="s">
-        <v>354</v>
-      </c>
-      <c r="G38" s="64" t="s">
-        <v>355</v>
-      </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="32" t="s">
-        <v>356</v>
-      </c>
-      <c r="J38" s="32" t="s">
+      <c r="D38" s="86" t="s">
+        <v>415</v>
+      </c>
+      <c r="E38" s="98" t="s">
+        <v>417</v>
+      </c>
+      <c r="F38" s="99" t="s">
+        <v>419</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="12">
+        <v>43240</v>
+      </c>
+      <c r="J38" s="12">
+        <v>43266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="39.6">
+      <c r="A39" s="260"/>
+      <c r="B39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="36.9">
-      <c r="A39" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="C39" s="35">
-        <v>8001077</v>
-      </c>
-      <c r="D39" s="83">
-        <v>2046113</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>362</v>
+      <c r="D39" s="96" t="s">
+        <v>421</v>
+      </c>
+      <c r="E39" s="100" t="s">
+        <v>422</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>426</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8" t="s">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="I39" s="12">
-        <v>43210</v>
-      </c>
-      <c r="J39" s="32"/>
-    </row>
-    <row r="40" spans="1:10" ht="61.5">
-      <c r="A40" s="6" t="s">
-        <v>364</v>
-      </c>
+        <v>43240</v>
+      </c>
+      <c r="J39" s="12">
+        <v>43266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="39.6">
+      <c r="A40" s="260"/>
       <c r="B40" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="90" t="s">
-        <v>367</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="F40" s="64" t="s">
-        <v>371</v>
-      </c>
-      <c r="G40" s="64" t="s">
-        <v>372</v>
-      </c>
+      <c r="D40" s="96" t="s">
+        <v>427</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="G40" s="8"/>
       <c r="H40" s="8" t="s">
         <v>83</v>
       </c>
@@ -10504,26 +10711,24 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="36.9">
-      <c r="A41" s="262" t="s">
-        <v>377</v>
-      </c>
-      <c r="B41" s="91" t="s">
+    <row r="41" spans="1:10" ht="39.6">
+      <c r="A41" s="260"/>
+      <c r="B41" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="91" t="s">
+      <c r="C41" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="92" t="s">
-        <v>393</v>
-      </c>
-      <c r="E41" s="93" t="s">
-        <v>400</v>
-      </c>
-      <c r="F41" s="94" t="s">
+      <c r="D41" s="86" t="s">
+        <v>429</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="F41" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="G41" s="95"/>
+      <c r="G41" s="22"/>
       <c r="H41" s="8" t="s">
         <v>83</v>
       </c>
@@ -10534,8 +10739,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="36.9">
-      <c r="A42" s="259"/>
+    <row r="42" spans="1:10" ht="39.6">
+      <c r="A42" s="260"/>
       <c r="B42" s="8" t="s">
         <v>21</v>
       </c>
@@ -10543,15 +10748,15 @@
         <v>22</v>
       </c>
       <c r="D42" s="96" t="s">
-        <v>406</v>
-      </c>
-      <c r="E42" s="97" t="s">
-        <v>408</v>
-      </c>
-      <c r="F42" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="F42" s="99" t="s">
         <v>401</v>
       </c>
-      <c r="G42" s="8"/>
+      <c r="G42" s="101"/>
       <c r="H42" s="8" t="s">
         <v>83</v>
       </c>
@@ -10562,22 +10767,22 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="61.5">
-      <c r="A43" s="259"/>
+    <row r="43" spans="1:10" ht="39.6">
+      <c r="A43" s="260"/>
       <c r="B43" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="86" t="s">
-        <v>415</v>
-      </c>
-      <c r="E43" s="98" t="s">
-        <v>417</v>
-      </c>
-      <c r="F43" s="99" t="s">
-        <v>419</v>
+      <c r="D43" s="96" t="s">
+        <v>439</v>
+      </c>
+      <c r="E43" s="97" t="s">
+        <v>440</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>401</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8" t="s">
@@ -10590,8 +10795,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="36.9">
-      <c r="A44" s="259"/>
+    <row r="44" spans="1:10" ht="39.6">
+      <c r="A44" s="260"/>
       <c r="B44" s="8" t="s">
         <v>21</v>
       </c>
@@ -10599,13 +10804,13 @@
         <v>22</v>
       </c>
       <c r="D44" s="96" t="s">
-        <v>421</v>
-      </c>
-      <c r="E44" s="100" t="s">
-        <v>422</v>
+        <v>441</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>442</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8" t="s">
@@ -10618,24 +10823,24 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="36.9">
-      <c r="A45" s="259"/>
-      <c r="B45" s="8" t="s">
+    <row r="45" spans="1:10" ht="39.6">
+      <c r="A45" s="262"/>
+      <c r="B45" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="96" t="s">
-        <v>427</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>428</v>
-      </c>
-      <c r="F45" s="33" t="s">
+      <c r="D45" s="102" t="s">
+        <v>445</v>
+      </c>
+      <c r="E45" s="103" t="s">
+        <v>450</v>
+      </c>
+      <c r="F45" s="104" t="s">
         <v>401</v>
       </c>
-      <c r="G45" s="8"/>
+      <c r="G45" s="105"/>
       <c r="H45" s="8" t="s">
         <v>83</v>
       </c>
@@ -10646,24 +10851,26 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="36.9">
-      <c r="A46" s="259"/>
-      <c r="B46" s="8" t="s">
+    <row r="46" spans="1:10" ht="39.6">
+      <c r="A46" s="106" t="s">
+        <v>460</v>
+      </c>
+      <c r="B46" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="86" t="s">
-        <v>429</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>430</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>401</v>
-      </c>
-      <c r="G46" s="22"/>
+      <c r="D46" s="108" t="s">
+        <v>472</v>
+      </c>
+      <c r="E46" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="F46" s="109" t="s">
+        <v>483</v>
+      </c>
+      <c r="G46" s="105"/>
       <c r="H46" s="8" t="s">
         <v>83</v>
       </c>
@@ -10674,292 +10881,310 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="36.9">
-      <c r="A47" s="259"/>
-      <c r="B47" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="96" t="s">
-        <v>432</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="F47" s="99" t="s">
-        <v>401</v>
-      </c>
-      <c r="G47" s="101"/>
-      <c r="H47" s="8" t="s">
-        <v>83</v>
+    <row r="47" spans="1:10" ht="57.6">
+      <c r="A47" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>488</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="11" t="s">
+        <v>496</v>
       </c>
       <c r="I47" s="12">
-        <v>43240</v>
+        <v>43210</v>
       </c>
       <c r="J47" s="12">
         <v>43266</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="36.9">
-      <c r="A48" s="259"/>
-      <c r="B48" s="8" t="s">
+    <row r="48" spans="1:10" ht="66">
+      <c r="A48" s="264" t="s">
+        <v>497</v>
+      </c>
+      <c r="B48" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="96" t="s">
-        <v>439</v>
-      </c>
-      <c r="E48" s="97" t="s">
-        <v>440</v>
-      </c>
-      <c r="F48" s="33" t="s">
-        <v>401</v>
-      </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I48" s="12">
+      <c r="D48" s="112" t="s">
+        <v>507</v>
+      </c>
+      <c r="E48" s="113" t="s">
+        <v>519</v>
+      </c>
+      <c r="F48" s="94" t="s">
+        <v>525</v>
+      </c>
+      <c r="G48" s="114"/>
+      <c r="H48" s="91" t="s">
+        <v>529</v>
+      </c>
+      <c r="I48" s="115">
         <v>43240</v>
       </c>
       <c r="J48" s="12">
         <v>43266</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="36.9">
-      <c r="A49" s="259"/>
-      <c r="B49" s="8" t="s">
+    <row r="49" spans="1:10" ht="39.6">
+      <c r="A49" s="262"/>
+      <c r="B49" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="96" t="s">
-        <v>441</v>
-      </c>
-      <c r="E49" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="F49" s="33" t="s">
-        <v>401</v>
-      </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I49" s="12">
+      <c r="D49" s="118" t="s">
+        <v>533</v>
+      </c>
+      <c r="E49" s="119" t="s">
+        <v>519</v>
+      </c>
+      <c r="F49" s="120" t="s">
+        <v>538</v>
+      </c>
+      <c r="G49" s="45"/>
+      <c r="H49" s="47" t="s">
+        <v>529</v>
+      </c>
+      <c r="I49" s="121">
         <v>43240</v>
       </c>
       <c r="J49" s="12">
         <v>43266</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="36.9">
-      <c r="A50" s="263"/>
-      <c r="B50" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="47" t="s">
+    <row r="50" spans="1:10" ht="72">
+      <c r="A50" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="H50" s="9"/>
+      <c r="I50" s="32" t="s">
+        <v>546</v>
+      </c>
+      <c r="J50" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="102" t="s">
-        <v>445</v>
-      </c>
-      <c r="E50" s="103" t="s">
-        <v>450</v>
-      </c>
-      <c r="F50" s="104" t="s">
-        <v>401</v>
-      </c>
-      <c r="G50" s="105"/>
-      <c r="H50" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I50" s="12">
+    </row>
+    <row r="51" spans="1:10" ht="26.4">
+      <c r="A51" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="B51" s="27"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="122" t="s">
+        <v>547</v>
+      </c>
+      <c r="E51" s="40"/>
+      <c r="F51" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I51" s="12">
+        <v>43196</v>
+      </c>
+      <c r="J51" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="79.2">
+      <c r="A52" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="29">
+        <v>8001265</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>552</v>
+      </c>
+      <c r="F52" s="64" t="s">
+        <v>553</v>
+      </c>
+      <c r="G52" s="58" t="s">
+        <v>557</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="I52" s="12">
         <v>43240</v>
       </c>
-      <c r="J50" s="12">
-        <v>43266</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="36.9">
-      <c r="A51" s="106" t="s">
-        <v>460</v>
-      </c>
-      <c r="B51" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="108" t="s">
-        <v>472</v>
-      </c>
-      <c r="E51" s="47" t="s">
-        <v>481</v>
-      </c>
-      <c r="F51" s="109" t="s">
-        <v>483</v>
-      </c>
-      <c r="G51" s="105"/>
-      <c r="H51" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I51" s="12">
+      <c r="J52" s="52">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="52.8">
+      <c r="A53" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="29">
+        <v>8001265</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="F53" s="64" t="s">
+        <v>562</v>
+      </c>
+      <c r="G53" s="58" t="s">
+        <v>563</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="I53" s="12">
         <v>43240</v>
       </c>
-      <c r="J51" s="12">
-        <v>43266</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="57.6">
-      <c r="A52" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>486</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="E52" s="110" t="s">
-        <v>488</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="I52" s="12">
-        <v>43210</v>
-      </c>
-      <c r="J52" s="12">
-        <v>43266</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="61.5">
-      <c r="A53" s="262" t="s">
-        <v>497</v>
-      </c>
-      <c r="B53" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="111" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="112" t="s">
-        <v>507</v>
-      </c>
-      <c r="E53" s="113" t="s">
-        <v>519</v>
-      </c>
-      <c r="F53" s="94" t="s">
-        <v>525</v>
-      </c>
-      <c r="G53" s="114"/>
-      <c r="H53" s="91" t="s">
-        <v>529</v>
-      </c>
-      <c r="I53" s="115">
+      <c r="J53" s="52">
+        <v>43283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="52.8">
+      <c r="A54" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="29">
+        <v>8001265</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>565</v>
+      </c>
+      <c r="F54" s="64" t="s">
+        <v>562</v>
+      </c>
+      <c r="G54" s="58" t="s">
+        <v>567</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="I54" s="12">
         <v>43240</v>
       </c>
-      <c r="J53" s="12">
-        <v>43266</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="36.9">
-      <c r="A54" s="263"/>
-      <c r="B54" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="118" t="s">
-        <v>533</v>
-      </c>
-      <c r="E54" s="119" t="s">
-        <v>519</v>
-      </c>
-      <c r="F54" s="120" t="s">
-        <v>538</v>
-      </c>
-      <c r="G54" s="45"/>
-      <c r="H54" s="47" t="s">
-        <v>529</v>
-      </c>
-      <c r="I54" s="121">
+      <c r="J54" s="52">
+        <v>43284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="52.8">
+      <c r="A55" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="29">
+        <v>8001265</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>569</v>
+      </c>
+      <c r="F55" s="64" t="s">
+        <v>562</v>
+      </c>
+      <c r="G55" s="58" t="s">
+        <v>570</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="I55" s="12">
         <v>43240</v>
       </c>
-      <c r="J54" s="12">
-        <v>43266</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="72">
-      <c r="A55" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="B55" s="27" t="s">
+      <c r="J55" s="52">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="66">
+      <c r="A56" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>543</v>
-      </c>
-      <c r="F55" s="40" t="s">
-        <v>544</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="32" t="s">
-        <v>546</v>
-      </c>
-      <c r="J55" s="32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="24.6">
-      <c r="A56" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="122" t="s">
-        <v>547</v>
-      </c>
-      <c r="E56" s="40"/>
-      <c r="F56" s="80" t="s">
-        <v>169</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>549</v>
+      <c r="C56" s="29">
+        <v>8001265</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>573</v>
+      </c>
+      <c r="F56" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="G56" s="58" t="s">
+        <v>575</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>172</v>
+        <v>558</v>
       </c>
       <c r="I56" s="12">
-        <v>43196</v>
-      </c>
-      <c r="J56" s="32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="73.8">
-      <c r="A57" s="6" t="s">
+        <v>43240</v>
+      </c>
+      <c r="J56" s="52">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="52.8">
+      <c r="A57" s="8" t="s">
         <v>550</v>
       </c>
       <c r="B57" s="8" t="s">
@@ -10969,16 +11194,16 @@
         <v>8001265</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>552</v>
-      </c>
-      <c r="F57" s="64" t="s">
-        <v>553</v>
+        <v>577</v>
+      </c>
+      <c r="F57" s="33" t="s">
+        <v>578</v>
       </c>
       <c r="G57" s="58" t="s">
-        <v>557</v>
+        <v>579</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>558</v>
@@ -10987,10 +11212,10 @@
         <v>43240</v>
       </c>
       <c r="J57" s="52">
-        <v>43282</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="49.2">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="52.8">
       <c r="A58" s="8" t="s">
         <v>550</v>
       </c>
@@ -11001,16 +11226,16 @@
         <v>8001265</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="F58" s="64" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="G58" s="58" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>558</v>
@@ -11019,10 +11244,10 @@
         <v>43240</v>
       </c>
       <c r="J58" s="52">
-        <v>43283</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="49.2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="52.8">
       <c r="A59" s="8" t="s">
         <v>550</v>
       </c>
@@ -11033,16 +11258,16 @@
         <v>8001265</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>564</v>
+        <v>586</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>565</v>
+        <v>587</v>
       </c>
       <c r="F59" s="64" t="s">
-        <v>562</v>
+        <v>588</v>
       </c>
       <c r="G59" s="58" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>558</v>
@@ -11051,353 +11276,328 @@
         <v>43240</v>
       </c>
       <c r="J59" s="52">
-        <v>43284</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="49.2">
-      <c r="A60" s="8" t="s">
-        <v>550</v>
+        <v>43289</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="52.8">
+      <c r="A60" s="6" t="s">
+        <v>591</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="29">
-        <v>8001265</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>568</v>
+      <c r="C60" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="129" t="s">
+        <v>592</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="F60" s="64" t="s">
-        <v>562</v>
-      </c>
-      <c r="G60" s="58" t="s">
-        <v>570</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="G60" s="130"/>
       <c r="H60" s="8" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="I60" s="12">
         <v>43240</v>
       </c>
       <c r="J60" s="52">
-        <v>43285</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="61.5">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="26.4">
       <c r="A61" s="8" t="s">
-        <v>550</v>
+        <v>591</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C61" s="29">
-        <v>8001265</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>572</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>573</v>
+      <c r="C61" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="129" t="s">
+        <v>602</v>
+      </c>
+      <c r="E61" s="41" t="s">
+        <v>603</v>
       </c>
       <c r="F61" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="G61" s="58" t="s">
-        <v>575</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="G61" s="130"/>
       <c r="H61" s="8" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="I61" s="12">
         <v>43240</v>
       </c>
       <c r="J61" s="52">
-        <v>43286</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="49.2">
-      <c r="A62" s="8" t="s">
-        <v>550</v>
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="79.2">
+      <c r="A62" s="6" t="s">
+        <v>605</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="29">
-        <v>8001265</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>576</v>
+      <c r="C62" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="132" t="s">
+        <v>606</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>577</v>
-      </c>
-      <c r="F62" s="33" t="s">
-        <v>578</v>
-      </c>
-      <c r="G62" s="58" t="s">
-        <v>579</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>558</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="F62" s="64" t="s">
+        <v>613</v>
+      </c>
+      <c r="G62" s="64" t="s">
+        <v>614</v>
+      </c>
+      <c r="H62" s="9"/>
       <c r="I62" s="12">
         <v>43240</v>
       </c>
       <c r="J62" s="52">
-        <v>43287</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="49.2">
-      <c r="A63" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="B63" s="8" t="s">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="26.4">
+      <c r="A63" s="133" t="s">
+        <v>615</v>
+      </c>
+      <c r="B63" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="C63" s="29">
-        <v>8001265</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>581</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>582</v>
-      </c>
-      <c r="F63" s="64" t="s">
-        <v>583</v>
-      </c>
-      <c r="G63" s="58" t="s">
-        <v>585</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>558</v>
+      <c r="C63" s="135" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="136" t="s">
+        <v>618</v>
+      </c>
+      <c r="E63" s="137" t="s">
+        <v>619</v>
+      </c>
+      <c r="F63" s="138" t="s">
+        <v>624</v>
+      </c>
+      <c r="G63" s="138"/>
+      <c r="H63" s="134" t="s">
+        <v>637</v>
       </c>
       <c r="I63" s="12">
         <v>43240</v>
       </c>
-      <c r="J63" s="52">
-        <v>43288</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="49.2">
-      <c r="A64" s="8" t="s">
-        <v>550</v>
+      <c r="J63" s="12">
+        <v>43266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="52.8">
+      <c r="A64" s="6" t="s">
+        <v>640</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C64" s="29">
-        <v>8001265</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>586</v>
-      </c>
-      <c r="E64" s="31" t="s">
-        <v>587</v>
-      </c>
-      <c r="F64" s="64" t="s">
-        <v>588</v>
-      </c>
-      <c r="G64" s="58" t="s">
-        <v>590</v>
+        <v>151</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>643</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40" t="s">
+        <v>646</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>647</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>558</v>
+        <v>312</v>
       </c>
       <c r="I64" s="12">
-        <v>43240</v>
-      </c>
-      <c r="J64" s="52">
-        <v>43289</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="49.2">
+        <v>43210</v>
+      </c>
+      <c r="J64" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="57.6">
       <c r="A65" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="129" t="s">
-        <v>592</v>
-      </c>
-      <c r="E65" s="31" t="s">
-        <v>597</v>
-      </c>
-      <c r="F65" s="64" t="s">
-        <v>598</v>
-      </c>
-      <c r="G65" s="130"/>
+        <v>648</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>649</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="E65" s="85" t="s">
+        <v>651</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>653</v>
+      </c>
       <c r="H65" s="8" t="s">
-        <v>529</v>
+        <v>654</v>
       </c>
       <c r="I65" s="12">
-        <v>43240</v>
-      </c>
-      <c r="J65" s="52">
+        <v>43210</v>
+      </c>
+      <c r="J65" s="12">
+        <v>43266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="52.8">
+      <c r="A66" s="126" t="s">
+        <v>655</v>
+      </c>
+      <c r="B66" s="123" t="s">
+        <v>548</v>
+      </c>
+      <c r="C66" s="124"/>
+      <c r="D66" s="90" t="s">
+        <v>656</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>657</v>
+      </c>
+      <c r="F66" s="127" t="s">
+        <v>658</v>
+      </c>
+      <c r="G66" s="125" t="s">
+        <v>584</v>
+      </c>
+      <c r="I66" s="23">
+        <v>76138</v>
+      </c>
+      <c r="J66" s="139">
         <v>43282</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="24.6">
-      <c r="A66" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66" s="129" t="s">
-        <v>602</v>
-      </c>
-      <c r="E66" s="41" t="s">
-        <v>603</v>
-      </c>
-      <c r="F66" s="64" t="s">
-        <v>604</v>
-      </c>
-      <c r="G66" s="130"/>
-      <c r="H66" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="I66" s="12">
-        <v>43240</v>
-      </c>
-      <c r="J66" s="52">
-        <v>43282</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="73.8">
-      <c r="A67" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="132" t="s">
-        <v>606</v>
-      </c>
-      <c r="E67" s="31" t="s">
-        <v>612</v>
-      </c>
-      <c r="F67" s="64" t="s">
-        <v>613</v>
-      </c>
-      <c r="G67" s="64" t="s">
-        <v>614</v>
-      </c>
-      <c r="H67" s="9"/>
-      <c r="I67" s="12">
-        <v>43240</v>
-      </c>
-      <c r="J67" s="52">
-        <v>43282</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="24.6">
-      <c r="A68" s="133" t="s">
-        <v>615</v>
-      </c>
-      <c r="B68" s="134" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="135" t="s">
-        <v>22</v>
-      </c>
-      <c r="D68" s="136" t="s">
-        <v>618</v>
-      </c>
-      <c r="E68" s="137" t="s">
-        <v>619</v>
-      </c>
-      <c r="F68" s="138" t="s">
-        <v>624</v>
-      </c>
-      <c r="G68" s="138"/>
-      <c r="H68" s="134" t="s">
-        <v>637</v>
-      </c>
-      <c r="I68" s="12">
-        <v>43240</v>
-      </c>
-      <c r="J68" s="12">
-        <v>43266</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="49.2">
-      <c r="A69" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C69" s="35" t="s">
-        <v>643</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40" t="s">
-        <v>646</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="I69" s="12">
-        <v>43210</v>
-      </c>
-      <c r="J69" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="57.6">
-      <c r="A70" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="B70" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="C70" s="35" t="s">
-        <v>649</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>650</v>
-      </c>
-      <c r="E70" s="85" t="s">
-        <v>651</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="I70" s="12">
-        <v>43210</v>
-      </c>
-      <c r="J70" s="12">
-        <v>43266</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="49.2">
-      <c r="A71" s="126" t="s">
+    <row r="67" spans="1:10" ht="66">
+      <c r="A67" s="124" t="s">
+        <v>655</v>
+      </c>
+      <c r="B67" s="123" t="s">
+        <v>548</v>
+      </c>
+      <c r="C67" s="124"/>
+      <c r="D67" s="140" t="s">
+        <v>663</v>
+      </c>
+      <c r="E67" s="35" t="s">
+        <v>675</v>
+      </c>
+      <c r="F67" s="127" t="s">
+        <v>677</v>
+      </c>
+      <c r="G67" s="125" t="s">
+        <v>584</v>
+      </c>
+      <c r="I67" s="23">
+        <v>76138</v>
+      </c>
+      <c r="J67" s="139">
+        <v>43283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="43.2">
+      <c r="A68" s="124" t="s">
+        <v>655</v>
+      </c>
+      <c r="B68" s="123" t="s">
+        <v>548</v>
+      </c>
+      <c r="C68" s="124"/>
+      <c r="D68" s="90" t="s">
+        <v>679</v>
+      </c>
+      <c r="E68" s="35" t="s">
+        <v>680</v>
+      </c>
+      <c r="F68" s="127" t="s">
+        <v>681</v>
+      </c>
+      <c r="G68" s="125" t="s">
+        <v>584</v>
+      </c>
+      <c r="I68" s="23">
+        <v>76138</v>
+      </c>
+      <c r="J68" s="139">
+        <v>43284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="43.2">
+      <c r="A69" s="124" t="s">
+        <v>655</v>
+      </c>
+      <c r="B69" s="123" t="s">
+        <v>548</v>
+      </c>
+      <c r="C69" s="124"/>
+      <c r="D69" s="90" t="s">
+        <v>682</v>
+      </c>
+      <c r="E69" s="35" t="s">
+        <v>683</v>
+      </c>
+      <c r="F69" s="127" t="s">
+        <v>684</v>
+      </c>
+      <c r="G69" s="125" t="s">
+        <v>584</v>
+      </c>
+      <c r="I69" s="23">
+        <v>76138</v>
+      </c>
+      <c r="J69" s="139">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="43.2">
+      <c r="A70" s="124" t="s">
+        <v>655</v>
+      </c>
+      <c r="B70" s="123" t="s">
+        <v>548</v>
+      </c>
+      <c r="C70" s="124"/>
+      <c r="D70" s="90" t="s">
+        <v>685</v>
+      </c>
+      <c r="E70" s="35" t="s">
+        <v>683</v>
+      </c>
+      <c r="F70" s="127" t="s">
+        <v>686</v>
+      </c>
+      <c r="G70" s="125" t="s">
+        <v>584</v>
+      </c>
+      <c r="I70" s="23">
+        <v>76138</v>
+      </c>
+      <c r="J70" s="139">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="43.2">
+      <c r="A71" s="124" t="s">
         <v>655</v>
       </c>
       <c r="B71" s="123" t="s">
@@ -11405,13 +11605,13 @@
       </c>
       <c r="C71" s="124"/>
       <c r="D71" s="90" t="s">
-        <v>656</v>
+        <v>689</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>657</v>
+        <v>683</v>
       </c>
       <c r="F71" s="127" t="s">
-        <v>658</v>
+        <v>691</v>
       </c>
       <c r="G71" s="125" t="s">
         <v>584</v>
@@ -11420,10 +11620,10 @@
         <v>76138</v>
       </c>
       <c r="J71" s="139">
-        <v>43282</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="61.5">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="39.6">
       <c r="A72" s="124" t="s">
         <v>655</v>
       </c>
@@ -11431,14 +11631,14 @@
         <v>548</v>
       </c>
       <c r="C72" s="124"/>
-      <c r="D72" s="140" t="s">
-        <v>663</v>
+      <c r="D72" s="90" t="s">
+        <v>692</v>
       </c>
       <c r="E72" s="35" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="F72" s="127" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="G72" s="125" t="s">
         <v>584</v>
@@ -11447,25 +11647,25 @@
         <v>76138</v>
       </c>
       <c r="J72" s="139">
-        <v>43283</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="43.2">
-      <c r="A73" s="124" t="s">
-        <v>655</v>
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="57.6">
+      <c r="A73" s="126" t="s">
+        <v>695</v>
       </c>
       <c r="B73" s="123" t="s">
         <v>548</v>
       </c>
       <c r="C73" s="124"/>
       <c r="D73" s="90" t="s">
-        <v>679</v>
+        <v>696</v>
       </c>
       <c r="E73" s="35" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
       <c r="F73" s="127" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="G73" s="125" t="s">
         <v>584</v>
@@ -11474,542 +11674,547 @@
         <v>76138</v>
       </c>
       <c r="J73" s="139">
-        <v>43284</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="43.2">
+        <v>43289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="57.6">
       <c r="A74" s="124" t="s">
-        <v>655</v>
+        <v>695</v>
       </c>
       <c r="B74" s="123" t="s">
         <v>548</v>
       </c>
       <c r="C74" s="124"/>
       <c r="D74" s="90" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="F74" s="127" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
       <c r="G74" s="125" t="s">
         <v>584</v>
       </c>
+      <c r="H74" s="141"/>
       <c r="I74" s="23">
         <v>76138</v>
       </c>
       <c r="J74" s="139">
-        <v>43285</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="43.2">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="57.6">
       <c r="A75" s="124" t="s">
-        <v>655</v>
+        <v>695</v>
       </c>
       <c r="B75" s="123" t="s">
         <v>548</v>
       </c>
       <c r="C75" s="124"/>
       <c r="D75" s="90" t="s">
-        <v>685</v>
+        <v>702</v>
       </c>
       <c r="E75" s="35" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="F75" s="127" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="G75" s="125" t="s">
         <v>584</v>
       </c>
+      <c r="H75" s="141"/>
       <c r="I75" s="23">
         <v>76138</v>
       </c>
       <c r="J75" s="139">
-        <v>43286</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="43.2">
+        <v>43291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="57.6">
       <c r="A76" s="124" t="s">
-        <v>655</v>
+        <v>695</v>
       </c>
       <c r="B76" s="123" t="s">
         <v>548</v>
       </c>
       <c r="C76" s="124"/>
       <c r="D76" s="90" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="E76" s="35" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
       <c r="F76" s="127" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
       <c r="G76" s="125" t="s">
         <v>584</v>
       </c>
+      <c r="H76" s="141"/>
       <c r="I76" s="23">
         <v>76138</v>
       </c>
       <c r="J76" s="139">
-        <v>43287</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="43.2">
+        <v>43292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="57.6">
       <c r="A77" s="124" t="s">
-        <v>655</v>
+        <v>695</v>
       </c>
       <c r="B77" s="123" t="s">
         <v>548</v>
       </c>
       <c r="C77" s="124"/>
       <c r="D77" s="90" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>693</v>
+        <v>712</v>
       </c>
       <c r="F77" s="127" t="s">
-        <v>694</v>
+        <v>713</v>
       </c>
       <c r="G77" s="125" t="s">
         <v>584</v>
       </c>
+      <c r="H77" s="141"/>
       <c r="I77" s="23">
         <v>76138</v>
       </c>
       <c r="J77" s="139">
-        <v>43288</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="57.6">
+        <v>43293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="43.2">
       <c r="A78" s="126" t="s">
-        <v>695</v>
+        <v>716</v>
       </c>
       <c r="B78" s="123" t="s">
         <v>548</v>
       </c>
       <c r="C78" s="124"/>
       <c r="D78" s="90" t="s">
-        <v>696</v>
+        <v>717</v>
       </c>
       <c r="E78" s="35" t="s">
-        <v>697</v>
+        <v>719</v>
       </c>
       <c r="F78" s="127" t="s">
-        <v>698</v>
+        <v>720</v>
       </c>
       <c r="G78" s="125" t="s">
         <v>584</v>
       </c>
+      <c r="H78" s="142"/>
       <c r="I78" s="23">
         <v>76138</v>
       </c>
       <c r="J78" s="139">
-        <v>43289</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="57.6">
-      <c r="A79" s="124" t="s">
-        <v>695</v>
+        <v>43294</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="43.2">
+      <c r="A79" s="126" t="s">
+        <v>724</v>
       </c>
       <c r="B79" s="123" t="s">
         <v>548</v>
       </c>
       <c r="C79" s="124"/>
       <c r="D79" s="90" t="s">
-        <v>699</v>
+        <v>725</v>
       </c>
       <c r="E79" s="35" t="s">
-        <v>697</v>
+        <v>726</v>
       </c>
       <c r="F79" s="127" t="s">
-        <v>701</v>
+        <v>727</v>
       </c>
       <c r="G79" s="125" t="s">
         <v>584</v>
       </c>
-      <c r="H79" s="141"/>
+      <c r="H79" s="128"/>
       <c r="I79" s="23">
         <v>76138</v>
       </c>
       <c r="J79" s="139">
-        <v>43290</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="57.6">
-      <c r="A80" s="124" t="s">
-        <v>695</v>
+        <v>43295</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="79.2">
+      <c r="A80" s="126" t="s">
+        <v>566</v>
       </c>
       <c r="B80" s="123" t="s">
         <v>548</v>
       </c>
       <c r="C80" s="124"/>
       <c r="D80" s="90" t="s">
-        <v>702</v>
-      </c>
-      <c r="E80" s="35" t="s">
-        <v>697</v>
+        <v>728</v>
+      </c>
+      <c r="E80" s="144" t="s">
+        <v>729</v>
       </c>
       <c r="F80" s="127" t="s">
-        <v>703</v>
+        <v>731</v>
       </c>
       <c r="G80" s="125" t="s">
         <v>584</v>
       </c>
-      <c r="H80" s="141"/>
+      <c r="H80" s="128"/>
       <c r="I80" s="23">
         <v>76138</v>
       </c>
       <c r="J80" s="139">
-        <v>43291</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="57.6">
+        <v>43296</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="66">
       <c r="A81" s="124" t="s">
-        <v>695</v>
+        <v>566</v>
       </c>
       <c r="B81" s="123" t="s">
         <v>548</v>
       </c>
       <c r="C81" s="124"/>
       <c r="D81" s="90" t="s">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="E81" s="35" t="s">
-        <v>705</v>
+        <v>729</v>
       </c>
       <c r="F81" s="127" t="s">
-        <v>706</v>
+        <v>733</v>
       </c>
       <c r="G81" s="125" t="s">
         <v>584</v>
       </c>
-      <c r="H81" s="141"/>
+      <c r="H81" s="128"/>
       <c r="I81" s="23">
         <v>76138</v>
       </c>
       <c r="J81" s="139">
-        <v>43292</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="57.6">
+        <v>43297</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="66">
       <c r="A82" s="124" t="s">
-        <v>695</v>
+        <v>566</v>
       </c>
       <c r="B82" s="123" t="s">
         <v>548</v>
       </c>
       <c r="C82" s="124"/>
       <c r="D82" s="90" t="s">
-        <v>710</v>
+        <v>735</v>
       </c>
       <c r="E82" s="35" t="s">
-        <v>712</v>
+        <v>741</v>
       </c>
       <c r="F82" s="127" t="s">
-        <v>713</v>
+        <v>743</v>
       </c>
       <c r="G82" s="125" t="s">
         <v>584</v>
       </c>
-      <c r="H82" s="141"/>
       <c r="I82" s="23">
         <v>76138</v>
       </c>
       <c r="J82" s="139">
-        <v>43293</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="43.2">
-      <c r="A83" s="126" t="s">
-        <v>716</v>
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="57.6">
+      <c r="A83" s="124" t="s">
+        <v>566</v>
       </c>
       <c r="B83" s="123" t="s">
         <v>548</v>
       </c>
       <c r="C83" s="124"/>
-      <c r="D83" s="90" t="s">
-        <v>717</v>
+      <c r="D83" s="145" t="s">
+        <v>745</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>719</v>
+        <v>741</v>
       </c>
       <c r="F83" s="127" t="s">
-        <v>720</v>
+        <v>752</v>
       </c>
       <c r="G83" s="125" t="s">
         <v>584</v>
       </c>
-      <c r="H83" s="142"/>
       <c r="I83" s="23">
         <v>76138</v>
       </c>
       <c r="J83" s="139">
-        <v>43294</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="43.2">
+        <v>43299</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="28.8">
       <c r="A84" s="126" t="s">
-        <v>724</v>
+        <v>753</v>
       </c>
       <c r="B84" s="123" t="s">
         <v>548</v>
       </c>
       <c r="C84" s="124"/>
       <c r="D84" s="90" t="s">
-        <v>725</v>
+        <v>754</v>
       </c>
       <c r="E84" s="35" t="s">
-        <v>726</v>
+        <v>755</v>
       </c>
       <c r="F84" s="127" t="s">
-        <v>727</v>
+        <v>756</v>
       </c>
       <c r="G84" s="125" t="s">
         <v>584</v>
       </c>
-      <c r="H84" s="128"/>
+      <c r="H84" s="141"/>
       <c r="I84" s="23">
         <v>76138</v>
       </c>
       <c r="J84" s="139">
-        <v>43295</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="61.5">
-      <c r="A85" s="126" t="s">
-        <v>566</v>
-      </c>
-      <c r="B85" s="123" t="s">
-        <v>548</v>
-      </c>
-      <c r="C85" s="124"/>
-      <c r="D85" s="90" t="s">
-        <v>728</v>
-      </c>
-      <c r="E85" s="144" t="s">
-        <v>729</v>
-      </c>
-      <c r="F85" s="127" t="s">
-        <v>731</v>
-      </c>
-      <c r="G85" s="125" t="s">
-        <v>584</v>
-      </c>
-      <c r="H85" s="128"/>
-      <c r="I85" s="23">
-        <v>76138</v>
-      </c>
-      <c r="J85" s="139">
-        <v>43296</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="57.6">
-      <c r="A86" s="124" t="s">
-        <v>566</v>
-      </c>
-      <c r="B86" s="123" t="s">
-        <v>548</v>
-      </c>
-      <c r="C86" s="124"/>
-      <c r="D86" s="90" t="s">
-        <v>732</v>
-      </c>
-      <c r="E86" s="35" t="s">
-        <v>729</v>
-      </c>
-      <c r="F86" s="127" t="s">
-        <v>733</v>
-      </c>
-      <c r="G86" s="125" t="s">
-        <v>584</v>
-      </c>
-      <c r="H86" s="128"/>
-      <c r="I86" s="23">
-        <v>76138</v>
-      </c>
-      <c r="J86" s="139">
-        <v>43297</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="61.5">
-      <c r="A87" s="124" t="s">
-        <v>566</v>
-      </c>
-      <c r="B87" s="123" t="s">
-        <v>548</v>
-      </c>
-      <c r="C87" s="124"/>
-      <c r="D87" s="90" t="s">
-        <v>735</v>
-      </c>
-      <c r="E87" s="35" t="s">
-        <v>741</v>
-      </c>
-      <c r="F87" s="127" t="s">
-        <v>743</v>
-      </c>
-      <c r="G87" s="125" t="s">
-        <v>584</v>
-      </c>
-      <c r="I87" s="23">
-        <v>76138</v>
-      </c>
-      <c r="J87" s="139">
-        <v>43298</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="57.6">
-      <c r="A88" s="124" t="s">
-        <v>566</v>
-      </c>
-      <c r="B88" s="123" t="s">
-        <v>548</v>
-      </c>
-      <c r="C88" s="124"/>
-      <c r="D88" s="145" t="s">
-        <v>745</v>
-      </c>
-      <c r="E88" s="35" t="s">
-        <v>741</v>
-      </c>
-      <c r="F88" s="127" t="s">
-        <v>752</v>
-      </c>
-      <c r="G88" s="125" t="s">
-        <v>584</v>
-      </c>
-      <c r="I88" s="23">
-        <v>76138</v>
-      </c>
-      <c r="J88" s="139">
-        <v>43299</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="28.8">
-      <c r="A89" s="126" t="s">
-        <v>753</v>
-      </c>
-      <c r="B89" s="123" t="s">
-        <v>548</v>
-      </c>
-      <c r="C89" s="124"/>
-      <c r="D89" s="90" t="s">
-        <v>754</v>
-      </c>
-      <c r="E89" s="35" t="s">
-        <v>755</v>
-      </c>
-      <c r="F89" s="127" t="s">
-        <v>756</v>
-      </c>
-      <c r="G89" s="125" t="s">
-        <v>584</v>
-      </c>
-      <c r="H89" s="141"/>
-      <c r="I89" s="23">
-        <v>76138</v>
-      </c>
-      <c r="J89" s="139">
         <v>43300</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="49.2">
-      <c r="A90" s="8" t="s">
+    <row r="85" spans="1:10" ht="52.8">
+      <c r="A85" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="B90" s="27" t="s">
+      <c r="B85" s="27" t="s">
         <v>758</v>
       </c>
-      <c r="C90" s="37" t="s">
+      <c r="C85" s="37" t="s">
         <v>759</v>
       </c>
-      <c r="D90" s="73" t="s">
+      <c r="D85" s="73" t="s">
         <v>760</v>
       </c>
-      <c r="E90" s="30" t="s">
+      <c r="E85" s="30" t="s">
         <v>761</v>
       </c>
+      <c r="F85" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="H85" s="8"/>
+      <c r="I85" s="12">
+        <v>43264</v>
+      </c>
+      <c r="J85" s="32" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="52.8">
+      <c r="A86" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="13">
+        <v>8001143</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="E86" s="9"/>
+      <c r="F86" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="I86" s="12">
+        <v>43196</v>
+      </c>
+      <c r="J86" s="12">
+        <v>43208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="118.8">
+      <c r="A87" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="C87" s="13">
+        <v>8001107</v>
+      </c>
+      <c r="D87" s="146" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="9"/>
+      <c r="F87" s="20" t="s">
+        <v>780</v>
+      </c>
+      <c r="G87" s="22" t="s">
+        <v>784</v>
+      </c>
+      <c r="H87" s="8"/>
+      <c r="I87" s="12">
+        <v>43196</v>
+      </c>
+      <c r="J87" s="52">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="39.6">
+      <c r="A88" s="261" t="s">
+        <v>785</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="147" t="s">
+        <v>786</v>
+      </c>
+      <c r="E88" s="101" t="s">
+        <v>790</v>
+      </c>
+      <c r="F88" s="20" t="s">
+        <v>791</v>
+      </c>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I88" s="12">
+        <v>43240</v>
+      </c>
+      <c r="J88" s="12">
+        <v>43256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="39.6">
+      <c r="A89" s="260"/>
+      <c r="B89" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="147" t="s">
+        <v>792</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="F89" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I89" s="12">
+        <v>43240</v>
+      </c>
+      <c r="J89" s="12">
+        <v>43256</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="39.6">
+      <c r="A90" s="260"/>
+      <c r="B90" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="147" t="s">
+        <v>795</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>796</v>
+      </c>
       <c r="F90" s="20" t="s">
-        <v>762</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="H90" s="8"/>
+        <v>797</v>
+      </c>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="I90" s="12">
-        <v>43264</v>
-      </c>
-      <c r="J90" s="32" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="49.2">
-      <c r="A91" s="6" t="s">
-        <v>766</v>
-      </c>
+        <v>43240</v>
+      </c>
+      <c r="J90" s="12">
+        <v>43256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="39.6">
+      <c r="A91" s="260"/>
       <c r="B91" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C91" s="13">
-        <v>8001143</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>767</v>
-      </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="8" t="s">
-        <v>768</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>770</v>
+        <v>45</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="147" t="s">
+        <v>799</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="F91" s="20" t="s">
+        <v>801</v>
+      </c>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="I91" s="12">
-        <v>43196</v>
+        <v>43240</v>
       </c>
       <c r="J91" s="12">
-        <v>43208</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="110.7">
-      <c r="A92" s="6" t="s">
-        <v>771</v>
-      </c>
+        <v>43256</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="39.6">
+      <c r="A92" s="260"/>
       <c r="B92" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="C92" s="13">
-        <v>8001107</v>
-      </c>
-      <c r="D92" s="146" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="C92" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="147" t="s">
+        <v>802</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>803</v>
+      </c>
       <c r="F92" s="20" t="s">
-        <v>780</v>
-      </c>
-      <c r="G92" s="22" t="s">
-        <v>784</v>
-      </c>
-      <c r="H92" s="8"/>
+        <v>804</v>
+      </c>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="I92" s="12">
-        <v>43196</v>
-      </c>
-      <c r="J92" s="52">
-        <v>43282</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="36.9">
-      <c r="A93" s="261" t="s">
-        <v>785</v>
-      </c>
+        <v>43240</v>
+      </c>
+      <c r="J92" s="12">
+        <v>43256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="39.6">
+      <c r="A93" s="260"/>
       <c r="B93" s="8" t="s">
         <v>45</v>
       </c>
@@ -12017,13 +12222,13 @@
         <v>22</v>
       </c>
       <c r="D93" s="147" t="s">
-        <v>786</v>
-      </c>
-      <c r="E93" s="101" t="s">
-        <v>790</v>
+        <v>805</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>806</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>791</v>
+        <v>807</v>
       </c>
       <c r="G93" s="8"/>
       <c r="H93" s="8" t="s">
@@ -12036,8 +12241,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="36.9">
-      <c r="A94" s="259"/>
+    <row r="94" spans="1:10" ht="39.6">
+      <c r="A94" s="260"/>
       <c r="B94" s="8" t="s">
         <v>45</v>
       </c>
@@ -12045,13 +12250,13 @@
         <v>22</v>
       </c>
       <c r="D94" s="147" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>794</v>
+        <v>810</v>
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="8" t="s">
@@ -12064,22 +12269,22 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="36.9">
-      <c r="A95" s="259"/>
+    <row r="95" spans="1:10" ht="39.6">
+      <c r="A95" s="260"/>
       <c r="B95" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C95" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D95" s="147" t="s">
-        <v>795</v>
+      <c r="D95" s="148" t="s">
+        <v>814</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>796</v>
+        <v>816</v>
       </c>
       <c r="F95" s="20" t="s">
-        <v>797</v>
+        <v>817</v>
       </c>
       <c r="G95" s="8"/>
       <c r="H95" s="8" t="s">
@@ -12092,489 +12297,484 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="36.9">
-      <c r="A96" s="259"/>
+    <row r="96" spans="1:10" ht="26.4">
+      <c r="A96" s="6" t="s">
+        <v>818</v>
+      </c>
       <c r="B96" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C96" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D96" s="147" t="s">
-        <v>799</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>800</v>
+      <c r="D96" s="149" t="s">
+        <v>819</v>
+      </c>
+      <c r="E96" s="22" t="s">
+        <v>826</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>801</v>
-      </c>
-      <c r="G96" s="8"/>
+        <v>827</v>
+      </c>
+      <c r="G96" s="32" t="s">
+        <v>828</v>
+      </c>
       <c r="H96" s="8" t="s">
-        <v>83</v>
+        <v>829</v>
       </c>
       <c r="I96" s="12">
         <v>43240</v>
       </c>
-      <c r="J96" s="12">
-        <v>43256</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="24.6">
-      <c r="A97" s="259"/>
+      <c r="J96" s="52">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="52.8">
+      <c r="A97" s="6" t="s">
+        <v>839</v>
+      </c>
       <c r="B97" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C97" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D97" s="147" t="s">
-        <v>802</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>803</v>
-      </c>
-      <c r="F97" s="20" t="s">
-        <v>804</v>
+        <v>151</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>840</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>842</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>845</v>
       </c>
       <c r="G97" s="8"/>
       <c r="H97" s="8" t="s">
-        <v>83</v>
+        <v>846</v>
       </c>
       <c r="I97" s="12">
-        <v>43240</v>
+        <v>43210</v>
       </c>
       <c r="J97" s="12">
-        <v>43256</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="24.6">
-      <c r="A98" s="259"/>
+        <v>43236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="39.6">
+      <c r="A98" s="6" t="s">
+        <v>847</v>
+      </c>
       <c r="B98" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C98" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D98" s="147" t="s">
-        <v>805</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>806</v>
-      </c>
-      <c r="F98" s="20" t="s">
-        <v>807</v>
+        <v>848</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="150" t="s">
+        <v>849</v>
+      </c>
+      <c r="E98" s="9"/>
+      <c r="F98" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="G98" s="8"/>
       <c r="H98" s="8" t="s">
-        <v>83</v>
+        <v>312</v>
       </c>
       <c r="I98" s="12">
+        <v>43210</v>
+      </c>
+      <c r="J98" s="12">
+        <v>43266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="100.8">
+      <c r="A99" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C99" s="13">
+        <v>8001106</v>
+      </c>
+      <c r="D99" s="143" t="s">
+        <v>855</v>
+      </c>
+      <c r="E99" s="30" t="s">
+        <v>856</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>859</v>
+      </c>
+      <c r="G99" s="9"/>
+      <c r="H99" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="I99" s="12">
+        <v>43210</v>
+      </c>
+      <c r="J99" s="12">
+        <v>43236</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="43.2">
+      <c r="A100" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="E100" s="110" t="s">
+        <v>867</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="G100" s="9"/>
+      <c r="H100" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="I100" s="12">
+        <v>43210</v>
+      </c>
+      <c r="J100" s="12">
+        <v>43236</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="72">
+      <c r="A101" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="B101" s="151" t="s">
+        <v>151</v>
+      </c>
+      <c r="C101" s="152">
+        <v>8000823</v>
+      </c>
+      <c r="D101" s="153" t="s">
+        <v>730</v>
+      </c>
+      <c r="E101" s="154" t="s">
+        <v>734</v>
+      </c>
+      <c r="F101" s="155" t="s">
+        <v>736</v>
+      </c>
+      <c r="G101" s="156" t="s">
+        <v>871</v>
+      </c>
+      <c r="H101" s="19" t="s">
+        <v>738</v>
+      </c>
+      <c r="I101" s="157">
+        <v>43196</v>
+      </c>
+      <c r="J101" s="158"/>
+    </row>
+    <row r="102" spans="1:10" ht="72">
+      <c r="A102" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="B102" s="151" t="s">
+        <v>151</v>
+      </c>
+      <c r="C102" s="152"/>
+      <c r="D102" s="159" t="s">
+        <v>746</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="F102" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="G102" s="28" t="s">
+        <v>886</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="I102" s="157">
+        <v>43196</v>
+      </c>
+      <c r="J102" s="158"/>
+    </row>
+    <row r="103" spans="1:10" ht="72">
+      <c r="A103" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="B103" s="78" t="s">
+        <v>888</v>
+      </c>
+      <c r="C103" s="143"/>
+      <c r="D103" s="116"/>
+      <c r="E103" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="F103" s="82" t="s">
+        <v>889</v>
+      </c>
+      <c r="G103" s="28" t="s">
+        <v>890</v>
+      </c>
+      <c r="H103" s="8"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="52">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="66">
+      <c r="A104" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" s="161">
+        <v>2296810</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>900</v>
+      </c>
+      <c r="F104" s="20" t="s">
+        <v>901</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="H104" s="8"/>
+      <c r="I104" s="12">
         <v>43240</v>
       </c>
-      <c r="J98" s="12">
-        <v>43256</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="36.9">
-      <c r="A99" s="259"/>
-      <c r="B99" s="8" t="s">
+      <c r="J104" s="52">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="66">
+      <c r="A105" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C99" s="29" t="s">
+      <c r="C105" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D99" s="147" t="s">
-        <v>808</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="F99" s="20" t="s">
-        <v>810</v>
-      </c>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I99" s="12">
+      <c r="D105" s="161">
+        <v>2425629</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>903</v>
+      </c>
+      <c r="F105" s="20" t="s">
+        <v>904</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="H105" s="8"/>
+      <c r="I105" s="12">
         <v>43240</v>
       </c>
-      <c r="J99" s="12">
-        <v>43256</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="36.9">
-      <c r="A100" s="259"/>
-      <c r="B100" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C100" s="29" t="s">
+      <c r="J105" s="52">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="28.8">
+      <c r="A106" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="B106" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C106" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D100" s="148" t="s">
-        <v>814</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>816</v>
-      </c>
-      <c r="F100" s="20" t="s">
-        <v>817</v>
-      </c>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I100" s="12">
-        <v>43240</v>
-      </c>
-      <c r="J100" s="12">
-        <v>43256</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="24.6">
-      <c r="A101" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C101" s="29" t="s">
+      <c r="D106" s="96" t="s">
+        <v>907</v>
+      </c>
+      <c r="E106" s="13"/>
+      <c r="F106" s="40" t="s">
+        <v>908</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="I106" s="12">
+        <v>43270</v>
+      </c>
+      <c r="J106" s="52">
+        <v>43283</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="28.8">
+      <c r="A107" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="B107" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C107" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D101" s="149" t="s">
-        <v>819</v>
-      </c>
-      <c r="E101" s="22" t="s">
-        <v>826</v>
-      </c>
-      <c r="F101" s="20" t="s">
-        <v>827</v>
-      </c>
-      <c r="G101" s="32" t="s">
-        <v>828</v>
-      </c>
-      <c r="H101" s="8" t="s">
-        <v>829</v>
-      </c>
-      <c r="I101" s="12">
-        <v>43240</v>
-      </c>
-      <c r="J101" s="52">
-        <v>43282</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="36.9">
-      <c r="A102" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>832</v>
-      </c>
-      <c r="D102" s="116" t="s">
-        <v>833</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>834</v>
-      </c>
-      <c r="F102" s="32" t="s">
-        <v>835</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>836</v>
-      </c>
-      <c r="H102" s="9"/>
-      <c r="I102" s="12">
-        <v>43240</v>
-      </c>
-      <c r="J102" s="11" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="49.2">
-      <c r="A103" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>840</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>841</v>
-      </c>
-      <c r="E103" s="13" t="s">
-        <v>842</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="I103" s="12">
-        <v>43210</v>
-      </c>
-      <c r="J103" s="12">
-        <v>43236</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="36.9">
-      <c r="A104" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>848</v>
-      </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="150" t="s">
-        <v>849</v>
-      </c>
-      <c r="E104" s="9"/>
-      <c r="F104" s="8" t="s">
-        <v>853</v>
-      </c>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="I104" s="12">
-        <v>43210</v>
-      </c>
-      <c r="J104" s="12">
-        <v>43266</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="100.8">
-      <c r="A105" s="6" t="s">
-        <v>854</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C105" s="13">
-        <v>8001106</v>
-      </c>
-      <c r="D105" s="143" t="s">
-        <v>855</v>
-      </c>
-      <c r="E105" s="30" t="s">
-        <v>856</v>
-      </c>
-      <c r="F105" s="30" t="s">
-        <v>859</v>
-      </c>
-      <c r="G105" s="9"/>
-      <c r="H105" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="I105" s="12">
-        <v>43210</v>
-      </c>
-      <c r="J105" s="12">
-        <v>43236</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="43.2">
-      <c r="A106" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>865</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>866</v>
-      </c>
-      <c r="E106" s="110" t="s">
-        <v>867</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>868</v>
-      </c>
-      <c r="G106" s="9"/>
-      <c r="H106" s="8" t="s">
-        <v>869</v>
-      </c>
-      <c r="I106" s="12">
-        <v>43210</v>
-      </c>
-      <c r="J106" s="12">
-        <v>43236</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="72">
-      <c r="A107" s="17" t="s">
-        <v>723</v>
-      </c>
-      <c r="B107" s="151" t="s">
-        <v>151</v>
-      </c>
-      <c r="C107" s="152">
-        <v>8000823</v>
-      </c>
-      <c r="D107" s="153" t="s">
-        <v>730</v>
-      </c>
-      <c r="E107" s="154" t="s">
-        <v>734</v>
-      </c>
-      <c r="F107" s="155" t="s">
-        <v>736</v>
-      </c>
-      <c r="G107" s="156" t="s">
-        <v>871</v>
-      </c>
-      <c r="H107" s="19" t="s">
-        <v>738</v>
-      </c>
-      <c r="I107" s="157">
-        <v>43196</v>
-      </c>
-      <c r="J107" s="158"/>
-    </row>
-    <row r="108" spans="1:10" ht="72">
-      <c r="A108" s="19" t="s">
-        <v>723</v>
-      </c>
-      <c r="B108" s="151" t="s">
-        <v>151</v>
-      </c>
-      <c r="C108" s="152"/>
-      <c r="D108" s="159" t="s">
-        <v>746</v>
-      </c>
-      <c r="E108" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="F108" s="19" t="s">
-        <v>748</v>
-      </c>
-      <c r="G108" s="28" t="s">
-        <v>886</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="157">
-        <v>43196</v>
-      </c>
-      <c r="J108" s="158"/>
-    </row>
-    <row r="109" spans="1:10" ht="72">
+      <c r="D107" s="96" t="s">
+        <v>911</v>
+      </c>
+      <c r="E107" s="13"/>
+      <c r="F107" s="40" t="s">
+        <v>912</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="H107" s="9"/>
+      <c r="I107" s="12">
+        <v>43270</v>
+      </c>
+      <c r="J107" s="52">
+        <v>43284</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="28.8">
+      <c r="A108" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="B108" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="E108" s="13"/>
+      <c r="F108" s="40" t="s">
+        <v>915</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="H108" s="9"/>
+      <c r="I108" s="12">
+        <v>43270</v>
+      </c>
+      <c r="J108" s="52">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="28.8">
       <c r="A109" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="B109" s="78" t="s">
-        <v>888</v>
-      </c>
-      <c r="C109" s="143"/>
-      <c r="D109" s="116"/>
-      <c r="E109" s="30" t="s">
-        <v>478</v>
-      </c>
-      <c r="F109" s="82" t="s">
-        <v>889</v>
-      </c>
-      <c r="G109" s="28" t="s">
-        <v>890</v>
-      </c>
-      <c r="H109" s="8"/>
-      <c r="I109" s="12"/>
+        <v>906</v>
+      </c>
+      <c r="B109" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" s="96" t="s">
+        <v>916</v>
+      </c>
+      <c r="E109" s="13"/>
+      <c r="F109" s="40" t="s">
+        <v>917</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="H109" s="9"/>
+      <c r="I109" s="12">
+        <v>43270</v>
+      </c>
       <c r="J109" s="52">
-        <v>43282</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="49.2">
-      <c r="A110" s="53" t="s">
-        <v>750</v>
-      </c>
-      <c r="B110" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="C110" s="8" t="s">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="28.8">
+      <c r="A110" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="B110" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C110" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D110" s="160" t="s">
-        <v>891</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>894</v>
-      </c>
-      <c r="F110" s="20" t="s">
-        <v>895</v>
-      </c>
-      <c r="G110" s="58" t="s">
-        <v>896</v>
-      </c>
-      <c r="H110" s="8" t="s">
-        <v>897</v>
-      </c>
+      <c r="D110" s="96" t="s">
+        <v>918</v>
+      </c>
+      <c r="E110" s="13"/>
+      <c r="F110" s="40" t="s">
+        <v>919</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="H110" s="9"/>
       <c r="I110" s="12">
-        <v>43250</v>
-      </c>
-      <c r="J110" s="36"/>
-    </row>
-    <row r="111" spans="1:10" ht="61.5">
+        <v>43270</v>
+      </c>
+      <c r="J110" s="52">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="28.8">
       <c r="A111" s="6" t="s">
-        <v>898</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C111" s="29" t="s">
+        <v>906</v>
+      </c>
+      <c r="B111" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C111" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D111" s="161">
-        <v>2296810</v>
-      </c>
-      <c r="E111" s="13" t="s">
-        <v>900</v>
-      </c>
-      <c r="F111" s="20" t="s">
-        <v>901</v>
+      <c r="D111" s="162" t="s">
+        <v>920</v>
+      </c>
+      <c r="E111" s="13"/>
+      <c r="F111" s="40" t="s">
+        <v>921</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>902</v>
-      </c>
-      <c r="H111" s="8"/>
+        <v>913</v>
+      </c>
+      <c r="H111" s="9"/>
       <c r="I111" s="12">
-        <v>43240</v>
+        <v>43270</v>
       </c>
       <c r="J111" s="52">
-        <v>43282</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="61.5">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="28.8">
       <c r="A112" s="6" t="s">
-        <v>898</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C112" s="29" t="s">
+        <v>906</v>
+      </c>
+      <c r="B112" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C112" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D112" s="161">
-        <v>2425629</v>
-      </c>
-      <c r="E112" s="13" t="s">
-        <v>903</v>
-      </c>
-      <c r="F112" s="20" t="s">
-        <v>904</v>
+      <c r="D112" s="163" t="s">
+        <v>922</v>
+      </c>
+      <c r="E112" s="13"/>
+      <c r="F112" s="40" t="s">
+        <v>923</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>905</v>
-      </c>
-      <c r="H112" s="8"/>
+        <v>913</v>
+      </c>
+      <c r="H112" s="9"/>
       <c r="I112" s="12">
-        <v>43240</v>
+        <v>43270</v>
       </c>
       <c r="J112" s="52">
-        <v>43282</v>
+        <v>43289</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="28.8">
@@ -12587,21 +12787,22 @@
       <c r="C113" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D113" s="96" t="s">
-        <v>907</v>
+      <c r="D113" s="164" t="s">
+        <v>924</v>
       </c>
       <c r="E113" s="13"/>
-      <c r="F113" s="40" t="s">
-        <v>908</v>
+      <c r="F113" s="165" t="s">
+        <v>925</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>909</v>
-      </c>
+        <v>913</v>
+      </c>
+      <c r="H113" s="9"/>
       <c r="I113" s="12">
         <v>43270</v>
       </c>
       <c r="J113" s="52">
-        <v>43283</v>
+        <v>43290</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="28.8">
@@ -12614,12 +12815,12 @@
       <c r="C114" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D114" s="96" t="s">
-        <v>911</v>
+      <c r="D114" s="166" t="s">
+        <v>926</v>
       </c>
       <c r="E114" s="13"/>
-      <c r="F114" s="40" t="s">
-        <v>912</v>
+      <c r="F114" s="167" t="s">
+        <v>927</v>
       </c>
       <c r="G114" s="8" t="s">
         <v>913</v>
@@ -12629,7 +12830,7 @@
         <v>43270</v>
       </c>
       <c r="J114" s="52">
-        <v>43284</v>
+        <v>43291</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="28.8">
@@ -12643,11 +12844,11 @@
         <v>22</v>
       </c>
       <c r="D115" s="96" t="s">
-        <v>914</v>
+        <v>928</v>
       </c>
       <c r="E115" s="13"/>
-      <c r="F115" s="40" t="s">
-        <v>915</v>
+      <c r="F115" s="167" t="s">
+        <v>929</v>
       </c>
       <c r="G115" s="8" t="s">
         <v>913</v>
@@ -12657,7 +12858,7 @@
         <v>43270</v>
       </c>
       <c r="J115" s="52">
-        <v>43285</v>
+        <v>43292</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="28.8">
@@ -12670,12 +12871,12 @@
       <c r="C116" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D116" s="96" t="s">
-        <v>916</v>
+      <c r="D116" s="164" t="s">
+        <v>930</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="40" t="s">
-        <v>917</v>
+        <v>931</v>
       </c>
       <c r="G116" s="8" t="s">
         <v>913</v>
@@ -12685,68 +12886,72 @@
         <v>43270</v>
       </c>
       <c r="J116" s="52">
-        <v>43286</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="28.8">
+        <v>43293</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="118.8">
       <c r="A117" s="6" t="s">
-        <v>906</v>
-      </c>
-      <c r="B117" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C117" s="30" t="s">
+        <v>932</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C117" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D117" s="96" t="s">
-        <v>918</v>
-      </c>
-      <c r="E117" s="13"/>
-      <c r="F117" s="40" t="s">
-        <v>919</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>913</v>
-      </c>
-      <c r="H117" s="9"/>
+      <c r="D117" s="149" t="s">
+        <v>933</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>934</v>
+      </c>
+      <c r="F117" s="20" t="s">
+        <v>935</v>
+      </c>
+      <c r="G117" s="131" t="s">
+        <v>936</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>937</v>
+      </c>
       <c r="I117" s="12">
-        <v>43270</v>
+        <v>43240</v>
       </c>
       <c r="J117" s="52">
-        <v>43287</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="28.8">
+        <v>43294</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="26.4">
       <c r="A118" s="6" t="s">
-        <v>906</v>
-      </c>
-      <c r="B118" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C118" s="30" t="s">
+        <v>932</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D118" s="162" t="s">
-        <v>920</v>
-      </c>
-      <c r="E118" s="13"/>
-      <c r="F118" s="40" t="s">
-        <v>921</v>
-      </c>
+      <c r="D118" s="149" t="s">
+        <v>938</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>939</v>
+      </c>
+      <c r="F118" s="20"/>
       <c r="G118" s="8" t="s">
-        <v>913</v>
+        <v>940</v>
       </c>
       <c r="H118" s="9"/>
       <c r="I118" s="12">
-        <v>43270</v>
+        <v>43240</v>
       </c>
       <c r="J118" s="52">
-        <v>43288</v>
+        <v>43295</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="28.8">
       <c r="A119" s="6" t="s">
-        <v>906</v>
+        <v>941</v>
       </c>
       <c r="B119" s="27" t="s">
         <v>77</v>
@@ -12754,27 +12959,25 @@
       <c r="C119" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D119" s="163" t="s">
-        <v>922</v>
-      </c>
+      <c r="D119" s="13"/>
       <c r="E119" s="13"/>
       <c r="F119" s="40" t="s">
-        <v>923</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>913</v>
+        <v>942</v>
+      </c>
+      <c r="G119" s="125" t="s">
+        <v>166</v>
       </c>
       <c r="H119" s="9"/>
       <c r="I119" s="12">
-        <v>43270</v>
+        <v>43276</v>
       </c>
       <c r="J119" s="52">
-        <v>43289</v>
+        <v>43296</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="28.8">
       <c r="A120" s="6" t="s">
-        <v>906</v>
+        <v>943</v>
       </c>
       <c r="B120" s="27" t="s">
         <v>77</v>
@@ -12782,12 +12985,12 @@
       <c r="C120" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D120" s="164" t="s">
-        <v>924</v>
+      <c r="D120" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="E120" s="13"/>
-      <c r="F120" s="165" t="s">
-        <v>925</v>
+      <c r="F120" s="40" t="s">
+        <v>944</v>
       </c>
       <c r="G120" s="8" t="s">
         <v>913</v>
@@ -12797,307 +13000,109 @@
         <v>43270</v>
       </c>
       <c r="J120" s="52">
-        <v>43290</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="28.8">
-      <c r="A121" s="6" t="s">
-        <v>906</v>
-      </c>
-      <c r="B121" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C121" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D121" s="166" t="s">
-        <v>926</v>
-      </c>
-      <c r="E121" s="13"/>
-      <c r="F121" s="167" t="s">
-        <v>927</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>913</v>
-      </c>
-      <c r="H121" s="9"/>
-      <c r="I121" s="12">
-        <v>43270</v>
-      </c>
-      <c r="J121" s="52">
-        <v>43291</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="28.8">
-      <c r="A122" s="6" t="s">
-        <v>906</v>
-      </c>
-      <c r="B122" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C122" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D122" s="96" t="s">
-        <v>928</v>
-      </c>
-      <c r="E122" s="13"/>
-      <c r="F122" s="167" t="s">
-        <v>929</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>913</v>
-      </c>
-      <c r="H122" s="9"/>
-      <c r="I122" s="12">
-        <v>43270</v>
-      </c>
-      <c r="J122" s="52">
-        <v>43292</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="28.8">
-      <c r="A123" s="6" t="s">
-        <v>906</v>
-      </c>
-      <c r="B123" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C123" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D123" s="164" t="s">
-        <v>930</v>
-      </c>
-      <c r="E123" s="13"/>
-      <c r="F123" s="40" t="s">
-        <v>931</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>913</v>
-      </c>
-      <c r="H123" s="9"/>
-      <c r="I123" s="12">
-        <v>43270</v>
-      </c>
-      <c r="J123" s="52">
-        <v>43293</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="98.4">
-      <c r="A124" s="6" t="s">
-        <v>932</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C124" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D124" s="149" t="s">
-        <v>933</v>
-      </c>
-      <c r="E124" s="22" t="s">
-        <v>934</v>
-      </c>
-      <c r="F124" s="20" t="s">
-        <v>935</v>
-      </c>
-      <c r="G124" s="131" t="s">
-        <v>936</v>
-      </c>
-      <c r="H124" s="8" t="s">
-        <v>937</v>
-      </c>
-      <c r="I124" s="12">
-        <v>43240</v>
-      </c>
-      <c r="J124" s="52">
-        <v>43294</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="24.6">
-      <c r="A125" s="6" t="s">
-        <v>932</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C125" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D125" s="149" t="s">
-        <v>938</v>
-      </c>
-      <c r="E125" s="22" t="s">
-        <v>939</v>
-      </c>
-      <c r="F125" s="20"/>
-      <c r="G125" s="8" t="s">
-        <v>940</v>
-      </c>
-      <c r="H125" s="9"/>
-      <c r="I125" s="12">
-        <v>43240</v>
-      </c>
-      <c r="J125" s="52">
-        <v>43295</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="28.8">
-      <c r="A126" s="6" t="s">
-        <v>941</v>
-      </c>
-      <c r="B126" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C126" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="40" t="s">
-        <v>942</v>
-      </c>
-      <c r="G126" s="125" t="s">
-        <v>166</v>
-      </c>
-      <c r="H126" s="9"/>
-      <c r="I126" s="12">
-        <v>43276</v>
-      </c>
-      <c r="J126" s="52">
-        <v>43296</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="28.8">
-      <c r="A127" s="6" t="s">
-        <v>943</v>
-      </c>
-      <c r="B127" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C127" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D127" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="E127" s="13"/>
-      <c r="F127" s="40" t="s">
-        <v>944</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>913</v>
-      </c>
-      <c r="H127" s="9"/>
-      <c r="I127" s="12">
-        <v>43270</v>
-      </c>
-      <c r="J127" s="52">
         <v>43297</v>
       </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="6"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="36"/>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="6"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="41"/>
+      <c r="F122" s="33"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="36"/>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="6"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="33"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="36"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="53"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="E124" s="41"/>
+      <c r="F124" s="33"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="36"/>
+    </row>
+    <row r="125" spans="1:10" ht="14.4">
+      <c r="A125" s="53"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="33"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="36"/>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="53"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="56"/>
+      <c r="E126" s="57"/>
+      <c r="F126" s="33"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="36"/>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="53"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="56"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="33"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="36"/>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="6"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
+      <c r="B128" s="168"/>
+      <c r="C128" s="168"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
       <c r="F128" s="20"/>
       <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
+      <c r="H128" s="9"/>
       <c r="I128" s="12"/>
       <c r="J128" s="36"/>
     </row>
-    <row r="129" spans="1:10">
-      <c r="A129" s="6"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="41"/>
-      <c r="F129" s="33"/>
-      <c r="H129" s="8"/>
-      <c r="I129" s="12"/>
-      <c r="J129" s="36"/>
-    </row>
-    <row r="130" spans="1:10">
-      <c r="A130" s="6"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="33"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="12"/>
-      <c r="J130" s="36"/>
-    </row>
-    <row r="131" spans="1:10">
-      <c r="A131" s="53"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="E131" s="41"/>
-      <c r="F131" s="33"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="12"/>
-      <c r="J131" s="36"/>
-    </row>
-    <row r="132" spans="1:10" ht="14.4">
-      <c r="A132" s="53"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="30"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="33"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="12"/>
-      <c r="J132" s="36"/>
-    </row>
-    <row r="133" spans="1:10">
-      <c r="A133" s="53"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="56"/>
-      <c r="E133" s="57"/>
-      <c r="F133" s="33"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="12"/>
-      <c r="J133" s="36"/>
-    </row>
-    <row r="134" spans="1:10">
-      <c r="A134" s="53"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="56"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="33"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="12"/>
-      <c r="J134" s="36"/>
-    </row>
-    <row r="135" spans="1:10">
-      <c r="A135" s="6"/>
-      <c r="B135" s="168"/>
-      <c r="C135" s="168"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="9"/>
-      <c r="I135" s="12"/>
-      <c r="J135" s="36"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A93:A100"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A88:A95"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="A36:A45"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A53:A54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13105,31 +13110,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.609375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.27734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.38671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.38671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.6">
+    <row r="1" spans="1:10" ht="39.6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -13154,12 +13159,12 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="265" t="s">
+      <c r="I1" s="266" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="259"/>
-    </row>
-    <row r="2" spans="1:10" ht="24.6">
+      <c r="J1" s="260"/>
+    </row>
+    <row r="2" spans="1:10" ht="26.4">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -13175,7 +13180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="184.5">
+    <row r="3" spans="1:10" ht="211.2">
       <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
@@ -13205,7 +13210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="184.5">
+    <row r="4" spans="1:10" ht="211.2">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
@@ -13235,7 +13240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="184.5">
+    <row r="5" spans="1:10" ht="211.2">
       <c r="A5" s="14" t="s">
         <v>19</v>
       </c>

--- a/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
+++ b/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barbj\Documents\Infoway-Health Canada CCDD\formulary\Working QA Team Folders\Pre- Release QA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F36BFE95-C443-4376-9078-73599C068828}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5436"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5436" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Action Items, Open" sheetId="1" r:id="rId1"/>
@@ -12,17 +18,17 @@
     <sheet name="Completed AIs Released" sheetId="3" r:id="rId3"/>
     <sheet name="AIs no longer relevant" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="F116" authorId="0">
+    <comment ref="F116" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -34,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F130" authorId="0">
+    <comment ref="F130" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -51,12 +57,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G20" authorId="0">
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="0">
+    <comment ref="F21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,12 +94,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E88" authorId="0">
+    <comment ref="E88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G96" authorId="0">
+    <comment ref="G96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H117" authorId="0">
+    <comment ref="H117" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="986">
   <si>
     <t>TM</t>
   </si>
@@ -3556,21 +3562,6 @@
     <t>July Release QA</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">acetaminophen 500 mg and acetaminophen 500 mg and diphenhydramine hydrochloride 25 mg and pseudoephedrine hydrochloride 30 mg and pseudoephedrine hydrochloride 30 mg </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>kit</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Julie: Combination product table
 NTP: acetaminophen 500 mg and  and doxylamine succinate 6.25 mg and pseudoephedrine hydrochloride 30 mg oral tablet with acetaminophen 500 mg and pseudoephedrine hydrochloride 30 mg oral tablet
 MP: COLD AND SINUS RELIEF COMBO (acetaminophen 500 mg and  and doxylamine succinate 6.25 mg and pseudoephedrine hydrochloride 30 mg oral tablet with acetaminophen 500 mg and pseudoephedrine hydrochloride)  30 mg oral tablet) VITA HEALTH PRODUCTS INC  </t>
@@ -3594,21 +3585,6 @@
   </si>
   <si>
     <t>July Release QA 2018-07-04</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">acetaminophen 500 mg and acetaminophen 500 mg and doxylamine succinate 6.25 mg and pseudoephedrine hydrochloride 30 mg and pseudoephedrine hydrochloride 30 mg </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">kit
-</t>
-    </r>
   </si>
   <si>
     <r>
@@ -4154,6 +4130,50 @@
 </t>
   </si>
   <si>
+    <t>Julie: Combination product table
+Suggested ntp: chlorpheniramine 2 mg and ibuprofen 200 mg and pseudoephedrine 30 mg oral tablet with ibuprofen 200 mg and pseudoephedrine 30 mg oral tablet 
+ADVIL COLD &amp; SINUS CONVENIENCE PACK (chlorpheniramine 2 mg and ibuprofen 200 mg and pseudoephedrine 30 mg oral tablet with ibuprofen 200 mg and pseudoephedrine 30 mg oral tablet ) PFIZER CONSUMER HEALTHCARE A DIVISION OF PFIZER CANADA INC</t>
+  </si>
+  <si>
+    <t>DPD update requested July 16 2018. LT</t>
+  </si>
+  <si>
+    <t>Brand names are distinct (one has USP) so suggest will leave as is. LT July 16 2018</t>
+  </si>
+  <si>
+    <t>DPD update requested (strength, and change of dosage form to suspension). July 16 2018. LT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">acetaminophen 500 mg and acetaminophen 500 mg and diphenhydramine hydrochloride 25 mg and pseudoephedrine hydrochloride 30 mg and pseudoephedrine hydrochloride 30 mg </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>kit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">acetaminophen 500 mg and acetaminophen 500 mg and doxylamine succinate 6.25 mg and pseudoephedrine hydrochloride 30 mg and pseudoephedrine hydrochloride 30 mg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">kit
+</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">chlorpheniramine maleate 2 mg and ibuprofen 200 mg and ibuprofen 200 mg and pseudoephedrine hydrochloride 30 mg and pseudoephedrine hydrochloride 30 mg </t>
     </r>
@@ -4162,29 +4182,24 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t>kit</t>
     </r>
   </si>
-  <si>
-    <t>Julie: Combination product table
-Suggested ntp: chlorpheniramine 2 mg and ibuprofen 200 mg and pseudoephedrine 30 mg oral tablet with ibuprofen 200 mg and pseudoephedrine 30 mg oral tablet 
-ADVIL COLD &amp; SINUS CONVENIENCE PACK (chlorpheniramine 2 mg and ibuprofen 200 mg and pseudoephedrine 30 mg oral tablet with ibuprofen 200 mg and pseudoephedrine 30 mg oral tablet ) PFIZER CONSUMER HEALTHCARE A DIVISION OF PFIZER CANADA INC</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="#0"/>
     <numFmt numFmtId="167" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="50">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4344,58 +4359,9 @@
       <name val="Calibri Regular"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF521BED"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -4424,12 +4390,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <name val="Arial"/>
@@ -4449,20 +4409,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00008B"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF454545"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF00FF"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -4485,11 +4433,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF454545"/>
-      <name val="Andale wt"/>
-    </font>
-    <font>
       <strike/>
       <sz val="11"/>
       <name val="Arial"/>
@@ -4502,9 +4445,29 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF454545"/>
-      <name val="&quot;andale wt&quot;"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF521BED"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -4527,7 +4490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -4714,31 +4677,11 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FFE2E2E2"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE2E2E2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FFC0C0C0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE2E2E2"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -4754,11 +4697,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5207,7 +5202,7 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5240,7 +5235,7 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5252,295 +5247,202 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="55" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="57" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="55" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="55" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="55" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="55" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="58" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="40" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="40" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5853,3339 +5755,3356 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="181" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="181" customWidth="1"/>
-    <col min="3" max="3" width="9" style="181" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="181" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" style="249" customWidth="1"/>
-    <col min="6" max="6" width="28" style="181" customWidth="1"/>
-    <col min="7" max="7" width="35.21875" style="181" customWidth="1"/>
-    <col min="8" max="8" width="33.109375" style="181" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="181" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="181" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.44140625" style="181"/>
+    <col min="1" max="1" width="19.44140625" style="193" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="189" customWidth="1"/>
+    <col min="3" max="3" width="9" style="189" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="189" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" style="195" customWidth="1"/>
+    <col min="6" max="6" width="28" style="189" customWidth="1"/>
+    <col min="7" max="7" width="35.21875" style="189" customWidth="1"/>
+    <col min="8" max="8" width="33.109375" style="189" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="189" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.94140625" style="189" customWidth="1"/>
+    <col min="11" max="16384" width="14.44140625" style="189"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.6">
-      <c r="A1" s="174" t="s">
+    <row r="1" spans="1:10" s="181" customFormat="1" ht="28.2">
+      <c r="A1" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="174" t="s">
+      <c r="C1" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="174" t="s">
+      <c r="D1" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="242" t="s">
+      <c r="E1" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="182" t="s">
+      <c r="F1" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="174" t="s">
+      <c r="G1" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="174" t="s">
+      <c r="H1" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="188" t="s">
+      <c r="I1" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="188" t="s">
+      <c r="J1" s="180" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="244.8">
-      <c r="A2" s="177" t="s">
+    <row r="2" spans="1:10" ht="234.6">
+      <c r="A2" s="182" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="206" t="s">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="184" t="s">
         <v>268</v>
       </c>
-      <c r="E2" s="250" t="s">
+      <c r="E2" s="185" t="s">
         <v>270</v>
       </c>
-      <c r="F2" s="169" t="s">
+      <c r="F2" s="186" t="s">
         <v>271</v>
       </c>
-      <c r="G2" s="172"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="189">
+      <c r="G2" s="183"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="188">
         <v>43281</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="129.6">
-      <c r="A3" s="175" t="s">
+    <row r="3" spans="1:10" ht="138">
+      <c r="A3" s="190" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="178" t="s">
+      <c r="B3" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="172" t="s">
+      <c r="C3" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="172" t="s">
+      <c r="D3" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="243" t="s">
+      <c r="E3" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="169" t="s">
+      <c r="F3" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="172" t="s">
+      <c r="G3" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="178"/>
-      <c r="I3" s="189">
+      <c r="H3" s="187"/>
+      <c r="I3" s="188">
         <v>43252</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="129.6">
-      <c r="A4" s="172" t="s">
+    <row r="4" spans="1:10" ht="124.2">
+      <c r="A4" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="178"/>
-      <c r="C4" s="172" t="s">
+      <c r="B4" s="187"/>
+      <c r="C4" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="172" t="s">
+      <c r="D4" s="183" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="243" t="s">
+      <c r="E4" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="169" t="s">
+      <c r="F4" s="186" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="172" t="s">
+      <c r="G4" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="178"/>
-      <c r="I4" s="189">
+      <c r="H4" s="187"/>
+      <c r="I4" s="188">
         <v>43253</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="129.6">
-      <c r="A5" s="172" t="s">
+    <row r="5" spans="1:10" ht="124.2">
+      <c r="A5" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="178"/>
-      <c r="C5" s="172" t="s">
+      <c r="B5" s="187"/>
+      <c r="C5" s="183" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="172" t="s">
+      <c r="D5" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="243" t="s">
+      <c r="E5" s="191" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="169" t="s">
+      <c r="F5" s="186" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="172" t="s">
+      <c r="G5" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="178"/>
-      <c r="I5" s="189">
+      <c r="H5" s="187"/>
+      <c r="I5" s="188">
         <v>43254</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="129.6">
-      <c r="A6" s="172" t="s">
+    <row r="6" spans="1:10" ht="124.2">
+      <c r="A6" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="178"/>
-      <c r="C6" s="172" t="s">
+      <c r="B6" s="187"/>
+      <c r="C6" s="183" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="172" t="s">
+      <c r="D6" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="243" t="s">
+      <c r="E6" s="191" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="169" t="s">
+      <c r="F6" s="186" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="172" t="s">
+      <c r="G6" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="178"/>
-      <c r="I6" s="189">
+      <c r="H6" s="187"/>
+      <c r="I6" s="188">
         <v>43255</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="288">
-      <c r="A7" s="170" t="s">
+    <row r="7" spans="1:10" ht="345">
+      <c r="A7" s="193" t="s">
         <v>444</v>
       </c>
-      <c r="B7" s="178" t="s">
+      <c r="B7" s="187" t="s">
         <v>945</v>
       </c>
-      <c r="C7" s="172"/>
-      <c r="D7" s="190">
+      <c r="C7" s="183"/>
+      <c r="D7" s="194">
         <v>2368196</v>
       </c>
-      <c r="E7" s="244" t="s">
+      <c r="E7" s="195" t="s">
+        <v>983</v>
+      </c>
+      <c r="F7" s="186" t="s">
+        <v>947</v>
+      </c>
+      <c r="G7" s="183"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="188"/>
+    </row>
+    <row r="8" spans="1:10" ht="358.8">
+      <c r="A8" s="196" t="s">
+        <v>950</v>
+      </c>
+      <c r="B8" s="187" t="s">
+        <v>951</v>
+      </c>
+      <c r="C8" s="183"/>
+      <c r="D8" s="197">
+        <v>2388537</v>
+      </c>
+      <c r="E8" s="195" t="s">
+        <v>984</v>
+      </c>
+      <c r="F8" s="186" t="s">
         <v>946</v>
       </c>
-      <c r="F7" s="169" t="s">
+      <c r="G8" s="183"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="188"/>
+    </row>
+    <row r="9" spans="1:10" ht="409.5">
+      <c r="A9" s="193" t="s">
+        <v>976</v>
+      </c>
+      <c r="B9" s="187" t="s">
+        <v>951</v>
+      </c>
+      <c r="C9" s="183"/>
+      <c r="D9" s="197">
+        <v>2383608</v>
+      </c>
+      <c r="E9" s="198" t="s">
+        <v>949</v>
+      </c>
+      <c r="F9" s="199" t="s">
         <v>948</v>
       </c>
-      <c r="G7" s="172"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="189"/>
-    </row>
-    <row r="8" spans="1:10" ht="259.2">
-      <c r="A8" s="176" t="s">
-        <v>951</v>
-      </c>
-      <c r="B8" s="178" t="s">
+      <c r="G9" s="199"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="188"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="187"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="194"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="188"/>
+    </row>
+    <row r="11" spans="1:10" ht="42.3">
+      <c r="A11" s="190" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="187" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="200" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="184" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="201" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="202" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="183" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="187" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="188"/>
+    </row>
+    <row r="12" spans="1:10" ht="41.4">
+      <c r="A12" s="182" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="183" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="183" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="183" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="191" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="186" t="s">
+        <v>960</v>
+      </c>
+      <c r="G12" s="203"/>
+      <c r="H12" s="204" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="188">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="41.4">
+      <c r="A13" s="182" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="183"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="191"/>
+      <c r="F13" s="186" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="203"/>
+      <c r="H13" s="204"/>
+      <c r="I13" s="188">
+        <v>39614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="331.2">
+      <c r="A14" s="182" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="183"/>
+      <c r="D14" s="184" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="191" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="186" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="187" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="187"/>
+      <c r="I14" s="188">
+        <v>43271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="96.6">
+      <c r="A15" s="205" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="183"/>
+      <c r="D15" s="206" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="191" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="186" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="187" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="187"/>
+      <c r="I15" s="188"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.1">
+      <c r="A16" s="182" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="187" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="183" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="183"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="186" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="188">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="41.4">
+      <c r="A17" s="205" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="187" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="183" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="189" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="207" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="186" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="203"/>
+      <c r="H17" s="208" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="188">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="42.3">
+      <c r="A18" s="182" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="187" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="200" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="187" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="185"/>
+      <c r="F18" s="187" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="187" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="187"/>
+      <c r="I18" s="188">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="27.6">
+      <c r="A19" s="182" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="187" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="187" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="184"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="208" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="187"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="188">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="82.8">
+      <c r="A20" s="182" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="187" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="200">
+        <v>8000916</v>
+      </c>
+      <c r="D20" s="209" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="195" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="210" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="187" t="s">
+        <v>174</v>
+      </c>
+      <c r="H20" s="187"/>
+      <c r="I20" s="188">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="165.6">
+      <c r="A21" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="187" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="209"/>
+      <c r="E21" s="191" t="s">
         <v>952</v>
       </c>
-      <c r="C8" s="172"/>
-      <c r="D8" s="191">
-        <v>2388537</v>
-      </c>
-      <c r="E8" s="244" t="s">
-        <v>953</v>
-      </c>
-      <c r="F8" s="169" t="s">
-        <v>947</v>
-      </c>
-      <c r="G8" s="172"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="189"/>
-    </row>
-    <row r="9" spans="1:10" ht="345.6">
-      <c r="A9" s="170" t="s">
-        <v>978</v>
-      </c>
-      <c r="B9" s="178" t="s">
-        <v>952</v>
-      </c>
-      <c r="C9" s="172"/>
-      <c r="D9" s="191">
-        <v>2383608</v>
-      </c>
-      <c r="E9" s="245" t="s">
-        <v>950</v>
-      </c>
-      <c r="F9" s="173" t="s">
-        <v>949</v>
-      </c>
-      <c r="G9" s="173"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="189"/>
-    </row>
-    <row r="10" spans="1:10" ht="14.4">
-      <c r="A10" s="170"/>
-      <c r="B10" s="178"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="190"/>
-      <c r="E10" s="244"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="189"/>
-    </row>
-    <row r="11" spans="1:10" ht="43.2">
-      <c r="A11" s="175" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="178" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="183" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="192" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="246" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="193" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="172" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="178" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="189"/>
-    </row>
-    <row r="12" spans="1:10" ht="43.2">
-      <c r="A12" s="177" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="172" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="172" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="172" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="243" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="169" t="s">
-        <v>962</v>
-      </c>
-      <c r="G12" s="187"/>
-      <c r="H12" s="194" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="189">
+      <c r="F21" s="208" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" s="187" t="s">
+        <v>183</v>
+      </c>
+      <c r="H21" s="187"/>
+      <c r="I21" s="188"/>
+    </row>
+    <row r="22" spans="1:9" ht="55.2">
+      <c r="A22" s="182" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="187" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="187" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="184" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="185"/>
+      <c r="F22" s="210" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" s="211" t="s">
+        <v>191</v>
+      </c>
+      <c r="H22" s="187"/>
+      <c r="I22" s="188">
+        <v>43263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="55.2">
+      <c r="A23" s="182" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="187" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="187" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="184" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" s="195" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="210" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" s="187"/>
+      <c r="H23" s="187"/>
+      <c r="I23" s="188">
+        <v>43263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="69">
+      <c r="A24" s="182" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="183" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="183" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="189" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24" s="191"/>
+      <c r="F24" s="186" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" s="203"/>
+      <c r="H24" s="208"/>
+      <c r="I24" s="188">
         <v>43196</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="43.2">
-      <c r="A13" s="177" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="172"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="243"/>
-      <c r="F13" s="169" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="187"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="189">
-        <v>39614</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="331.2">
-      <c r="A14" s="177" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="172"/>
-      <c r="D14" s="195" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="243" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="169" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="178" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="178"/>
-      <c r="I14" s="189">
-        <v>43271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="86.4">
-      <c r="A15" s="178" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="172"/>
-      <c r="D15" s="196" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="243" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="169" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="178" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" s="178"/>
-      <c r="I15" s="189"/>
-    </row>
-    <row r="16" spans="1:10" ht="14.4">
-      <c r="A16" s="177" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="178" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="172" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="172"/>
-      <c r="E16" s="243"/>
-      <c r="F16" s="169" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="189">
-        <v>43252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="41.4">
-      <c r="A17" s="178" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="178" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="172" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="181" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" s="247" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="197" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="187"/>
-      <c r="H17" s="186" t="s">
-        <v>136</v>
-      </c>
-      <c r="I17" s="189">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="41.4">
-      <c r="A18" s="177" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" s="178" t="s">
+    <row r="25" spans="1:9" ht="41.4">
+      <c r="A25" s="182" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="183" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="212" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="189" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="191"/>
+      <c r="F25" s="189" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" s="203" t="s">
+        <v>214</v>
+      </c>
+      <c r="H25" s="187"/>
+      <c r="I25" s="188">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="28.2">
+      <c r="A26" s="182" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="183" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="183" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" s="183" t="s">
+        <v>218</v>
+      </c>
+      <c r="E26" s="191"/>
+      <c r="F26" s="208" t="s">
+        <v>219</v>
+      </c>
+      <c r="G26" s="203"/>
+      <c r="H26" s="204" t="s">
+        <v>220</v>
+      </c>
+      <c r="I26" s="188">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="69">
+      <c r="A27" s="182" t="s">
+        <v>221</v>
+      </c>
+      <c r="B27" s="183" t="s">
+        <v>222</v>
+      </c>
+      <c r="C27" s="209"/>
+      <c r="D27" s="184" t="s">
+        <v>224</v>
+      </c>
+      <c r="E27" s="201"/>
+      <c r="F27" s="210" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" s="203" t="s">
+        <v>226</v>
+      </c>
+      <c r="H27" s="204"/>
+      <c r="I27" s="188"/>
+    </row>
+    <row r="28" spans="1:9" ht="55.2">
+      <c r="A28" s="182" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="187" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="183" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="178" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="248"/>
-      <c r="F18" s="178" t="s">
-        <v>141</v>
-      </c>
-      <c r="G18" s="178" t="s">
-        <v>142</v>
-      </c>
-      <c r="H18" s="178"/>
-      <c r="I18" s="189">
+      <c r="C28" s="187"/>
+      <c r="D28" s="183" t="s">
+        <v>228</v>
+      </c>
+      <c r="E28" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" s="186" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" s="203"/>
+      <c r="H28" s="187" t="s">
+        <v>231</v>
+      </c>
+      <c r="I28" s="188">
         <v>43196</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="27.6">
-      <c r="A19" s="177" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="178" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="192"/>
-      <c r="E19" s="248"/>
-      <c r="F19" s="186" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="189">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="82.8">
-      <c r="A20" s="177" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="178" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="198">
-        <v>8000916</v>
-      </c>
-      <c r="D20" s="199" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="249" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="200" t="s">
-        <v>171</v>
-      </c>
-      <c r="G20" s="178" t="s">
-        <v>174</v>
-      </c>
-      <c r="H20" s="178"/>
-      <c r="I20" s="189">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="165.6">
-      <c r="A21" s="177" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21" s="178" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" s="183" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="199"/>
-      <c r="E21" s="243" t="s">
-        <v>954</v>
-      </c>
-      <c r="F21" s="186" t="s">
-        <v>180</v>
-      </c>
-      <c r="G21" s="178" t="s">
-        <v>183</v>
-      </c>
-      <c r="H21" s="178"/>
-      <c r="I21" s="189"/>
-    </row>
-    <row r="22" spans="1:9" ht="55.2">
-      <c r="A22" s="177" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="178" t="s">
-        <v>184</v>
-      </c>
-      <c r="C22" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="192" t="s">
-        <v>185</v>
-      </c>
-      <c r="E22" s="248"/>
-      <c r="F22" s="200" t="s">
-        <v>187</v>
-      </c>
-      <c r="G22" s="201" t="s">
-        <v>191</v>
-      </c>
-      <c r="H22" s="178"/>
-      <c r="I22" s="189">
-        <v>43263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="55.8" thickBot="1">
-      <c r="A23" s="177" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" s="178" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="202" t="s">
-        <v>200</v>
-      </c>
-      <c r="E23" s="244" t="s">
-        <v>204</v>
-      </c>
-      <c r="F23" s="200" t="s">
-        <v>205</v>
-      </c>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="189">
-        <v>43263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="72">
-      <c r="A24" s="177" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" s="172" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="172" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" s="181" t="s">
-        <v>208</v>
-      </c>
-      <c r="E24" s="243"/>
-      <c r="F24" s="169" t="s">
-        <v>209</v>
-      </c>
-      <c r="G24" s="187"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="189">
+    <row r="29" spans="1:9" ht="55.2">
+      <c r="A29" s="205" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" s="187"/>
+      <c r="C29" s="187"/>
+      <c r="D29" s="183" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="F29" s="186" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" s="203"/>
+      <c r="H29" s="187"/>
+      <c r="I29" s="188">
         <v>43196</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="41.4">
-      <c r="A25" s="177" t="s">
-        <v>210</v>
-      </c>
-      <c r="B25" s="172" t="s">
-        <v>211</v>
-      </c>
-      <c r="C25" s="203" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" s="181" t="s">
-        <v>208</v>
-      </c>
-      <c r="E25" s="243"/>
-      <c r="F25" s="181" t="s">
-        <v>213</v>
-      </c>
-      <c r="G25" s="187" t="s">
-        <v>214</v>
-      </c>
-      <c r="H25" s="178"/>
-      <c r="I25" s="189">
+    <row r="30" spans="1:9" ht="55.2">
+      <c r="A30" s="205" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" s="187"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="183" t="s">
+        <v>233</v>
+      </c>
+      <c r="E30" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="F30" s="186" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" s="203"/>
+      <c r="H30" s="187"/>
+      <c r="I30" s="188">
         <v>43196</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="28.8">
-      <c r="A26" s="177" t="s">
-        <v>215</v>
-      </c>
-      <c r="B26" s="172" t="s">
-        <v>211</v>
-      </c>
-      <c r="C26" s="172" t="s">
-        <v>217</v>
-      </c>
-      <c r="D26" s="172" t="s">
-        <v>218</v>
-      </c>
-      <c r="E26" s="243"/>
-      <c r="F26" s="186" t="s">
-        <v>219</v>
-      </c>
-      <c r="G26" s="187"/>
-      <c r="H26" s="194" t="s">
-        <v>220</v>
-      </c>
-      <c r="I26" s="189">
+    <row r="31" spans="1:9" ht="55.2">
+      <c r="A31" s="205" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" s="187"/>
+      <c r="C31" s="187"/>
+      <c r="D31" s="183" t="s">
+        <v>234</v>
+      </c>
+      <c r="E31" s="191" t="s">
+        <v>235</v>
+      </c>
+      <c r="F31" s="186" t="s">
+        <v>230</v>
+      </c>
+      <c r="G31" s="203"/>
+      <c r="H31" s="187"/>
+      <c r="I31" s="188">
         <v>43196</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="69">
-      <c r="A27" s="177" t="s">
-        <v>221</v>
-      </c>
-      <c r="B27" s="172" t="s">
-        <v>222</v>
-      </c>
-      <c r="C27" s="204"/>
-      <c r="D27" s="195" t="s">
-        <v>224</v>
-      </c>
-      <c r="E27" s="246"/>
-      <c r="F27" s="200" t="s">
-        <v>225</v>
-      </c>
-      <c r="G27" s="187" t="s">
-        <v>226</v>
-      </c>
-      <c r="H27" s="194"/>
-      <c r="I27" s="189"/>
-    </row>
-    <row r="28" spans="1:9" ht="43.2">
-      <c r="A28" s="177" t="s">
-        <v>227</v>
-      </c>
-      <c r="B28" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="178"/>
-      <c r="D28" s="172" t="s">
-        <v>228</v>
-      </c>
-      <c r="E28" s="243" t="s">
-        <v>229</v>
-      </c>
-      <c r="F28" s="197" t="s">
-        <v>230</v>
-      </c>
-      <c r="G28" s="187"/>
-      <c r="H28" s="178" t="s">
-        <v>231</v>
-      </c>
-      <c r="I28" s="189">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="43.2">
-      <c r="A29" s="178" t="s">
-        <v>227</v>
-      </c>
-      <c r="B29" s="178"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="172" t="s">
-        <v>232</v>
-      </c>
-      <c r="E29" s="243" t="s">
-        <v>229</v>
-      </c>
-      <c r="F29" s="197" t="s">
-        <v>230</v>
-      </c>
-      <c r="G29" s="187"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="189">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="43.2">
-      <c r="A30" s="178" t="s">
-        <v>227</v>
-      </c>
-      <c r="B30" s="178"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="172" t="s">
-        <v>233</v>
-      </c>
-      <c r="E30" s="243" t="s">
-        <v>229</v>
-      </c>
-      <c r="F30" s="197" t="s">
-        <v>230</v>
-      </c>
-      <c r="G30" s="187"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="189">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="43.2">
-      <c r="A31" s="178" t="s">
-        <v>227</v>
-      </c>
-      <c r="B31" s="178"/>
-      <c r="C31" s="178"/>
-      <c r="D31" s="172" t="s">
-        <v>234</v>
-      </c>
-      <c r="E31" s="243" t="s">
-        <v>235</v>
-      </c>
-      <c r="F31" s="197" t="s">
-        <v>230</v>
-      </c>
-      <c r="G31" s="187"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="189">
-        <v>43196</v>
-      </c>
-    </row>
     <row r="32" spans="1:9" ht="41.4">
-      <c r="A32" s="177" t="s">
+      <c r="A32" s="182" t="s">
         <v>199</v>
       </c>
-      <c r="B32" s="205" t="str">
+      <c r="B32" s="213" t="str">
         <f>HYPERLINK("https://docs.google.com/spreadsheets/d/1CZZj8fSMSaEaqlK8KCBOVHZaJixwFi-xHDmvUY_rwCk/edit#gid=1997930010&amp;range=A3:A19","Master: Antibacterials A")</f>
         <v>Master: Antibacterials A</v>
       </c>
-      <c r="C32" s="178"/>
-      <c r="D32" s="192" t="s">
+      <c r="C32" s="187"/>
+      <c r="D32" s="184" t="s">
         <v>237</v>
       </c>
-      <c r="E32" s="248" t="s">
+      <c r="E32" s="185" t="s">
         <v>238</v>
       </c>
-      <c r="F32" s="200" t="s">
+      <c r="F32" s="210" t="s">
         <v>239</v>
       </c>
-      <c r="G32" s="178"/>
-      <c r="H32" s="178"/>
-      <c r="I32" s="189">
+      <c r="G32" s="187"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="188">
         <v>43250</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="111">
-      <c r="A33" s="177" t="s">
+    <row r="33" spans="1:10" ht="110.4">
+      <c r="A33" s="182" t="s">
         <v>240</v>
       </c>
-      <c r="B33" s="172" t="s">
+      <c r="B33" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="172" t="s">
+      <c r="C33" s="183" t="s">
         <v>241</v>
       </c>
-      <c r="D33" s="181" t="s">
+      <c r="D33" s="189" t="s">
         <v>208</v>
       </c>
-      <c r="E33" s="243"/>
-      <c r="F33" s="169" t="s">
+      <c r="E33" s="191"/>
+      <c r="F33" s="186" t="s">
+        <v>961</v>
+      </c>
+      <c r="G33" s="203"/>
+      <c r="I33" s="188">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="110.4">
+      <c r="A34" s="205" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" s="183"/>
+      <c r="C34" s="183"/>
+      <c r="D34" s="183" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34" s="191" t="s">
+        <v>244</v>
+      </c>
+      <c r="F34" s="202" t="s">
+        <v>245</v>
+      </c>
+      <c r="G34" s="183" t="s">
+        <v>962</v>
+      </c>
+      <c r="H34" s="187"/>
+      <c r="I34" s="188">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="69">
+      <c r="A35" s="205" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" s="183"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="183" t="s">
+        <v>246</v>
+      </c>
+      <c r="E35" s="191" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" s="186" t="s">
+        <v>248</v>
+      </c>
+      <c r="G35" s="183" t="s">
+        <v>249</v>
+      </c>
+      <c r="H35" s="187"/>
+      <c r="I35" s="188">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="55.2">
+      <c r="A36" s="182" t="s">
+        <v>250</v>
+      </c>
+      <c r="B36" s="183" t="s">
+        <v>251</v>
+      </c>
+      <c r="C36" s="183"/>
+      <c r="D36" s="183" t="s">
+        <v>252</v>
+      </c>
+      <c r="E36" s="191" t="s">
+        <v>953</v>
+      </c>
+      <c r="F36" s="186" t="s">
+        <v>256</v>
+      </c>
+      <c r="G36" s="183"/>
+      <c r="H36" s="187"/>
+      <c r="I36" s="188"/>
+    </row>
+    <row r="37" spans="1:10" ht="55.2">
+      <c r="A37" s="205" t="s">
+        <v>250</v>
+      </c>
+      <c r="B37" s="183" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="183"/>
+      <c r="D37" s="183" t="s">
+        <v>258</v>
+      </c>
+      <c r="E37" s="191" t="s">
+        <v>954</v>
+      </c>
+      <c r="F37" s="186" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" s="183"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="188"/>
+    </row>
+    <row r="38" spans="1:10" ht="317.39999999999998">
+      <c r="A38" s="182" t="s">
+        <v>977</v>
+      </c>
+      <c r="B38" s="183" t="s">
+        <v>262</v>
+      </c>
+      <c r="C38" s="183"/>
+      <c r="D38" s="184" t="s">
+        <v>263</v>
+      </c>
+      <c r="E38" s="195" t="s">
+        <v>985</v>
+      </c>
+      <c r="F38" s="186" t="s">
+        <v>978</v>
+      </c>
+      <c r="G38" s="214"/>
+      <c r="H38" s="215"/>
+      <c r="I38" s="214">
+        <v>9005524</v>
+      </c>
+      <c r="J38" s="215" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="303.60000000000002">
+      <c r="A39" s="205" t="s">
+        <v>977</v>
+      </c>
+      <c r="B39" s="189" t="s">
+        <v>951</v>
+      </c>
+      <c r="C39" s="216">
+        <v>2399733</v>
+      </c>
+      <c r="E39" s="195" t="s">
+        <v>985</v>
+      </c>
+      <c r="F39" s="217" t="s">
+        <v>979</v>
+      </c>
+      <c r="G39" s="214"/>
+      <c r="H39" s="215"/>
+      <c r="I39" s="214"/>
+      <c r="J39" s="215"/>
+    </row>
+    <row r="40" spans="1:10" ht="151.80000000000001">
+      <c r="A40" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="B40" s="187" t="s">
+        <v>273</v>
+      </c>
+      <c r="D40" s="183" t="s">
+        <v>274</v>
+      </c>
+      <c r="E40" s="191" t="s">
+        <v>275</v>
+      </c>
+      <c r="F40" s="186" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" s="183" t="s">
+        <v>277</v>
+      </c>
+      <c r="H40" s="187"/>
+      <c r="I40" s="188"/>
+    </row>
+    <row r="41" spans="1:10" ht="96.6">
+      <c r="A41" s="205" t="s">
+        <v>278</v>
+      </c>
+      <c r="B41" s="187" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="187" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="184" t="s">
+        <v>279</v>
+      </c>
+      <c r="E41" s="191" t="s">
+        <v>280</v>
+      </c>
+      <c r="F41" s="208" t="s">
         <v>963</v>
       </c>
-      <c r="G33" s="187"/>
-      <c r="I33" s="189">
+      <c r="G41" s="208" t="s">
+        <v>281</v>
+      </c>
+      <c r="H41" s="187" t="s">
+        <v>282</v>
+      </c>
+      <c r="I41" s="188">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="82.8">
+      <c r="A42" s="182" t="s">
+        <v>283</v>
+      </c>
+      <c r="B42" s="187" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="187" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="209" t="s">
+        <v>284</v>
+      </c>
+      <c r="E42" s="191" t="s">
+        <v>286</v>
+      </c>
+      <c r="F42" s="208" t="s">
+        <v>964</v>
+      </c>
+      <c r="G42" s="208" t="s">
+        <v>289</v>
+      </c>
+      <c r="H42" s="187" t="s">
+        <v>282</v>
+      </c>
+      <c r="I42" s="188">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="82.8">
+      <c r="A43" s="205" t="s">
+        <v>283</v>
+      </c>
+      <c r="B43" s="187" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="187" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="209" t="s">
+        <v>290</v>
+      </c>
+      <c r="E43" s="191" t="s">
+        <v>291</v>
+      </c>
+      <c r="F43" s="186" t="s">
+        <v>965</v>
+      </c>
+      <c r="G43" s="208" t="s">
+        <v>292</v>
+      </c>
+      <c r="H43" s="187" t="s">
+        <v>282</v>
+      </c>
+      <c r="I43" s="188">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="41.4">
+      <c r="A44" s="182" t="s">
+        <v>294</v>
+      </c>
+      <c r="B44" s="187" t="s">
+        <v>295</v>
+      </c>
+      <c r="C44" s="218">
+        <v>8000036</v>
+      </c>
+      <c r="D44" s="218" t="s">
+        <v>299</v>
+      </c>
+      <c r="E44" s="191" t="s">
+        <v>300</v>
+      </c>
+      <c r="F44" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="G44" s="183" t="s">
+        <v>305</v>
+      </c>
+      <c r="H44" s="187"/>
+      <c r="I44" s="188">
+        <v>43292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="41.4">
+      <c r="A45" s="182" t="s">
+        <v>294</v>
+      </c>
+      <c r="B45" s="187" t="s">
+        <v>295</v>
+      </c>
+      <c r="C45" s="218">
+        <v>8000036</v>
+      </c>
+      <c r="D45" s="218" t="s">
+        <v>314</v>
+      </c>
+      <c r="E45" s="191" t="s">
+        <v>315</v>
+      </c>
+      <c r="F45" s="208" t="s">
+        <v>304</v>
+      </c>
+      <c r="G45" s="183" t="s">
+        <v>305</v>
+      </c>
+      <c r="H45" s="187"/>
+      <c r="I45" s="188">
+        <v>43292</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="55.2">
+      <c r="A46" s="182" t="s">
+        <v>294</v>
+      </c>
+      <c r="B46" s="187" t="s">
+        <v>295</v>
+      </c>
+      <c r="C46" s="218">
+        <v>8000036</v>
+      </c>
+      <c r="D46" s="218" t="s">
+        <v>316</v>
+      </c>
+      <c r="E46" s="191" t="s">
+        <v>317</v>
+      </c>
+      <c r="F46" s="208" t="s">
+        <v>318</v>
+      </c>
+      <c r="G46" s="183" t="s">
+        <v>319</v>
+      </c>
+      <c r="H46" s="187"/>
+      <c r="I46" s="188">
+        <v>43292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="55.2">
+      <c r="A47" s="182" t="s">
+        <v>322</v>
+      </c>
+      <c r="B47" s="187" t="s">
+        <v>323</v>
+      </c>
+      <c r="C47" s="183" t="s">
+        <v>324</v>
+      </c>
+      <c r="D47" s="219" t="s">
+        <v>325</v>
+      </c>
+      <c r="E47" s="191" t="s">
+        <v>326</v>
+      </c>
+      <c r="F47" s="208" t="s">
+        <v>327</v>
+      </c>
+      <c r="G47" s="183" t="s">
+        <v>328</v>
+      </c>
+      <c r="H47" s="187"/>
+      <c r="I47" s="188">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="82.8">
+      <c r="A48" s="182" t="s">
+        <v>329</v>
+      </c>
+      <c r="B48" s="187" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="187" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="206" t="s">
+        <v>330</v>
+      </c>
+      <c r="E48" s="191" t="s">
+        <v>331</v>
+      </c>
+      <c r="F48" s="210" t="s">
+        <v>332</v>
+      </c>
+      <c r="G48" s="187" t="s">
+        <v>334</v>
+      </c>
+      <c r="H48" s="187" t="s">
+        <v>335</v>
+      </c>
+      <c r="I48" s="188">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="41.4">
+      <c r="A49" s="182" t="s">
+        <v>329</v>
+      </c>
+      <c r="B49" s="187" t="s">
+        <v>273</v>
+      </c>
+      <c r="C49" s="187" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="183" t="s">
+        <v>336</v>
+      </c>
+      <c r="E49" s="191" t="s">
+        <v>337</v>
+      </c>
+      <c r="F49" s="210" t="s">
+        <v>338</v>
+      </c>
+      <c r="G49" s="187"/>
+      <c r="H49" s="187" t="s">
+        <v>339</v>
+      </c>
+      <c r="I49" s="188">
+        <v>43278</v>
+      </c>
+      <c r="J49" s="189" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="41.4">
+      <c r="A50" s="182" t="s">
+        <v>329</v>
+      </c>
+      <c r="B50" s="187" t="s">
+        <v>273</v>
+      </c>
+      <c r="C50" s="187" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="183" t="s">
+        <v>342</v>
+      </c>
+      <c r="E50" s="191" t="s">
+        <v>343</v>
+      </c>
+      <c r="F50" s="210" t="s">
+        <v>344</v>
+      </c>
+      <c r="G50" s="187"/>
+      <c r="H50" s="187" t="s">
+        <v>339</v>
+      </c>
+      <c r="I50" s="188">
+        <v>43278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="69.3">
+      <c r="A51" s="182" t="s">
+        <v>345</v>
+      </c>
+      <c r="B51" s="187" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="187" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="209" t="s">
+        <v>346</v>
+      </c>
+      <c r="E51" s="191" t="s">
+        <v>347</v>
+      </c>
+      <c r="F51" s="186" t="s">
+        <v>966</v>
+      </c>
+      <c r="G51" s="208"/>
+      <c r="H51" s="187"/>
+      <c r="I51" s="188">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="41.4">
+      <c r="A52" s="182" t="s">
+        <v>349</v>
+      </c>
+      <c r="B52" s="187" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="187" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="184" t="s">
+        <v>351</v>
+      </c>
+      <c r="E52" s="191" t="s">
+        <v>352</v>
+      </c>
+      <c r="F52" s="220" t="s">
+        <v>353</v>
+      </c>
+      <c r="G52" s="208" t="s">
+        <v>967</v>
+      </c>
+      <c r="H52" s="187"/>
+      <c r="I52" s="188">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="41.4">
+      <c r="A53" s="182" t="s">
+        <v>349</v>
+      </c>
+      <c r="B53" s="187" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="187" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="184" t="s">
+        <v>359</v>
+      </c>
+      <c r="E53" s="191" t="s">
+        <v>352</v>
+      </c>
+      <c r="F53" s="220" t="s">
+        <v>353</v>
+      </c>
+      <c r="G53" s="208" t="s">
+        <v>967</v>
+      </c>
+      <c r="H53" s="187"/>
+      <c r="I53" s="188">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="193.2">
+      <c r="A54" s="221" t="s">
+        <v>360</v>
+      </c>
+      <c r="B54" s="187" t="s">
+        <v>365</v>
+      </c>
+      <c r="C54" s="187"/>
+      <c r="D54" s="184" t="s">
+        <v>366</v>
+      </c>
+      <c r="E54" s="191"/>
+      <c r="F54" s="222" t="s">
+        <v>368</v>
+      </c>
+      <c r="G54" s="208" t="s">
+        <v>370</v>
+      </c>
+      <c r="H54" s="187"/>
+      <c r="I54" s="188"/>
+    </row>
+    <row r="55" spans="1:10" ht="27.6">
+      <c r="A55" s="182" t="s">
+        <v>373</v>
+      </c>
+      <c r="B55" s="183" t="s">
+        <v>374</v>
+      </c>
+      <c r="C55" s="183"/>
+      <c r="D55" s="183" t="s">
+        <v>375</v>
+      </c>
+      <c r="E55" s="191" t="s">
+        <v>376</v>
+      </c>
+      <c r="F55" s="220" t="s">
+        <v>378</v>
+      </c>
+      <c r="G55" s="187" t="s">
+        <v>379</v>
+      </c>
+      <c r="H55" s="187"/>
+      <c r="I55" s="188">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="179.4">
+      <c r="A56" s="182" t="s">
+        <v>373</v>
+      </c>
+      <c r="B56" s="183" t="s">
+        <v>374</v>
+      </c>
+      <c r="C56" s="183"/>
+      <c r="D56" s="183" t="s">
+        <v>380</v>
+      </c>
+      <c r="E56" s="191" t="s">
+        <v>381</v>
+      </c>
+      <c r="F56" s="222" t="s">
+        <v>382</v>
+      </c>
+      <c r="G56" s="187"/>
+      <c r="H56" s="187"/>
+      <c r="I56" s="188">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="41.4">
+      <c r="A57" s="182" t="s">
+        <v>383</v>
+      </c>
+      <c r="B57" s="183" t="s">
+        <v>384</v>
+      </c>
+      <c r="C57" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="183" t="s">
+        <v>385</v>
+      </c>
+      <c r="E57" s="191" t="s">
+        <v>386</v>
+      </c>
+      <c r="F57" s="222" t="s">
+        <v>387</v>
+      </c>
+      <c r="G57" s="187" t="s">
+        <v>388</v>
+      </c>
+      <c r="H57" s="187"/>
+      <c r="I57" s="188">
+        <v>43277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="41.4">
+      <c r="A58" s="205" t="s">
+        <v>383</v>
+      </c>
+      <c r="B58" s="183" t="s">
+        <v>384</v>
+      </c>
+      <c r="C58" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="183" t="s">
+        <v>389</v>
+      </c>
+      <c r="E58" s="191"/>
+      <c r="F58" s="220" t="s">
+        <v>390</v>
+      </c>
+      <c r="G58" s="187"/>
+      <c r="H58" s="187"/>
+      <c r="I58" s="188">
+        <v>43278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="41.4">
+      <c r="A59" s="205" t="s">
+        <v>383</v>
+      </c>
+      <c r="B59" s="183" t="s">
+        <v>384</v>
+      </c>
+      <c r="C59" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="183" t="s">
+        <v>391</v>
+      </c>
+      <c r="E59" s="191"/>
+      <c r="F59" s="220" t="s">
+        <v>390</v>
+      </c>
+      <c r="G59" s="187"/>
+      <c r="H59" s="187"/>
+      <c r="I59" s="188">
+        <v>43278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="41.4">
+      <c r="A60" s="205" t="s">
+        <v>383</v>
+      </c>
+      <c r="B60" s="183" t="s">
+        <v>384</v>
+      </c>
+      <c r="C60" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="183" t="s">
+        <v>392</v>
+      </c>
+      <c r="E60" s="191"/>
+      <c r="F60" s="220" t="s">
+        <v>390</v>
+      </c>
+      <c r="G60" s="187"/>
+      <c r="H60" s="187"/>
+      <c r="I60" s="188">
+        <v>43278</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="55.2">
+      <c r="A61" s="205" t="s">
+        <v>383</v>
+      </c>
+      <c r="B61" s="183" t="s">
+        <v>394</v>
+      </c>
+      <c r="C61" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="183" t="s">
+        <v>395</v>
+      </c>
+      <c r="E61" s="191" t="s">
+        <v>955</v>
+      </c>
+      <c r="F61" s="222" t="s">
+        <v>396</v>
+      </c>
+      <c r="G61" s="187"/>
+      <c r="H61" s="187"/>
+      <c r="I61" s="188"/>
+    </row>
+    <row r="62" spans="1:10" ht="41.4">
+      <c r="A62" s="182" t="s">
+        <v>397</v>
+      </c>
+      <c r="B62" s="183" t="s">
+        <v>398</v>
+      </c>
+      <c r="C62" s="183"/>
+      <c r="D62" s="183" t="s">
+        <v>399</v>
+      </c>
+      <c r="E62" s="191" t="s">
+        <v>956</v>
+      </c>
+      <c r="F62" s="222" t="s">
+        <v>396</v>
+      </c>
+      <c r="G62" s="187"/>
+      <c r="H62" s="187"/>
+      <c r="I62" s="188"/>
+    </row>
+    <row r="63" spans="1:10" ht="27.6">
+      <c r="A63" s="182" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="187" t="s">
+        <v>402</v>
+      </c>
+      <c r="C63" s="187" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="187" t="s">
+        <v>403</v>
+      </c>
+      <c r="E63" s="185" t="s">
+        <v>404</v>
+      </c>
+      <c r="F63" s="208" t="s">
+        <v>405</v>
+      </c>
+      <c r="H63" s="187"/>
+      <c r="I63" s="188">
+        <v>43283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="55.2">
+      <c r="A64" s="205" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="223">
+        <v>2320789</v>
+      </c>
+      <c r="E64" s="191" t="s">
+        <v>407</v>
+      </c>
+      <c r="F64" s="222" t="s">
+        <v>409</v>
+      </c>
+      <c r="G64" s="187" t="s">
+        <v>410</v>
+      </c>
+      <c r="H64" s="187"/>
+      <c r="I64" s="188">
+        <v>43284</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="55.2">
+      <c r="A65" s="205" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="223" t="s">
+        <v>411</v>
+      </c>
+      <c r="E65" s="191" t="s">
+        <v>407</v>
+      </c>
+      <c r="F65" s="222" t="s">
+        <v>409</v>
+      </c>
+      <c r="G65" s="187" t="s">
+        <v>412</v>
+      </c>
+      <c r="H65" s="187"/>
+      <c r="I65" s="188">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="55.2">
+      <c r="A66" s="205" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="223" t="s">
+        <v>413</v>
+      </c>
+      <c r="E66" s="191" t="s">
+        <v>102</v>
+      </c>
+      <c r="F66" s="222" t="s">
+        <v>409</v>
+      </c>
+      <c r="G66" s="187" t="s">
+        <v>414</v>
+      </c>
+      <c r="H66" s="187"/>
+      <c r="I66" s="188">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="55.2">
+      <c r="A67" s="205" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="223" t="s">
+        <v>416</v>
+      </c>
+      <c r="E67" s="191" t="s">
+        <v>102</v>
+      </c>
+      <c r="F67" s="222" t="s">
+        <v>409</v>
+      </c>
+      <c r="G67" s="223" t="s">
+        <v>418</v>
+      </c>
+      <c r="H67" s="187"/>
+      <c r="I67" s="188">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="41.4">
+      <c r="A68" s="205" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="223" t="s">
+        <v>420</v>
+      </c>
+      <c r="E68" s="191" t="s">
+        <v>102</v>
+      </c>
+      <c r="F68" s="222" t="s">
+        <v>423</v>
+      </c>
+      <c r="G68" s="223" t="s">
+        <v>424</v>
+      </c>
+      <c r="H68" s="187"/>
+      <c r="I68" s="188"/>
+    </row>
+    <row r="69" spans="1:9" ht="41.4">
+      <c r="A69" s="205" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="223" t="s">
+        <v>425</v>
+      </c>
+      <c r="E69" s="191" t="s">
+        <v>102</v>
+      </c>
+      <c r="F69" s="222" t="s">
+        <v>423</v>
+      </c>
+      <c r="G69" s="223" t="s">
+        <v>431</v>
+      </c>
+      <c r="H69" s="187"/>
+      <c r="I69" s="188"/>
+    </row>
+    <row r="70" spans="1:9" ht="55.2">
+      <c r="A70" s="205" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="209" t="s">
+        <v>433</v>
+      </c>
+      <c r="E70" s="191" t="s">
+        <v>102</v>
+      </c>
+      <c r="F70" s="222" t="s">
+        <v>409</v>
+      </c>
+      <c r="G70" s="223" t="s">
+        <v>435</v>
+      </c>
+      <c r="H70" s="187"/>
+      <c r="I70" s="188"/>
+    </row>
+    <row r="71" spans="1:9" ht="41.4">
+      <c r="A71" s="205" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="209" t="s">
+        <v>436</v>
+      </c>
+      <c r="E71" s="191" t="s">
+        <v>102</v>
+      </c>
+      <c r="F71" s="222" t="s">
+        <v>423</v>
+      </c>
+      <c r="G71" s="223" t="s">
+        <v>437</v>
+      </c>
+      <c r="H71" s="187"/>
+      <c r="I71" s="188"/>
+    </row>
+    <row r="72" spans="1:9" ht="55.2">
+      <c r="A72" s="205" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="209" t="s">
+        <v>438</v>
+      </c>
+      <c r="E72" s="191" t="s">
+        <v>102</v>
+      </c>
+      <c r="F72" s="222" t="s">
+        <v>409</v>
+      </c>
+      <c r="G72" s="223" t="s">
+        <v>443</v>
+      </c>
+      <c r="H72" s="187"/>
+      <c r="I72" s="188"/>
+    </row>
+    <row r="73" spans="1:9" ht="262.2">
+      <c r="A73" s="182" t="s">
+        <v>444</v>
+      </c>
+      <c r="B73" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="224">
+        <v>2368196</v>
+      </c>
+      <c r="E73" s="191" t="s">
+        <v>446</v>
+      </c>
+      <c r="F73" s="222" t="s">
+        <v>447</v>
+      </c>
+      <c r="G73" s="223" t="s">
+        <v>448</v>
+      </c>
+      <c r="H73" s="187"/>
+      <c r="I73" s="188"/>
+    </row>
+    <row r="74" spans="1:9" ht="55.2">
+      <c r="A74" s="205" t="s">
+        <v>449</v>
+      </c>
+      <c r="B74" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="225">
+        <v>2356457</v>
+      </c>
+      <c r="E74" s="191" t="s">
+        <v>102</v>
+      </c>
+      <c r="F74" s="222" t="s">
+        <v>409</v>
+      </c>
+      <c r="G74" s="223" t="s">
+        <v>451</v>
+      </c>
+      <c r="H74" s="187"/>
+      <c r="I74" s="188">
+        <v>43289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="56.4">
+      <c r="A75" s="182" t="s">
+        <v>452</v>
+      </c>
+      <c r="B75" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="225">
+        <v>535230</v>
+      </c>
+      <c r="E75" s="191" t="s">
+        <v>102</v>
+      </c>
+      <c r="F75" s="222" t="s">
+        <v>409</v>
+      </c>
+      <c r="G75" s="223" t="s">
+        <v>453</v>
+      </c>
+      <c r="H75" s="187"/>
+      <c r="I75" s="188">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="56.4">
+      <c r="A76" s="226" t="s">
+        <v>454</v>
+      </c>
+      <c r="B76" s="183" t="s">
+        <v>455</v>
+      </c>
+      <c r="C76" s="183"/>
+      <c r="D76" s="223" t="s">
+        <v>366</v>
+      </c>
+      <c r="E76" s="191" t="s">
+        <v>102</v>
+      </c>
+      <c r="F76" s="222" t="s">
+        <v>456</v>
+      </c>
+      <c r="G76" s="223"/>
+      <c r="H76" s="187"/>
+      <c r="I76" s="188">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="193.2">
+      <c r="A77" s="182" t="s">
+        <v>457</v>
+      </c>
+      <c r="B77" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="225">
+        <v>2410583</v>
+      </c>
+      <c r="E77" s="191" t="s">
+        <v>458</v>
+      </c>
+      <c r="F77" s="222" t="s">
+        <v>456</v>
+      </c>
+      <c r="G77" s="223" t="s">
+        <v>459</v>
+      </c>
+      <c r="H77" s="187"/>
+      <c r="I77" s="188">
+        <v>43291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="55.2">
+      <c r="A78" s="182" t="s">
+        <v>461</v>
+      </c>
+      <c r="B78" s="183" t="s">
+        <v>462</v>
+      </c>
+      <c r="C78" s="183" t="s">
+        <v>463</v>
+      </c>
+      <c r="D78" s="187" t="s">
+        <v>208</v>
+      </c>
+      <c r="E78" s="227"/>
+      <c r="F78" s="222" t="s">
+        <v>464</v>
+      </c>
+      <c r="G78" s="187" t="s">
+        <v>465</v>
+      </c>
+      <c r="H78" s="187"/>
+      <c r="I78" s="188">
         <v>43196</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="112.2">
-      <c r="A34" s="178" t="s">
-        <v>240</v>
-      </c>
-      <c r="B34" s="172"/>
-      <c r="C34" s="172"/>
-      <c r="D34" s="172" t="s">
-        <v>243</v>
-      </c>
-      <c r="E34" s="243" t="s">
-        <v>244</v>
-      </c>
-      <c r="F34" s="193" t="s">
-        <v>245</v>
-      </c>
-      <c r="G34" s="172" t="s">
-        <v>964</v>
-      </c>
-      <c r="H34" s="178"/>
-      <c r="I34" s="189">
+    <row r="79" spans="1:9" ht="55.2">
+      <c r="A79" s="205" t="s">
+        <v>461</v>
+      </c>
+      <c r="B79" s="183"/>
+      <c r="C79" s="183"/>
+      <c r="D79" s="183" t="s">
+        <v>466</v>
+      </c>
+      <c r="E79" s="191" t="s">
+        <v>467</v>
+      </c>
+      <c r="F79" s="220" t="s">
+        <v>468</v>
+      </c>
+      <c r="G79" s="187" t="s">
+        <v>469</v>
+      </c>
+      <c r="H79" s="187"/>
+      <c r="I79" s="188">
         <v>43196</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="72">
-      <c r="A35" s="178" t="s">
-        <v>240</v>
-      </c>
-      <c r="B35" s="172"/>
-      <c r="C35" s="172"/>
-      <c r="D35" s="172" t="s">
-        <v>246</v>
-      </c>
-      <c r="E35" s="243" t="s">
-        <v>247</v>
-      </c>
-      <c r="F35" s="169" t="s">
-        <v>248</v>
-      </c>
-      <c r="G35" s="172" t="s">
-        <v>249</v>
-      </c>
-      <c r="H35" s="178"/>
-      <c r="I35" s="189">
+    <row r="80" spans="1:9" ht="151.80000000000001">
+      <c r="A80" s="182" t="s">
+        <v>470</v>
+      </c>
+      <c r="B80" s="183" t="s">
+        <v>462</v>
+      </c>
+      <c r="C80" s="183" t="s">
+        <v>471</v>
+      </c>
+      <c r="D80" s="187" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="227"/>
+      <c r="F80" s="220" t="s">
+        <v>473</v>
+      </c>
+      <c r="G80" s="187" t="s">
+        <v>474</v>
+      </c>
+      <c r="H80" s="187" t="s">
+        <v>474</v>
+      </c>
+      <c r="I80" s="188">
         <v>43196</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="57">
-      <c r="A36" s="177" t="s">
-        <v>250</v>
-      </c>
-      <c r="B36" s="172" t="s">
-        <v>251</v>
-      </c>
-      <c r="C36" s="172"/>
-      <c r="D36" s="172" t="s">
-        <v>252</v>
-      </c>
-      <c r="E36" s="243" t="s">
-        <v>955</v>
-      </c>
-      <c r="F36" s="169" t="s">
-        <v>256</v>
-      </c>
-      <c r="G36" s="172"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="189"/>
-    </row>
-    <row r="37" spans="1:10" ht="43.2">
-      <c r="A37" s="178" t="s">
-        <v>250</v>
-      </c>
-      <c r="B37" s="172" t="s">
-        <v>257</v>
-      </c>
-      <c r="C37" s="172"/>
-      <c r="D37" s="172" t="s">
-        <v>258</v>
-      </c>
-      <c r="E37" s="243" t="s">
-        <v>956</v>
-      </c>
-      <c r="F37" s="169" t="s">
-        <v>256</v>
-      </c>
-      <c r="G37" s="172"/>
-      <c r="H37" s="178"/>
-      <c r="I37" s="189"/>
-    </row>
-    <row r="38" spans="1:10" ht="302.39999999999998">
-      <c r="A38" s="177" t="s">
-        <v>979</v>
-      </c>
-      <c r="B38" s="172" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="172"/>
-      <c r="D38" s="206" t="s">
-        <v>263</v>
-      </c>
-      <c r="E38" s="244" t="s">
-        <v>981</v>
-      </c>
-      <c r="F38" s="169" t="s">
-        <v>980</v>
-      </c>
-      <c r="G38" s="256"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="256">
-        <v>9005524</v>
-      </c>
-      <c r="J38" s="171" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="273.60000000000002">
-      <c r="A39" s="178" t="s">
-        <v>979</v>
-      </c>
-      <c r="B39" s="181" t="s">
-        <v>952</v>
-      </c>
-      <c r="C39" s="258">
-        <v>2399733</v>
-      </c>
-      <c r="E39" s="244" t="s">
-        <v>981</v>
-      </c>
-      <c r="F39" s="257" t="s">
-        <v>982</v>
-      </c>
-      <c r="G39" s="256"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="256"/>
-      <c r="J39" s="171"/>
-    </row>
-    <row r="40" spans="1:10" ht="115.2">
-      <c r="A40" s="177" t="s">
-        <v>272</v>
-      </c>
-      <c r="B40" s="178" t="s">
-        <v>273</v>
-      </c>
-      <c r="D40" s="172" t="s">
-        <v>274</v>
-      </c>
-      <c r="E40" s="243" t="s">
-        <v>275</v>
-      </c>
-      <c r="F40" s="169" t="s">
-        <v>276</v>
-      </c>
-      <c r="G40" s="172" t="s">
-        <v>277</v>
-      </c>
-      <c r="H40" s="178"/>
-      <c r="I40" s="189"/>
-    </row>
-    <row r="41" spans="1:10" ht="96.6">
-      <c r="A41" s="178" t="s">
-        <v>278</v>
-      </c>
-      <c r="B41" s="178" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="178" t="s">
+    <row r="81" spans="1:10" ht="138">
+      <c r="A81" s="182" t="s">
+        <v>475</v>
+      </c>
+      <c r="B81" s="183" t="s">
+        <v>476</v>
+      </c>
+      <c r="C81" s="183"/>
+      <c r="D81" s="184" t="s">
+        <v>477</v>
+      </c>
+      <c r="E81" s="191" t="s">
+        <v>478</v>
+      </c>
+      <c r="F81" s="222" t="s">
+        <v>479</v>
+      </c>
+      <c r="G81" s="187" t="s">
+        <v>480</v>
+      </c>
+      <c r="H81" s="187"/>
+      <c r="I81" s="188">
+        <v>43264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="409.5">
+      <c r="A82" s="182" t="s">
+        <v>482</v>
+      </c>
+      <c r="B82" s="187" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" s="203">
+        <v>8001266</v>
+      </c>
+      <c r="D82" s="209" t="s">
+        <v>489</v>
+      </c>
+      <c r="E82" s="201" t="s">
+        <v>490</v>
+      </c>
+      <c r="F82" s="208" t="s">
+        <v>491</v>
+      </c>
+      <c r="G82" s="187" t="s">
+        <v>492</v>
+      </c>
+      <c r="H82" s="187"/>
+      <c r="I82" s="188">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="41.4">
+      <c r="A83" s="205" t="s">
+        <v>482</v>
+      </c>
+      <c r="B83" s="187" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="203">
+        <v>8001266</v>
+      </c>
+      <c r="D83" s="209" t="s">
+        <v>493</v>
+      </c>
+      <c r="E83" s="191" t="s">
+        <v>490</v>
+      </c>
+      <c r="F83" s="208" t="s">
+        <v>494</v>
+      </c>
+      <c r="G83" s="187" t="s">
+        <v>498</v>
+      </c>
+      <c r="H83" s="187"/>
+      <c r="I83" s="188">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="69">
+      <c r="A84" s="205" t="s">
+        <v>482</v>
+      </c>
+      <c r="B84" s="187" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" s="203">
+        <v>8001266</v>
+      </c>
+      <c r="D84" s="209" t="s">
+        <v>499</v>
+      </c>
+      <c r="E84" s="228" t="s">
+        <v>500</v>
+      </c>
+      <c r="F84" s="208" t="s">
+        <v>501</v>
+      </c>
+      <c r="G84" s="187" t="s">
+        <v>502</v>
+      </c>
+      <c r="H84" s="187"/>
+      <c r="I84" s="188">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="55.2">
+      <c r="A85" s="205" t="s">
+        <v>482</v>
+      </c>
+      <c r="B85" s="187" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" s="203">
+        <v>8001266</v>
+      </c>
+      <c r="D85" s="209" t="s">
+        <v>503</v>
+      </c>
+      <c r="E85" s="191" t="s">
+        <v>490</v>
+      </c>
+      <c r="F85" s="208" t="s">
+        <v>504</v>
+      </c>
+      <c r="G85" s="189" t="s">
+        <v>492</v>
+      </c>
+      <c r="H85" s="183"/>
+      <c r="I85" s="188">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="138">
+      <c r="A86" s="205" t="s">
+        <v>482</v>
+      </c>
+      <c r="B86" s="187" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" s="203">
+        <v>8001266</v>
+      </c>
+      <c r="D86" s="209" t="s">
+        <v>505</v>
+      </c>
+      <c r="E86" s="185" t="s">
+        <v>490</v>
+      </c>
+      <c r="F86" s="208" t="s">
+        <v>506</v>
+      </c>
+      <c r="G86" s="208" t="s">
+        <v>508</v>
+      </c>
+      <c r="H86" s="203"/>
+      <c r="I86" s="188">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="69">
+      <c r="A87" s="205" t="s">
+        <v>482</v>
+      </c>
+      <c r="B87" s="187" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" s="203">
+        <v>8001266</v>
+      </c>
+      <c r="D87" s="209" t="s">
+        <v>509</v>
+      </c>
+      <c r="E87" s="185" t="s">
+        <v>490</v>
+      </c>
+      <c r="F87" s="208" t="s">
+        <v>510</v>
+      </c>
+      <c r="G87" s="187" t="s">
+        <v>511</v>
+      </c>
+      <c r="H87" s="187"/>
+      <c r="I87" s="188">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="69">
+      <c r="A88" s="205" t="s">
+        <v>482</v>
+      </c>
+      <c r="B88" s="187" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="203">
+        <v>8001266</v>
+      </c>
+      <c r="D88" s="209" t="s">
+        <v>512</v>
+      </c>
+      <c r="E88" s="185" t="s">
+        <v>513</v>
+      </c>
+      <c r="F88" s="208" t="s">
+        <v>514</v>
+      </c>
+      <c r="G88" s="187" t="s">
+        <v>515</v>
+      </c>
+      <c r="H88" s="187"/>
+      <c r="I88" s="188">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="69">
+      <c r="A89" s="182" t="s">
+        <v>516</v>
+      </c>
+      <c r="B89" s="187" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89" s="183" t="s">
+        <v>517</v>
+      </c>
+      <c r="D89" s="183" t="s">
+        <v>518</v>
+      </c>
+      <c r="E89" s="191" t="s">
+        <v>957</v>
+      </c>
+      <c r="F89" s="220" t="s">
+        <v>520</v>
+      </c>
+      <c r="G89" s="187"/>
+      <c r="H89" s="187"/>
+      <c r="I89" s="188">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="96.6">
+      <c r="A90" s="182" t="s">
+        <v>521</v>
+      </c>
+      <c r="B90" s="187" t="s">
+        <v>522</v>
+      </c>
+      <c r="C90" s="183"/>
+      <c r="D90" s="183" t="s">
+        <v>523</v>
+      </c>
+      <c r="E90" s="191" t="s">
+        <v>524</v>
+      </c>
+      <c r="F90" s="222" t="s">
+        <v>968</v>
+      </c>
+      <c r="G90" s="187" t="s">
+        <v>526</v>
+      </c>
+      <c r="H90" s="187"/>
+      <c r="I90" s="188"/>
+    </row>
+    <row r="91" spans="1:10" ht="138">
+      <c r="A91" s="205" t="s">
+        <v>521</v>
+      </c>
+      <c r="B91" s="187" t="s">
+        <v>522</v>
+      </c>
+      <c r="C91" s="183"/>
+      <c r="D91" s="183" t="s">
+        <v>527</v>
+      </c>
+      <c r="E91" s="191" t="s">
+        <v>528</v>
+      </c>
+      <c r="F91" s="222" t="s">
+        <v>969</v>
+      </c>
+      <c r="G91" s="187" t="s">
+        <v>530</v>
+      </c>
+      <c r="H91" s="187"/>
+      <c r="I91" s="188"/>
+    </row>
+    <row r="92" spans="1:10" ht="234.6">
+      <c r="A92" s="205" t="s">
+        <v>521</v>
+      </c>
+      <c r="B92" s="187"/>
+      <c r="C92" s="183"/>
+      <c r="D92" s="183" t="s">
+        <v>531</v>
+      </c>
+      <c r="E92" s="191" t="s">
+        <v>532</v>
+      </c>
+      <c r="F92" s="222" t="s">
+        <v>970</v>
+      </c>
+      <c r="G92" s="203" t="s">
+        <v>534</v>
+      </c>
+      <c r="H92" s="187"/>
+      <c r="I92" s="188"/>
+    </row>
+    <row r="93" spans="1:10" ht="82.8">
+      <c r="A93" s="182" t="s">
+        <v>535</v>
+      </c>
+      <c r="B93" s="187" t="s">
+        <v>151</v>
+      </c>
+      <c r="C93" s="183" t="s">
+        <v>536</v>
+      </c>
+      <c r="D93" s="183" t="s">
+        <v>537</v>
+      </c>
+      <c r="E93" s="191" t="s">
+        <v>958</v>
+      </c>
+      <c r="F93" s="208" t="s">
+        <v>539</v>
+      </c>
+      <c r="G93" s="183" t="s">
+        <v>540</v>
+      </c>
+      <c r="H93" s="187"/>
+      <c r="I93" s="188">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="55.2">
+      <c r="A94" s="190" t="s">
+        <v>541</v>
+      </c>
+      <c r="B94" s="187" t="s">
+        <v>548</v>
+      </c>
+      <c r="C94" s="187"/>
+      <c r="D94" s="184" t="s">
+        <v>554</v>
+      </c>
+      <c r="E94" s="191" t="s">
+        <v>555</v>
+      </c>
+      <c r="F94" s="210" t="s">
+        <v>556</v>
+      </c>
+      <c r="G94" s="187" t="s">
+        <v>560</v>
+      </c>
+      <c r="H94" s="187"/>
+      <c r="I94" s="188">
+        <v>76138</v>
+      </c>
+      <c r="J94" s="187"/>
+    </row>
+    <row r="95" spans="1:10" ht="96.6">
+      <c r="A95" s="182" t="s">
+        <v>566</v>
+      </c>
+      <c r="B95" s="187" t="s">
+        <v>548</v>
+      </c>
+      <c r="C95" s="187"/>
+      <c r="D95" s="184" t="s">
+        <v>571</v>
+      </c>
+      <c r="E95" s="191" t="s">
+        <v>959</v>
+      </c>
+      <c r="F95" s="208" t="s">
+        <v>580</v>
+      </c>
+      <c r="G95" s="187" t="s">
+        <v>584</v>
+      </c>
+      <c r="H95" s="187"/>
+      <c r="I95" s="188">
+        <v>76138</v>
+      </c>
+      <c r="J95" s="187"/>
+    </row>
+    <row r="96" spans="1:10" ht="41.4">
+      <c r="A96" s="182" t="s">
+        <v>589</v>
+      </c>
+      <c r="B96" s="187" t="s">
+        <v>593</v>
+      </c>
+      <c r="C96" s="187"/>
+      <c r="D96" s="183" t="s">
+        <v>594</v>
+      </c>
+      <c r="E96" s="191" t="s">
+        <v>595</v>
+      </c>
+      <c r="F96" s="210" t="s">
+        <v>596</v>
+      </c>
+      <c r="G96" s="187" t="s">
+        <v>599</v>
+      </c>
+      <c r="H96" s="187"/>
+      <c r="I96" s="188"/>
+      <c r="J96" s="187"/>
+    </row>
+    <row r="97" spans="1:9" ht="55.2">
+      <c r="A97" s="182" t="s">
+        <v>600</v>
+      </c>
+      <c r="B97" s="187" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="192" t="s">
-        <v>279</v>
-      </c>
-      <c r="E41" s="243" t="s">
-        <v>280</v>
-      </c>
-      <c r="F41" s="186" t="s">
-        <v>965</v>
-      </c>
-      <c r="G41" s="186" t="s">
-        <v>281</v>
-      </c>
-      <c r="H41" s="178" t="s">
-        <v>282</v>
-      </c>
-      <c r="I41" s="189">
+      <c r="D97" s="206" t="s">
+        <v>601</v>
+      </c>
+      <c r="E97" s="185"/>
+      <c r="F97" s="229" t="s">
+        <v>971</v>
+      </c>
+      <c r="G97" s="187"/>
+      <c r="H97" s="187" t="s">
+        <v>607</v>
+      </c>
+      <c r="I97" s="188">
         <v>43240</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="82.8">
-      <c r="A42" s="177" t="s">
-        <v>283</v>
-      </c>
-      <c r="B42" s="178" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="178" t="s">
+    <row r="98" spans="1:9" ht="55.2">
+      <c r="A98" s="182" t="s">
+        <v>608</v>
+      </c>
+      <c r="B98" s="187" t="s">
+        <v>222</v>
+      </c>
+      <c r="C98" s="187"/>
+      <c r="D98" s="184" t="s">
+        <v>609</v>
+      </c>
+      <c r="E98" s="185" t="s">
+        <v>610</v>
+      </c>
+      <c r="F98" s="230" t="s">
+        <v>611</v>
+      </c>
+      <c r="G98" s="187"/>
+      <c r="H98" s="187"/>
+      <c r="I98" s="188"/>
+    </row>
+    <row r="99" spans="1:9" ht="27.6">
+      <c r="A99" s="205" t="s">
+        <v>608</v>
+      </c>
+      <c r="B99" s="187" t="s">
+        <v>222</v>
+      </c>
+      <c r="C99" s="187"/>
+      <c r="D99" s="184"/>
+      <c r="E99" s="185"/>
+      <c r="F99" s="229"/>
+      <c r="G99" s="187"/>
+      <c r="H99" s="187"/>
+      <c r="I99" s="188"/>
+    </row>
+    <row r="100" spans="1:9" ht="14.1">
+      <c r="A100" s="182" t="s">
+        <v>616</v>
+      </c>
+      <c r="B100" s="187" t="s">
+        <v>617</v>
+      </c>
+      <c r="C100" s="187">
+        <v>8001119</v>
+      </c>
+      <c r="D100" s="203"/>
+      <c r="E100" s="185"/>
+      <c r="F100" s="208" t="s">
+        <v>620</v>
+      </c>
+      <c r="G100" s="187" t="s">
+        <v>621</v>
+      </c>
+      <c r="H100" s="187" t="s">
+        <v>622</v>
+      </c>
+      <c r="I100" s="188">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="82.8">
+      <c r="A101" s="182" t="s">
+        <v>623</v>
+      </c>
+      <c r="B101" s="183" t="s">
+        <v>485</v>
+      </c>
+      <c r="C101" s="187">
+        <v>8001130</v>
+      </c>
+      <c r="D101" s="183" t="s">
+        <v>625</v>
+      </c>
+      <c r="E101" s="191" t="s">
+        <v>626</v>
+      </c>
+      <c r="F101" s="208" t="s">
+        <v>627</v>
+      </c>
+      <c r="G101" s="187" t="s">
+        <v>628</v>
+      </c>
+      <c r="H101" s="187" t="s">
+        <v>622</v>
+      </c>
+      <c r="I101" s="188">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="27.6">
+      <c r="A102" s="182" t="s">
+        <v>629</v>
+      </c>
+      <c r="B102" s="183" t="s">
+        <v>630</v>
+      </c>
+      <c r="C102" s="183" t="s">
+        <v>631</v>
+      </c>
+      <c r="D102" s="183" t="s">
+        <v>632</v>
+      </c>
+      <c r="E102" s="191" t="s">
+        <v>633</v>
+      </c>
+      <c r="F102" s="210" t="s">
+        <v>634</v>
+      </c>
+      <c r="G102" s="187" t="s">
+        <v>635</v>
+      </c>
+      <c r="H102" s="187"/>
+      <c r="I102" s="188">
+        <v>43266</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="41.4">
+      <c r="A103" s="182" t="s">
+        <v>636</v>
+      </c>
+      <c r="B103" s="183" t="s">
+        <v>638</v>
+      </c>
+      <c r="C103" s="187"/>
+      <c r="D103" s="184" t="s">
+        <v>639</v>
+      </c>
+      <c r="E103" s="191" t="s">
+        <v>102</v>
+      </c>
+      <c r="F103" s="210" t="s">
+        <v>641</v>
+      </c>
+      <c r="G103" s="187" t="s">
+        <v>642</v>
+      </c>
+      <c r="H103" s="187"/>
+      <c r="I103" s="188"/>
+    </row>
+    <row r="104" spans="1:9" ht="55.2">
+      <c r="A104" s="182" t="s">
+        <v>645</v>
+      </c>
+      <c r="B104" s="187" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="199" t="s">
-        <v>284</v>
-      </c>
-      <c r="E42" s="243" t="s">
-        <v>286</v>
-      </c>
-      <c r="F42" s="186" t="s">
-        <v>966</v>
-      </c>
-      <c r="G42" s="186" t="s">
-        <v>289</v>
-      </c>
-      <c r="H42" s="178" t="s">
-        <v>282</v>
-      </c>
-      <c r="I42" s="189">
+      <c r="D104" s="209" t="s">
+        <v>185</v>
+      </c>
+      <c r="E104" s="185"/>
+      <c r="F104" s="211" t="s">
+        <v>972</v>
+      </c>
+      <c r="G104" s="187"/>
+      <c r="H104" s="187"/>
+      <c r="I104" s="188">
         <v>43240</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="82.8">
-      <c r="A43" s="178" t="s">
-        <v>283</v>
-      </c>
-      <c r="B43" s="178" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="178" t="s">
+    <row r="105" spans="1:9" ht="124.2">
+      <c r="A105" s="182" t="s">
+        <v>659</v>
+      </c>
+      <c r="B105" s="187" t="s">
+        <v>593</v>
+      </c>
+      <c r="C105" s="187"/>
+      <c r="D105" s="183" t="s">
+        <v>660</v>
+      </c>
+      <c r="E105" s="191" t="s">
+        <v>661</v>
+      </c>
+      <c r="F105" s="208" t="s">
+        <v>662</v>
+      </c>
+      <c r="G105" s="187" t="s">
+        <v>664</v>
+      </c>
+      <c r="H105" s="187"/>
+      <c r="I105" s="188"/>
+    </row>
+    <row r="106" spans="1:9" ht="138">
+      <c r="A106" s="205" t="s">
+        <v>659</v>
+      </c>
+      <c r="B106" s="187" t="s">
+        <v>665</v>
+      </c>
+      <c r="C106" s="187"/>
+      <c r="D106" s="183" t="s">
+        <v>666</v>
+      </c>
+      <c r="E106" s="191" t="s">
+        <v>667</v>
+      </c>
+      <c r="F106" s="208" t="s">
+        <v>662</v>
+      </c>
+      <c r="G106" s="187" t="s">
+        <v>668</v>
+      </c>
+      <c r="H106" s="187"/>
+      <c r="I106" s="188"/>
+    </row>
+    <row r="107" spans="1:9" ht="124.2">
+      <c r="A107" s="205" t="s">
+        <v>659</v>
+      </c>
+      <c r="B107" s="187" t="s">
+        <v>669</v>
+      </c>
+      <c r="C107" s="187"/>
+      <c r="D107" s="183" t="s">
+        <v>670</v>
+      </c>
+      <c r="E107" s="191" t="s">
+        <v>671</v>
+      </c>
+      <c r="F107" s="208" t="s">
+        <v>662</v>
+      </c>
+      <c r="G107" s="203" t="s">
+        <v>672</v>
+      </c>
+      <c r="H107" s="187"/>
+      <c r="I107" s="188"/>
+    </row>
+    <row r="108" spans="1:9" ht="96.6">
+      <c r="A108" s="182" t="s">
+        <v>673</v>
+      </c>
+      <c r="B108" s="187" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" s="183" t="s">
+        <v>674</v>
+      </c>
+      <c r="D108" s="183" t="s">
+        <v>676</v>
+      </c>
+      <c r="E108" s="185"/>
+      <c r="F108" s="213" t="s">
+        <v>678</v>
+      </c>
+      <c r="G108" s="187" t="s">
+        <v>687</v>
+      </c>
+      <c r="H108" s="187"/>
+      <c r="I108" s="188">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="41.4">
+      <c r="A109" s="182" t="s">
+        <v>688</v>
+      </c>
+      <c r="B109" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="C109" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="199" t="s">
-        <v>290</v>
-      </c>
-      <c r="E43" s="243" t="s">
-        <v>291</v>
-      </c>
-      <c r="F43" s="197" t="s">
-        <v>967</v>
-      </c>
-      <c r="G43" s="186" t="s">
-        <v>292</v>
-      </c>
-      <c r="H43" s="178" t="s">
-        <v>282</v>
-      </c>
-      <c r="I43" s="189">
+      <c r="D109" s="184" t="s">
+        <v>690</v>
+      </c>
+      <c r="E109" s="191"/>
+      <c r="F109" s="220" t="s">
+        <v>973</v>
+      </c>
+      <c r="G109" s="187"/>
+      <c r="H109" s="187"/>
+      <c r="I109" s="188">
+        <v>43276</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="41.4">
+      <c r="A110" s="182" t="s">
+        <v>688</v>
+      </c>
+      <c r="B110" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="C110" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" s="184" t="s">
+        <v>700</v>
+      </c>
+      <c r="E110" s="191"/>
+      <c r="F110" s="202" t="s">
+        <v>974</v>
+      </c>
+      <c r="G110" s="187"/>
+      <c r="H110" s="187"/>
+      <c r="I110" s="188">
+        <v>43276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="55.2">
+      <c r="A111" s="182" t="s">
+        <v>707</v>
+      </c>
+      <c r="B111" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="C111" s="183"/>
+      <c r="D111" s="183" t="s">
+        <v>708</v>
+      </c>
+      <c r="E111" s="185" t="s">
+        <v>709</v>
+      </c>
+      <c r="F111" s="202" t="s">
+        <v>711</v>
+      </c>
+      <c r="G111" s="187" t="s">
+        <v>714</v>
+      </c>
+      <c r="H111" s="187"/>
+      <c r="I111" s="188">
+        <v>43293</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="207">
+      <c r="A112" s="182" t="s">
+        <v>715</v>
+      </c>
+      <c r="B112" s="187" t="s">
+        <v>45</v>
+      </c>
+      <c r="C112" s="187" t="s">
+        <v>22</v>
+      </c>
+      <c r="D112" s="209" t="s">
+        <v>718</v>
+      </c>
+      <c r="E112" s="185"/>
+      <c r="F112" s="208" t="s">
+        <v>721</v>
+      </c>
+      <c r="G112" s="187" t="s">
+        <v>722</v>
+      </c>
+      <c r="H112" s="187"/>
+      <c r="I112" s="188">
         <v>43240</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="41.4">
-      <c r="A44" s="177" t="s">
-        <v>294</v>
-      </c>
-      <c r="B44" s="178" t="s">
-        <v>295</v>
-      </c>
-      <c r="C44" s="207">
-        <v>8000036</v>
-      </c>
-      <c r="D44" s="207" t="s">
-        <v>299</v>
-      </c>
-      <c r="E44" s="251" t="s">
-        <v>300</v>
-      </c>
-      <c r="F44" s="186" t="s">
-        <v>304</v>
-      </c>
-      <c r="G44" s="208" t="s">
-        <v>305</v>
-      </c>
-      <c r="H44" s="178"/>
-      <c r="I44" s="189">
-        <v>43292</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="41.4">
-      <c r="A45" s="177" t="s">
-        <v>294</v>
-      </c>
-      <c r="B45" s="178" t="s">
-        <v>295</v>
-      </c>
-      <c r="C45" s="207">
-        <v>8000036</v>
-      </c>
-      <c r="D45" s="207" t="s">
-        <v>314</v>
-      </c>
-      <c r="E45" s="251" t="s">
-        <v>315</v>
-      </c>
-      <c r="F45" s="186" t="s">
-        <v>304</v>
-      </c>
-      <c r="G45" s="208" t="s">
-        <v>305</v>
-      </c>
-      <c r="H45" s="178"/>
-      <c r="I45" s="189">
-        <v>43292</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="43.2">
-      <c r="A46" s="177" t="s">
-        <v>294</v>
-      </c>
-      <c r="B46" s="178" t="s">
-        <v>295</v>
-      </c>
-      <c r="C46" s="207">
-        <v>8000036</v>
-      </c>
-      <c r="D46" s="207" t="s">
-        <v>316</v>
-      </c>
-      <c r="E46" s="251" t="s">
-        <v>317</v>
-      </c>
-      <c r="F46" s="186" t="s">
-        <v>318</v>
-      </c>
-      <c r="G46" s="172" t="s">
-        <v>319</v>
-      </c>
-      <c r="H46" s="178"/>
-      <c r="I46" s="189">
-        <v>43292</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="55.2">
-      <c r="A47" s="177" t="s">
-        <v>322</v>
-      </c>
-      <c r="B47" s="178" t="s">
-        <v>323</v>
-      </c>
-      <c r="C47" s="172" t="s">
-        <v>324</v>
-      </c>
-      <c r="D47" s="184" t="s">
-        <v>325</v>
-      </c>
-      <c r="E47" s="243" t="s">
-        <v>326</v>
-      </c>
-      <c r="F47" s="186" t="s">
-        <v>327</v>
-      </c>
-      <c r="G47" s="172" t="s">
-        <v>328</v>
-      </c>
-      <c r="H47" s="178"/>
-      <c r="I47" s="189">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="82.8">
-      <c r="A48" s="177" t="s">
-        <v>329</v>
-      </c>
-      <c r="B48" s="178" t="s">
-        <v>201</v>
-      </c>
-      <c r="C48" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="196" t="s">
-        <v>330</v>
-      </c>
-      <c r="E48" s="243" t="s">
-        <v>331</v>
-      </c>
-      <c r="F48" s="200" t="s">
-        <v>332</v>
-      </c>
-      <c r="G48" s="178" t="s">
-        <v>334</v>
-      </c>
-      <c r="H48" s="178" t="s">
-        <v>335</v>
-      </c>
-      <c r="I48" s="189">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="28.8">
-      <c r="A49" s="177" t="s">
-        <v>329</v>
-      </c>
-      <c r="B49" s="178" t="s">
-        <v>273</v>
-      </c>
-      <c r="C49" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="172" t="s">
-        <v>336</v>
-      </c>
-      <c r="E49" s="243" t="s">
-        <v>337</v>
-      </c>
-      <c r="F49" s="200" t="s">
-        <v>338</v>
-      </c>
-      <c r="G49" s="178"/>
-      <c r="H49" s="178" t="s">
-        <v>339</v>
-      </c>
-      <c r="I49" s="189">
-        <v>43278</v>
-      </c>
-      <c r="J49" s="181" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="28.8">
-      <c r="A50" s="177" t="s">
-        <v>329</v>
-      </c>
-      <c r="B50" s="178" t="s">
-        <v>273</v>
-      </c>
-      <c r="C50" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="172" t="s">
-        <v>342</v>
-      </c>
-      <c r="E50" s="243" t="s">
-        <v>343</v>
-      </c>
-      <c r="F50" s="200" t="s">
-        <v>344</v>
-      </c>
-      <c r="G50" s="178"/>
-      <c r="H50" s="178" t="s">
-        <v>339</v>
-      </c>
-      <c r="I50" s="189">
-        <v>43278</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="69.599999999999994">
-      <c r="A51" s="177" t="s">
-        <v>345</v>
-      </c>
-      <c r="B51" s="178" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="199" t="s">
-        <v>346</v>
-      </c>
-      <c r="E51" s="243" t="s">
-        <v>347</v>
-      </c>
-      <c r="F51" s="197" t="s">
-        <v>968</v>
-      </c>
-      <c r="G51" s="186"/>
-      <c r="H51" s="178"/>
-      <c r="I51" s="189">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="43.2">
-      <c r="A52" s="177" t="s">
-        <v>349</v>
-      </c>
-      <c r="B52" s="178" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="192" t="s">
-        <v>351</v>
-      </c>
-      <c r="E52" s="243" t="s">
-        <v>352</v>
-      </c>
-      <c r="F52" s="209" t="s">
-        <v>353</v>
-      </c>
-      <c r="G52" s="186" t="s">
-        <v>969</v>
-      </c>
-      <c r="H52" s="178"/>
-      <c r="I52" s="189">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="43.2">
-      <c r="A53" s="177" t="s">
-        <v>349</v>
-      </c>
-      <c r="B53" s="178" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="192" t="s">
-        <v>359</v>
-      </c>
-      <c r="E53" s="243" t="s">
-        <v>352</v>
-      </c>
-      <c r="F53" s="209" t="s">
-        <v>353</v>
-      </c>
-      <c r="G53" s="186" t="s">
-        <v>969</v>
-      </c>
-      <c r="H53" s="178"/>
-      <c r="I53" s="189">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="187.2">
-      <c r="A54" s="179" t="s">
-        <v>360</v>
-      </c>
-      <c r="B54" s="178" t="s">
-        <v>365</v>
-      </c>
-      <c r="C54" s="178"/>
-      <c r="D54" s="210" t="s">
-        <v>366</v>
-      </c>
-      <c r="E54" s="243"/>
-      <c r="F54" s="185" t="s">
-        <v>368</v>
-      </c>
-      <c r="G54" s="186" t="s">
-        <v>370</v>
-      </c>
-      <c r="H54" s="178"/>
-      <c r="I54" s="189"/>
-    </row>
-    <row r="55" spans="1:10" ht="28.8">
-      <c r="A55" s="177" t="s">
-        <v>373</v>
-      </c>
-      <c r="B55" s="172" t="s">
-        <v>374</v>
-      </c>
-      <c r="C55" s="172"/>
-      <c r="D55" s="172" t="s">
-        <v>375</v>
-      </c>
-      <c r="E55" s="243" t="s">
-        <v>376</v>
-      </c>
-      <c r="F55" s="209" t="s">
-        <v>378</v>
-      </c>
-      <c r="G55" s="178" t="s">
-        <v>379</v>
-      </c>
-      <c r="H55" s="178"/>
-      <c r="I55" s="189">
-        <v>43252</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="172.8">
-      <c r="A56" s="177" t="s">
-        <v>373</v>
-      </c>
-      <c r="B56" s="172" t="s">
-        <v>374</v>
-      </c>
-      <c r="C56" s="172"/>
-      <c r="D56" s="172" t="s">
-        <v>380</v>
-      </c>
-      <c r="E56" s="243" t="s">
-        <v>381</v>
-      </c>
-      <c r="F56" s="185" t="s">
-        <v>382</v>
-      </c>
-      <c r="G56" s="178"/>
-      <c r="H56" s="178"/>
-      <c r="I56" s="189">
-        <v>43290</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="43.2">
-      <c r="A57" s="177" t="s">
-        <v>383</v>
-      </c>
-      <c r="B57" s="172" t="s">
-        <v>384</v>
-      </c>
-      <c r="C57" s="172" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="172" t="s">
-        <v>385</v>
-      </c>
-      <c r="E57" s="243" t="s">
-        <v>386</v>
-      </c>
-      <c r="F57" s="185" t="s">
-        <v>387</v>
-      </c>
-      <c r="G57" s="178" t="s">
-        <v>388</v>
-      </c>
-      <c r="H57" s="178"/>
-      <c r="I57" s="189">
-        <v>43277</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="43.2">
-      <c r="A58" s="178" t="s">
-        <v>383</v>
-      </c>
-      <c r="B58" s="172" t="s">
-        <v>384</v>
-      </c>
-      <c r="C58" s="172" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" s="172" t="s">
-        <v>389</v>
-      </c>
-      <c r="E58" s="243"/>
-      <c r="F58" s="209" t="s">
-        <v>390</v>
-      </c>
-      <c r="G58" s="178"/>
-      <c r="H58" s="178"/>
-      <c r="I58" s="189">
-        <v>43278</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="43.2">
-      <c r="A59" s="178" t="s">
-        <v>383</v>
-      </c>
-      <c r="B59" s="172" t="s">
-        <v>384</v>
-      </c>
-      <c r="C59" s="172" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="172" t="s">
-        <v>391</v>
-      </c>
-      <c r="E59" s="243"/>
-      <c r="F59" s="209" t="s">
-        <v>390</v>
-      </c>
-      <c r="G59" s="178"/>
-      <c r="H59" s="178"/>
-      <c r="I59" s="189">
-        <v>43278</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="43.2">
-      <c r="A60" s="178" t="s">
-        <v>383</v>
-      </c>
-      <c r="B60" s="172" t="s">
-        <v>384</v>
-      </c>
-      <c r="C60" s="172" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="172" t="s">
-        <v>392</v>
-      </c>
-      <c r="E60" s="243"/>
-      <c r="F60" s="209" t="s">
-        <v>390</v>
-      </c>
-      <c r="G60" s="178"/>
-      <c r="H60" s="178"/>
-      <c r="I60" s="189">
-        <v>43278</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="43.2">
-      <c r="A61" s="178" t="s">
-        <v>383</v>
-      </c>
-      <c r="B61" s="172" t="s">
-        <v>394</v>
-      </c>
-      <c r="C61" s="172" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="172" t="s">
-        <v>395</v>
-      </c>
-      <c r="E61" s="243" t="s">
-        <v>957</v>
-      </c>
-      <c r="F61" s="185" t="s">
-        <v>396</v>
-      </c>
-      <c r="G61" s="178"/>
-      <c r="H61" s="178"/>
-      <c r="I61" s="189"/>
-    </row>
-    <row r="62" spans="1:10" ht="43.2">
-      <c r="A62" s="177" t="s">
-        <v>397</v>
-      </c>
-      <c r="B62" s="172" t="s">
-        <v>398</v>
-      </c>
-      <c r="C62" s="172"/>
-      <c r="D62" s="172" t="s">
-        <v>399</v>
-      </c>
-      <c r="E62" s="243" t="s">
-        <v>958</v>
-      </c>
-      <c r="F62" s="185" t="s">
-        <v>396</v>
-      </c>
-      <c r="G62" s="178"/>
-      <c r="H62" s="178"/>
-      <c r="I62" s="189"/>
-    </row>
-    <row r="63" spans="1:10" ht="27.6">
-      <c r="A63" s="177" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="178" t="s">
-        <v>402</v>
-      </c>
-      <c r="C63" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="178" t="s">
-        <v>403</v>
-      </c>
-      <c r="E63" s="248" t="s">
-        <v>404</v>
-      </c>
-      <c r="F63" s="186" t="s">
-        <v>405</v>
-      </c>
-      <c r="H63" s="178"/>
-      <c r="I63" s="189">
-        <v>43283</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="43.8" thickBot="1">
-      <c r="A64" s="178" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" s="172" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="211">
-        <v>2320789</v>
-      </c>
-      <c r="E64" s="251" t="s">
-        <v>407</v>
-      </c>
-      <c r="F64" s="185" t="s">
-        <v>409</v>
-      </c>
-      <c r="G64" s="178" t="s">
-        <v>410</v>
-      </c>
-      <c r="H64" s="178"/>
-      <c r="I64" s="189">
-        <v>43284</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="43.8" thickBot="1">
-      <c r="A65" s="178" t="s">
-        <v>76</v>
-      </c>
-      <c r="B65" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="172" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="211" t="s">
-        <v>411</v>
-      </c>
-      <c r="E65" s="251" t="s">
-        <v>407</v>
-      </c>
-      <c r="F65" s="185" t="s">
-        <v>409</v>
-      </c>
-      <c r="G65" s="178" t="s">
-        <v>412</v>
-      </c>
-      <c r="H65" s="178"/>
-      <c r="I65" s="189">
-        <v>43285</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="43.8" thickBot="1">
-      <c r="A66" s="178" t="s">
-        <v>76</v>
-      </c>
-      <c r="B66" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" s="172" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66" s="211" t="s">
-        <v>413</v>
-      </c>
-      <c r="E66" s="243" t="s">
-        <v>102</v>
-      </c>
-      <c r="F66" s="185" t="s">
-        <v>409</v>
-      </c>
-      <c r="G66" s="178" t="s">
-        <v>414</v>
-      </c>
-      <c r="H66" s="178"/>
-      <c r="I66" s="189">
-        <v>43287</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="43.8" thickBot="1">
-      <c r="A67" s="178" t="s">
-        <v>76</v>
-      </c>
-      <c r="B67" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67" s="172" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="211" t="s">
-        <v>416</v>
-      </c>
-      <c r="E67" s="243" t="s">
-        <v>102</v>
-      </c>
-      <c r="F67" s="185" t="s">
-        <v>409</v>
-      </c>
-      <c r="G67" s="212" t="s">
-        <v>418</v>
-      </c>
-      <c r="H67" s="178"/>
-      <c r="I67" s="189">
-        <v>43288</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="43.8" thickBot="1">
-      <c r="A68" s="178" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="172" t="s">
-        <v>22</v>
-      </c>
-      <c r="D68" s="212" t="s">
-        <v>420</v>
-      </c>
-      <c r="E68" s="243" t="s">
-        <v>102</v>
-      </c>
-      <c r="F68" s="185" t="s">
-        <v>423</v>
-      </c>
-      <c r="G68" s="213" t="s">
-        <v>424</v>
-      </c>
-      <c r="H68" s="178"/>
-      <c r="I68" s="189"/>
-    </row>
-    <row r="69" spans="1:9" ht="43.8" thickBot="1">
-      <c r="A69" s="178" t="s">
-        <v>76</v>
-      </c>
-      <c r="B69" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="172" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="214" t="s">
-        <v>425</v>
-      </c>
-      <c r="E69" s="243" t="s">
-        <v>102</v>
-      </c>
-      <c r="F69" s="185" t="s">
-        <v>423</v>
-      </c>
-      <c r="G69" s="213" t="s">
-        <v>431</v>
-      </c>
-      <c r="H69" s="178"/>
-      <c r="I69" s="189"/>
-    </row>
-    <row r="70" spans="1:9" ht="43.8" thickBot="1">
-      <c r="A70" s="178" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" s="172" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70" s="215" t="s">
-        <v>433</v>
-      </c>
-      <c r="E70" s="243" t="s">
-        <v>102</v>
-      </c>
-      <c r="F70" s="185" t="s">
-        <v>409</v>
-      </c>
-      <c r="G70" s="213" t="s">
-        <v>435</v>
-      </c>
-      <c r="H70" s="178"/>
-      <c r="I70" s="189"/>
-    </row>
-    <row r="71" spans="1:9" ht="43.8" thickBot="1">
-      <c r="A71" s="178" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="172" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="215" t="s">
-        <v>436</v>
-      </c>
-      <c r="E71" s="243" t="s">
-        <v>102</v>
-      </c>
-      <c r="F71" s="185" t="s">
-        <v>423</v>
-      </c>
-      <c r="G71" s="213" t="s">
-        <v>437</v>
-      </c>
-      <c r="H71" s="178"/>
-      <c r="I71" s="189"/>
-    </row>
-    <row r="72" spans="1:9" ht="43.2">
-      <c r="A72" s="178" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="172" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72" s="216" t="s">
-        <v>438</v>
-      </c>
-      <c r="E72" s="243" t="s">
-        <v>102</v>
-      </c>
-      <c r="F72" s="185" t="s">
-        <v>409</v>
-      </c>
-      <c r="G72" s="213" t="s">
-        <v>443</v>
-      </c>
-      <c r="H72" s="178"/>
-      <c r="I72" s="189"/>
-    </row>
-    <row r="73" spans="1:9" ht="244.8">
-      <c r="A73" s="177" t="s">
-        <v>444</v>
-      </c>
-      <c r="B73" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" s="172" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="217">
-        <v>2368196</v>
-      </c>
-      <c r="E73" s="243" t="s">
-        <v>446</v>
-      </c>
-      <c r="F73" s="185" t="s">
-        <v>447</v>
-      </c>
-      <c r="G73" s="213" t="s">
-        <v>448</v>
-      </c>
-      <c r="H73" s="178"/>
-      <c r="I73" s="189"/>
-    </row>
-    <row r="74" spans="1:9" ht="43.2">
-      <c r="A74" s="178" t="s">
-        <v>449</v>
-      </c>
-      <c r="B74" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74" s="172" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74" s="218">
-        <v>2356457</v>
-      </c>
-      <c r="E74" s="243" t="s">
-        <v>102</v>
-      </c>
-      <c r="F74" s="185" t="s">
-        <v>409</v>
-      </c>
-      <c r="G74" s="213" t="s">
-        <v>451</v>
-      </c>
-      <c r="H74" s="178"/>
-      <c r="I74" s="189">
-        <v>43289</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="55.2">
-      <c r="A75" s="177" t="s">
-        <v>452</v>
-      </c>
-      <c r="B75" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" s="172" t="s">
-        <v>22</v>
-      </c>
-      <c r="D75" s="218">
-        <v>535230</v>
-      </c>
-      <c r="E75" s="243" t="s">
-        <v>102</v>
-      </c>
-      <c r="F75" s="185" t="s">
-        <v>409</v>
-      </c>
-      <c r="G75" s="213" t="s">
-        <v>453</v>
-      </c>
-      <c r="H75" s="178"/>
-      <c r="I75" s="189">
-        <v>43290</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="55.2">
-      <c r="A76" s="180" t="s">
-        <v>454</v>
-      </c>
-      <c r="B76" s="172" t="s">
-        <v>455</v>
-      </c>
-      <c r="C76" s="172"/>
-      <c r="D76" s="219" t="s">
-        <v>366</v>
-      </c>
-      <c r="E76" s="243" t="s">
-        <v>102</v>
-      </c>
-      <c r="F76" s="185" t="s">
-        <v>456</v>
-      </c>
-      <c r="G76" s="213"/>
-      <c r="H76" s="178"/>
-      <c r="I76" s="189">
-        <v>43288</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="187.8" thickBot="1">
-      <c r="A77" s="177" t="s">
-        <v>457</v>
-      </c>
-      <c r="B77" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77" s="172" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="218">
-        <v>2410583</v>
-      </c>
-      <c r="E77" s="243" t="s">
-        <v>458</v>
-      </c>
-      <c r="F77" s="185" t="s">
-        <v>456</v>
-      </c>
-      <c r="G77" s="214" t="s">
-        <v>459</v>
-      </c>
-      <c r="H77" s="178"/>
-      <c r="I77" s="189">
-        <v>43291</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="43.8" thickBot="1">
-      <c r="A78" s="177" t="s">
-        <v>461</v>
-      </c>
-      <c r="B78" s="172" t="s">
-        <v>462</v>
-      </c>
-      <c r="C78" s="172" t="s">
-        <v>463</v>
-      </c>
-      <c r="D78" s="220" t="s">
-        <v>208</v>
-      </c>
-      <c r="E78" s="252"/>
-      <c r="F78" s="185" t="s">
-        <v>464</v>
-      </c>
-      <c r="G78" s="178" t="s">
-        <v>465</v>
-      </c>
-      <c r="H78" s="178"/>
-      <c r="I78" s="189">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="55.2">
-      <c r="A79" s="178" t="s">
-        <v>461</v>
-      </c>
-      <c r="B79" s="172"/>
-      <c r="C79" s="172"/>
-      <c r="D79" s="172" t="s">
-        <v>466</v>
-      </c>
-      <c r="E79" s="243" t="s">
-        <v>467</v>
-      </c>
-      <c r="F79" s="209" t="s">
-        <v>468</v>
-      </c>
-      <c r="G79" s="178" t="s">
-        <v>469</v>
-      </c>
-      <c r="H79" s="178"/>
-      <c r="I79" s="189">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="144">
-      <c r="A80" s="177" t="s">
-        <v>470</v>
-      </c>
-      <c r="B80" s="172" t="s">
-        <v>462</v>
-      </c>
-      <c r="C80" s="172" t="s">
-        <v>471</v>
-      </c>
-      <c r="D80" s="178" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="252"/>
-      <c r="F80" s="209" t="s">
-        <v>473</v>
-      </c>
-      <c r="G80" s="178" t="s">
-        <v>474</v>
-      </c>
-      <c r="H80" s="178" t="s">
-        <v>474</v>
-      </c>
-      <c r="I80" s="189">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="124.2">
-      <c r="A81" s="177" t="s">
-        <v>475</v>
-      </c>
-      <c r="B81" s="172" t="s">
-        <v>476</v>
-      </c>
-      <c r="C81" s="172"/>
-      <c r="D81" s="192" t="s">
-        <v>477</v>
-      </c>
-      <c r="E81" s="243" t="s">
-        <v>478</v>
-      </c>
-      <c r="F81" s="185" t="s">
-        <v>479</v>
-      </c>
-      <c r="G81" s="178" t="s">
-        <v>480</v>
-      </c>
-      <c r="H81" s="178"/>
-      <c r="I81" s="189">
-        <v>43264</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="409.6">
-      <c r="A82" s="177" t="s">
-        <v>482</v>
-      </c>
-      <c r="B82" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C82" s="187">
-        <v>8001266</v>
-      </c>
-      <c r="D82" s="199" t="s">
-        <v>489</v>
-      </c>
-      <c r="E82" s="246" t="s">
-        <v>490</v>
-      </c>
-      <c r="F82" s="186" t="s">
-        <v>491</v>
-      </c>
-      <c r="G82" s="178" t="s">
-        <v>492</v>
-      </c>
-      <c r="H82" s="178"/>
-      <c r="I82" s="189">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="41.4">
-      <c r="A83" s="178" t="s">
-        <v>482</v>
-      </c>
-      <c r="B83" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C83" s="187">
-        <v>8001266</v>
-      </c>
-      <c r="D83" s="199" t="s">
-        <v>493</v>
-      </c>
-      <c r="E83" s="243" t="s">
-        <v>490</v>
-      </c>
-      <c r="F83" s="186" t="s">
-        <v>494</v>
-      </c>
-      <c r="G83" s="178" t="s">
-        <v>498</v>
-      </c>
-      <c r="H83" s="178"/>
-      <c r="I83" s="189">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="69">
-      <c r="A84" s="178" t="s">
-        <v>482</v>
-      </c>
-      <c r="B84" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C84" s="187">
-        <v>8001266</v>
-      </c>
-      <c r="D84" s="199" t="s">
-        <v>499</v>
-      </c>
-      <c r="E84" s="253" t="s">
-        <v>500</v>
-      </c>
-      <c r="F84" s="186" t="s">
-        <v>501</v>
-      </c>
-      <c r="G84" s="178" t="s">
-        <v>502</v>
-      </c>
-      <c r="H84" s="178"/>
-      <c r="I84" s="189">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="55.2">
-      <c r="A85" s="178" t="s">
-        <v>482</v>
-      </c>
-      <c r="B85" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C85" s="187">
-        <v>8001266</v>
-      </c>
-      <c r="D85" s="199" t="s">
-        <v>503</v>
-      </c>
-      <c r="E85" s="243" t="s">
-        <v>490</v>
-      </c>
-      <c r="F85" s="186" t="s">
-        <v>504</v>
-      </c>
-      <c r="G85" s="181" t="s">
-        <v>492</v>
-      </c>
-      <c r="H85" s="172"/>
-      <c r="I85" s="189">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="138">
-      <c r="A86" s="178" t="s">
-        <v>482</v>
-      </c>
-      <c r="B86" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C86" s="187">
-        <v>8001266</v>
-      </c>
-      <c r="D86" s="199" t="s">
-        <v>505</v>
-      </c>
-      <c r="E86" s="248" t="s">
-        <v>490</v>
-      </c>
-      <c r="F86" s="186" t="s">
-        <v>506</v>
-      </c>
-      <c r="G86" s="186" t="s">
-        <v>508</v>
-      </c>
-      <c r="H86" s="187"/>
-      <c r="I86" s="189">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="69">
-      <c r="A87" s="178" t="s">
-        <v>482</v>
-      </c>
-      <c r="B87" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C87" s="187">
-        <v>8001266</v>
-      </c>
-      <c r="D87" s="199" t="s">
-        <v>509</v>
-      </c>
-      <c r="E87" s="248" t="s">
-        <v>490</v>
-      </c>
-      <c r="F87" s="186" t="s">
-        <v>510</v>
-      </c>
-      <c r="G87" s="178" t="s">
-        <v>511</v>
-      </c>
-      <c r="H87" s="178"/>
-      <c r="I87" s="189">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="69">
-      <c r="A88" s="178" t="s">
-        <v>482</v>
-      </c>
-      <c r="B88" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C88" s="187">
-        <v>8001266</v>
-      </c>
-      <c r="D88" s="199" t="s">
-        <v>512</v>
-      </c>
-      <c r="E88" s="248" t="s">
-        <v>513</v>
-      </c>
-      <c r="F88" s="186" t="s">
-        <v>514</v>
-      </c>
-      <c r="G88" s="178" t="s">
-        <v>515</v>
-      </c>
-      <c r="H88" s="178"/>
-      <c r="I88" s="189">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="69.599999999999994">
-      <c r="A89" s="177" t="s">
-        <v>516</v>
-      </c>
-      <c r="B89" s="178" t="s">
+    <row r="113" spans="1:9" ht="69">
+      <c r="A113" s="182" t="s">
+        <v>723</v>
+      </c>
+      <c r="B113" s="203" t="s">
         <v>151</v>
       </c>
-      <c r="C89" s="172" t="s">
-        <v>517</v>
-      </c>
-      <c r="D89" s="172" t="s">
-        <v>518</v>
-      </c>
-      <c r="E89" s="243" t="s">
-        <v>959</v>
-      </c>
-      <c r="F89" s="209" t="s">
-        <v>520</v>
-      </c>
-      <c r="G89" s="178"/>
-      <c r="H89" s="178"/>
-      <c r="I89" s="189">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="96.6">
-      <c r="A90" s="177" t="s">
-        <v>521</v>
-      </c>
-      <c r="B90" s="178" t="s">
-        <v>522</v>
-      </c>
-      <c r="C90" s="172"/>
-      <c r="D90" s="172" t="s">
-        <v>523</v>
-      </c>
-      <c r="E90" s="243" t="s">
-        <v>524</v>
-      </c>
-      <c r="F90" s="185" t="s">
-        <v>970</v>
-      </c>
-      <c r="G90" s="178" t="s">
-        <v>526</v>
-      </c>
-      <c r="H90" s="178"/>
-      <c r="I90" s="189"/>
-    </row>
-    <row r="91" spans="1:10" ht="138">
-      <c r="A91" s="178" t="s">
-        <v>521</v>
-      </c>
-      <c r="B91" s="178" t="s">
-        <v>522</v>
-      </c>
-      <c r="C91" s="172"/>
-      <c r="D91" s="172" t="s">
-        <v>527</v>
-      </c>
-      <c r="E91" s="243" t="s">
-        <v>528</v>
-      </c>
-      <c r="F91" s="185" t="s">
-        <v>971</v>
-      </c>
-      <c r="G91" s="178" t="s">
-        <v>530</v>
-      </c>
-      <c r="H91" s="178"/>
-      <c r="I91" s="189"/>
-    </row>
-    <row r="92" spans="1:10" ht="235.2" thickBot="1">
-      <c r="A92" s="178" t="s">
-        <v>521</v>
-      </c>
-      <c r="B92" s="178"/>
-      <c r="C92" s="172"/>
-      <c r="D92" s="221" t="s">
-        <v>531</v>
-      </c>
-      <c r="E92" s="243" t="s">
-        <v>532</v>
-      </c>
-      <c r="F92" s="185" t="s">
-        <v>972</v>
-      </c>
-      <c r="G92" s="187" t="s">
-        <v>534</v>
-      </c>
-      <c r="H92" s="178"/>
-      <c r="I92" s="189"/>
-    </row>
-    <row r="93" spans="1:10" ht="72.599999999999994" thickBot="1">
-      <c r="A93" s="177" t="s">
-        <v>535</v>
-      </c>
-      <c r="B93" s="178" t="s">
-        <v>151</v>
-      </c>
-      <c r="C93" s="172" t="s">
-        <v>536</v>
-      </c>
-      <c r="D93" s="221" t="s">
-        <v>537</v>
-      </c>
-      <c r="E93" s="243" t="s">
-        <v>960</v>
-      </c>
-      <c r="F93" s="186" t="s">
-        <v>539</v>
-      </c>
-      <c r="G93" s="172" t="s">
-        <v>540</v>
-      </c>
-      <c r="H93" s="178"/>
-      <c r="I93" s="189">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="55.2">
-      <c r="A94" s="175" t="s">
-        <v>541</v>
-      </c>
-      <c r="B94" s="178" t="s">
-        <v>548</v>
-      </c>
-      <c r="C94" s="178"/>
-      <c r="D94" s="192" t="s">
-        <v>554</v>
-      </c>
-      <c r="E94" s="243" t="s">
-        <v>555</v>
-      </c>
-      <c r="F94" s="200" t="s">
-        <v>556</v>
-      </c>
-      <c r="G94" s="178" t="s">
-        <v>560</v>
-      </c>
-      <c r="H94" s="178"/>
-      <c r="I94" s="189">
-        <v>76138</v>
-      </c>
-      <c r="J94" s="178"/>
-    </row>
-    <row r="95" spans="1:10" ht="96.6">
-      <c r="A95" s="177" t="s">
-        <v>566</v>
-      </c>
-      <c r="B95" s="178" t="s">
-        <v>548</v>
-      </c>
-      <c r="C95" s="178"/>
-      <c r="D95" s="192" t="s">
-        <v>571</v>
-      </c>
-      <c r="E95" s="243" t="s">
-        <v>961</v>
-      </c>
-      <c r="F95" s="186" t="s">
-        <v>580</v>
-      </c>
-      <c r="G95" s="178" t="s">
-        <v>584</v>
-      </c>
-      <c r="H95" s="178"/>
-      <c r="I95" s="189">
-        <v>76138</v>
-      </c>
-      <c r="J95" s="178"/>
-    </row>
-    <row r="96" spans="1:10" ht="41.4">
-      <c r="A96" s="177" t="s">
-        <v>589</v>
-      </c>
-      <c r="B96" s="178" t="s">
-        <v>593</v>
-      </c>
-      <c r="C96" s="178"/>
-      <c r="D96" s="172" t="s">
-        <v>594</v>
-      </c>
-      <c r="E96" s="243" t="s">
-        <v>595</v>
-      </c>
-      <c r="F96" s="200" t="s">
-        <v>596</v>
-      </c>
-      <c r="G96" s="178" t="s">
-        <v>599</v>
-      </c>
-      <c r="H96" s="178"/>
-      <c r="I96" s="189"/>
-      <c r="J96" s="178"/>
-    </row>
-    <row r="97" spans="1:9" ht="55.2">
-      <c r="A97" s="177" t="s">
-        <v>600</v>
-      </c>
-      <c r="B97" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C97" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D97" s="196" t="s">
-        <v>601</v>
-      </c>
-      <c r="E97" s="248"/>
-      <c r="F97" s="222" t="s">
-        <v>973</v>
-      </c>
-      <c r="G97" s="178"/>
-      <c r="H97" s="178" t="s">
-        <v>607</v>
-      </c>
-      <c r="I97" s="189">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="55.2">
-      <c r="A98" s="177" t="s">
-        <v>608</v>
-      </c>
-      <c r="B98" s="178" t="s">
-        <v>222</v>
-      </c>
-      <c r="C98" s="178"/>
-      <c r="D98" s="192" t="s">
-        <v>609</v>
-      </c>
-      <c r="E98" s="248" t="s">
-        <v>610</v>
-      </c>
-      <c r="F98" s="223" t="s">
-        <v>611</v>
-      </c>
-      <c r="G98" s="178"/>
-      <c r="H98" s="178"/>
-      <c r="I98" s="189"/>
-    </row>
-    <row r="99" spans="1:9" ht="27.6">
-      <c r="A99" s="178" t="s">
-        <v>608</v>
-      </c>
-      <c r="B99" s="178" t="s">
-        <v>222</v>
-      </c>
-      <c r="C99" s="178"/>
-      <c r="D99" s="192"/>
-      <c r="E99" s="248"/>
-      <c r="F99" s="222"/>
-      <c r="G99" s="178"/>
-      <c r="H99" s="178"/>
-      <c r="I99" s="189"/>
-    </row>
-    <row r="100" spans="1:9" ht="14.4">
-      <c r="A100" s="177" t="s">
-        <v>616</v>
-      </c>
-      <c r="B100" s="178" t="s">
-        <v>617</v>
-      </c>
-      <c r="C100" s="178">
-        <v>8001119</v>
-      </c>
-      <c r="D100" s="224"/>
-      <c r="E100" s="248"/>
-      <c r="F100" s="186" t="s">
-        <v>620</v>
-      </c>
-      <c r="G100" s="178" t="s">
-        <v>621</v>
-      </c>
-      <c r="H100" s="178" t="s">
-        <v>622</v>
-      </c>
-      <c r="I100" s="189">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="82.8">
-      <c r="A101" s="177" t="s">
-        <v>623</v>
-      </c>
-      <c r="B101" s="172" t="s">
-        <v>485</v>
-      </c>
-      <c r="C101" s="178">
-        <v>8001130</v>
-      </c>
-      <c r="D101" s="172" t="s">
-        <v>625</v>
-      </c>
-      <c r="E101" s="243" t="s">
-        <v>626</v>
-      </c>
-      <c r="F101" s="186" t="s">
-        <v>627</v>
-      </c>
-      <c r="G101" s="178" t="s">
-        <v>628</v>
-      </c>
-      <c r="H101" s="178" t="s">
-        <v>622</v>
-      </c>
-      <c r="I101" s="189">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="28.8">
-      <c r="A102" s="177" t="s">
-        <v>629</v>
-      </c>
-      <c r="B102" s="172" t="s">
-        <v>630</v>
-      </c>
-      <c r="C102" s="172" t="s">
-        <v>631</v>
-      </c>
-      <c r="D102" s="172" t="s">
-        <v>632</v>
-      </c>
-      <c r="E102" s="243" t="s">
-        <v>633</v>
-      </c>
-      <c r="F102" s="200" t="s">
-        <v>634</v>
-      </c>
-      <c r="G102" s="178" t="s">
-        <v>635</v>
-      </c>
-      <c r="H102" s="178"/>
-      <c r="I102" s="189">
-        <v>43266</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="42" thickBot="1">
-      <c r="A103" s="177" t="s">
-        <v>636</v>
-      </c>
-      <c r="B103" s="172" t="s">
-        <v>638</v>
-      </c>
-      <c r="C103" s="178"/>
-      <c r="D103" s="192" t="s">
-        <v>639</v>
-      </c>
-      <c r="E103" s="243" t="s">
-        <v>102</v>
-      </c>
-      <c r="F103" s="200" t="s">
-        <v>641</v>
-      </c>
-      <c r="G103" s="178" t="s">
-        <v>642</v>
-      </c>
-      <c r="H103" s="178"/>
-      <c r="I103" s="189"/>
-    </row>
-    <row r="104" spans="1:9" ht="55.2">
-      <c r="A104" s="177" t="s">
-        <v>645</v>
-      </c>
-      <c r="B104" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C104" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D104" s="225" t="s">
-        <v>185</v>
-      </c>
-      <c r="E104" s="248"/>
-      <c r="F104" s="201" t="s">
-        <v>974</v>
-      </c>
-      <c r="G104" s="178"/>
-      <c r="H104" s="178"/>
-      <c r="I104" s="189">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="124.2">
-      <c r="A105" s="177" t="s">
-        <v>659</v>
-      </c>
-      <c r="B105" s="178" t="s">
-        <v>593</v>
-      </c>
-      <c r="C105" s="178"/>
-      <c r="D105" s="172" t="s">
-        <v>660</v>
-      </c>
-      <c r="E105" s="243" t="s">
-        <v>661</v>
-      </c>
-      <c r="F105" s="186" t="s">
-        <v>662</v>
-      </c>
-      <c r="G105" s="178" t="s">
-        <v>664</v>
-      </c>
-      <c r="H105" s="178"/>
-      <c r="I105" s="189"/>
-    </row>
-    <row r="106" spans="1:9" ht="138">
-      <c r="A106" s="178" t="s">
-        <v>659</v>
-      </c>
-      <c r="B106" s="178" t="s">
-        <v>665</v>
-      </c>
-      <c r="C106" s="178"/>
-      <c r="D106" s="172" t="s">
-        <v>666</v>
-      </c>
-      <c r="E106" s="243" t="s">
-        <v>667</v>
-      </c>
-      <c r="F106" s="186" t="s">
-        <v>662</v>
-      </c>
-      <c r="G106" s="178" t="s">
-        <v>668</v>
-      </c>
-      <c r="H106" s="178"/>
-      <c r="I106" s="189"/>
-    </row>
-    <row r="107" spans="1:9" ht="124.2">
-      <c r="A107" s="178" t="s">
-        <v>659</v>
-      </c>
-      <c r="B107" s="178" t="s">
-        <v>669</v>
-      </c>
-      <c r="C107" s="178"/>
-      <c r="D107" s="172" t="s">
-        <v>670</v>
-      </c>
-      <c r="E107" s="243" t="s">
-        <v>671</v>
-      </c>
-      <c r="F107" s="186" t="s">
-        <v>662</v>
-      </c>
-      <c r="G107" s="187" t="s">
-        <v>672</v>
-      </c>
-      <c r="H107" s="178"/>
-      <c r="I107" s="189"/>
-    </row>
-    <row r="108" spans="1:9" ht="83.4" thickBot="1">
-      <c r="A108" s="177" t="s">
-        <v>673</v>
-      </c>
-      <c r="B108" s="178" t="s">
-        <v>151</v>
-      </c>
-      <c r="C108" s="172" t="s">
-        <v>674</v>
-      </c>
-      <c r="D108" s="221" t="s">
-        <v>676</v>
-      </c>
-      <c r="E108" s="248"/>
-      <c r="F108" s="205" t="s">
-        <v>678</v>
-      </c>
-      <c r="G108" s="178" t="s">
-        <v>687</v>
-      </c>
-      <c r="H108" s="178"/>
-      <c r="I108" s="189">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="42" thickBot="1">
-      <c r="A109" s="177" t="s">
-        <v>688</v>
-      </c>
-      <c r="B109" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="C109" s="172" t="s">
-        <v>22</v>
-      </c>
-      <c r="D109" s="202" t="s">
-        <v>690</v>
-      </c>
-      <c r="E109" s="243"/>
-      <c r="F109" s="226" t="s">
-        <v>975</v>
-      </c>
-      <c r="G109" s="178"/>
-      <c r="H109" s="178"/>
-      <c r="I109" s="189">
-        <v>43276</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="41.4">
-      <c r="A110" s="177" t="s">
-        <v>688</v>
-      </c>
-      <c r="B110" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="C110" s="172" t="s">
-        <v>22</v>
-      </c>
-      <c r="D110" s="195" t="s">
-        <v>700</v>
-      </c>
-      <c r="E110" s="243"/>
-      <c r="F110" s="227" t="s">
-        <v>976</v>
-      </c>
-      <c r="G110" s="178"/>
-      <c r="H110" s="178"/>
-      <c r="I110" s="189">
-        <v>43276</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="57.6">
-      <c r="A111" s="177" t="s">
-        <v>707</v>
-      </c>
-      <c r="B111" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="C111" s="172"/>
-      <c r="D111" s="172" t="s">
-        <v>708</v>
-      </c>
-      <c r="E111" s="248" t="s">
-        <v>709</v>
-      </c>
-      <c r="F111" s="227" t="s">
-        <v>711</v>
-      </c>
-      <c r="G111" s="178" t="s">
-        <v>714</v>
-      </c>
-      <c r="H111" s="178"/>
-      <c r="I111" s="189">
-        <v>43293</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="207">
-      <c r="A112" s="177" t="s">
-        <v>715</v>
-      </c>
-      <c r="B112" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C112" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D112" s="204" t="s">
-        <v>718</v>
-      </c>
-      <c r="E112" s="248"/>
-      <c r="F112" s="186" t="s">
-        <v>721</v>
-      </c>
-      <c r="G112" s="178" t="s">
-        <v>722</v>
-      </c>
-      <c r="H112" s="178"/>
-      <c r="I112" s="189">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="69">
-      <c r="A113" s="177" t="s">
-        <v>723</v>
-      </c>
-      <c r="B113" s="224" t="s">
-        <v>151</v>
-      </c>
-      <c r="C113" s="224">
+      <c r="C113" s="203">
         <v>8000823</v>
       </c>
-      <c r="D113" s="228" t="s">
+      <c r="D113" s="183" t="s">
         <v>730</v>
       </c>
-      <c r="E113" s="243" t="s">
+      <c r="E113" s="191" t="s">
         <v>734</v>
       </c>
       <c r="F113" s="229" t="s">
         <v>736</v>
       </c>
-      <c r="G113" s="224" t="s">
+      <c r="G113" s="203" t="s">
         <v>737</v>
       </c>
-      <c r="H113" s="178" t="s">
+      <c r="H113" s="187" t="s">
         <v>738</v>
       </c>
-      <c r="I113" s="189">
+      <c r="I113" s="188">
         <v>43196</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="82.8">
-      <c r="A114" s="177" t="s">
+      <c r="A114" s="182" t="s">
         <v>723</v>
       </c>
-      <c r="B114" s="224" t="s">
+      <c r="B114" s="203" t="s">
         <v>151</v>
       </c>
-      <c r="C114" s="224"/>
-      <c r="D114" s="228" t="s">
+      <c r="C114" s="203"/>
+      <c r="D114" s="183" t="s">
         <v>739</v>
       </c>
-      <c r="E114" s="251" t="s">
+      <c r="E114" s="191" t="s">
         <v>740</v>
       </c>
-      <c r="F114" s="169" t="s">
+      <c r="F114" s="186" t="s">
         <v>742</v>
       </c>
-      <c r="G114" s="186" t="s">
+      <c r="G114" s="208" t="s">
         <v>744</v>
       </c>
-      <c r="H114" s="178"/>
-      <c r="I114" s="189">
+      <c r="H114" s="187"/>
+      <c r="I114" s="188">
         <v>43196</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="43.8" thickBot="1">
-      <c r="A115" s="178" t="s">
+    <row r="115" spans="1:9" ht="41.4">
+      <c r="A115" s="205" t="s">
         <v>723</v>
       </c>
-      <c r="B115" s="224" t="s">
+      <c r="B115" s="203" t="s">
         <v>151</v>
       </c>
-      <c r="C115" s="224"/>
-      <c r="D115" s="221" t="s">
+      <c r="C115" s="203"/>
+      <c r="D115" s="183" t="s">
         <v>746</v>
       </c>
-      <c r="E115" s="243" t="s">
+      <c r="E115" s="191" t="s">
         <v>747</v>
       </c>
-      <c r="F115" s="178" t="s">
+      <c r="F115" s="187" t="s">
         <v>748</v>
       </c>
-      <c r="G115" s="169" t="s">
+      <c r="G115" s="186" t="s">
         <v>749</v>
       </c>
-      <c r="H115" s="178"/>
-      <c r="I115" s="189">
+      <c r="H115" s="187"/>
+      <c r="I115" s="188">
         <v>43196</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="28.2" thickBot="1">
-      <c r="A116" s="177" t="s">
+    <row r="116" spans="1:9" ht="41.4">
+      <c r="A116" s="182" t="s">
         <v>750</v>
       </c>
-      <c r="B116" s="178" t="s">
+      <c r="B116" s="187" t="s">
         <v>144</v>
       </c>
-      <c r="C116" s="178" t="s">
+      <c r="C116" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="D116" s="230" t="s">
+      <c r="D116" s="206" t="s">
         <v>751</v>
       </c>
-      <c r="E116" s="254" t="s">
+      <c r="E116" s="231" t="s">
         <v>763</v>
       </c>
-      <c r="F116" s="200" t="s">
+      <c r="F116" s="210" t="s">
         <v>773</v>
       </c>
-      <c r="G116" s="178" t="s">
+      <c r="G116" s="187" t="s">
         <v>774</v>
       </c>
-      <c r="H116" s="178"/>
-      <c r="I116" s="189">
+      <c r="H116" s="187"/>
+      <c r="I116" s="188">
         <v>43250</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="82.8">
-      <c r="A117" s="177" t="s">
+      <c r="A117" s="182" t="s">
         <v>775</v>
       </c>
-      <c r="B117" s="178" t="s">
+      <c r="B117" s="187" t="s">
         <v>776</v>
       </c>
-      <c r="C117" s="178" t="s">
+      <c r="C117" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="D117" s="204" t="s">
+      <c r="D117" s="209" t="s">
         <v>777</v>
       </c>
-      <c r="E117" s="254" t="s">
+      <c r="E117" s="231" t="s">
         <v>610</v>
       </c>
-      <c r="F117" s="186" t="s">
+      <c r="F117" s="208" t="s">
         <v>778</v>
       </c>
-      <c r="G117" s="178" t="s">
+      <c r="G117" s="187" t="s">
         <v>779</v>
       </c>
-      <c r="H117" s="231"/>
-      <c r="I117" s="189">
+      <c r="H117" s="232"/>
+      <c r="I117" s="188">
         <v>43264</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="28.8">
-      <c r="A118" s="177" t="s">
+    <row r="118" spans="1:9" ht="27.6">
+      <c r="A118" s="182" t="s">
         <v>781</v>
       </c>
-      <c r="B118" s="178" t="s">
+      <c r="B118" s="187" t="s">
         <v>782</v>
       </c>
-      <c r="C118" s="178"/>
-      <c r="D118" s="232" t="s">
+      <c r="C118" s="187"/>
+      <c r="D118" s="200" t="s">
         <v>783</v>
       </c>
-      <c r="E118" s="246" t="s">
+      <c r="E118" s="201" t="s">
         <v>787</v>
       </c>
-      <c r="F118" s="200" t="s">
+      <c r="F118" s="210" t="s">
         <v>788</v>
       </c>
-      <c r="G118" s="178"/>
-      <c r="H118" s="231"/>
-      <c r="I118" s="189"/>
-    </row>
-    <row r="119" spans="1:9" ht="29.4" thickBot="1">
-      <c r="A119" s="178" t="s">
+      <c r="G118" s="187"/>
+      <c r="H118" s="233" t="s">
+        <v>980</v>
+      </c>
+      <c r="I118" s="188"/>
+    </row>
+    <row r="119" spans="1:9" ht="27.6">
+      <c r="A119" s="205" t="s">
         <v>781</v>
       </c>
-      <c r="B119" s="178" t="s">
+      <c r="B119" s="187" t="s">
         <v>782</v>
       </c>
-      <c r="C119" s="178"/>
-      <c r="D119" s="233" t="s">
+      <c r="C119" s="187"/>
+      <c r="D119" s="200" t="s">
         <v>789</v>
       </c>
-      <c r="E119" s="246" t="s">
+      <c r="E119" s="201" t="s">
         <v>787</v>
       </c>
-      <c r="F119" s="200" t="s">
+      <c r="F119" s="210" t="s">
         <v>788</v>
       </c>
-      <c r="G119" s="178"/>
-      <c r="H119" s="231"/>
-      <c r="I119" s="189"/>
-    </row>
-    <row r="120" spans="1:9" ht="29.4" thickBot="1">
-      <c r="A120" s="178" t="s">
+      <c r="G119" s="187"/>
+      <c r="H119" s="233" t="s">
+        <v>980</v>
+      </c>
+      <c r="I119" s="188"/>
+    </row>
+    <row r="120" spans="1:9" ht="27.6">
+      <c r="A120" s="205" t="s">
         <v>781</v>
       </c>
-      <c r="B120" s="178" t="s">
+      <c r="B120" s="187" t="s">
         <v>782</v>
       </c>
-      <c r="C120" s="178"/>
-      <c r="D120" s="234" t="s">
+      <c r="C120" s="187"/>
+      <c r="D120" s="200" t="s">
         <v>798</v>
       </c>
-      <c r="E120" s="246" t="s">
+      <c r="E120" s="201" t="s">
         <v>787</v>
       </c>
-      <c r="F120" s="200" t="s">
+      <c r="F120" s="210" t="s">
         <v>788</v>
       </c>
-      <c r="G120" s="178"/>
-      <c r="H120" s="231"/>
-      <c r="I120" s="189"/>
-    </row>
-    <row r="121" spans="1:9" ht="28.2" thickBot="1">
-      <c r="A121" s="178" t="s">
+      <c r="G120" s="187"/>
+      <c r="H120" s="233" t="s">
+        <v>980</v>
+      </c>
+      <c r="I120" s="188"/>
+    </row>
+    <row r="121" spans="1:9" ht="41.4">
+      <c r="A121" s="205" t="s">
         <v>811</v>
       </c>
-      <c r="B121" s="178" t="s">
+      <c r="B121" s="187" t="s">
         <v>812</v>
       </c>
-      <c r="C121" s="172" t="s">
+      <c r="C121" s="183" t="s">
         <v>813</v>
       </c>
-      <c r="D121" s="235" t="s">
+      <c r="D121" s="183" t="s">
         <v>815</v>
       </c>
-      <c r="E121" s="243" t="s">
+      <c r="E121" s="191" t="s">
         <v>820</v>
       </c>
-      <c r="F121" s="186" t="s">
+      <c r="F121" s="208" t="s">
         <v>821</v>
       </c>
-      <c r="G121" s="178" t="s">
+      <c r="G121" s="187" t="s">
         <v>822</v>
       </c>
-      <c r="H121" s="231"/>
-      <c r="I121" s="189"/>
-    </row>
-    <row r="122" spans="1:9" ht="15" thickBot="1">
-      <c r="A122" s="177" t="s">
+      <c r="H121" s="232"/>
+      <c r="I121" s="188"/>
+    </row>
+    <row r="122" spans="1:9" ht="14.1">
+      <c r="A122" s="182" t="s">
         <v>823</v>
       </c>
-      <c r="B122" s="178" t="s">
+      <c r="B122" s="187" t="s">
         <v>45</v>
       </c>
-      <c r="C122" s="172" t="s">
+      <c r="C122" s="183" t="s">
         <v>824</v>
       </c>
-      <c r="D122" s="236" t="s">
+      <c r="D122" s="209" t="s">
         <v>825</v>
       </c>
-      <c r="E122" s="248" t="s">
+      <c r="E122" s="185" t="s">
         <v>610</v>
       </c>
-      <c r="F122" s="200" t="s">
+      <c r="F122" s="210" t="s">
         <v>837</v>
       </c>
-      <c r="G122" s="178"/>
-      <c r="H122" s="178"/>
-      <c r="I122" s="189">
+      <c r="G122" s="187"/>
+      <c r="H122" s="187"/>
+      <c r="I122" s="188">
         <v>43240</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="97.2" thickBot="1">
-      <c r="A123" s="177" t="s">
+    <row r="123" spans="1:9" ht="96.6">
+      <c r="A123" s="182" t="s">
         <v>843</v>
       </c>
-      <c r="B123" s="178" t="s">
+      <c r="B123" s="187" t="s">
         <v>45</v>
       </c>
-      <c r="C123" s="178" t="s">
+      <c r="C123" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="D123" s="237" t="s">
+      <c r="D123" s="187" t="s">
         <v>844</v>
       </c>
-      <c r="E123" s="248" t="s">
+      <c r="E123" s="185" t="s">
         <v>843</v>
       </c>
-      <c r="F123" s="200" t="s">
+      <c r="F123" s="210" t="s">
         <v>850</v>
       </c>
-      <c r="G123" s="181" t="s">
-        <v>977</v>
-      </c>
-      <c r="H123" s="178"/>
-      <c r="I123" s="189">
+      <c r="G123" s="189" t="s">
+        <v>975</v>
+      </c>
+      <c r="H123" s="187"/>
+      <c r="I123" s="188">
         <v>43240</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="41.4">
-      <c r="A124" s="177" t="s">
+      <c r="A124" s="182" t="s">
         <v>851</v>
       </c>
-      <c r="B124" s="178" t="s">
+      <c r="B124" s="187" t="s">
         <v>852</v>
       </c>
-      <c r="C124" s="178"/>
-      <c r="D124" s="178"/>
-      <c r="E124" s="248"/>
-      <c r="F124" s="186" t="s">
+      <c r="C124" s="187"/>
+      <c r="D124" s="187"/>
+      <c r="E124" s="185"/>
+      <c r="F124" s="208" t="s">
         <v>857</v>
       </c>
-      <c r="G124" s="178"/>
-      <c r="H124" s="178"/>
-      <c r="I124" s="189">
+      <c r="G124" s="187"/>
+      <c r="H124" s="187"/>
+      <c r="I124" s="188">
         <v>43196</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="43.8" thickBot="1">
-      <c r="A125" s="177" t="s">
+    <row r="125" spans="1:9" ht="41.4">
+      <c r="A125" s="182" t="s">
         <v>858</v>
       </c>
-      <c r="B125" s="172" t="s">
+      <c r="B125" s="183" t="s">
         <v>295</v>
       </c>
-      <c r="C125" s="172"/>
-      <c r="D125" s="207" t="s">
+      <c r="C125" s="183"/>
+      <c r="D125" s="218" t="s">
         <v>860</v>
       </c>
-      <c r="E125" s="251" t="s">
+      <c r="E125" s="191" t="s">
         <v>861</v>
       </c>
-      <c r="F125" s="238" t="s">
+      <c r="F125" s="186" t="s">
         <v>862</v>
       </c>
-      <c r="G125" s="220" t="s">
+      <c r="G125" s="187" t="s">
         <v>870</v>
       </c>
-      <c r="H125" s="178"/>
-      <c r="I125" s="189">
+      <c r="H125" s="187"/>
+      <c r="I125" s="188">
         <v>43288</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="138">
-      <c r="A126" s="177" t="s">
+      <c r="A126" s="182" t="s">
         <v>872</v>
       </c>
-      <c r="B126" s="172" t="s">
+      <c r="B126" s="183" t="s">
         <v>77</v>
       </c>
-      <c r="C126" s="172" t="s">
+      <c r="C126" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="D126" s="192" t="s">
+      <c r="D126" s="184" t="s">
         <v>873</v>
       </c>
-      <c r="E126" s="243"/>
-      <c r="F126" s="227" t="s">
+      <c r="E126" s="191"/>
+      <c r="F126" s="202" t="s">
         <v>874</v>
       </c>
-      <c r="G126" s="178" t="s">
+      <c r="G126" s="187" t="s">
         <v>875</v>
       </c>
-      <c r="H126" s="178"/>
-      <c r="I126" s="189">
+      <c r="H126" s="233" t="s">
+        <v>980</v>
+      </c>
+      <c r="I126" s="188">
         <v>43270</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="27.6">
-      <c r="A127" s="177" t="s">
+    <row r="127" spans="1:9" ht="41.4">
+      <c r="A127" s="182" t="s">
         <v>872</v>
       </c>
-      <c r="B127" s="172" t="s">
+      <c r="B127" s="183" t="s">
         <v>77</v>
       </c>
-      <c r="C127" s="172" t="s">
+      <c r="C127" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="D127" s="210" t="s">
+      <c r="D127" s="184" t="s">
         <v>876</v>
       </c>
-      <c r="E127" s="243"/>
-      <c r="F127" s="239" t="s">
+      <c r="E127" s="191"/>
+      <c r="F127" s="202" t="s">
         <v>877</v>
       </c>
-      <c r="G127" s="178" t="s">
+      <c r="G127" s="187" t="s">
         <v>878</v>
       </c>
-      <c r="H127" s="178"/>
-      <c r="I127" s="189">
+      <c r="H127" s="204" t="s">
+        <v>981</v>
+      </c>
+      <c r="I127" s="188">
         <v>43270</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="27.6">
-      <c r="A128" s="177" t="s">
+    <row r="128" spans="1:9" ht="41.4">
+      <c r="A128" s="182" t="s">
         <v>872</v>
       </c>
-      <c r="B128" s="172" t="s">
+      <c r="B128" s="183" t="s">
         <v>77</v>
       </c>
-      <c r="C128" s="172" t="s">
+      <c r="C128" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="D128" s="210" t="s">
+      <c r="D128" s="184" t="s">
         <v>879</v>
       </c>
-      <c r="E128" s="243"/>
-      <c r="F128" s="239" t="s">
+      <c r="E128" s="191"/>
+      <c r="F128" s="202" t="s">
         <v>880</v>
       </c>
-      <c r="G128" s="178" t="s">
+      <c r="G128" s="187" t="s">
         <v>878</v>
       </c>
-      <c r="H128" s="178"/>
-      <c r="I128" s="189">
+      <c r="H128" s="204" t="s">
+        <v>981</v>
+      </c>
+      <c r="I128" s="188">
         <v>43270</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="43.2">
-      <c r="A129" s="177" t="s">
+    <row r="129" spans="1:9" ht="55.2">
+      <c r="A129" s="182" t="s">
         <v>872</v>
       </c>
-      <c r="B129" s="172" t="s">
+      <c r="B129" s="183" t="s">
         <v>77</v>
       </c>
-      <c r="C129" s="172" t="s">
+      <c r="C129" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="D129" s="192" t="s">
+      <c r="D129" s="184" t="s">
         <v>881</v>
       </c>
-      <c r="E129" s="243"/>
-      <c r="F129" s="209" t="s">
+      <c r="E129" s="191"/>
+      <c r="F129" s="220" t="s">
         <v>882</v>
       </c>
-      <c r="G129" s="178"/>
-      <c r="H129" s="178"/>
-      <c r="I129" s="189">
+      <c r="G129" s="187"/>
+      <c r="H129" s="233" t="s">
+        <v>980</v>
+      </c>
+      <c r="I129" s="188">
         <v>43270</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="27.6">
-      <c r="A130" s="177" t="s">
+    <row r="130" spans="1:9" ht="41.4">
+      <c r="A130" s="182" t="s">
         <v>883</v>
       </c>
-      <c r="B130" s="178" t="s">
+      <c r="B130" s="187" t="s">
         <v>144</v>
       </c>
-      <c r="C130" s="178" t="s">
+      <c r="C130" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="D130" s="196" t="s">
+      <c r="D130" s="206" t="s">
         <v>884</v>
       </c>
-      <c r="E130" s="255" t="s">
+      <c r="E130" s="234" t="s">
         <v>885</v>
       </c>
-      <c r="F130" s="200" t="s">
+      <c r="F130" s="210" t="s">
         <v>773</v>
       </c>
-      <c r="G130" s="178" t="s">
+      <c r="G130" s="187" t="s">
         <v>892</v>
       </c>
-      <c r="H130" s="178"/>
-      <c r="I130" s="189">
+      <c r="H130" s="233" t="s">
+        <v>982</v>
+      </c>
+      <c r="I130" s="188">
         <v>43250</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="28.2" thickBot="1">
-      <c r="A131" s="177" t="s">
+    <row r="131" spans="1:9" ht="27.6">
+      <c r="A131" s="182" t="s">
         <v>893</v>
       </c>
-      <c r="B131" s="178" t="s">
+      <c r="B131" s="187" t="s">
         <v>776</v>
       </c>
-      <c r="C131" s="178" t="s">
+      <c r="C131" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="D131" s="240" t="s">
+      <c r="D131" s="209" t="s">
         <v>899</v>
       </c>
-      <c r="F131" s="200" t="s">
+      <c r="F131" s="210" t="s">
         <v>910</v>
       </c>
-      <c r="I131" s="241">
+      <c r="H131" s="233" t="s">
+        <v>980</v>
+      </c>
+      <c r="I131" s="235">
         <v>43288</v>
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="D132" s="178"/>
-    </row>
-    <row r="133" spans="1:9" ht="14.4">
-      <c r="A133" s="177"/>
-      <c r="B133" s="172"/>
-      <c r="C133" s="172"/>
-      <c r="D133" s="172"/>
-      <c r="E133" s="243"/>
-      <c r="F133" s="185"/>
-      <c r="G133" s="178"/>
-      <c r="H133" s="178"/>
-      <c r="I133" s="189"/>
-    </row>
-    <row r="134" spans="1:9" ht="14.4">
-      <c r="A134" s="177"/>
-      <c r="B134" s="172"/>
-      <c r="C134" s="172"/>
-      <c r="D134" s="172"/>
-      <c r="E134" s="243"/>
-      <c r="F134" s="185"/>
-      <c r="G134" s="178"/>
-      <c r="H134" s="178"/>
-      <c r="I134" s="189"/>
-    </row>
-    <row r="135" spans="1:9" ht="14.4">
-      <c r="A135" s="177"/>
-      <c r="B135" s="172"/>
-      <c r="C135" s="172"/>
-      <c r="D135" s="172"/>
-      <c r="E135" s="243"/>
-      <c r="F135" s="185"/>
-      <c r="G135" s="178"/>
-      <c r="H135" s="178"/>
-      <c r="I135" s="189"/>
-    </row>
-    <row r="136" spans="1:9" ht="14.4">
-      <c r="A136" s="177"/>
-      <c r="B136" s="172"/>
-      <c r="C136" s="172"/>
-      <c r="D136" s="172"/>
-      <c r="E136" s="243"/>
-      <c r="F136" s="185"/>
-      <c r="G136" s="178"/>
-      <c r="H136" s="178"/>
-      <c r="I136" s="189"/>
-    </row>
-    <row r="137" spans="1:9" ht="14.4">
-      <c r="A137" s="177"/>
-      <c r="B137" s="172"/>
-      <c r="C137" s="172"/>
-      <c r="D137" s="172"/>
-      <c r="E137" s="243"/>
-      <c r="F137" s="185"/>
-      <c r="G137" s="178"/>
-      <c r="H137" s="178"/>
-      <c r="I137" s="189"/>
-    </row>
-    <row r="138" spans="1:9" ht="14.4">
-      <c r="A138" s="177"/>
-      <c r="B138" s="172"/>
-      <c r="C138" s="172"/>
-      <c r="D138" s="172"/>
-      <c r="E138" s="243"/>
-      <c r="F138" s="185"/>
-      <c r="G138" s="178"/>
-      <c r="H138" s="178"/>
-      <c r="I138" s="189"/>
-    </row>
-    <row r="139" spans="1:9" ht="14.4">
-      <c r="A139" s="177"/>
-      <c r="B139" s="172"/>
-      <c r="C139" s="172"/>
-      <c r="D139" s="172"/>
-      <c r="E139" s="243"/>
-      <c r="F139" s="185"/>
-      <c r="G139" s="178"/>
-      <c r="H139" s="178"/>
-      <c r="I139" s="189"/>
-    </row>
-    <row r="140" spans="1:9" ht="14.4">
-      <c r="A140" s="177"/>
-      <c r="B140" s="172"/>
-      <c r="C140" s="172"/>
-      <c r="D140" s="172"/>
-      <c r="E140" s="243"/>
-      <c r="F140" s="185"/>
-      <c r="G140" s="178"/>
-      <c r="H140" s="178"/>
-      <c r="I140" s="189"/>
+      <c r="D132" s="187"/>
+    </row>
+    <row r="133" spans="1:9" ht="14.1">
+      <c r="A133" s="182"/>
+      <c r="B133" s="183"/>
+      <c r="C133" s="183"/>
+      <c r="D133" s="183"/>
+      <c r="E133" s="191"/>
+      <c r="F133" s="222"/>
+      <c r="G133" s="187"/>
+      <c r="H133" s="187"/>
+      <c r="I133" s="188"/>
+    </row>
+    <row r="134" spans="1:9" ht="14.1">
+      <c r="A134" s="182"/>
+      <c r="B134" s="183"/>
+      <c r="C134" s="183"/>
+      <c r="D134" s="183"/>
+      <c r="E134" s="191"/>
+      <c r="F134" s="222"/>
+      <c r="G134" s="187"/>
+      <c r="H134" s="187"/>
+      <c r="I134" s="188"/>
+    </row>
+    <row r="135" spans="1:9" ht="14.1">
+      <c r="A135" s="182"/>
+      <c r="B135" s="183"/>
+      <c r="C135" s="183"/>
+      <c r="D135" s="183"/>
+      <c r="E135" s="191"/>
+      <c r="F135" s="222"/>
+      <c r="G135" s="187"/>
+      <c r="H135" s="187"/>
+      <c r="I135" s="188"/>
+    </row>
+    <row r="136" spans="1:9" ht="14.1">
+      <c r="A136" s="182"/>
+      <c r="B136" s="183"/>
+      <c r="C136" s="183"/>
+      <c r="D136" s="183"/>
+      <c r="E136" s="191"/>
+      <c r="F136" s="222"/>
+      <c r="G136" s="187"/>
+      <c r="H136" s="187"/>
+      <c r="I136" s="188"/>
+    </row>
+    <row r="137" spans="1:9" ht="14.1">
+      <c r="A137" s="182"/>
+      <c r="B137" s="183"/>
+      <c r="C137" s="183"/>
+      <c r="D137" s="183"/>
+      <c r="E137" s="191"/>
+      <c r="F137" s="222"/>
+      <c r="G137" s="187"/>
+      <c r="H137" s="187"/>
+      <c r="I137" s="188"/>
+    </row>
+    <row r="138" spans="1:9" ht="14.1">
+      <c r="A138" s="182"/>
+      <c r="B138" s="183"/>
+      <c r="C138" s="183"/>
+      <c r="D138" s="183"/>
+      <c r="E138" s="191"/>
+      <c r="F138" s="222"/>
+      <c r="G138" s="187"/>
+      <c r="H138" s="187"/>
+      <c r="I138" s="188"/>
+    </row>
+    <row r="139" spans="1:9" ht="14.1">
+      <c r="A139" s="182"/>
+      <c r="B139" s="183"/>
+      <c r="C139" s="183"/>
+      <c r="D139" s="183"/>
+      <c r="E139" s="191"/>
+      <c r="F139" s="222"/>
+      <c r="G139" s="187"/>
+      <c r="H139" s="187"/>
+      <c r="I139" s="188"/>
+    </row>
+    <row r="140" spans="1:9" ht="14.1">
+      <c r="A140" s="182"/>
+      <c r="B140" s="183"/>
+      <c r="C140" s="183"/>
+      <c r="D140" s="183"/>
+      <c r="E140" s="191"/>
+      <c r="F140" s="222"/>
+      <c r="G140" s="187"/>
+      <c r="H140" s="187"/>
+      <c r="I140" s="188"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F108" r:id="rId1" location="gid=314589613&amp;range=309:309"/>
+    <hyperlink ref="F108" r:id="rId1" location="gid=314589613&amp;range=309:309" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -9194,7 +9113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -9205,12 +9124,12 @@
       <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.4">
+    <row r="1" spans="1:10" ht="24.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9235,12 +9154,12 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="259" t="s">
+      <c r="I1" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="260"/>
-    </row>
-    <row r="2" spans="1:10" ht="26.4">
+      <c r="J1" s="170"/>
+    </row>
+    <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -9256,7 +9175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="105.6">
+    <row r="3" spans="1:10" ht="282.89999999999998">
       <c r="A3" s="6" t="s">
         <v>150</v>
       </c>
@@ -9288,7 +9207,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="158.4">
+    <row r="4" spans="1:10" ht="135.30000000000001">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
@@ -9318,7 +9237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="211.2">
+    <row r="5" spans="1:10" ht="184.5">
       <c r="A5" s="14" t="s">
         <v>19</v>
       </c>
@@ -9348,7 +9267,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="211.2">
+    <row r="6" spans="1:10" ht="184.5">
       <c r="A6" s="14" t="s">
         <v>19</v>
       </c>
@@ -9378,7 +9297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="211.2">
+    <row r="7" spans="1:10" ht="184.5">
       <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
@@ -9408,7 +9327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="211.2">
+    <row r="8" spans="1:10" ht="184.5">
       <c r="A8" s="14" t="s">
         <v>19</v>
       </c>
@@ -9438,7 +9357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="92.4">
+    <row r="9" spans="1:10" ht="86.1">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -9466,7 +9385,7 @@
       </c>
       <c r="J9" s="36"/>
     </row>
-    <row r="10" spans="1:10" ht="92.4">
+    <row r="10" spans="1:10" ht="86.1">
       <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
@@ -9494,7 +9413,7 @@
       </c>
       <c r="J10" s="36"/>
     </row>
-    <row r="11" spans="1:10" ht="92.4">
+    <row r="11" spans="1:10" ht="86.1">
       <c r="A11" s="8" t="s">
         <v>44</v>
       </c>
@@ -9522,7 +9441,7 @@
       </c>
       <c r="J11" s="36"/>
     </row>
-    <row r="12" spans="1:10" ht="79.2">
+    <row r="12" spans="1:10" ht="172.2">
       <c r="A12" s="8" t="s">
         <v>199</v>
       </c>
@@ -9548,7 +9467,7 @@
       </c>
       <c r="J12" s="36"/>
     </row>
-    <row r="13" spans="1:10" ht="171.6">
+    <row r="13" spans="1:10" ht="393.6">
       <c r="A13" s="6" t="s">
         <v>223</v>
       </c>
@@ -9579,7 +9498,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="92.4">
+    <row r="14" spans="1:10" ht="196.8">
       <c r="A14" s="6" t="s">
         <v>288</v>
       </c>
@@ -9609,7 +9528,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="110.4">
+    <row r="15" spans="1:10" ht="264.89999999999998">
       <c r="A15" s="8" t="s">
         <v>288</v>
       </c>
@@ -9637,7 +9556,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="105.6">
+    <row r="16" spans="1:10" ht="98.4">
       <c r="A16" s="8" t="s">
         <v>76</v>
       </c>
@@ -9715,7 +9634,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="36"/>
     </row>
-    <row r="19" spans="1:10" ht="58.2" thickBot="1">
+    <row r="19" spans="1:10" ht="57.9" thickBot="1">
       <c r="A19" s="8" t="s">
         <v>76</v>
       </c>
@@ -9741,7 +9660,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="36"/>
     </row>
-    <row r="20" spans="1:10" ht="66.599999999999994" thickBot="1">
+    <row r="20" spans="1:10" ht="61.8" thickBot="1">
       <c r="A20" s="6" t="s">
         <v>830</v>
       </c>
@@ -9771,7 +9690,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="106.2" thickBot="1">
+    <row r="21" spans="1:10" ht="86.4" thickBot="1">
       <c r="A21" s="53" t="s">
         <v>750</v>
       </c>
@@ -9811,7 +9730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -9824,7 +9743,7 @@
       <selection pane="bottomRight" activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -9837,7 +9756,7 @@
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.4">
+    <row r="1" spans="1:10" ht="24.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9862,12 +9781,12 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="259" t="s">
+      <c r="I1" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="260"/>
-    </row>
-    <row r="2" spans="1:10" ht="26.4">
+      <c r="J1" s="170"/>
+    </row>
+    <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -9883,7 +9802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="52.8">
+    <row r="3" spans="1:10" ht="49.2">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -9909,7 +9828,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="26.4">
+    <row r="4" spans="1:10" ht="24.6">
       <c r="A4" s="17" t="s">
         <v>24</v>
       </c>
@@ -9936,13 +9855,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="86.4">
-      <c r="A5" s="261" t="s">
+      <c r="A5" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="265" t="s">
+      <c r="B5" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="265" t="s">
+      <c r="C5" s="171" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -9964,9 +9883,9 @@
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="86.4">
-      <c r="A6" s="260"/>
-      <c r="B6" s="260"/>
-      <c r="C6" s="260"/>
+      <c r="A6" s="170"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
       <c r="D6" s="13" t="s">
         <v>68</v>
       </c>
@@ -9983,8 +9902,8 @@
       </c>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="1:10" ht="39.6">
-      <c r="A7" s="261" t="s">
+    <row r="7" spans="1:10" ht="36.9">
+      <c r="A7" s="174" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -10013,8 +9932,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="39.6">
-      <c r="A8" s="260"/>
+    <row r="8" spans="1:10" ht="36.9">
+      <c r="A8" s="170"/>
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
@@ -10040,8 +9959,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="39.6">
-      <c r="A9" s="262"/>
+    <row r="9" spans="1:10" ht="36.9">
+      <c r="A9" s="173"/>
       <c r="B9" s="47" t="s">
         <v>21</v>
       </c>
@@ -10092,8 +10011,8 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="39.6">
-      <c r="A11" s="263" t="s">
+    <row r="11" spans="1:10" ht="36.9">
+      <c r="A11" s="175" t="s">
         <v>119</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -10121,8 +10040,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="39.6">
-      <c r="A12" s="260"/>
+    <row r="12" spans="1:10" ht="36.9">
+      <c r="A12" s="170"/>
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
@@ -10148,8 +10067,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="39.6">
-      <c r="A13" s="260"/>
+    <row r="13" spans="1:10" ht="24.6">
+      <c r="A13" s="170"/>
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -10175,8 +10094,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="39.6">
-      <c r="A14" s="260"/>
+    <row r="14" spans="1:10" ht="36.9">
+      <c r="A14" s="170"/>
       <c r="B14" s="47" t="s">
         <v>21</v>
       </c>
@@ -10203,7 +10122,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="26.4">
+    <row r="15" spans="1:10" ht="24.6">
       <c r="A15" s="6" t="s">
         <v>159</v>
       </c>
@@ -10229,7 +10148,7 @@
       </c>
       <c r="J15" s="36"/>
     </row>
-    <row r="16" spans="1:10" ht="26.4">
+    <row r="16" spans="1:10" ht="24.6">
       <c r="A16" s="6" t="s">
         <v>167</v>
       </c>
@@ -10255,7 +10174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="105.6">
+    <row r="22" spans="1:10" ht="98.4">
       <c r="A22" s="14" t="s">
         <v>19</v>
       </c>
@@ -10285,7 +10204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="79.2">
+    <row r="26" spans="1:10" ht="73.8">
       <c r="A26" s="6" t="s">
         <v>179</v>
       </c>
@@ -10315,7 +10234,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="52.8">
+    <row r="27" spans="1:10" ht="36.9">
       <c r="A27" s="66" t="s">
         <v>190</v>
       </c>
@@ -10347,7 +10266,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="92.4">
+    <row r="28" spans="1:10" ht="86.1">
       <c r="A28" s="6" t="s">
         <v>259</v>
       </c>
@@ -10377,7 +10296,7 @@
         <v>76138</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="66">
+    <row r="29" spans="1:10" ht="61.5">
       <c r="A29" s="6" t="s">
         <v>269</v>
       </c>
@@ -10449,7 +10368,7 @@
       <c r="I31" s="12"/>
       <c r="J31" s="36"/>
     </row>
-    <row r="32" spans="1:10" ht="79.2">
+    <row r="32" spans="1:10" ht="73.8">
       <c r="A32" s="6" t="s">
         <v>321</v>
       </c>
@@ -10479,7 +10398,7 @@
       </c>
       <c r="J32" s="36"/>
     </row>
-    <row r="33" spans="1:10" ht="92.4">
+    <row r="33" spans="1:10" ht="86.1">
       <c r="A33" s="88" t="s">
         <v>348</v>
       </c>
@@ -10509,7 +10428,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="39.6">
+    <row r="34" spans="1:10" ht="36.9">
       <c r="A34" s="6" t="s">
         <v>357</v>
       </c>
@@ -10537,7 +10456,7 @@
       </c>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" ht="66">
+    <row r="35" spans="1:10" ht="61.5">
       <c r="A35" s="6" t="s">
         <v>364</v>
       </c>
@@ -10569,8 +10488,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="39.6">
-      <c r="A36" s="264" t="s">
+    <row r="36" spans="1:10" ht="36.9">
+      <c r="A36" s="172" t="s">
         <v>377</v>
       </c>
       <c r="B36" s="91" t="s">
@@ -10599,8 +10518,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="39.6">
-      <c r="A37" s="260"/>
+    <row r="37" spans="1:10" ht="36.9">
+      <c r="A37" s="170"/>
       <c r="B37" s="8" t="s">
         <v>21</v>
       </c>
@@ -10627,8 +10546,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="66">
-      <c r="A38" s="260"/>
+    <row r="38" spans="1:10" ht="61.5">
+      <c r="A38" s="170"/>
       <c r="B38" s="8" t="s">
         <v>21</v>
       </c>
@@ -10655,8 +10574,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="39.6">
-      <c r="A39" s="260"/>
+    <row r="39" spans="1:10" ht="36.9">
+      <c r="A39" s="170"/>
       <c r="B39" s="8" t="s">
         <v>21</v>
       </c>
@@ -10683,8 +10602,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="39.6">
-      <c r="A40" s="260"/>
+    <row r="40" spans="1:10" ht="36.9">
+      <c r="A40" s="170"/>
       <c r="B40" s="8" t="s">
         <v>21</v>
       </c>
@@ -10711,8 +10630,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="39.6">
-      <c r="A41" s="260"/>
+    <row r="41" spans="1:10" ht="36.9">
+      <c r="A41" s="170"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
       </c>
@@ -10739,8 +10658,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="39.6">
-      <c r="A42" s="260"/>
+    <row r="42" spans="1:10" ht="36.9">
+      <c r="A42" s="170"/>
       <c r="B42" s="8" t="s">
         <v>21</v>
       </c>
@@ -10767,8 +10686,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="39.6">
-      <c r="A43" s="260"/>
+    <row r="43" spans="1:10" ht="36.9">
+      <c r="A43" s="170"/>
       <c r="B43" s="8" t="s">
         <v>21</v>
       </c>
@@ -10795,8 +10714,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="39.6">
-      <c r="A44" s="260"/>
+    <row r="44" spans="1:10" ht="36.9">
+      <c r="A44" s="170"/>
       <c r="B44" s="8" t="s">
         <v>21</v>
       </c>
@@ -10823,8 +10742,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="39.6">
-      <c r="A45" s="262"/>
+    <row r="45" spans="1:10" ht="36.9">
+      <c r="A45" s="173"/>
       <c r="B45" s="47" t="s">
         <v>21</v>
       </c>
@@ -10851,7 +10770,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="39.6">
+    <row r="46" spans="1:10" ht="36.9">
       <c r="A46" s="106" t="s">
         <v>460</v>
       </c>
@@ -10911,8 +10830,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="66">
-      <c r="A48" s="264" t="s">
+    <row r="48" spans="1:10" ht="61.5">
+      <c r="A48" s="172" t="s">
         <v>497</v>
       </c>
       <c r="B48" s="91" t="s">
@@ -10941,8 +10860,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="39.6">
-      <c r="A49" s="262"/>
+    <row r="49" spans="1:10" ht="36.9">
+      <c r="A49" s="173"/>
       <c r="B49" s="47" t="s">
         <v>21</v>
       </c>
@@ -10997,7 +10916,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="26.4">
+    <row r="51" spans="1:10" ht="24.6">
       <c r="A51" s="8" t="s">
         <v>461</v>
       </c>
@@ -11023,7 +10942,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="79.2">
+    <row r="52" spans="1:10" ht="73.8">
       <c r="A52" s="6" t="s">
         <v>550</v>
       </c>
@@ -11055,7 +10974,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="52.8">
+    <row r="53" spans="1:10" ht="49.2">
       <c r="A53" s="8" t="s">
         <v>550</v>
       </c>
@@ -11087,7 +11006,7 @@
         <v>43283</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="52.8">
+    <row r="54" spans="1:10" ht="49.2">
       <c r="A54" s="8" t="s">
         <v>550</v>
       </c>
@@ -11119,7 +11038,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="52.8">
+    <row r="55" spans="1:10" ht="49.2">
       <c r="A55" s="8" t="s">
         <v>550</v>
       </c>
@@ -11151,7 +11070,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="66">
+    <row r="56" spans="1:10" ht="61.5">
       <c r="A56" s="8" t="s">
         <v>550</v>
       </c>
@@ -11183,7 +11102,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="52.8">
+    <row r="57" spans="1:10" ht="49.2">
       <c r="A57" s="8" t="s">
         <v>550</v>
       </c>
@@ -11215,7 +11134,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="52.8">
+    <row r="58" spans="1:10" ht="49.2">
       <c r="A58" s="8" t="s">
         <v>550</v>
       </c>
@@ -11247,7 +11166,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="52.8">
+    <row r="59" spans="1:10" ht="49.2">
       <c r="A59" s="8" t="s">
         <v>550</v>
       </c>
@@ -11279,7 +11198,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="52.8">
+    <row r="60" spans="1:10" ht="49.2">
       <c r="A60" s="6" t="s">
         <v>591</v>
       </c>
@@ -11309,7 +11228,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="26.4">
+    <row r="61" spans="1:10" ht="24.6">
       <c r="A61" s="8" t="s">
         <v>591</v>
       </c>
@@ -11339,7 +11258,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="79.2">
+    <row r="62" spans="1:10" ht="73.8">
       <c r="A62" s="6" t="s">
         <v>605</v>
       </c>
@@ -11369,7 +11288,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="26.4">
+    <row r="63" spans="1:10" ht="24.6">
       <c r="A63" s="133" t="s">
         <v>615</v>
       </c>
@@ -11399,7 +11318,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="52.8">
+    <row r="64" spans="1:10" ht="49.2">
       <c r="A64" s="6" t="s">
         <v>640</v>
       </c>
@@ -11461,7 +11380,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="52.8">
+    <row r="66" spans="1:10" ht="49.2">
       <c r="A66" s="126" t="s">
         <v>655</v>
       </c>
@@ -11488,7 +11407,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="66">
+    <row r="67" spans="1:10" ht="61.5">
       <c r="A67" s="124" t="s">
         <v>655</v>
       </c>
@@ -11623,7 +11542,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="39.6">
+    <row r="72" spans="1:10" ht="43.2">
       <c r="A72" s="124" t="s">
         <v>655</v>
       </c>
@@ -11845,7 +11764,7 @@
         <v>43295</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="79.2">
+    <row r="80" spans="1:10" ht="61.5">
       <c r="A80" s="126" t="s">
         <v>566</v>
       </c>
@@ -11873,7 +11792,7 @@
         <v>43296</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="66">
+    <row r="81" spans="1:10" ht="57.6">
       <c r="A81" s="124" t="s">
         <v>566</v>
       </c>
@@ -11901,7 +11820,7 @@
         <v>43297</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="66">
+    <row r="82" spans="1:10" ht="61.5">
       <c r="A82" s="124" t="s">
         <v>566</v>
       </c>
@@ -11983,7 +11902,7 @@
         <v>43300</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="52.8">
+    <row r="85" spans="1:10" ht="49.2">
       <c r="A85" s="8" t="s">
         <v>757</v>
       </c>
@@ -12013,7 +11932,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="52.8">
+    <row r="86" spans="1:10" ht="49.2">
       <c r="A86" s="6" t="s">
         <v>766</v>
       </c>
@@ -12043,7 +11962,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="118.8">
+    <row r="87" spans="1:10" ht="110.7">
       <c r="A87" s="6" t="s">
         <v>771</v>
       </c>
@@ -12071,8 +11990,8 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="39.6">
-      <c r="A88" s="261" t="s">
+    <row r="88" spans="1:10" ht="36.9">
+      <c r="A88" s="174" t="s">
         <v>785</v>
       </c>
       <c r="B88" s="8" t="s">
@@ -12101,8 +12020,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="39.6">
-      <c r="A89" s="260"/>
+    <row r="89" spans="1:10" ht="36.9">
+      <c r="A89" s="170"/>
       <c r="B89" s="8" t="s">
         <v>45</v>
       </c>
@@ -12129,8 +12048,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="39.6">
-      <c r="A90" s="260"/>
+    <row r="90" spans="1:10" ht="36.9">
+      <c r="A90" s="170"/>
       <c r="B90" s="8" t="s">
         <v>45</v>
       </c>
@@ -12157,8 +12076,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="39.6">
-      <c r="A91" s="260"/>
+    <row r="91" spans="1:10" ht="36.9">
+      <c r="A91" s="170"/>
       <c r="B91" s="8" t="s">
         <v>45</v>
       </c>
@@ -12185,8 +12104,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="39.6">
-      <c r="A92" s="260"/>
+    <row r="92" spans="1:10" ht="24.6">
+      <c r="A92" s="170"/>
       <c r="B92" s="8" t="s">
         <v>45</v>
       </c>
@@ -12213,8 +12132,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="39.6">
-      <c r="A93" s="260"/>
+    <row r="93" spans="1:10" ht="24.6">
+      <c r="A93" s="170"/>
       <c r="B93" s="8" t="s">
         <v>45</v>
       </c>
@@ -12241,8 +12160,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="39.6">
-      <c r="A94" s="260"/>
+    <row r="94" spans="1:10" ht="36.9">
+      <c r="A94" s="170"/>
       <c r="B94" s="8" t="s">
         <v>45</v>
       </c>
@@ -12269,8 +12188,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="39.6">
-      <c r="A95" s="260"/>
+    <row r="95" spans="1:10" ht="36.9">
+      <c r="A95" s="170"/>
       <c r="B95" s="8" t="s">
         <v>45</v>
       </c>
@@ -12297,7 +12216,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="26.4">
+    <row r="96" spans="1:10" ht="24.6">
       <c r="A96" s="6" t="s">
         <v>818</v>
       </c>
@@ -12329,7 +12248,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="52.8">
+    <row r="97" spans="1:10" ht="49.2">
       <c r="A97" s="6" t="s">
         <v>839</v>
       </c>
@@ -12359,7 +12278,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="39.6">
+    <row r="98" spans="1:10" ht="36.9">
       <c r="A98" s="6" t="s">
         <v>847</v>
       </c>
@@ -12522,7 +12441,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="66">
+    <row r="104" spans="1:10" ht="61.5">
       <c r="A104" s="6" t="s">
         <v>898</v>
       </c>
@@ -12552,7 +12471,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="66">
+    <row r="105" spans="1:10" ht="61.5">
       <c r="A105" s="6" t="s">
         <v>898</v>
       </c>
@@ -12889,7 +12808,7 @@
         <v>43293</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="118.8">
+    <row r="117" spans="1:10" ht="98.4">
       <c r="A117" s="6" t="s">
         <v>932</v>
       </c>
@@ -12921,7 +12840,7 @@
         <v>43294</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="26.4">
+    <row r="118" spans="1:10" ht="24.6">
       <c r="A118" s="6" t="s">
         <v>932</v>
       </c>
@@ -13110,17 +13029,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:Z1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
@@ -13134,7 +13053,7 @@
     <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39.6">
+    <row r="1" spans="1:10" ht="36.9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -13159,12 +13078,12 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="266" t="s">
+      <c r="I1" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="260"/>
-    </row>
-    <row r="2" spans="1:10" ht="26.4">
+      <c r="J1" s="170"/>
+    </row>
+    <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -13180,7 +13099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="211.2">
+    <row r="3" spans="1:10" ht="196.8">
       <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
@@ -13210,7 +13129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="211.2">
+    <row r="4" spans="1:10" ht="196.8">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
@@ -13240,7 +13159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="211.2">
+    <row r="5" spans="1:10" ht="196.8">
       <c r="A5" s="14" t="s">
         <v>19</v>
       </c>

--- a/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
+++ b/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="17268" windowHeight="5376"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="17268" windowHeight="5316" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Action Items, Open" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F121" authorId="0">
+    <comment ref="F122" authorId="0">
       <text>
         <r>
           <rPr>
@@ -34,7 +34,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F135" authorId="0">
+    <comment ref="F136" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="1011">
   <si>
     <t>TM</t>
   </si>
@@ -4341,6 +4341,18 @@
       </rPr>
       <t xml:space="preserve"> methylprednisolone (methylprednisolone sodium succinate) 125 mg powder for solution for injection with diluent solution per vial</t>
     </r>
+  </si>
+  <si>
+    <t>QA Release 20180704 Relationship file for QA.xlsx</t>
+  </si>
+  <si>
+    <t>00873993</t>
+  </si>
+  <si>
+    <t>desmopressin acetate 4 mcg per mL solution for injection</t>
+  </si>
+  <si>
+    <t>UoP: 13867, ampoule, 1, mL, Y, N</t>
   </si>
 </sst>
 </file>
@@ -4962,7 +4974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5630,6 +5642,39 @@
     <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5650,38 +5695,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5996,7 +6011,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6007,11 +6022,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J145"/>
+  <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H110" sqref="H110"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
@@ -7335,32 +7350,30 @@
       <c r="H54" s="178"/>
       <c r="I54" s="179"/>
     </row>
-    <row r="55" spans="1:10" ht="27.6">
-      <c r="A55" s="173" t="s">
+    <row r="55" spans="1:10" ht="41.4">
+      <c r="A55" s="212" t="s">
         <v>372</v>
       </c>
-      <c r="B55" s="174" t="s">
-        <v>373</v>
-      </c>
-      <c r="C55" s="174"/>
-      <c r="D55" s="174" t="s">
-        <v>374</v>
+      <c r="B55" s="178" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C55" s="178"/>
+      <c r="D55" s="175" t="s">
+        <v>1008</v>
       </c>
       <c r="E55" s="182" t="s">
-        <v>375</v>
-      </c>
-      <c r="F55" s="211" t="s">
-        <v>377</v>
-      </c>
-      <c r="G55" s="178" t="s">
-        <v>378</v>
-      </c>
+        <v>1009</v>
+      </c>
+      <c r="F55" s="246" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G55" s="199"/>
       <c r="H55" s="178"/>
       <c r="I55" s="179">
-        <v>43252</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="179.4">
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="27.6">
       <c r="A56" s="173" t="s">
         <v>372</v>
       </c>
@@ -7369,49 +7382,47 @@
       </c>
       <c r="C56" s="174"/>
       <c r="D56" s="174" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E56" s="182" t="s">
-        <v>380</v>
-      </c>
-      <c r="F56" s="213" t="s">
-        <v>381</v>
-      </c>
-      <c r="G56" s="178"/>
+        <v>375</v>
+      </c>
+      <c r="F56" s="211" t="s">
+        <v>377</v>
+      </c>
+      <c r="G56" s="178" t="s">
+        <v>378</v>
+      </c>
       <c r="H56" s="178"/>
       <c r="I56" s="179">
-        <v>43290</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="41.4">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="179.4">
       <c r="A57" s="173" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B57" s="174" t="s">
-        <v>383</v>
-      </c>
-      <c r="C57" s="174" t="s">
-        <v>22</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="C57" s="174"/>
       <c r="D57" s="174" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E57" s="182" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F57" s="213" t="s">
-        <v>386</v>
-      </c>
-      <c r="G57" s="178" t="s">
-        <v>387</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="G57" s="178"/>
       <c r="H57" s="178"/>
       <c r="I57" s="179">
-        <v>43277</v>
+        <v>43290</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="41.4">
-      <c r="A58" s="196" t="s">
+      <c r="A58" s="173" t="s">
         <v>382</v>
       </c>
       <c r="B58" s="174" t="s">
@@ -7421,16 +7432,20 @@
         <v>22</v>
       </c>
       <c r="D58" s="174" t="s">
-        <v>388</v>
-      </c>
-      <c r="E58" s="182"/>
-      <c r="F58" s="211" t="s">
-        <v>389</v>
-      </c>
-      <c r="G58" s="178"/>
+        <v>384</v>
+      </c>
+      <c r="E58" s="182" t="s">
+        <v>385</v>
+      </c>
+      <c r="F58" s="213" t="s">
+        <v>386</v>
+      </c>
+      <c r="G58" s="178" t="s">
+        <v>387</v>
+      </c>
       <c r="H58" s="178"/>
       <c r="I58" s="179">
-        <v>43278</v>
+        <v>43277</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="41.4">
@@ -7444,7 +7459,7 @@
         <v>22</v>
       </c>
       <c r="D59" s="174" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E59" s="182"/>
       <c r="F59" s="211" t="s">
@@ -7467,7 +7482,7 @@
         <v>22</v>
       </c>
       <c r="D60" s="174" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E60" s="182"/>
       <c r="F60" s="211" t="s">
@@ -7479,42 +7494,44 @@
         <v>43278</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="55.2">
+    <row r="61" spans="1:10" ht="41.4">
       <c r="A61" s="196" t="s">
         <v>382</v>
       </c>
       <c r="B61" s="174" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C61" s="174" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="174" t="s">
-        <v>394</v>
-      </c>
-      <c r="E61" s="182" t="s">
-        <v>954</v>
-      </c>
-      <c r="F61" s="213" t="s">
-        <v>395</v>
+        <v>391</v>
+      </c>
+      <c r="E61" s="182"/>
+      <c r="F61" s="211" t="s">
+        <v>389</v>
       </c>
       <c r="G61" s="178"/>
       <c r="H61" s="178"/>
-      <c r="I61" s="179"/>
-    </row>
-    <row r="62" spans="1:10" ht="41.4">
-      <c r="A62" s="173" t="s">
-        <v>396</v>
+      <c r="I61" s="179">
+        <v>43278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="55.2">
+      <c r="A62" s="196" t="s">
+        <v>382</v>
       </c>
       <c r="B62" s="174" t="s">
-        <v>397</v>
-      </c>
-      <c r="C62" s="174"/>
+        <v>393</v>
+      </c>
+      <c r="C62" s="174" t="s">
+        <v>22</v>
+      </c>
       <c r="D62" s="174" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E62" s="182" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F62" s="213" t="s">
         <v>395</v>
@@ -7523,55 +7540,49 @@
       <c r="H62" s="178"/>
       <c r="I62" s="179"/>
     </row>
-    <row r="63" spans="1:10" ht="27.6">
+    <row r="63" spans="1:10" ht="41.4">
       <c r="A63" s="173" t="s">
+        <v>396</v>
+      </c>
+      <c r="B63" s="174" t="s">
+        <v>397</v>
+      </c>
+      <c r="C63" s="174"/>
+      <c r="D63" s="174" t="s">
+        <v>398</v>
+      </c>
+      <c r="E63" s="182" t="s">
+        <v>955</v>
+      </c>
+      <c r="F63" s="213" t="s">
+        <v>395</v>
+      </c>
+      <c r="G63" s="178"/>
+      <c r="H63" s="178"/>
+      <c r="I63" s="179"/>
+    </row>
+    <row r="64" spans="1:10" ht="27.6">
+      <c r="A64" s="173" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="178" t="s">
+      <c r="B64" s="178" t="s">
         <v>401</v>
       </c>
-      <c r="C63" s="178" t="s">
+      <c r="C64" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="178" t="s">
+      <c r="D64" s="178" t="s">
         <v>402</v>
       </c>
-      <c r="E63" s="176" t="s">
+      <c r="E64" s="176" t="s">
         <v>403</v>
       </c>
-      <c r="F63" s="199" t="s">
+      <c r="F64" s="199" t="s">
         <v>404</v>
-      </c>
-      <c r="H63" s="178"/>
-      <c r="I63" s="179">
-        <v>43283</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="41.4">
-      <c r="A64" s="196" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" s="174" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="214">
-        <v>2320789</v>
-      </c>
-      <c r="E64" s="182" t="s">
-        <v>406</v>
-      </c>
-      <c r="F64" s="213" t="s">
-        <v>408</v>
-      </c>
-      <c r="G64" s="178" t="s">
-        <v>409</v>
       </c>
       <c r="H64" s="178"/>
       <c r="I64" s="179">
-        <v>43284</v>
+        <v>43283</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="41.4">
@@ -7584,8 +7595,8 @@
       <c r="C65" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="214" t="s">
-        <v>410</v>
+      <c r="D65" s="214">
+        <v>2320789</v>
       </c>
       <c r="E65" s="182" t="s">
         <v>406</v>
@@ -7594,11 +7605,11 @@
         <v>408</v>
       </c>
       <c r="G65" s="178" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H65" s="178"/>
       <c r="I65" s="179">
-        <v>43285</v>
+        <v>43284</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="41.4">
@@ -7612,20 +7623,20 @@
         <v>22</v>
       </c>
       <c r="D66" s="214" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E66" s="182" t="s">
-        <v>102</v>
+        <v>406</v>
       </c>
       <c r="F66" s="213" t="s">
         <v>408</v>
       </c>
       <c r="G66" s="178" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H66" s="178"/>
       <c r="I66" s="179">
-        <v>43287</v>
+        <v>43285</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="41.4">
@@ -7639,7 +7650,7 @@
         <v>22</v>
       </c>
       <c r="D67" s="214" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E67" s="182" t="s">
         <v>102</v>
@@ -7647,12 +7658,12 @@
       <c r="F67" s="213" t="s">
         <v>408</v>
       </c>
-      <c r="G67" s="214" t="s">
-        <v>417</v>
+      <c r="G67" s="178" t="s">
+        <v>413</v>
       </c>
       <c r="H67" s="178"/>
       <c r="I67" s="179">
-        <v>43288</v>
+        <v>43287</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="41.4">
@@ -7666,19 +7677,21 @@
         <v>22</v>
       </c>
       <c r="D68" s="214" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E68" s="182" t="s">
         <v>102</v>
       </c>
       <c r="F68" s="213" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="G68" s="214" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H68" s="178"/>
-      <c r="I68" s="179"/>
+      <c r="I68" s="179">
+        <v>43288</v>
+      </c>
     </row>
     <row r="69" spans="1:9" ht="41.4">
       <c r="A69" s="196" t="s">
@@ -7691,7 +7704,7 @@
         <v>22</v>
       </c>
       <c r="D69" s="214" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E69" s="182" t="s">
         <v>102</v>
@@ -7700,7 +7713,7 @@
         <v>422</v>
       </c>
       <c r="G69" s="214" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="H69" s="178"/>
       <c r="I69" s="179"/>
@@ -7715,17 +7728,17 @@
       <c r="C70" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="200" t="s">
-        <v>432</v>
+      <c r="D70" s="214" t="s">
+        <v>424</v>
       </c>
       <c r="E70" s="182" t="s">
         <v>102</v>
       </c>
       <c r="F70" s="213" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="G70" s="214" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H70" s="178"/>
       <c r="I70" s="179"/>
@@ -7741,16 +7754,16 @@
         <v>22</v>
       </c>
       <c r="D71" s="200" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E71" s="182" t="s">
         <v>102</v>
       </c>
       <c r="F71" s="213" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="G71" s="214" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H71" s="178"/>
       <c r="I71" s="179"/>
@@ -7766,23 +7779,23 @@
         <v>22</v>
       </c>
       <c r="D72" s="200" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E72" s="182" t="s">
         <v>102</v>
       </c>
       <c r="F72" s="213" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="G72" s="214" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="H72" s="178"/>
       <c r="I72" s="179"/>
     </row>
-    <row r="73" spans="1:9" ht="262.2">
-      <c r="A73" s="173" t="s">
-        <v>443</v>
+    <row r="73" spans="1:9" ht="41.4">
+      <c r="A73" s="196" t="s">
+        <v>76</v>
       </c>
       <c r="B73" s="174" t="s">
         <v>77</v>
@@ -7790,24 +7803,24 @@
       <c r="C73" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="215">
-        <v>2368196</v>
+      <c r="D73" s="200" t="s">
+        <v>437</v>
       </c>
       <c r="E73" s="182" t="s">
-        <v>445</v>
+        <v>102</v>
       </c>
       <c r="F73" s="213" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="G73" s="214" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H73" s="178"/>
       <c r="I73" s="179"/>
     </row>
-    <row r="74" spans="1:9" ht="41.4">
-      <c r="A74" s="196" t="s">
-        <v>448</v>
+    <row r="74" spans="1:9" ht="262.2">
+      <c r="A74" s="173" t="s">
+        <v>443</v>
       </c>
       <c r="B74" s="174" t="s">
         <v>77</v>
@@ -7815,26 +7828,24 @@
       <c r="C74" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="216">
-        <v>2356457</v>
+      <c r="D74" s="215">
+        <v>2368196</v>
       </c>
       <c r="E74" s="182" t="s">
-        <v>102</v>
+        <v>445</v>
       </c>
       <c r="F74" s="213" t="s">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="G74" s="214" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H74" s="178"/>
-      <c r="I74" s="179">
-        <v>43289</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="55.2">
-      <c r="A75" s="173" t="s">
-        <v>451</v>
+      <c r="I74" s="179"/>
+    </row>
+    <row r="75" spans="1:9" ht="41.4">
+      <c r="A75" s="196" t="s">
+        <v>448</v>
       </c>
       <c r="B75" s="174" t="s">
         <v>77</v>
@@ -7843,7 +7854,7 @@
         <v>22</v>
       </c>
       <c r="D75" s="216">
-        <v>535230</v>
+        <v>2356457</v>
       </c>
       <c r="E75" s="182" t="s">
         <v>102</v>
@@ -7852,192 +7863,192 @@
         <v>408</v>
       </c>
       <c r="G75" s="214" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H75" s="178"/>
       <c r="I75" s="179">
-        <v>43290</v>
+        <v>43289</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="55.2">
-      <c r="A76" s="217" t="s">
-        <v>453</v>
+      <c r="A76" s="173" t="s">
+        <v>451</v>
       </c>
       <c r="B76" s="174" t="s">
-        <v>454</v>
-      </c>
-      <c r="C76" s="174"/>
-      <c r="D76" s="214" t="s">
-        <v>365</v>
+        <v>77</v>
+      </c>
+      <c r="C76" s="174" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="216">
+        <v>535230</v>
       </c>
       <c r="E76" s="182" t="s">
         <v>102</v>
       </c>
       <c r="F76" s="213" t="s">
-        <v>455</v>
-      </c>
-      <c r="G76" s="214"/>
+        <v>408</v>
+      </c>
+      <c r="G76" s="214" t="s">
+        <v>452</v>
+      </c>
       <c r="H76" s="178"/>
       <c r="I76" s="179">
-        <v>43288</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="193.2">
-      <c r="A77" s="173" t="s">
-        <v>456</v>
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="55.2">
+      <c r="A77" s="217" t="s">
+        <v>453</v>
       </c>
       <c r="B77" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77" s="174" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="216">
-        <v>2410583</v>
+        <v>454</v>
+      </c>
+      <c r="C77" s="174"/>
+      <c r="D77" s="214" t="s">
+        <v>365</v>
       </c>
       <c r="E77" s="182" t="s">
-        <v>457</v>
+        <v>102</v>
       </c>
       <c r="F77" s="213" t="s">
         <v>455</v>
       </c>
-      <c r="G77" s="214" t="s">
-        <v>458</v>
-      </c>
+      <c r="G77" s="214"/>
       <c r="H77" s="178"/>
       <c r="I77" s="179">
-        <v>43291</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="55.2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="193.2">
       <c r="A78" s="173" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B78" s="174" t="s">
-        <v>461</v>
+        <v>77</v>
       </c>
       <c r="C78" s="174" t="s">
-        <v>462</v>
-      </c>
-      <c r="D78" s="178" t="s">
-        <v>208</v>
-      </c>
-      <c r="E78" s="218"/>
+        <v>22</v>
+      </c>
+      <c r="D78" s="216">
+        <v>2410583</v>
+      </c>
+      <c r="E78" s="182" t="s">
+        <v>457</v>
+      </c>
       <c r="F78" s="213" t="s">
-        <v>463</v>
-      </c>
-      <c r="G78" s="178" t="s">
-        <v>464</v>
+        <v>455</v>
+      </c>
+      <c r="G78" s="214" t="s">
+        <v>458</v>
       </c>
       <c r="H78" s="178"/>
       <c r="I78" s="179">
-        <v>43196</v>
+        <v>43291</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="55.2">
-      <c r="A79" s="196" t="s">
+      <c r="A79" s="173" t="s">
         <v>460</v>
       </c>
-      <c r="B79" s="174"/>
-      <c r="C79" s="174"/>
-      <c r="D79" s="174" t="s">
-        <v>465</v>
-      </c>
-      <c r="E79" s="182" t="s">
-        <v>466</v>
-      </c>
-      <c r="F79" s="211" t="s">
-        <v>467</v>
+      <c r="B79" s="174" t="s">
+        <v>461</v>
+      </c>
+      <c r="C79" s="174" t="s">
+        <v>462</v>
+      </c>
+      <c r="D79" s="178" t="s">
+        <v>208</v>
+      </c>
+      <c r="E79" s="218"/>
+      <c r="F79" s="213" t="s">
+        <v>463</v>
       </c>
       <c r="G79" s="178" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H79" s="178"/>
       <c r="I79" s="179">
         <v>43196</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="151.80000000000001">
-      <c r="A80" s="173" t="s">
-        <v>469</v>
-      </c>
-      <c r="B80" s="174" t="s">
-        <v>461</v>
-      </c>
-      <c r="C80" s="174" t="s">
-        <v>470</v>
-      </c>
-      <c r="D80" s="178" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="218"/>
+    <row r="80" spans="1:9" ht="55.2">
+      <c r="A80" s="196" t="s">
+        <v>460</v>
+      </c>
+      <c r="B80" s="174"/>
+      <c r="C80" s="174"/>
+      <c r="D80" s="174" t="s">
+        <v>465</v>
+      </c>
+      <c r="E80" s="182" t="s">
+        <v>466</v>
+      </c>
       <c r="F80" s="211" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G80" s="178" t="s">
-        <v>473</v>
-      </c>
-      <c r="H80" s="178" t="s">
-        <v>473</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="H80" s="178"/>
       <c r="I80" s="179">
         <v>43196</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="124.2">
+    <row r="81" spans="1:10" ht="151.80000000000001">
       <c r="A81" s="173" t="s">
+        <v>469</v>
+      </c>
+      <c r="B81" s="174" t="s">
+        <v>461</v>
+      </c>
+      <c r="C81" s="174" t="s">
+        <v>470</v>
+      </c>
+      <c r="D81" s="178" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="218"/>
+      <c r="F81" s="211" t="s">
+        <v>472</v>
+      </c>
+      <c r="G81" s="178" t="s">
+        <v>473</v>
+      </c>
+      <c r="H81" s="178" t="s">
+        <v>473</v>
+      </c>
+      <c r="I81" s="179">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="124.2">
+      <c r="A82" s="173" t="s">
         <v>474</v>
       </c>
-      <c r="B81" s="174" t="s">
+      <c r="B82" s="174" t="s">
         <v>475</v>
       </c>
-      <c r="C81" s="174"/>
-      <c r="D81" s="175" t="s">
+      <c r="C82" s="174"/>
+      <c r="D82" s="175" t="s">
         <v>476</v>
       </c>
-      <c r="E81" s="182" t="s">
+      <c r="E82" s="182" t="s">
         <v>477</v>
       </c>
-      <c r="F81" s="213" t="s">
+      <c r="F82" s="213" t="s">
         <v>478</v>
       </c>
-      <c r="G81" s="178" t="s">
+      <c r="G82" s="178" t="s">
         <v>479</v>
-      </c>
-      <c r="H81" s="178"/>
-      <c r="I81" s="179">
-        <v>43264</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="409.6">
-      <c r="A82" s="173" t="s">
-        <v>481</v>
-      </c>
-      <c r="B82" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C82" s="194">
-        <v>8001266</v>
-      </c>
-      <c r="D82" s="200" t="s">
-        <v>488</v>
-      </c>
-      <c r="E82" s="192" t="s">
-        <v>489</v>
-      </c>
-      <c r="F82" s="199" t="s">
-        <v>490</v>
-      </c>
-      <c r="G82" s="178" t="s">
-        <v>491</v>
       </c>
       <c r="H82" s="178"/>
       <c r="I82" s="179">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="41.4">
-      <c r="A83" s="196" t="s">
+        <v>43264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="409.6">
+      <c r="A83" s="173" t="s">
         <v>481</v>
       </c>
       <c r="B83" s="178" t="s">
@@ -8047,23 +8058,23 @@
         <v>8001266</v>
       </c>
       <c r="D83" s="200" t="s">
-        <v>492</v>
-      </c>
-      <c r="E83" s="182" t="s">
+        <v>488</v>
+      </c>
+      <c r="E83" s="192" t="s">
         <v>489</v>
       </c>
       <c r="F83" s="199" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G83" s="178" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="H83" s="178"/>
       <c r="I83" s="179">
         <v>43240</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="69">
+    <row r="84" spans="1:10" ht="41.4">
       <c r="A84" s="196" t="s">
         <v>481</v>
       </c>
@@ -8074,23 +8085,23 @@
         <v>8001266</v>
       </c>
       <c r="D84" s="200" t="s">
-        <v>498</v>
-      </c>
-      <c r="E84" s="219" t="s">
-        <v>499</v>
+        <v>492</v>
+      </c>
+      <c r="E84" s="182" t="s">
+        <v>489</v>
       </c>
       <c r="F84" s="199" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G84" s="178" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="H84" s="178"/>
       <c r="I84" s="179">
         <v>43240</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="55.2">
+    <row r="85" spans="1:10" ht="69">
       <c r="A85" s="196" t="s">
         <v>481</v>
       </c>
@@ -8101,23 +8112,23 @@
         <v>8001266</v>
       </c>
       <c r="D85" s="200" t="s">
-        <v>502</v>
-      </c>
-      <c r="E85" s="182" t="s">
-        <v>489</v>
+        <v>498</v>
+      </c>
+      <c r="E85" s="219" t="s">
+        <v>499</v>
       </c>
       <c r="F85" s="199" t="s">
-        <v>503</v>
-      </c>
-      <c r="G85" s="180" t="s">
-        <v>491</v>
-      </c>
-      <c r="H85" s="174"/>
+        <v>500</v>
+      </c>
+      <c r="G85" s="178" t="s">
+        <v>501</v>
+      </c>
+      <c r="H85" s="178"/>
       <c r="I85" s="179">
         <v>43240</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="138">
+    <row r="86" spans="1:10" ht="55.2">
       <c r="A86" s="196" t="s">
         <v>481</v>
       </c>
@@ -8128,23 +8139,23 @@
         <v>8001266</v>
       </c>
       <c r="D86" s="200" t="s">
-        <v>504</v>
-      </c>
-      <c r="E86" s="176" t="s">
+        <v>502</v>
+      </c>
+      <c r="E86" s="182" t="s">
         <v>489</v>
       </c>
       <c r="F86" s="199" t="s">
-        <v>505</v>
-      </c>
-      <c r="G86" s="199" t="s">
-        <v>507</v>
-      </c>
-      <c r="H86" s="194"/>
+        <v>503</v>
+      </c>
+      <c r="G86" s="180" t="s">
+        <v>491</v>
+      </c>
+      <c r="H86" s="174"/>
       <c r="I86" s="179">
         <v>43240</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="69">
+    <row r="87" spans="1:10" ht="138">
       <c r="A87" s="196" t="s">
         <v>481</v>
       </c>
@@ -8155,18 +8166,18 @@
         <v>8001266</v>
       </c>
       <c r="D87" s="200" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E87" s="176" t="s">
         <v>489</v>
       </c>
       <c r="F87" s="199" t="s">
-        <v>509</v>
-      </c>
-      <c r="G87" s="178" t="s">
-        <v>510</v>
-      </c>
-      <c r="H87" s="178"/>
+        <v>505</v>
+      </c>
+      <c r="G87" s="199" t="s">
+        <v>507</v>
+      </c>
+      <c r="H87" s="194"/>
       <c r="I87" s="179">
         <v>43240</v>
       </c>
@@ -8182,16 +8193,16 @@
         <v>8001266</v>
       </c>
       <c r="D88" s="200" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E88" s="176" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="F88" s="199" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G88" s="178" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H88" s="178"/>
       <c r="I88" s="179">
@@ -8199,55 +8210,59 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="69">
-      <c r="A89" s="173" t="s">
-        <v>515</v>
+      <c r="A89" s="196" t="s">
+        <v>481</v>
       </c>
       <c r="B89" s="178" t="s">
-        <v>151</v>
-      </c>
-      <c r="C89" s="174" t="s">
-        <v>516</v>
-      </c>
-      <c r="D89" s="174" t="s">
-        <v>517</v>
-      </c>
-      <c r="E89" s="182" t="s">
-        <v>956</v>
-      </c>
-      <c r="F89" s="211" t="s">
-        <v>519</v>
-      </c>
-      <c r="G89" s="178"/>
+        <v>45</v>
+      </c>
+      <c r="C89" s="194">
+        <v>8001266</v>
+      </c>
+      <c r="D89" s="200" t="s">
+        <v>511</v>
+      </c>
+      <c r="E89" s="176" t="s">
+        <v>512</v>
+      </c>
+      <c r="F89" s="199" t="s">
+        <v>513</v>
+      </c>
+      <c r="G89" s="178" t="s">
+        <v>514</v>
+      </c>
       <c r="H89" s="178"/>
       <c r="I89" s="179">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="69">
+      <c r="A90" s="173" t="s">
+        <v>515</v>
+      </c>
+      <c r="B90" s="178" t="s">
+        <v>151</v>
+      </c>
+      <c r="C90" s="174" t="s">
+        <v>516</v>
+      </c>
+      <c r="D90" s="174" t="s">
+        <v>517</v>
+      </c>
+      <c r="E90" s="182" t="s">
+        <v>956</v>
+      </c>
+      <c r="F90" s="211" t="s">
+        <v>519</v>
+      </c>
+      <c r="G90" s="178"/>
+      <c r="H90" s="178"/>
+      <c r="I90" s="179">
         <v>43196</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="96.6">
-      <c r="A90" s="173" t="s">
-        <v>520</v>
-      </c>
-      <c r="B90" s="178" t="s">
-        <v>521</v>
-      </c>
-      <c r="C90" s="174"/>
-      <c r="D90" s="174" t="s">
-        <v>522</v>
-      </c>
-      <c r="E90" s="182" t="s">
-        <v>523</v>
-      </c>
-      <c r="F90" s="213" t="s">
-        <v>967</v>
-      </c>
-      <c r="G90" s="178" t="s">
-        <v>525</v>
-      </c>
-      <c r="H90" s="178"/>
-      <c r="I90" s="179"/>
-    </row>
-    <row r="91" spans="1:10" ht="138">
-      <c r="A91" s="196" t="s">
+    <row r="91" spans="1:10" ht="96.6">
+      <c r="A91" s="173" t="s">
         <v>520</v>
       </c>
       <c r="B91" s="178" t="s">
@@ -8255,113 +8270,110 @@
       </c>
       <c r="C91" s="174"/>
       <c r="D91" s="174" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E91" s="182" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F91" s="213" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G91" s="178" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H91" s="178"/>
       <c r="I91" s="179"/>
     </row>
-    <row r="92" spans="1:10" ht="234.6">
+    <row r="92" spans="1:10" ht="138">
       <c r="A92" s="196" t="s">
         <v>520</v>
       </c>
-      <c r="B92" s="178"/>
+      <c r="B92" s="178" t="s">
+        <v>521</v>
+      </c>
       <c r="C92" s="174"/>
       <c r="D92" s="174" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E92" s="182" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F92" s="213" t="s">
-        <v>969</v>
-      </c>
-      <c r="G92" s="194" t="s">
-        <v>533</v>
+        <v>968</v>
+      </c>
+      <c r="G92" s="178" t="s">
+        <v>529</v>
       </c>
       <c r="H92" s="178"/>
       <c r="I92" s="179"/>
     </row>
-    <row r="93" spans="1:10" ht="82.8">
-      <c r="A93" s="173" t="s">
+    <row r="93" spans="1:10" ht="234.6">
+      <c r="A93" s="196" t="s">
+        <v>520</v>
+      </c>
+      <c r="B93" s="178"/>
+      <c r="C93" s="174"/>
+      <c r="D93" s="174" t="s">
+        <v>530</v>
+      </c>
+      <c r="E93" s="182" t="s">
+        <v>531</v>
+      </c>
+      <c r="F93" s="213" t="s">
+        <v>969</v>
+      </c>
+      <c r="G93" s="194" t="s">
+        <v>533</v>
+      </c>
+      <c r="H93" s="178"/>
+      <c r="I93" s="179"/>
+    </row>
+    <row r="94" spans="1:10" ht="82.8">
+      <c r="A94" s="173" t="s">
         <v>534</v>
       </c>
-      <c r="B93" s="178" t="s">
+      <c r="B94" s="178" t="s">
         <v>151</v>
       </c>
-      <c r="C93" s="174" t="s">
+      <c r="C94" s="174" t="s">
         <v>535</v>
       </c>
-      <c r="D93" s="174" t="s">
+      <c r="D94" s="174" t="s">
         <v>536</v>
       </c>
-      <c r="E93" s="182" t="s">
+      <c r="E94" s="182" t="s">
         <v>957</v>
       </c>
-      <c r="F93" s="199" t="s">
+      <c r="F94" s="199" t="s">
         <v>538</v>
       </c>
-      <c r="G93" s="174" t="s">
+      <c r="G94" s="174" t="s">
         <v>539</v>
-      </c>
-      <c r="H93" s="178"/>
-      <c r="I93" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="55.2">
-      <c r="A94" s="181" t="s">
-        <v>540</v>
-      </c>
-      <c r="B94" s="178" t="s">
-        <v>547</v>
-      </c>
-      <c r="C94" s="178"/>
-      <c r="D94" s="175" t="s">
-        <v>553</v>
-      </c>
-      <c r="E94" s="182" t="s">
-        <v>554</v>
-      </c>
-      <c r="F94" s="201" t="s">
-        <v>555</v>
-      </c>
-      <c r="G94" s="178" t="s">
-        <v>559</v>
       </c>
       <c r="H94" s="178"/>
       <c r="I94" s="179">
-        <v>76138</v>
-      </c>
-      <c r="J94" s="178"/>
-    </row>
-    <row r="95" spans="1:10" ht="96.6">
-      <c r="A95" s="173" t="s">
-        <v>565</v>
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="55.2">
+      <c r="A95" s="181" t="s">
+        <v>540</v>
       </c>
       <c r="B95" s="178" t="s">
         <v>547</v>
       </c>
       <c r="C95" s="178"/>
       <c r="D95" s="175" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="E95" s="182" t="s">
-        <v>958</v>
-      </c>
-      <c r="F95" s="199" t="s">
-        <v>579</v>
+        <v>554</v>
+      </c>
+      <c r="F95" s="201" t="s">
+        <v>555</v>
       </c>
       <c r="G95" s="178" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="H95" s="178"/>
       <c r="I95" s="179">
@@ -8369,137 +8381,134 @@
       </c>
       <c r="J95" s="178"/>
     </row>
-    <row r="96" spans="1:10" ht="41.4">
+    <row r="96" spans="1:10" ht="96.6">
       <c r="A96" s="173" t="s">
+        <v>565</v>
+      </c>
+      <c r="B96" s="178" t="s">
+        <v>547</v>
+      </c>
+      <c r="C96" s="178"/>
+      <c r="D96" s="175" t="s">
+        <v>570</v>
+      </c>
+      <c r="E96" s="182" t="s">
+        <v>958</v>
+      </c>
+      <c r="F96" s="199" t="s">
+        <v>579</v>
+      </c>
+      <c r="G96" s="178" t="s">
+        <v>583</v>
+      </c>
+      <c r="H96" s="178"/>
+      <c r="I96" s="179">
+        <v>76138</v>
+      </c>
+      <c r="J96" s="178"/>
+    </row>
+    <row r="97" spans="1:10" ht="41.4">
+      <c r="A97" s="173" t="s">
         <v>588</v>
       </c>
-      <c r="B96" s="178" t="s">
+      <c r="B97" s="178" t="s">
         <v>592</v>
       </c>
-      <c r="C96" s="178"/>
-      <c r="D96" s="174" t="s">
+      <c r="C97" s="178"/>
+      <c r="D97" s="174" t="s">
         <v>593</v>
       </c>
-      <c r="E96" s="182" t="s">
+      <c r="E97" s="182" t="s">
         <v>594</v>
       </c>
-      <c r="F96" s="201" t="s">
+      <c r="F97" s="201" t="s">
         <v>595</v>
       </c>
-      <c r="G96" s="178" t="s">
+      <c r="G97" s="178" t="s">
         <v>598</v>
       </c>
-      <c r="H96" s="178"/>
-      <c r="I96" s="179"/>
-      <c r="J96" s="178"/>
-    </row>
-    <row r="97" spans="1:9" ht="55.2">
-      <c r="A97" s="173" t="s">
+      <c r="H97" s="178"/>
+      <c r="I97" s="179"/>
+      <c r="J97" s="178"/>
+    </row>
+    <row r="98" spans="1:10" ht="55.2">
+      <c r="A98" s="173" t="s">
         <v>599</v>
       </c>
-      <c r="B97" s="178" t="s">
+      <c r="B98" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="C97" s="178" t="s">
+      <c r="C98" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D97" s="197" t="s">
+      <c r="D98" s="197" t="s">
         <v>600</v>
       </c>
-      <c r="E97" s="176"/>
-      <c r="F97" s="220" t="s">
+      <c r="E98" s="176"/>
+      <c r="F98" s="220" t="s">
         <v>970</v>
       </c>
-      <c r="G97" s="178"/>
-      <c r="H97" s="178" t="s">
+      <c r="G98" s="178"/>
+      <c r="H98" s="178" t="s">
         <v>606</v>
       </c>
-      <c r="I97" s="179">
+      <c r="I98" s="179">
         <v>43240</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="55.2">
-      <c r="A98" s="173" t="s">
-        <v>607</v>
-      </c>
-      <c r="B98" s="178" t="s">
-        <v>222</v>
-      </c>
-      <c r="C98" s="178"/>
-      <c r="D98" s="175" t="s">
-        <v>608</v>
-      </c>
-      <c r="E98" s="176" t="s">
-        <v>609</v>
-      </c>
-      <c r="F98" s="221" t="s">
-        <v>610</v>
-      </c>
-      <c r="G98" s="178"/>
-      <c r="H98" s="178"/>
-      <c r="I98" s="179"/>
-    </row>
-    <row r="99" spans="1:9" ht="27.6">
-      <c r="A99" s="196" t="s">
+    <row r="99" spans="1:10" ht="55.2">
+      <c r="A99" s="173" t="s">
         <v>607</v>
       </c>
       <c r="B99" s="178" t="s">
         <v>222</v>
       </c>
       <c r="C99" s="178"/>
-      <c r="D99" s="175"/>
-      <c r="E99" s="176"/>
-      <c r="F99" s="220"/>
+      <c r="D99" s="175" t="s">
+        <v>608</v>
+      </c>
+      <c r="E99" s="176" t="s">
+        <v>609</v>
+      </c>
+      <c r="F99" s="221" t="s">
+        <v>610</v>
+      </c>
       <c r="G99" s="178"/>
       <c r="H99" s="178"/>
       <c r="I99" s="179"/>
     </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="173" t="s">
+    <row r="100" spans="1:10" ht="27.6">
+      <c r="A100" s="196" t="s">
+        <v>607</v>
+      </c>
+      <c r="B100" s="178" t="s">
+        <v>222</v>
+      </c>
+      <c r="C100" s="178"/>
+      <c r="D100" s="175"/>
+      <c r="E100" s="176"/>
+      <c r="F100" s="220"/>
+      <c r="G100" s="178"/>
+      <c r="H100" s="178"/>
+      <c r="I100" s="179"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="173" t="s">
         <v>615</v>
       </c>
-      <c r="B100" s="178" t="s">
+      <c r="B101" s="178" t="s">
         <v>616</v>
       </c>
-      <c r="C100" s="178">
+      <c r="C101" s="178">
         <v>8001119</v>
       </c>
-      <c r="D100" s="194"/>
-      <c r="E100" s="176"/>
-      <c r="F100" s="199" t="s">
+      <c r="D101" s="194"/>
+      <c r="E101" s="176"/>
+      <c r="F101" s="199" t="s">
         <v>619</v>
       </c>
-      <c r="G100" s="178" t="s">
+      <c r="G101" s="178" t="s">
         <v>620</v>
-      </c>
-      <c r="H100" s="178" t="s">
-        <v>621</v>
-      </c>
-      <c r="I100" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="82.8">
-      <c r="A101" s="173" t="s">
-        <v>622</v>
-      </c>
-      <c r="B101" s="174" t="s">
-        <v>484</v>
-      </c>
-      <c r="C101" s="178">
-        <v>8001130</v>
-      </c>
-      <c r="D101" s="174" t="s">
-        <v>624</v>
-      </c>
-      <c r="E101" s="182" t="s">
-        <v>625</v>
-      </c>
-      <c r="F101" s="199" t="s">
-        <v>626</v>
-      </c>
-      <c r="G101" s="178" t="s">
-        <v>627</v>
       </c>
       <c r="H101" s="178" t="s">
         <v>621</v>
@@ -8508,313 +8517,319 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="27.6">
+    <row r="102" spans="1:10" ht="82.8">
       <c r="A102" s="173" t="s">
+        <v>622</v>
+      </c>
+      <c r="B102" s="174" t="s">
+        <v>484</v>
+      </c>
+      <c r="C102" s="178">
+        <v>8001130</v>
+      </c>
+      <c r="D102" s="174" t="s">
+        <v>624</v>
+      </c>
+      <c r="E102" s="182" t="s">
+        <v>625</v>
+      </c>
+      <c r="F102" s="199" t="s">
+        <v>626</v>
+      </c>
+      <c r="G102" s="178" t="s">
+        <v>627</v>
+      </c>
+      <c r="H102" s="178" t="s">
+        <v>621</v>
+      </c>
+      <c r="I102" s="179">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="27.6">
+      <c r="A103" s="173" t="s">
         <v>628</v>
       </c>
-      <c r="B102" s="174" t="s">
+      <c r="B103" s="174" t="s">
         <v>629</v>
       </c>
-      <c r="C102" s="174" t="s">
+      <c r="C103" s="174" t="s">
         <v>630</v>
       </c>
-      <c r="D102" s="174" t="s">
+      <c r="D103" s="174" t="s">
         <v>631</v>
       </c>
-      <c r="E102" s="182" t="s">
+      <c r="E103" s="182" t="s">
         <v>632</v>
       </c>
-      <c r="F102" s="201" t="s">
+      <c r="F103" s="201" t="s">
         <v>633</v>
       </c>
-      <c r="G102" s="178" t="s">
+      <c r="G103" s="178" t="s">
         <v>634</v>
       </c>
-      <c r="H102" s="178"/>
-      <c r="I102" s="179">
+      <c r="H103" s="178"/>
+      <c r="I103" s="179">
         <v>43266</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="41.4">
-      <c r="A103" s="173" t="s">
+    <row r="104" spans="1:10" ht="41.4">
+      <c r="A104" s="173" t="s">
         <v>635</v>
       </c>
-      <c r="B103" s="174" t="s">
+      <c r="B104" s="174" t="s">
         <v>637</v>
       </c>
-      <c r="C103" s="178"/>
-      <c r="D103" s="175" t="s">
+      <c r="C104" s="178"/>
+      <c r="D104" s="175" t="s">
         <v>638</v>
       </c>
-      <c r="E103" s="182" t="s">
+      <c r="E104" s="182" t="s">
         <v>102</v>
       </c>
-      <c r="F103" s="201" t="s">
+      <c r="F104" s="201" t="s">
         <v>640</v>
       </c>
-      <c r="G103" s="178" t="s">
+      <c r="G104" s="178" t="s">
         <v>641</v>
       </c>
-      <c r="H103" s="178"/>
-      <c r="I103" s="179"/>
-    </row>
-    <row r="104" spans="1:9" ht="69">
-      <c r="A104" s="173" t="s">
+      <c r="H104" s="178"/>
+      <c r="I104" s="179"/>
+    </row>
+    <row r="105" spans="1:10" ht="69">
+      <c r="A105" s="173" t="s">
         <v>644</v>
       </c>
-      <c r="B104" s="178" t="s">
+      <c r="B105" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="C104" s="178" t="s">
+      <c r="C105" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="243" t="s">
+      <c r="D105" s="235" t="s">
         <v>989</v>
       </c>
-      <c r="E104" s="245" t="s">
+      <c r="E105" s="237" t="s">
         <v>995</v>
       </c>
-      <c r="F104" s="199" t="s">
+      <c r="F105" s="199" t="s">
         <v>996</v>
       </c>
-      <c r="G104" s="178" t="s">
+      <c r="G105" s="178" t="s">
         <v>1005</v>
-      </c>
-      <c r="H104" s="178"/>
-      <c r="I104" s="179">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="69">
-      <c r="A105" s="196" t="s">
-        <v>644</v>
-      </c>
-      <c r="B105" s="178"/>
-      <c r="C105" s="178"/>
-      <c r="D105" s="244" t="s">
-        <v>990</v>
-      </c>
-      <c r="E105" s="245" t="s">
-        <v>995</v>
-      </c>
-      <c r="F105" s="199" t="s">
-        <v>997</v>
-      </c>
-      <c r="G105" s="178" t="s">
-        <v>1004</v>
       </c>
       <c r="H105" s="178"/>
       <c r="I105" s="179">
-        <v>43298</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="69">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="69">
       <c r="A106" s="196" t="s">
         <v>644</v>
       </c>
       <c r="B106" s="178"/>
       <c r="C106" s="178"/>
-      <c r="D106" s="244" t="s">
-        <v>991</v>
-      </c>
-      <c r="E106" s="245" t="s">
-        <v>998</v>
+      <c r="D106" s="236" t="s">
+        <v>990</v>
+      </c>
+      <c r="E106" s="237" t="s">
+        <v>995</v>
       </c>
       <c r="F106" s="199" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="G106" s="178" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H106" s="178"/>
       <c r="I106" s="179">
         <v>43298</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="55.2">
+    <row r="107" spans="1:10" ht="69">
       <c r="A107" s="196" t="s">
         <v>644</v>
       </c>
       <c r="B107" s="178"/>
       <c r="C107" s="178"/>
-      <c r="D107" s="244" t="s">
-        <v>992</v>
-      </c>
-      <c r="E107" s="245" t="s">
+      <c r="D107" s="236" t="s">
+        <v>991</v>
+      </c>
+      <c r="E107" s="237" t="s">
         <v>998</v>
       </c>
       <c r="F107" s="199" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G107" s="178" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H107" s="178"/>
       <c r="I107" s="179">
         <v>43298</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="69">
+    <row r="108" spans="1:10" ht="55.2">
       <c r="A108" s="196" t="s">
         <v>644</v>
       </c>
       <c r="B108" s="178"/>
       <c r="C108" s="178"/>
-      <c r="D108" s="244" t="s">
-        <v>993</v>
-      </c>
-      <c r="E108" s="245" t="s">
-        <v>999</v>
+      <c r="D108" s="236" t="s">
+        <v>992</v>
+      </c>
+      <c r="E108" s="237" t="s">
+        <v>998</v>
       </c>
       <c r="F108" s="199" t="s">
         <v>997</v>
       </c>
       <c r="G108" s="178" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H108" s="178"/>
       <c r="I108" s="179">
         <v>43298</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="69">
+    <row r="109" spans="1:10" ht="69">
       <c r="A109" s="196" t="s">
         <v>644</v>
       </c>
       <c r="B109" s="178"/>
       <c r="C109" s="178"/>
-      <c r="D109" s="244" t="s">
-        <v>994</v>
-      </c>
-      <c r="E109" s="245" t="s">
-        <v>1000</v>
+      <c r="D109" s="236" t="s">
+        <v>993</v>
+      </c>
+      <c r="E109" s="237" t="s">
+        <v>999</v>
       </c>
       <c r="F109" s="199" t="s">
         <v>997</v>
       </c>
       <c r="G109" s="178" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="H109" s="178"/>
       <c r="I109" s="179">
         <v>43298</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="124.2">
-      <c r="A110" s="173" t="s">
+    <row r="110" spans="1:10" ht="69">
+      <c r="A110" s="196" t="s">
+        <v>644</v>
+      </c>
+      <c r="B110" s="178"/>
+      <c r="C110" s="178"/>
+      <c r="D110" s="236" t="s">
+        <v>994</v>
+      </c>
+      <c r="E110" s="237" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F110" s="199" t="s">
+        <v>997</v>
+      </c>
+      <c r="G110" s="178" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H110" s="178"/>
+      <c r="I110" s="179">
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="124.2">
+      <c r="A111" s="173" t="s">
         <v>658</v>
       </c>
-      <c r="B110" s="178" t="s">
+      <c r="B111" s="178" t="s">
         <v>592</v>
-      </c>
-      <c r="C110" s="178"/>
-      <c r="D110" s="174" t="s">
-        <v>659</v>
-      </c>
-      <c r="E110" s="182" t="s">
-        <v>660</v>
-      </c>
-      <c r="F110" s="199" t="s">
-        <v>661</v>
-      </c>
-      <c r="G110" s="178" t="s">
-        <v>663</v>
-      </c>
-      <c r="H110" s="178"/>
-      <c r="I110" s="179"/>
-    </row>
-    <row r="111" spans="1:9" ht="138">
-      <c r="A111" s="196" t="s">
-        <v>658</v>
-      </c>
-      <c r="B111" s="178" t="s">
-        <v>664</v>
       </c>
       <c r="C111" s="178"/>
       <c r="D111" s="174" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E111" s="182" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="F111" s="199" t="s">
         <v>661</v>
       </c>
       <c r="G111" s="178" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="H111" s="178"/>
       <c r="I111" s="179"/>
     </row>
-    <row r="112" spans="1:9" ht="124.2">
+    <row r="112" spans="1:10" ht="138">
       <c r="A112" s="196" t="s">
         <v>658</v>
       </c>
       <c r="B112" s="178" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C112" s="178"/>
       <c r="D112" s="174" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E112" s="182" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="F112" s="199" t="s">
         <v>661</v>
       </c>
-      <c r="G112" s="194" t="s">
-        <v>671</v>
+      <c r="G112" s="178" t="s">
+        <v>667</v>
       </c>
       <c r="H112" s="178"/>
       <c r="I112" s="179"/>
     </row>
-    <row r="113" spans="1:9" ht="82.8">
-      <c r="A113" s="173" t="s">
+    <row r="113" spans="1:9" ht="124.2">
+      <c r="A113" s="196" t="s">
+        <v>658</v>
+      </c>
+      <c r="B113" s="178" t="s">
+        <v>668</v>
+      </c>
+      <c r="C113" s="178"/>
+      <c r="D113" s="174" t="s">
+        <v>669</v>
+      </c>
+      <c r="E113" s="182" t="s">
+        <v>670</v>
+      </c>
+      <c r="F113" s="199" t="s">
+        <v>661</v>
+      </c>
+      <c r="G113" s="194" t="s">
+        <v>671</v>
+      </c>
+      <c r="H113" s="178"/>
+      <c r="I113" s="179"/>
+    </row>
+    <row r="114" spans="1:9" ht="82.8">
+      <c r="A114" s="173" t="s">
         <v>672</v>
       </c>
-      <c r="B113" s="178" t="s">
+      <c r="B114" s="178" t="s">
         <v>151</v>
       </c>
-      <c r="C113" s="174" t="s">
+      <c r="C114" s="174" t="s">
         <v>673</v>
       </c>
-      <c r="D113" s="174" t="s">
+      <c r="D114" s="174" t="s">
         <v>675</v>
       </c>
-      <c r="E113" s="176"/>
-      <c r="F113" s="204" t="s">
+      <c r="E114" s="176"/>
+      <c r="F114" s="204" t="s">
         <v>677</v>
       </c>
-      <c r="G113" s="178" t="s">
+      <c r="G114" s="178" t="s">
         <v>686</v>
       </c>
-      <c r="H113" s="178"/>
-      <c r="I113" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="41.4">
-      <c r="A114" s="173" t="s">
-        <v>687</v>
-      </c>
-      <c r="B114" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="C114" s="174" t="s">
-        <v>22</v>
-      </c>
-      <c r="D114" s="175" t="s">
-        <v>689</v>
-      </c>
-      <c r="E114" s="182"/>
-      <c r="F114" s="211" t="s">
-        <v>971</v>
-      </c>
-      <c r="G114" s="178"/>
       <c r="H114" s="178"/>
       <c r="I114" s="179">
-        <v>43276</v>
+        <v>43196</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="41.4">
@@ -8828,11 +8843,11 @@
         <v>22</v>
       </c>
       <c r="D115" s="175" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="E115" s="182"/>
-      <c r="F115" s="193" t="s">
-        <v>972</v>
+      <c r="F115" s="211" t="s">
+        <v>971</v>
       </c>
       <c r="G115" s="178"/>
       <c r="H115" s="178"/>
@@ -8840,112 +8855,110 @@
         <v>43276</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="55.2">
+    <row r="116" spans="1:9" ht="41.4">
       <c r="A116" s="173" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="B116" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="C116" s="174"/>
-      <c r="D116" s="174" t="s">
-        <v>707</v>
-      </c>
-      <c r="E116" s="176" t="s">
-        <v>708</v>
-      </c>
+      <c r="C116" s="174" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" s="175" t="s">
+        <v>699</v>
+      </c>
+      <c r="E116" s="182"/>
       <c r="F116" s="193" t="s">
-        <v>710</v>
-      </c>
-      <c r="G116" s="178" t="s">
-        <v>713</v>
-      </c>
+        <v>972</v>
+      </c>
+      <c r="G116" s="178"/>
       <c r="H116" s="178"/>
       <c r="I116" s="179">
-        <v>43293</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="207">
+        <v>43276</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="55.2">
       <c r="A117" s="173" t="s">
-        <v>714</v>
-      </c>
-      <c r="B117" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C117" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D117" s="200" t="s">
-        <v>717</v>
-      </c>
-      <c r="E117" s="176"/>
-      <c r="F117" s="199" t="s">
-        <v>720</v>
+        <v>706</v>
+      </c>
+      <c r="B117" s="174" t="s">
+        <v>77</v>
+      </c>
+      <c r="C117" s="174"/>
+      <c r="D117" s="174" t="s">
+        <v>707</v>
+      </c>
+      <c r="E117" s="176" t="s">
+        <v>708</v>
+      </c>
+      <c r="F117" s="193" t="s">
+        <v>710</v>
       </c>
       <c r="G117" s="178" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="H117" s="178"/>
       <c r="I117" s="179">
+        <v>43293</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="207">
+      <c r="A118" s="173" t="s">
+        <v>714</v>
+      </c>
+      <c r="B118" s="178" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" s="200" t="s">
+        <v>717</v>
+      </c>
+      <c r="E118" s="176"/>
+      <c r="F118" s="199" t="s">
+        <v>720</v>
+      </c>
+      <c r="G118" s="178" t="s">
+        <v>721</v>
+      </c>
+      <c r="H118" s="178"/>
+      <c r="I118" s="179">
         <v>43240</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="69">
-      <c r="A118" s="173" t="s">
-        <v>722</v>
-      </c>
-      <c r="B118" s="194" t="s">
-        <v>151</v>
-      </c>
-      <c r="C118" s="194">
-        <v>8000823</v>
-      </c>
-      <c r="D118" s="174" t="s">
-        <v>729</v>
-      </c>
-      <c r="E118" s="182" t="s">
-        <v>733</v>
-      </c>
-      <c r="F118" s="220" t="s">
-        <v>735</v>
-      </c>
-      <c r="G118" s="194" t="s">
-        <v>736</v>
-      </c>
-      <c r="H118" s="178" t="s">
-        <v>737</v>
-      </c>
-      <c r="I118" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="82.8">
+    <row r="119" spans="1:9" ht="69">
       <c r="A119" s="173" t="s">
         <v>722</v>
       </c>
       <c r="B119" s="194" t="s">
         <v>151</v>
       </c>
-      <c r="C119" s="194"/>
+      <c r="C119" s="194">
+        <v>8000823</v>
+      </c>
       <c r="D119" s="174" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="E119" s="182" t="s">
-        <v>739</v>
-      </c>
-      <c r="F119" s="177" t="s">
-        <v>741</v>
-      </c>
-      <c r="G119" s="199" t="s">
-        <v>743</v>
-      </c>
-      <c r="H119" s="178"/>
+        <v>733</v>
+      </c>
+      <c r="F119" s="220" t="s">
+        <v>735</v>
+      </c>
+      <c r="G119" s="194" t="s">
+        <v>736</v>
+      </c>
+      <c r="H119" s="178" t="s">
+        <v>737</v>
+      </c>
       <c r="I119" s="179">
         <v>43196</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="41.4">
-      <c r="A120" s="196" t="s">
+    <row r="120" spans="1:9" ht="82.8">
+      <c r="A120" s="173" t="s">
         <v>722</v>
       </c>
       <c r="B120" s="194" t="s">
@@ -8953,101 +8966,103 @@
       </c>
       <c r="C120" s="194"/>
       <c r="D120" s="174" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="E120" s="182" t="s">
-        <v>746</v>
-      </c>
-      <c r="F120" s="178" t="s">
-        <v>747</v>
-      </c>
-      <c r="G120" s="177" t="s">
-        <v>748</v>
+        <v>739</v>
+      </c>
+      <c r="F120" s="177" t="s">
+        <v>741</v>
+      </c>
+      <c r="G120" s="199" t="s">
+        <v>743</v>
       </c>
       <c r="H120" s="178"/>
       <c r="I120" s="179">
         <v>43196</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="27.6">
-      <c r="A121" s="173" t="s">
-        <v>749</v>
-      </c>
-      <c r="B121" s="178" t="s">
-        <v>144</v>
-      </c>
-      <c r="C121" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D121" s="197" t="s">
-        <v>750</v>
-      </c>
-      <c r="E121" s="222" t="s">
-        <v>762</v>
-      </c>
-      <c r="F121" s="201" t="s">
-        <v>772</v>
-      </c>
-      <c r="G121" s="178" t="s">
-        <v>773</v>
+    <row r="121" spans="1:9" ht="41.4">
+      <c r="A121" s="196" t="s">
+        <v>722</v>
+      </c>
+      <c r="B121" s="194" t="s">
+        <v>151</v>
+      </c>
+      <c r="C121" s="194"/>
+      <c r="D121" s="174" t="s">
+        <v>745</v>
+      </c>
+      <c r="E121" s="182" t="s">
+        <v>746</v>
+      </c>
+      <c r="F121" s="178" t="s">
+        <v>747</v>
+      </c>
+      <c r="G121" s="177" t="s">
+        <v>748</v>
       </c>
       <c r="H121" s="178"/>
       <c r="I121" s="179">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="82.8">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="27.6">
       <c r="A122" s="173" t="s">
-        <v>774</v>
+        <v>749</v>
       </c>
       <c r="B122" s="178" t="s">
-        <v>775</v>
+        <v>144</v>
       </c>
       <c r="C122" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D122" s="200" t="s">
+      <c r="D122" s="197" t="s">
+        <v>750</v>
+      </c>
+      <c r="E122" s="222" t="s">
+        <v>762</v>
+      </c>
+      <c r="F122" s="201" t="s">
+        <v>772</v>
+      </c>
+      <c r="G122" s="178" t="s">
+        <v>773</v>
+      </c>
+      <c r="H122" s="178"/>
+      <c r="I122" s="179">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="82.8">
+      <c r="A123" s="173" t="s">
+        <v>774</v>
+      </c>
+      <c r="B123" s="178" t="s">
+        <v>775</v>
+      </c>
+      <c r="C123" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D123" s="200" t="s">
         <v>776</v>
       </c>
-      <c r="E122" s="222" t="s">
+      <c r="E123" s="222" t="s">
         <v>609</v>
       </c>
-      <c r="F122" s="199" t="s">
+      <c r="F123" s="199" t="s">
         <v>777</v>
       </c>
-      <c r="G122" s="178" t="s">
+      <c r="G123" s="178" t="s">
         <v>778</v>
       </c>
-      <c r="H122" s="223"/>
-      <c r="I122" s="179">
+      <c r="H123" s="223"/>
+      <c r="I123" s="179">
         <v>43264</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="27.6">
-      <c r="A123" s="173" t="s">
-        <v>780</v>
-      </c>
-      <c r="B123" s="178" t="s">
-        <v>781</v>
-      </c>
-      <c r="C123" s="178"/>
-      <c r="D123" s="191" t="s">
-        <v>782</v>
-      </c>
-      <c r="E123" s="192" t="s">
-        <v>786</v>
-      </c>
-      <c r="F123" s="201" t="s">
-        <v>787</v>
-      </c>
-      <c r="G123" s="178"/>
-      <c r="H123" s="224" t="s">
-        <v>978</v>
-      </c>
-      <c r="I123" s="179"/>
-    </row>
     <row r="124" spans="1:9" ht="27.6">
-      <c r="A124" s="196" t="s">
+      <c r="A124" s="173" t="s">
         <v>780</v>
       </c>
       <c r="B124" s="178" t="s">
@@ -9055,7 +9070,7 @@
       </c>
       <c r="C124" s="178"/>
       <c r="D124" s="191" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E124" s="192" t="s">
         <v>786</v>
@@ -9078,7 +9093,7 @@
       </c>
       <c r="C125" s="178"/>
       <c r="D125" s="191" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="E125" s="192" t="s">
         <v>786</v>
@@ -9094,153 +9109,149 @@
     </row>
     <row r="126" spans="1:9" ht="27.6">
       <c r="A126" s="196" t="s">
+        <v>780</v>
+      </c>
+      <c r="B126" s="178" t="s">
+        <v>781</v>
+      </c>
+      <c r="C126" s="178"/>
+      <c r="D126" s="191" t="s">
+        <v>797</v>
+      </c>
+      <c r="E126" s="192" t="s">
+        <v>786</v>
+      </c>
+      <c r="F126" s="201" t="s">
+        <v>787</v>
+      </c>
+      <c r="G126" s="178"/>
+      <c r="H126" s="224" t="s">
+        <v>978</v>
+      </c>
+      <c r="I126" s="179"/>
+    </row>
+    <row r="127" spans="1:9" ht="27.6">
+      <c r="A127" s="196" t="s">
         <v>810</v>
       </c>
-      <c r="B126" s="178" t="s">
+      <c r="B127" s="178" t="s">
         <v>811</v>
       </c>
-      <c r="C126" s="174" t="s">
+      <c r="C127" s="174" t="s">
         <v>812</v>
       </c>
-      <c r="D126" s="174" t="s">
+      <c r="D127" s="174" t="s">
         <v>814</v>
       </c>
-      <c r="E126" s="182" t="s">
+      <c r="E127" s="182" t="s">
         <v>819</v>
       </c>
-      <c r="F126" s="199" t="s">
+      <c r="F127" s="199" t="s">
         <v>820</v>
       </c>
-      <c r="G126" s="178" t="s">
+      <c r="G127" s="178" t="s">
         <v>821</v>
       </c>
-      <c r="H126" s="223"/>
-      <c r="I126" s="179"/>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="173" t="s">
+      <c r="H127" s="223"/>
+      <c r="I127" s="179"/>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="173" t="s">
         <v>822</v>
-      </c>
-      <c r="B127" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C127" s="174" t="s">
-        <v>823</v>
-      </c>
-      <c r="D127" s="200" t="s">
-        <v>824</v>
-      </c>
-      <c r="E127" s="176" t="s">
-        <v>609</v>
-      </c>
-      <c r="F127" s="201" t="s">
-        <v>836</v>
-      </c>
-      <c r="G127" s="178"/>
-      <c r="H127" s="178"/>
-      <c r="I127" s="179">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="96.6">
-      <c r="A128" s="173" t="s">
-        <v>842</v>
       </c>
       <c r="B128" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="C128" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D128" s="178" t="s">
-        <v>843</v>
+      <c r="C128" s="174" t="s">
+        <v>823</v>
+      </c>
+      <c r="D128" s="200" t="s">
+        <v>824</v>
       </c>
       <c r="E128" s="176" t="s">
-        <v>842</v>
+        <v>609</v>
       </c>
       <c r="F128" s="201" t="s">
-        <v>849</v>
-      </c>
-      <c r="G128" s="180" t="s">
-        <v>973</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="G128" s="178"/>
       <c r="H128" s="178"/>
       <c r="I128" s="179">
         <v>43240</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="41.4">
+    <row r="129" spans="1:9" ht="96.6">
       <c r="A129" s="173" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B129" s="178" t="s">
-        <v>851</v>
-      </c>
-      <c r="C129" s="178"/>
-      <c r="D129" s="178"/>
-      <c r="E129" s="176"/>
-      <c r="F129" s="199" t="s">
-        <v>856</v>
-      </c>
-      <c r="G129" s="178"/>
+        <v>45</v>
+      </c>
+      <c r="C129" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D129" s="178" t="s">
+        <v>843</v>
+      </c>
+      <c r="E129" s="176" t="s">
+        <v>842</v>
+      </c>
+      <c r="F129" s="201" t="s">
+        <v>849</v>
+      </c>
+      <c r="G129" s="180" t="s">
+        <v>973</v>
+      </c>
       <c r="H129" s="178"/>
       <c r="I129" s="179">
-        <v>43196</v>
+        <v>43240</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="41.4">
       <c r="A130" s="173" t="s">
-        <v>857</v>
-      </c>
-      <c r="B130" s="174" t="s">
-        <v>295</v>
-      </c>
-      <c r="C130" s="174"/>
-      <c r="D130" s="209" t="s">
-        <v>859</v>
-      </c>
-      <c r="E130" s="182" t="s">
-        <v>860</v>
-      </c>
-      <c r="F130" s="177" t="s">
-        <v>861</v>
-      </c>
-      <c r="G130" s="178" t="s">
-        <v>869</v>
-      </c>
+        <v>850</v>
+      </c>
+      <c r="B130" s="178" t="s">
+        <v>851</v>
+      </c>
+      <c r="C130" s="178"/>
+      <c r="D130" s="178"/>
+      <c r="E130" s="176"/>
+      <c r="F130" s="199" t="s">
+        <v>856</v>
+      </c>
+      <c r="G130" s="178"/>
       <c r="H130" s="178"/>
       <c r="I130" s="179">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="41.4">
+      <c r="A131" s="173" t="s">
+        <v>857</v>
+      </c>
+      <c r="B131" s="174" t="s">
+        <v>295</v>
+      </c>
+      <c r="C131" s="174"/>
+      <c r="D131" s="209" t="s">
+        <v>859</v>
+      </c>
+      <c r="E131" s="182" t="s">
+        <v>860</v>
+      </c>
+      <c r="F131" s="177" t="s">
+        <v>861</v>
+      </c>
+      <c r="G131" s="178" t="s">
+        <v>869</v>
+      </c>
+      <c r="H131" s="178"/>
+      <c r="I131" s="179">
         <v>43288</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="138">
-      <c r="A131" s="173" t="s">
-        <v>871</v>
-      </c>
-      <c r="B131" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="C131" s="174" t="s">
-        <v>22</v>
-      </c>
-      <c r="D131" s="175" t="s">
-        <v>872</v>
-      </c>
-      <c r="E131" s="182"/>
-      <c r="F131" s="193" t="s">
-        <v>873</v>
-      </c>
-      <c r="G131" s="178" t="s">
-        <v>874</v>
-      </c>
-      <c r="H131" s="224" t="s">
-        <v>978</v>
-      </c>
-      <c r="I131" s="179">
-        <v>43270</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="41.4">
+    <row r="132" spans="1:9" ht="138">
       <c r="A132" s="173" t="s">
         <v>871</v>
       </c>
@@ -9251,17 +9262,17 @@
         <v>22</v>
       </c>
       <c r="D132" s="175" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E132" s="182"/>
       <c r="F132" s="193" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="G132" s="178" t="s">
-        <v>877</v>
-      </c>
-      <c r="H132" s="195" t="s">
-        <v>979</v>
+        <v>874</v>
+      </c>
+      <c r="H132" s="224" t="s">
+        <v>978</v>
       </c>
       <c r="I132" s="179">
         <v>43270</v>
@@ -9278,11 +9289,11 @@
         <v>22</v>
       </c>
       <c r="D133" s="175" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E133" s="182"/>
       <c r="F133" s="193" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="G133" s="178" t="s">
         <v>877</v>
@@ -9305,15 +9316,17 @@
         <v>22</v>
       </c>
       <c r="D134" s="175" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E134" s="182"/>
-      <c r="F134" s="211" t="s">
-        <v>881</v>
-      </c>
-      <c r="G134" s="178"/>
-      <c r="H134" s="224" t="s">
-        <v>978</v>
+      <c r="F134" s="193" t="s">
+        <v>879</v>
+      </c>
+      <c r="G134" s="178" t="s">
+        <v>877</v>
+      </c>
+      <c r="H134" s="195" t="s">
+        <v>979</v>
       </c>
       <c r="I134" s="179">
         <v>43270</v>
@@ -9321,69 +9334,83 @@
     </row>
     <row r="135" spans="1:9" ht="41.4">
       <c r="A135" s="173" t="s">
+        <v>871</v>
+      </c>
+      <c r="B135" s="174" t="s">
+        <v>77</v>
+      </c>
+      <c r="C135" s="174" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" s="175" t="s">
+        <v>880</v>
+      </c>
+      <c r="E135" s="182"/>
+      <c r="F135" s="211" t="s">
+        <v>881</v>
+      </c>
+      <c r="G135" s="178"/>
+      <c r="H135" s="224" t="s">
+        <v>978</v>
+      </c>
+      <c r="I135" s="179">
+        <v>43270</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="41.4">
+      <c r="A136" s="173" t="s">
         <v>882</v>
       </c>
-      <c r="B135" s="178" t="s">
+      <c r="B136" s="178" t="s">
         <v>144</v>
-      </c>
-      <c r="C135" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D135" s="197" t="s">
-        <v>883</v>
-      </c>
-      <c r="E135" s="225" t="s">
-        <v>884</v>
-      </c>
-      <c r="F135" s="201" t="s">
-        <v>772</v>
-      </c>
-      <c r="G135" s="178" t="s">
-        <v>891</v>
-      </c>
-      <c r="H135" s="224" t="s">
-        <v>980</v>
-      </c>
-      <c r="I135" s="179">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="27.6">
-      <c r="A136" s="173" t="s">
-        <v>892</v>
-      </c>
-      <c r="B136" s="178" t="s">
-        <v>775</v>
       </c>
       <c r="C136" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D136" s="200" t="s">
+      <c r="D136" s="197" t="s">
+        <v>883</v>
+      </c>
+      <c r="E136" s="225" t="s">
+        <v>884</v>
+      </c>
+      <c r="F136" s="201" t="s">
+        <v>772</v>
+      </c>
+      <c r="G136" s="178" t="s">
+        <v>891</v>
+      </c>
+      <c r="H136" s="224" t="s">
+        <v>980</v>
+      </c>
+      <c r="I136" s="179">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="27.6">
+      <c r="A137" s="173" t="s">
+        <v>892</v>
+      </c>
+      <c r="B137" s="178" t="s">
+        <v>775</v>
+      </c>
+      <c r="C137" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137" s="200" t="s">
         <v>898</v>
       </c>
-      <c r="F136" s="201" t="s">
+      <c r="F137" s="201" t="s">
         <v>909</v>
       </c>
-      <c r="H136" s="224" t="s">
+      <c r="H137" s="224" t="s">
         <v>978</v>
       </c>
-      <c r="I136" s="226">
+      <c r="I137" s="226">
         <v>43288</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
-      <c r="D137" s="178"/>
-    </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="173"/>
-      <c r="B138" s="174"/>
-      <c r="C138" s="174"/>
-      <c r="D138" s="174"/>
-      <c r="E138" s="182"/>
-      <c r="F138" s="213"/>
-      <c r="G138" s="178"/>
-      <c r="H138" s="178"/>
-      <c r="I138" s="179"/>
+      <c r="D138" s="178"/>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="173"/>
@@ -9462,9 +9489,20 @@
       <c r="H145" s="178"/>
       <c r="I145" s="179"/>
     </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="173"/>
+      <c r="B146" s="174"/>
+      <c r="C146" s="174"/>
+      <c r="D146" s="174"/>
+      <c r="E146" s="182"/>
+      <c r="F146" s="213"/>
+      <c r="G146" s="178"/>
+      <c r="H146" s="178"/>
+      <c r="I146" s="179"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F113" r:id="rId1" location="gid=314589613&amp;range=309:309"/>
+    <hyperlink ref="F114" r:id="rId1" location="gid=314589613&amp;range=309:309"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -9480,8 +9518,8 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD25"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
@@ -9514,10 +9552,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="227" t="s">
+      <c r="I1" s="238" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="228"/>
+      <c r="J1" s="239"/>
     </row>
     <row r="2" spans="1:10" ht="26.4">
       <c r="A2" s="1"/>
@@ -10004,10 +10042,10 @@
       <c r="C19" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="235" t="s">
+      <c r="D19" s="227" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="236" t="s">
+      <c r="E19" s="228" t="s">
         <v>108</v>
       </c>
       <c r="F19" s="40" t="s">
@@ -10020,28 +10058,28 @@
       <c r="I19" s="12"/>
       <c r="J19" s="36"/>
     </row>
-    <row r="20" spans="1:10" s="242" customFormat="1" ht="66">
-      <c r="A20" s="237" t="s">
+    <row r="20" spans="1:10" s="234" customFormat="1" ht="66">
+      <c r="A20" s="229" t="s">
         <v>644</v>
       </c>
-      <c r="B20" s="237" t="s">
+      <c r="B20" s="229" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="237" t="s">
+      <c r="C20" s="229" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="238" t="s">
+      <c r="D20" s="230" t="s">
         <v>988</v>
       </c>
-      <c r="E20" s="239"/>
-      <c r="F20" s="240" t="s">
+      <c r="E20" s="231"/>
+      <c r="F20" s="232" t="s">
         <v>987</v>
       </c>
-      <c r="G20" s="237" t="s">
+      <c r="G20" s="229" t="s">
         <v>986</v>
       </c>
-      <c r="H20" s="237"/>
-      <c r="I20" s="241">
+      <c r="H20" s="229"/>
+      <c r="I20" s="233">
         <v>43240</v>
       </c>
     </row>
@@ -10121,8 +10159,8 @@
   </sheetPr>
   <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
@@ -10166,10 +10204,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="227" t="s">
+      <c r="I1" s="238" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="228"/>
+      <c r="J1" s="239"/>
     </row>
     <row r="2" spans="1:10" ht="26.4">
       <c r="A2" s="1"/>
@@ -10240,13 +10278,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="86.4">
-      <c r="A5" s="232" t="s">
+      <c r="A5" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="229" t="s">
+      <c r="B5" s="240" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="229" t="s">
+      <c r="C5" s="240" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -10268,9 +10306,9 @@
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="86.4">
-      <c r="A6" s="228"/>
-      <c r="B6" s="228"/>
-      <c r="C6" s="228"/>
+      <c r="A6" s="239"/>
+      <c r="B6" s="239"/>
+      <c r="C6" s="239"/>
       <c r="D6" s="13" t="s">
         <v>68</v>
       </c>
@@ -10288,7 +10326,7 @@
       <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:10" ht="39.6">
-      <c r="A7" s="232" t="s">
+      <c r="A7" s="243" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -10318,7 +10356,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="39.6">
-      <c r="A8" s="228"/>
+      <c r="A8" s="239"/>
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
@@ -10345,7 +10383,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="39.6">
-      <c r="A9" s="231"/>
+      <c r="A9" s="242"/>
       <c r="B9" s="47" t="s">
         <v>21</v>
       </c>
@@ -10397,7 +10435,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="39.6">
-      <c r="A11" s="233" t="s">
+      <c r="A11" s="244" t="s">
         <v>119</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -10426,7 +10464,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="39.6">
-      <c r="A12" s="228"/>
+      <c r="A12" s="239"/>
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
@@ -10453,7 +10491,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="39.6">
-      <c r="A13" s="228"/>
+      <c r="A13" s="239"/>
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -10480,7 +10518,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="39.6">
-      <c r="A14" s="228"/>
+      <c r="A14" s="239"/>
       <c r="B14" s="47" t="s">
         <v>21</v>
       </c>
@@ -10874,7 +10912,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="39.6">
-      <c r="A36" s="230" t="s">
+      <c r="A36" s="241" t="s">
         <v>376</v>
       </c>
       <c r="B36" s="90" t="s">
@@ -10904,7 +10942,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="39.6">
-      <c r="A37" s="228"/>
+      <c r="A37" s="239"/>
       <c r="B37" s="8" t="s">
         <v>21</v>
       </c>
@@ -10932,7 +10970,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="66">
-      <c r="A38" s="228"/>
+      <c r="A38" s="239"/>
       <c r="B38" s="8" t="s">
         <v>21</v>
       </c>
@@ -10960,7 +10998,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="39.6">
-      <c r="A39" s="228"/>
+      <c r="A39" s="239"/>
       <c r="B39" s="8" t="s">
         <v>21</v>
       </c>
@@ -10988,7 +11026,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="39.6">
-      <c r="A40" s="228"/>
+      <c r="A40" s="239"/>
       <c r="B40" s="8" t="s">
         <v>21</v>
       </c>
@@ -11016,7 +11054,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="39.6">
-      <c r="A41" s="228"/>
+      <c r="A41" s="239"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
       </c>
@@ -11044,7 +11082,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="39.6">
-      <c r="A42" s="228"/>
+      <c r="A42" s="239"/>
       <c r="B42" s="8" t="s">
         <v>21</v>
       </c>
@@ -11072,7 +11110,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="39.6">
-      <c r="A43" s="228"/>
+      <c r="A43" s="239"/>
       <c r="B43" s="8" t="s">
         <v>21</v>
       </c>
@@ -11100,7 +11138,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="39.6">
-      <c r="A44" s="228"/>
+      <c r="A44" s="239"/>
       <c r="B44" s="8" t="s">
         <v>21</v>
       </c>
@@ -11128,7 +11166,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="39.6">
-      <c r="A45" s="231"/>
+      <c r="A45" s="242"/>
       <c r="B45" s="47" t="s">
         <v>21</v>
       </c>
@@ -11216,7 +11254,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="66">
-      <c r="A48" s="230" t="s">
+      <c r="A48" s="241" t="s">
         <v>496</v>
       </c>
       <c r="B48" s="90" t="s">
@@ -11246,7 +11284,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="39.6">
-      <c r="A49" s="231"/>
+      <c r="A49" s="242"/>
       <c r="B49" s="47" t="s">
         <v>21</v>
       </c>
@@ -12376,7 +12414,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="39.6">
-      <c r="A88" s="232" t="s">
+      <c r="A88" s="243" t="s">
         <v>784</v>
       </c>
       <c r="B88" s="8" t="s">
@@ -12406,7 +12444,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="39.6">
-      <c r="A89" s="228"/>
+      <c r="A89" s="239"/>
       <c r="B89" s="8" t="s">
         <v>45</v>
       </c>
@@ -12434,7 +12472,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="39.6">
-      <c r="A90" s="228"/>
+      <c r="A90" s="239"/>
       <c r="B90" s="8" t="s">
         <v>45</v>
       </c>
@@ -12462,7 +12500,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="39.6">
-      <c r="A91" s="228"/>
+      <c r="A91" s="239"/>
       <c r="B91" s="8" t="s">
         <v>45</v>
       </c>
@@ -12490,7 +12528,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="39.6">
-      <c r="A92" s="228"/>
+      <c r="A92" s="239"/>
       <c r="B92" s="8" t="s">
         <v>45</v>
       </c>
@@ -12518,7 +12556,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="39.6">
-      <c r="A93" s="228"/>
+      <c r="A93" s="239"/>
       <c r="B93" s="8" t="s">
         <v>45</v>
       </c>
@@ -12546,7 +12584,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="39.6">
-      <c r="A94" s="228"/>
+      <c r="A94" s="239"/>
       <c r="B94" s="8" t="s">
         <v>45</v>
       </c>
@@ -12574,7 +12612,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="39.6">
-      <c r="A95" s="228"/>
+      <c r="A95" s="239"/>
       <c r="B95" s="8" t="s">
         <v>45</v>
       </c>
@@ -13463,10 +13501,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="234" t="s">
+      <c r="I1" s="245" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="228"/>
+      <c r="J1" s="239"/>
     </row>
     <row r="2" spans="1:10" ht="26.4">
       <c r="A2" s="3"/>

--- a/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
+++ b/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barbj\Documents\Infoway-Health Canada CCDD\formulary\Working QA Team Folders\Pre- Release QA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E9C39068-4A11-4D44-95E0-956A296D9BB9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="17268" windowHeight="5316" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="17268" windowHeight="5316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Action Items, Open" sheetId="1" r:id="rId1"/>
@@ -12,17 +18,17 @@
     <sheet name="Completed AIs Released" sheetId="3" r:id="rId3"/>
     <sheet name="AIs no longer relevant" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="F122" authorId="0">
+    <comment ref="F122" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -34,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F136" authorId="0">
+    <comment ref="F136" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -51,12 +57,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G21" authorId="0">
+    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0">
+    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,12 +94,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E88" authorId="0">
+    <comment ref="E88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G96" authorId="0">
+    <comment ref="G96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H117" authorId="0">
+    <comment ref="H117" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -2908,12 +2914,6 @@
     <t>02170140</t>
   </si>
   <si>
-    <t>Discussion required: Dry powder vial, which is reconstituted, then further diluted, then administered via a specific aerosolizing device. bfj</t>
-  </si>
-  <si>
-    <t>Suggested ntp: ribavirin 6 g per vial powder for solution for inhalation(?) bfj</t>
-  </si>
-  <si>
     <t xml:space="preserve"> UoP updates. (Jo0Anne to do)
 Decision required on whether precise active ingredient substance should be midazolam hydrochloride vs midazolam. JH
 We will use midazolam as per Webex (date?) JH</t>
@@ -4354,11 +4354,19 @@
   <si>
     <t>UoP: 13867, ampoule, 1, mL, Y, N</t>
   </si>
+  <si>
+    <t xml:space="preserve">Proposed plan: remove "aerosol" from dose form (leave powder for solution in dosage form and route of administration as inhalation)
+Discusion required? </t>
+  </si>
+  <si>
+    <t>Suggested ntp: ribavirin 6 g per vial powder for solution for inhalation bfj
+This is a dry powder vial, which is reconstituted, then further diluted, then administered via a specific aerosolizing device. BfJ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
@@ -5675,6 +5683,9 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5694,9 +5705,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6011,22 +6019,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
@@ -6044,7 +6052,7 @@
     <col min="11" max="16384" width="14.44140625" style="180"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="172" customFormat="1" ht="27.6">
+    <row r="1" spans="1:10" s="172" customFormat="1" ht="28.2">
       <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
@@ -6199,64 +6207,64 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="317.39999999999998">
+    <row r="7" spans="1:10" ht="345">
       <c r="A7" s="184" t="s">
         <v>443</v>
       </c>
       <c r="B7" s="178" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C7" s="174"/>
       <c r="D7" s="185">
         <v>2368196</v>
       </c>
       <c r="E7" s="186" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F7" s="177" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G7" s="174"/>
       <c r="H7" s="178"/>
       <c r="I7" s="179"/>
     </row>
-    <row r="8" spans="1:10" ht="331.2">
+    <row r="8" spans="1:10" ht="358.8">
       <c r="A8" s="187" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B8" s="178" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C8" s="174"/>
       <c r="D8" s="188">
         <v>2388537</v>
       </c>
       <c r="E8" s="186" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F8" s="177" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G8" s="174"/>
       <c r="H8" s="178"/>
       <c r="I8" s="179"/>
     </row>
-    <row r="9" spans="1:10" ht="409.6">
+    <row r="9" spans="1:10" ht="409.5">
       <c r="A9" s="184" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B9" s="178" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C9" s="174"/>
       <c r="D9" s="188">
         <v>2383608</v>
       </c>
       <c r="E9" s="189" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F9" s="190" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="G9" s="190"/>
       <c r="H9" s="178"/>
@@ -6271,7 +6279,7 @@
       <c r="H10" s="178"/>
       <c r="I10" s="179"/>
     </row>
-    <row r="11" spans="1:10" ht="41.4">
+    <row r="11" spans="1:10" ht="42.3">
       <c r="A11" s="181" t="s">
         <v>60</v>
       </c>
@@ -6315,7 +6323,7 @@
         <v>93</v>
       </c>
       <c r="F12" s="177" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="G12" s="194"/>
       <c r="H12" s="195" t="s">
@@ -6390,7 +6398,7 @@
       <c r="H15" s="178"/>
       <c r="I15" s="179"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="14.1">
       <c r="A16" s="173" t="s">
         <v>123</v>
       </c>
@@ -6438,7 +6446,7 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="41.4">
+    <row r="18" spans="1:9" ht="42.3">
       <c r="A18" s="173" t="s">
         <v>137</v>
       </c>
@@ -6523,7 +6531,7 @@
       </c>
       <c r="D21" s="200"/>
       <c r="E21" s="182" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F21" s="199" t="s">
         <v>180</v>
@@ -6632,7 +6640,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="27.6">
+    <row r="26" spans="1:9" ht="28.2">
       <c r="A26" s="173" t="s">
         <v>215</v>
       </c>
@@ -6678,7 +6686,7 @@
       <c r="H27" s="195"/>
       <c r="I27" s="179"/>
     </row>
-    <row r="28" spans="1:9" ht="41.4">
+    <row r="28" spans="1:9" ht="55.2">
       <c r="A28" s="173" t="s">
         <v>227</v>
       </c>
@@ -6703,7 +6711,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="41.4">
+    <row r="29" spans="1:9" ht="55.2">
       <c r="A29" s="196" t="s">
         <v>227</v>
       </c>
@@ -6724,7 +6732,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="41.4">
+    <row r="30" spans="1:9" ht="55.2">
       <c r="A30" s="196" t="s">
         <v>227</v>
       </c>
@@ -6745,7 +6753,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="41.4">
+    <row r="31" spans="1:9" ht="55.2">
       <c r="A31" s="196" t="s">
         <v>227</v>
       </c>
@@ -6805,7 +6813,7 @@
       </c>
       <c r="E33" s="182"/>
       <c r="F33" s="177" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G33" s="194"/>
       <c r="I33" s="179">
@@ -6828,7 +6836,7 @@
         <v>245</v>
       </c>
       <c r="G34" s="174" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H34" s="178"/>
       <c r="I34" s="179">
@@ -6870,7 +6878,7 @@
         <v>252</v>
       </c>
       <c r="E36" s="182" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F36" s="177" t="s">
         <v>256</v>
@@ -6891,7 +6899,7 @@
         <v>258</v>
       </c>
       <c r="E37" s="182" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F37" s="177" t="s">
         <v>256</v>
@@ -6902,7 +6910,7 @@
     </row>
     <row r="38" spans="1:10" ht="317.39999999999998">
       <c r="A38" s="173" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B38" s="174" t="s">
         <v>262</v>
@@ -6912,10 +6920,10 @@
         <v>263</v>
       </c>
       <c r="E38" s="186" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F38" s="177" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="G38" s="205"/>
       <c r="H38" s="206"/>
@@ -6923,31 +6931,31 @@
         <v>9005524</v>
       </c>
       <c r="J38" s="206" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="303.60000000000002">
       <c r="A39" s="196" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B39" s="180" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C39" s="207">
         <v>2399733</v>
       </c>
       <c r="E39" s="186" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F39" s="208" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="G39" s="205"/>
       <c r="H39" s="206"/>
       <c r="I39" s="205"/>
       <c r="J39" s="206"/>
     </row>
-    <row r="40" spans="1:10" ht="124.2">
+    <row r="40" spans="1:10" ht="151.80000000000001">
       <c r="A40" s="173" t="s">
         <v>272</v>
       </c>
@@ -6986,7 +6994,7 @@
         <v>280</v>
       </c>
       <c r="F41" s="199" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G41" s="199" t="s">
         <v>281</v>
@@ -7015,7 +7023,7 @@
         <v>286</v>
       </c>
       <c r="F42" s="199" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="G42" s="199" t="s">
         <v>289</v>
@@ -7044,7 +7052,7 @@
         <v>291</v>
       </c>
       <c r="F43" s="177" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G43" s="199" t="s">
         <v>292</v>
@@ -7076,7 +7084,7 @@
         <v>304</v>
       </c>
       <c r="G44" s="174" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="H44" s="178"/>
       <c r="I44" s="179">
@@ -7127,7 +7135,7 @@
         <v>317</v>
       </c>
       <c r="F46" s="201" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G46" s="174" t="s">
         <v>318</v>
@@ -7250,7 +7258,7 @@
         <v>43278</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="69.599999999999994">
+    <row r="51" spans="1:10" ht="69.3">
       <c r="A51" s="173" t="s">
         <v>344</v>
       </c>
@@ -7267,7 +7275,7 @@
         <v>346</v>
       </c>
       <c r="F51" s="177" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="G51" s="199"/>
       <c r="H51" s="178"/>
@@ -7295,7 +7303,7 @@
         <v>352</v>
       </c>
       <c r="G52" s="199" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H52" s="178"/>
       <c r="I52" s="179">
@@ -7322,7 +7330,7 @@
         <v>352</v>
       </c>
       <c r="G53" s="199" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H53" s="178"/>
       <c r="I53" s="179">
@@ -7350,22 +7358,22 @@
       <c r="H54" s="178"/>
       <c r="I54" s="179"/>
     </row>
-    <row r="55" spans="1:10" ht="41.4">
+    <row r="55" spans="1:10" ht="27.6">
       <c r="A55" s="212" t="s">
         <v>372</v>
       </c>
       <c r="B55" s="178" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C55" s="178"/>
       <c r="D55" s="175" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E55" s="182" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F55" s="238" t="s">
         <v>1008</v>
-      </c>
-      <c r="E55" s="182" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F55" s="246" t="s">
-        <v>1010</v>
       </c>
       <c r="G55" s="199"/>
       <c r="H55" s="178"/>
@@ -7531,7 +7539,7 @@
         <v>394</v>
       </c>
       <c r="E62" s="182" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F62" s="213" t="s">
         <v>395</v>
@@ -7552,7 +7560,7 @@
         <v>398</v>
       </c>
       <c r="E63" s="182" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F63" s="213" t="s">
         <v>395</v>
@@ -7585,7 +7593,7 @@
         <v>43283</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="41.4">
+    <row r="65" spans="1:9" ht="55.2">
       <c r="A65" s="196" t="s">
         <v>76</v>
       </c>
@@ -7612,7 +7620,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="41.4">
+    <row r="66" spans="1:9" ht="55.2">
       <c r="A66" s="196" t="s">
         <v>76</v>
       </c>
@@ -7639,7 +7647,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="41.4">
+    <row r="67" spans="1:9" ht="55.2">
       <c r="A67" s="196" t="s">
         <v>76</v>
       </c>
@@ -7666,7 +7674,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="41.4">
+    <row r="68" spans="1:9" ht="55.2">
       <c r="A68" s="196" t="s">
         <v>76</v>
       </c>
@@ -7743,7 +7751,7 @@
       <c r="H70" s="178"/>
       <c r="I70" s="179"/>
     </row>
-    <row r="71" spans="1:9" ht="41.4">
+    <row r="71" spans="1:9" ht="55.2">
       <c r="A71" s="196" t="s">
         <v>76</v>
       </c>
@@ -7793,7 +7801,7 @@
       <c r="H72" s="178"/>
       <c r="I72" s="179"/>
     </row>
-    <row r="73" spans="1:9" ht="41.4">
+    <row r="73" spans="1:9" ht="55.2">
       <c r="A73" s="196" t="s">
         <v>76</v>
       </c>
@@ -7843,7 +7851,7 @@
       <c r="H74" s="178"/>
       <c r="I74" s="179"/>
     </row>
-    <row r="75" spans="1:9" ht="41.4">
+    <row r="75" spans="1:9" ht="55.2">
       <c r="A75" s="196" t="s">
         <v>448</v>
       </c>
@@ -7870,7 +7878,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="55.2">
+    <row r="76" spans="1:9" ht="56.4">
       <c r="A76" s="173" t="s">
         <v>451</v>
       </c>
@@ -7897,7 +7905,7 @@
         <v>43290</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="55.2">
+    <row r="77" spans="1:9" ht="56.4">
       <c r="A77" s="217" t="s">
         <v>453</v>
       </c>
@@ -8022,7 +8030,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="124.2">
+    <row r="82" spans="1:10" ht="138">
       <c r="A82" s="173" t="s">
         <v>474</v>
       </c>
@@ -8047,7 +8055,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="409.6">
+    <row r="83" spans="1:10" ht="409.5">
       <c r="A83" s="173" t="s">
         <v>481</v>
       </c>
@@ -8250,7 +8258,7 @@
         <v>517</v>
       </c>
       <c r="E90" s="182" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F90" s="211" t="s">
         <v>519</v>
@@ -8276,7 +8284,7 @@
         <v>523</v>
       </c>
       <c r="F91" s="213" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="G91" s="178" t="s">
         <v>525</v>
@@ -8299,7 +8307,7 @@
         <v>527</v>
       </c>
       <c r="F92" s="213" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G92" s="178" t="s">
         <v>529</v>
@@ -8320,7 +8328,7 @@
         <v>531</v>
       </c>
       <c r="F93" s="213" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="G93" s="194" t="s">
         <v>533</v>
@@ -8342,7 +8350,7 @@
         <v>536</v>
       </c>
       <c r="E94" s="182" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F94" s="199" t="s">
         <v>538</v>
@@ -8393,7 +8401,7 @@
         <v>570</v>
       </c>
       <c r="E96" s="182" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F96" s="199" t="s">
         <v>579</v>
@@ -8446,7 +8454,7 @@
       </c>
       <c r="E98" s="176"/>
       <c r="F98" s="220" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G98" s="178"/>
       <c r="H98" s="178" t="s">
@@ -8492,7 +8500,7 @@
       <c r="H100" s="178"/>
       <c r="I100" s="179"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" ht="14.1">
       <c r="A101" s="173" t="s">
         <v>615</v>
       </c>
@@ -8607,16 +8615,16 @@
         <v>22</v>
       </c>
       <c r="D105" s="235" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E105" s="237" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F105" s="199" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="G105" s="178" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="H105" s="178"/>
       <c r="I105" s="179">
@@ -8630,16 +8638,16 @@
       <c r="B106" s="178"/>
       <c r="C106" s="178"/>
       <c r="D106" s="236" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E106" s="237" t="s">
+        <v>993</v>
+      </c>
+      <c r="F106" s="199" t="s">
         <v>995</v>
       </c>
-      <c r="F106" s="199" t="s">
-        <v>997</v>
-      </c>
       <c r="G106" s="178" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="H106" s="178"/>
       <c r="I106" s="179">
@@ -8653,16 +8661,16 @@
       <c r="B107" s="178"/>
       <c r="C107" s="178"/>
       <c r="D107" s="236" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E107" s="237" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F107" s="199" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="G107" s="178" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="H107" s="178"/>
       <c r="I107" s="179">
@@ -8676,16 +8684,16 @@
       <c r="B108" s="178"/>
       <c r="C108" s="178"/>
       <c r="D108" s="236" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E108" s="237" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F108" s="199" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="G108" s="178" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H108" s="178"/>
       <c r="I108" s="179">
@@ -8699,16 +8707,16 @@
       <c r="B109" s="178"/>
       <c r="C109" s="178"/>
       <c r="D109" s="236" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E109" s="237" t="s">
+        <v>997</v>
+      </c>
+      <c r="F109" s="199" t="s">
+        <v>995</v>
+      </c>
+      <c r="G109" s="178" t="s">
         <v>999</v>
-      </c>
-      <c r="F109" s="199" t="s">
-        <v>997</v>
-      </c>
-      <c r="G109" s="178" t="s">
-        <v>1001</v>
       </c>
       <c r="H109" s="178"/>
       <c r="I109" s="179">
@@ -8722,16 +8730,16 @@
       <c r="B110" s="178"/>
       <c r="C110" s="178"/>
       <c r="D110" s="236" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E110" s="237" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F110" s="199" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="G110" s="178" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="H110" s="178"/>
       <c r="I110" s="179">
@@ -8807,7 +8815,7 @@
       <c r="H113" s="178"/>
       <c r="I113" s="179"/>
     </row>
-    <row r="114" spans="1:9" ht="82.8">
+    <row r="114" spans="1:9" ht="96.6">
       <c r="A114" s="173" t="s">
         <v>672</v>
       </c>
@@ -8847,7 +8855,7 @@
       </c>
       <c r="E115" s="182"/>
       <c r="F115" s="211" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="G115" s="178"/>
       <c r="H115" s="178"/>
@@ -8870,7 +8878,7 @@
       </c>
       <c r="E116" s="182"/>
       <c r="F116" s="193" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="G116" s="178"/>
       <c r="H116" s="178"/>
@@ -9007,7 +9015,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="27.6">
+    <row r="122" spans="1:9" ht="41.4">
       <c r="A122" s="173" t="s">
         <v>749</v>
       </c>
@@ -9034,7 +9042,7 @@
         <v>43250</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="82.8">
+    <row r="123" spans="1:9" ht="96.6">
       <c r="A123" s="173" t="s">
         <v>774</v>
       </c>
@@ -9051,10 +9059,10 @@
         <v>609</v>
       </c>
       <c r="F123" s="199" t="s">
-        <v>777</v>
+        <v>1009</v>
       </c>
       <c r="G123" s="178" t="s">
-        <v>778</v>
+        <v>1010</v>
       </c>
       <c r="H123" s="223"/>
       <c r="I123" s="179">
@@ -9063,116 +9071,116 @@
     </row>
     <row r="124" spans="1:9" ht="27.6">
       <c r="A124" s="173" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B124" s="178" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C124" s="178"/>
       <c r="D124" s="191" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E124" s="192" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F124" s="201" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G124" s="178"/>
       <c r="H124" s="224" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I124" s="179"/>
     </row>
     <row r="125" spans="1:9" ht="27.6">
       <c r="A125" s="196" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B125" s="178" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C125" s="178"/>
       <c r="D125" s="191" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E125" s="192" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F125" s="201" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G125" s="178"/>
       <c r="H125" s="224" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I125" s="179"/>
     </row>
     <row r="126" spans="1:9" ht="27.6">
       <c r="A126" s="196" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B126" s="178" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C126" s="178"/>
       <c r="D126" s="191" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E126" s="192" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F126" s="201" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G126" s="178"/>
       <c r="H126" s="224" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I126" s="179"/>
     </row>
-    <row r="127" spans="1:9" ht="27.6">
+    <row r="127" spans="1:9" ht="41.4">
       <c r="A127" s="196" t="s">
+        <v>808</v>
+      </c>
+      <c r="B127" s="178" t="s">
+        <v>809</v>
+      </c>
+      <c r="C127" s="174" t="s">
         <v>810</v>
       </c>
-      <c r="B127" s="178" t="s">
-        <v>811</v>
-      </c>
-      <c r="C127" s="174" t="s">
+      <c r="D127" s="174" t="s">
         <v>812</v>
       </c>
-      <c r="D127" s="174" t="s">
-        <v>814</v>
-      </c>
       <c r="E127" s="182" t="s">
+        <v>817</v>
+      </c>
+      <c r="F127" s="199" t="s">
+        <v>818</v>
+      </c>
+      <c r="G127" s="178" t="s">
         <v>819</v>
-      </c>
-      <c r="F127" s="199" t="s">
-        <v>820</v>
-      </c>
-      <c r="G127" s="178" t="s">
-        <v>821</v>
       </c>
       <c r="H127" s="223"/>
       <c r="I127" s="179"/>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" ht="14.1">
       <c r="A128" s="173" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B128" s="178" t="s">
         <v>45</v>
       </c>
       <c r="C128" s="174" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D128" s="200" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E128" s="176" t="s">
         <v>609</v>
       </c>
       <c r="F128" s="201" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G128" s="178"/>
       <c r="H128" s="178"/>
@@ -9182,7 +9190,7 @@
     </row>
     <row r="129" spans="1:9" ht="96.6">
       <c r="A129" s="173" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B129" s="178" t="s">
         <v>45</v>
@@ -9191,16 +9199,16 @@
         <v>22</v>
       </c>
       <c r="D129" s="178" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E129" s="176" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F129" s="201" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G129" s="180" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="H129" s="178"/>
       <c r="I129" s="179">
@@ -9209,16 +9217,16 @@
     </row>
     <row r="130" spans="1:9" ht="41.4">
       <c r="A130" s="173" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B130" s="178" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C130" s="178"/>
       <c r="D130" s="178"/>
       <c r="E130" s="176"/>
       <c r="F130" s="199" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G130" s="178"/>
       <c r="H130" s="178"/>
@@ -9228,23 +9236,23 @@
     </row>
     <row r="131" spans="1:9" ht="41.4">
       <c r="A131" s="173" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B131" s="174" t="s">
         <v>295</v>
       </c>
       <c r="C131" s="174"/>
       <c r="D131" s="209" t="s">
+        <v>857</v>
+      </c>
+      <c r="E131" s="182" t="s">
+        <v>858</v>
+      </c>
+      <c r="F131" s="177" t="s">
         <v>859</v>
       </c>
-      <c r="E131" s="182" t="s">
-        <v>860</v>
-      </c>
-      <c r="F131" s="177" t="s">
-        <v>861</v>
-      </c>
       <c r="G131" s="178" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H131" s="178"/>
       <c r="I131" s="179">
@@ -9253,7 +9261,7 @@
     </row>
     <row r="132" spans="1:9" ht="138">
       <c r="A132" s="173" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B132" s="174" t="s">
         <v>77</v>
@@ -9262,17 +9270,17 @@
         <v>22</v>
       </c>
       <c r="D132" s="175" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E132" s="182"/>
       <c r="F132" s="193" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G132" s="178" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H132" s="224" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I132" s="179">
         <v>43270</v>
@@ -9280,7 +9288,7 @@
     </row>
     <row r="133" spans="1:9" ht="41.4">
       <c r="A133" s="173" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B133" s="174" t="s">
         <v>77</v>
@@ -9289,17 +9297,17 @@
         <v>22</v>
       </c>
       <c r="D133" s="175" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E133" s="182"/>
       <c r="F133" s="193" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G133" s="178" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H133" s="195" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="I133" s="179">
         <v>43270</v>
@@ -9307,7 +9315,7 @@
     </row>
     <row r="134" spans="1:9" ht="41.4">
       <c r="A134" s="173" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B134" s="174" t="s">
         <v>77</v>
@@ -9316,25 +9324,25 @@
         <v>22</v>
       </c>
       <c r="D134" s="175" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E134" s="182"/>
       <c r="F134" s="193" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G134" s="178" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H134" s="195" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="I134" s="179">
         <v>43270</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="41.4">
+    <row r="135" spans="1:9" ht="55.2">
       <c r="A135" s="173" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B135" s="174" t="s">
         <v>77</v>
@@ -9343,15 +9351,15 @@
         <v>22</v>
       </c>
       <c r="D135" s="175" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E135" s="182"/>
       <c r="F135" s="211" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G135" s="178"/>
       <c r="H135" s="224" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I135" s="179">
         <v>43270</v>
@@ -9359,7 +9367,7 @@
     </row>
     <row r="136" spans="1:9" ht="41.4">
       <c r="A136" s="173" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B136" s="178" t="s">
         <v>144</v>
@@ -9368,19 +9376,19 @@
         <v>22</v>
       </c>
       <c r="D136" s="197" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E136" s="225" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F136" s="201" t="s">
         <v>772</v>
       </c>
       <c r="G136" s="178" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H136" s="224" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="I136" s="179">
         <v>43250</v>
@@ -9388,7 +9396,7 @@
     </row>
     <row r="137" spans="1:9" ht="27.6">
       <c r="A137" s="173" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B137" s="178" t="s">
         <v>775</v>
@@ -9397,13 +9405,13 @@
         <v>22</v>
       </c>
       <c r="D137" s="200" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F137" s="201" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H137" s="224" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I137" s="226">
         <v>43288</v>
@@ -9412,7 +9420,7 @@
     <row r="138" spans="1:9">
       <c r="D138" s="178"/>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" ht="14.1">
       <c r="A139" s="173"/>
       <c r="B139" s="174"/>
       <c r="C139" s="174"/>
@@ -9423,7 +9431,7 @@
       <c r="H139" s="178"/>
       <c r="I139" s="179"/>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" ht="14.1">
       <c r="A140" s="173"/>
       <c r="B140" s="174"/>
       <c r="C140" s="174"/>
@@ -9434,7 +9442,7 @@
       <c r="H140" s="178"/>
       <c r="I140" s="179"/>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" ht="14.1">
       <c r="A141" s="173"/>
       <c r="B141" s="174"/>
       <c r="C141" s="174"/>
@@ -9445,7 +9453,7 @@
       <c r="H141" s="178"/>
       <c r="I141" s="179"/>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" ht="14.1">
       <c r="A142" s="173"/>
       <c r="B142" s="174"/>
       <c r="C142" s="174"/>
@@ -9456,7 +9464,7 @@
       <c r="H142" s="178"/>
       <c r="I142" s="179"/>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" ht="14.1">
       <c r="A143" s="173"/>
       <c r="B143" s="174"/>
       <c r="C143" s="174"/>
@@ -9467,7 +9475,7 @@
       <c r="H143" s="178"/>
       <c r="I143" s="179"/>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" ht="14.1">
       <c r="A144" s="173"/>
       <c r="B144" s="174"/>
       <c r="C144" s="174"/>
@@ -9478,7 +9486,7 @@
       <c r="H144" s="178"/>
       <c r="I144" s="179"/>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" ht="14.1">
       <c r="A145" s="173"/>
       <c r="B145" s="174"/>
       <c r="C145" s="174"/>
@@ -9489,7 +9497,7 @@
       <c r="H145" s="178"/>
       <c r="I145" s="179"/>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" ht="14.1">
       <c r="A146" s="173"/>
       <c r="B146" s="174"/>
       <c r="C146" s="174"/>
@@ -9502,7 +9510,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F114" r:id="rId1" location="gid=314589613&amp;range=309:309"/>
+    <hyperlink ref="F114" r:id="rId1" location="gid=314589613&amp;range=309:309" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -9511,7 +9519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -9522,12 +9530,12 @@
       <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.4">
+    <row r="1" spans="1:10" ht="24.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9552,12 +9560,12 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="238" t="s">
+      <c r="I1" s="239" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="239"/>
-    </row>
-    <row r="2" spans="1:10" ht="26.4">
+      <c r="J1" s="240"/>
+    </row>
+    <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -9573,7 +9581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="330">
+    <row r="3" spans="1:10" ht="282.89999999999998">
       <c r="A3" s="6" t="s">
         <v>150</v>
       </c>
@@ -9605,7 +9613,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="158.4">
+    <row r="4" spans="1:10" ht="135.30000000000001">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
@@ -9635,7 +9643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="211.2">
+    <row r="5" spans="1:10" ht="184.5">
       <c r="A5" s="14" t="s">
         <v>19</v>
       </c>
@@ -9665,7 +9673,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="211.2">
+    <row r="6" spans="1:10" ht="184.5">
       <c r="A6" s="14" t="s">
         <v>19</v>
       </c>
@@ -9695,7 +9703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="211.2">
+    <row r="7" spans="1:10" ht="184.5">
       <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
@@ -9725,7 +9733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="211.2">
+    <row r="8" spans="1:10" ht="184.5">
       <c r="A8" s="14" t="s">
         <v>19</v>
       </c>
@@ -9755,7 +9763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="92.4">
+    <row r="9" spans="1:10" ht="86.1">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -9783,7 +9791,7 @@
       </c>
       <c r="J9" s="36"/>
     </row>
-    <row r="10" spans="1:10" ht="92.4">
+    <row r="10" spans="1:10" ht="86.1">
       <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
@@ -9811,7 +9819,7 @@
       </c>
       <c r="J10" s="36"/>
     </row>
-    <row r="11" spans="1:10" ht="92.4">
+    <row r="11" spans="1:10" ht="86.1">
       <c r="A11" s="8" t="s">
         <v>44</v>
       </c>
@@ -9839,7 +9847,7 @@
       </c>
       <c r="J11" s="36"/>
     </row>
-    <row r="12" spans="1:10" ht="184.8">
+    <row r="12" spans="1:10" ht="172.2">
       <c r="A12" s="8" t="s">
         <v>199</v>
       </c>
@@ -9865,7 +9873,7 @@
       </c>
       <c r="J12" s="36"/>
     </row>
-    <row r="13" spans="1:10" ht="409.6">
+    <row r="13" spans="1:10" ht="393.6">
       <c r="A13" s="6" t="s">
         <v>223</v>
       </c>
@@ -9896,7 +9904,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="211.2">
+    <row r="14" spans="1:10" ht="196.8">
       <c r="A14" s="6" t="s">
         <v>288</v>
       </c>
@@ -9926,7 +9934,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="274.8">
+    <row r="15" spans="1:10" ht="264.89999999999998">
       <c r="A15" s="8" t="s">
         <v>288</v>
       </c>
@@ -9954,7 +9962,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="105.6">
+    <row r="16" spans="1:10" ht="98.4">
       <c r="A16" s="8" t="s">
         <v>76</v>
       </c>
@@ -10006,7 +10014,7 @@
       </c>
       <c r="J17" s="36"/>
     </row>
-    <row r="18" spans="1:10" ht="58.2" thickBot="1">
+    <row r="18" spans="1:10" ht="57.9" thickBot="1">
       <c r="A18" s="8" t="s">
         <v>76</v>
       </c>
@@ -10058,7 +10066,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="36"/>
     </row>
-    <row r="20" spans="1:10" s="234" customFormat="1" ht="66">
+    <row r="20" spans="1:10" s="234" customFormat="1" ht="61.5">
       <c r="A20" s="229" t="s">
         <v>644</v>
       </c>
@@ -10069,51 +10077,51 @@
         <v>22</v>
       </c>
       <c r="D20" s="230" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E20" s="231"/>
       <c r="F20" s="232" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="G20" s="229" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="H20" s="229"/>
       <c r="I20" s="233">
         <v>43240</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="66.599999999999994" thickBot="1">
+    <row r="21" spans="1:10" ht="61.8" thickBot="1">
       <c r="A21" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>829</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="D21" s="115" t="s">
         <v>830</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>831</v>
       </c>
-      <c r="D21" s="115" t="s">
+      <c r="F21" s="32" t="s">
         <v>832</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="G21" s="8" t="s">
         <v>833</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>834</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>835</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="12">
         <v>43240</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="106.2" thickBot="1">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="86.4" thickBot="1">
       <c r="A22" s="52" t="s">
         <v>749</v>
       </c>
@@ -10124,19 +10132,19 @@
         <v>22</v>
       </c>
       <c r="D22" s="159" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E22" s="13" t="s">
+        <v>891</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>892</v>
+      </c>
+      <c r="G22" s="57" t="s">
         <v>893</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="H22" s="8" t="s">
         <v>894</v>
-      </c>
-      <c r="G22" s="57" t="s">
-        <v>895</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>896</v>
       </c>
       <c r="I22" s="12">
         <v>43250</v>
@@ -10153,20 +10161,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
+      <selection pane="bottomRight" activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -10179,7 +10187,7 @@
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.4">
+    <row r="1" spans="1:10" ht="24.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10204,12 +10212,12 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="238" t="s">
+      <c r="I1" s="239" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="239"/>
-    </row>
-    <row r="2" spans="1:10" ht="26.4">
+      <c r="J1" s="240"/>
+    </row>
+    <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -10225,7 +10233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="52.8">
+    <row r="3" spans="1:10" ht="49.2">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -10251,7 +10259,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="26.4">
+    <row r="4" spans="1:10" ht="24.6">
       <c r="A4" s="17" t="s">
         <v>24</v>
       </c>
@@ -10278,13 +10286,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="86.4">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="240" t="s">
+      <c r="B5" s="241" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="240" t="s">
+      <c r="C5" s="241" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -10306,9 +10314,9 @@
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="86.4">
-      <c r="A6" s="239"/>
-      <c r="B6" s="239"/>
-      <c r="C6" s="239"/>
+      <c r="A6" s="240"/>
+      <c r="B6" s="240"/>
+      <c r="C6" s="240"/>
       <c r="D6" s="13" t="s">
         <v>68</v>
       </c>
@@ -10325,8 +10333,8 @@
       </c>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="1:10" ht="39.6">
-      <c r="A7" s="243" t="s">
+    <row r="7" spans="1:10" ht="36.9">
+      <c r="A7" s="244" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -10355,8 +10363,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="39.6">
-      <c r="A8" s="239"/>
+    <row r="8" spans="1:10" ht="36.9">
+      <c r="A8" s="240"/>
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
@@ -10382,8 +10390,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="39.6">
-      <c r="A9" s="242"/>
+    <row r="9" spans="1:10" ht="36.9">
+      <c r="A9" s="243"/>
       <c r="B9" s="47" t="s">
         <v>21</v>
       </c>
@@ -10434,8 +10442,8 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="39.6">
-      <c r="A11" s="244" t="s">
+    <row r="11" spans="1:10" ht="36.9">
+      <c r="A11" s="245" t="s">
         <v>119</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -10463,8 +10471,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="39.6">
-      <c r="A12" s="239"/>
+    <row r="12" spans="1:10" ht="36.9">
+      <c r="A12" s="240"/>
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
@@ -10490,8 +10498,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="39.6">
-      <c r="A13" s="239"/>
+    <row r="13" spans="1:10" ht="24.6">
+      <c r="A13" s="240"/>
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -10517,8 +10525,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="39.6">
-      <c r="A14" s="239"/>
+    <row r="14" spans="1:10" ht="36.9">
+      <c r="A14" s="240"/>
       <c r="B14" s="47" t="s">
         <v>21</v>
       </c>
@@ -10545,7 +10553,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="26.4">
+    <row r="15" spans="1:10" ht="24.6">
       <c r="A15" s="6" t="s">
         <v>159</v>
       </c>
@@ -10571,7 +10579,7 @@
       </c>
       <c r="J15" s="36"/>
     </row>
-    <row r="16" spans="1:10" ht="26.4">
+    <row r="16" spans="1:10" ht="24.6">
       <c r="A16" s="6" t="s">
         <v>167</v>
       </c>
@@ -10597,7 +10605,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="105.6">
+    <row r="22" spans="1:10" ht="98.4">
       <c r="A22" s="14" t="s">
         <v>19</v>
       </c>
@@ -10627,7 +10635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="79.2">
+    <row r="26" spans="1:10" ht="73.8">
       <c r="A26" s="6" t="s">
         <v>179</v>
       </c>
@@ -10657,7 +10665,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="52.8">
+    <row r="27" spans="1:10" ht="36.9">
       <c r="A27" s="65" t="s">
         <v>190</v>
       </c>
@@ -10689,7 +10697,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="92.4">
+    <row r="28" spans="1:10" ht="86.1">
       <c r="A28" s="6" t="s">
         <v>259</v>
       </c>
@@ -10719,7 +10727,7 @@
         <v>76138</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="66">
+    <row r="29" spans="1:10" ht="61.5">
       <c r="A29" s="6" t="s">
         <v>269</v>
       </c>
@@ -10791,7 +10799,7 @@
       <c r="I31" s="12"/>
       <c r="J31" s="36"/>
     </row>
-    <row r="32" spans="1:10" ht="79.2">
+    <row r="32" spans="1:10" ht="73.8">
       <c r="A32" s="6" t="s">
         <v>320</v>
       </c>
@@ -10821,7 +10829,7 @@
       </c>
       <c r="J32" s="36"/>
     </row>
-    <row r="33" spans="1:10" ht="92.4">
+    <row r="33" spans="1:10" ht="86.1">
       <c r="A33" s="87" t="s">
         <v>347</v>
       </c>
@@ -10851,7 +10859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="39.6">
+    <row r="34" spans="1:10" ht="36.9">
       <c r="A34" s="6" t="s">
         <v>356</v>
       </c>
@@ -10879,7 +10887,7 @@
       </c>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" ht="66">
+    <row r="35" spans="1:10" ht="61.5">
       <c r="A35" s="6" t="s">
         <v>363</v>
       </c>
@@ -10911,8 +10919,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="39.6">
-      <c r="A36" s="241" t="s">
+    <row r="36" spans="1:10" ht="36.9">
+      <c r="A36" s="242" t="s">
         <v>376</v>
       </c>
       <c r="B36" s="90" t="s">
@@ -10941,8 +10949,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="39.6">
-      <c r="A37" s="239"/>
+    <row r="37" spans="1:10" ht="36.9">
+      <c r="A37" s="240"/>
       <c r="B37" s="8" t="s">
         <v>21</v>
       </c>
@@ -10969,8 +10977,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="66">
-      <c r="A38" s="239"/>
+    <row r="38" spans="1:10" ht="61.5">
+      <c r="A38" s="240"/>
       <c r="B38" s="8" t="s">
         <v>21</v>
       </c>
@@ -10997,8 +11005,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="39.6">
-      <c r="A39" s="239"/>
+    <row r="39" spans="1:10" ht="36.9">
+      <c r="A39" s="240"/>
       <c r="B39" s="8" t="s">
         <v>21</v>
       </c>
@@ -11025,8 +11033,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="39.6">
-      <c r="A40" s="239"/>
+    <row r="40" spans="1:10" ht="36.9">
+      <c r="A40" s="240"/>
       <c r="B40" s="8" t="s">
         <v>21</v>
       </c>
@@ -11053,8 +11061,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="39.6">
-      <c r="A41" s="239"/>
+    <row r="41" spans="1:10" ht="36.9">
+      <c r="A41" s="240"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
       </c>
@@ -11081,8 +11089,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="39.6">
-      <c r="A42" s="239"/>
+    <row r="42" spans="1:10" ht="36.9">
+      <c r="A42" s="240"/>
       <c r="B42" s="8" t="s">
         <v>21</v>
       </c>
@@ -11109,8 +11117,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="39.6">
-      <c r="A43" s="239"/>
+    <row r="43" spans="1:10" ht="36.9">
+      <c r="A43" s="240"/>
       <c r="B43" s="8" t="s">
         <v>21</v>
       </c>
@@ -11137,8 +11145,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="39.6">
-      <c r="A44" s="239"/>
+    <row r="44" spans="1:10" ht="36.9">
+      <c r="A44" s="240"/>
       <c r="B44" s="8" t="s">
         <v>21</v>
       </c>
@@ -11165,8 +11173,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="39.6">
-      <c r="A45" s="242"/>
+    <row r="45" spans="1:10" ht="36.9">
+      <c r="A45" s="243"/>
       <c r="B45" s="47" t="s">
         <v>21</v>
       </c>
@@ -11193,7 +11201,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="39.6">
+    <row r="46" spans="1:10" ht="36.9">
       <c r="A46" s="105" t="s">
         <v>459</v>
       </c>
@@ -11253,8 +11261,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="66">
-      <c r="A48" s="241" t="s">
+    <row r="48" spans="1:10" ht="61.5">
+      <c r="A48" s="242" t="s">
         <v>496</v>
       </c>
       <c r="B48" s="90" t="s">
@@ -11283,8 +11291,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="39.6">
-      <c r="A49" s="242"/>
+    <row r="49" spans="1:10" ht="36.9">
+      <c r="A49" s="243"/>
       <c r="B49" s="47" t="s">
         <v>21</v>
       </c>
@@ -11339,7 +11347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="26.4">
+    <row r="51" spans="1:10" ht="24.6">
       <c r="A51" s="8" t="s">
         <v>460</v>
       </c>
@@ -11365,7 +11373,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="79.2">
+    <row r="52" spans="1:10" ht="73.8">
       <c r="A52" s="6" t="s">
         <v>549</v>
       </c>
@@ -11397,7 +11405,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="52.8">
+    <row r="53" spans="1:10" ht="49.2">
       <c r="A53" s="8" t="s">
         <v>549</v>
       </c>
@@ -11429,7 +11437,7 @@
         <v>43283</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="52.8">
+    <row r="54" spans="1:10" ht="49.2">
       <c r="A54" s="8" t="s">
         <v>549</v>
       </c>
@@ -11461,7 +11469,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="52.8">
+    <row r="55" spans="1:10" ht="49.2">
       <c r="A55" s="8" t="s">
         <v>549</v>
       </c>
@@ -11493,7 +11501,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="66">
+    <row r="56" spans="1:10" ht="61.5">
       <c r="A56" s="8" t="s">
         <v>549</v>
       </c>
@@ -11525,7 +11533,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="52.8">
+    <row r="57" spans="1:10" ht="49.2">
       <c r="A57" s="8" t="s">
         <v>549</v>
       </c>
@@ -11557,7 +11565,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="52.8">
+    <row r="58" spans="1:10" ht="49.2">
       <c r="A58" s="8" t="s">
         <v>549</v>
       </c>
@@ -11589,7 +11597,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="52.8">
+    <row r="59" spans="1:10" ht="49.2">
       <c r="A59" s="8" t="s">
         <v>549</v>
       </c>
@@ -11621,7 +11629,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="52.8">
+    <row r="60" spans="1:10" ht="49.2">
       <c r="A60" s="6" t="s">
         <v>590</v>
       </c>
@@ -11651,7 +11659,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="26.4">
+    <row r="61" spans="1:10" ht="24.6">
       <c r="A61" s="8" t="s">
         <v>590</v>
       </c>
@@ -11681,7 +11689,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="79.2">
+    <row r="62" spans="1:10" ht="73.8">
       <c r="A62" s="6" t="s">
         <v>604</v>
       </c>
@@ -11711,7 +11719,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="26.4">
+    <row r="63" spans="1:10" ht="24.6">
       <c r="A63" s="132" t="s">
         <v>614</v>
       </c>
@@ -11741,7 +11749,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="52.8">
+    <row r="64" spans="1:10" ht="49.2">
       <c r="A64" s="6" t="s">
         <v>639</v>
       </c>
@@ -11803,7 +11811,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="52.8">
+    <row r="66" spans="1:10" ht="49.2">
       <c r="A66" s="125" t="s">
         <v>654</v>
       </c>
@@ -11830,7 +11838,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="66">
+    <row r="67" spans="1:10" ht="61.5">
       <c r="A67" s="123" t="s">
         <v>654</v>
       </c>
@@ -11965,7 +11973,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="39.6">
+    <row r="72" spans="1:10" ht="43.2">
       <c r="A72" s="123" t="s">
         <v>654</v>
       </c>
@@ -12187,7 +12195,7 @@
         <v>43295</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="79.2">
+    <row r="80" spans="1:10" ht="61.5">
       <c r="A80" s="125" t="s">
         <v>565</v>
       </c>
@@ -12215,7 +12223,7 @@
         <v>43296</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="66">
+    <row r="81" spans="1:10" ht="57.6">
       <c r="A81" s="123" t="s">
         <v>565</v>
       </c>
@@ -12243,7 +12251,7 @@
         <v>43297</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="66">
+    <row r="82" spans="1:10" ht="61.5">
       <c r="A82" s="123" t="s">
         <v>565</v>
       </c>
@@ -12325,7 +12333,7 @@
         <v>43300</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="52.8">
+    <row r="85" spans="1:10" ht="49.2">
       <c r="A85" s="8" t="s">
         <v>756</v>
       </c>
@@ -12355,7 +12363,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="52.8">
+    <row r="86" spans="1:10" ht="49.2">
       <c r="A86" s="6" t="s">
         <v>765</v>
       </c>
@@ -12385,7 +12393,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="118.8">
+    <row r="87" spans="1:10" ht="110.7">
       <c r="A87" s="6" t="s">
         <v>770</v>
       </c>
@@ -12400,10 +12408,10 @@
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="12">
@@ -12413,9 +12421,9 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="39.6">
-      <c r="A88" s="243" t="s">
-        <v>784</v>
+    <row r="88" spans="1:10" ht="36.9">
+      <c r="A88" s="244" t="s">
+        <v>782</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>45</v>
@@ -12424,13 +12432,13 @@
         <v>22</v>
       </c>
       <c r="D88" s="146" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E88" s="100" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="8" t="s">
@@ -12443,8 +12451,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="39.6">
-      <c r="A89" s="239"/>
+    <row r="89" spans="1:10" ht="36.9">
+      <c r="A89" s="240"/>
       <c r="B89" s="8" t="s">
         <v>45</v>
       </c>
@@ -12452,13 +12460,13 @@
         <v>22</v>
       </c>
       <c r="D89" s="146" t="s">
+        <v>789</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="F89" s="20" t="s">
         <v>791</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="F89" s="20" t="s">
-        <v>793</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="8" t="s">
@@ -12471,8 +12479,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="39.6">
-      <c r="A90" s="239"/>
+    <row r="90" spans="1:10" ht="36.9">
+      <c r="A90" s="240"/>
       <c r="B90" s="8" t="s">
         <v>45</v>
       </c>
@@ -12480,13 +12488,13 @@
         <v>22</v>
       </c>
       <c r="D90" s="146" t="s">
+        <v>792</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="F90" s="20" t="s">
         <v>794</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="F90" s="20" t="s">
-        <v>796</v>
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="8" t="s">
@@ -12499,8 +12507,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="39.6">
-      <c r="A91" s="239"/>
+    <row r="91" spans="1:10" ht="36.9">
+      <c r="A91" s="240"/>
       <c r="B91" s="8" t="s">
         <v>45</v>
       </c>
@@ -12508,13 +12516,13 @@
         <v>22</v>
       </c>
       <c r="D91" s="146" t="s">
+        <v>796</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="F91" s="20" t="s">
         <v>798</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>799</v>
-      </c>
-      <c r="F91" s="20" t="s">
-        <v>800</v>
       </c>
       <c r="G91" s="8"/>
       <c r="H91" s="8" t="s">
@@ -12527,8 +12535,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="39.6">
-      <c r="A92" s="239"/>
+    <row r="92" spans="1:10" ht="24.6">
+      <c r="A92" s="240"/>
       <c r="B92" s="8" t="s">
         <v>45</v>
       </c>
@@ -12536,13 +12544,13 @@
         <v>22</v>
       </c>
       <c r="D92" s="146" t="s">
+        <v>799</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="F92" s="20" t="s">
         <v>801</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="F92" s="20" t="s">
-        <v>803</v>
       </c>
       <c r="G92" s="8"/>
       <c r="H92" s="8" t="s">
@@ -12555,8 +12563,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="39.6">
-      <c r="A93" s="239"/>
+    <row r="93" spans="1:10" ht="24.6">
+      <c r="A93" s="240"/>
       <c r="B93" s="8" t="s">
         <v>45</v>
       </c>
@@ -12564,13 +12572,13 @@
         <v>22</v>
       </c>
       <c r="D93" s="146" t="s">
+        <v>802</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="F93" s="20" t="s">
         <v>804</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>805</v>
-      </c>
-      <c r="F93" s="20" t="s">
-        <v>806</v>
       </c>
       <c r="G93" s="8"/>
       <c r="H93" s="8" t="s">
@@ -12583,8 +12591,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="39.6">
-      <c r="A94" s="239"/>
+    <row r="94" spans="1:10" ht="36.9">
+      <c r="A94" s="240"/>
       <c r="B94" s="8" t="s">
         <v>45</v>
       </c>
@@ -12592,13 +12600,13 @@
         <v>22</v>
       </c>
       <c r="D94" s="146" t="s">
+        <v>805</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="F94" s="20" t="s">
         <v>807</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="F94" s="20" t="s">
-        <v>809</v>
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="8" t="s">
@@ -12611,8 +12619,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="39.6">
-      <c r="A95" s="239"/>
+    <row r="95" spans="1:10" ht="36.9">
+      <c r="A95" s="240"/>
       <c r="B95" s="8" t="s">
         <v>45</v>
       </c>
@@ -12620,13 +12628,13 @@
         <v>22</v>
       </c>
       <c r="D95" s="147" t="s">
+        <v>811</v>
+      </c>
+      <c r="E95" s="8" t="s">
         <v>813</v>
       </c>
-      <c r="E95" s="8" t="s">
-        <v>815</v>
-      </c>
       <c r="F95" s="20" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G95" s="8"/>
       <c r="H95" s="8" t="s">
@@ -12639,9 +12647,9 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="26.4">
+    <row r="96" spans="1:10" ht="24.6">
       <c r="A96" s="6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>45</v>
@@ -12650,19 +12658,19 @@
         <v>22</v>
       </c>
       <c r="D96" s="148" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E96" s="22" t="s">
+        <v>823</v>
+      </c>
+      <c r="F96" s="20" t="s">
+        <v>824</v>
+      </c>
+      <c r="G96" s="32" t="s">
         <v>825</v>
       </c>
-      <c r="F96" s="20" t="s">
+      <c r="H96" s="8" t="s">
         <v>826</v>
-      </c>
-      <c r="G96" s="32" t="s">
-        <v>827</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>828</v>
       </c>
       <c r="I96" s="12">
         <v>43240</v>
@@ -12671,28 +12679,28 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="52.8">
+    <row r="97" spans="1:10" ht="49.2">
       <c r="A97" s="6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C97" s="13" t="s">
+        <v>837</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="E97" s="13" t="s">
         <v>839</v>
       </c>
-      <c r="D97" s="13" t="s">
-        <v>840</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>841</v>
-      </c>
       <c r="F97" s="8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G97" s="8"/>
       <c r="H97" s="8" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="I97" s="12">
         <v>43210</v>
@@ -12701,20 +12709,20 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="39.6">
+    <row r="98" spans="1:10" ht="36.9">
       <c r="A98" s="6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="149" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="8" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G98" s="8"/>
       <c r="H98" s="8" t="s">
@@ -12729,7 +12737,7 @@
     </row>
     <row r="99" spans="1:10" ht="100.8">
       <c r="A99" s="6" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>151</v>
@@ -12738,17 +12746,17 @@
         <v>8001106</v>
       </c>
       <c r="D99" s="142" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F99" s="30" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="8" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I99" s="12">
         <v>43210</v>
@@ -12759,23 +12767,23 @@
     </row>
     <row r="100" spans="1:10" ht="43.2">
       <c r="A100" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="D100" s="13" t="s">
         <v>863</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="E100" s="109" t="s">
         <v>864</v>
       </c>
-      <c r="D100" s="13" t="s">
+      <c r="F100" s="8" t="s">
         <v>865</v>
-      </c>
-      <c r="E100" s="109" t="s">
-        <v>866</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>867</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="8" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I100" s="12">
         <v>43210</v>
@@ -12804,7 +12812,7 @@
         <v>735</v>
       </c>
       <c r="G101" s="155" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="H101" s="19" t="s">
         <v>737</v>
@@ -12832,7 +12840,7 @@
         <v>747</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="156">
@@ -12842,10 +12850,10 @@
     </row>
     <row r="103" spans="1:10" ht="72">
       <c r="A103" s="6" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B103" s="77" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C103" s="142"/>
       <c r="D103" s="115"/>
@@ -12853,10 +12861,10 @@
         <v>477</v>
       </c>
       <c r="F103" s="81" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G103" s="28" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="12"/>
@@ -12864,9 +12872,9 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="66">
+    <row r="104" spans="1:10" ht="61.5">
       <c r="A104" s="6" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>45</v>
@@ -12878,13 +12886,13 @@
         <v>2296810</v>
       </c>
       <c r="E104" s="13" t="s">
+        <v>897</v>
+      </c>
+      <c r="F104" s="20" t="s">
+        <v>898</v>
+      </c>
+      <c r="G104" s="8" t="s">
         <v>899</v>
-      </c>
-      <c r="F104" s="20" t="s">
-        <v>900</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>901</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="12">
@@ -12894,9 +12902,9 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="66">
+    <row r="105" spans="1:10" ht="61.5">
       <c r="A105" s="6" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>45</v>
@@ -12908,13 +12916,13 @@
         <v>2425629</v>
       </c>
       <c r="E105" s="13" t="s">
+        <v>900</v>
+      </c>
+      <c r="F105" s="20" t="s">
+        <v>901</v>
+      </c>
+      <c r="G105" s="8" t="s">
         <v>902</v>
-      </c>
-      <c r="F105" s="20" t="s">
-        <v>903</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>904</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="12">
@@ -12926,7 +12934,7 @@
     </row>
     <row r="106" spans="1:10" ht="28.8">
       <c r="A106" s="6" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B106" s="27" t="s">
         <v>77</v>
@@ -12935,14 +12943,14 @@
         <v>22</v>
       </c>
       <c r="D106" s="95" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E106" s="13"/>
       <c r="F106" s="40" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I106" s="12">
         <v>43270</v>
@@ -12953,7 +12961,7 @@
     </row>
     <row r="107" spans="1:10" ht="28.8">
       <c r="A107" s="6" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B107" s="27" t="s">
         <v>77</v>
@@ -12962,14 +12970,14 @@
         <v>22</v>
       </c>
       <c r="D107" s="95" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E107" s="13"/>
       <c r="F107" s="40" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H107" s="9"/>
       <c r="I107" s="12">
@@ -12981,7 +12989,7 @@
     </row>
     <row r="108" spans="1:10" ht="28.8">
       <c r="A108" s="6" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B108" s="27" t="s">
         <v>77</v>
@@ -12990,14 +12998,14 @@
         <v>22</v>
       </c>
       <c r="D108" s="95" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E108" s="13"/>
       <c r="F108" s="40" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H108" s="9"/>
       <c r="I108" s="12">
@@ -13009,7 +13017,7 @@
     </row>
     <row r="109" spans="1:10" ht="28.8">
       <c r="A109" s="6" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B109" s="27" t="s">
         <v>77</v>
@@ -13018,14 +13026,14 @@
         <v>22</v>
       </c>
       <c r="D109" s="95" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E109" s="13"/>
       <c r="F109" s="40" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H109" s="9"/>
       <c r="I109" s="12">
@@ -13037,7 +13045,7 @@
     </row>
     <row r="110" spans="1:10" ht="28.8">
       <c r="A110" s="6" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B110" s="27" t="s">
         <v>77</v>
@@ -13046,14 +13054,14 @@
         <v>22</v>
       </c>
       <c r="D110" s="95" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E110" s="13"/>
       <c r="F110" s="40" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H110" s="9"/>
       <c r="I110" s="12">
@@ -13065,7 +13073,7 @@
     </row>
     <row r="111" spans="1:10" ht="28.8">
       <c r="A111" s="6" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B111" s="27" t="s">
         <v>77</v>
@@ -13074,14 +13082,14 @@
         <v>22</v>
       </c>
       <c r="D111" s="161" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="40" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H111" s="9"/>
       <c r="I111" s="12">
@@ -13093,7 +13101,7 @@
     </row>
     <row r="112" spans="1:10" ht="28.8">
       <c r="A112" s="6" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B112" s="27" t="s">
         <v>77</v>
@@ -13102,14 +13110,14 @@
         <v>22</v>
       </c>
       <c r="D112" s="162" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E112" s="13"/>
       <c r="F112" s="40" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H112" s="9"/>
       <c r="I112" s="12">
@@ -13121,7 +13129,7 @@
     </row>
     <row r="113" spans="1:10" ht="28.8">
       <c r="A113" s="6" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B113" s="27" t="s">
         <v>77</v>
@@ -13130,14 +13138,14 @@
         <v>22</v>
       </c>
       <c r="D113" s="163" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E113" s="13"/>
       <c r="F113" s="164" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H113" s="9"/>
       <c r="I113" s="12">
@@ -13149,7 +13157,7 @@
     </row>
     <row r="114" spans="1:10" ht="28.8">
       <c r="A114" s="6" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B114" s="27" t="s">
         <v>77</v>
@@ -13158,14 +13166,14 @@
         <v>22</v>
       </c>
       <c r="D114" s="165" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="166" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H114" s="9"/>
       <c r="I114" s="12">
@@ -13177,7 +13185,7 @@
     </row>
     <row r="115" spans="1:10" ht="28.8">
       <c r="A115" s="6" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B115" s="27" t="s">
         <v>77</v>
@@ -13186,14 +13194,14 @@
         <v>22</v>
       </c>
       <c r="D115" s="95" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="166" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="12">
@@ -13205,7 +13213,7 @@
     </row>
     <row r="116" spans="1:10" ht="28.8">
       <c r="A116" s="6" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B116" s="27" t="s">
         <v>77</v>
@@ -13214,14 +13222,14 @@
         <v>22</v>
       </c>
       <c r="D116" s="163" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="40" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H116" s="9"/>
       <c r="I116" s="12">
@@ -13231,9 +13239,9 @@
         <v>43293</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="118.8">
+    <row r="117" spans="1:10" ht="98.4">
       <c r="A117" s="6" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>45</v>
@@ -13242,19 +13250,19 @@
         <v>22</v>
       </c>
       <c r="D117" s="148" t="s">
+        <v>930</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>931</v>
+      </c>
+      <c r="F117" s="20" t="s">
         <v>932</v>
       </c>
-      <c r="E117" s="22" t="s">
+      <c r="G117" s="130" t="s">
         <v>933</v>
       </c>
-      <c r="F117" s="20" t="s">
+      <c r="H117" s="8" t="s">
         <v>934</v>
-      </c>
-      <c r="G117" s="130" t="s">
-        <v>935</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>936</v>
       </c>
       <c r="I117" s="12">
         <v>43240</v>
@@ -13263,9 +13271,9 @@
         <v>43294</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="26.4">
+    <row r="118" spans="1:10" ht="24.6">
       <c r="A118" s="6" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>45</v>
@@ -13274,14 +13282,14 @@
         <v>22</v>
       </c>
       <c r="D118" s="148" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F118" s="20"/>
       <c r="G118" s="8" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="H118" s="9"/>
       <c r="I118" s="12">
@@ -13293,7 +13301,7 @@
     </row>
     <row r="119" spans="1:10" ht="28.8">
       <c r="A119" s="6" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B119" s="27" t="s">
         <v>77</v>
@@ -13304,7 +13312,7 @@
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
       <c r="F119" s="40" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G119" s="124" t="s">
         <v>166</v>
@@ -13319,7 +13327,7 @@
     </row>
     <row r="120" spans="1:10" ht="28.8">
       <c r="A120" s="6" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B120" s="27" t="s">
         <v>77</v>
@@ -13332,10 +13340,10 @@
       </c>
       <c r="E120" s="13"/>
       <c r="F120" s="40" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H120" s="9"/>
       <c r="I120" s="12">
@@ -13452,7 +13460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -13462,7 +13470,7 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
@@ -13476,7 +13484,7 @@
     <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39.6">
+    <row r="1" spans="1:10" ht="36.9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -13501,12 +13509,12 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="245" t="s">
+      <c r="I1" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="239"/>
-    </row>
-    <row r="2" spans="1:10" ht="26.4">
+      <c r="J1" s="240"/>
+    </row>
+    <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -13522,7 +13530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="211.2">
+    <row r="3" spans="1:10" ht="196.8">
       <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
@@ -13552,7 +13560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="211.2">
+    <row r="4" spans="1:10" ht="196.8">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
@@ -13582,7 +13590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="211.2">
+    <row r="5" spans="1:10" ht="196.8">
       <c r="A5" s="14" t="s">
         <v>19</v>
       </c>

--- a/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
+++ b/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barbj\Documents\Infoway-Health Canada CCDD\formulary\Working QA Team Folders\Pre- Release QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E9C39068-4A11-4D44-95E0-956A296D9BB9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EE499A84-EFF7-4DF6-8EBE-848D55E38C43}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="17268" windowHeight="5316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F122" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F121" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F136" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F135" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="1011">
   <si>
     <t>TM</t>
   </si>
@@ -2376,13 +2376,7 @@
     <t>linezolid</t>
   </si>
   <si>
-    <t>02402637, 02430827, 02243686, 02243685</t>
-  </si>
-  <si>
     <t>Not yet generated</t>
-  </si>
-  <si>
-    <t>UoP updates required</t>
   </si>
   <si>
     <t>fludrocortisone acetate 0.1 mg oral tablet</t>
@@ -4361,6 +4355,12 @@
   <si>
     <t>Suggested ntp: ribavirin 6 g per vial powder for solution for inhalation bfj
 This is a dry powder vial, which is reconstituted, then further diluted, then administered via a specific aerosolizing device. BfJ</t>
+  </si>
+  <si>
+    <t>Louise: change strength to 100 mg per 5 mL</t>
+  </si>
+  <si>
+    <t>linezolid 3 g per bottle oral suspension</t>
   </si>
 </sst>
 </file>
@@ -5632,9 +5632,6 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5705,6 +5702,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6030,11 +6030,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J146"/>
+  <dimension ref="A1:J145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H123" sqref="H123"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
@@ -6212,17 +6212,17 @@
         <v>443</v>
       </c>
       <c r="B7" s="178" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C7" s="174"/>
       <c r="D7" s="185">
         <v>2368196</v>
       </c>
       <c r="E7" s="186" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F7" s="177" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G7" s="174"/>
       <c r="H7" s="178"/>
@@ -6230,20 +6230,20 @@
     </row>
     <row r="8" spans="1:10" ht="358.8">
       <c r="A8" s="187" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B8" s="178" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C8" s="174"/>
       <c r="D8" s="188">
         <v>2388537</v>
       </c>
       <c r="E8" s="186" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F8" s="177" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G8" s="174"/>
       <c r="H8" s="178"/>
@@ -6251,20 +6251,20 @@
     </row>
     <row r="9" spans="1:10" ht="409.5">
       <c r="A9" s="184" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B9" s="178" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C9" s="174"/>
       <c r="D9" s="188">
         <v>2383608</v>
       </c>
       <c r="E9" s="189" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F9" s="190" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G9" s="190"/>
       <c r="H9" s="178"/>
@@ -6323,7 +6323,7 @@
         <v>93</v>
       </c>
       <c r="F12" s="177" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G12" s="194"/>
       <c r="H12" s="195" t="s">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="D21" s="200"/>
       <c r="E21" s="182" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F21" s="199" t="s">
         <v>180</v>
@@ -6813,7 +6813,7 @@
       </c>
       <c r="E33" s="182"/>
       <c r="F33" s="177" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G33" s="194"/>
       <c r="I33" s="179">
@@ -6836,7 +6836,7 @@
         <v>245</v>
       </c>
       <c r="G34" s="174" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H34" s="178"/>
       <c r="I34" s="179">
@@ -6878,7 +6878,7 @@
         <v>252</v>
       </c>
       <c r="E36" s="182" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F36" s="177" t="s">
         <v>256</v>
@@ -6899,7 +6899,7 @@
         <v>258</v>
       </c>
       <c r="E37" s="182" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F37" s="177" t="s">
         <v>256</v>
@@ -6910,7 +6910,7 @@
     </row>
     <row r="38" spans="1:10" ht="317.39999999999998">
       <c r="A38" s="173" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B38" s="174" t="s">
         <v>262</v>
@@ -6920,10 +6920,10 @@
         <v>263</v>
       </c>
       <c r="E38" s="186" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F38" s="177" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G38" s="205"/>
       <c r="H38" s="206"/>
@@ -6931,24 +6931,24 @@
         <v>9005524</v>
       </c>
       <c r="J38" s="206" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="303.60000000000002">
       <c r="A39" s="196" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B39" s="180" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C39" s="207">
         <v>2399733</v>
       </c>
       <c r="E39" s="186" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F39" s="208" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="G39" s="205"/>
       <c r="H39" s="206"/>
@@ -6994,7 +6994,7 @@
         <v>280</v>
       </c>
       <c r="F41" s="199" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G41" s="199" t="s">
         <v>281</v>
@@ -7023,7 +7023,7 @@
         <v>286</v>
       </c>
       <c r="F42" s="199" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="G42" s="199" t="s">
         <v>289</v>
@@ -7052,7 +7052,7 @@
         <v>291</v>
       </c>
       <c r="F43" s="177" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G43" s="199" t="s">
         <v>292</v>
@@ -7084,7 +7084,7 @@
         <v>304</v>
       </c>
       <c r="G44" s="174" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H44" s="178"/>
       <c r="I44" s="179">
@@ -7135,7 +7135,7 @@
         <v>317</v>
       </c>
       <c r="F46" s="201" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G46" s="174" t="s">
         <v>318</v>
@@ -7275,7 +7275,7 @@
         <v>346</v>
       </c>
       <c r="F51" s="177" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="G51" s="199"/>
       <c r="H51" s="178"/>
@@ -7303,7 +7303,7 @@
         <v>352</v>
       </c>
       <c r="G52" s="199" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H52" s="178"/>
       <c r="I52" s="179">
@@ -7330,7 +7330,7 @@
         <v>352</v>
       </c>
       <c r="G53" s="199" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H53" s="178"/>
       <c r="I53" s="179">
@@ -7363,17 +7363,17 @@
         <v>372</v>
       </c>
       <c r="B55" s="178" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C55" s="178"/>
       <c r="D55" s="175" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E55" s="182" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F55" s="237" t="s">
         <v>1006</v>
-      </c>
-      <c r="E55" s="182" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F55" s="238" t="s">
-        <v>1008</v>
       </c>
       <c r="G55" s="199"/>
       <c r="H55" s="178"/>
@@ -7539,7 +7539,7 @@
         <v>394</v>
       </c>
       <c r="E62" s="182" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F62" s="213" t="s">
         <v>395</v>
@@ -7560,7 +7560,7 @@
         <v>398</v>
       </c>
       <c r="E63" s="182" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F63" s="213" t="s">
         <v>395</v>
@@ -8258,7 +8258,7 @@
         <v>517</v>
       </c>
       <c r="E90" s="182" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F90" s="211" t="s">
         <v>519</v>
@@ -8284,7 +8284,7 @@
         <v>523</v>
       </c>
       <c r="F91" s="213" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="G91" s="178" t="s">
         <v>525</v>
@@ -8307,7 +8307,7 @@
         <v>527</v>
       </c>
       <c r="F92" s="213" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G92" s="178" t="s">
         <v>529</v>
@@ -8328,7 +8328,7 @@
         <v>531</v>
       </c>
       <c r="F93" s="213" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="G93" s="194" t="s">
         <v>533</v>
@@ -8350,7 +8350,7 @@
         <v>536</v>
       </c>
       <c r="E94" s="182" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F94" s="199" t="s">
         <v>538</v>
@@ -8401,7 +8401,7 @@
         <v>570</v>
       </c>
       <c r="E96" s="182" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F96" s="199" t="s">
         <v>579</v>
@@ -8454,7 +8454,7 @@
       </c>
       <c r="E98" s="176"/>
       <c r="F98" s="220" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G98" s="178"/>
       <c r="H98" s="178" t="s">
@@ -8464,7 +8464,7 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="55.2">
+    <row r="99" spans="1:10" ht="27.6">
       <c r="A99" s="173" t="s">
         <v>607</v>
       </c>
@@ -8472,228 +8472,236 @@
         <v>222</v>
       </c>
       <c r="C99" s="178"/>
-      <c r="D99" s="175" t="s">
-        <v>608</v>
+      <c r="D99" s="246">
+        <v>2243686</v>
       </c>
       <c r="E99" s="176" t="s">
-        <v>609</v>
-      </c>
-      <c r="F99" s="221" t="s">
-        <v>610</v>
+        <v>1010</v>
+      </c>
+      <c r="F99" s="220" t="s">
+        <v>1009</v>
       </c>
       <c r="G99" s="178"/>
       <c r="H99" s="178"/>
       <c r="I99" s="179"/>
     </row>
-    <row r="100" spans="1:10" ht="27.6">
-      <c r="A100" s="196" t="s">
-        <v>607</v>
+    <row r="100" spans="1:10" ht="14.1">
+      <c r="A100" s="173" t="s">
+        <v>613</v>
       </c>
       <c r="B100" s="178" t="s">
-        <v>222</v>
-      </c>
-      <c r="C100" s="178"/>
-      <c r="D100" s="175"/>
+        <v>614</v>
+      </c>
+      <c r="C100" s="178">
+        <v>8001119</v>
+      </c>
+      <c r="D100" s="194"/>
       <c r="E100" s="176"/>
-      <c r="F100" s="220"/>
-      <c r="G100" s="178"/>
-      <c r="H100" s="178"/>
-      <c r="I100" s="179"/>
-    </row>
-    <row r="101" spans="1:10" ht="14.1">
+      <c r="F100" s="199" t="s">
+        <v>617</v>
+      </c>
+      <c r="G100" s="178" t="s">
+        <v>618</v>
+      </c>
+      <c r="H100" s="178" t="s">
+        <v>619</v>
+      </c>
+      <c r="I100" s="179">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="82.8">
       <c r="A101" s="173" t="s">
-        <v>615</v>
-      </c>
-      <c r="B101" s="178" t="s">
-        <v>616</v>
+        <v>620</v>
+      </c>
+      <c r="B101" s="174" t="s">
+        <v>484</v>
       </c>
       <c r="C101" s="178">
-        <v>8001119</v>
-      </c>
-      <c r="D101" s="194"/>
-      <c r="E101" s="176"/>
+        <v>8001130</v>
+      </c>
+      <c r="D101" s="174" t="s">
+        <v>622</v>
+      </c>
+      <c r="E101" s="182" t="s">
+        <v>623</v>
+      </c>
       <c r="F101" s="199" t="s">
+        <v>624</v>
+      </c>
+      <c r="G101" s="178" t="s">
+        <v>625</v>
+      </c>
+      <c r="H101" s="178" t="s">
         <v>619</v>
-      </c>
-      <c r="G101" s="178" t="s">
-        <v>620</v>
-      </c>
-      <c r="H101" s="178" t="s">
-        <v>621</v>
       </c>
       <c r="I101" s="179">
         <v>43196</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="82.8">
+    <row r="102" spans="1:10" ht="27.6">
       <c r="A102" s="173" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B102" s="174" t="s">
-        <v>484</v>
-      </c>
-      <c r="C102" s="178">
-        <v>8001130</v>
+        <v>627</v>
+      </c>
+      <c r="C102" s="174" t="s">
+        <v>628</v>
       </c>
       <c r="D102" s="174" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="E102" s="182" t="s">
-        <v>625</v>
-      </c>
-      <c r="F102" s="199" t="s">
-        <v>626</v>
+        <v>630</v>
+      </c>
+      <c r="F102" s="201" t="s">
+        <v>631</v>
       </c>
       <c r="G102" s="178" t="s">
-        <v>627</v>
-      </c>
-      <c r="H102" s="178" t="s">
-        <v>621</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="H102" s="178"/>
       <c r="I102" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="27.6">
+        <v>43266</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="41.4">
       <c r="A103" s="173" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="B103" s="174" t="s">
-        <v>629</v>
-      </c>
-      <c r="C103" s="174" t="s">
-        <v>630</v>
-      </c>
-      <c r="D103" s="174" t="s">
-        <v>631</v>
+        <v>635</v>
+      </c>
+      <c r="C103" s="178"/>
+      <c r="D103" s="175" t="s">
+        <v>636</v>
       </c>
       <c r="E103" s="182" t="s">
-        <v>632</v>
+        <v>102</v>
       </c>
       <c r="F103" s="201" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="G103" s="178" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="H103" s="178"/>
-      <c r="I103" s="179">
-        <v>43266</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="41.4">
+      <c r="I103" s="179"/>
+    </row>
+    <row r="104" spans="1:10" ht="69">
       <c r="A104" s="173" t="s">
-        <v>635</v>
-      </c>
-      <c r="B104" s="174" t="s">
-        <v>637</v>
-      </c>
-      <c r="C104" s="178"/>
-      <c r="D104" s="175" t="s">
-        <v>638</v>
-      </c>
-      <c r="E104" s="182" t="s">
-        <v>102</v>
-      </c>
-      <c r="F104" s="201" t="s">
-        <v>640</v>
+        <v>642</v>
+      </c>
+      <c r="B104" s="178" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" s="234" t="s">
+        <v>985</v>
+      </c>
+      <c r="E104" s="236" t="s">
+        <v>991</v>
+      </c>
+      <c r="F104" s="199" t="s">
+        <v>992</v>
       </c>
       <c r="G104" s="178" t="s">
-        <v>641</v>
+        <v>1001</v>
       </c>
       <c r="H104" s="178"/>
-      <c r="I104" s="179"/>
+      <c r="I104" s="179">
+        <v>43240</v>
+      </c>
     </row>
     <row r="105" spans="1:10" ht="69">
-      <c r="A105" s="173" t="s">
-        <v>644</v>
-      </c>
-      <c r="B105" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C105" s="178" t="s">
-        <v>22</v>
-      </c>
+      <c r="A105" s="196" t="s">
+        <v>642</v>
+      </c>
+      <c r="B105" s="178"/>
+      <c r="C105" s="178"/>
       <c r="D105" s="235" t="s">
-        <v>987</v>
-      </c>
-      <c r="E105" s="237" t="s">
+        <v>986</v>
+      </c>
+      <c r="E105" s="236" t="s">
+        <v>991</v>
+      </c>
+      <c r="F105" s="199" t="s">
         <v>993</v>
       </c>
-      <c r="F105" s="199" t="s">
-        <v>994</v>
-      </c>
       <c r="G105" s="178" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="H105" s="178"/>
       <c r="I105" s="179">
-        <v>43240</v>
+        <v>43298</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="69">
       <c r="A106" s="196" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B106" s="178"/>
       <c r="C106" s="178"/>
-      <c r="D106" s="236" t="s">
-        <v>988</v>
-      </c>
-      <c r="E106" s="237" t="s">
-        <v>993</v>
+      <c r="D106" s="235" t="s">
+        <v>987</v>
+      </c>
+      <c r="E106" s="236" t="s">
+        <v>994</v>
       </c>
       <c r="F106" s="199" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="G106" s="178" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="H106" s="178"/>
       <c r="I106" s="179">
         <v>43298</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="69">
+    <row r="107" spans="1:10" ht="55.2">
       <c r="A107" s="196" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B107" s="178"/>
       <c r="C107" s="178"/>
-      <c r="D107" s="236" t="s">
-        <v>989</v>
-      </c>
-      <c r="E107" s="237" t="s">
-        <v>996</v>
+      <c r="D107" s="235" t="s">
+        <v>988</v>
+      </c>
+      <c r="E107" s="236" t="s">
+        <v>994</v>
       </c>
       <c r="F107" s="199" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G107" s="178" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="H107" s="178"/>
       <c r="I107" s="179">
         <v>43298</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="55.2">
+    <row r="108" spans="1:10" ht="69">
       <c r="A108" s="196" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B108" s="178"/>
       <c r="C108" s="178"/>
-      <c r="D108" s="236" t="s">
-        <v>990</v>
-      </c>
-      <c r="E108" s="237" t="s">
-        <v>996</v>
+      <c r="D108" s="235" t="s">
+        <v>989</v>
+      </c>
+      <c r="E108" s="236" t="s">
+        <v>995</v>
       </c>
       <c r="F108" s="199" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="G108" s="178" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="H108" s="178"/>
       <c r="I108" s="179">
@@ -8702,147 +8710,147 @@
     </row>
     <row r="109" spans="1:10" ht="69">
       <c r="A109" s="196" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B109" s="178"/>
       <c r="C109" s="178"/>
-      <c r="D109" s="236" t="s">
-        <v>991</v>
-      </c>
-      <c r="E109" s="237" t="s">
-        <v>997</v>
+      <c r="D109" s="235" t="s">
+        <v>990</v>
+      </c>
+      <c r="E109" s="236" t="s">
+        <v>996</v>
       </c>
       <c r="F109" s="199" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="G109" s="178" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="H109" s="178"/>
       <c r="I109" s="179">
         <v>43298</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="69">
-      <c r="A110" s="196" t="s">
-        <v>644</v>
-      </c>
-      <c r="B110" s="178"/>
+    <row r="110" spans="1:10" ht="124.2">
+      <c r="A110" s="173" t="s">
+        <v>656</v>
+      </c>
+      <c r="B110" s="178" t="s">
+        <v>592</v>
+      </c>
       <c r="C110" s="178"/>
-      <c r="D110" s="236" t="s">
-        <v>992</v>
-      </c>
-      <c r="E110" s="237" t="s">
-        <v>998</v>
+      <c r="D110" s="174" t="s">
+        <v>657</v>
+      </c>
+      <c r="E110" s="182" t="s">
+        <v>658</v>
       </c>
       <c r="F110" s="199" t="s">
-        <v>995</v>
+        <v>659</v>
       </c>
       <c r="G110" s="178" t="s">
-        <v>1004</v>
+        <v>661</v>
       </c>
       <c r="H110" s="178"/>
-      <c r="I110" s="179">
-        <v>43298</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="124.2">
-      <c r="A111" s="173" t="s">
-        <v>658</v>
+      <c r="I110" s="179"/>
+    </row>
+    <row r="111" spans="1:10" ht="138">
+      <c r="A111" s="196" t="s">
+        <v>656</v>
       </c>
       <c r="B111" s="178" t="s">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="C111" s="178"/>
       <c r="D111" s="174" t="s">
+        <v>663</v>
+      </c>
+      <c r="E111" s="182" t="s">
+        <v>664</v>
+      </c>
+      <c r="F111" s="199" t="s">
         <v>659</v>
       </c>
-      <c r="E111" s="182" t="s">
-        <v>660</v>
-      </c>
-      <c r="F111" s="199" t="s">
-        <v>661</v>
-      </c>
       <c r="G111" s="178" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H111" s="178"/>
       <c r="I111" s="179"/>
     </row>
-    <row r="112" spans="1:10" ht="138">
+    <row r="112" spans="1:10" ht="124.2">
       <c r="A112" s="196" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B112" s="178" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C112" s="178"/>
       <c r="D112" s="174" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E112" s="182" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="F112" s="199" t="s">
-        <v>661</v>
-      </c>
-      <c r="G112" s="178" t="s">
-        <v>667</v>
+        <v>659</v>
+      </c>
+      <c r="G112" s="194" t="s">
+        <v>669</v>
       </c>
       <c r="H112" s="178"/>
       <c r="I112" s="179"/>
     </row>
-    <row r="113" spans="1:9" ht="124.2">
-      <c r="A113" s="196" t="s">
-        <v>658</v>
+    <row r="113" spans="1:9" ht="96.6">
+      <c r="A113" s="173" t="s">
+        <v>670</v>
       </c>
       <c r="B113" s="178" t="s">
-        <v>668</v>
-      </c>
-      <c r="C113" s="178"/>
+        <v>151</v>
+      </c>
+      <c r="C113" s="174" t="s">
+        <v>671</v>
+      </c>
       <c r="D113" s="174" t="s">
-        <v>669</v>
-      </c>
-      <c r="E113" s="182" t="s">
-        <v>670</v>
-      </c>
-      <c r="F113" s="199" t="s">
-        <v>661</v>
-      </c>
-      <c r="G113" s="194" t="s">
-        <v>671</v>
+        <v>673</v>
+      </c>
+      <c r="E113" s="176"/>
+      <c r="F113" s="204" t="s">
+        <v>675</v>
+      </c>
+      <c r="G113" s="178" t="s">
+        <v>684</v>
       </c>
       <c r="H113" s="178"/>
-      <c r="I113" s="179"/>
-    </row>
-    <row r="114" spans="1:9" ht="96.6">
+      <c r="I113" s="179">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="41.4">
       <c r="A114" s="173" t="s">
-        <v>672</v>
-      </c>
-      <c r="B114" s="178" t="s">
-        <v>151</v>
+        <v>685</v>
+      </c>
+      <c r="B114" s="174" t="s">
+        <v>77</v>
       </c>
       <c r="C114" s="174" t="s">
-        <v>673</v>
-      </c>
-      <c r="D114" s="174" t="s">
-        <v>675</v>
-      </c>
-      <c r="E114" s="176"/>
-      <c r="F114" s="204" t="s">
-        <v>677</v>
-      </c>
-      <c r="G114" s="178" t="s">
-        <v>686</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D114" s="175" t="s">
+        <v>687</v>
+      </c>
+      <c r="E114" s="182"/>
+      <c r="F114" s="211" t="s">
+        <v>967</v>
+      </c>
+      <c r="G114" s="178"/>
       <c r="H114" s="178"/>
       <c r="I114" s="179">
-        <v>43196</v>
+        <v>43276</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="41.4">
       <c r="A115" s="173" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B115" s="174" t="s">
         <v>77</v>
@@ -8851,11 +8859,11 @@
         <v>22</v>
       </c>
       <c r="D115" s="175" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="E115" s="182"/>
-      <c r="F115" s="211" t="s">
-        <v>969</v>
+      <c r="F115" s="193" t="s">
+        <v>968</v>
       </c>
       <c r="G115" s="178"/>
       <c r="H115" s="178"/>
@@ -8863,127 +8871,129 @@
         <v>43276</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="41.4">
+    <row r="116" spans="1:9" ht="55.2">
       <c r="A116" s="173" t="s">
-        <v>687</v>
+        <v>704</v>
       </c>
       <c r="B116" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="C116" s="174" t="s">
-        <v>22</v>
-      </c>
-      <c r="D116" s="175" t="s">
-        <v>699</v>
-      </c>
-      <c r="E116" s="182"/>
+      <c r="C116" s="174"/>
+      <c r="D116" s="174" t="s">
+        <v>705</v>
+      </c>
+      <c r="E116" s="176" t="s">
+        <v>706</v>
+      </c>
       <c r="F116" s="193" t="s">
-        <v>970</v>
-      </c>
-      <c r="G116" s="178"/>
+        <v>708</v>
+      </c>
+      <c r="G116" s="178" t="s">
+        <v>711</v>
+      </c>
       <c r="H116" s="178"/>
       <c r="I116" s="179">
-        <v>43276</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="55.2">
+        <v>43293</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="207">
       <c r="A117" s="173" t="s">
-        <v>706</v>
-      </c>
-      <c r="B117" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="C117" s="174"/>
-      <c r="D117" s="174" t="s">
-        <v>707</v>
-      </c>
-      <c r="E117" s="176" t="s">
-        <v>708</v>
-      </c>
-      <c r="F117" s="193" t="s">
-        <v>710</v>
+        <v>712</v>
+      </c>
+      <c r="B117" s="178" t="s">
+        <v>45</v>
+      </c>
+      <c r="C117" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D117" s="200" t="s">
+        <v>715</v>
+      </c>
+      <c r="E117" s="176"/>
+      <c r="F117" s="199" t="s">
+        <v>718</v>
       </c>
       <c r="G117" s="178" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="H117" s="178"/>
       <c r="I117" s="179">
-        <v>43293</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="207">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="69">
       <c r="A118" s="173" t="s">
-        <v>714</v>
-      </c>
-      <c r="B118" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C118" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D118" s="200" t="s">
-        <v>717</v>
-      </c>
-      <c r="E118" s="176"/>
-      <c r="F118" s="199" t="s">
         <v>720</v>
       </c>
-      <c r="G118" s="178" t="s">
-        <v>721</v>
-      </c>
-      <c r="H118" s="178"/>
+      <c r="B118" s="194" t="s">
+        <v>151</v>
+      </c>
+      <c r="C118" s="194">
+        <v>8000823</v>
+      </c>
+      <c r="D118" s="174" t="s">
+        <v>727</v>
+      </c>
+      <c r="E118" s="182" t="s">
+        <v>731</v>
+      </c>
+      <c r="F118" s="220" t="s">
+        <v>733</v>
+      </c>
+      <c r="G118" s="194" t="s">
+        <v>734</v>
+      </c>
+      <c r="H118" s="178" t="s">
+        <v>735</v>
+      </c>
       <c r="I118" s="179">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="69">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="82.8">
       <c r="A119" s="173" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B119" s="194" t="s">
         <v>151</v>
       </c>
-      <c r="C119" s="194">
-        <v>8000823</v>
-      </c>
+      <c r="C119" s="194"/>
       <c r="D119" s="174" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="E119" s="182" t="s">
-        <v>733</v>
-      </c>
-      <c r="F119" s="220" t="s">
-        <v>735</v>
-      </c>
-      <c r="G119" s="194" t="s">
-        <v>736</v>
-      </c>
-      <c r="H119" s="178" t="s">
         <v>737</v>
       </c>
+      <c r="F119" s="177" t="s">
+        <v>739</v>
+      </c>
+      <c r="G119" s="199" t="s">
+        <v>741</v>
+      </c>
+      <c r="H119" s="178"/>
       <c r="I119" s="179">
         <v>43196</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="82.8">
-      <c r="A120" s="173" t="s">
-        <v>722</v>
+    <row r="120" spans="1:9" ht="41.4">
+      <c r="A120" s="196" t="s">
+        <v>720</v>
       </c>
       <c r="B120" s="194" t="s">
         <v>151</v>
       </c>
       <c r="C120" s="194"/>
       <c r="D120" s="174" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="E120" s="182" t="s">
-        <v>739</v>
-      </c>
-      <c r="F120" s="177" t="s">
-        <v>741</v>
-      </c>
-      <c r="G120" s="199" t="s">
-        <v>743</v>
+        <v>744</v>
+      </c>
+      <c r="F120" s="178" t="s">
+        <v>745</v>
+      </c>
+      <c r="G120" s="177" t="s">
+        <v>746</v>
       </c>
       <c r="H120" s="178"/>
       <c r="I120" s="179">
@@ -8991,277 +9001,279 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="41.4">
-      <c r="A121" s="196" t="s">
-        <v>722</v>
-      </c>
-      <c r="B121" s="194" t="s">
-        <v>151</v>
-      </c>
-      <c r="C121" s="194"/>
-      <c r="D121" s="174" t="s">
-        <v>745</v>
-      </c>
-      <c r="E121" s="182" t="s">
-        <v>746</v>
-      </c>
-      <c r="F121" s="178" t="s">
+      <c r="A121" s="173" t="s">
         <v>747</v>
       </c>
-      <c r="G121" s="177" t="s">
+      <c r="B121" s="178" t="s">
+        <v>144</v>
+      </c>
+      <c r="C121" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D121" s="197" t="s">
         <v>748</v>
+      </c>
+      <c r="E121" s="221" t="s">
+        <v>760</v>
+      </c>
+      <c r="F121" s="201" t="s">
+        <v>770</v>
+      </c>
+      <c r="G121" s="178" t="s">
+        <v>771</v>
       </c>
       <c r="H121" s="178"/>
       <c r="I121" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="41.4">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="96.6">
       <c r="A122" s="173" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="B122" s="178" t="s">
-        <v>144</v>
+        <v>773</v>
       </c>
       <c r="C122" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D122" s="197" t="s">
-        <v>750</v>
-      </c>
-      <c r="E122" s="222" t="s">
-        <v>762</v>
-      </c>
-      <c r="F122" s="201" t="s">
-        <v>772</v>
+      <c r="D122" s="200" t="s">
+        <v>774</v>
+      </c>
+      <c r="E122" s="221" t="s">
+        <v>608</v>
+      </c>
+      <c r="F122" s="199" t="s">
+        <v>1007</v>
       </c>
       <c r="G122" s="178" t="s">
-        <v>773</v>
-      </c>
-      <c r="H122" s="178"/>
+        <v>1008</v>
+      </c>
+      <c r="H122" s="222"/>
       <c r="I122" s="179">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="96.6">
+        <v>43264</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="27.6">
       <c r="A123" s="173" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B123" s="178" t="s">
-        <v>775</v>
-      </c>
-      <c r="C123" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D123" s="200" t="s">
+        <v>777</v>
+      </c>
+      <c r="C123" s="178"/>
+      <c r="D123" s="191" t="s">
+        <v>778</v>
+      </c>
+      <c r="E123" s="192" t="s">
+        <v>782</v>
+      </c>
+      <c r="F123" s="201" t="s">
+        <v>783</v>
+      </c>
+      <c r="G123" s="178"/>
+      <c r="H123" s="223" t="s">
+        <v>974</v>
+      </c>
+      <c r="I123" s="179"/>
+    </row>
+    <row r="124" spans="1:9" ht="27.6">
+      <c r="A124" s="196" t="s">
         <v>776</v>
       </c>
-      <c r="E123" s="222" t="s">
-        <v>609</v>
-      </c>
-      <c r="F123" s="199" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G123" s="178" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H123" s="223"/>
-      <c r="I123" s="179">
-        <v>43264</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="27.6">
-      <c r="A124" s="173" t="s">
-        <v>778</v>
-      </c>
       <c r="B124" s="178" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C124" s="178"/>
       <c r="D124" s="191" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="E124" s="192" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F124" s="201" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G124" s="178"/>
-      <c r="H124" s="224" t="s">
-        <v>976</v>
+      <c r="H124" s="223" t="s">
+        <v>974</v>
       </c>
       <c r="I124" s="179"/>
     </row>
     <row r="125" spans="1:9" ht="27.6">
       <c r="A125" s="196" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B125" s="178" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C125" s="178"/>
       <c r="D125" s="191" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="E125" s="192" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F125" s="201" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G125" s="178"/>
-      <c r="H125" s="224" t="s">
-        <v>976</v>
+      <c r="H125" s="223" t="s">
+        <v>974</v>
       </c>
       <c r="I125" s="179"/>
     </row>
-    <row r="126" spans="1:9" ht="27.6">
+    <row r="126" spans="1:9" ht="41.4">
       <c r="A126" s="196" t="s">
-        <v>778</v>
+        <v>806</v>
       </c>
       <c r="B126" s="178" t="s">
-        <v>779</v>
-      </c>
-      <c r="C126" s="178"/>
-      <c r="D126" s="191" t="s">
-        <v>795</v>
-      </c>
-      <c r="E126" s="192" t="s">
-        <v>784</v>
-      </c>
-      <c r="F126" s="201" t="s">
-        <v>785</v>
-      </c>
-      <c r="G126" s="178"/>
-      <c r="H126" s="224" t="s">
-        <v>976</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="C126" s="174" t="s">
+        <v>808</v>
+      </c>
+      <c r="D126" s="174" t="s">
+        <v>810</v>
+      </c>
+      <c r="E126" s="182" t="s">
+        <v>815</v>
+      </c>
+      <c r="F126" s="199" t="s">
+        <v>816</v>
+      </c>
+      <c r="G126" s="178" t="s">
+        <v>817</v>
+      </c>
+      <c r="H126" s="222"/>
       <c r="I126" s="179"/>
     </row>
-    <row r="127" spans="1:9" ht="41.4">
-      <c r="A127" s="196" t="s">
-        <v>808</v>
+    <row r="127" spans="1:9" ht="14.1">
+      <c r="A127" s="173" t="s">
+        <v>818</v>
       </c>
       <c r="B127" s="178" t="s">
-        <v>809</v>
+        <v>45</v>
       </c>
       <c r="C127" s="174" t="s">
-        <v>810</v>
-      </c>
-      <c r="D127" s="174" t="s">
-        <v>812</v>
-      </c>
-      <c r="E127" s="182" t="s">
-        <v>817</v>
-      </c>
-      <c r="F127" s="199" t="s">
-        <v>818</v>
-      </c>
-      <c r="G127" s="178" t="s">
         <v>819</v>
       </c>
-      <c r="H127" s="223"/>
-      <c r="I127" s="179"/>
-    </row>
-    <row r="128" spans="1:9" ht="14.1">
+      <c r="D127" s="200" t="s">
+        <v>820</v>
+      </c>
+      <c r="E127" s="176" t="s">
+        <v>608</v>
+      </c>
+      <c r="F127" s="201" t="s">
+        <v>832</v>
+      </c>
+      <c r="G127" s="178"/>
+      <c r="H127" s="178"/>
+      <c r="I127" s="179">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="96.6">
       <c r="A128" s="173" t="s">
-        <v>820</v>
+        <v>838</v>
       </c>
       <c r="B128" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="C128" s="174" t="s">
-        <v>821</v>
-      </c>
-      <c r="D128" s="200" t="s">
-        <v>822</v>
+      <c r="C128" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" s="178" t="s">
+        <v>839</v>
       </c>
       <c r="E128" s="176" t="s">
-        <v>609</v>
+        <v>838</v>
       </c>
       <c r="F128" s="201" t="s">
-        <v>834</v>
-      </c>
-      <c r="G128" s="178"/>
+        <v>845</v>
+      </c>
+      <c r="G128" s="180" t="s">
+        <v>969</v>
+      </c>
       <c r="H128" s="178"/>
       <c r="I128" s="179">
         <v>43240</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="96.6">
+    <row r="129" spans="1:9" ht="41.4">
       <c r="A129" s="173" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="B129" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C129" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D129" s="178" t="s">
-        <v>841</v>
-      </c>
-      <c r="E129" s="176" t="s">
-        <v>840</v>
-      </c>
-      <c r="F129" s="201" t="s">
         <v>847</v>
       </c>
-      <c r="G129" s="180" t="s">
-        <v>971</v>
-      </c>
+      <c r="C129" s="178"/>
+      <c r="D129" s="178"/>
+      <c r="E129" s="176"/>
+      <c r="F129" s="199" t="s">
+        <v>852</v>
+      </c>
+      <c r="G129" s="178"/>
       <c r="H129" s="178"/>
       <c r="I129" s="179">
-        <v>43240</v>
+        <v>43196</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="41.4">
       <c r="A130" s="173" t="s">
-        <v>848</v>
-      </c>
-      <c r="B130" s="178" t="s">
-        <v>849</v>
-      </c>
-      <c r="C130" s="178"/>
-      <c r="D130" s="178"/>
-      <c r="E130" s="176"/>
-      <c r="F130" s="199" t="s">
-        <v>854</v>
-      </c>
-      <c r="G130" s="178"/>
+        <v>853</v>
+      </c>
+      <c r="B130" s="174" t="s">
+        <v>295</v>
+      </c>
+      <c r="C130" s="174"/>
+      <c r="D130" s="209" t="s">
+        <v>855</v>
+      </c>
+      <c r="E130" s="182" t="s">
+        <v>856</v>
+      </c>
+      <c r="F130" s="177" t="s">
+        <v>857</v>
+      </c>
+      <c r="G130" s="178" t="s">
+        <v>865</v>
+      </c>
       <c r="H130" s="178"/>
       <c r="I130" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="41.4">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="138">
       <c r="A131" s="173" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="B131" s="174" t="s">
-        <v>295</v>
-      </c>
-      <c r="C131" s="174"/>
-      <c r="D131" s="209" t="s">
-        <v>857</v>
-      </c>
-      <c r="E131" s="182" t="s">
-        <v>858</v>
-      </c>
-      <c r="F131" s="177" t="s">
-        <v>859</v>
+        <v>77</v>
+      </c>
+      <c r="C131" s="174" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131" s="175" t="s">
+        <v>868</v>
+      </c>
+      <c r="E131" s="182"/>
+      <c r="F131" s="193" t="s">
+        <v>869</v>
       </c>
       <c r="G131" s="178" t="s">
+        <v>870</v>
+      </c>
+      <c r="H131" s="223" t="s">
+        <v>974</v>
+      </c>
+      <c r="I131" s="179">
+        <v>43270</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="41.4">
+      <c r="A132" s="173" t="s">
         <v>867</v>
-      </c>
-      <c r="H131" s="178"/>
-      <c r="I131" s="179">
-        <v>43288</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="138">
-      <c r="A132" s="173" t="s">
-        <v>869</v>
       </c>
       <c r="B132" s="174" t="s">
         <v>77</v>
@@ -9270,17 +9282,17 @@
         <v>22</v>
       </c>
       <c r="D132" s="175" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E132" s="182"/>
       <c r="F132" s="193" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="G132" s="178" t="s">
-        <v>872</v>
-      </c>
-      <c r="H132" s="224" t="s">
-        <v>976</v>
+        <v>873</v>
+      </c>
+      <c r="H132" s="195" t="s">
+        <v>975</v>
       </c>
       <c r="I132" s="179">
         <v>43270</v>
@@ -9288,7 +9300,7 @@
     </row>
     <row r="133" spans="1:9" ht="41.4">
       <c r="A133" s="173" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B133" s="174" t="s">
         <v>77</v>
@@ -9297,25 +9309,25 @@
         <v>22</v>
       </c>
       <c r="D133" s="175" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E133" s="182"/>
       <c r="F133" s="193" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G133" s="178" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H133" s="195" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="I133" s="179">
         <v>43270</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="41.4">
+    <row r="134" spans="1:9" ht="55.2">
       <c r="A134" s="173" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B134" s="174" t="s">
         <v>77</v>
@@ -9327,98 +9339,82 @@
         <v>876</v>
       </c>
       <c r="E134" s="182"/>
-      <c r="F134" s="193" t="s">
+      <c r="F134" s="211" t="s">
         <v>877</v>
       </c>
-      <c r="G134" s="178" t="s">
-        <v>875</v>
-      </c>
-      <c r="H134" s="195" t="s">
-        <v>977</v>
+      <c r="G134" s="178"/>
+      <c r="H134" s="223" t="s">
+        <v>974</v>
       </c>
       <c r="I134" s="179">
         <v>43270</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="55.2">
+    <row r="135" spans="1:9" ht="41.4">
       <c r="A135" s="173" t="s">
-        <v>869</v>
-      </c>
-      <c r="B135" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="C135" s="174" t="s">
+        <v>878</v>
+      </c>
+      <c r="B135" s="178" t="s">
+        <v>144</v>
+      </c>
+      <c r="C135" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D135" s="175" t="s">
-        <v>878</v>
-      </c>
-      <c r="E135" s="182"/>
-      <c r="F135" s="211" t="s">
+      <c r="D135" s="197" t="s">
         <v>879</v>
       </c>
-      <c r="G135" s="178"/>
-      <c r="H135" s="224" t="s">
+      <c r="E135" s="224" t="s">
+        <v>880</v>
+      </c>
+      <c r="F135" s="201" t="s">
+        <v>770</v>
+      </c>
+      <c r="G135" s="178" t="s">
+        <v>887</v>
+      </c>
+      <c r="H135" s="223" t="s">
         <v>976</v>
       </c>
       <c r="I135" s="179">
-        <v>43270</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="41.4">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="27.6">
       <c r="A136" s="173" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="B136" s="178" t="s">
-        <v>144</v>
+        <v>773</v>
       </c>
       <c r="C136" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D136" s="197" t="s">
-        <v>881</v>
-      </c>
-      <c r="E136" s="225" t="s">
-        <v>882</v>
+      <c r="D136" s="200" t="s">
+        <v>894</v>
       </c>
       <c r="F136" s="201" t="s">
-        <v>772</v>
-      </c>
-      <c r="G136" s="178" t="s">
-        <v>889</v>
-      </c>
-      <c r="H136" s="224" t="s">
-        <v>978</v>
-      </c>
-      <c r="I136" s="179">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="27.6">
-      <c r="A137" s="173" t="s">
-        <v>890</v>
-      </c>
-      <c r="B137" s="178" t="s">
-        <v>775</v>
-      </c>
-      <c r="C137" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D137" s="200" t="s">
-        <v>896</v>
-      </c>
-      <c r="F137" s="201" t="s">
-        <v>907</v>
-      </c>
-      <c r="H137" s="224" t="s">
-        <v>976</v>
-      </c>
-      <c r="I137" s="226">
+        <v>905</v>
+      </c>
+      <c r="H136" s="223" t="s">
+        <v>974</v>
+      </c>
+      <c r="I136" s="225">
         <v>43288</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
-      <c r="D138" s="178"/>
+    <row r="137" spans="1:9">
+      <c r="D137" s="178"/>
+    </row>
+    <row r="138" spans="1:9" ht="14.1">
+      <c r="A138" s="173"/>
+      <c r="B138" s="174"/>
+      <c r="C138" s="174"/>
+      <c r="D138" s="174"/>
+      <c r="E138" s="182"/>
+      <c r="F138" s="213"/>
+      <c r="G138" s="178"/>
+      <c r="H138" s="178"/>
+      <c r="I138" s="179"/>
     </row>
     <row r="139" spans="1:9" ht="14.1">
       <c r="A139" s="173"/>
@@ -9497,20 +9493,9 @@
       <c r="H145" s="178"/>
       <c r="I145" s="179"/>
     </row>
-    <row r="146" spans="1:9" ht="14.1">
-      <c r="A146" s="173"/>
-      <c r="B146" s="174"/>
-      <c r="C146" s="174"/>
-      <c r="D146" s="174"/>
-      <c r="E146" s="182"/>
-      <c r="F146" s="213"/>
-      <c r="G146" s="178"/>
-      <c r="H146" s="178"/>
-      <c r="I146" s="179"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F114" r:id="rId1" location="gid=314589613&amp;range=309:309" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F113" r:id="rId1" location="gid=314589613&amp;range=309:309" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -9560,10 +9545,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="239" t="s">
+      <c r="I1" s="238" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="240"/>
+      <c r="J1" s="239"/>
     </row>
     <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="1"/>
@@ -10050,10 +10035,10 @@
       <c r="C19" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="227" t="s">
+      <c r="D19" s="226" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="228" t="s">
+      <c r="E19" s="227" t="s">
         <v>108</v>
       </c>
       <c r="F19" s="40" t="s">
@@ -10066,64 +10051,64 @@
       <c r="I19" s="12"/>
       <c r="J19" s="36"/>
     </row>
-    <row r="20" spans="1:10" s="234" customFormat="1" ht="61.5">
-      <c r="A20" s="229" t="s">
-        <v>644</v>
-      </c>
-      <c r="B20" s="229" t="s">
+    <row r="20" spans="1:10" s="233" customFormat="1" ht="61.5">
+      <c r="A20" s="228" t="s">
+        <v>642</v>
+      </c>
+      <c r="B20" s="228" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="229" t="s">
+      <c r="C20" s="228" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="230" t="s">
-        <v>986</v>
-      </c>
-      <c r="E20" s="231"/>
-      <c r="F20" s="232" t="s">
-        <v>985</v>
-      </c>
-      <c r="G20" s="229" t="s">
+      <c r="D20" s="229" t="s">
         <v>984</v>
       </c>
-      <c r="H20" s="229"/>
-      <c r="I20" s="233">
+      <c r="E20" s="230"/>
+      <c r="F20" s="231" t="s">
+        <v>983</v>
+      </c>
+      <c r="G20" s="228" t="s">
+        <v>982</v>
+      </c>
+      <c r="H20" s="228"/>
+      <c r="I20" s="232">
         <v>43240</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="61.8" thickBot="1">
       <c r="A21" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>827</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="D21" s="115" t="s">
         <v>828</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>829</v>
       </c>
-      <c r="D21" s="115" t="s">
+      <c r="F21" s="32" t="s">
         <v>830</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="G21" s="8" t="s">
         <v>831</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>832</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>833</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="12">
         <v>43240</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="86.4" thickBot="1">
       <c r="A22" s="52" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B22" s="57" t="s">
         <v>144</v>
@@ -10132,19 +10117,19 @@
         <v>22</v>
       </c>
       <c r="D22" s="159" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E22" s="13" t="s">
+        <v>889</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>890</v>
+      </c>
+      <c r="G22" s="57" t="s">
         <v>891</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="H22" s="8" t="s">
         <v>892</v>
-      </c>
-      <c r="G22" s="57" t="s">
-        <v>893</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>894</v>
       </c>
       <c r="I22" s="12">
         <v>43250</v>
@@ -10212,10 +10197,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="239" t="s">
+      <c r="I1" s="238" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="240"/>
+      <c r="J1" s="239"/>
     </row>
     <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="1"/>
@@ -10286,13 +10271,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="86.4">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="241" t="s">
+      <c r="B5" s="240" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="241" t="s">
+      <c r="C5" s="240" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -10314,9 +10299,9 @@
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="86.4">
-      <c r="A6" s="240"/>
-      <c r="B6" s="240"/>
-      <c r="C6" s="240"/>
+      <c r="A6" s="239"/>
+      <c r="B6" s="239"/>
+      <c r="C6" s="239"/>
       <c r="D6" s="13" t="s">
         <v>68</v>
       </c>
@@ -10334,7 +10319,7 @@
       <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:10" ht="36.9">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="243" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -10364,7 +10349,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="36.9">
-      <c r="A8" s="240"/>
+      <c r="A8" s="239"/>
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
@@ -10391,7 +10376,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="36.9">
-      <c r="A9" s="243"/>
+      <c r="A9" s="242"/>
       <c r="B9" s="47" t="s">
         <v>21</v>
       </c>
@@ -10443,7 +10428,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="36.9">
-      <c r="A11" s="245" t="s">
+      <c r="A11" s="244" t="s">
         <v>119</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -10472,7 +10457,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="36.9">
-      <c r="A12" s="240"/>
+      <c r="A12" s="239"/>
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
@@ -10499,7 +10484,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.6">
-      <c r="A13" s="240"/>
+      <c r="A13" s="239"/>
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -10526,7 +10511,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="36.9">
-      <c r="A14" s="240"/>
+      <c r="A14" s="239"/>
       <c r="B14" s="47" t="s">
         <v>21</v>
       </c>
@@ -10920,7 +10905,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="36.9">
-      <c r="A36" s="242" t="s">
+      <c r="A36" s="241" t="s">
         <v>376</v>
       </c>
       <c r="B36" s="90" t="s">
@@ -10950,7 +10935,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="36.9">
-      <c r="A37" s="240"/>
+      <c r="A37" s="239"/>
       <c r="B37" s="8" t="s">
         <v>21</v>
       </c>
@@ -10978,7 +10963,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="61.5">
-      <c r="A38" s="240"/>
+      <c r="A38" s="239"/>
       <c r="B38" s="8" t="s">
         <v>21</v>
       </c>
@@ -11006,7 +10991,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="36.9">
-      <c r="A39" s="240"/>
+      <c r="A39" s="239"/>
       <c r="B39" s="8" t="s">
         <v>21</v>
       </c>
@@ -11034,7 +11019,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="36.9">
-      <c r="A40" s="240"/>
+      <c r="A40" s="239"/>
       <c r="B40" s="8" t="s">
         <v>21</v>
       </c>
@@ -11062,7 +11047,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="36.9">
-      <c r="A41" s="240"/>
+      <c r="A41" s="239"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
       </c>
@@ -11090,7 +11075,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="36.9">
-      <c r="A42" s="240"/>
+      <c r="A42" s="239"/>
       <c r="B42" s="8" t="s">
         <v>21</v>
       </c>
@@ -11118,7 +11103,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="36.9">
-      <c r="A43" s="240"/>
+      <c r="A43" s="239"/>
       <c r="B43" s="8" t="s">
         <v>21</v>
       </c>
@@ -11146,7 +11131,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="36.9">
-      <c r="A44" s="240"/>
+      <c r="A44" s="239"/>
       <c r="B44" s="8" t="s">
         <v>21</v>
       </c>
@@ -11174,7 +11159,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="36.9">
-      <c r="A45" s="243"/>
+      <c r="A45" s="242"/>
       <c r="B45" s="47" t="s">
         <v>21</v>
       </c>
@@ -11262,7 +11247,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="61.5">
-      <c r="A48" s="242" t="s">
+      <c r="A48" s="241" t="s">
         <v>496</v>
       </c>
       <c r="B48" s="90" t="s">
@@ -11292,7 +11277,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="36.9">
-      <c r="A49" s="243"/>
+      <c r="A49" s="242"/>
       <c r="B49" s="47" t="s">
         <v>21</v>
       </c>
@@ -11703,13 +11688,13 @@
         <v>605</v>
       </c>
       <c r="E62" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="F62" s="63" t="s">
+        <v>610</v>
+      </c>
+      <c r="G62" s="63" t="s">
         <v>611</v>
-      </c>
-      <c r="F62" s="63" t="s">
-        <v>612</v>
-      </c>
-      <c r="G62" s="63" t="s">
-        <v>613</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="12">
@@ -11721,7 +11706,7 @@
     </row>
     <row r="63" spans="1:10" ht="24.6">
       <c r="A63" s="132" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B63" s="133" t="s">
         <v>45</v>
@@ -11730,17 +11715,17 @@
         <v>22</v>
       </c>
       <c r="D63" s="135" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E63" s="136" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F63" s="137" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G63" s="137"/>
       <c r="H63" s="133" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I63" s="12">
         <v>43240</v>
@@ -11751,23 +11736,23 @@
     </row>
     <row r="64" spans="1:10" ht="49.2">
       <c r="A64" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E64" s="40"/>
       <c r="F64" s="40" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>312</v>
@@ -11781,28 +11766,28 @@
     </row>
     <row r="65" spans="1:10" ht="57.6">
       <c r="A65" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B65" s="27" t="s">
         <v>484</v>
       </c>
       <c r="C65" s="35" t="s">
+        <v>646</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="E65" s="84" t="s">
         <v>648</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="F65" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="E65" s="84" t="s">
+      <c r="G65" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="H65" s="8" t="s">
         <v>651</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>653</v>
       </c>
       <c r="I65" s="12">
         <v>43210</v>
@@ -11813,20 +11798,20 @@
     </row>
     <row r="66" spans="1:10" ht="49.2">
       <c r="A66" s="125" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B66" s="122" t="s">
         <v>547</v>
       </c>
       <c r="C66" s="123"/>
       <c r="D66" s="89" t="s">
+        <v>653</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>654</v>
+      </c>
+      <c r="F66" s="126" t="s">
         <v>655</v>
-      </c>
-      <c r="E66" s="35" t="s">
-        <v>656</v>
-      </c>
-      <c r="F66" s="126" t="s">
-        <v>657</v>
       </c>
       <c r="G66" s="124" t="s">
         <v>583</v>
@@ -11840,20 +11825,20 @@
     </row>
     <row r="67" spans="1:10" ht="61.5">
       <c r="A67" s="123" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B67" s="122" t="s">
         <v>547</v>
       </c>
       <c r="C67" s="123"/>
       <c r="D67" s="139" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E67" s="35" t="s">
+        <v>672</v>
+      </c>
+      <c r="F67" s="126" t="s">
         <v>674</v>
-      </c>
-      <c r="F67" s="126" t="s">
-        <v>676</v>
       </c>
       <c r="G67" s="124" t="s">
         <v>583</v>
@@ -11867,20 +11852,20 @@
     </row>
     <row r="68" spans="1:10" ht="43.2">
       <c r="A68" s="123" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B68" s="122" t="s">
         <v>547</v>
       </c>
       <c r="C68" s="123"/>
       <c r="D68" s="89" t="s">
+        <v>676</v>
+      </c>
+      <c r="E68" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="F68" s="126" t="s">
         <v>678</v>
-      </c>
-      <c r="E68" s="35" t="s">
-        <v>679</v>
-      </c>
-      <c r="F68" s="126" t="s">
-        <v>680</v>
       </c>
       <c r="G68" s="124" t="s">
         <v>583</v>
@@ -11894,20 +11879,20 @@
     </row>
     <row r="69" spans="1:10" ht="43.2">
       <c r="A69" s="123" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B69" s="122" t="s">
         <v>547</v>
       </c>
       <c r="C69" s="123"/>
       <c r="D69" s="89" t="s">
+        <v>679</v>
+      </c>
+      <c r="E69" s="35" t="s">
+        <v>680</v>
+      </c>
+      <c r="F69" s="126" t="s">
         <v>681</v>
-      </c>
-      <c r="E69" s="35" t="s">
-        <v>682</v>
-      </c>
-      <c r="F69" s="126" t="s">
-        <v>683</v>
       </c>
       <c r="G69" s="124" t="s">
         <v>583</v>
@@ -11921,20 +11906,20 @@
     </row>
     <row r="70" spans="1:10" ht="43.2">
       <c r="A70" s="123" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B70" s="122" t="s">
         <v>547</v>
       </c>
       <c r="C70" s="123"/>
       <c r="D70" s="89" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E70" s="35" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F70" s="126" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G70" s="124" t="s">
         <v>583</v>
@@ -11948,20 +11933,20 @@
     </row>
     <row r="71" spans="1:10" ht="43.2">
       <c r="A71" s="123" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B71" s="122" t="s">
         <v>547</v>
       </c>
       <c r="C71" s="123"/>
       <c r="D71" s="89" t="s">
+        <v>686</v>
+      </c>
+      <c r="E71" s="35" t="s">
+        <v>680</v>
+      </c>
+      <c r="F71" s="126" t="s">
         <v>688</v>
-      </c>
-      <c r="E71" s="35" t="s">
-        <v>682</v>
-      </c>
-      <c r="F71" s="126" t="s">
-        <v>690</v>
       </c>
       <c r="G71" s="124" t="s">
         <v>583</v>
@@ -11975,20 +11960,20 @@
     </row>
     <row r="72" spans="1:10" ht="43.2">
       <c r="A72" s="123" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B72" s="122" t="s">
         <v>547</v>
       </c>
       <c r="C72" s="123"/>
       <c r="D72" s="89" t="s">
+        <v>689</v>
+      </c>
+      <c r="E72" s="35" t="s">
+        <v>690</v>
+      </c>
+      <c r="F72" s="126" t="s">
         <v>691</v>
-      </c>
-      <c r="E72" s="35" t="s">
-        <v>692</v>
-      </c>
-      <c r="F72" s="126" t="s">
-        <v>693</v>
       </c>
       <c r="G72" s="124" t="s">
         <v>583</v>
@@ -12002,20 +11987,20 @@
     </row>
     <row r="73" spans="1:10" ht="57.6">
       <c r="A73" s="125" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B73" s="122" t="s">
         <v>547</v>
       </c>
       <c r="C73" s="123"/>
       <c r="D73" s="89" t="s">
+        <v>693</v>
+      </c>
+      <c r="E73" s="35" t="s">
+        <v>694</v>
+      </c>
+      <c r="F73" s="126" t="s">
         <v>695</v>
-      </c>
-      <c r="E73" s="35" t="s">
-        <v>696</v>
-      </c>
-      <c r="F73" s="126" t="s">
-        <v>697</v>
       </c>
       <c r="G73" s="124" t="s">
         <v>583</v>
@@ -12029,20 +12014,20 @@
     </row>
     <row r="74" spans="1:10" ht="57.6">
       <c r="A74" s="123" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B74" s="122" t="s">
         <v>547</v>
       </c>
       <c r="C74" s="123"/>
       <c r="D74" s="89" t="s">
+        <v>696</v>
+      </c>
+      <c r="E74" s="35" t="s">
+        <v>694</v>
+      </c>
+      <c r="F74" s="126" t="s">
         <v>698</v>
-      </c>
-      <c r="E74" s="35" t="s">
-        <v>696</v>
-      </c>
-      <c r="F74" s="126" t="s">
-        <v>700</v>
       </c>
       <c r="G74" s="124" t="s">
         <v>583</v>
@@ -12057,20 +12042,20 @@
     </row>
     <row r="75" spans="1:10" ht="57.6">
       <c r="A75" s="123" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B75" s="122" t="s">
         <v>547</v>
       </c>
       <c r="C75" s="123"/>
       <c r="D75" s="89" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E75" s="35" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F75" s="126" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G75" s="124" t="s">
         <v>583</v>
@@ -12085,20 +12070,20 @@
     </row>
     <row r="76" spans="1:10" ht="57.6">
       <c r="A76" s="123" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B76" s="122" t="s">
         <v>547</v>
       </c>
       <c r="C76" s="123"/>
       <c r="D76" s="89" t="s">
+        <v>701</v>
+      </c>
+      <c r="E76" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="F76" s="126" t="s">
         <v>703</v>
-      </c>
-      <c r="E76" s="35" t="s">
-        <v>704</v>
-      </c>
-      <c r="F76" s="126" t="s">
-        <v>705</v>
       </c>
       <c r="G76" s="124" t="s">
         <v>583</v>
@@ -12113,20 +12098,20 @@
     </row>
     <row r="77" spans="1:10" ht="57.6">
       <c r="A77" s="123" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B77" s="122" t="s">
         <v>547</v>
       </c>
       <c r="C77" s="123"/>
       <c r="D77" s="89" t="s">
+        <v>707</v>
+      </c>
+      <c r="E77" s="35" t="s">
         <v>709</v>
       </c>
-      <c r="E77" s="35" t="s">
-        <v>711</v>
-      </c>
       <c r="F77" s="126" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G77" s="124" t="s">
         <v>583</v>
@@ -12141,20 +12126,20 @@
     </row>
     <row r="78" spans="1:10" ht="43.2">
       <c r="A78" s="125" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B78" s="122" t="s">
         <v>547</v>
       </c>
       <c r="C78" s="123"/>
       <c r="D78" s="89" t="s">
+        <v>714</v>
+      </c>
+      <c r="E78" s="35" t="s">
         <v>716</v>
       </c>
-      <c r="E78" s="35" t="s">
-        <v>718</v>
-      </c>
       <c r="F78" s="126" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="G78" s="124" t="s">
         <v>583</v>
@@ -12169,20 +12154,20 @@
     </row>
     <row r="79" spans="1:10" ht="43.2">
       <c r="A79" s="125" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B79" s="122" t="s">
         <v>547</v>
       </c>
       <c r="C79" s="123"/>
       <c r="D79" s="89" t="s">
+        <v>722</v>
+      </c>
+      <c r="E79" s="35" t="s">
+        <v>723</v>
+      </c>
+      <c r="F79" s="126" t="s">
         <v>724</v>
-      </c>
-      <c r="E79" s="35" t="s">
-        <v>725</v>
-      </c>
-      <c r="F79" s="126" t="s">
-        <v>726</v>
       </c>
       <c r="G79" s="124" t="s">
         <v>583</v>
@@ -12204,13 +12189,13 @@
       </c>
       <c r="C80" s="123"/>
       <c r="D80" s="89" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E80" s="143" t="s">
+        <v>726</v>
+      </c>
+      <c r="F80" s="126" t="s">
         <v>728</v>
-      </c>
-      <c r="F80" s="126" t="s">
-        <v>730</v>
       </c>
       <c r="G80" s="124" t="s">
         <v>583</v>
@@ -12232,13 +12217,13 @@
       </c>
       <c r="C81" s="123"/>
       <c r="D81" s="89" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E81" s="35" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F81" s="126" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G81" s="124" t="s">
         <v>583</v>
@@ -12260,13 +12245,13 @@
       </c>
       <c r="C82" s="123"/>
       <c r="D82" s="89" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E82" s="35" t="s">
+        <v>738</v>
+      </c>
+      <c r="F82" s="126" t="s">
         <v>740</v>
-      </c>
-      <c r="F82" s="126" t="s">
-        <v>742</v>
       </c>
       <c r="G82" s="124" t="s">
         <v>583</v>
@@ -12287,13 +12272,13 @@
       </c>
       <c r="C83" s="123"/>
       <c r="D83" s="144" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F83" s="126" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G83" s="124" t="s">
         <v>583</v>
@@ -12307,20 +12292,20 @@
     </row>
     <row r="84" spans="1:10" ht="28.8">
       <c r="A84" s="125" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B84" s="122" t="s">
         <v>547</v>
       </c>
       <c r="C84" s="123"/>
       <c r="D84" s="89" t="s">
+        <v>751</v>
+      </c>
+      <c r="E84" s="35" t="s">
+        <v>752</v>
+      </c>
+      <c r="F84" s="126" t="s">
         <v>753</v>
-      </c>
-      <c r="E84" s="35" t="s">
-        <v>754</v>
-      </c>
-      <c r="F84" s="126" t="s">
-        <v>755</v>
       </c>
       <c r="G84" s="124" t="s">
         <v>583</v>
@@ -12335,37 +12320,37 @@
     </row>
     <row r="85" spans="1:10" ht="49.2">
       <c r="A85" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>755</v>
+      </c>
+      <c r="C85" s="37" t="s">
         <v>756</v>
       </c>
-      <c r="B85" s="27" t="s">
+      <c r="D85" s="72" t="s">
         <v>757</v>
       </c>
-      <c r="C85" s="37" t="s">
+      <c r="E85" s="30" t="s">
         <v>758</v>
       </c>
-      <c r="D85" s="72" t="s">
+      <c r="F85" s="20" t="s">
         <v>759</v>
       </c>
-      <c r="E85" s="30" t="s">
-        <v>760</v>
-      </c>
-      <c r="F85" s="20" t="s">
+      <c r="G85" s="8" t="s">
         <v>761</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>763</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="12">
         <v>43264</v>
       </c>
       <c r="J85" s="32" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="49.2">
       <c r="A86" s="6" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>151</v>
@@ -12374,17 +12359,17 @@
         <v>8001143</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="H86" s="11" t="s">
         <v>767</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>768</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>769</v>
       </c>
       <c r="I86" s="12">
         <v>43196</v>
@@ -12395,10 +12380,10 @@
     </row>
     <row r="87" spans="1:10" ht="110.7">
       <c r="A87" s="6" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C87" s="13">
         <v>8001107</v>
@@ -12408,10 +12393,10 @@
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="12">
@@ -12422,8 +12407,8 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="36.9">
-      <c r="A88" s="244" t="s">
-        <v>782</v>
+      <c r="A88" s="243" t="s">
+        <v>780</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>45</v>
@@ -12432,13 +12417,13 @@
         <v>22</v>
       </c>
       <c r="D88" s="146" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E88" s="100" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="8" t="s">
@@ -12452,7 +12437,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="36.9">
-      <c r="A89" s="240"/>
+      <c r="A89" s="239"/>
       <c r="B89" s="8" t="s">
         <v>45</v>
       </c>
@@ -12460,13 +12445,13 @@
         <v>22</v>
       </c>
       <c r="D89" s="146" t="s">
+        <v>787</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="F89" s="20" t="s">
         <v>789</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>790</v>
-      </c>
-      <c r="F89" s="20" t="s">
-        <v>791</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="8" t="s">
@@ -12480,7 +12465,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="36.9">
-      <c r="A90" s="240"/>
+      <c r="A90" s="239"/>
       <c r="B90" s="8" t="s">
         <v>45</v>
       </c>
@@ -12488,13 +12473,13 @@
         <v>22</v>
       </c>
       <c r="D90" s="146" t="s">
+        <v>790</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="F90" s="20" t="s">
         <v>792</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="F90" s="20" t="s">
-        <v>794</v>
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="8" t="s">
@@ -12508,7 +12493,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="36.9">
-      <c r="A91" s="240"/>
+      <c r="A91" s="239"/>
       <c r="B91" s="8" t="s">
         <v>45</v>
       </c>
@@ -12516,13 +12501,13 @@
         <v>22</v>
       </c>
       <c r="D91" s="146" t="s">
+        <v>794</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="F91" s="20" t="s">
         <v>796</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>797</v>
-      </c>
-      <c r="F91" s="20" t="s">
-        <v>798</v>
       </c>
       <c r="G91" s="8"/>
       <c r="H91" s="8" t="s">
@@ -12536,7 +12521,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="24.6">
-      <c r="A92" s="240"/>
+      <c r="A92" s="239"/>
       <c r="B92" s="8" t="s">
         <v>45</v>
       </c>
@@ -12544,13 +12529,13 @@
         <v>22</v>
       </c>
       <c r="D92" s="146" t="s">
+        <v>797</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="F92" s="20" t="s">
         <v>799</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="F92" s="20" t="s">
-        <v>801</v>
       </c>
       <c r="G92" s="8"/>
       <c r="H92" s="8" t="s">
@@ -12564,7 +12549,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="24.6">
-      <c r="A93" s="240"/>
+      <c r="A93" s="239"/>
       <c r="B93" s="8" t="s">
         <v>45</v>
       </c>
@@ -12572,13 +12557,13 @@
         <v>22</v>
       </c>
       <c r="D93" s="146" t="s">
+        <v>800</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="F93" s="20" t="s">
         <v>802</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>803</v>
-      </c>
-      <c r="F93" s="20" t="s">
-        <v>804</v>
       </c>
       <c r="G93" s="8"/>
       <c r="H93" s="8" t="s">
@@ -12592,7 +12577,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="36.9">
-      <c r="A94" s="240"/>
+      <c r="A94" s="239"/>
       <c r="B94" s="8" t="s">
         <v>45</v>
       </c>
@@ -12600,13 +12585,13 @@
         <v>22</v>
       </c>
       <c r="D94" s="146" t="s">
+        <v>803</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="F94" s="20" t="s">
         <v>805</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>806</v>
-      </c>
-      <c r="F94" s="20" t="s">
-        <v>807</v>
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="8" t="s">
@@ -12620,7 +12605,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="36.9">
-      <c r="A95" s="240"/>
+      <c r="A95" s="239"/>
       <c r="B95" s="8" t="s">
         <v>45</v>
       </c>
@@ -12628,13 +12613,13 @@
         <v>22</v>
       </c>
       <c r="D95" s="147" t="s">
+        <v>809</v>
+      </c>
+      <c r="E95" s="8" t="s">
         <v>811</v>
       </c>
-      <c r="E95" s="8" t="s">
-        <v>813</v>
-      </c>
       <c r="F95" s="20" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G95" s="8"/>
       <c r="H95" s="8" t="s">
@@ -12649,7 +12634,7 @@
     </row>
     <row r="96" spans="1:10" ht="24.6">
       <c r="A96" s="6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>45</v>
@@ -12658,19 +12643,19 @@
         <v>22</v>
       </c>
       <c r="D96" s="148" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E96" s="22" t="s">
+        <v>821</v>
+      </c>
+      <c r="F96" s="20" t="s">
+        <v>822</v>
+      </c>
+      <c r="G96" s="32" t="s">
         <v>823</v>
       </c>
-      <c r="F96" s="20" t="s">
+      <c r="H96" s="8" t="s">
         <v>824</v>
-      </c>
-      <c r="G96" s="32" t="s">
-        <v>825</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>826</v>
       </c>
       <c r="I96" s="12">
         <v>43240</v>
@@ -12681,26 +12666,26 @@
     </row>
     <row r="97" spans="1:10" ht="49.2">
       <c r="A97" s="6" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C97" s="13" t="s">
+        <v>835</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>836</v>
+      </c>
+      <c r="E97" s="13" t="s">
         <v>837</v>
       </c>
-      <c r="D97" s="13" t="s">
-        <v>838</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>839</v>
-      </c>
       <c r="F97" s="8" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G97" s="8"/>
       <c r="H97" s="8" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="I97" s="12">
         <v>43210</v>
@@ -12711,18 +12696,18 @@
     </row>
     <row r="98" spans="1:10" ht="36.9">
       <c r="A98" s="6" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="149" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="8" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G98" s="8"/>
       <c r="H98" s="8" t="s">
@@ -12737,7 +12722,7 @@
     </row>
     <row r="99" spans="1:10" ht="100.8">
       <c r="A99" s="6" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>151</v>
@@ -12746,17 +12731,17 @@
         <v>8001106</v>
       </c>
       <c r="D99" s="142" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F99" s="30" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="8" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I99" s="12">
         <v>43210</v>
@@ -12767,23 +12752,23 @@
     </row>
     <row r="100" spans="1:10" ht="43.2">
       <c r="A100" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="D100" s="13" t="s">
         <v>861</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="E100" s="109" t="s">
         <v>862</v>
       </c>
-      <c r="D100" s="13" t="s">
+      <c r="F100" s="8" t="s">
         <v>863</v>
-      </c>
-      <c r="E100" s="109" t="s">
-        <v>864</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>865</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="8" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="I100" s="12">
         <v>43210</v>
@@ -12794,7 +12779,7 @@
     </row>
     <row r="101" spans="1:10" ht="72">
       <c r="A101" s="17" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B101" s="150" t="s">
         <v>151</v>
@@ -12803,19 +12788,19 @@
         <v>8000823</v>
       </c>
       <c r="D101" s="152" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E101" s="153" t="s">
+        <v>731</v>
+      </c>
+      <c r="F101" s="154" t="s">
         <v>733</v>
       </c>
-      <c r="F101" s="154" t="s">
+      <c r="G101" s="155" t="s">
+        <v>866</v>
+      </c>
+      <c r="H101" s="19" t="s">
         <v>735</v>
-      </c>
-      <c r="G101" s="155" t="s">
-        <v>868</v>
-      </c>
-      <c r="H101" s="19" t="s">
-        <v>737</v>
       </c>
       <c r="I101" s="156">
         <v>43196</v>
@@ -12824,23 +12809,23 @@
     </row>
     <row r="102" spans="1:10" ht="72">
       <c r="A102" s="19" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B102" s="150" t="s">
         <v>151</v>
       </c>
       <c r="C102" s="151"/>
       <c r="D102" s="158" t="s">
+        <v>743</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="F102" s="19" t="s">
         <v>745</v>
       </c>
-      <c r="E102" s="13" t="s">
-        <v>746</v>
-      </c>
-      <c r="F102" s="19" t="s">
-        <v>747</v>
-      </c>
       <c r="G102" s="28" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="156">
@@ -12850,10 +12835,10 @@
     </row>
     <row r="103" spans="1:10" ht="72">
       <c r="A103" s="6" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B103" s="77" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C103" s="142"/>
       <c r="D103" s="115"/>
@@ -12861,10 +12846,10 @@
         <v>477</v>
       </c>
       <c r="F103" s="81" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G103" s="28" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="12"/>
@@ -12874,7 +12859,7 @@
     </row>
     <row r="104" spans="1:10" ht="61.5">
       <c r="A104" s="6" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>45</v>
@@ -12886,13 +12871,13 @@
         <v>2296810</v>
       </c>
       <c r="E104" s="13" t="s">
+        <v>895</v>
+      </c>
+      <c r="F104" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="G104" s="8" t="s">
         <v>897</v>
-      </c>
-      <c r="F104" s="20" t="s">
-        <v>898</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>899</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="12">
@@ -12904,7 +12889,7 @@
     </row>
     <row r="105" spans="1:10" ht="61.5">
       <c r="A105" s="6" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>45</v>
@@ -12916,13 +12901,13 @@
         <v>2425629</v>
       </c>
       <c r="E105" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="F105" s="20" t="s">
+        <v>899</v>
+      </c>
+      <c r="G105" s="8" t="s">
         <v>900</v>
-      </c>
-      <c r="F105" s="20" t="s">
-        <v>901</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>902</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="12">
@@ -12934,7 +12919,7 @@
     </row>
     <row r="106" spans="1:10" ht="28.8">
       <c r="A106" s="6" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B106" s="27" t="s">
         <v>77</v>
@@ -12943,14 +12928,14 @@
         <v>22</v>
       </c>
       <c r="D106" s="95" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E106" s="13"/>
       <c r="F106" s="40" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I106" s="12">
         <v>43270</v>
@@ -12961,7 +12946,7 @@
     </row>
     <row r="107" spans="1:10" ht="28.8">
       <c r="A107" s="6" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B107" s="27" t="s">
         <v>77</v>
@@ -12970,14 +12955,14 @@
         <v>22</v>
       </c>
       <c r="D107" s="95" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E107" s="13"/>
       <c r="F107" s="40" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H107" s="9"/>
       <c r="I107" s="12">
@@ -12989,7 +12974,7 @@
     </row>
     <row r="108" spans="1:10" ht="28.8">
       <c r="A108" s="6" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B108" s="27" t="s">
         <v>77</v>
@@ -12998,14 +12983,14 @@
         <v>22</v>
       </c>
       <c r="D108" s="95" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E108" s="13"/>
       <c r="F108" s="40" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H108" s="9"/>
       <c r="I108" s="12">
@@ -13017,7 +13002,7 @@
     </row>
     <row r="109" spans="1:10" ht="28.8">
       <c r="A109" s="6" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B109" s="27" t="s">
         <v>77</v>
@@ -13026,14 +13011,14 @@
         <v>22</v>
       </c>
       <c r="D109" s="95" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E109" s="13"/>
       <c r="F109" s="40" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H109" s="9"/>
       <c r="I109" s="12">
@@ -13045,7 +13030,7 @@
     </row>
     <row r="110" spans="1:10" ht="28.8">
       <c r="A110" s="6" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B110" s="27" t="s">
         <v>77</v>
@@ -13054,14 +13039,14 @@
         <v>22</v>
       </c>
       <c r="D110" s="95" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E110" s="13"/>
       <c r="F110" s="40" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H110" s="9"/>
       <c r="I110" s="12">
@@ -13073,7 +13058,7 @@
     </row>
     <row r="111" spans="1:10" ht="28.8">
       <c r="A111" s="6" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B111" s="27" t="s">
         <v>77</v>
@@ -13082,14 +13067,14 @@
         <v>22</v>
       </c>
       <c r="D111" s="161" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="40" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H111" s="9"/>
       <c r="I111" s="12">
@@ -13101,7 +13086,7 @@
     </row>
     <row r="112" spans="1:10" ht="28.8">
       <c r="A112" s="6" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B112" s="27" t="s">
         <v>77</v>
@@ -13110,14 +13095,14 @@
         <v>22</v>
       </c>
       <c r="D112" s="162" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E112" s="13"/>
       <c r="F112" s="40" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H112" s="9"/>
       <c r="I112" s="12">
@@ -13129,7 +13114,7 @@
     </row>
     <row r="113" spans="1:10" ht="28.8">
       <c r="A113" s="6" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B113" s="27" t="s">
         <v>77</v>
@@ -13138,14 +13123,14 @@
         <v>22</v>
       </c>
       <c r="D113" s="163" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E113" s="13"/>
       <c r="F113" s="164" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H113" s="9"/>
       <c r="I113" s="12">
@@ -13157,7 +13142,7 @@
     </row>
     <row r="114" spans="1:10" ht="28.8">
       <c r="A114" s="6" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B114" s="27" t="s">
         <v>77</v>
@@ -13166,14 +13151,14 @@
         <v>22</v>
       </c>
       <c r="D114" s="165" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="166" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H114" s="9"/>
       <c r="I114" s="12">
@@ -13185,7 +13170,7 @@
     </row>
     <row r="115" spans="1:10" ht="28.8">
       <c r="A115" s="6" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B115" s="27" t="s">
         <v>77</v>
@@ -13194,14 +13179,14 @@
         <v>22</v>
       </c>
       <c r="D115" s="95" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="166" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="12">
@@ -13213,7 +13198,7 @@
     </row>
     <row r="116" spans="1:10" ht="28.8">
       <c r="A116" s="6" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B116" s="27" t="s">
         <v>77</v>
@@ -13222,14 +13207,14 @@
         <v>22</v>
       </c>
       <c r="D116" s="163" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="40" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H116" s="9"/>
       <c r="I116" s="12">
@@ -13241,7 +13226,7 @@
     </row>
     <row r="117" spans="1:10" ht="98.4">
       <c r="A117" s="6" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>45</v>
@@ -13250,19 +13235,19 @@
         <v>22</v>
       </c>
       <c r="D117" s="148" t="s">
+        <v>928</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="F117" s="20" t="s">
         <v>930</v>
       </c>
-      <c r="E117" s="22" t="s">
+      <c r="G117" s="130" t="s">
         <v>931</v>
       </c>
-      <c r="F117" s="20" t="s">
+      <c r="H117" s="8" t="s">
         <v>932</v>
-      </c>
-      <c r="G117" s="130" t="s">
-        <v>933</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>934</v>
       </c>
       <c r="I117" s="12">
         <v>43240</v>
@@ -13273,7 +13258,7 @@
     </row>
     <row r="118" spans="1:10" ht="24.6">
       <c r="A118" s="6" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>45</v>
@@ -13282,14 +13267,14 @@
         <v>22</v>
       </c>
       <c r="D118" s="148" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F118" s="20"/>
       <c r="G118" s="8" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H118" s="9"/>
       <c r="I118" s="12">
@@ -13301,7 +13286,7 @@
     </row>
     <row r="119" spans="1:10" ht="28.8">
       <c r="A119" s="6" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B119" s="27" t="s">
         <v>77</v>
@@ -13312,7 +13297,7 @@
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
       <c r="F119" s="40" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G119" s="124" t="s">
         <v>166</v>
@@ -13327,7 +13312,7 @@
     </row>
     <row r="120" spans="1:10" ht="28.8">
       <c r="A120" s="6" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B120" s="27" t="s">
         <v>77</v>
@@ -13340,10 +13325,10 @@
       </c>
       <c r="E120" s="13"/>
       <c r="F120" s="40" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H120" s="9"/>
       <c r="I120" s="12">
@@ -13509,10 +13494,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="246" t="s">
+      <c r="I1" s="245" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="240"/>
+      <c r="J1" s="239"/>
     </row>
     <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="3"/>

--- a/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
+++ b/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barbj\Documents\Infoway-Health Canada CCDD\formulary\Working QA Team Folders\Pre- Release QA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EE499A84-EFF7-4DF6-8EBE-848D55E38C43}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="17268" windowHeight="5316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="17268" windowHeight="5256"/>
   </bookViews>
   <sheets>
     <sheet name="Action Items, Open" sheetId="1" r:id="rId1"/>
@@ -18,17 +12,17 @@
     <sheet name="Completed AIs Released" sheetId="3" r:id="rId3"/>
     <sheet name="AIs no longer relevant" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="F121" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F121" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +34,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F135" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F135" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,12 +51,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="G21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="F22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,12 +88,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="E88" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="G96" authorId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H117" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="H117" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="1012">
   <si>
     <t>TM</t>
   </si>
@@ -4362,11 +4356,14 @@
   <si>
     <t>linezolid 3 g per bottle oral suspension</t>
   </si>
+  <si>
+    <t>Underway with DPD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
@@ -4982,7 +4979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5683,6 +5680,9 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5703,8 +5703,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6019,22 +6019,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H132" sqref="H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
@@ -6052,7 +6052,7 @@
     <col min="11" max="16384" width="14.44140625" style="180"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="172" customFormat="1" ht="28.2">
+    <row r="1" spans="1:10" s="172" customFormat="1" ht="27.6">
       <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="345">
+    <row r="7" spans="1:10" ht="317.39999999999998">
       <c r="A7" s="184" t="s">
         <v>443</v>
       </c>
@@ -6228,7 +6228,7 @@
       <c r="H7" s="178"/>
       <c r="I7" s="179"/>
     </row>
-    <row r="8" spans="1:10" ht="358.8">
+    <row r="8" spans="1:10" ht="331.2">
       <c r="A8" s="187" t="s">
         <v>945</v>
       </c>
@@ -6249,7 +6249,7 @@
       <c r="H8" s="178"/>
       <c r="I8" s="179"/>
     </row>
-    <row r="9" spans="1:10" ht="409.5">
+    <row r="9" spans="1:10" ht="409.6">
       <c r="A9" s="184" t="s">
         <v>970</v>
       </c>
@@ -6279,7 +6279,7 @@
       <c r="H10" s="178"/>
       <c r="I10" s="179"/>
     </row>
-    <row r="11" spans="1:10" ht="42.3">
+    <row r="11" spans="1:10" ht="41.4">
       <c r="A11" s="181" t="s">
         <v>60</v>
       </c>
@@ -6398,7 +6398,7 @@
       <c r="H15" s="178"/>
       <c r="I15" s="179"/>
     </row>
-    <row r="16" spans="1:10" ht="14.1">
+    <row r="16" spans="1:10">
       <c r="A16" s="173" t="s">
         <v>123</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="42.3">
+    <row r="18" spans="1:9" ht="41.4">
       <c r="A18" s="173" t="s">
         <v>137</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="28.2">
+    <row r="26" spans="1:9" ht="27.6">
       <c r="A26" s="173" t="s">
         <v>215</v>
       </c>
@@ -6686,7 +6686,7 @@
       <c r="H27" s="195"/>
       <c r="I27" s="179"/>
     </row>
-    <row r="28" spans="1:9" ht="55.2">
+    <row r="28" spans="1:9" ht="41.4">
       <c r="A28" s="173" t="s">
         <v>227</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="55.2">
+    <row r="29" spans="1:9" ht="41.4">
       <c r="A29" s="196" t="s">
         <v>227</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="55.2">
+    <row r="30" spans="1:9" ht="41.4">
       <c r="A30" s="196" t="s">
         <v>227</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="55.2">
+    <row r="31" spans="1:9" ht="41.4">
       <c r="A31" s="196" t="s">
         <v>227</v>
       </c>
@@ -6955,7 +6955,7 @@
       <c r="I39" s="205"/>
       <c r="J39" s="206"/>
     </row>
-    <row r="40" spans="1:10" ht="151.80000000000001">
+    <row r="40" spans="1:10" ht="124.2">
       <c r="A40" s="173" t="s">
         <v>272</v>
       </c>
@@ -7080,13 +7080,15 @@
       <c r="E44" s="182" t="s">
         <v>300</v>
       </c>
-      <c r="F44" s="199" t="s">
+      <c r="F44" s="247" t="s">
         <v>304</v>
       </c>
       <c r="G44" s="174" t="s">
         <v>981</v>
       </c>
-      <c r="H44" s="178"/>
+      <c r="H44" s="195" t="s">
+        <v>1011</v>
+      </c>
       <c r="I44" s="179">
         <v>43292</v>
       </c>
@@ -7107,13 +7109,15 @@
       <c r="E45" s="182" t="s">
         <v>315</v>
       </c>
-      <c r="F45" s="199" t="s">
+      <c r="F45" s="247" t="s">
         <v>304</v>
       </c>
       <c r="G45" s="174" t="s">
         <v>305</v>
       </c>
-      <c r="H45" s="178"/>
+      <c r="H45" s="195" t="s">
+        <v>1011</v>
+      </c>
       <c r="I45" s="179">
         <v>43292</v>
       </c>
@@ -7140,7 +7144,9 @@
       <c r="G46" s="174" t="s">
         <v>318</v>
       </c>
-      <c r="H46" s="178"/>
+      <c r="H46" s="195" t="s">
+        <v>338</v>
+      </c>
       <c r="I46" s="179">
         <v>43292</v>
       </c>
@@ -7258,7 +7264,7 @@
         <v>43278</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="69.3">
+    <row r="51" spans="1:10" ht="69.599999999999994">
       <c r="A51" s="173" t="s">
         <v>344</v>
       </c>
@@ -7593,7 +7599,7 @@
         <v>43283</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="55.2">
+    <row r="65" spans="1:9" ht="41.4">
       <c r="A65" s="196" t="s">
         <v>76</v>
       </c>
@@ -7620,7 +7626,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="55.2">
+    <row r="66" spans="1:9" ht="41.4">
       <c r="A66" s="196" t="s">
         <v>76</v>
       </c>
@@ -7647,7 +7653,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="55.2">
+    <row r="67" spans="1:9" ht="41.4">
       <c r="A67" s="196" t="s">
         <v>76</v>
       </c>
@@ -7674,7 +7680,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="55.2">
+    <row r="68" spans="1:9" ht="41.4">
       <c r="A68" s="196" t="s">
         <v>76</v>
       </c>
@@ -7751,7 +7757,7 @@
       <c r="H70" s="178"/>
       <c r="I70" s="179"/>
     </row>
-    <row r="71" spans="1:9" ht="55.2">
+    <row r="71" spans="1:9" ht="41.4">
       <c r="A71" s="196" t="s">
         <v>76</v>
       </c>
@@ -7801,7 +7807,7 @@
       <c r="H72" s="178"/>
       <c r="I72" s="179"/>
     </row>
-    <row r="73" spans="1:9" ht="55.2">
+    <row r="73" spans="1:9" ht="41.4">
       <c r="A73" s="196" t="s">
         <v>76</v>
       </c>
@@ -7851,7 +7857,7 @@
       <c r="H74" s="178"/>
       <c r="I74" s="179"/>
     </row>
-    <row r="75" spans="1:9" ht="55.2">
+    <row r="75" spans="1:9" ht="41.4">
       <c r="A75" s="196" t="s">
         <v>448</v>
       </c>
@@ -7878,7 +7884,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="56.4">
+    <row r="76" spans="1:9" ht="55.2">
       <c r="A76" s="173" t="s">
         <v>451</v>
       </c>
@@ -7905,7 +7911,7 @@
         <v>43290</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="56.4">
+    <row r="77" spans="1:9" ht="55.2">
       <c r="A77" s="217" t="s">
         <v>453</v>
       </c>
@@ -8030,7 +8036,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="138">
+    <row r="82" spans="1:10" ht="124.2">
       <c r="A82" s="173" t="s">
         <v>474</v>
       </c>
@@ -8055,7 +8061,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="409.5">
+    <row r="83" spans="1:10" ht="409.6">
       <c r="A83" s="173" t="s">
         <v>481</v>
       </c>
@@ -8472,7 +8478,7 @@
         <v>222</v>
       </c>
       <c r="C99" s="178"/>
-      <c r="D99" s="246">
+      <c r="D99" s="238">
         <v>2243686</v>
       </c>
       <c r="E99" s="176" t="s">
@@ -8485,7 +8491,7 @@
       <c r="H99" s="178"/>
       <c r="I99" s="179"/>
     </row>
-    <row r="100" spans="1:10" ht="14.1">
+    <row r="100" spans="1:10">
       <c r="A100" s="173" t="s">
         <v>613</v>
       </c>
@@ -8800,7 +8806,7 @@
       <c r="H112" s="178"/>
       <c r="I112" s="179"/>
     </row>
-    <row r="113" spans="1:9" ht="96.6">
+    <row r="113" spans="1:9" ht="82.8">
       <c r="A113" s="173" t="s">
         <v>670</v>
       </c>
@@ -9000,7 +9006,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="41.4">
+    <row r="121" spans="1:9" ht="27.6">
       <c r="A121" s="173" t="s">
         <v>747</v>
       </c>
@@ -9123,7 +9129,7 @@
       </c>
       <c r="I125" s="179"/>
     </row>
-    <row r="126" spans="1:9" ht="41.4">
+    <row r="126" spans="1:9" ht="27.6">
       <c r="A126" s="196" t="s">
         <v>806</v>
       </c>
@@ -9148,7 +9154,7 @@
       <c r="H126" s="222"/>
       <c r="I126" s="179"/>
     </row>
-    <row r="127" spans="1:9" ht="14.1">
+    <row r="127" spans="1:9">
       <c r="A127" s="173" t="s">
         <v>818</v>
       </c>
@@ -9325,7 +9331,7 @@
         <v>43270</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="55.2">
+    <row r="134" spans="1:9" ht="41.4">
       <c r="A134" s="173" t="s">
         <v>867</v>
       </c>
@@ -9405,7 +9411,7 @@
     <row r="137" spans="1:9">
       <c r="D137" s="178"/>
     </row>
-    <row r="138" spans="1:9" ht="14.1">
+    <row r="138" spans="1:9">
       <c r="A138" s="173"/>
       <c r="B138" s="174"/>
       <c r="C138" s="174"/>
@@ -9416,7 +9422,7 @@
       <c r="H138" s="178"/>
       <c r="I138" s="179"/>
     </row>
-    <row r="139" spans="1:9" ht="14.1">
+    <row r="139" spans="1:9">
       <c r="A139" s="173"/>
       <c r="B139" s="174"/>
       <c r="C139" s="174"/>
@@ -9427,7 +9433,7 @@
       <c r="H139" s="178"/>
       <c r="I139" s="179"/>
     </row>
-    <row r="140" spans="1:9" ht="14.1">
+    <row r="140" spans="1:9">
       <c r="A140" s="173"/>
       <c r="B140" s="174"/>
       <c r="C140" s="174"/>
@@ -9438,7 +9444,7 @@
       <c r="H140" s="178"/>
       <c r="I140" s="179"/>
     </row>
-    <row r="141" spans="1:9" ht="14.1">
+    <row r="141" spans="1:9">
       <c r="A141" s="173"/>
       <c r="B141" s="174"/>
       <c r="C141" s="174"/>
@@ -9449,7 +9455,7 @@
       <c r="H141" s="178"/>
       <c r="I141" s="179"/>
     </row>
-    <row r="142" spans="1:9" ht="14.1">
+    <row r="142" spans="1:9">
       <c r="A142" s="173"/>
       <c r="B142" s="174"/>
       <c r="C142" s="174"/>
@@ -9460,7 +9466,7 @@
       <c r="H142" s="178"/>
       <c r="I142" s="179"/>
     </row>
-    <row r="143" spans="1:9" ht="14.1">
+    <row r="143" spans="1:9">
       <c r="A143" s="173"/>
       <c r="B143" s="174"/>
       <c r="C143" s="174"/>
@@ -9471,7 +9477,7 @@
       <c r="H143" s="178"/>
       <c r="I143" s="179"/>
     </row>
-    <row r="144" spans="1:9" ht="14.1">
+    <row r="144" spans="1:9">
       <c r="A144" s="173"/>
       <c r="B144" s="174"/>
       <c r="C144" s="174"/>
@@ -9482,7 +9488,7 @@
       <c r="H144" s="178"/>
       <c r="I144" s="179"/>
     </row>
-    <row r="145" spans="1:9" ht="14.1">
+    <row r="145" spans="1:9">
       <c r="A145" s="173"/>
       <c r="B145" s="174"/>
       <c r="C145" s="174"/>
@@ -9495,7 +9501,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F113" r:id="rId1" location="gid=314589613&amp;range=309:309" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F113" r:id="rId1" location="gid=314589613&amp;range=309:309"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -9504,23 +9510,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.6">
+    <row r="1" spans="1:10" ht="26.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9545,12 +9551,12 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="238" t="s">
+      <c r="I1" s="239" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="239"/>
-    </row>
-    <row r="2" spans="1:10" ht="24.6">
+      <c r="J1" s="240"/>
+    </row>
+    <row r="2" spans="1:10" ht="26.4">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -9566,7 +9572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="282.89999999999998">
+    <row r="3" spans="1:10" ht="330">
       <c r="A3" s="6" t="s">
         <v>150</v>
       </c>
@@ -9598,7 +9604,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="135.30000000000001">
+    <row r="4" spans="1:10" ht="158.4">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
@@ -9628,7 +9634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="184.5">
+    <row r="5" spans="1:10" ht="211.2">
       <c r="A5" s="14" t="s">
         <v>19</v>
       </c>
@@ -9658,7 +9664,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="184.5">
+    <row r="6" spans="1:10" ht="211.2">
       <c r="A6" s="14" t="s">
         <v>19</v>
       </c>
@@ -9688,7 +9694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="184.5">
+    <row r="7" spans="1:10" ht="211.2">
       <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
@@ -9718,7 +9724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="184.5">
+    <row r="8" spans="1:10" ht="211.2">
       <c r="A8" s="14" t="s">
         <v>19</v>
       </c>
@@ -9748,7 +9754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="86.1">
+    <row r="9" spans="1:10" ht="92.4">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -9776,7 +9782,7 @@
       </c>
       <c r="J9" s="36"/>
     </row>
-    <row r="10" spans="1:10" ht="86.1">
+    <row r="10" spans="1:10" ht="92.4">
       <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
@@ -9804,7 +9810,7 @@
       </c>
       <c r="J10" s="36"/>
     </row>
-    <row r="11" spans="1:10" ht="86.1">
+    <row r="11" spans="1:10" ht="92.4">
       <c r="A11" s="8" t="s">
         <v>44</v>
       </c>
@@ -9832,7 +9838,7 @@
       </c>
       <c r="J11" s="36"/>
     </row>
-    <row r="12" spans="1:10" ht="172.2">
+    <row r="12" spans="1:10" ht="184.8">
       <c r="A12" s="8" t="s">
         <v>199</v>
       </c>
@@ -9858,7 +9864,7 @@
       </c>
       <c r="J12" s="36"/>
     </row>
-    <row r="13" spans="1:10" ht="393.6">
+    <row r="13" spans="1:10" ht="409.6">
       <c r="A13" s="6" t="s">
         <v>223</v>
       </c>
@@ -9889,7 +9895,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="196.8">
+    <row r="14" spans="1:10" ht="211.2">
       <c r="A14" s="6" t="s">
         <v>288</v>
       </c>
@@ -9919,7 +9925,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="264.89999999999998">
+    <row r="15" spans="1:10" ht="274.8">
       <c r="A15" s="8" t="s">
         <v>288</v>
       </c>
@@ -9947,7 +9953,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="98.4">
+    <row r="16" spans="1:10" ht="105.6">
       <c r="A16" s="8" t="s">
         <v>76</v>
       </c>
@@ -9999,7 +10005,7 @@
       </c>
       <c r="J17" s="36"/>
     </row>
-    <row r="18" spans="1:10" ht="57.9" thickBot="1">
+    <row r="18" spans="1:10" ht="58.2" thickBot="1">
       <c r="A18" s="8" t="s">
         <v>76</v>
       </c>
@@ -10051,7 +10057,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="36"/>
     </row>
-    <row r="20" spans="1:10" s="233" customFormat="1" ht="61.5">
+    <row r="20" spans="1:10" s="233" customFormat="1" ht="66">
       <c r="A20" s="228" t="s">
         <v>642</v>
       </c>
@@ -10076,7 +10082,7 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="61.8" thickBot="1">
+    <row r="21" spans="1:10" ht="66.599999999999994" thickBot="1">
       <c r="A21" s="6" t="s">
         <v>825</v>
       </c>
@@ -10106,7 +10112,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="86.4" thickBot="1">
+    <row r="22" spans="1:10" ht="106.2" thickBot="1">
       <c r="A22" s="52" t="s">
         <v>747</v>
       </c>
@@ -10146,20 +10152,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J128"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -10172,7 +10178,7 @@
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.6">
+    <row r="1" spans="1:10" ht="26.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10197,12 +10203,12 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="238" t="s">
+      <c r="I1" s="239" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="239"/>
-    </row>
-    <row r="2" spans="1:10" ht="24.6">
+      <c r="J1" s="240"/>
+    </row>
+    <row r="2" spans="1:10" ht="26.4">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -10218,7 +10224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="49.2">
+    <row r="3" spans="1:10" ht="52.8">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -10244,7 +10250,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="24.6">
+    <row r="4" spans="1:10" ht="26.4">
       <c r="A4" s="17" t="s">
         <v>24</v>
       </c>
@@ -10271,13 +10277,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="86.4">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="240" t="s">
+      <c r="B5" s="241" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="240" t="s">
+      <c r="C5" s="241" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -10299,9 +10305,9 @@
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="86.4">
-      <c r="A6" s="239"/>
-      <c r="B6" s="239"/>
-      <c r="C6" s="239"/>
+      <c r="A6" s="240"/>
+      <c r="B6" s="240"/>
+      <c r="C6" s="240"/>
       <c r="D6" s="13" t="s">
         <v>68</v>
       </c>
@@ -10318,8 +10324,8 @@
       </c>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="1:10" ht="36.9">
-      <c r="A7" s="243" t="s">
+    <row r="7" spans="1:10" ht="39.6">
+      <c r="A7" s="244" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -10348,8 +10354,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="36.9">
-      <c r="A8" s="239"/>
+    <row r="8" spans="1:10" ht="39.6">
+      <c r="A8" s="240"/>
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
@@ -10375,8 +10381,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="36.9">
-      <c r="A9" s="242"/>
+    <row r="9" spans="1:10" ht="39.6">
+      <c r="A9" s="243"/>
       <c r="B9" s="47" t="s">
         <v>21</v>
       </c>
@@ -10427,8 +10433,8 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="36.9">
-      <c r="A11" s="244" t="s">
+    <row r="11" spans="1:10" ht="39.6">
+      <c r="A11" s="245" t="s">
         <v>119</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -10456,8 +10462,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="36.9">
-      <c r="A12" s="239"/>
+    <row r="12" spans="1:10" ht="39.6">
+      <c r="A12" s="240"/>
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
@@ -10483,8 +10489,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="24.6">
-      <c r="A13" s="239"/>
+    <row r="13" spans="1:10" ht="39.6">
+      <c r="A13" s="240"/>
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -10510,8 +10516,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="36.9">
-      <c r="A14" s="239"/>
+    <row r="14" spans="1:10" ht="39.6">
+      <c r="A14" s="240"/>
       <c r="B14" s="47" t="s">
         <v>21</v>
       </c>
@@ -10538,7 +10544,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="24.6">
+    <row r="15" spans="1:10" ht="26.4">
       <c r="A15" s="6" t="s">
         <v>159</v>
       </c>
@@ -10564,7 +10570,7 @@
       </c>
       <c r="J15" s="36"/>
     </row>
-    <row r="16" spans="1:10" ht="24.6">
+    <row r="16" spans="1:10" ht="26.4">
       <c r="A16" s="6" t="s">
         <v>167</v>
       </c>
@@ -10590,7 +10596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="98.4">
+    <row r="22" spans="1:10" ht="105.6">
       <c r="A22" s="14" t="s">
         <v>19</v>
       </c>
@@ -10620,7 +10626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="73.8">
+    <row r="26" spans="1:10" ht="79.2">
       <c r="A26" s="6" t="s">
         <v>179</v>
       </c>
@@ -10650,7 +10656,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="36.9">
+    <row r="27" spans="1:10" ht="52.8">
       <c r="A27" s="65" t="s">
         <v>190</v>
       </c>
@@ -10682,7 +10688,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="86.1">
+    <row r="28" spans="1:10" ht="92.4">
       <c r="A28" s="6" t="s">
         <v>259</v>
       </c>
@@ -10712,7 +10718,7 @@
         <v>76138</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="61.5">
+    <row r="29" spans="1:10" ht="66">
       <c r="A29" s="6" t="s">
         <v>269</v>
       </c>
@@ -10784,7 +10790,7 @@
       <c r="I31" s="12"/>
       <c r="J31" s="36"/>
     </row>
-    <row r="32" spans="1:10" ht="73.8">
+    <row r="32" spans="1:10" ht="79.2">
       <c r="A32" s="6" t="s">
         <v>320</v>
       </c>
@@ -10814,7 +10820,7 @@
       </c>
       <c r="J32" s="36"/>
     </row>
-    <row r="33" spans="1:10" ht="86.1">
+    <row r="33" spans="1:10" ht="92.4">
       <c r="A33" s="87" t="s">
         <v>347</v>
       </c>
@@ -10844,7 +10850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="36.9">
+    <row r="34" spans="1:10" ht="39.6">
       <c r="A34" s="6" t="s">
         <v>356</v>
       </c>
@@ -10872,7 +10878,7 @@
       </c>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" ht="61.5">
+    <row r="35" spans="1:10" ht="66">
       <c r="A35" s="6" t="s">
         <v>363</v>
       </c>
@@ -10904,8 +10910,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="36.9">
-      <c r="A36" s="241" t="s">
+    <row r="36" spans="1:10" ht="39.6">
+      <c r="A36" s="242" t="s">
         <v>376</v>
       </c>
       <c r="B36" s="90" t="s">
@@ -10934,8 +10940,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="36.9">
-      <c r="A37" s="239"/>
+    <row r="37" spans="1:10" ht="39.6">
+      <c r="A37" s="240"/>
       <c r="B37" s="8" t="s">
         <v>21</v>
       </c>
@@ -10962,8 +10968,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="61.5">
-      <c r="A38" s="239"/>
+    <row r="38" spans="1:10" ht="66">
+      <c r="A38" s="240"/>
       <c r="B38" s="8" t="s">
         <v>21</v>
       </c>
@@ -10990,8 +10996,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="36.9">
-      <c r="A39" s="239"/>
+    <row r="39" spans="1:10" ht="39.6">
+      <c r="A39" s="240"/>
       <c r="B39" s="8" t="s">
         <v>21</v>
       </c>
@@ -11018,8 +11024,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="36.9">
-      <c r="A40" s="239"/>
+    <row r="40" spans="1:10" ht="39.6">
+      <c r="A40" s="240"/>
       <c r="B40" s="8" t="s">
         <v>21</v>
       </c>
@@ -11046,8 +11052,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="36.9">
-      <c r="A41" s="239"/>
+    <row r="41" spans="1:10" ht="39.6">
+      <c r="A41" s="240"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
       </c>
@@ -11074,8 +11080,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="36.9">
-      <c r="A42" s="239"/>
+    <row r="42" spans="1:10" ht="39.6">
+      <c r="A42" s="240"/>
       <c r="B42" s="8" t="s">
         <v>21</v>
       </c>
@@ -11102,8 +11108,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="36.9">
-      <c r="A43" s="239"/>
+    <row r="43" spans="1:10" ht="39.6">
+      <c r="A43" s="240"/>
       <c r="B43" s="8" t="s">
         <v>21</v>
       </c>
@@ -11130,8 +11136,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="36.9">
-      <c r="A44" s="239"/>
+    <row r="44" spans="1:10" ht="39.6">
+      <c r="A44" s="240"/>
       <c r="B44" s="8" t="s">
         <v>21</v>
       </c>
@@ -11158,8 +11164,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="36.9">
-      <c r="A45" s="242"/>
+    <row r="45" spans="1:10" ht="39.6">
+      <c r="A45" s="243"/>
       <c r="B45" s="47" t="s">
         <v>21</v>
       </c>
@@ -11186,7 +11192,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="36.9">
+    <row r="46" spans="1:10" ht="39.6">
       <c r="A46" s="105" t="s">
         <v>459</v>
       </c>
@@ -11246,8 +11252,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="61.5">
-      <c r="A48" s="241" t="s">
+    <row r="48" spans="1:10" ht="66">
+      <c r="A48" s="242" t="s">
         <v>496</v>
       </c>
       <c r="B48" s="90" t="s">
@@ -11276,8 +11282,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="36.9">
-      <c r="A49" s="242"/>
+    <row r="49" spans="1:10" ht="39.6">
+      <c r="A49" s="243"/>
       <c r="B49" s="47" t="s">
         <v>21</v>
       </c>
@@ -11332,7 +11338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="24.6">
+    <row r="51" spans="1:10" ht="26.4">
       <c r="A51" s="8" t="s">
         <v>460</v>
       </c>
@@ -11358,7 +11364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="73.8">
+    <row r="52" spans="1:10" ht="79.2">
       <c r="A52" s="6" t="s">
         <v>549</v>
       </c>
@@ -11390,7 +11396,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="49.2">
+    <row r="53" spans="1:10" ht="52.8">
       <c r="A53" s="8" t="s">
         <v>549</v>
       </c>
@@ -11422,7 +11428,7 @@
         <v>43283</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="49.2">
+    <row r="54" spans="1:10" ht="52.8">
       <c r="A54" s="8" t="s">
         <v>549</v>
       </c>
@@ -11454,7 +11460,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="49.2">
+    <row r="55" spans="1:10" ht="52.8">
       <c r="A55" s="8" t="s">
         <v>549</v>
       </c>
@@ -11486,7 +11492,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="61.5">
+    <row r="56" spans="1:10" ht="66">
       <c r="A56" s="8" t="s">
         <v>549</v>
       </c>
@@ -11518,7 +11524,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="49.2">
+    <row r="57" spans="1:10" ht="52.8">
       <c r="A57" s="8" t="s">
         <v>549</v>
       </c>
@@ -11550,7 +11556,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="49.2">
+    <row r="58" spans="1:10" ht="52.8">
       <c r="A58" s="8" t="s">
         <v>549</v>
       </c>
@@ -11582,7 +11588,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="49.2">
+    <row r="59" spans="1:10" ht="52.8">
       <c r="A59" s="8" t="s">
         <v>549</v>
       </c>
@@ -11614,7 +11620,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="49.2">
+    <row r="60" spans="1:10" ht="52.8">
       <c r="A60" s="6" t="s">
         <v>590</v>
       </c>
@@ -11644,7 +11650,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="24.6">
+    <row r="61" spans="1:10" ht="26.4">
       <c r="A61" s="8" t="s">
         <v>590</v>
       </c>
@@ -11674,7 +11680,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="73.8">
+    <row r="62" spans="1:10" ht="79.2">
       <c r="A62" s="6" t="s">
         <v>604</v>
       </c>
@@ -11704,7 +11710,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="24.6">
+    <row r="63" spans="1:10" ht="26.4">
       <c r="A63" s="132" t="s">
         <v>612</v>
       </c>
@@ -11734,7 +11740,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="49.2">
+    <row r="64" spans="1:10" ht="52.8">
       <c r="A64" s="6" t="s">
         <v>637</v>
       </c>
@@ -11796,7 +11802,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="49.2">
+    <row r="66" spans="1:10" ht="52.8">
       <c r="A66" s="125" t="s">
         <v>652</v>
       </c>
@@ -11823,7 +11829,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="61.5">
+    <row r="67" spans="1:10" ht="66">
       <c r="A67" s="123" t="s">
         <v>652</v>
       </c>
@@ -11958,7 +11964,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="43.2">
+    <row r="72" spans="1:10" ht="39.6">
       <c r="A72" s="123" t="s">
         <v>652</v>
       </c>
@@ -12180,7 +12186,7 @@
         <v>43295</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="61.5">
+    <row r="80" spans="1:10" ht="79.2">
       <c r="A80" s="125" t="s">
         <v>565</v>
       </c>
@@ -12208,7 +12214,7 @@
         <v>43296</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="57.6">
+    <row r="81" spans="1:10" ht="66">
       <c r="A81" s="123" t="s">
         <v>565</v>
       </c>
@@ -12236,7 +12242,7 @@
         <v>43297</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="61.5">
+    <row r="82" spans="1:10" ht="66">
       <c r="A82" s="123" t="s">
         <v>565</v>
       </c>
@@ -12318,7 +12324,7 @@
         <v>43300</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="49.2">
+    <row r="85" spans="1:10" ht="52.8">
       <c r="A85" s="8" t="s">
         <v>754</v>
       </c>
@@ -12348,7 +12354,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="49.2">
+    <row r="86" spans="1:10" ht="52.8">
       <c r="A86" s="6" t="s">
         <v>763</v>
       </c>
@@ -12378,7 +12384,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="110.7">
+    <row r="87" spans="1:10" ht="118.8">
       <c r="A87" s="6" t="s">
         <v>768</v>
       </c>
@@ -12406,8 +12412,8 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="36.9">
-      <c r="A88" s="243" t="s">
+    <row r="88" spans="1:10" ht="39.6">
+      <c r="A88" s="244" t="s">
         <v>780</v>
       </c>
       <c r="B88" s="8" t="s">
@@ -12436,8 +12442,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="36.9">
-      <c r="A89" s="239"/>
+    <row r="89" spans="1:10" ht="39.6">
+      <c r="A89" s="240"/>
       <c r="B89" s="8" t="s">
         <v>45</v>
       </c>
@@ -12464,8 +12470,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="36.9">
-      <c r="A90" s="239"/>
+    <row r="90" spans="1:10" ht="39.6">
+      <c r="A90" s="240"/>
       <c r="B90" s="8" t="s">
         <v>45</v>
       </c>
@@ -12492,8 +12498,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="36.9">
-      <c r="A91" s="239"/>
+    <row r="91" spans="1:10" ht="39.6">
+      <c r="A91" s="240"/>
       <c r="B91" s="8" t="s">
         <v>45</v>
       </c>
@@ -12520,8 +12526,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="24.6">
-      <c r="A92" s="239"/>
+    <row r="92" spans="1:10" ht="39.6">
+      <c r="A92" s="240"/>
       <c r="B92" s="8" t="s">
         <v>45</v>
       </c>
@@ -12548,8 +12554,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="24.6">
-      <c r="A93" s="239"/>
+    <row r="93" spans="1:10" ht="39.6">
+      <c r="A93" s="240"/>
       <c r="B93" s="8" t="s">
         <v>45</v>
       </c>
@@ -12576,8 +12582,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="36.9">
-      <c r="A94" s="239"/>
+    <row r="94" spans="1:10" ht="39.6">
+      <c r="A94" s="240"/>
       <c r="B94" s="8" t="s">
         <v>45</v>
       </c>
@@ -12604,8 +12610,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="36.9">
-      <c r="A95" s="239"/>
+    <row r="95" spans="1:10" ht="39.6">
+      <c r="A95" s="240"/>
       <c r="B95" s="8" t="s">
         <v>45</v>
       </c>
@@ -12632,7 +12638,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="24.6">
+    <row r="96" spans="1:10" ht="26.4">
       <c r="A96" s="6" t="s">
         <v>813</v>
       </c>
@@ -12664,7 +12670,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="49.2">
+    <row r="97" spans="1:10" ht="52.8">
       <c r="A97" s="6" t="s">
         <v>834</v>
       </c>
@@ -12694,7 +12700,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="36.9">
+    <row r="98" spans="1:10" ht="39.6">
       <c r="A98" s="6" t="s">
         <v>842</v>
       </c>
@@ -12857,7 +12863,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="61.5">
+    <row r="104" spans="1:10" ht="66">
       <c r="A104" s="6" t="s">
         <v>893</v>
       </c>
@@ -12887,7 +12893,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="61.5">
+    <row r="105" spans="1:10" ht="66">
       <c r="A105" s="6" t="s">
         <v>893</v>
       </c>
@@ -13224,7 +13230,7 @@
         <v>43293</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="98.4">
+    <row r="117" spans="1:10" ht="118.8">
       <c r="A117" s="6" t="s">
         <v>927</v>
       </c>
@@ -13256,7 +13262,7 @@
         <v>43294</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="24.6">
+    <row r="118" spans="1:10" ht="26.4">
       <c r="A118" s="6" t="s">
         <v>927</v>
       </c>
@@ -13445,7 +13451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -13455,7 +13461,7 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
@@ -13469,7 +13475,7 @@
     <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36.9">
+    <row r="1" spans="1:10" ht="39.6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -13494,12 +13500,12 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="245" t="s">
+      <c r="I1" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="239"/>
-    </row>
-    <row r="2" spans="1:10" ht="24.6">
+      <c r="J1" s="240"/>
+    </row>
+    <row r="2" spans="1:10" ht="26.4">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -13515,7 +13521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="196.8">
+    <row r="3" spans="1:10" ht="211.2">
       <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
@@ -13545,7 +13551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="196.8">
+    <row r="4" spans="1:10" ht="211.2">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
@@ -13575,7 +13581,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="196.8">
+    <row r="5" spans="1:10" ht="211.2">
       <c r="A5" s="14" t="s">
         <v>19</v>
       </c>

--- a/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
+++ b/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="17268" windowHeight="5256"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="17268" windowHeight="5256" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Action Items, Open" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F121" authorId="0">
+    <comment ref="F119" authorId="0">
       <text>
         <r>
           <rPr>
@@ -34,7 +34,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F135" authorId="0">
+    <comment ref="F133" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G21" authorId="0">
+    <comment ref="G22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0">
+    <comment ref="F23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="1012">
   <si>
     <t>TM</t>
   </si>
@@ -454,9 +454,6 @@
   </si>
   <si>
     <t xml:space="preserve">NTP should be: acetylsalicylic acid 25 mg and dipyridamole 200 mg modified-release oral capsule </t>
-  </si>
-  <si>
-    <t>DPD Update requested LT 12Jul18</t>
   </si>
   <si>
     <t>alcohol anhydrous and chlorhexidine</t>
@@ -4358,6 +4355,9 @@
   </si>
   <si>
     <t>Underway with DPD</t>
+  </si>
+  <si>
+    <t>DPD Update requested LT 12Jul18; Change reflected in the DPD jh 19Jul18</t>
   </si>
 </sst>
 </file>
@@ -5683,6 +5683,9 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5702,9 +5705,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6019,7 +6019,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6030,11 +6030,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J145"/>
+  <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H132" sqref="H132"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
@@ -6086,18 +6086,18 @@
     </row>
     <row r="2" spans="1:10" ht="234.6">
       <c r="A2" s="173" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B2" s="174"/>
       <c r="C2" s="174"/>
       <c r="D2" s="175" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E2" s="176" t="s">
+        <v>269</v>
+      </c>
+      <c r="F2" s="177" t="s">
         <v>270</v>
-      </c>
-      <c r="F2" s="177" t="s">
-        <v>271</v>
       </c>
       <c r="G2" s="174"/>
       <c r="H2" s="178"/>
@@ -6209,20 +6209,20 @@
     </row>
     <row r="7" spans="1:10" ht="317.39999999999998">
       <c r="A7" s="184" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B7" s="178" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C7" s="174"/>
       <c r="D7" s="185">
         <v>2368196</v>
       </c>
       <c r="E7" s="186" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F7" s="177" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G7" s="174"/>
       <c r="H7" s="178"/>
@@ -6230,20 +6230,20 @@
     </row>
     <row r="8" spans="1:10" ht="331.2">
       <c r="A8" s="187" t="s">
+        <v>944</v>
+      </c>
+      <c r="B8" s="178" t="s">
         <v>945</v>
-      </c>
-      <c r="B8" s="178" t="s">
-        <v>946</v>
       </c>
       <c r="C8" s="174"/>
       <c r="D8" s="188">
         <v>2388537</v>
       </c>
       <c r="E8" s="186" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F8" s="177" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G8" s="174"/>
       <c r="H8" s="178"/>
@@ -6251,480 +6251,486 @@
     </row>
     <row r="9" spans="1:10" ht="409.6">
       <c r="A9" s="184" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B9" s="178" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C9" s="174"/>
       <c r="D9" s="188">
         <v>2383608</v>
       </c>
       <c r="E9" s="189" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F9" s="190" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G9" s="190"/>
       <c r="H9" s="178"/>
       <c r="I9" s="179"/>
     </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="178"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="185"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="179"/>
+    <row r="10" spans="1:10" ht="41.4">
+      <c r="A10" s="173" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="174" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="174" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="174" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="182" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="177" t="s">
+        <v>954</v>
+      </c>
+      <c r="G10" s="194"/>
+      <c r="H10" s="195" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="179">
+        <v>43196</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="41.4">
-      <c r="A11" s="181" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="178" t="s">
+      <c r="A11" s="173" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="174"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="177" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="194"/>
+      <c r="H11" s="195"/>
+      <c r="I11" s="179">
+        <v>39614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="331.2">
+      <c r="A12" s="173" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="174" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="174"/>
+      <c r="D12" s="175" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="182" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="177" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="178" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="178"/>
+      <c r="I12" s="179">
+        <v>43271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="96.6">
+      <c r="A13" s="196" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="174" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="174"/>
+      <c r="D13" s="197" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="182" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="178" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="178"/>
+      <c r="I13" s="179"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="173" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="178" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="191" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="175" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="192" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="193" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="174" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="178" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="179"/>
-    </row>
-    <row r="12" spans="1:10" ht="41.4">
-      <c r="A12" s="173" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="174" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="174" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="174" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="182" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="177" t="s">
-        <v>955</v>
-      </c>
-      <c r="G12" s="194"/>
-      <c r="H12" s="195" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="41.4">
-      <c r="A13" s="173" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="174"/>
-      <c r="C13" s="174"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="182"/>
-      <c r="F13" s="177" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="194"/>
-      <c r="H13" s="195"/>
-      <c r="I13" s="179">
-        <v>39614</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="331.2">
-      <c r="A14" s="173" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="174"/>
-      <c r="D14" s="175" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="182" t="s">
-        <v>105</v>
-      </c>
+      <c r="C14" s="174" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="174"/>
+      <c r="E14" s="182"/>
       <c r="F14" s="177" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="178" t="s">
-        <v>107</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G14" s="178"/>
       <c r="H14" s="178"/>
       <c r="I14" s="179">
-        <v>43271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="96.6">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="41.4">
       <c r="A15" s="196" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="174"/>
-      <c r="D15" s="197" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="182" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="B15" s="178" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="174" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="180" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="198" t="s">
+        <v>130</v>
       </c>
       <c r="F15" s="177" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="178" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" s="178"/>
-      <c r="I15" s="179"/>
-    </row>
-    <row r="16" spans="1:10">
+        <v>131</v>
+      </c>
+      <c r="G15" s="194"/>
+      <c r="H15" s="199" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="179">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="41.4">
       <c r="A16" s="173" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B16" s="178" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="174"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="177" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="178"/>
+        <v>137</v>
+      </c>
+      <c r="C16" s="191" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="178" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="176"/>
+      <c r="F16" s="178" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="178" t="s">
+        <v>141</v>
+      </c>
       <c r="H16" s="178"/>
       <c r="I16" s="179">
-        <v>43252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="41.4">
-      <c r="A17" s="196" t="s">
-        <v>123</v>
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="27.6">
+      <c r="A17" s="173" t="s">
+        <v>142</v>
       </c>
       <c r="B17" s="178" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="175"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="199" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="179">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="82.8">
+      <c r="A18" s="173" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="174" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="180" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" s="198" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="177" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="194"/>
-      <c r="H17" s="199" t="s">
-        <v>136</v>
-      </c>
-      <c r="I17" s="179">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="41.4">
-      <c r="A18" s="173" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="191" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="178" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="176"/>
-      <c r="F18" s="178" t="s">
-        <v>141</v>
+      <c r="C18" s="191">
+        <v>8000916</v>
+      </c>
+      <c r="D18" s="200" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="186" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="201" t="s">
+        <v>170</v>
       </c>
       <c r="G18" s="178" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="H18" s="178"/>
       <c r="I18" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="27.6">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="165.6">
       <c r="A19" s="173" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="B19" s="178" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="175"/>
-      <c r="E19" s="176"/>
+        <v>176</v>
+      </c>
+      <c r="C19" s="191" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="200"/>
+      <c r="E19" s="182" t="s">
+        <v>946</v>
+      </c>
       <c r="F19" s="199" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="178"/>
+        <v>179</v>
+      </c>
+      <c r="G19" s="178" t="s">
+        <v>182</v>
+      </c>
       <c r="H19" s="178"/>
-      <c r="I19" s="179">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="82.8">
+      <c r="I19" s="179"/>
+    </row>
+    <row r="20" spans="1:9" ht="55.2">
       <c r="A20" s="173" t="s">
         <v>158</v>
       </c>
       <c r="B20" s="178" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="191">
-        <v>8000916</v>
-      </c>
-      <c r="D20" s="200" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="186" t="s">
-        <v>73</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C20" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="175" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="176"/>
       <c r="F20" s="201" t="s">
-        <v>171</v>
-      </c>
-      <c r="G20" s="178" t="s">
-        <v>174</v>
+        <v>186</v>
+      </c>
+      <c r="G20" s="202" t="s">
+        <v>190</v>
       </c>
       <c r="H20" s="178"/>
       <c r="I20" s="179">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="165.6">
+        <v>43263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="55.2">
       <c r="A21" s="173" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B21" s="178" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" s="191" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="200"/>
-      <c r="E21" s="182" t="s">
-        <v>947</v>
-      </c>
-      <c r="F21" s="199" t="s">
-        <v>180</v>
-      </c>
-      <c r="G21" s="178" t="s">
         <v>183</v>
       </c>
+      <c r="C21" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="175" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="186" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="201" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" s="178"/>
       <c r="H21" s="178"/>
-      <c r="I21" s="179"/>
-    </row>
-    <row r="22" spans="1:9" ht="55.2">
+      <c r="I21" s="179">
+        <v>43263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="69">
       <c r="A22" s="173" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="178" t="s">
-        <v>184</v>
-      </c>
-      <c r="C22" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="175" t="s">
-        <v>185</v>
-      </c>
-      <c r="E22" s="176"/>
-      <c r="F22" s="201" t="s">
-        <v>187</v>
-      </c>
-      <c r="G22" s="202" t="s">
-        <v>191</v>
-      </c>
-      <c r="H22" s="178"/>
+        <v>166</v>
+      </c>
+      <c r="B22" s="174" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="174" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="180" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="182"/>
+      <c r="F22" s="177" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" s="194"/>
+      <c r="H22" s="199"/>
       <c r="I22" s="179">
-        <v>43263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="55.2">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="41.4">
       <c r="A23" s="173" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" s="178" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="175" t="s">
-        <v>200</v>
-      </c>
-      <c r="E23" s="186" t="s">
-        <v>204</v>
-      </c>
-      <c r="F23" s="201" t="s">
-        <v>205</v>
-      </c>
-      <c r="G23" s="178"/>
+        <v>209</v>
+      </c>
+      <c r="B23" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="203" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="180" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" s="182"/>
+      <c r="F23" s="180" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" s="194" t="s">
+        <v>213</v>
+      </c>
       <c r="H23" s="178"/>
       <c r="I23" s="179">
-        <v>43263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="69">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="27.6">
       <c r="A24" s="173" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="B24" s="174" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C24" s="174" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" s="180" t="s">
-        <v>208</v>
+        <v>216</v>
+      </c>
+      <c r="D24" s="174" t="s">
+        <v>217</v>
       </c>
       <c r="E24" s="182"/>
-      <c r="F24" s="177" t="s">
-        <v>209</v>
+      <c r="F24" s="199" t="s">
+        <v>218</v>
       </c>
       <c r="G24" s="194"/>
-      <c r="H24" s="199"/>
+      <c r="H24" s="195" t="s">
+        <v>219</v>
+      </c>
       <c r="I24" s="179">
         <v>43196</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="41.4">
+    <row r="25" spans="1:9" ht="69">
       <c r="A25" s="173" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B25" s="174" t="s">
-        <v>211</v>
-      </c>
-      <c r="C25" s="203" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" s="180" t="s">
-        <v>208</v>
-      </c>
-      <c r="E25" s="182"/>
-      <c r="F25" s="180" t="s">
-        <v>213</v>
+        <v>221</v>
+      </c>
+      <c r="C25" s="200"/>
+      <c r="D25" s="175" t="s">
+        <v>223</v>
+      </c>
+      <c r="E25" s="192"/>
+      <c r="F25" s="201" t="s">
+        <v>224</v>
       </c>
       <c r="G25" s="194" t="s">
-        <v>214</v>
-      </c>
-      <c r="H25" s="178"/>
-      <c r="I25" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="27.6">
+        <v>225</v>
+      </c>
+      <c r="H25" s="195"/>
+      <c r="I25" s="179"/>
+    </row>
+    <row r="26" spans="1:9" ht="41.4">
       <c r="A26" s="173" t="s">
-        <v>215</v>
-      </c>
-      <c r="B26" s="174" t="s">
-        <v>211</v>
-      </c>
-      <c r="C26" s="174" t="s">
-        <v>217</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B26" s="178" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="178"/>
       <c r="D26" s="174" t="s">
-        <v>218</v>
-      </c>
-      <c r="E26" s="182"/>
-      <c r="F26" s="199" t="s">
-        <v>219</v>
+        <v>227</v>
+      </c>
+      <c r="E26" s="182" t="s">
+        <v>228</v>
+      </c>
+      <c r="F26" s="177" t="s">
+        <v>229</v>
       </c>
       <c r="G26" s="194"/>
-      <c r="H26" s="195" t="s">
-        <v>220</v>
+      <c r="H26" s="178" t="s">
+        <v>230</v>
       </c>
       <c r="I26" s="179">
         <v>43196</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="69">
-      <c r="A27" s="173" t="s">
-        <v>221</v>
-      </c>
-      <c r="B27" s="174" t="s">
-        <v>222</v>
-      </c>
-      <c r="C27" s="200"/>
-      <c r="D27" s="175" t="s">
-        <v>224</v>
-      </c>
-      <c r="E27" s="192"/>
-      <c r="F27" s="201" t="s">
-        <v>225</v>
-      </c>
-      <c r="G27" s="194" t="s">
+    <row r="27" spans="1:9" ht="41.4">
+      <c r="A27" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="H27" s="195"/>
-      <c r="I27" s="179"/>
+      <c r="B27" s="178"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="174" t="s">
+        <v>231</v>
+      </c>
+      <c r="E27" s="182" t="s">
+        <v>228</v>
+      </c>
+      <c r="F27" s="177" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" s="194"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="179">
+        <v>43196</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="41.4">
-      <c r="A28" s="173" t="s">
-        <v>227</v>
-      </c>
-      <c r="B28" s="178" t="s">
-        <v>138</v>
-      </c>
+      <c r="A28" s="196" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="178"/>
       <c r="C28" s="178"/>
       <c r="D28" s="174" t="s">
+        <v>232</v>
+      </c>
+      <c r="E28" s="182" t="s">
         <v>228</v>
       </c>
-      <c r="E28" s="182" t="s">
+      <c r="F28" s="177" t="s">
         <v>229</v>
       </c>
-      <c r="F28" s="177" t="s">
-        <v>230</v>
-      </c>
       <c r="G28" s="194"/>
-      <c r="H28" s="178" t="s">
-        <v>231</v>
-      </c>
+      <c r="H28" s="178"/>
       <c r="I28" s="179">
         <v>43196</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="41.4">
       <c r="A29" s="196" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B29" s="178"/>
       <c r="C29" s="178"/>
       <c r="D29" s="174" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E29" s="182" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" s="177" t="s">
         <v>229</v>
-      </c>
-      <c r="F29" s="177" t="s">
-        <v>230</v>
       </c>
       <c r="G29" s="194"/>
       <c r="H29" s="178"/>
@@ -6733,253 +6739,269 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="41.4">
-      <c r="A30" s="196" t="s">
-        <v>227</v>
-      </c>
-      <c r="B30" s="178"/>
+      <c r="A30" s="173" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="204" t="str">
+        <f>HYPERLINK("https://docs.google.com/spreadsheets/d/1CZZj8fSMSaEaqlK8KCBOVHZaJixwFi-xHDmvUY_rwCk/edit#gid=1997930010&amp;range=A3:A19","Master: Antibacterials A")</f>
+        <v>Master: Antibacterials A</v>
+      </c>
       <c r="C30" s="178"/>
-      <c r="D30" s="174" t="s">
-        <v>233</v>
-      </c>
-      <c r="E30" s="182" t="s">
-        <v>229</v>
-      </c>
-      <c r="F30" s="177" t="s">
-        <v>230</v>
-      </c>
-      <c r="G30" s="194"/>
+      <c r="D30" s="175" t="s">
+        <v>236</v>
+      </c>
+      <c r="E30" s="176" t="s">
+        <v>237</v>
+      </c>
+      <c r="F30" s="201" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" s="178"/>
       <c r="H30" s="178"/>
       <c r="I30" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="41.4">
-      <c r="A31" s="196" t="s">
-        <v>227</v>
-      </c>
-      <c r="B31" s="178"/>
-      <c r="C31" s="178"/>
-      <c r="D31" s="174" t="s">
-        <v>234</v>
-      </c>
-      <c r="E31" s="182" t="s">
-        <v>235</v>
-      </c>
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="110.4">
+      <c r="A31" s="173" t="s">
+        <v>239</v>
+      </c>
+      <c r="B31" s="174" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="174" t="s">
+        <v>240</v>
+      </c>
+      <c r="D31" s="180" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" s="182"/>
       <c r="F31" s="177" t="s">
-        <v>230</v>
+        <v>955</v>
       </c>
       <c r="G31" s="194"/>
-      <c r="H31" s="178"/>
       <c r="I31" s="179">
         <v>43196</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="41.4">
-      <c r="A32" s="173" t="s">
-        <v>199</v>
-      </c>
-      <c r="B32" s="204" t="str">
-        <f>HYPERLINK("https://docs.google.com/spreadsheets/d/1CZZj8fSMSaEaqlK8KCBOVHZaJixwFi-xHDmvUY_rwCk/edit#gid=1997930010&amp;range=A3:A19","Master: Antibacterials A")</f>
-        <v>Master: Antibacterials A</v>
-      </c>
-      <c r="C32" s="178"/>
-      <c r="D32" s="175" t="s">
-        <v>237</v>
-      </c>
-      <c r="E32" s="176" t="s">
-        <v>238</v>
-      </c>
-      <c r="F32" s="201" t="s">
+    <row r="32" spans="1:9" ht="110.4">
+      <c r="A32" s="196" t="s">
         <v>239</v>
       </c>
-      <c r="G32" s="178"/>
+      <c r="B32" s="174"/>
+      <c r="C32" s="174"/>
+      <c r="D32" s="174" t="s">
+        <v>242</v>
+      </c>
+      <c r="E32" s="182" t="s">
+        <v>243</v>
+      </c>
+      <c r="F32" s="193" t="s">
+        <v>244</v>
+      </c>
+      <c r="G32" s="174" t="s">
+        <v>956</v>
+      </c>
       <c r="H32" s="178"/>
       <c r="I32" s="179">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="110.4">
-      <c r="A33" s="173" t="s">
-        <v>240</v>
-      </c>
-      <c r="B33" s="174" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="174" t="s">
-        <v>241</v>
-      </c>
-      <c r="D33" s="180" t="s">
-        <v>208</v>
-      </c>
-      <c r="E33" s="182"/>
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="69">
+      <c r="A33" s="196" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174" t="s">
+        <v>245</v>
+      </c>
+      <c r="E33" s="182" t="s">
+        <v>246</v>
+      </c>
       <c r="F33" s="177" t="s">
-        <v>956</v>
-      </c>
-      <c r="G33" s="194"/>
+        <v>247</v>
+      </c>
+      <c r="G33" s="174" t="s">
+        <v>248</v>
+      </c>
+      <c r="H33" s="178"/>
       <c r="I33" s="179">
         <v>43196</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="110.4">
-      <c r="A34" s="196" t="s">
-        <v>240</v>
-      </c>
-      <c r="B34" s="174"/>
+    <row r="34" spans="1:10" ht="55.2">
+      <c r="A34" s="173" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" s="174" t="s">
+        <v>250</v>
+      </c>
       <c r="C34" s="174"/>
       <c r="D34" s="174" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E34" s="182" t="s">
-        <v>244</v>
-      </c>
-      <c r="F34" s="193" t="s">
-        <v>245</v>
-      </c>
-      <c r="G34" s="174" t="s">
-        <v>957</v>
-      </c>
+        <v>947</v>
+      </c>
+      <c r="F34" s="177" t="s">
+        <v>255</v>
+      </c>
+      <c r="G34" s="174"/>
       <c r="H34" s="178"/>
-      <c r="I34" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="69">
+      <c r="I34" s="179"/>
+    </row>
+    <row r="35" spans="1:10" ht="55.2">
       <c r="A35" s="196" t="s">
-        <v>240</v>
-      </c>
-      <c r="B35" s="174"/>
+        <v>249</v>
+      </c>
+      <c r="B35" s="174" t="s">
+        <v>256</v>
+      </c>
       <c r="C35" s="174"/>
       <c r="D35" s="174" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="E35" s="182" t="s">
-        <v>247</v>
+        <v>948</v>
       </c>
       <c r="F35" s="177" t="s">
-        <v>248</v>
-      </c>
-      <c r="G35" s="174" t="s">
-        <v>249</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G35" s="174"/>
       <c r="H35" s="178"/>
-      <c r="I35" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="55.2">
+      <c r="I35" s="179"/>
+    </row>
+    <row r="36" spans="1:10" ht="317.39999999999998">
       <c r="A36" s="173" t="s">
-        <v>250</v>
+        <v>970</v>
       </c>
       <c r="B36" s="174" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C36" s="174"/>
-      <c r="D36" s="174" t="s">
-        <v>252</v>
-      </c>
-      <c r="E36" s="182" t="s">
-        <v>948</v>
+      <c r="D36" s="175" t="s">
+        <v>262</v>
+      </c>
+      <c r="E36" s="186" t="s">
+        <v>978</v>
       </c>
       <c r="F36" s="177" t="s">
-        <v>256</v>
-      </c>
-      <c r="G36" s="174"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="179"/>
-    </row>
-    <row r="37" spans="1:10" ht="55.2">
+        <v>971</v>
+      </c>
+      <c r="G36" s="205"/>
+      <c r="H36" s="206"/>
+      <c r="I36" s="205">
+        <v>9005524</v>
+      </c>
+      <c r="J36" s="206" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="303.60000000000002">
       <c r="A37" s="196" t="s">
-        <v>250</v>
-      </c>
-      <c r="B37" s="174" t="s">
-        <v>257</v>
-      </c>
-      <c r="C37" s="174"/>
-      <c r="D37" s="174" t="s">
-        <v>258</v>
-      </c>
-      <c r="E37" s="182" t="s">
-        <v>949</v>
-      </c>
-      <c r="F37" s="177" t="s">
-        <v>256</v>
-      </c>
-      <c r="G37" s="174"/>
-      <c r="H37" s="178"/>
-      <c r="I37" s="179"/>
-    </row>
-    <row r="38" spans="1:10" ht="317.39999999999998">
+        <v>970</v>
+      </c>
+      <c r="B37" s="180" t="s">
+        <v>945</v>
+      </c>
+      <c r="C37" s="207">
+        <v>2399733</v>
+      </c>
+      <c r="E37" s="186" t="s">
+        <v>978</v>
+      </c>
+      <c r="F37" s="208" t="s">
+        <v>972</v>
+      </c>
+      <c r="G37" s="205"/>
+      <c r="H37" s="206"/>
+      <c r="I37" s="205"/>
+      <c r="J37" s="206"/>
+    </row>
+    <row r="38" spans="1:10" ht="124.2">
       <c r="A38" s="173" t="s">
-        <v>971</v>
-      </c>
-      <c r="B38" s="174" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="174"/>
-      <c r="D38" s="175" t="s">
-        <v>263</v>
-      </c>
-      <c r="E38" s="186" t="s">
-        <v>979</v>
+        <v>271</v>
+      </c>
+      <c r="B38" s="178" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" s="174" t="s">
+        <v>273</v>
+      </c>
+      <c r="E38" s="182" t="s">
+        <v>274</v>
       </c>
       <c r="F38" s="177" t="s">
-        <v>972</v>
-      </c>
-      <c r="G38" s="205"/>
-      <c r="H38" s="206"/>
-      <c r="I38" s="205">
-        <v>9005524</v>
-      </c>
-      <c r="J38" s="206" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="303.60000000000002">
+        <v>275</v>
+      </c>
+      <c r="G38" s="174" t="s">
+        <v>276</v>
+      </c>
+      <c r="H38" s="178"/>
+      <c r="I38" s="179"/>
+    </row>
+    <row r="39" spans="1:10" ht="96.6">
       <c r="A39" s="196" t="s">
-        <v>971</v>
-      </c>
-      <c r="B39" s="180" t="s">
-        <v>946</v>
-      </c>
-      <c r="C39" s="207">
-        <v>2399733</v>
-      </c>
-      <c r="E39" s="186" t="s">
-        <v>979</v>
-      </c>
-      <c r="F39" s="208" t="s">
-        <v>973</v>
-      </c>
-      <c r="G39" s="205"/>
-      <c r="H39" s="206"/>
-      <c r="I39" s="205"/>
-      <c r="J39" s="206"/>
-    </row>
-    <row r="40" spans="1:10" ht="124.2">
+        <v>277</v>
+      </c>
+      <c r="B39" s="178" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="175" t="s">
+        <v>278</v>
+      </c>
+      <c r="E39" s="182" t="s">
+        <v>279</v>
+      </c>
+      <c r="F39" s="199" t="s">
+        <v>957</v>
+      </c>
+      <c r="G39" s="199" t="s">
+        <v>280</v>
+      </c>
+      <c r="H39" s="178" t="s">
+        <v>281</v>
+      </c>
+      <c r="I39" s="179">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="82.8">
       <c r="A40" s="173" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B40" s="178" t="s">
-        <v>273</v>
-      </c>
-      <c r="D40" s="174" t="s">
-        <v>274</v>
+        <v>21</v>
+      </c>
+      <c r="C40" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="200" t="s">
+        <v>283</v>
       </c>
       <c r="E40" s="182" t="s">
-        <v>275</v>
-      </c>
-      <c r="F40" s="177" t="s">
-        <v>276</v>
-      </c>
-      <c r="G40" s="174" t="s">
-        <v>277</v>
-      </c>
-      <c r="H40" s="178"/>
-      <c r="I40" s="179"/>
-    </row>
-    <row r="41" spans="1:10" ht="96.6">
+        <v>285</v>
+      </c>
+      <c r="F40" s="199" t="s">
+        <v>958</v>
+      </c>
+      <c r="G40" s="199" t="s">
+        <v>288</v>
+      </c>
+      <c r="H40" s="178" t="s">
+        <v>281</v>
+      </c>
+      <c r="I40" s="179">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="82.8">
       <c r="A41" s="196" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B41" s="178" t="s">
         <v>21</v>
@@ -6987,286 +7009,280 @@
       <c r="C41" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="175" t="s">
-        <v>279</v>
+      <c r="D41" s="200" t="s">
+        <v>289</v>
       </c>
       <c r="E41" s="182" t="s">
-        <v>280</v>
-      </c>
-      <c r="F41" s="199" t="s">
-        <v>958</v>
+        <v>290</v>
+      </c>
+      <c r="F41" s="177" t="s">
+        <v>959</v>
       </c>
       <c r="G41" s="199" t="s">
+        <v>291</v>
+      </c>
+      <c r="H41" s="178" t="s">
         <v>281</v>
-      </c>
-      <c r="H41" s="178" t="s">
-        <v>282</v>
       </c>
       <c r="I41" s="179">
         <v>43240</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="82.8">
+    <row r="42" spans="1:10" ht="96.6">
       <c r="A42" s="173" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B42" s="178" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="200" t="s">
-        <v>284</v>
+        <v>294</v>
+      </c>
+      <c r="C42" s="209">
+        <v>8000036</v>
+      </c>
+      <c r="D42" s="209" t="s">
+        <v>298</v>
       </c>
       <c r="E42" s="182" t="s">
-        <v>286</v>
-      </c>
-      <c r="F42" s="199" t="s">
-        <v>959</v>
-      </c>
-      <c r="G42" s="199" t="s">
-        <v>289</v>
-      </c>
-      <c r="H42" s="178" t="s">
-        <v>282</v>
+        <v>299</v>
+      </c>
+      <c r="F42" s="239" t="s">
+        <v>303</v>
+      </c>
+      <c r="G42" s="174" t="s">
+        <v>980</v>
+      </c>
+      <c r="H42" s="195" t="s">
+        <v>1010</v>
       </c>
       <c r="I42" s="179">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="82.8">
-      <c r="A43" s="196" t="s">
-        <v>283</v>
+        <v>43292</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="41.4">
+      <c r="A43" s="173" t="s">
+        <v>293</v>
       </c>
       <c r="B43" s="178" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="200" t="s">
-        <v>290</v>
+        <v>294</v>
+      </c>
+      <c r="C43" s="209">
+        <v>8000036</v>
+      </c>
+      <c r="D43" s="209" t="s">
+        <v>313</v>
       </c>
       <c r="E43" s="182" t="s">
-        <v>291</v>
-      </c>
-      <c r="F43" s="177" t="s">
-        <v>960</v>
-      </c>
-      <c r="G43" s="199" t="s">
-        <v>292</v>
-      </c>
-      <c r="H43" s="178" t="s">
-        <v>282</v>
+        <v>314</v>
+      </c>
+      <c r="F43" s="239" t="s">
+        <v>303</v>
+      </c>
+      <c r="G43" s="174" t="s">
+        <v>304</v>
+      </c>
+      <c r="H43" s="195" t="s">
+        <v>1010</v>
       </c>
       <c r="I43" s="179">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="96.6">
+        <v>43292</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="55.2">
       <c r="A44" s="173" t="s">
+        <v>293</v>
+      </c>
+      <c r="B44" s="178" t="s">
         <v>294</v>
-      </c>
-      <c r="B44" s="178" t="s">
-        <v>295</v>
       </c>
       <c r="C44" s="209">
         <v>8000036</v>
       </c>
       <c r="D44" s="209" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="E44" s="182" t="s">
-        <v>300</v>
-      </c>
-      <c r="F44" s="247" t="s">
-        <v>304</v>
+        <v>316</v>
+      </c>
+      <c r="F44" s="201" t="s">
+        <v>979</v>
       </c>
       <c r="G44" s="174" t="s">
-        <v>981</v>
+        <v>317</v>
       </c>
       <c r="H44" s="195" t="s">
-        <v>1011</v>
+        <v>337</v>
       </c>
       <c r="I44" s="179">
         <v>43292</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="41.4">
+    <row r="45" spans="1:10" ht="55.2">
       <c r="A45" s="173" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="B45" s="178" t="s">
-        <v>295</v>
-      </c>
-      <c r="C45" s="209">
-        <v>8000036</v>
-      </c>
-      <c r="D45" s="209" t="s">
-        <v>314</v>
+        <v>321</v>
+      </c>
+      <c r="C45" s="174" t="s">
+        <v>322</v>
+      </c>
+      <c r="D45" s="210" t="s">
+        <v>323</v>
       </c>
       <c r="E45" s="182" t="s">
-        <v>315</v>
-      </c>
-      <c r="F45" s="247" t="s">
-        <v>304</v>
+        <v>324</v>
+      </c>
+      <c r="F45" s="199" t="s">
+        <v>325</v>
       </c>
       <c r="G45" s="174" t="s">
-        <v>305</v>
-      </c>
-      <c r="H45" s="195" t="s">
-        <v>1011</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="H45" s="178"/>
       <c r="I45" s="179">
-        <v>43292</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="55.2">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="82.8">
       <c r="A46" s="173" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="B46" s="178" t="s">
-        <v>295</v>
-      </c>
-      <c r="C46" s="209">
-        <v>8000036</v>
-      </c>
-      <c r="D46" s="209" t="s">
-        <v>316</v>
+        <v>200</v>
+      </c>
+      <c r="C46" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="197" t="s">
+        <v>328</v>
       </c>
       <c r="E46" s="182" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="F46" s="201" t="s">
-        <v>980</v>
-      </c>
-      <c r="G46" s="174" t="s">
-        <v>318</v>
-      </c>
-      <c r="H46" s="195" t="s">
+        <v>330</v>
+      </c>
+      <c r="G46" s="178" t="s">
+        <v>332</v>
+      </c>
+      <c r="H46" s="178" t="s">
+        <v>333</v>
+      </c>
+      <c r="I46" s="179">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="41.4">
+      <c r="A47" s="173" t="s">
+        <v>327</v>
+      </c>
+      <c r="B47" s="178" t="s">
+        <v>272</v>
+      </c>
+      <c r="C47" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="174" t="s">
+        <v>334</v>
+      </c>
+      <c r="E47" s="182" t="s">
+        <v>335</v>
+      </c>
+      <c r="F47" s="201" t="s">
+        <v>336</v>
+      </c>
+      <c r="G47" s="178"/>
+      <c r="H47" s="178" t="s">
+        <v>337</v>
+      </c>
+      <c r="I47" s="179">
+        <v>43278</v>
+      </c>
+      <c r="J47" s="180" t="s">
         <v>338</v>
       </c>
-      <c r="I46" s="179">
-        <v>43292</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="55.2">
-      <c r="A47" s="173" t="s">
-        <v>321</v>
-      </c>
-      <c r="B47" s="178" t="s">
-        <v>322</v>
-      </c>
-      <c r="C47" s="174" t="s">
-        <v>323</v>
-      </c>
-      <c r="D47" s="210" t="s">
-        <v>324</v>
-      </c>
-      <c r="E47" s="182" t="s">
-        <v>325</v>
-      </c>
-      <c r="F47" s="199" t="s">
-        <v>326</v>
-      </c>
-      <c r="G47" s="174" t="s">
+    </row>
+    <row r="48" spans="1:10" ht="41.4">
+      <c r="A48" s="173" t="s">
         <v>327</v>
       </c>
-      <c r="H47" s="178"/>
-      <c r="I47" s="179">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="82.8">
-      <c r="A48" s="173" t="s">
-        <v>328</v>
-      </c>
       <c r="B48" s="178" t="s">
-        <v>201</v>
+        <v>272</v>
       </c>
       <c r="C48" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="197" t="s">
-        <v>329</v>
+      <c r="D48" s="174" t="s">
+        <v>340</v>
       </c>
       <c r="E48" s="182" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="F48" s="201" t="s">
-        <v>331</v>
-      </c>
-      <c r="G48" s="178" t="s">
-        <v>333</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="G48" s="178"/>
       <c r="H48" s="178" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="I48" s="179">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="41.4">
+        <v>43278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="69.599999999999994">
       <c r="A49" s="173" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="B49" s="178" t="s">
-        <v>273</v>
+        <v>21</v>
       </c>
       <c r="C49" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="174" t="s">
-        <v>335</v>
+      <c r="D49" s="200" t="s">
+        <v>344</v>
       </c>
       <c r="E49" s="182" t="s">
-        <v>336</v>
-      </c>
-      <c r="F49" s="201" t="s">
-        <v>337</v>
-      </c>
-      <c r="G49" s="178"/>
-      <c r="H49" s="178" t="s">
-        <v>338</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="F49" s="177" t="s">
+        <v>960</v>
+      </c>
+      <c r="G49" s="199"/>
+      <c r="H49" s="178"/>
       <c r="I49" s="179">
-        <v>43278</v>
-      </c>
-      <c r="J49" s="180" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="41.4">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="41.4">
       <c r="A50" s="173" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="B50" s="178" t="s">
-        <v>273</v>
+        <v>21</v>
       </c>
       <c r="C50" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="174" t="s">
-        <v>341</v>
+      <c r="D50" s="175" t="s">
+        <v>349</v>
       </c>
       <c r="E50" s="182" t="s">
-        <v>342</v>
-      </c>
-      <c r="F50" s="201" t="s">
-        <v>343</v>
-      </c>
-      <c r="G50" s="178"/>
-      <c r="H50" s="178" t="s">
-        <v>338</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="F50" s="211" t="s">
+        <v>351</v>
+      </c>
+      <c r="G50" s="199" t="s">
+        <v>961</v>
+      </c>
+      <c r="H50" s="178"/>
       <c r="I50" s="179">
-        <v>43278</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="69.599999999999994">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="41.4">
       <c r="A51" s="173" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B51" s="178" t="s">
         <v>21</v>
@@ -7274,210 +7290,204 @@
       <c r="C51" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="200" t="s">
-        <v>345</v>
+      <c r="D51" s="175" t="s">
+        <v>357</v>
       </c>
       <c r="E51" s="182" t="s">
-        <v>346</v>
-      </c>
-      <c r="F51" s="177" t="s">
+        <v>350</v>
+      </c>
+      <c r="F51" s="211" t="s">
+        <v>351</v>
+      </c>
+      <c r="G51" s="199" t="s">
         <v>961</v>
       </c>
-      <c r="G51" s="199"/>
       <c r="H51" s="178"/>
       <c r="I51" s="179">
         <v>43240</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="41.4">
-      <c r="A52" s="173" t="s">
-        <v>348</v>
+    <row r="52" spans="1:9" ht="193.2">
+      <c r="A52" s="212" t="s">
+        <v>358</v>
       </c>
       <c r="B52" s="178" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="178" t="s">
-        <v>22</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C52" s="178"/>
       <c r="D52" s="175" t="s">
-        <v>350</v>
-      </c>
-      <c r="E52" s="182" t="s">
-        <v>351</v>
-      </c>
-      <c r="F52" s="211" t="s">
-        <v>352</v>
+        <v>364</v>
+      </c>
+      <c r="E52" s="182"/>
+      <c r="F52" s="213" t="s">
+        <v>366</v>
       </c>
       <c r="G52" s="199" t="s">
-        <v>962</v>
+        <v>368</v>
       </c>
       <c r="H52" s="178"/>
-      <c r="I52" s="179">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="41.4">
-      <c r="A53" s="173" t="s">
-        <v>348</v>
+      <c r="I52" s="179"/>
+    </row>
+    <row r="53" spans="1:9" ht="27.6">
+      <c r="A53" s="212" t="s">
+        <v>371</v>
       </c>
       <c r="B53" s="178" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="178" t="s">
-        <v>22</v>
-      </c>
+        <v>1002</v>
+      </c>
+      <c r="C53" s="178"/>
       <c r="D53" s="175" t="s">
-        <v>358</v>
+        <v>1003</v>
       </c>
       <c r="E53" s="182" t="s">
-        <v>351</v>
-      </c>
-      <c r="F53" s="211" t="s">
-        <v>352</v>
-      </c>
-      <c r="G53" s="199" t="s">
-        <v>962</v>
-      </c>
+        <v>1004</v>
+      </c>
+      <c r="F53" s="237" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G53" s="199"/>
       <c r="H53" s="178"/>
       <c r="I53" s="179">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="193.2">
-      <c r="A54" s="212" t="s">
-        <v>359</v>
-      </c>
-      <c r="B54" s="178" t="s">
-        <v>364</v>
-      </c>
-      <c r="C54" s="178"/>
-      <c r="D54" s="175" t="s">
-        <v>365</v>
-      </c>
-      <c r="E54" s="182"/>
-      <c r="F54" s="213" t="s">
-        <v>367</v>
-      </c>
-      <c r="G54" s="199" t="s">
-        <v>369</v>
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="27.6">
+      <c r="A54" s="173" t="s">
+        <v>371</v>
+      </c>
+      <c r="B54" s="174" t="s">
+        <v>372</v>
+      </c>
+      <c r="C54" s="174"/>
+      <c r="D54" s="174" t="s">
+        <v>373</v>
+      </c>
+      <c r="E54" s="182" t="s">
+        <v>374</v>
+      </c>
+      <c r="F54" s="211" t="s">
+        <v>376</v>
+      </c>
+      <c r="G54" s="178" t="s">
+        <v>377</v>
       </c>
       <c r="H54" s="178"/>
-      <c r="I54" s="179"/>
-    </row>
-    <row r="55" spans="1:10" ht="27.6">
-      <c r="A55" s="212" t="s">
+      <c r="I54" s="179">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="179.4">
+      <c r="A55" s="173" t="s">
+        <v>371</v>
+      </c>
+      <c r="B55" s="174" t="s">
         <v>372</v>
       </c>
-      <c r="B55" s="178" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C55" s="178"/>
-      <c r="D55" s="175" t="s">
-        <v>1004</v>
+      <c r="C55" s="174"/>
+      <c r="D55" s="174" t="s">
+        <v>378</v>
       </c>
       <c r="E55" s="182" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F55" s="237" t="s">
-        <v>1006</v>
-      </c>
-      <c r="G55" s="199"/>
+        <v>379</v>
+      </c>
+      <c r="F55" s="213" t="s">
+        <v>380</v>
+      </c>
+      <c r="G55" s="178"/>
       <c r="H55" s="178"/>
       <c r="I55" s="179">
-        <v>43298</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="27.6">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="41.4">
       <c r="A56" s="173" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B56" s="174" t="s">
-        <v>373</v>
-      </c>
-      <c r="C56" s="174"/>
+        <v>382</v>
+      </c>
+      <c r="C56" s="174" t="s">
+        <v>22</v>
+      </c>
       <c r="D56" s="174" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="E56" s="182" t="s">
-        <v>375</v>
-      </c>
-      <c r="F56" s="211" t="s">
-        <v>377</v>
+        <v>384</v>
+      </c>
+      <c r="F56" s="213" t="s">
+        <v>385</v>
       </c>
       <c r="G56" s="178" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="H56" s="178"/>
       <c r="I56" s="179">
-        <v>43252</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="179.4">
-      <c r="A57" s="173" t="s">
-        <v>372</v>
+        <v>43277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="41.4">
+      <c r="A57" s="196" t="s">
+        <v>381</v>
       </c>
       <c r="B57" s="174" t="s">
-        <v>373</v>
-      </c>
-      <c r="C57" s="174"/>
+        <v>382</v>
+      </c>
+      <c r="C57" s="174" t="s">
+        <v>22</v>
+      </c>
       <c r="D57" s="174" t="s">
-        <v>379</v>
-      </c>
-      <c r="E57" s="182" t="s">
-        <v>380</v>
-      </c>
-      <c r="F57" s="213" t="s">
-        <v>381</v>
+        <v>387</v>
+      </c>
+      <c r="E57" s="182"/>
+      <c r="F57" s="211" t="s">
+        <v>388</v>
       </c>
       <c r="G57" s="178"/>
       <c r="H57" s="178"/>
       <c r="I57" s="179">
-        <v>43290</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="41.4">
-      <c r="A58" s="173" t="s">
+        <v>43278</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="41.4">
+      <c r="A58" s="196" t="s">
+        <v>381</v>
+      </c>
+      <c r="B58" s="174" t="s">
         <v>382</v>
-      </c>
-      <c r="B58" s="174" t="s">
-        <v>383</v>
       </c>
       <c r="C58" s="174" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="174" t="s">
-        <v>384</v>
-      </c>
-      <c r="E58" s="182" t="s">
-        <v>385</v>
-      </c>
-      <c r="F58" s="213" t="s">
-        <v>386</v>
-      </c>
-      <c r="G58" s="178" t="s">
-        <v>387</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="E58" s="182"/>
+      <c r="F58" s="211" t="s">
+        <v>388</v>
+      </c>
+      <c r="G58" s="178"/>
       <c r="H58" s="178"/>
       <c r="I58" s="179">
-        <v>43277</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="41.4">
+        <v>43278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="41.4">
       <c r="A59" s="196" t="s">
+        <v>381</v>
+      </c>
+      <c r="B59" s="174" t="s">
         <v>382</v>
-      </c>
-      <c r="B59" s="174" t="s">
-        <v>383</v>
       </c>
       <c r="C59" s="174" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="174" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E59" s="182"/>
       <c r="F59" s="211" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G59" s="178"/>
       <c r="H59" s="178"/>
@@ -7485,118 +7495,126 @@
         <v>43278</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="41.4">
+    <row r="60" spans="1:9" ht="55.2">
       <c r="A60" s="196" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B60" s="174" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="C60" s="174" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="174" t="s">
-        <v>390</v>
-      </c>
-      <c r="E60" s="182"/>
-      <c r="F60" s="211" t="s">
-        <v>389</v>
+        <v>393</v>
+      </c>
+      <c r="E60" s="182" t="s">
+        <v>949</v>
+      </c>
+      <c r="F60" s="213" t="s">
+        <v>394</v>
       </c>
       <c r="G60" s="178"/>
       <c r="H60" s="178"/>
-      <c r="I60" s="179">
-        <v>43278</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="41.4">
-      <c r="A61" s="196" t="s">
-        <v>382</v>
+      <c r="I60" s="179"/>
+    </row>
+    <row r="61" spans="1:9" ht="41.4">
+      <c r="A61" s="173" t="s">
+        <v>395</v>
       </c>
       <c r="B61" s="174" t="s">
-        <v>383</v>
-      </c>
-      <c r="C61" s="174" t="s">
-        <v>22</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C61" s="174"/>
       <c r="D61" s="174" t="s">
-        <v>391</v>
-      </c>
-      <c r="E61" s="182"/>
-      <c r="F61" s="211" t="s">
-        <v>389</v>
+        <v>397</v>
+      </c>
+      <c r="E61" s="182" t="s">
+        <v>950</v>
+      </c>
+      <c r="F61" s="213" t="s">
+        <v>394</v>
       </c>
       <c r="G61" s="178"/>
       <c r="H61" s="178"/>
-      <c r="I61" s="179">
-        <v>43278</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="55.2">
-      <c r="A62" s="196" t="s">
-        <v>382</v>
-      </c>
-      <c r="B62" s="174" t="s">
-        <v>393</v>
-      </c>
-      <c r="C62" s="174" t="s">
+      <c r="I61" s="179"/>
+    </row>
+    <row r="62" spans="1:9" ht="27.6">
+      <c r="A62" s="173" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="178" t="s">
+        <v>400</v>
+      </c>
+      <c r="C62" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="174" t="s">
-        <v>394</v>
-      </c>
-      <c r="E62" s="182" t="s">
-        <v>950</v>
-      </c>
-      <c r="F62" s="213" t="s">
-        <v>395</v>
-      </c>
-      <c r="G62" s="178"/>
+      <c r="D62" s="178" t="s">
+        <v>401</v>
+      </c>
+      <c r="E62" s="176" t="s">
+        <v>402</v>
+      </c>
+      <c r="F62" s="199" t="s">
+        <v>403</v>
+      </c>
       <c r="H62" s="178"/>
-      <c r="I62" s="179"/>
-    </row>
-    <row r="63" spans="1:10" ht="41.4">
-      <c r="A63" s="173" t="s">
-        <v>396</v>
+      <c r="I62" s="179">
+        <v>43283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="41.4">
+      <c r="A63" s="196" t="s">
+        <v>76</v>
       </c>
       <c r="B63" s="174" t="s">
-        <v>397</v>
-      </c>
-      <c r="C63" s="174"/>
-      <c r="D63" s="174" t="s">
-        <v>398</v>
+        <v>77</v>
+      </c>
+      <c r="C63" s="174" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="214">
+        <v>2320789</v>
       </c>
       <c r="E63" s="182" t="s">
-        <v>951</v>
+        <v>405</v>
       </c>
       <c r="F63" s="213" t="s">
-        <v>395</v>
-      </c>
-      <c r="G63" s="178"/>
+        <v>407</v>
+      </c>
+      <c r="G63" s="178" t="s">
+        <v>408</v>
+      </c>
       <c r="H63" s="178"/>
-      <c r="I63" s="179"/>
-    </row>
-    <row r="64" spans="1:10" ht="27.6">
-      <c r="A64" s="173" t="s">
+      <c r="I63" s="179">
+        <v>43284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="41.4">
+      <c r="A64" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="178" t="s">
-        <v>401</v>
-      </c>
-      <c r="C64" s="178" t="s">
+      <c r="B64" s="174" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="178" t="s">
-        <v>402</v>
-      </c>
-      <c r="E64" s="176" t="s">
-        <v>403</v>
-      </c>
-      <c r="F64" s="199" t="s">
-        <v>404</v>
+      <c r="D64" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="E64" s="182" t="s">
+        <v>405</v>
+      </c>
+      <c r="F64" s="213" t="s">
+        <v>407</v>
+      </c>
+      <c r="G64" s="178" t="s">
+        <v>410</v>
       </c>
       <c r="H64" s="178"/>
       <c r="I64" s="179">
-        <v>43283</v>
+        <v>43285</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="41.4">
@@ -7609,21 +7627,21 @@
       <c r="C65" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="214">
-        <v>2320789</v>
+      <c r="D65" s="214" t="s">
+        <v>411</v>
       </c>
       <c r="E65" s="182" t="s">
-        <v>406</v>
+        <v>101</v>
       </c>
       <c r="F65" s="213" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G65" s="178" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H65" s="178"/>
       <c r="I65" s="179">
-        <v>43284</v>
+        <v>43287</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="41.4">
@@ -7637,20 +7655,20 @@
         <v>22</v>
       </c>
       <c r="D66" s="214" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E66" s="182" t="s">
-        <v>406</v>
+        <v>101</v>
       </c>
       <c r="F66" s="213" t="s">
-        <v>408</v>
-      </c>
-      <c r="G66" s="178" t="s">
-        <v>411</v>
+        <v>407</v>
+      </c>
+      <c r="G66" s="214" t="s">
+        <v>416</v>
       </c>
       <c r="H66" s="178"/>
       <c r="I66" s="179">
-        <v>43285</v>
+        <v>43288</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="41.4">
@@ -7664,21 +7682,19 @@
         <v>22</v>
       </c>
       <c r="D67" s="214" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="E67" s="182" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F67" s="213" t="s">
-        <v>408</v>
-      </c>
-      <c r="G67" s="178" t="s">
-        <v>413</v>
+        <v>421</v>
+      </c>
+      <c r="G67" s="214" t="s">
+        <v>422</v>
       </c>
       <c r="H67" s="178"/>
-      <c r="I67" s="179">
-        <v>43287</v>
-      </c>
+      <c r="I67" s="179"/>
     </row>
     <row r="68" spans="1:9" ht="41.4">
       <c r="A68" s="196" t="s">
@@ -7691,21 +7707,19 @@
         <v>22</v>
       </c>
       <c r="D68" s="214" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="E68" s="182" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F68" s="213" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="G68" s="214" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="H68" s="178"/>
-      <c r="I68" s="179">
-        <v>43288</v>
-      </c>
+      <c r="I68" s="179"/>
     </row>
     <row r="69" spans="1:9" ht="41.4">
       <c r="A69" s="196" t="s">
@@ -7717,17 +7731,17 @@
       <c r="C69" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="214" t="s">
-        <v>419</v>
+      <c r="D69" s="200" t="s">
+        <v>431</v>
       </c>
       <c r="E69" s="182" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F69" s="213" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="G69" s="214" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="H69" s="178"/>
       <c r="I69" s="179"/>
@@ -7742,17 +7756,17 @@
       <c r="C70" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="214" t="s">
-        <v>424</v>
+      <c r="D70" s="200" t="s">
+        <v>434</v>
       </c>
       <c r="E70" s="182" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F70" s="213" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G70" s="214" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="H70" s="178"/>
       <c r="I70" s="179"/>
@@ -7768,23 +7782,23 @@
         <v>22</v>
       </c>
       <c r="D71" s="200" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E71" s="182" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F71" s="213" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G71" s="214" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="H71" s="178"/>
       <c r="I71" s="179"/>
     </row>
-    <row r="72" spans="1:9" ht="41.4">
-      <c r="A72" s="196" t="s">
-        <v>76</v>
+    <row r="72" spans="1:9" ht="262.2">
+      <c r="A72" s="173" t="s">
+        <v>442</v>
       </c>
       <c r="B72" s="174" t="s">
         <v>77</v>
@@ -7792,24 +7806,24 @@
       <c r="C72" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="200" t="s">
-        <v>435</v>
+      <c r="D72" s="215">
+        <v>2368196</v>
       </c>
       <c r="E72" s="182" t="s">
-        <v>102</v>
+        <v>444</v>
       </c>
       <c r="F72" s="213" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="G72" s="214" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="H72" s="178"/>
       <c r="I72" s="179"/>
     </row>
     <row r="73" spans="1:9" ht="41.4">
       <c r="A73" s="196" t="s">
-        <v>76</v>
+        <v>447</v>
       </c>
       <c r="B73" s="174" t="s">
         <v>77</v>
@@ -7817,24 +7831,26 @@
       <c r="C73" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="200" t="s">
-        <v>437</v>
+      <c r="D73" s="216">
+        <v>2356457</v>
       </c>
       <c r="E73" s="182" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="213" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G73" s="214" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="H73" s="178"/>
-      <c r="I73" s="179"/>
-    </row>
-    <row r="74" spans="1:9" ht="262.2">
+      <c r="I73" s="179">
+        <v>43289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="55.2">
       <c r="A74" s="173" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B74" s="174" t="s">
         <v>77</v>
@@ -7842,51 +7858,49 @@
       <c r="C74" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="215">
-        <v>2368196</v>
+      <c r="D74" s="216">
+        <v>535230</v>
       </c>
       <c r="E74" s="182" t="s">
-        <v>445</v>
+        <v>101</v>
       </c>
       <c r="F74" s="213" t="s">
-        <v>446</v>
+        <v>407</v>
       </c>
       <c r="G74" s="214" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H74" s="178"/>
-      <c r="I74" s="179"/>
-    </row>
-    <row r="75" spans="1:9" ht="41.4">
-      <c r="A75" s="196" t="s">
-        <v>448</v>
+      <c r="I74" s="179">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="55.2">
+      <c r="A75" s="217" t="s">
+        <v>452</v>
       </c>
       <c r="B75" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" s="174" t="s">
-        <v>22</v>
-      </c>
-      <c r="D75" s="216">
-        <v>2356457</v>
+        <v>453</v>
+      </c>
+      <c r="C75" s="174"/>
+      <c r="D75" s="214" t="s">
+        <v>364</v>
       </c>
       <c r="E75" s="182" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F75" s="213" t="s">
-        <v>408</v>
-      </c>
-      <c r="G75" s="214" t="s">
-        <v>450</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="G75" s="214"/>
       <c r="H75" s="178"/>
       <c r="I75" s="179">
-        <v>43289</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="55.2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="193.2">
       <c r="A76" s="173" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B76" s="174" t="s">
         <v>77</v>
@@ -7895,175 +7909,179 @@
         <v>22</v>
       </c>
       <c r="D76" s="216">
-        <v>535230</v>
+        <v>2410583</v>
       </c>
       <c r="E76" s="182" t="s">
-        <v>102</v>
+        <v>456</v>
       </c>
       <c r="F76" s="213" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="G76" s="214" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="H76" s="178"/>
       <c r="I76" s="179">
-        <v>43290</v>
+        <v>43291</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="55.2">
-      <c r="A77" s="217" t="s">
-        <v>453</v>
+      <c r="A77" s="173" t="s">
+        <v>459</v>
       </c>
       <c r="B77" s="174" t="s">
-        <v>454</v>
-      </c>
-      <c r="C77" s="174"/>
-      <c r="D77" s="214" t="s">
-        <v>365</v>
-      </c>
-      <c r="E77" s="182" t="s">
-        <v>102</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="C77" s="174" t="s">
+        <v>461</v>
+      </c>
+      <c r="D77" s="178" t="s">
+        <v>207</v>
+      </c>
+      <c r="E77" s="218"/>
       <c r="F77" s="213" t="s">
-        <v>455</v>
-      </c>
-      <c r="G77" s="214"/>
+        <v>462</v>
+      </c>
+      <c r="G77" s="178" t="s">
+        <v>463</v>
+      </c>
       <c r="H77" s="178"/>
       <c r="I77" s="179">
-        <v>43288</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="193.2">
-      <c r="A78" s="173" t="s">
-        <v>456</v>
-      </c>
-      <c r="B78" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="C78" s="174" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" s="216">
-        <v>2410583</v>
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="55.2">
+      <c r="A78" s="196" t="s">
+        <v>459</v>
+      </c>
+      <c r="B78" s="174"/>
+      <c r="C78" s="174"/>
+      <c r="D78" s="174" t="s">
+        <v>464</v>
       </c>
       <c r="E78" s="182" t="s">
-        <v>457</v>
-      </c>
-      <c r="F78" s="213" t="s">
-        <v>455</v>
-      </c>
-      <c r="G78" s="214" t="s">
-        <v>458</v>
+        <v>465</v>
+      </c>
+      <c r="F78" s="211" t="s">
+        <v>466</v>
+      </c>
+      <c r="G78" s="178" t="s">
+        <v>467</v>
       </c>
       <c r="H78" s="178"/>
       <c r="I78" s="179">
-        <v>43291</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="55.2">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="151.80000000000001">
       <c r="A79" s="173" t="s">
+        <v>468</v>
+      </c>
+      <c r="B79" s="174" t="s">
         <v>460</v>
       </c>
-      <c r="B79" s="174" t="s">
-        <v>461</v>
-      </c>
       <c r="C79" s="174" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="D79" s="178" t="s">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="E79" s="218"/>
-      <c r="F79" s="213" t="s">
-        <v>463</v>
+      <c r="F79" s="211" t="s">
+        <v>471</v>
       </c>
       <c r="G79" s="178" t="s">
-        <v>464</v>
-      </c>
-      <c r="H79" s="178"/>
+        <v>472</v>
+      </c>
+      <c r="H79" s="178" t="s">
+        <v>472</v>
+      </c>
       <c r="I79" s="179">
         <v>43196</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="55.2">
-      <c r="A80" s="196" t="s">
-        <v>460</v>
-      </c>
-      <c r="B80" s="174"/>
+    <row r="80" spans="1:9" ht="124.2">
+      <c r="A80" s="173" t="s">
+        <v>473</v>
+      </c>
+      <c r="B80" s="174" t="s">
+        <v>474</v>
+      </c>
       <c r="C80" s="174"/>
-      <c r="D80" s="174" t="s">
-        <v>465</v>
+      <c r="D80" s="175" t="s">
+        <v>475</v>
       </c>
       <c r="E80" s="182" t="s">
-        <v>466</v>
-      </c>
-      <c r="F80" s="211" t="s">
-        <v>467</v>
+        <v>476</v>
+      </c>
+      <c r="F80" s="213" t="s">
+        <v>477</v>
       </c>
       <c r="G80" s="178" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="H80" s="178"/>
       <c r="I80" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="151.80000000000001">
+        <v>43264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="409.6">
       <c r="A81" s="173" t="s">
-        <v>469</v>
-      </c>
-      <c r="B81" s="174" t="s">
-        <v>461</v>
-      </c>
-      <c r="C81" s="174" t="s">
-        <v>470</v>
-      </c>
-      <c r="D81" s="178" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" s="218"/>
-      <c r="F81" s="211" t="s">
-        <v>472</v>
+        <v>480</v>
+      </c>
+      <c r="B81" s="178" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="194">
+        <v>8001266</v>
+      </c>
+      <c r="D81" s="200" t="s">
+        <v>487</v>
+      </c>
+      <c r="E81" s="192" t="s">
+        <v>488</v>
+      </c>
+      <c r="F81" s="199" t="s">
+        <v>489</v>
       </c>
       <c r="G81" s="178" t="s">
-        <v>473</v>
-      </c>
-      <c r="H81" s="178" t="s">
-        <v>473</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="H81" s="178"/>
       <c r="I81" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="124.2">
-      <c r="A82" s="173" t="s">
-        <v>474</v>
-      </c>
-      <c r="B82" s="174" t="s">
-        <v>475</v>
-      </c>
-      <c r="C82" s="174"/>
-      <c r="D82" s="175" t="s">
-        <v>476</v>
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="41.4">
+      <c r="A82" s="196" t="s">
+        <v>480</v>
+      </c>
+      <c r="B82" s="178" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" s="194">
+        <v>8001266</v>
+      </c>
+      <c r="D82" s="200" t="s">
+        <v>491</v>
       </c>
       <c r="E82" s="182" t="s">
-        <v>477</v>
-      </c>
-      <c r="F82" s="213" t="s">
-        <v>478</v>
+        <v>488</v>
+      </c>
+      <c r="F82" s="199" t="s">
+        <v>492</v>
       </c>
       <c r="G82" s="178" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="H82" s="178"/>
       <c r="I82" s="179">
-        <v>43264</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="409.6">
-      <c r="A83" s="173" t="s">
-        <v>481</v>
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="69">
+      <c r="A83" s="196" t="s">
+        <v>480</v>
       </c>
       <c r="B83" s="178" t="s">
         <v>45</v>
@@ -8072,25 +8090,25 @@
         <v>8001266</v>
       </c>
       <c r="D83" s="200" t="s">
-        <v>488</v>
-      </c>
-      <c r="E83" s="192" t="s">
-        <v>489</v>
+        <v>497</v>
+      </c>
+      <c r="E83" s="219" t="s">
+        <v>498</v>
       </c>
       <c r="F83" s="199" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="G83" s="178" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="H83" s="178"/>
       <c r="I83" s="179">
         <v>43240</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="41.4">
+    <row r="84" spans="1:10" ht="55.2">
       <c r="A84" s="196" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B84" s="178" t="s">
         <v>45</v>
@@ -8099,25 +8117,25 @@
         <v>8001266</v>
       </c>
       <c r="D84" s="200" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="E84" s="182" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F84" s="199" t="s">
-        <v>493</v>
-      </c>
-      <c r="G84" s="178" t="s">
-        <v>497</v>
-      </c>
-      <c r="H84" s="178"/>
+        <v>502</v>
+      </c>
+      <c r="G84" s="180" t="s">
+        <v>490</v>
+      </c>
+      <c r="H84" s="174"/>
       <c r="I84" s="179">
         <v>43240</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="69">
+    <row r="85" spans="1:10" ht="138">
       <c r="A85" s="196" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B85" s="178" t="s">
         <v>45</v>
@@ -8126,25 +8144,25 @@
         <v>8001266</v>
       </c>
       <c r="D85" s="200" t="s">
-        <v>498</v>
-      </c>
-      <c r="E85" s="219" t="s">
-        <v>499</v>
+        <v>503</v>
+      </c>
+      <c r="E85" s="176" t="s">
+        <v>488</v>
       </c>
       <c r="F85" s="199" t="s">
-        <v>500</v>
-      </c>
-      <c r="G85" s="178" t="s">
-        <v>501</v>
-      </c>
-      <c r="H85" s="178"/>
+        <v>504</v>
+      </c>
+      <c r="G85" s="199" t="s">
+        <v>506</v>
+      </c>
+      <c r="H85" s="194"/>
       <c r="I85" s="179">
         <v>43240</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="55.2">
+    <row r="86" spans="1:10" ht="69">
       <c r="A86" s="196" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B86" s="178" t="s">
         <v>45</v>
@@ -8153,25 +8171,25 @@
         <v>8001266</v>
       </c>
       <c r="D86" s="200" t="s">
-        <v>502</v>
-      </c>
-      <c r="E86" s="182" t="s">
-        <v>489</v>
+        <v>507</v>
+      </c>
+      <c r="E86" s="176" t="s">
+        <v>488</v>
       </c>
       <c r="F86" s="199" t="s">
-        <v>503</v>
-      </c>
-      <c r="G86" s="180" t="s">
-        <v>491</v>
-      </c>
-      <c r="H86" s="174"/>
+        <v>508</v>
+      </c>
+      <c r="G86" s="178" t="s">
+        <v>509</v>
+      </c>
+      <c r="H86" s="178"/>
       <c r="I86" s="179">
         <v>43240</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="138">
+    <row r="87" spans="1:10" ht="69">
       <c r="A87" s="196" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B87" s="178" t="s">
         <v>45</v>
@@ -8180,479 +8198,471 @@
         <v>8001266</v>
       </c>
       <c r="D87" s="200" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="E87" s="176" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="F87" s="199" t="s">
-        <v>505</v>
-      </c>
-      <c r="G87" s="199" t="s">
-        <v>507</v>
-      </c>
-      <c r="H87" s="194"/>
+        <v>512</v>
+      </c>
+      <c r="G87" s="178" t="s">
+        <v>513</v>
+      </c>
+      <c r="H87" s="178"/>
       <c r="I87" s="179">
         <v>43240</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="69">
-      <c r="A88" s="196" t="s">
-        <v>481</v>
+      <c r="A88" s="173" t="s">
+        <v>514</v>
       </c>
       <c r="B88" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C88" s="194">
-        <v>8001266</v>
-      </c>
-      <c r="D88" s="200" t="s">
-        <v>508</v>
-      </c>
-      <c r="E88" s="176" t="s">
-        <v>489</v>
-      </c>
-      <c r="F88" s="199" t="s">
-        <v>509</v>
-      </c>
-      <c r="G88" s="178" t="s">
-        <v>510</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C88" s="174" t="s">
+        <v>515</v>
+      </c>
+      <c r="D88" s="174" t="s">
+        <v>516</v>
+      </c>
+      <c r="E88" s="182" t="s">
+        <v>951</v>
+      </c>
+      <c r="F88" s="211" t="s">
+        <v>518</v>
+      </c>
+      <c r="G88" s="178"/>
       <c r="H88" s="178"/>
       <c r="I88" s="179">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="69">
-      <c r="A89" s="196" t="s">
-        <v>481</v>
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="96.6">
+      <c r="A89" s="173" t="s">
+        <v>519</v>
       </c>
       <c r="B89" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C89" s="194">
-        <v>8001266</v>
-      </c>
-      <c r="D89" s="200" t="s">
-        <v>511</v>
-      </c>
-      <c r="E89" s="176" t="s">
-        <v>512</v>
-      </c>
-      <c r="F89" s="199" t="s">
-        <v>513</v>
+        <v>520</v>
+      </c>
+      <c r="C89" s="174"/>
+      <c r="D89" s="174" t="s">
+        <v>521</v>
+      </c>
+      <c r="E89" s="182" t="s">
+        <v>522</v>
+      </c>
+      <c r="F89" s="213" t="s">
+        <v>962</v>
       </c>
       <c r="G89" s="178" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="H89" s="178"/>
-      <c r="I89" s="179">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="69">
-      <c r="A90" s="173" t="s">
-        <v>515</v>
+      <c r="I89" s="179"/>
+    </row>
+    <row r="90" spans="1:10" ht="138">
+      <c r="A90" s="196" t="s">
+        <v>519</v>
       </c>
       <c r="B90" s="178" t="s">
-        <v>151</v>
-      </c>
-      <c r="C90" s="174" t="s">
-        <v>516</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="C90" s="174"/>
       <c r="D90" s="174" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="E90" s="182" t="s">
-        <v>952</v>
-      </c>
-      <c r="F90" s="211" t="s">
+        <v>526</v>
+      </c>
+      <c r="F90" s="213" t="s">
+        <v>963</v>
+      </c>
+      <c r="G90" s="178" t="s">
+        <v>528</v>
+      </c>
+      <c r="H90" s="178"/>
+      <c r="I90" s="179"/>
+    </row>
+    <row r="91" spans="1:10" ht="234.6">
+      <c r="A91" s="196" t="s">
         <v>519</v>
       </c>
-      <c r="G90" s="178"/>
-      <c r="H90" s="178"/>
-      <c r="I90" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="96.6">
-      <c r="A91" s="173" t="s">
-        <v>520</v>
-      </c>
-      <c r="B91" s="178" t="s">
-        <v>521</v>
-      </c>
+      <c r="B91" s="178"/>
       <c r="C91" s="174"/>
       <c r="D91" s="174" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="E91" s="182" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="F91" s="213" t="s">
-        <v>963</v>
-      </c>
-      <c r="G91" s="178" t="s">
-        <v>525</v>
+        <v>964</v>
+      </c>
+      <c r="G91" s="194" t="s">
+        <v>532</v>
       </c>
       <c r="H91" s="178"/>
       <c r="I91" s="179"/>
     </row>
-    <row r="92" spans="1:10" ht="138">
-      <c r="A92" s="196" t="s">
-        <v>520</v>
+    <row r="92" spans="1:10" ht="82.8">
+      <c r="A92" s="173" t="s">
+        <v>533</v>
       </c>
       <c r="B92" s="178" t="s">
-        <v>521</v>
-      </c>
-      <c r="C92" s="174"/>
+        <v>150</v>
+      </c>
+      <c r="C92" s="174" t="s">
+        <v>534</v>
+      </c>
       <c r="D92" s="174" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="E92" s="182" t="s">
-        <v>527</v>
-      </c>
-      <c r="F92" s="213" t="s">
-        <v>964</v>
-      </c>
-      <c r="G92" s="178" t="s">
-        <v>529</v>
+        <v>952</v>
+      </c>
+      <c r="F92" s="199" t="s">
+        <v>537</v>
+      </c>
+      <c r="G92" s="174" t="s">
+        <v>538</v>
       </c>
       <c r="H92" s="178"/>
-      <c r="I92" s="179"/>
-    </row>
-    <row r="93" spans="1:10" ht="234.6">
-      <c r="A93" s="196" t="s">
-        <v>520</v>
-      </c>
-      <c r="B93" s="178"/>
-      <c r="C93" s="174"/>
-      <c r="D93" s="174" t="s">
-        <v>530</v>
+      <c r="I92" s="179">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="55.2">
+      <c r="A93" s="181" t="s">
+        <v>539</v>
+      </c>
+      <c r="B93" s="178" t="s">
+        <v>546</v>
+      </c>
+      <c r="C93" s="178"/>
+      <c r="D93" s="175" t="s">
+        <v>552</v>
       </c>
       <c r="E93" s="182" t="s">
-        <v>531</v>
-      </c>
-      <c r="F93" s="213" t="s">
-        <v>965</v>
-      </c>
-      <c r="G93" s="194" t="s">
-        <v>533</v>
+        <v>553</v>
+      </c>
+      <c r="F93" s="201" t="s">
+        <v>554</v>
+      </c>
+      <c r="G93" s="178" t="s">
+        <v>558</v>
       </c>
       <c r="H93" s="178"/>
-      <c r="I93" s="179"/>
-    </row>
-    <row r="94" spans="1:10" ht="82.8">
+      <c r="I93" s="179">
+        <v>76138</v>
+      </c>
+      <c r="J93" s="178"/>
+    </row>
+    <row r="94" spans="1:10" ht="96.6">
       <c r="A94" s="173" t="s">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="B94" s="178" t="s">
-        <v>151</v>
-      </c>
-      <c r="C94" s="174" t="s">
-        <v>535</v>
-      </c>
-      <c r="D94" s="174" t="s">
-        <v>536</v>
+        <v>546</v>
+      </c>
+      <c r="C94" s="178"/>
+      <c r="D94" s="175" t="s">
+        <v>569</v>
       </c>
       <c r="E94" s="182" t="s">
         <v>953</v>
       </c>
       <c r="F94" s="199" t="s">
-        <v>538</v>
-      </c>
-      <c r="G94" s="174" t="s">
-        <v>539</v>
+        <v>578</v>
+      </c>
+      <c r="G94" s="178" t="s">
+        <v>582</v>
       </c>
       <c r="H94" s="178"/>
       <c r="I94" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="55.2">
-      <c r="A95" s="181" t="s">
-        <v>540</v>
+        <v>76138</v>
+      </c>
+      <c r="J94" s="178"/>
+    </row>
+    <row r="95" spans="1:10" ht="41.4">
+      <c r="A95" s="173" t="s">
+        <v>587</v>
       </c>
       <c r="B95" s="178" t="s">
-        <v>547</v>
+        <v>591</v>
       </c>
       <c r="C95" s="178"/>
-      <c r="D95" s="175" t="s">
-        <v>553</v>
+      <c r="D95" s="174" t="s">
+        <v>592</v>
       </c>
       <c r="E95" s="182" t="s">
-        <v>554</v>
+        <v>593</v>
       </c>
       <c r="F95" s="201" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="G95" s="178" t="s">
-        <v>559</v>
+        <v>597</v>
       </c>
       <c r="H95" s="178"/>
-      <c r="I95" s="179">
-        <v>76138</v>
-      </c>
+      <c r="I95" s="179"/>
       <c r="J95" s="178"/>
     </row>
-    <row r="96" spans="1:10" ht="96.6">
+    <row r="96" spans="1:10" ht="55.2">
       <c r="A96" s="173" t="s">
-        <v>565</v>
+        <v>598</v>
       </c>
       <c r="B96" s="178" t="s">
-        <v>547</v>
-      </c>
-      <c r="C96" s="178"/>
-      <c r="D96" s="175" t="s">
-        <v>570</v>
-      </c>
-      <c r="E96" s="182" t="s">
-        <v>954</v>
-      </c>
-      <c r="F96" s="199" t="s">
-        <v>579</v>
-      </c>
-      <c r="G96" s="178" t="s">
-        <v>583</v>
-      </c>
-      <c r="H96" s="178"/>
+        <v>45</v>
+      </c>
+      <c r="C96" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" s="197" t="s">
+        <v>599</v>
+      </c>
+      <c r="E96" s="176"/>
+      <c r="F96" s="220" t="s">
+        <v>965</v>
+      </c>
+      <c r="G96" s="178"/>
+      <c r="H96" s="178" t="s">
+        <v>605</v>
+      </c>
       <c r="I96" s="179">
-        <v>76138</v>
-      </c>
-      <c r="J96" s="178"/>
-    </row>
-    <row r="97" spans="1:10" ht="41.4">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="27.6">
       <c r="A97" s="173" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="B97" s="178" t="s">
-        <v>592</v>
+        <v>221</v>
       </c>
       <c r="C97" s="178"/>
-      <c r="D97" s="174" t="s">
-        <v>593</v>
-      </c>
-      <c r="E97" s="182" t="s">
-        <v>594</v>
-      </c>
-      <c r="F97" s="201" t="s">
-        <v>595</v>
-      </c>
-      <c r="G97" s="178" t="s">
-        <v>598</v>
-      </c>
+      <c r="D97" s="238">
+        <v>2243686</v>
+      </c>
+      <c r="E97" s="176" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F97" s="220" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G97" s="178"/>
       <c r="H97" s="178"/>
       <c r="I97" s="179"/>
-      <c r="J97" s="178"/>
-    </row>
-    <row r="98" spans="1:10" ht="55.2">
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="173" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="B98" s="178" t="s">
+        <v>613</v>
+      </c>
+      <c r="C98" s="178">
+        <v>8001119</v>
+      </c>
+      <c r="D98" s="194"/>
+      <c r="E98" s="176"/>
+      <c r="F98" s="199" t="s">
+        <v>616</v>
+      </c>
+      <c r="G98" s="178" t="s">
+        <v>617</v>
+      </c>
+      <c r="H98" s="178" t="s">
+        <v>618</v>
+      </c>
+      <c r="I98" s="179">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="82.8">
+      <c r="A99" s="173" t="s">
+        <v>619</v>
+      </c>
+      <c r="B99" s="174" t="s">
+        <v>483</v>
+      </c>
+      <c r="C99" s="178">
+        <v>8001130</v>
+      </c>
+      <c r="D99" s="174" t="s">
+        <v>621</v>
+      </c>
+      <c r="E99" s="182" t="s">
+        <v>622</v>
+      </c>
+      <c r="F99" s="199" t="s">
+        <v>623</v>
+      </c>
+      <c r="G99" s="178" t="s">
+        <v>624</v>
+      </c>
+      <c r="H99" s="178" t="s">
+        <v>618</v>
+      </c>
+      <c r="I99" s="179">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="27.6">
+      <c r="A100" s="173" t="s">
+        <v>625</v>
+      </c>
+      <c r="B100" s="174" t="s">
+        <v>626</v>
+      </c>
+      <c r="C100" s="174" t="s">
+        <v>627</v>
+      </c>
+      <c r="D100" s="174" t="s">
+        <v>628</v>
+      </c>
+      <c r="E100" s="182" t="s">
+        <v>629</v>
+      </c>
+      <c r="F100" s="201" t="s">
+        <v>630</v>
+      </c>
+      <c r="G100" s="178" t="s">
+        <v>631</v>
+      </c>
+      <c r="H100" s="178"/>
+      <c r="I100" s="179">
+        <v>43266</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="41.4">
+      <c r="A101" s="173" t="s">
+        <v>632</v>
+      </c>
+      <c r="B101" s="174" t="s">
+        <v>634</v>
+      </c>
+      <c r="C101" s="178"/>
+      <c r="D101" s="175" t="s">
+        <v>635</v>
+      </c>
+      <c r="E101" s="182" t="s">
+        <v>101</v>
+      </c>
+      <c r="F101" s="201" t="s">
+        <v>637</v>
+      </c>
+      <c r="G101" s="178" t="s">
+        <v>638</v>
+      </c>
+      <c r="H101" s="178"/>
+      <c r="I101" s="179"/>
+    </row>
+    <row r="102" spans="1:9" ht="69">
+      <c r="A102" s="173" t="s">
+        <v>641</v>
+      </c>
+      <c r="B102" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="C98" s="178" t="s">
+      <c r="C102" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D98" s="197" t="s">
-        <v>600</v>
-      </c>
-      <c r="E98" s="176"/>
-      <c r="F98" s="220" t="s">
-        <v>966</v>
-      </c>
-      <c r="G98" s="178"/>
-      <c r="H98" s="178" t="s">
-        <v>606</v>
-      </c>
-      <c r="I98" s="179">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="27.6">
-      <c r="A99" s="173" t="s">
-        <v>607</v>
-      </c>
-      <c r="B99" s="178" t="s">
-        <v>222</v>
-      </c>
-      <c r="C99" s="178"/>
-      <c r="D99" s="238">
-        <v>2243686</v>
-      </c>
-      <c r="E99" s="176" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F99" s="220" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G99" s="178"/>
-      <c r="H99" s="178"/>
-      <c r="I99" s="179"/>
-    </row>
-    <row r="100" spans="1:10">
-      <c r="A100" s="173" t="s">
-        <v>613</v>
-      </c>
-      <c r="B100" s="178" t="s">
-        <v>614</v>
-      </c>
-      <c r="C100" s="178">
-        <v>8001119</v>
-      </c>
-      <c r="D100" s="194"/>
-      <c r="E100" s="176"/>
-      <c r="F100" s="199" t="s">
-        <v>617</v>
-      </c>
-      <c r="G100" s="178" t="s">
-        <v>618</v>
-      </c>
-      <c r="H100" s="178" t="s">
-        <v>619</v>
-      </c>
-      <c r="I100" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="82.8">
-      <c r="A101" s="173" t="s">
-        <v>620</v>
-      </c>
-      <c r="B101" s="174" t="s">
-        <v>484</v>
-      </c>
-      <c r="C101" s="178">
-        <v>8001130</v>
-      </c>
-      <c r="D101" s="174" t="s">
-        <v>622</v>
-      </c>
-      <c r="E101" s="182" t="s">
-        <v>623</v>
-      </c>
-      <c r="F101" s="199" t="s">
-        <v>624</v>
-      </c>
-      <c r="G101" s="178" t="s">
-        <v>625</v>
-      </c>
-      <c r="H101" s="178" t="s">
-        <v>619</v>
-      </c>
-      <c r="I101" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="27.6">
-      <c r="A102" s="173" t="s">
-        <v>626</v>
-      </c>
-      <c r="B102" s="174" t="s">
-        <v>627</v>
-      </c>
-      <c r="C102" s="174" t="s">
-        <v>628</v>
-      </c>
-      <c r="D102" s="174" t="s">
-        <v>629</v>
-      </c>
-      <c r="E102" s="182" t="s">
-        <v>630</v>
-      </c>
-      <c r="F102" s="201" t="s">
-        <v>631</v>
+      <c r="D102" s="234" t="s">
+        <v>984</v>
+      </c>
+      <c r="E102" s="236" t="s">
+        <v>990</v>
+      </c>
+      <c r="F102" s="199" t="s">
+        <v>991</v>
       </c>
       <c r="G102" s="178" t="s">
-        <v>632</v>
+        <v>1000</v>
       </c>
       <c r="H102" s="178"/>
       <c r="I102" s="179">
-        <v>43266</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="41.4">
-      <c r="A103" s="173" t="s">
-        <v>633</v>
-      </c>
-      <c r="B103" s="174" t="s">
-        <v>635</v>
-      </c>
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="69">
+      <c r="A103" s="196" t="s">
+        <v>641</v>
+      </c>
+      <c r="B103" s="178"/>
       <c r="C103" s="178"/>
-      <c r="D103" s="175" t="s">
-        <v>636</v>
-      </c>
-      <c r="E103" s="182" t="s">
-        <v>102</v>
-      </c>
-      <c r="F103" s="201" t="s">
-        <v>638</v>
+      <c r="D103" s="235" t="s">
+        <v>985</v>
+      </c>
+      <c r="E103" s="236" t="s">
+        <v>990</v>
+      </c>
+      <c r="F103" s="199" t="s">
+        <v>992</v>
       </c>
       <c r="G103" s="178" t="s">
-        <v>639</v>
+        <v>999</v>
       </c>
       <c r="H103" s="178"/>
-      <c r="I103" s="179"/>
-    </row>
-    <row r="104" spans="1:10" ht="69">
-      <c r="A104" s="173" t="s">
-        <v>642</v>
-      </c>
-      <c r="B104" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C104" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D104" s="234" t="s">
-        <v>985</v>
+      <c r="I103" s="179">
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="69">
+      <c r="A104" s="196" t="s">
+        <v>641</v>
+      </c>
+      <c r="B104" s="178"/>
+      <c r="C104" s="178"/>
+      <c r="D104" s="235" t="s">
+        <v>986</v>
       </c>
       <c r="E104" s="236" t="s">
+        <v>993</v>
+      </c>
+      <c r="F104" s="199" t="s">
         <v>991</v>
       </c>
-      <c r="F104" s="199" t="s">
-        <v>992</v>
-      </c>
       <c r="G104" s="178" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="H104" s="178"/>
       <c r="I104" s="179">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="69">
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="55.2">
       <c r="A105" s="196" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B105" s="178"/>
       <c r="C105" s="178"/>
       <c r="D105" s="235" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E105" s="236" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="F105" s="199" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G105" s="178" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="H105" s="178"/>
       <c r="I105" s="179">
         <v>43298</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="69">
+    <row r="106" spans="1:9" ht="69">
       <c r="A106" s="196" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B106" s="178"/>
       <c r="C106" s="178"/>
       <c r="D106" s="235" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E106" s="236" t="s">
         <v>994</v>
@@ -8661,598 +8671,606 @@
         <v>992</v>
       </c>
       <c r="G106" s="178" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="H106" s="178"/>
       <c r="I106" s="179">
         <v>43298</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="55.2">
+    <row r="107" spans="1:9" ht="69">
       <c r="A107" s="196" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B107" s="178"/>
       <c r="C107" s="178"/>
       <c r="D107" s="235" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E107" s="236" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F107" s="199" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G107" s="178" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="H107" s="178"/>
       <c r="I107" s="179">
         <v>43298</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="69">
-      <c r="A108" s="196" t="s">
-        <v>642</v>
-      </c>
-      <c r="B108" s="178"/>
+    <row r="108" spans="1:9" ht="124.2">
+      <c r="A108" s="173" t="s">
+        <v>655</v>
+      </c>
+      <c r="B108" s="178" t="s">
+        <v>591</v>
+      </c>
       <c r="C108" s="178"/>
-      <c r="D108" s="235" t="s">
-        <v>989</v>
-      </c>
-      <c r="E108" s="236" t="s">
-        <v>995</v>
+      <c r="D108" s="174" t="s">
+        <v>656</v>
+      </c>
+      <c r="E108" s="182" t="s">
+        <v>657</v>
       </c>
       <c r="F108" s="199" t="s">
-        <v>993</v>
+        <v>658</v>
       </c>
       <c r="G108" s="178" t="s">
-        <v>997</v>
+        <v>660</v>
       </c>
       <c r="H108" s="178"/>
-      <c r="I108" s="179">
-        <v>43298</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="69">
+      <c r="I108" s="179"/>
+    </row>
+    <row r="109" spans="1:9" ht="138">
       <c r="A109" s="196" t="s">
-        <v>642</v>
-      </c>
-      <c r="B109" s="178"/>
+        <v>655</v>
+      </c>
+      <c r="B109" s="178" t="s">
+        <v>661</v>
+      </c>
       <c r="C109" s="178"/>
-      <c r="D109" s="235" t="s">
-        <v>990</v>
-      </c>
-      <c r="E109" s="236" t="s">
-        <v>996</v>
+      <c r="D109" s="174" t="s">
+        <v>662</v>
+      </c>
+      <c r="E109" s="182" t="s">
+        <v>663</v>
       </c>
       <c r="F109" s="199" t="s">
-        <v>993</v>
+        <v>658</v>
       </c>
       <c r="G109" s="178" t="s">
-        <v>1002</v>
+        <v>664</v>
       </c>
       <c r="H109" s="178"/>
-      <c r="I109" s="179">
-        <v>43298</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="124.2">
-      <c r="A110" s="173" t="s">
-        <v>656</v>
+      <c r="I109" s="179"/>
+    </row>
+    <row r="110" spans="1:9" ht="124.2">
+      <c r="A110" s="196" t="s">
+        <v>655</v>
       </c>
       <c r="B110" s="178" t="s">
-        <v>592</v>
+        <v>665</v>
       </c>
       <c r="C110" s="178"/>
       <c r="D110" s="174" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="E110" s="182" t="s">
+        <v>667</v>
+      </c>
+      <c r="F110" s="199" t="s">
         <v>658</v>
       </c>
-      <c r="F110" s="199" t="s">
-        <v>659</v>
-      </c>
-      <c r="G110" s="178" t="s">
-        <v>661</v>
+      <c r="G110" s="194" t="s">
+        <v>668</v>
       </c>
       <c r="H110" s="178"/>
       <c r="I110" s="179"/>
     </row>
-    <row r="111" spans="1:10" ht="138">
-      <c r="A111" s="196" t="s">
-        <v>656</v>
+    <row r="111" spans="1:9" ht="82.8">
+      <c r="A111" s="173" t="s">
+        <v>669</v>
       </c>
       <c r="B111" s="178" t="s">
-        <v>662</v>
-      </c>
-      <c r="C111" s="178"/>
+        <v>150</v>
+      </c>
+      <c r="C111" s="174" t="s">
+        <v>670</v>
+      </c>
       <c r="D111" s="174" t="s">
-        <v>663</v>
-      </c>
-      <c r="E111" s="182" t="s">
-        <v>664</v>
-      </c>
-      <c r="F111" s="199" t="s">
-        <v>659</v>
+        <v>672</v>
+      </c>
+      <c r="E111" s="176"/>
+      <c r="F111" s="204" t="s">
+        <v>674</v>
       </c>
       <c r="G111" s="178" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="H111" s="178"/>
-      <c r="I111" s="179"/>
-    </row>
-    <row r="112" spans="1:10" ht="124.2">
-      <c r="A112" s="196" t="s">
-        <v>656</v>
-      </c>
-      <c r="B112" s="178" t="s">
-        <v>666</v>
-      </c>
-      <c r="C112" s="178"/>
-      <c r="D112" s="174" t="s">
-        <v>667</v>
-      </c>
-      <c r="E112" s="182" t="s">
-        <v>668</v>
-      </c>
-      <c r="F112" s="199" t="s">
-        <v>659</v>
-      </c>
-      <c r="G112" s="194" t="s">
-        <v>669</v>
-      </c>
+      <c r="I111" s="179">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="41.4">
+      <c r="A112" s="173" t="s">
+        <v>684</v>
+      </c>
+      <c r="B112" s="174" t="s">
+        <v>77</v>
+      </c>
+      <c r="C112" s="174" t="s">
+        <v>22</v>
+      </c>
+      <c r="D112" s="175" t="s">
+        <v>686</v>
+      </c>
+      <c r="E112" s="182"/>
+      <c r="F112" s="211" t="s">
+        <v>966</v>
+      </c>
+      <c r="G112" s="178"/>
       <c r="H112" s="178"/>
-      <c r="I112" s="179"/>
-    </row>
-    <row r="113" spans="1:9" ht="82.8">
+      <c r="I112" s="179">
+        <v>43276</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="41.4">
       <c r="A113" s="173" t="s">
-        <v>670</v>
-      </c>
-      <c r="B113" s="178" t="s">
-        <v>151</v>
+        <v>684</v>
+      </c>
+      <c r="B113" s="174" t="s">
+        <v>77</v>
       </c>
       <c r="C113" s="174" t="s">
-        <v>671</v>
-      </c>
-      <c r="D113" s="174" t="s">
-        <v>673</v>
-      </c>
-      <c r="E113" s="176"/>
-      <c r="F113" s="204" t="s">
-        <v>675</v>
-      </c>
-      <c r="G113" s="178" t="s">
-        <v>684</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D113" s="175" t="s">
+        <v>696</v>
+      </c>
+      <c r="E113" s="182"/>
+      <c r="F113" s="193" t="s">
+        <v>967</v>
+      </c>
+      <c r="G113" s="178"/>
       <c r="H113" s="178"/>
       <c r="I113" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="41.4">
+        <v>43276</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="55.2">
       <c r="A114" s="173" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="B114" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="C114" s="174" t="s">
-        <v>22</v>
-      </c>
-      <c r="D114" s="175" t="s">
-        <v>687</v>
-      </c>
-      <c r="E114" s="182"/>
-      <c r="F114" s="211" t="s">
-        <v>967</v>
-      </c>
-      <c r="G114" s="178"/>
+      <c r="C114" s="174"/>
+      <c r="D114" s="174" t="s">
+        <v>704</v>
+      </c>
+      <c r="E114" s="176" t="s">
+        <v>705</v>
+      </c>
+      <c r="F114" s="193" t="s">
+        <v>707</v>
+      </c>
+      <c r="G114" s="178" t="s">
+        <v>710</v>
+      </c>
       <c r="H114" s="178"/>
       <c r="I114" s="179">
-        <v>43276</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="41.4">
+        <v>43293</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="207">
       <c r="A115" s="173" t="s">
-        <v>685</v>
-      </c>
-      <c r="B115" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="C115" s="174" t="s">
+        <v>711</v>
+      </c>
+      <c r="B115" s="178" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D115" s="175" t="s">
-        <v>697</v>
-      </c>
-      <c r="E115" s="182"/>
-      <c r="F115" s="193" t="s">
-        <v>968</v>
-      </c>
-      <c r="G115" s="178"/>
+      <c r="D115" s="200" t="s">
+        <v>714</v>
+      </c>
+      <c r="E115" s="176"/>
+      <c r="F115" s="199" t="s">
+        <v>717</v>
+      </c>
+      <c r="G115" s="178" t="s">
+        <v>718</v>
+      </c>
       <c r="H115" s="178"/>
       <c r="I115" s="179">
-        <v>43276</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="55.2">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="69">
       <c r="A116" s="173" t="s">
-        <v>704</v>
-      </c>
-      <c r="B116" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="C116" s="174"/>
+        <v>719</v>
+      </c>
+      <c r="B116" s="194" t="s">
+        <v>150</v>
+      </c>
+      <c r="C116" s="194">
+        <v>8000823</v>
+      </c>
       <c r="D116" s="174" t="s">
-        <v>705</v>
-      </c>
-      <c r="E116" s="176" t="s">
-        <v>706</v>
-      </c>
-      <c r="F116" s="193" t="s">
-        <v>708</v>
-      </c>
-      <c r="G116" s="178" t="s">
-        <v>711</v>
-      </c>
-      <c r="H116" s="178"/>
+        <v>726</v>
+      </c>
+      <c r="E116" s="182" t="s">
+        <v>730</v>
+      </c>
+      <c r="F116" s="220" t="s">
+        <v>732</v>
+      </c>
+      <c r="G116" s="194" t="s">
+        <v>733</v>
+      </c>
+      <c r="H116" s="178" t="s">
+        <v>734</v>
+      </c>
       <c r="I116" s="179">
-        <v>43293</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="207">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="82.8">
       <c r="A117" s="173" t="s">
-        <v>712</v>
-      </c>
-      <c r="B117" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C117" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D117" s="200" t="s">
-        <v>715</v>
-      </c>
-      <c r="E117" s="176"/>
-      <c r="F117" s="199" t="s">
-        <v>718</v>
-      </c>
-      <c r="G117" s="178" t="s">
         <v>719</v>
+      </c>
+      <c r="B117" s="194" t="s">
+        <v>150</v>
+      </c>
+      <c r="C117" s="194"/>
+      <c r="D117" s="174" t="s">
+        <v>735</v>
+      </c>
+      <c r="E117" s="182" t="s">
+        <v>736</v>
+      </c>
+      <c r="F117" s="177" t="s">
+        <v>738</v>
+      </c>
+      <c r="G117" s="199" t="s">
+        <v>740</v>
       </c>
       <c r="H117" s="178"/>
       <c r="I117" s="179">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="69">
-      <c r="A118" s="173" t="s">
-        <v>720</v>
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="41.4">
+      <c r="A118" s="196" t="s">
+        <v>719</v>
       </c>
       <c r="B118" s="194" t="s">
-        <v>151</v>
-      </c>
-      <c r="C118" s="194">
-        <v>8000823</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C118" s="194"/>
       <c r="D118" s="174" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="E118" s="182" t="s">
-        <v>731</v>
-      </c>
-      <c r="F118" s="220" t="s">
-        <v>733</v>
-      </c>
-      <c r="G118" s="194" t="s">
-        <v>734</v>
-      </c>
-      <c r="H118" s="178" t="s">
-        <v>735</v>
-      </c>
+        <v>743</v>
+      </c>
+      <c r="F118" s="178" t="s">
+        <v>744</v>
+      </c>
+      <c r="G118" s="177" t="s">
+        <v>745</v>
+      </c>
+      <c r="H118" s="178"/>
       <c r="I118" s="179">
         <v>43196</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="82.8">
+    <row r="119" spans="1:9" ht="27.6">
       <c r="A119" s="173" t="s">
-        <v>720</v>
-      </c>
-      <c r="B119" s="194" t="s">
-        <v>151</v>
-      </c>
-      <c r="C119" s="194"/>
-      <c r="D119" s="174" t="s">
-        <v>736</v>
-      </c>
-      <c r="E119" s="182" t="s">
-        <v>737</v>
-      </c>
-      <c r="F119" s="177" t="s">
-        <v>739</v>
-      </c>
-      <c r="G119" s="199" t="s">
-        <v>741</v>
+        <v>746</v>
+      </c>
+      <c r="B119" s="178" t="s">
+        <v>143</v>
+      </c>
+      <c r="C119" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" s="197" t="s">
+        <v>747</v>
+      </c>
+      <c r="E119" s="221" t="s">
+        <v>759</v>
+      </c>
+      <c r="F119" s="201" t="s">
+        <v>769</v>
+      </c>
+      <c r="G119" s="178" t="s">
+        <v>770</v>
       </c>
       <c r="H119" s="178"/>
       <c r="I119" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="41.4">
-      <c r="A120" s="196" t="s">
-        <v>720</v>
-      </c>
-      <c r="B120" s="194" t="s">
-        <v>151</v>
-      </c>
-      <c r="C120" s="194"/>
-      <c r="D120" s="174" t="s">
-        <v>743</v>
-      </c>
-      <c r="E120" s="182" t="s">
-        <v>744</v>
-      </c>
-      <c r="F120" s="178" t="s">
-        <v>745</v>
-      </c>
-      <c r="G120" s="177" t="s">
-        <v>746</v>
-      </c>
-      <c r="H120" s="178"/>
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="96.6">
+      <c r="A120" s="173" t="s">
+        <v>771</v>
+      </c>
+      <c r="B120" s="178" t="s">
+        <v>772</v>
+      </c>
+      <c r="C120" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120" s="200" t="s">
+        <v>773</v>
+      </c>
+      <c r="E120" s="221" t="s">
+        <v>607</v>
+      </c>
+      <c r="F120" s="199" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G120" s="178" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H120" s="222"/>
       <c r="I120" s="179">
-        <v>43196</v>
+        <v>43264</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="27.6">
       <c r="A121" s="173" t="s">
-        <v>747</v>
+        <v>775</v>
       </c>
       <c r="B121" s="178" t="s">
-        <v>144</v>
-      </c>
-      <c r="C121" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D121" s="197" t="s">
-        <v>748</v>
-      </c>
-      <c r="E121" s="221" t="s">
-        <v>760</v>
+        <v>776</v>
+      </c>
+      <c r="C121" s="178"/>
+      <c r="D121" s="191" t="s">
+        <v>777</v>
+      </c>
+      <c r="E121" s="192" t="s">
+        <v>781</v>
       </c>
       <c r="F121" s="201" t="s">
-        <v>770</v>
-      </c>
-      <c r="G121" s="178" t="s">
-        <v>771</v>
-      </c>
-      <c r="H121" s="178"/>
-      <c r="I121" s="179">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="96.6">
-      <c r="A122" s="173" t="s">
-        <v>772</v>
+        <v>782</v>
+      </c>
+      <c r="G121" s="178"/>
+      <c r="H121" s="223" t="s">
+        <v>973</v>
+      </c>
+      <c r="I121" s="179"/>
+    </row>
+    <row r="122" spans="1:9" ht="27.6">
+      <c r="A122" s="196" t="s">
+        <v>775</v>
       </c>
       <c r="B122" s="178" t="s">
-        <v>773</v>
-      </c>
-      <c r="C122" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D122" s="200" t="s">
-        <v>774</v>
-      </c>
-      <c r="E122" s="221" t="s">
-        <v>608</v>
-      </c>
-      <c r="F122" s="199" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G122" s="178" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H122" s="222"/>
-      <c r="I122" s="179">
-        <v>43264</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="C122" s="178"/>
+      <c r="D122" s="191" t="s">
+        <v>783</v>
+      </c>
+      <c r="E122" s="192" t="s">
+        <v>781</v>
+      </c>
+      <c r="F122" s="201" t="s">
+        <v>782</v>
+      </c>
+      <c r="G122" s="178"/>
+      <c r="H122" s="223" t="s">
+        <v>973</v>
+      </c>
+      <c r="I122" s="179"/>
     </row>
     <row r="123" spans="1:9" ht="27.6">
-      <c r="A123" s="173" t="s">
+      <c r="A123" s="196" t="s">
+        <v>775</v>
+      </c>
+      <c r="B123" s="178" t="s">
         <v>776</v>
-      </c>
-      <c r="B123" s="178" t="s">
-        <v>777</v>
       </c>
       <c r="C123" s="178"/>
       <c r="D123" s="191" t="s">
-        <v>778</v>
+        <v>792</v>
       </c>
       <c r="E123" s="192" t="s">
+        <v>781</v>
+      </c>
+      <c r="F123" s="201" t="s">
         <v>782</v>
-      </c>
-      <c r="F123" s="201" t="s">
-        <v>783</v>
       </c>
       <c r="G123" s="178"/>
       <c r="H123" s="223" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I123" s="179"/>
     </row>
     <row r="124" spans="1:9" ht="27.6">
       <c r="A124" s="196" t="s">
-        <v>776</v>
+        <v>805</v>
       </c>
       <c r="B124" s="178" t="s">
-        <v>777</v>
-      </c>
-      <c r="C124" s="178"/>
-      <c r="D124" s="191" t="s">
-        <v>784</v>
-      </c>
-      <c r="E124" s="192" t="s">
-        <v>782</v>
-      </c>
-      <c r="F124" s="201" t="s">
-        <v>783</v>
-      </c>
-      <c r="G124" s="178"/>
-      <c r="H124" s="223" t="s">
-        <v>974</v>
-      </c>
+        <v>806</v>
+      </c>
+      <c r="C124" s="174" t="s">
+        <v>807</v>
+      </c>
+      <c r="D124" s="174" t="s">
+        <v>809</v>
+      </c>
+      <c r="E124" s="182" t="s">
+        <v>814</v>
+      </c>
+      <c r="F124" s="199" t="s">
+        <v>815</v>
+      </c>
+      <c r="G124" s="178" t="s">
+        <v>816</v>
+      </c>
+      <c r="H124" s="222"/>
       <c r="I124" s="179"/>
     </row>
-    <row r="125" spans="1:9" ht="27.6">
-      <c r="A125" s="196" t="s">
-        <v>776</v>
+    <row r="125" spans="1:9">
+      <c r="A125" s="173" t="s">
+        <v>817</v>
       </c>
       <c r="B125" s="178" t="s">
-        <v>777</v>
-      </c>
-      <c r="C125" s="178"/>
-      <c r="D125" s="191" t="s">
-        <v>793</v>
-      </c>
-      <c r="E125" s="192" t="s">
-        <v>782</v>
+        <v>45</v>
+      </c>
+      <c r="C125" s="174" t="s">
+        <v>818</v>
+      </c>
+      <c r="D125" s="200" t="s">
+        <v>819</v>
+      </c>
+      <c r="E125" s="176" t="s">
+        <v>607</v>
       </c>
       <c r="F125" s="201" t="s">
-        <v>783</v>
+        <v>831</v>
       </c>
       <c r="G125" s="178"/>
-      <c r="H125" s="223" t="s">
-        <v>974</v>
-      </c>
-      <c r="I125" s="179"/>
-    </row>
-    <row r="126" spans="1:9" ht="27.6">
-      <c r="A126" s="196" t="s">
-        <v>806</v>
+      <c r="H125" s="178"/>
+      <c r="I125" s="179">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="96.6">
+      <c r="A126" s="173" t="s">
+        <v>837</v>
       </c>
       <c r="B126" s="178" t="s">
-        <v>807</v>
-      </c>
-      <c r="C126" s="174" t="s">
-        <v>808</v>
-      </c>
-      <c r="D126" s="174" t="s">
-        <v>810</v>
-      </c>
-      <c r="E126" s="182" t="s">
-        <v>815</v>
-      </c>
-      <c r="F126" s="199" t="s">
-        <v>816</v>
-      </c>
-      <c r="G126" s="178" t="s">
-        <v>817</v>
-      </c>
-      <c r="H126" s="222"/>
-      <c r="I126" s="179"/>
-    </row>
-    <row r="127" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="C126" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" s="178" t="s">
+        <v>838</v>
+      </c>
+      <c r="E126" s="176" t="s">
+        <v>837</v>
+      </c>
+      <c r="F126" s="201" t="s">
+        <v>844</v>
+      </c>
+      <c r="G126" s="180" t="s">
+        <v>968</v>
+      </c>
+      <c r="H126" s="178"/>
+      <c r="I126" s="179">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="41.4">
       <c r="A127" s="173" t="s">
-        <v>818</v>
+        <v>845</v>
       </c>
       <c r="B127" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C127" s="174" t="s">
-        <v>819</v>
-      </c>
-      <c r="D127" s="200" t="s">
-        <v>820</v>
-      </c>
-      <c r="E127" s="176" t="s">
-        <v>608</v>
-      </c>
-      <c r="F127" s="201" t="s">
-        <v>832</v>
+        <v>846</v>
+      </c>
+      <c r="C127" s="178"/>
+      <c r="D127" s="178"/>
+      <c r="E127" s="176"/>
+      <c r="F127" s="199" t="s">
+        <v>851</v>
       </c>
       <c r="G127" s="178"/>
       <c r="H127" s="178"/>
       <c r="I127" s="179">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="96.6">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="41.4">
       <c r="A128" s="173" t="s">
-        <v>838</v>
-      </c>
-      <c r="B128" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C128" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D128" s="178" t="s">
-        <v>839</v>
-      </c>
-      <c r="E128" s="176" t="s">
-        <v>838</v>
-      </c>
-      <c r="F128" s="201" t="s">
-        <v>845</v>
-      </c>
-      <c r="G128" s="180" t="s">
-        <v>969</v>
+        <v>852</v>
+      </c>
+      <c r="B128" s="174" t="s">
+        <v>294</v>
+      </c>
+      <c r="C128" s="174"/>
+      <c r="D128" s="209" t="s">
+        <v>854</v>
+      </c>
+      <c r="E128" s="182" t="s">
+        <v>855</v>
+      </c>
+      <c r="F128" s="177" t="s">
+        <v>856</v>
+      </c>
+      <c r="G128" s="178" t="s">
+        <v>864</v>
       </c>
       <c r="H128" s="178"/>
       <c r="I128" s="179">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="41.4">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="138">
       <c r="A129" s="173" t="s">
-        <v>846</v>
-      </c>
-      <c r="B129" s="178" t="s">
-        <v>847</v>
-      </c>
-      <c r="C129" s="178"/>
-      <c r="D129" s="178"/>
-      <c r="E129" s="176"/>
-      <c r="F129" s="199" t="s">
-        <v>852</v>
-      </c>
-      <c r="G129" s="178"/>
-      <c r="H129" s="178"/>
+        <v>866</v>
+      </c>
+      <c r="B129" s="174" t="s">
+        <v>77</v>
+      </c>
+      <c r="C129" s="174" t="s">
+        <v>22</v>
+      </c>
+      <c r="D129" s="175" t="s">
+        <v>867</v>
+      </c>
+      <c r="E129" s="182"/>
+      <c r="F129" s="193" t="s">
+        <v>868</v>
+      </c>
+      <c r="G129" s="178" t="s">
+        <v>869</v>
+      </c>
+      <c r="H129" s="223" t="s">
+        <v>973</v>
+      </c>
       <c r="I129" s="179">
-        <v>43196</v>
+        <v>43270</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="41.4">
       <c r="A130" s="173" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
       <c r="B130" s="174" t="s">
-        <v>295</v>
-      </c>
-      <c r="C130" s="174"/>
-      <c r="D130" s="209" t="s">
-        <v>855</v>
-      </c>
-      <c r="E130" s="182" t="s">
-        <v>856</v>
-      </c>
-      <c r="F130" s="177" t="s">
-        <v>857</v>
+        <v>77</v>
+      </c>
+      <c r="C130" s="174" t="s">
+        <v>22</v>
+      </c>
+      <c r="D130" s="175" t="s">
+        <v>870</v>
+      </c>
+      <c r="E130" s="182"/>
+      <c r="F130" s="193" t="s">
+        <v>871</v>
       </c>
       <c r="G130" s="178" t="s">
-        <v>865</v>
-      </c>
-      <c r="H130" s="178"/>
+        <v>872</v>
+      </c>
+      <c r="H130" s="195" t="s">
+        <v>974</v>
+      </c>
       <c r="I130" s="179">
-        <v>43288</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="138">
+        <v>43270</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="41.4">
       <c r="A131" s="173" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B131" s="174" t="s">
         <v>77</v>
@@ -9261,16 +9279,16 @@
         <v>22</v>
       </c>
       <c r="D131" s="175" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="E131" s="182"/>
       <c r="F131" s="193" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="G131" s="178" t="s">
-        <v>870</v>
-      </c>
-      <c r="H131" s="223" t="s">
+        <v>872</v>
+      </c>
+      <c r="H131" s="195" t="s">
         <v>974</v>
       </c>
       <c r="I131" s="179">
@@ -9279,7 +9297,7 @@
     </row>
     <row r="132" spans="1:9" ht="41.4">
       <c r="A132" s="173" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B132" s="174" t="s">
         <v>77</v>
@@ -9288,17 +9306,15 @@
         <v>22</v>
       </c>
       <c r="D132" s="175" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="E132" s="182"/>
-      <c r="F132" s="193" t="s">
-        <v>872</v>
-      </c>
-      <c r="G132" s="178" t="s">
-        <v>873</v>
-      </c>
-      <c r="H132" s="195" t="s">
-        <v>975</v>
+      <c r="F132" s="211" t="s">
+        <v>876</v>
+      </c>
+      <c r="G132" s="178"/>
+      <c r="H132" s="223" t="s">
+        <v>973</v>
       </c>
       <c r="I132" s="179">
         <v>43270</v>
@@ -9306,110 +9322,80 @@
     </row>
     <row r="133" spans="1:9" ht="41.4">
       <c r="A133" s="173" t="s">
-        <v>867</v>
-      </c>
-      <c r="B133" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="C133" s="174" t="s">
+        <v>877</v>
+      </c>
+      <c r="B133" s="178" t="s">
+        <v>143</v>
+      </c>
+      <c r="C133" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D133" s="175" t="s">
-        <v>874</v>
-      </c>
-      <c r="E133" s="182"/>
-      <c r="F133" s="193" t="s">
-        <v>875</v>
+      <c r="D133" s="197" t="s">
+        <v>878</v>
+      </c>
+      <c r="E133" s="224" t="s">
+        <v>879</v>
+      </c>
+      <c r="F133" s="201" t="s">
+        <v>769</v>
       </c>
       <c r="G133" s="178" t="s">
-        <v>873</v>
-      </c>
-      <c r="H133" s="195" t="s">
+        <v>886</v>
+      </c>
+      <c r="H133" s="223" t="s">
         <v>975</v>
       </c>
       <c r="I133" s="179">
-        <v>43270</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="41.4">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="27.6">
       <c r="A134" s="173" t="s">
-        <v>867</v>
-      </c>
-      <c r="B134" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="C134" s="174" t="s">
+        <v>887</v>
+      </c>
+      <c r="B134" s="178" t="s">
+        <v>772</v>
+      </c>
+      <c r="C134" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D134" s="175" t="s">
-        <v>876</v>
-      </c>
-      <c r="E134" s="182"/>
-      <c r="F134" s="211" t="s">
-        <v>877</v>
-      </c>
-      <c r="G134" s="178"/>
+      <c r="D134" s="200" t="s">
+        <v>893</v>
+      </c>
+      <c r="F134" s="201" t="s">
+        <v>904</v>
+      </c>
       <c r="H134" s="223" t="s">
-        <v>974</v>
-      </c>
-      <c r="I134" s="179">
-        <v>43270</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="41.4">
-      <c r="A135" s="173" t="s">
-        <v>878</v>
-      </c>
-      <c r="B135" s="178" t="s">
-        <v>144</v>
-      </c>
-      <c r="C135" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D135" s="197" t="s">
-        <v>879</v>
-      </c>
-      <c r="E135" s="224" t="s">
-        <v>880</v>
-      </c>
-      <c r="F135" s="201" t="s">
-        <v>770</v>
-      </c>
-      <c r="G135" s="178" t="s">
-        <v>887</v>
-      </c>
-      <c r="H135" s="223" t="s">
-        <v>976</v>
-      </c>
-      <c r="I135" s="179">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="27.6">
-      <c r="A136" s="173" t="s">
-        <v>888</v>
-      </c>
-      <c r="B136" s="178" t="s">
-        <v>773</v>
-      </c>
-      <c r="C136" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D136" s="200" t="s">
-        <v>894</v>
-      </c>
-      <c r="F136" s="201" t="s">
-        <v>905</v>
-      </c>
-      <c r="H136" s="223" t="s">
-        <v>974</v>
-      </c>
-      <c r="I136" s="225">
+        <v>973</v>
+      </c>
+      <c r="I134" s="225">
         <v>43288</v>
       </c>
     </row>
+    <row r="135" spans="1:9">
+      <c r="D135" s="178"/>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="173"/>
+      <c r="B136" s="174"/>
+      <c r="C136" s="174"/>
+      <c r="D136" s="174"/>
+      <c r="E136" s="182"/>
+      <c r="F136" s="213"/>
+      <c r="G136" s="178"/>
+      <c r="H136" s="178"/>
+      <c r="I136" s="179"/>
+    </row>
     <row r="137" spans="1:9">
-      <c r="D137" s="178"/>
+      <c r="A137" s="173"/>
+      <c r="B137" s="174"/>
+      <c r="C137" s="174"/>
+      <c r="D137" s="174"/>
+      <c r="E137" s="182"/>
+      <c r="F137" s="213"/>
+      <c r="G137" s="178"/>
+      <c r="H137" s="178"/>
+      <c r="I137" s="179"/>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="173"/>
@@ -9477,31 +9463,9 @@
       <c r="H143" s="178"/>
       <c r="I143" s="179"/>
     </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="173"/>
-      <c r="B144" s="174"/>
-      <c r="C144" s="174"/>
-      <c r="D144" s="174"/>
-      <c r="E144" s="182"/>
-      <c r="F144" s="213"/>
-      <c r="G144" s="178"/>
-      <c r="H144" s="178"/>
-      <c r="I144" s="179"/>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="173"/>
-      <c r="B145" s="174"/>
-      <c r="C145" s="174"/>
-      <c r="D145" s="174"/>
-      <c r="E145" s="182"/>
-      <c r="F145" s="213"/>
-      <c r="G145" s="178"/>
-      <c r="H145" s="178"/>
-      <c r="I145" s="179"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F113" r:id="rId1" location="gid=314589613&amp;range=309:309"/>
+    <hyperlink ref="F111" r:id="rId1" location="gid=314589613&amp;range=309:309"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -9514,11 +9478,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
@@ -9551,10 +9515,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="239" t="s">
+      <c r="I1" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="240"/>
+      <c r="J1" s="241"/>
     </row>
     <row r="2" spans="1:10" ht="26.4">
       <c r="A2" s="1"/>
@@ -9572,69 +9536,69 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="330">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:10" s="180" customFormat="1" ht="138">
+      <c r="A3" s="181" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="178" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="191" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="175" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="192" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="193" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="174" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="178" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I3" s="179"/>
+      <c r="J3" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="330">
+      <c r="A4" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C4" s="13">
+        <v>8001144</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="13">
-        <v>8001144</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F4" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="G4" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I4" s="12">
+        <v>43196</v>
+      </c>
+      <c r="J4" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="12">
-        <v>43196</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="158.4">
-      <c r="A4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="12">
-        <v>43240</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="211.2">
+    </row>
+    <row r="5" spans="1:10" ht="158.4">
       <c r="A5" s="14" t="s">
         <v>19</v>
       </c>
@@ -9644,18 +9608,18 @@
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>31</v>
+      <c r="D5" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I5" s="12">
         <v>43240</v>
@@ -9675,7 +9639,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>33</v>
@@ -9704,8 +9668,8 @@
       <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>38</v>
+      <c r="D7" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>33</v>
@@ -9735,7 +9699,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>33</v>
@@ -9754,36 +9718,38 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="92.4">
-      <c r="A9" s="6" t="s">
-        <v>44</v>
+    <row r="9" spans="1:10" ht="211.2">
+      <c r="A9" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="34"/>
+      <c r="D9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="22"/>
       <c r="H9" s="8" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="I9" s="12">
         <v>43240</v>
       </c>
-      <c r="J9" s="36"/>
+      <c r="J9" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="92.4">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -9793,7 +9759,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>48</v>
@@ -9803,7 +9769,7 @@
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I10" s="12">
         <v>43240</v>
@@ -9831,153 +9797,157 @@
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I11" s="12">
         <v>43240</v>
       </c>
       <c r="J11" s="36"/>
     </row>
-    <row r="12" spans="1:10" ht="184.8">
+    <row r="12" spans="1:10" ht="92.4">
       <c r="A12" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B12" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="12">
+        <v>43240</v>
+      </c>
+      <c r="J12" s="36"/>
+    </row>
+    <row r="13" spans="1:10" ht="184.8">
+      <c r="A13" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="24" t="s">
+      <c r="E13" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="G12" s="67" t="s">
-        <v>216</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="12">
+      <c r="F13" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="12">
         <v>43250</v>
       </c>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" spans="1:10" ht="409.6">
-      <c r="A13" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B13" s="68" t="str">
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="1:10" ht="409.6">
+      <c r="A14" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="68" t="str">
         <f>HYPERLINK("https://docs.google.com/spreadsheets/d/1CZZj8fSMSaEaqlK8KCBOVHZaJixwFi-xHDmvUY_rwCk/edit#gid=1997930010&amp;range=L34","Master: Antibacterials A")</f>
         <v>Master: Antibacterials A</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="69" t="s">
-        <v>236</v>
-      </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="G13" s="66" t="s">
+      <c r="D14" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="E14" s="70"/>
+      <c r="F14" s="71" t="s">
+        <v>241</v>
+      </c>
+      <c r="G14" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="I13" s="12">
-        <v>43250</v>
-      </c>
-      <c r="J13" s="73" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="211.2">
-      <c r="A14" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C14" s="77">
-        <v>8001180</v>
-      </c>
-      <c r="D14" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="E14" s="79" t="s">
-        <v>296</v>
-      </c>
-      <c r="F14" s="71" t="s">
-        <v>297</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="8" t="s">
-        <v>298</v>
       </c>
       <c r="I14" s="12">
         <v>43250</v>
       </c>
       <c r="J14" s="73" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="274.8">
-      <c r="A15" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="77"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="211.2">
+      <c r="A15" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" s="77">
+        <v>8001180</v>
+      </c>
       <c r="D15" s="78" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E15" s="79" t="s">
-        <v>302</v>
-      </c>
-      <c r="F15" s="80" t="s">
-        <v>303</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>306</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="F15" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="G15" s="34"/>
       <c r="H15" s="8" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="I15" s="12">
         <v>43250</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="105.6">
+      <c r="J15" s="73" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="274.8">
       <c r="A16" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="1:10" ht="57.6">
+        <v>287</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="E16" s="79" t="s">
+        <v>301</v>
+      </c>
+      <c r="F16" s="80" t="s">
+        <v>302</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="I16" s="12">
+        <v>43250</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="105.6">
       <c r="A17" s="8" t="s">
         <v>76</v>
       </c>
@@ -9987,25 +9957,21 @@
       <c r="C17" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>102</v>
-      </c>
+      <c r="D17" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="30"/>
       <c r="F17" s="40" t="s">
         <v>84</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H17" s="9"/>
-      <c r="I17" s="12">
-        <v>43286</v>
-      </c>
+      <c r="I17" s="12"/>
       <c r="J17" s="36"/>
     </row>
-    <row r="18" spans="1:10" ht="58.2" thickBot="1">
+    <row r="18" spans="1:10" ht="57.6">
       <c r="A18" s="8" t="s">
         <v>76</v>
       </c>
@@ -10015,23 +9981,25 @@
       <c r="C18" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>108</v>
+      <c r="D18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>101</v>
       </c>
       <c r="F18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="46" t="s">
-        <v>109</v>
+      <c r="G18" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="H18" s="9"/>
-      <c r="I18" s="12"/>
+      <c r="I18" s="12">
+        <v>43286</v>
+      </c>
       <c r="J18" s="36"/>
     </row>
-    <row r="19" spans="1:10" ht="57.6">
+    <row r="19" spans="1:10" ht="58.2" thickBot="1">
       <c r="A19" s="8" t="s">
         <v>76</v>
       </c>
@@ -10041,106 +10009,132 @@
       <c r="C19" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="226" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="227" t="s">
-        <v>108</v>
+      <c r="D19" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>107</v>
       </c>
       <c r="F19" s="40" t="s">
         <v>84</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="12"/>
       <c r="J19" s="36"/>
     </row>
-    <row r="20" spans="1:10" s="233" customFormat="1" ht="66">
-      <c r="A20" s="228" t="s">
-        <v>642</v>
-      </c>
-      <c r="B20" s="228" t="s">
+    <row r="20" spans="1:10" ht="57.6">
+      <c r="A20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="226" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="227" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="1:10" s="233" customFormat="1" ht="66">
+      <c r="A21" s="228" t="s">
+        <v>641</v>
+      </c>
+      <c r="B21" s="228" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="228" t="s">
+      <c r="C21" s="228" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="229" t="s">
-        <v>984</v>
-      </c>
-      <c r="E20" s="230"/>
-      <c r="F20" s="231" t="s">
+      <c r="D21" s="229" t="s">
         <v>983</v>
       </c>
-      <c r="G20" s="228" t="s">
+      <c r="E21" s="230"/>
+      <c r="F21" s="231" t="s">
         <v>982</v>
       </c>
-      <c r="H20" s="228"/>
-      <c r="I20" s="232">
+      <c r="G21" s="228" t="s">
+        <v>981</v>
+      </c>
+      <c r="H21" s="228"/>
+      <c r="I21" s="232">
         <v>43240</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="66.599999999999994" thickBot="1">
-      <c r="A21" s="6" t="s">
+    <row r="22" spans="1:10" ht="66.599999999999994" thickBot="1">
+      <c r="A22" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>825</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C22" s="13" t="s">
         <v>826</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D22" s="115" t="s">
         <v>827</v>
       </c>
-      <c r="D21" s="115" t="s">
+      <c r="E22" s="13" t="s">
         <v>828</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="F22" s="32" t="s">
         <v>829</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="G22" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="12">
+      <c r="H22" s="9"/>
+      <c r="I22" s="12">
         <v>43240</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="106.2" thickBot="1">
-      <c r="A22" s="52" t="s">
-        <v>747</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="J22" s="11" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="106.2" thickBot="1">
+      <c r="A23" s="52" t="s">
+        <v>746</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="159" t="s">
-        <v>886</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="D23" s="159" t="s">
+        <v>885</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="F23" s="20" t="s">
         <v>889</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="G23" s="57" t="s">
         <v>890</v>
       </c>
-      <c r="G22" s="57" t="s">
+      <c r="H23" s="8" t="s">
         <v>891</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>892</v>
-      </c>
-      <c r="I22" s="12">
+      <c r="I23" s="12">
         <v>43250</v>
       </c>
-      <c r="J22" s="36"/>
+      <c r="J23" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10203,10 +10197,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="239" t="s">
+      <c r="I1" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="240"/>
+      <c r="J1" s="241"/>
     </row>
     <row r="2" spans="1:10" ht="26.4">
       <c r="A2" s="1"/>
@@ -10277,13 +10271,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="86.4">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="245" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="241" t="s">
+      <c r="B5" s="242" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="241" t="s">
+      <c r="C5" s="242" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -10305,9 +10299,9 @@
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="86.4">
-      <c r="A6" s="240"/>
-      <c r="B6" s="240"/>
-      <c r="C6" s="240"/>
+      <c r="A6" s="241"/>
+      <c r="B6" s="241"/>
+      <c r="C6" s="241"/>
       <c r="D6" s="13" t="s">
         <v>68</v>
       </c>
@@ -10325,7 +10319,7 @@
       <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:10" ht="39.6">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="245" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -10355,7 +10349,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="39.6">
-      <c r="A8" s="240"/>
+      <c r="A8" s="241"/>
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
@@ -10369,7 +10363,7 @@
         <v>86</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>83</v>
@@ -10382,7 +10376,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="39.6">
-      <c r="A9" s="243"/>
+      <c r="A9" s="244"/>
       <c r="B9" s="47" t="s">
         <v>21</v>
       </c>
@@ -10390,13 +10384,13 @@
         <v>22</v>
       </c>
       <c r="D9" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="48" t="s">
-        <v>112</v>
-      </c>
       <c r="F9" s="49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G9" s="45"/>
       <c r="H9" s="8" t="s">
@@ -10411,7 +10405,7 @@
     </row>
     <row r="10" spans="1:10" ht="86.4">
       <c r="A10" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>77</v>
@@ -10419,10 +10413,10 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="28" t="s">
         <v>116</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>117</v>
       </c>
       <c r="G10" s="50"/>
       <c r="H10" s="11"/>
@@ -10434,8 +10428,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="39.6">
-      <c r="A11" s="245" t="s">
-        <v>119</v>
+      <c r="A11" s="246" t="s">
+        <v>118</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>21</v>
@@ -10444,13 +10438,13 @@
         <v>22</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>83</v>
@@ -10463,7 +10457,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="39.6">
-      <c r="A12" s="240"/>
+      <c r="A12" s="241"/>
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
@@ -10471,13 +10465,13 @@
         <v>22</v>
       </c>
       <c r="D12" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>134</v>
-      </c>
       <c r="F12" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>83</v>
@@ -10490,7 +10484,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="39.6">
-      <c r="A13" s="240"/>
+      <c r="A13" s="241"/>
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -10498,13 +10492,13 @@
         <v>22</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>83</v>
@@ -10517,7 +10511,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="39.6">
-      <c r="A14" s="240"/>
+      <c r="A14" s="241"/>
       <c r="B14" s="47" t="s">
         <v>21</v>
       </c>
@@ -10525,13 +10519,13 @@
         <v>22</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E14" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="49" t="s">
         <v>148</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>149</v>
       </c>
       <c r="G14" s="45"/>
       <c r="H14" s="8" t="s">
@@ -10546,23 +10540,23 @@
     </row>
     <row r="15" spans="1:10" ht="26.4">
       <c r="A15" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="57" t="s">
         <v>159</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>160</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E15" s="61"/>
       <c r="F15" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="12">
@@ -10572,22 +10566,22 @@
     </row>
     <row r="16" spans="1:10" ht="26.4">
       <c r="A16" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="G16" s="62" t="s">
-        <v>170</v>
-      </c>
       <c r="H16" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I16" s="12">
         <v>43196</v>
@@ -10607,17 +10601,17 @@
         <v>22</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I22" s="12">
         <v>43240</v>
@@ -10628,25 +10622,25 @@
     </row>
     <row r="26" spans="1:10" ht="79.2">
       <c r="A26" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="64" t="s">
-        <v>182</v>
-      </c>
       <c r="E26" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F26" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" s="30" t="s">
         <v>188</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>189</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="12">
@@ -10658,28 +10652,28 @@
     </row>
     <row r="27" spans="1:10" ht="52.8">
       <c r="A27" s="65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B27" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="D27" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="E27" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="F27" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="G27" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="H27" s="11" t="s">
         <v>197</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>198</v>
       </c>
       <c r="I27" s="12">
         <v>43240</v>
@@ -10690,25 +10684,25 @@
     </row>
     <row r="28" spans="1:10" ht="92.4">
       <c r="A28" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>259</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>260</v>
       </c>
       <c r="C28" s="8">
         <v>8001179</v>
       </c>
       <c r="D28" s="74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E28" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="F28" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="F28" s="71" t="s">
+      <c r="G28" s="57" t="s">
         <v>265</v>
-      </c>
-      <c r="G28" s="57" t="s">
-        <v>266</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="12">
@@ -10720,10 +10714,10 @@
     </row>
     <row r="29" spans="1:10" ht="66">
       <c r="A29" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C29" s="75">
         <v>2446901</v>
@@ -10731,10 +10725,10 @@
       <c r="D29" s="76"/>
       <c r="E29" s="70"/>
       <c r="F29" s="71" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G29" s="57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="12">
@@ -10746,10 +10740,10 @@
     </row>
     <row r="30" spans="1:10" ht="28.8">
       <c r="A30" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B30" s="27" t="s">
         <v>308</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>309</v>
       </c>
       <c r="C30" s="35"/>
       <c r="D30" s="82" t="s">
@@ -10757,13 +10751,13 @@
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="G30" s="62" t="s">
         <v>310</v>
       </c>
-      <c r="G30" s="62" t="s">
+      <c r="H30" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>312</v>
       </c>
       <c r="I30" s="12">
         <v>43210</v>
@@ -10774,17 +10768,17 @@
     </row>
     <row r="31" spans="1:10" ht="43.2">
       <c r="A31" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C31" s="77"/>
       <c r="D31" s="83"/>
       <c r="E31" s="79"/>
       <c r="F31" s="81"/>
       <c r="G31" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="12"/>
@@ -10792,7 +10786,7 @@
     </row>
     <row r="32" spans="1:10" ht="79.2">
       <c r="A32" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>21</v>
@@ -10801,19 +10795,19 @@
         <v>22</v>
       </c>
       <c r="D32" s="85" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E32" s="86" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G32" s="63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I32" s="12">
         <v>43240</v>
@@ -10822,29 +10816,29 @@
     </row>
     <row r="33" spans="1:10" ht="92.4">
       <c r="A33" s="87" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="88" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F33" s="54" t="s">
+        <v>352</v>
+      </c>
+      <c r="G33" s="63" t="s">
         <v>353</v>
-      </c>
-      <c r="G33" s="63" t="s">
-        <v>354</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J33" s="32" t="s">
         <v>22</v>
@@ -10852,10 +10846,10 @@
     </row>
     <row r="34" spans="1:10" ht="39.6">
       <c r="A34" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B34" s="27" t="s">
         <v>356</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>357</v>
       </c>
       <c r="C34" s="35">
         <v>8001077</v>
@@ -10864,14 +10858,14 @@
         <v>2046113</v>
       </c>
       <c r="E34" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="F34" s="20" t="s">
         <v>360</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>361</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I34" s="12">
         <v>43210</v>
@@ -10880,7 +10874,7 @@
     </row>
     <row r="35" spans="1:10" ht="66">
       <c r="A35" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>21</v>
@@ -10889,16 +10883,16 @@
         <v>22</v>
       </c>
       <c r="D35" s="89" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F35" s="63" t="s">
+        <v>369</v>
+      </c>
+      <c r="G35" s="63" t="s">
         <v>370</v>
-      </c>
-      <c r="G35" s="63" t="s">
-        <v>371</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>83</v>
@@ -10911,8 +10905,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="39.6">
-      <c r="A36" s="242" t="s">
-        <v>376</v>
+      <c r="A36" s="243" t="s">
+        <v>375</v>
       </c>
       <c r="B36" s="90" t="s">
         <v>21</v>
@@ -10921,13 +10915,13 @@
         <v>22</v>
       </c>
       <c r="D36" s="91" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E36" s="92" t="s">
+        <v>398</v>
+      </c>
+      <c r="F36" s="93" t="s">
         <v>399</v>
-      </c>
-      <c r="F36" s="93" t="s">
-        <v>400</v>
       </c>
       <c r="G36" s="94"/>
       <c r="H36" s="8" t="s">
@@ -10941,7 +10935,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="39.6">
-      <c r="A37" s="240"/>
+      <c r="A37" s="241"/>
       <c r="B37" s="8" t="s">
         <v>21</v>
       </c>
@@ -10949,13 +10943,13 @@
         <v>22</v>
       </c>
       <c r="D37" s="95" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E37" s="96" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8" t="s">
@@ -10969,7 +10963,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="66">
-      <c r="A38" s="240"/>
+      <c r="A38" s="241"/>
       <c r="B38" s="8" t="s">
         <v>21</v>
       </c>
@@ -10977,13 +10971,13 @@
         <v>22</v>
       </c>
       <c r="D38" s="85" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E38" s="97" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F38" s="98" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8" t="s">
@@ -10997,7 +10991,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="39.6">
-      <c r="A39" s="240"/>
+      <c r="A39" s="241"/>
       <c r="B39" s="8" t="s">
         <v>21</v>
       </c>
@@ -11005,13 +10999,13 @@
         <v>22</v>
       </c>
       <c r="D39" s="95" t="s">
+        <v>419</v>
+      </c>
+      <c r="E39" s="99" t="s">
         <v>420</v>
       </c>
-      <c r="E39" s="99" t="s">
-        <v>421</v>
-      </c>
       <c r="F39" s="33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8" t="s">
@@ -11025,7 +11019,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="39.6">
-      <c r="A40" s="240"/>
+      <c r="A40" s="241"/>
       <c r="B40" s="8" t="s">
         <v>21</v>
       </c>
@@ -11033,13 +11027,13 @@
         <v>22</v>
       </c>
       <c r="D40" s="95" t="s">
+        <v>425</v>
+      </c>
+      <c r="E40" s="31" t="s">
         <v>426</v>
       </c>
-      <c r="E40" s="31" t="s">
-        <v>427</v>
-      </c>
       <c r="F40" s="33" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8" t="s">
@@ -11053,7 +11047,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="39.6">
-      <c r="A41" s="240"/>
+      <c r="A41" s="241"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
       </c>
@@ -11061,13 +11055,13 @@
         <v>22</v>
       </c>
       <c r="D41" s="85" t="s">
+        <v>427</v>
+      </c>
+      <c r="E41" s="31" t="s">
         <v>428</v>
       </c>
-      <c r="E41" s="31" t="s">
-        <v>429</v>
-      </c>
       <c r="F41" s="33" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G41" s="22"/>
       <c r="H41" s="8" t="s">
@@ -11081,7 +11075,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="39.6">
-      <c r="A42" s="240"/>
+      <c r="A42" s="241"/>
       <c r="B42" s="8" t="s">
         <v>21</v>
       </c>
@@ -11089,13 +11083,13 @@
         <v>22</v>
       </c>
       <c r="D42" s="95" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F42" s="98" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G42" s="100"/>
       <c r="H42" s="8" t="s">
@@ -11109,7 +11103,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="39.6">
-      <c r="A43" s="240"/>
+      <c r="A43" s="241"/>
       <c r="B43" s="8" t="s">
         <v>21</v>
       </c>
@@ -11117,13 +11111,13 @@
         <v>22</v>
       </c>
       <c r="D43" s="95" t="s">
+        <v>437</v>
+      </c>
+      <c r="E43" s="96" t="s">
         <v>438</v>
       </c>
-      <c r="E43" s="96" t="s">
-        <v>439</v>
-      </c>
       <c r="F43" s="33" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8" t="s">
@@ -11137,7 +11131,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="39.6">
-      <c r="A44" s="240"/>
+      <c r="A44" s="241"/>
       <c r="B44" s="8" t="s">
         <v>21</v>
       </c>
@@ -11145,13 +11139,13 @@
         <v>22</v>
       </c>
       <c r="D44" s="95" t="s">
+        <v>439</v>
+      </c>
+      <c r="E44" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="E44" s="31" t="s">
-        <v>441</v>
-      </c>
       <c r="F44" s="33" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8" t="s">
@@ -11165,7 +11159,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="39.6">
-      <c r="A45" s="243"/>
+      <c r="A45" s="244"/>
       <c r="B45" s="47" t="s">
         <v>21</v>
       </c>
@@ -11173,13 +11167,13 @@
         <v>22</v>
       </c>
       <c r="D45" s="101" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E45" s="102" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F45" s="103" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G45" s="104"/>
       <c r="H45" s="8" t="s">
@@ -11194,7 +11188,7 @@
     </row>
     <row r="46" spans="1:10" ht="39.6">
       <c r="A46" s="105" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B46" s="47" t="s">
         <v>21</v>
@@ -11203,13 +11197,13 @@
         <v>22</v>
       </c>
       <c r="D46" s="107" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E46" s="47" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F46" s="108" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G46" s="104"/>
       <c r="H46" s="8" t="s">
@@ -11224,26 +11218,26 @@
     </row>
     <row r="47" spans="1:10" ht="57.6">
       <c r="A47" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B47" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="C47" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="D47" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="E47" s="109" t="s">
         <v>486</v>
       </c>
-      <c r="E47" s="109" t="s">
-        <v>487</v>
-      </c>
       <c r="F47" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I47" s="12">
         <v>43210</v>
@@ -11253,8 +11247,8 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="66">
-      <c r="A48" s="242" t="s">
-        <v>496</v>
+      <c r="A48" s="243" t="s">
+        <v>495</v>
       </c>
       <c r="B48" s="90" t="s">
         <v>21</v>
@@ -11263,17 +11257,17 @@
         <v>22</v>
       </c>
       <c r="D48" s="111" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E48" s="112" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F48" s="93" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G48" s="113"/>
       <c r="H48" s="90" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I48" s="114">
         <v>43240</v>
@@ -11283,7 +11277,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="39.6">
-      <c r="A49" s="243"/>
+      <c r="A49" s="244"/>
       <c r="B49" s="47" t="s">
         <v>21</v>
       </c>
@@ -11291,17 +11285,17 @@
         <v>22</v>
       </c>
       <c r="D49" s="117" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E49" s="118" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F49" s="119" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G49" s="45"/>
       <c r="H49" s="47" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I49" s="120">
         <v>43240</v>
@@ -11312,27 +11306,27 @@
     </row>
     <row r="50" spans="1:10" ht="72">
       <c r="A50" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B50" s="27" t="s">
         <v>45</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="E50" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="F50" s="40" t="s">
         <v>542</v>
       </c>
-      <c r="F50" s="40" t="s">
+      <c r="G50" s="8" t="s">
         <v>543</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>544</v>
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J50" s="32" t="s">
         <v>22</v>
@@ -11340,22 +11334,22 @@
     </row>
     <row r="51" spans="1:10" ht="26.4">
       <c r="A51" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="13"/>
       <c r="D51" s="121" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E51" s="40"/>
       <c r="F51" s="79" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I51" s="12">
         <v>43196</v>
@@ -11366,7 +11360,7 @@
     </row>
     <row r="52" spans="1:10" ht="79.2">
       <c r="A52" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>45</v>
@@ -11375,19 +11369,19 @@
         <v>8001265</v>
       </c>
       <c r="D52" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="E52" s="31" t="s">
         <v>550</v>
       </c>
-      <c r="E52" s="31" t="s">
+      <c r="F52" s="63" t="s">
         <v>551</v>
       </c>
-      <c r="F52" s="63" t="s">
-        <v>552</v>
-      </c>
       <c r="G52" s="57" t="s">
+        <v>555</v>
+      </c>
+      <c r="H52" s="8" t="s">
         <v>556</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>557</v>
       </c>
       <c r="I52" s="12">
         <v>43240</v>
@@ -11398,7 +11392,7 @@
     </row>
     <row r="53" spans="1:10" ht="52.8">
       <c r="A53" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>45</v>
@@ -11407,19 +11401,19 @@
         <v>8001265</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E53" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F53" s="63" t="s">
         <v>560</v>
       </c>
-      <c r="F53" s="63" t="s">
+      <c r="G53" s="57" t="s">
         <v>561</v>
       </c>
-      <c r="G53" s="57" t="s">
-        <v>562</v>
-      </c>
       <c r="H53" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I53" s="12">
         <v>43240</v>
@@ -11430,7 +11424,7 @@
     </row>
     <row r="54" spans="1:10" ht="52.8">
       <c r="A54" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>45</v>
@@ -11439,19 +11433,19 @@
         <v>8001265</v>
       </c>
       <c r="D54" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="E54" s="31" t="s">
         <v>563</v>
       </c>
-      <c r="E54" s="31" t="s">
-        <v>564</v>
-      </c>
       <c r="F54" s="63" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G54" s="57" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I54" s="12">
         <v>43240</v>
@@ -11462,7 +11456,7 @@
     </row>
     <row r="55" spans="1:10" ht="52.8">
       <c r="A55" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>45</v>
@@ -11471,19 +11465,19 @@
         <v>8001265</v>
       </c>
       <c r="D55" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="E55" s="31" t="s">
         <v>567</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="F55" s="63" t="s">
+        <v>560</v>
+      </c>
+      <c r="G55" s="57" t="s">
         <v>568</v>
       </c>
-      <c r="F55" s="63" t="s">
-        <v>561</v>
-      </c>
-      <c r="G55" s="57" t="s">
-        <v>569</v>
-      </c>
       <c r="H55" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I55" s="12">
         <v>43240</v>
@@ -11494,7 +11488,7 @@
     </row>
     <row r="56" spans="1:10" ht="66">
       <c r="A56" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>45</v>
@@ -11503,19 +11497,19 @@
         <v>8001265</v>
       </c>
       <c r="D56" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="E56" s="31" t="s">
         <v>571</v>
       </c>
-      <c r="E56" s="31" t="s">
+      <c r="F56" s="63" t="s">
         <v>572</v>
       </c>
-      <c r="F56" s="63" t="s">
+      <c r="G56" s="57" t="s">
         <v>573</v>
       </c>
-      <c r="G56" s="57" t="s">
-        <v>574</v>
-      </c>
       <c r="H56" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I56" s="12">
         <v>43240</v>
@@ -11526,7 +11520,7 @@
     </row>
     <row r="57" spans="1:10" ht="52.8">
       <c r="A57" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>45</v>
@@ -11535,19 +11529,19 @@
         <v>8001265</v>
       </c>
       <c r="D57" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="E57" s="31" t="s">
         <v>575</v>
       </c>
-      <c r="E57" s="31" t="s">
+      <c r="F57" s="33" t="s">
         <v>576</v>
       </c>
-      <c r="F57" s="33" t="s">
+      <c r="G57" s="57" t="s">
         <v>577</v>
       </c>
-      <c r="G57" s="57" t="s">
-        <v>578</v>
-      </c>
       <c r="H57" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I57" s="12">
         <v>43240</v>
@@ -11558,7 +11552,7 @@
     </row>
     <row r="58" spans="1:10" ht="52.8">
       <c r="A58" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>45</v>
@@ -11567,19 +11561,19 @@
         <v>8001265</v>
       </c>
       <c r="D58" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="E58" s="31" t="s">
         <v>580</v>
       </c>
-      <c r="E58" s="31" t="s">
+      <c r="F58" s="63" t="s">
         <v>581</v>
       </c>
-      <c r="F58" s="63" t="s">
-        <v>582</v>
-      </c>
       <c r="G58" s="57" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I58" s="12">
         <v>43240</v>
@@ -11590,7 +11584,7 @@
     </row>
     <row r="59" spans="1:10" ht="52.8">
       <c r="A59" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>45</v>
@@ -11599,19 +11593,19 @@
         <v>8001265</v>
       </c>
       <c r="D59" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="E59" s="31" t="s">
         <v>585</v>
       </c>
-      <c r="E59" s="31" t="s">
+      <c r="F59" s="63" t="s">
         <v>586</v>
       </c>
-      <c r="F59" s="63" t="s">
-        <v>587</v>
-      </c>
       <c r="G59" s="57" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I59" s="12">
         <v>43240</v>
@@ -11622,7 +11616,7 @@
     </row>
     <row r="60" spans="1:10" ht="52.8">
       <c r="A60" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>45</v>
@@ -11631,17 +11625,17 @@
         <v>22</v>
       </c>
       <c r="D60" s="128" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E60" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="F60" s="63" t="s">
         <v>596</v>
-      </c>
-      <c r="F60" s="63" t="s">
-        <v>597</v>
       </c>
       <c r="G60" s="129"/>
       <c r="H60" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I60" s="12">
         <v>43240</v>
@@ -11652,7 +11646,7 @@
     </row>
     <row r="61" spans="1:10" ht="26.4">
       <c r="A61" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>45</v>
@@ -11661,17 +11655,17 @@
         <v>22</v>
       </c>
       <c r="D61" s="128" t="s">
+        <v>600</v>
+      </c>
+      <c r="E61" s="41" t="s">
         <v>601</v>
       </c>
-      <c r="E61" s="41" t="s">
+      <c r="F61" s="63" t="s">
         <v>602</v>
-      </c>
-      <c r="F61" s="63" t="s">
-        <v>603</v>
       </c>
       <c r="G61" s="129"/>
       <c r="H61" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I61" s="12">
         <v>43240</v>
@@ -11682,7 +11676,7 @@
     </row>
     <row r="62" spans="1:10" ht="79.2">
       <c r="A62" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>45</v>
@@ -11691,16 +11685,16 @@
         <v>22</v>
       </c>
       <c r="D62" s="131" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E62" s="31" t="s">
+        <v>608</v>
+      </c>
+      <c r="F62" s="63" t="s">
         <v>609</v>
       </c>
-      <c r="F62" s="63" t="s">
+      <c r="G62" s="63" t="s">
         <v>610</v>
-      </c>
-      <c r="G62" s="63" t="s">
-        <v>611</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="12">
@@ -11712,7 +11706,7 @@
     </row>
     <row r="63" spans="1:10" ht="26.4">
       <c r="A63" s="132" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B63" s="133" t="s">
         <v>45</v>
@@ -11721,17 +11715,17 @@
         <v>22</v>
       </c>
       <c r="D63" s="135" t="s">
+        <v>614</v>
+      </c>
+      <c r="E63" s="136" t="s">
         <v>615</v>
       </c>
-      <c r="E63" s="136" t="s">
-        <v>616</v>
-      </c>
       <c r="F63" s="137" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G63" s="137"/>
       <c r="H63" s="133" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I63" s="12">
         <v>43240</v>
@@ -11742,26 +11736,26 @@
     </row>
     <row r="64" spans="1:10" ht="52.8">
       <c r="A64" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C64" s="35" t="s">
+        <v>639</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>640</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>641</v>
       </c>
       <c r="E64" s="40"/>
       <c r="F64" s="40" t="s">
+        <v>642</v>
+      </c>
+      <c r="G64" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="G64" s="8" t="s">
-        <v>644</v>
-      </c>
       <c r="H64" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I64" s="12">
         <v>43210</v>
@@ -11772,28 +11766,28 @@
     </row>
     <row r="65" spans="1:10" ht="57.6">
       <c r="A65" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="C65" s="35" t="s">
         <v>645</v>
       </c>
-      <c r="B65" s="27" t="s">
-        <v>484</v>
-      </c>
-      <c r="C65" s="35" t="s">
+      <c r="D65" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="E65" s="84" t="s">
         <v>647</v>
       </c>
-      <c r="E65" s="84" t="s">
+      <c r="F65" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="G65" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="H65" s="8" t="s">
         <v>650</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>651</v>
       </c>
       <c r="I65" s="12">
         <v>43210</v>
@@ -11804,23 +11798,23 @@
     </row>
     <row r="66" spans="1:10" ht="52.8">
       <c r="A66" s="125" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B66" s="122" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C66" s="123"/>
       <c r="D66" s="89" t="s">
+        <v>652</v>
+      </c>
+      <c r="E66" s="35" t="s">
         <v>653</v>
       </c>
-      <c r="E66" s="35" t="s">
+      <c r="F66" s="126" t="s">
         <v>654</v>
       </c>
-      <c r="F66" s="126" t="s">
-        <v>655</v>
-      </c>
       <c r="G66" s="124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I66" s="23">
         <v>76138</v>
@@ -11831,23 +11825,23 @@
     </row>
     <row r="67" spans="1:10" ht="66">
       <c r="A67" s="123" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B67" s="122" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C67" s="123"/>
       <c r="D67" s="139" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E67" s="35" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F67" s="126" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G67" s="124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I67" s="23">
         <v>76138</v>
@@ -11858,23 +11852,23 @@
     </row>
     <row r="68" spans="1:10" ht="43.2">
       <c r="A68" s="123" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B68" s="122" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C68" s="123"/>
       <c r="D68" s="89" t="s">
+        <v>675</v>
+      </c>
+      <c r="E68" s="35" t="s">
         <v>676</v>
       </c>
-      <c r="E68" s="35" t="s">
+      <c r="F68" s="126" t="s">
         <v>677</v>
       </c>
-      <c r="F68" s="126" t="s">
-        <v>678</v>
-      </c>
       <c r="G68" s="124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I68" s="23">
         <v>76138</v>
@@ -11885,23 +11879,23 @@
     </row>
     <row r="69" spans="1:10" ht="43.2">
       <c r="A69" s="123" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B69" s="122" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C69" s="123"/>
       <c r="D69" s="89" t="s">
+        <v>678</v>
+      </c>
+      <c r="E69" s="35" t="s">
         <v>679</v>
       </c>
-      <c r="E69" s="35" t="s">
+      <c r="F69" s="126" t="s">
         <v>680</v>
       </c>
-      <c r="F69" s="126" t="s">
-        <v>681</v>
-      </c>
       <c r="G69" s="124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I69" s="23">
         <v>76138</v>
@@ -11912,23 +11906,23 @@
     </row>
     <row r="70" spans="1:10" ht="43.2">
       <c r="A70" s="123" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B70" s="122" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C70" s="123"/>
       <c r="D70" s="89" t="s">
+        <v>681</v>
+      </c>
+      <c r="E70" s="35" t="s">
+        <v>679</v>
+      </c>
+      <c r="F70" s="126" t="s">
         <v>682</v>
       </c>
-      <c r="E70" s="35" t="s">
-        <v>680</v>
-      </c>
-      <c r="F70" s="126" t="s">
-        <v>683</v>
-      </c>
       <c r="G70" s="124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I70" s="23">
         <v>76138</v>
@@ -11939,23 +11933,23 @@
     </row>
     <row r="71" spans="1:10" ht="43.2">
       <c r="A71" s="123" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B71" s="122" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C71" s="123"/>
       <c r="D71" s="89" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F71" s="126" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G71" s="124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I71" s="23">
         <v>76138</v>
@@ -11966,23 +11960,23 @@
     </row>
     <row r="72" spans="1:10" ht="39.6">
       <c r="A72" s="123" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B72" s="122" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C72" s="123"/>
       <c r="D72" s="89" t="s">
+        <v>688</v>
+      </c>
+      <c r="E72" s="35" t="s">
         <v>689</v>
       </c>
-      <c r="E72" s="35" t="s">
+      <c r="F72" s="126" t="s">
         <v>690</v>
       </c>
-      <c r="F72" s="126" t="s">
-        <v>691</v>
-      </c>
       <c r="G72" s="124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I72" s="23">
         <v>76138</v>
@@ -11993,23 +11987,23 @@
     </row>
     <row r="73" spans="1:10" ht="57.6">
       <c r="A73" s="125" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B73" s="122" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C73" s="123"/>
       <c r="D73" s="89" t="s">
+        <v>692</v>
+      </c>
+      <c r="E73" s="35" t="s">
         <v>693</v>
       </c>
-      <c r="E73" s="35" t="s">
+      <c r="F73" s="126" t="s">
         <v>694</v>
       </c>
-      <c r="F73" s="126" t="s">
-        <v>695</v>
-      </c>
       <c r="G73" s="124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I73" s="23">
         <v>76138</v>
@@ -12020,23 +12014,23 @@
     </row>
     <row r="74" spans="1:10" ht="57.6">
       <c r="A74" s="123" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B74" s="122" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C74" s="123"/>
       <c r="D74" s="89" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F74" s="126" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G74" s="124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H74" s="140"/>
       <c r="I74" s="23">
@@ -12048,23 +12042,23 @@
     </row>
     <row r="75" spans="1:10" ht="57.6">
       <c r="A75" s="123" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B75" s="122" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C75" s="123"/>
       <c r="D75" s="89" t="s">
+        <v>698</v>
+      </c>
+      <c r="E75" s="35" t="s">
+        <v>693</v>
+      </c>
+      <c r="F75" s="126" t="s">
         <v>699</v>
       </c>
-      <c r="E75" s="35" t="s">
-        <v>694</v>
-      </c>
-      <c r="F75" s="126" t="s">
-        <v>700</v>
-      </c>
       <c r="G75" s="124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H75" s="140"/>
       <c r="I75" s="23">
@@ -12076,23 +12070,23 @@
     </row>
     <row r="76" spans="1:10" ht="57.6">
       <c r="A76" s="123" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B76" s="122" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C76" s="123"/>
       <c r="D76" s="89" t="s">
+        <v>700</v>
+      </c>
+      <c r="E76" s="35" t="s">
         <v>701</v>
       </c>
-      <c r="E76" s="35" t="s">
+      <c r="F76" s="126" t="s">
         <v>702</v>
       </c>
-      <c r="F76" s="126" t="s">
-        <v>703</v>
-      </c>
       <c r="G76" s="124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H76" s="140"/>
       <c r="I76" s="23">
@@ -12104,23 +12098,23 @@
     </row>
     <row r="77" spans="1:10" ht="57.6">
       <c r="A77" s="123" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B77" s="122" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C77" s="123"/>
       <c r="D77" s="89" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E77" s="35" t="s">
+        <v>708</v>
+      </c>
+      <c r="F77" s="126" t="s">
         <v>709</v>
       </c>
-      <c r="F77" s="126" t="s">
-        <v>710</v>
-      </c>
       <c r="G77" s="124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H77" s="140"/>
       <c r="I77" s="23">
@@ -12132,23 +12126,23 @@
     </row>
     <row r="78" spans="1:10" ht="43.2">
       <c r="A78" s="125" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B78" s="122" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C78" s="123"/>
       <c r="D78" s="89" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E78" s="35" t="s">
+        <v>715</v>
+      </c>
+      <c r="F78" s="126" t="s">
         <v>716</v>
       </c>
-      <c r="F78" s="126" t="s">
-        <v>717</v>
-      </c>
       <c r="G78" s="124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H78" s="141"/>
       <c r="I78" s="23">
@@ -12160,23 +12154,23 @@
     </row>
     <row r="79" spans="1:10" ht="43.2">
       <c r="A79" s="125" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B79" s="122" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C79" s="123"/>
       <c r="D79" s="89" t="s">
+        <v>721</v>
+      </c>
+      <c r="E79" s="35" t="s">
         <v>722</v>
       </c>
-      <c r="E79" s="35" t="s">
+      <c r="F79" s="126" t="s">
         <v>723</v>
       </c>
-      <c r="F79" s="126" t="s">
-        <v>724</v>
-      </c>
       <c r="G79" s="124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H79" s="127"/>
       <c r="I79" s="23">
@@ -12188,23 +12182,23 @@
     </row>
     <row r="80" spans="1:10" ht="79.2">
       <c r="A80" s="125" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B80" s="122" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C80" s="123"/>
       <c r="D80" s="89" t="s">
+        <v>724</v>
+      </c>
+      <c r="E80" s="143" t="s">
         <v>725</v>
       </c>
-      <c r="E80" s="143" t="s">
-        <v>726</v>
-      </c>
       <c r="F80" s="126" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G80" s="124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H80" s="127"/>
       <c r="I80" s="23">
@@ -12216,23 +12210,23 @@
     </row>
     <row r="81" spans="1:10" ht="66">
       <c r="A81" s="123" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B81" s="122" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C81" s="123"/>
       <c r="D81" s="89" t="s">
+        <v>728</v>
+      </c>
+      <c r="E81" s="35" t="s">
+        <v>725</v>
+      </c>
+      <c r="F81" s="126" t="s">
         <v>729</v>
       </c>
-      <c r="E81" s="35" t="s">
-        <v>726</v>
-      </c>
-      <c r="F81" s="126" t="s">
-        <v>730</v>
-      </c>
       <c r="G81" s="124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H81" s="127"/>
       <c r="I81" s="23">
@@ -12244,23 +12238,23 @@
     </row>
     <row r="82" spans="1:10" ht="66">
       <c r="A82" s="123" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B82" s="122" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C82" s="123"/>
       <c r="D82" s="89" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E82" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F82" s="126" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G82" s="124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I82" s="23">
         <v>76138</v>
@@ -12271,23 +12265,23 @@
     </row>
     <row r="83" spans="1:10" ht="57.6">
       <c r="A83" s="123" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B83" s="122" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C83" s="123"/>
       <c r="D83" s="144" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F83" s="126" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G83" s="124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I83" s="23">
         <v>76138</v>
@@ -12298,23 +12292,23 @@
     </row>
     <row r="84" spans="1:10" ht="28.8">
       <c r="A84" s="125" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B84" s="122" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C84" s="123"/>
       <c r="D84" s="89" t="s">
+        <v>750</v>
+      </c>
+      <c r="E84" s="35" t="s">
         <v>751</v>
       </c>
-      <c r="E84" s="35" t="s">
+      <c r="F84" s="126" t="s">
         <v>752</v>
       </c>
-      <c r="F84" s="126" t="s">
-        <v>753</v>
-      </c>
       <c r="G84" s="124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H84" s="140"/>
       <c r="I84" s="23">
@@ -12326,56 +12320,56 @@
     </row>
     <row r="85" spans="1:10" ht="52.8">
       <c r="A85" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="B85" s="27" t="s">
         <v>754</v>
       </c>
-      <c r="B85" s="27" t="s">
+      <c r="C85" s="37" t="s">
         <v>755</v>
       </c>
-      <c r="C85" s="37" t="s">
+      <c r="D85" s="72" t="s">
         <v>756</v>
       </c>
-      <c r="D85" s="72" t="s">
+      <c r="E85" s="30" t="s">
         <v>757</v>
       </c>
-      <c r="E85" s="30" t="s">
+      <c r="F85" s="20" t="s">
         <v>758</v>
       </c>
-      <c r="F85" s="20" t="s">
-        <v>759</v>
-      </c>
       <c r="G85" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="12">
         <v>43264</v>
       </c>
       <c r="J85" s="32" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="52.8">
       <c r="A86" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C86" s="13">
         <v>8001143</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="G86" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="H86" s="11" t="s">
         <v>766</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>767</v>
       </c>
       <c r="I86" s="12">
         <v>43196</v>
@@ -12386,10 +12380,10 @@
     </row>
     <row r="87" spans="1:10" ht="118.8">
       <c r="A87" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>768</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>769</v>
       </c>
       <c r="C87" s="13">
         <v>8001107</v>
@@ -12399,10 +12393,10 @@
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="12">
@@ -12413,8 +12407,8 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="39.6">
-      <c r="A88" s="244" t="s">
-        <v>780</v>
+      <c r="A88" s="245" t="s">
+        <v>779</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>45</v>
@@ -12423,13 +12417,13 @@
         <v>22</v>
       </c>
       <c r="D88" s="146" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E88" s="100" t="s">
+        <v>784</v>
+      </c>
+      <c r="F88" s="20" t="s">
         <v>785</v>
-      </c>
-      <c r="F88" s="20" t="s">
-        <v>786</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="8" t="s">
@@ -12443,7 +12437,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="39.6">
-      <c r="A89" s="240"/>
+      <c r="A89" s="241"/>
       <c r="B89" s="8" t="s">
         <v>45</v>
       </c>
@@ -12451,13 +12445,13 @@
         <v>22</v>
       </c>
       <c r="D89" s="146" t="s">
+        <v>786</v>
+      </c>
+      <c r="E89" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="F89" s="20" t="s">
         <v>788</v>
-      </c>
-      <c r="F89" s="20" t="s">
-        <v>789</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="8" t="s">
@@ -12471,7 +12465,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="39.6">
-      <c r="A90" s="240"/>
+      <c r="A90" s="241"/>
       <c r="B90" s="8" t="s">
         <v>45</v>
       </c>
@@ -12479,13 +12473,13 @@
         <v>22</v>
       </c>
       <c r="D90" s="146" t="s">
+        <v>789</v>
+      </c>
+      <c r="E90" s="8" t="s">
         <v>790</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="F90" s="20" t="s">
         <v>791</v>
-      </c>
-      <c r="F90" s="20" t="s">
-        <v>792</v>
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="8" t="s">
@@ -12499,7 +12493,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="39.6">
-      <c r="A91" s="240"/>
+      <c r="A91" s="241"/>
       <c r="B91" s="8" t="s">
         <v>45</v>
       </c>
@@ -12507,13 +12501,13 @@
         <v>22</v>
       </c>
       <c r="D91" s="146" t="s">
+        <v>793</v>
+      </c>
+      <c r="E91" s="8" t="s">
         <v>794</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="F91" s="20" t="s">
         <v>795</v>
-      </c>
-      <c r="F91" s="20" t="s">
-        <v>796</v>
       </c>
       <c r="G91" s="8"/>
       <c r="H91" s="8" t="s">
@@ -12527,7 +12521,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="39.6">
-      <c r="A92" s="240"/>
+      <c r="A92" s="241"/>
       <c r="B92" s="8" t="s">
         <v>45</v>
       </c>
@@ -12535,13 +12529,13 @@
         <v>22</v>
       </c>
       <c r="D92" s="146" t="s">
+        <v>796</v>
+      </c>
+      <c r="E92" s="8" t="s">
         <v>797</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="F92" s="20" t="s">
         <v>798</v>
-      </c>
-      <c r="F92" s="20" t="s">
-        <v>799</v>
       </c>
       <c r="G92" s="8"/>
       <c r="H92" s="8" t="s">
@@ -12555,7 +12549,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="39.6">
-      <c r="A93" s="240"/>
+      <c r="A93" s="241"/>
       <c r="B93" s="8" t="s">
         <v>45</v>
       </c>
@@ -12563,13 +12557,13 @@
         <v>22</v>
       </c>
       <c r="D93" s="146" t="s">
+        <v>799</v>
+      </c>
+      <c r="E93" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="F93" s="20" t="s">
         <v>801</v>
-      </c>
-      <c r="F93" s="20" t="s">
-        <v>802</v>
       </c>
       <c r="G93" s="8"/>
       <c r="H93" s="8" t="s">
@@ -12583,7 +12577,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="39.6">
-      <c r="A94" s="240"/>
+      <c r="A94" s="241"/>
       <c r="B94" s="8" t="s">
         <v>45</v>
       </c>
@@ -12591,13 +12585,13 @@
         <v>22</v>
       </c>
       <c r="D94" s="146" t="s">
+        <v>802</v>
+      </c>
+      <c r="E94" s="8" t="s">
         <v>803</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="F94" s="20" t="s">
         <v>804</v>
-      </c>
-      <c r="F94" s="20" t="s">
-        <v>805</v>
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="8" t="s">
@@ -12611,7 +12605,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="39.6">
-      <c r="A95" s="240"/>
+      <c r="A95" s="241"/>
       <c r="B95" s="8" t="s">
         <v>45</v>
       </c>
@@ -12619,13 +12613,13 @@
         <v>22</v>
       </c>
       <c r="D95" s="147" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E95" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="F95" s="20" t="s">
         <v>811</v>
-      </c>
-      <c r="F95" s="20" t="s">
-        <v>812</v>
       </c>
       <c r="G95" s="8"/>
       <c r="H95" s="8" t="s">
@@ -12640,7 +12634,7 @@
     </row>
     <row r="96" spans="1:10" ht="26.4">
       <c r="A96" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>45</v>
@@ -12649,19 +12643,19 @@
         <v>22</v>
       </c>
       <c r="D96" s="148" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E96" s="22" t="s">
+        <v>820</v>
+      </c>
+      <c r="F96" s="20" t="s">
         <v>821</v>
       </c>
-      <c r="F96" s="20" t="s">
+      <c r="G96" s="32" t="s">
         <v>822</v>
       </c>
-      <c r="G96" s="32" t="s">
+      <c r="H96" s="8" t="s">
         <v>823</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>824</v>
       </c>
       <c r="I96" s="12">
         <v>43240</v>
@@ -12672,26 +12666,26 @@
     </row>
     <row r="97" spans="1:10" ht="52.8">
       <c r="A97" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C97" s="13" t="s">
         <v>834</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C97" s="13" t="s">
+      <c r="D97" s="13" t="s">
         <v>835</v>
       </c>
-      <c r="D97" s="13" t="s">
+      <c r="E97" s="13" t="s">
         <v>836</v>
       </c>
-      <c r="E97" s="13" t="s">
-        <v>837</v>
-      </c>
       <c r="F97" s="8" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G97" s="8"/>
       <c r="H97" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I97" s="12">
         <v>43210</v>
@@ -12702,22 +12696,22 @@
     </row>
     <row r="98" spans="1:10" ht="39.6">
       <c r="A98" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>842</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>843</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="149" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G98" s="8"/>
       <c r="H98" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I98" s="12">
         <v>43210</v>
@@ -12728,26 +12722,26 @@
     </row>
     <row r="99" spans="1:10" ht="100.8">
       <c r="A99" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C99" s="13">
         <v>8001106</v>
       </c>
       <c r="D99" s="142" t="s">
+        <v>849</v>
+      </c>
+      <c r="E99" s="30" t="s">
         <v>850</v>
       </c>
-      <c r="E99" s="30" t="s">
-        <v>851</v>
-      </c>
       <c r="F99" s="30" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="8" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I99" s="12">
         <v>43210</v>
@@ -12758,23 +12752,23 @@
     </row>
     <row r="100" spans="1:10" ht="43.2">
       <c r="A100" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>859</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="D100" s="13" t="s">
         <v>860</v>
       </c>
-      <c r="D100" s="13" t="s">
+      <c r="E100" s="109" t="s">
         <v>861</v>
       </c>
-      <c r="E100" s="109" t="s">
+      <c r="F100" s="8" t="s">
         <v>862</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>863</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I100" s="12">
         <v>43210</v>
@@ -12785,28 +12779,28 @@
     </row>
     <row r="101" spans="1:10" ht="72">
       <c r="A101" s="17" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B101" s="150" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C101" s="151">
         <v>8000823</v>
       </c>
       <c r="D101" s="152" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E101" s="153" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F101" s="154" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G101" s="155" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I101" s="156">
         <v>43196</v>
@@ -12815,23 +12809,23 @@
     </row>
     <row r="102" spans="1:10" ht="72">
       <c r="A102" s="19" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B102" s="150" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C102" s="151"/>
       <c r="D102" s="158" t="s">
+        <v>742</v>
+      </c>
+      <c r="E102" s="13" t="s">
         <v>743</v>
       </c>
-      <c r="E102" s="13" t="s">
+      <c r="F102" s="19" t="s">
         <v>744</v>
       </c>
-      <c r="F102" s="19" t="s">
-        <v>745</v>
-      </c>
       <c r="G102" s="28" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="156">
@@ -12841,21 +12835,21 @@
     </row>
     <row r="103" spans="1:10" ht="72">
       <c r="A103" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="B103" s="77" t="s">
         <v>882</v>
-      </c>
-      <c r="B103" s="77" t="s">
-        <v>883</v>
       </c>
       <c r="C103" s="142"/>
       <c r="D103" s="115"/>
       <c r="E103" s="30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F103" s="81" t="s">
+        <v>883</v>
+      </c>
+      <c r="G103" s="28" t="s">
         <v>884</v>
-      </c>
-      <c r="G103" s="28" t="s">
-        <v>885</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="12"/>
@@ -12865,7 +12859,7 @@
     </row>
     <row r="104" spans="1:10" ht="66">
       <c r="A104" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>45</v>
@@ -12877,13 +12871,13 @@
         <v>2296810</v>
       </c>
       <c r="E104" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="F104" s="20" t="s">
         <v>895</v>
       </c>
-      <c r="F104" s="20" t="s">
+      <c r="G104" s="8" t="s">
         <v>896</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>897</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="12">
@@ -12895,7 +12889,7 @@
     </row>
     <row r="105" spans="1:10" ht="66">
       <c r="A105" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>45</v>
@@ -12907,13 +12901,13 @@
         <v>2425629</v>
       </c>
       <c r="E105" s="13" t="s">
+        <v>897</v>
+      </c>
+      <c r="F105" s="20" t="s">
         <v>898</v>
       </c>
-      <c r="F105" s="20" t="s">
+      <c r="G105" s="8" t="s">
         <v>899</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>900</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="12">
@@ -12925,7 +12919,7 @@
     </row>
     <row r="106" spans="1:10" ht="28.8">
       <c r="A106" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B106" s="27" t="s">
         <v>77</v>
@@ -12934,14 +12928,14 @@
         <v>22</v>
       </c>
       <c r="D106" s="95" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E106" s="13"/>
       <c r="F106" s="40" t="s">
+        <v>902</v>
+      </c>
+      <c r="G106" s="8" t="s">
         <v>903</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>904</v>
       </c>
       <c r="I106" s="12">
         <v>43270</v>
@@ -12952,7 +12946,7 @@
     </row>
     <row r="107" spans="1:10" ht="28.8">
       <c r="A107" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B107" s="27" t="s">
         <v>77</v>
@@ -12961,14 +12955,14 @@
         <v>22</v>
       </c>
       <c r="D107" s="95" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E107" s="13"/>
       <c r="F107" s="40" t="s">
+        <v>906</v>
+      </c>
+      <c r="G107" s="8" t="s">
         <v>907</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>908</v>
       </c>
       <c r="H107" s="9"/>
       <c r="I107" s="12">
@@ -12980,7 +12974,7 @@
     </row>
     <row r="108" spans="1:10" ht="28.8">
       <c r="A108" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B108" s="27" t="s">
         <v>77</v>
@@ -12989,14 +12983,14 @@
         <v>22</v>
       </c>
       <c r="D108" s="95" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E108" s="13"/>
       <c r="F108" s="40" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H108" s="9"/>
       <c r="I108" s="12">
@@ -13008,7 +13002,7 @@
     </row>
     <row r="109" spans="1:10" ht="28.8">
       <c r="A109" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B109" s="27" t="s">
         <v>77</v>
@@ -13017,14 +13011,14 @@
         <v>22</v>
       </c>
       <c r="D109" s="95" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E109" s="13"/>
       <c r="F109" s="40" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H109" s="9"/>
       <c r="I109" s="12">
@@ -13036,7 +13030,7 @@
     </row>
     <row r="110" spans="1:10" ht="28.8">
       <c r="A110" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B110" s="27" t="s">
         <v>77</v>
@@ -13045,14 +13039,14 @@
         <v>22</v>
       </c>
       <c r="D110" s="95" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E110" s="13"/>
       <c r="F110" s="40" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H110" s="9"/>
       <c r="I110" s="12">
@@ -13064,7 +13058,7 @@
     </row>
     <row r="111" spans="1:10" ht="28.8">
       <c r="A111" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B111" s="27" t="s">
         <v>77</v>
@@ -13073,14 +13067,14 @@
         <v>22</v>
       </c>
       <c r="D111" s="161" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="40" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H111" s="9"/>
       <c r="I111" s="12">
@@ -13092,7 +13086,7 @@
     </row>
     <row r="112" spans="1:10" ht="28.8">
       <c r="A112" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B112" s="27" t="s">
         <v>77</v>
@@ -13101,14 +13095,14 @@
         <v>22</v>
       </c>
       <c r="D112" s="162" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E112" s="13"/>
       <c r="F112" s="40" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H112" s="9"/>
       <c r="I112" s="12">
@@ -13120,7 +13114,7 @@
     </row>
     <row r="113" spans="1:10" ht="28.8">
       <c r="A113" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B113" s="27" t="s">
         <v>77</v>
@@ -13129,14 +13123,14 @@
         <v>22</v>
       </c>
       <c r="D113" s="163" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E113" s="13"/>
       <c r="F113" s="164" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H113" s="9"/>
       <c r="I113" s="12">
@@ -13148,7 +13142,7 @@
     </row>
     <row r="114" spans="1:10" ht="28.8">
       <c r="A114" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B114" s="27" t="s">
         <v>77</v>
@@ -13157,14 +13151,14 @@
         <v>22</v>
       </c>
       <c r="D114" s="165" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="166" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H114" s="9"/>
       <c r="I114" s="12">
@@ -13176,7 +13170,7 @@
     </row>
     <row r="115" spans="1:10" ht="28.8">
       <c r="A115" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B115" s="27" t="s">
         <v>77</v>
@@ -13185,14 +13179,14 @@
         <v>22</v>
       </c>
       <c r="D115" s="95" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="166" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="12">
@@ -13204,7 +13198,7 @@
     </row>
     <row r="116" spans="1:10" ht="28.8">
       <c r="A116" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B116" s="27" t="s">
         <v>77</v>
@@ -13213,14 +13207,14 @@
         <v>22</v>
       </c>
       <c r="D116" s="163" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="40" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H116" s="9"/>
       <c r="I116" s="12">
@@ -13232,7 +13226,7 @@
     </row>
     <row r="117" spans="1:10" ht="118.8">
       <c r="A117" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>45</v>
@@ -13241,19 +13235,19 @@
         <v>22</v>
       </c>
       <c r="D117" s="148" t="s">
+        <v>927</v>
+      </c>
+      <c r="E117" s="22" t="s">
         <v>928</v>
       </c>
-      <c r="E117" s="22" t="s">
+      <c r="F117" s="20" t="s">
         <v>929</v>
       </c>
-      <c r="F117" s="20" t="s">
+      <c r="G117" s="130" t="s">
         <v>930</v>
       </c>
-      <c r="G117" s="130" t="s">
+      <c r="H117" s="8" t="s">
         <v>931</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>932</v>
       </c>
       <c r="I117" s="12">
         <v>43240</v>
@@ -13264,7 +13258,7 @@
     </row>
     <row r="118" spans="1:10" ht="26.4">
       <c r="A118" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>45</v>
@@ -13273,14 +13267,14 @@
         <v>22</v>
       </c>
       <c r="D118" s="148" t="s">
+        <v>932</v>
+      </c>
+      <c r="E118" s="22" t="s">
         <v>933</v>
-      </c>
-      <c r="E118" s="22" t="s">
-        <v>934</v>
       </c>
       <c r="F118" s="20"/>
       <c r="G118" s="8" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H118" s="9"/>
       <c r="I118" s="12">
@@ -13292,7 +13286,7 @@
     </row>
     <row r="119" spans="1:10" ht="28.8">
       <c r="A119" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B119" s="27" t="s">
         <v>77</v>
@@ -13303,10 +13297,10 @@
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
       <c r="F119" s="40" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G119" s="124" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H119" s="9"/>
       <c r="I119" s="12">
@@ -13318,7 +13312,7 @@
     </row>
     <row r="120" spans="1:10" ht="28.8">
       <c r="A120" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B120" s="27" t="s">
         <v>77</v>
@@ -13327,14 +13321,14 @@
         <v>22</v>
       </c>
       <c r="D120" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E120" s="13"/>
       <c r="F120" s="40" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H120" s="9"/>
       <c r="I120" s="12">
@@ -13500,10 +13494,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="246" t="s">
+      <c r="I1" s="247" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="240"/>
+      <c r="J1" s="241"/>
     </row>
     <row r="2" spans="1:10" ht="26.4">
       <c r="A2" s="3"/>
@@ -13532,7 +13526,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>33</v>
@@ -13542,7 +13536,7 @@
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I3" s="12">
         <v>43240</v>
@@ -13562,7 +13556,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>33</v>
@@ -13572,7 +13566,7 @@
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I4" s="12">
         <v>43240</v>
@@ -13592,7 +13586,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>33</v>
@@ -13602,7 +13596,7 @@
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I5" s="12">
         <v>43240</v>

--- a/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
+++ b/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barbj\Documents\Infoway-Health Canada CCDD\formulary\Working QA Team Folders\Pre- Release QA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F139203B-1813-4EC5-8956-E764DFCA0855}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="17268" windowHeight="5256" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="17268" windowHeight="5256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Action Items, Open" sheetId="1" r:id="rId1"/>
@@ -12,17 +18,17 @@
     <sheet name="Completed AIs Released" sheetId="3" r:id="rId3"/>
     <sheet name="AIs no longer relevant" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="F119" authorId="0">
+    <comment ref="F120" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -34,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F133" authorId="0">
+    <comment ref="F134" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -51,12 +57,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G22" authorId="0">
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F23" authorId="0">
+    <comment ref="F23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,12 +94,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E88" authorId="0">
+    <comment ref="E88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G96" authorId="0">
+    <comment ref="G96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H117" authorId="0">
+    <comment ref="H117" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="1015">
   <si>
     <t>TM</t>
   </si>
@@ -4359,18 +4365,39 @@
   <si>
     <t>DPD Update requested LT 12Jul18; Change reflected in the DPD jh 19Jul18</t>
   </si>
+  <si>
+    <t>acetaminophen and chlorpheniramine and dextromethorphan and pseudoephedrine</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">acetaminophen 650 mg per 24 g and chlorpheniramine maleate 4 mg per 24 g and dextromethorphan hydrobromide 20 mg per 24 g and pseudoephedrine hydrochloride 60 mg per 24 g </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>oral powder</t>
+    </r>
+  </si>
+  <si>
+    <t>Discussion: some or these sachet type products generated this way and some as "per pck" ingredients.bfj</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="#0"/>
     <numFmt numFmtId="167" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="55">
+  <fonts count="57">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4666,6 +4693,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -4979,7 +5019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5705,6 +5745,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6019,22 +6065,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J143"/>
+  <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
@@ -6052,7 +6098,7 @@
     <col min="11" max="16384" width="14.44140625" style="180"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="172" customFormat="1" ht="27.6">
+    <row r="1" spans="1:10" s="172" customFormat="1" ht="28.2">
       <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
@@ -6105,56 +6151,50 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="138">
-      <c r="A3" s="181" t="s">
+    <row r="3" spans="1:10" ht="98.7">
+      <c r="A3" s="173" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="248">
+        <v>2246848</v>
+      </c>
+      <c r="E3" s="249" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F3" s="177" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G3" s="174"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="179"/>
+    </row>
+    <row r="4" spans="1:10" ht="138">
+      <c r="A4" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="178" t="s">
+      <c r="B4" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="174" t="s">
+      <c r="C4" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="174" t="s">
+      <c r="D4" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="182" t="s">
+      <c r="E4" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="177" t="s">
+      <c r="F4" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="174" t="s">
+      <c r="G4" s="174" t="s">
         <v>46</v>
-      </c>
-      <c r="H3" s="178"/>
-      <c r="I3" s="179">
-        <v>43252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="124.2">
-      <c r="A4" s="183" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="178"/>
-      <c r="C4" s="174" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="174" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="182" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="177" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="174" t="s">
-        <v>54</v>
       </c>
       <c r="H4" s="178"/>
       <c r="I4" s="179">
-        <v>43253</v>
+        <v>43252</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="124.2">
@@ -6163,13 +6203,13 @@
       </c>
       <c r="B5" s="178"/>
       <c r="C5" s="174" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D5" s="174" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E5" s="182" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F5" s="177" t="s">
         <v>53</v>
@@ -6179,7 +6219,7 @@
       </c>
       <c r="H5" s="178"/>
       <c r="I5" s="179">
-        <v>43254</v>
+        <v>43253</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="124.2">
@@ -6188,10 +6228,10 @@
       </c>
       <c r="B6" s="178"/>
       <c r="C6" s="174" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D6" s="174" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E6" s="182" t="s">
         <v>57</v>
@@ -6204,332 +6244,332 @@
       </c>
       <c r="H6" s="178"/>
       <c r="I6" s="179">
+        <v>43254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="124.2">
+      <c r="A7" s="183" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="178"/>
+      <c r="C7" s="174" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="174" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="182" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="177" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="178"/>
+      <c r="I7" s="179">
         <v>43255</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="317.39999999999998">
-      <c r="A7" s="184" t="s">
+    <row r="8" spans="1:10" ht="345">
+      <c r="A8" s="184" t="s">
         <v>442</v>
       </c>
-      <c r="B7" s="178" t="s">
+      <c r="B8" s="178" t="s">
         <v>939</v>
       </c>
-      <c r="C7" s="174"/>
-      <c r="D7" s="185">
+      <c r="C8" s="174"/>
+      <c r="D8" s="185">
         <v>2368196</v>
       </c>
-      <c r="E7" s="186" t="s">
+      <c r="E8" s="186" t="s">
         <v>976</v>
       </c>
-      <c r="F7" s="177" t="s">
+      <c r="F8" s="177" t="s">
         <v>941</v>
-      </c>
-      <c r="G7" s="174"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="179"/>
-    </row>
-    <row r="8" spans="1:10" ht="331.2">
-      <c r="A8" s="187" t="s">
-        <v>944</v>
-      </c>
-      <c r="B8" s="178" t="s">
-        <v>945</v>
-      </c>
-      <c r="C8" s="174"/>
-      <c r="D8" s="188">
-        <v>2388537</v>
-      </c>
-      <c r="E8" s="186" t="s">
-        <v>977</v>
-      </c>
-      <c r="F8" s="177" t="s">
-        <v>940</v>
       </c>
       <c r="G8" s="174"/>
       <c r="H8" s="178"/>
       <c r="I8" s="179"/>
     </row>
-    <row r="9" spans="1:10" ht="409.6">
-      <c r="A9" s="184" t="s">
-        <v>969</v>
+    <row r="9" spans="1:10" ht="358.8">
+      <c r="A9" s="187" t="s">
+        <v>944</v>
       </c>
       <c r="B9" s="178" t="s">
         <v>945</v>
       </c>
       <c r="C9" s="174"/>
       <c r="D9" s="188">
-        <v>2383608</v>
-      </c>
-      <c r="E9" s="189" t="s">
-        <v>943</v>
-      </c>
-      <c r="F9" s="190" t="s">
-        <v>942</v>
-      </c>
-      <c r="G9" s="190"/>
+        <v>2388537</v>
+      </c>
+      <c r="E9" s="186" t="s">
+        <v>977</v>
+      </c>
+      <c r="F9" s="177" t="s">
+        <v>940</v>
+      </c>
+      <c r="G9" s="174"/>
       <c r="H9" s="178"/>
       <c r="I9" s="179"/>
     </row>
-    <row r="10" spans="1:10" ht="41.4">
-      <c r="A10" s="173" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="174" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="174" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="174" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="182" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="177" t="s">
-        <v>954</v>
-      </c>
-      <c r="G10" s="194"/>
-      <c r="H10" s="195" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="179">
-        <v>43196</v>
-      </c>
+    <row r="10" spans="1:10" ht="409.5">
+      <c r="A10" s="184" t="s">
+        <v>969</v>
+      </c>
+      <c r="B10" s="178" t="s">
+        <v>945</v>
+      </c>
+      <c r="C10" s="174"/>
+      <c r="D10" s="188">
+        <v>2383608</v>
+      </c>
+      <c r="E10" s="189" t="s">
+        <v>943</v>
+      </c>
+      <c r="F10" s="190" t="s">
+        <v>942</v>
+      </c>
+      <c r="G10" s="190"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="179"/>
     </row>
     <row r="11" spans="1:10" ht="41.4">
       <c r="A11" s="173" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="174" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="174" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="174" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="182" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="177" t="s">
+        <v>954</v>
+      </c>
+      <c r="G11" s="194"/>
+      <c r="H11" s="195" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="179">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="41.4">
+      <c r="A12" s="173" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="174"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="174"/>
-      <c r="E11" s="182"/>
-      <c r="F11" s="177" t="s">
+      <c r="B12" s="174"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="194"/>
-      <c r="H11" s="195"/>
-      <c r="I11" s="179">
+      <c r="G12" s="194"/>
+      <c r="H12" s="195"/>
+      <c r="I12" s="179">
         <v>39614</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="331.2">
-      <c r="A12" s="173" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="174"/>
-      <c r="D12" s="175" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="182" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="177" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="178" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" s="178"/>
-      <c r="I12" s="179">
-        <v>43271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="96.6">
-      <c r="A13" s="196" t="s">
+    <row r="13" spans="1:10" ht="331.2">
+      <c r="A13" s="173" t="s">
         <v>99</v>
       </c>
       <c r="B13" s="174" t="s">
         <v>77</v>
       </c>
       <c r="C13" s="174"/>
-      <c r="D13" s="197" t="s">
+      <c r="D13" s="175" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="182" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="177" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="178" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="178"/>
+      <c r="I13" s="179">
+        <v>43271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="96.6">
+      <c r="A14" s="196" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="174" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="174"/>
+      <c r="D14" s="197" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="182" t="s">
+      <c r="E14" s="182" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="177" t="s">
+      <c r="F14" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="G13" s="178" t="s">
+      <c r="G14" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="H13" s="178"/>
-      <c r="I13" s="179"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="173" t="s">
+      <c r="H14" s="178"/>
+      <c r="I14" s="179"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.1">
+      <c r="A15" s="173" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="178" t="s">
+      <c r="B15" s="178" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="174" t="s">
+      <c r="C15" s="174" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="174"/>
-      <c r="E14" s="182"/>
-      <c r="F14" s="177" t="s">
+      <c r="D15" s="174"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="177" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="179">
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="179">
         <v>43252</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="41.4">
-      <c r="A15" s="196" t="s">
+    <row r="16" spans="1:10" ht="41.4">
+      <c r="A16" s="196" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="178" t="s">
+      <c r="B16" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="174" t="s">
+      <c r="C16" s="174" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="180" t="s">
+      <c r="D16" s="180" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="198" t="s">
+      <c r="E16" s="198" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="177" t="s">
+      <c r="F16" s="177" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="194"/>
-      <c r="H15" s="199" t="s">
+      <c r="G16" s="194"/>
+      <c r="H16" s="199" t="s">
         <v>135</v>
       </c>
-      <c r="I15" s="179">
+      <c r="I16" s="179">
         <v>43240</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="41.4">
-      <c r="A16" s="173" t="s">
+    <row r="17" spans="1:9" ht="42.3">
+      <c r="A17" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="178" t="s">
+      <c r="B17" s="178" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="191" t="s">
+      <c r="C17" s="191" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="178" t="s">
+      <c r="D17" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="176"/>
-      <c r="F16" s="178" t="s">
+      <c r="E17" s="176"/>
+      <c r="F17" s="178" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="178" t="s">
+      <c r="G17" s="178" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="178"/>
-      <c r="I16" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="27.6">
-      <c r="A17" s="173" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" s="178" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="175"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="199" t="s">
-        <v>146</v>
-      </c>
-      <c r="G17" s="178"/>
       <c r="H17" s="178"/>
       <c r="I17" s="179">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="82.8">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="27.6">
       <c r="A18" s="173" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B18" s="178" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="191">
-        <v>8000916</v>
-      </c>
-      <c r="D18" s="200" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="186" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="201" t="s">
-        <v>170</v>
-      </c>
-      <c r="G18" s="178" t="s">
-        <v>173</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C18" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="175"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="199" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="178"/>
       <c r="H18" s="178"/>
       <c r="I18" s="179">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="82.8">
+      <c r="A19" s="173" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="178" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="191">
+        <v>8000916</v>
+      </c>
+      <c r="D19" s="200" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="186" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="201" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" s="178" t="s">
+        <v>173</v>
+      </c>
+      <c r="H19" s="178"/>
+      <c r="I19" s="179">
         <v>43240</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="165.6">
-      <c r="A19" s="173" t="s">
+    <row r="20" spans="1:9" ht="165.6">
+      <c r="A20" s="173" t="s">
         <v>175</v>
       </c>
-      <c r="B19" s="178" t="s">
+      <c r="B20" s="178" t="s">
         <v>176</v>
       </c>
-      <c r="C19" s="191" t="s">
+      <c r="C20" s="191" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="200"/>
-      <c r="E19" s="182" t="s">
+      <c r="D20" s="200"/>
+      <c r="E20" s="182" t="s">
         <v>946</v>
       </c>
-      <c r="F19" s="199" t="s">
+      <c r="F20" s="199" t="s">
         <v>179</v>
       </c>
-      <c r="G19" s="178" t="s">
+      <c r="G20" s="178" t="s">
         <v>182</v>
       </c>
-      <c r="H19" s="178"/>
-      <c r="I19" s="179"/>
-    </row>
-    <row r="20" spans="1:9" ht="55.2">
-      <c r="A20" s="173" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="178" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="175" t="s">
-        <v>184</v>
-      </c>
-      <c r="E20" s="176"/>
-      <c r="F20" s="201" t="s">
-        <v>186</v>
-      </c>
-      <c r="G20" s="202" t="s">
-        <v>190</v>
-      </c>
       <c r="H20" s="178"/>
-      <c r="I20" s="179">
-        <v>43263</v>
-      </c>
+      <c r="I20" s="179"/>
     </row>
     <row r="21" spans="1:9" ht="55.2">
       <c r="A21" s="173" t="s">
@@ -6542,147 +6582,149 @@
         <v>22</v>
       </c>
       <c r="D21" s="175" t="s">
-        <v>199</v>
-      </c>
-      <c r="E21" s="186" t="s">
-        <v>203</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E21" s="176"/>
       <c r="F21" s="201" t="s">
-        <v>204</v>
-      </c>
-      <c r="G21" s="178"/>
+        <v>186</v>
+      </c>
+      <c r="G21" s="202" t="s">
+        <v>190</v>
+      </c>
       <c r="H21" s="178"/>
       <c r="I21" s="179">
         <v>43263</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="69">
+    <row r="22" spans="1:9" ht="55.2">
       <c r="A22" s="173" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="178" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="175" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22" s="186" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22" s="201" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="179">
+        <v>43263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="69">
+      <c r="A23" s="173" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="174" t="s">
+      <c r="B23" s="174" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="174" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22" s="180" t="s">
-        <v>207</v>
-      </c>
-      <c r="E22" s="182"/>
-      <c r="F22" s="177" t="s">
-        <v>208</v>
-      </c>
-      <c r="G22" s="194"/>
-      <c r="H22" s="199"/>
-      <c r="I22" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="41.4">
-      <c r="A23" s="173" t="s">
-        <v>209</v>
-      </c>
-      <c r="B23" s="174" t="s">
-        <v>210</v>
-      </c>
-      <c r="C23" s="203" t="s">
+      <c r="C23" s="174" t="s">
         <v>206</v>
       </c>
       <c r="D23" s="180" t="s">
         <v>207</v>
       </c>
       <c r="E23" s="182"/>
-      <c r="F23" s="180" t="s">
-        <v>212</v>
-      </c>
-      <c r="G23" s="194" t="s">
-        <v>213</v>
-      </c>
-      <c r="H23" s="178"/>
+      <c r="F23" s="177" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" s="194"/>
+      <c r="H23" s="199"/>
       <c r="I23" s="179">
         <v>43196</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="27.6">
+    <row r="24" spans="1:9" ht="41.4">
       <c r="A24" s="173" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B24" s="174" t="s">
         <v>210</v>
       </c>
-      <c r="C24" s="174" t="s">
-        <v>216</v>
-      </c>
-      <c r="D24" s="174" t="s">
-        <v>217</v>
+      <c r="C24" s="203" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="180" t="s">
+        <v>207</v>
       </c>
       <c r="E24" s="182"/>
-      <c r="F24" s="199" t="s">
-        <v>218</v>
-      </c>
-      <c r="G24" s="194"/>
-      <c r="H24" s="195" t="s">
-        <v>219</v>
-      </c>
+      <c r="F24" s="180" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" s="194" t="s">
+        <v>213</v>
+      </c>
+      <c r="H24" s="178"/>
       <c r="I24" s="179">
         <v>43196</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="69">
+    <row r="25" spans="1:9" ht="28.2">
       <c r="A25" s="173" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="174" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="174" t="s">
+        <v>217</v>
+      </c>
+      <c r="E25" s="182"/>
+      <c r="F25" s="199" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" s="194"/>
+      <c r="H25" s="195" t="s">
+        <v>219</v>
+      </c>
+      <c r="I25" s="179">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="69">
+      <c r="A26" s="173" t="s">
         <v>220</v>
       </c>
-      <c r="B25" s="174" t="s">
+      <c r="B26" s="174" t="s">
         <v>221</v>
       </c>
-      <c r="C25" s="200"/>
-      <c r="D25" s="175" t="s">
+      <c r="C26" s="200"/>
+      <c r="D26" s="175" t="s">
         <v>223</v>
       </c>
-      <c r="E25" s="192"/>
-      <c r="F25" s="201" t="s">
+      <c r="E26" s="192"/>
+      <c r="F26" s="201" t="s">
         <v>224</v>
       </c>
-      <c r="G25" s="194" t="s">
+      <c r="G26" s="194" t="s">
         <v>225</v>
       </c>
-      <c r="H25" s="195"/>
-      <c r="I25" s="179"/>
-    </row>
-    <row r="26" spans="1:9" ht="41.4">
-      <c r="A26" s="173" t="s">
+      <c r="H26" s="195"/>
+      <c r="I26" s="179"/>
+    </row>
+    <row r="27" spans="1:9" ht="55.2">
+      <c r="A27" s="173" t="s">
         <v>226</v>
       </c>
-      <c r="B26" s="178" t="s">
+      <c r="B27" s="178" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="178"/>
-      <c r="D26" s="174" t="s">
-        <v>227</v>
-      </c>
-      <c r="E26" s="182" t="s">
-        <v>228</v>
-      </c>
-      <c r="F26" s="177" t="s">
-        <v>229</v>
-      </c>
-      <c r="G26" s="194"/>
-      <c r="H26" s="178" t="s">
-        <v>230</v>
-      </c>
-      <c r="I26" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="41.4">
-      <c r="A27" s="196" t="s">
-        <v>226</v>
-      </c>
-      <c r="B27" s="178"/>
       <c r="C27" s="178"/>
       <c r="D27" s="174" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E27" s="182" t="s">
         <v>228</v>
@@ -6691,19 +6733,21 @@
         <v>229</v>
       </c>
       <c r="G27" s="194"/>
-      <c r="H27" s="178"/>
+      <c r="H27" s="178" t="s">
+        <v>230</v>
+      </c>
       <c r="I27" s="179">
         <v>43196</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="41.4">
+    <row r="28" spans="1:9" ht="55.2">
       <c r="A28" s="196" t="s">
         <v>226</v>
       </c>
       <c r="B28" s="178"/>
       <c r="C28" s="178"/>
       <c r="D28" s="174" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E28" s="182" t="s">
         <v>228</v>
@@ -6717,17 +6761,17 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="41.4">
+    <row r="29" spans="1:9" ht="55.2">
       <c r="A29" s="196" t="s">
         <v>226</v>
       </c>
       <c r="B29" s="178"/>
       <c r="C29" s="178"/>
       <c r="D29" s="174" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E29" s="182" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F29" s="177" t="s">
         <v>229</v>
@@ -6738,132 +6782,132 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="41.4">
-      <c r="A30" s="173" t="s">
+    <row r="30" spans="1:9" ht="55.2">
+      <c r="A30" s="196" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" s="178"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="174" t="s">
+        <v>233</v>
+      </c>
+      <c r="E30" s="182" t="s">
+        <v>234</v>
+      </c>
+      <c r="F30" s="177" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" s="194"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="179">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="41.4">
+      <c r="A31" s="173" t="s">
         <v>198</v>
       </c>
-      <c r="B30" s="204" t="str">
+      <c r="B31" s="204" t="str">
         <f>HYPERLINK("https://docs.google.com/spreadsheets/d/1CZZj8fSMSaEaqlK8KCBOVHZaJixwFi-xHDmvUY_rwCk/edit#gid=1997930010&amp;range=A3:A19","Master: Antibacterials A")</f>
         <v>Master: Antibacterials A</v>
       </c>
-      <c r="C30" s="178"/>
-      <c r="D30" s="175" t="s">
+      <c r="C31" s="178"/>
+      <c r="D31" s="175" t="s">
         <v>236</v>
       </c>
-      <c r="E30" s="176" t="s">
+      <c r="E31" s="176" t="s">
         <v>237</v>
       </c>
-      <c r="F30" s="201" t="s">
+      <c r="F31" s="201" t="s">
         <v>238</v>
       </c>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="179">
+      <c r="G31" s="178"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="179">
         <v>43250</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="110.4">
-      <c r="A31" s="173" t="s">
+    <row r="32" spans="1:9" ht="110.4">
+      <c r="A32" s="173" t="s">
         <v>239</v>
       </c>
-      <c r="B31" s="174" t="s">
+      <c r="B32" s="174" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="174" t="s">
+      <c r="C32" s="174" t="s">
         <v>240</v>
       </c>
-      <c r="D31" s="180" t="s">
+      <c r="D32" s="180" t="s">
         <v>207</v>
       </c>
-      <c r="E31" s="182"/>
-      <c r="F31" s="177" t="s">
+      <c r="E32" s="182"/>
+      <c r="F32" s="177" t="s">
         <v>955</v>
       </c>
-      <c r="G31" s="194"/>
-      <c r="I31" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="110.4">
-      <c r="A32" s="196" t="s">
-        <v>239</v>
-      </c>
-      <c r="B32" s="174"/>
-      <c r="C32" s="174"/>
-      <c r="D32" s="174" t="s">
-        <v>242</v>
-      </c>
-      <c r="E32" s="182" t="s">
-        <v>243</v>
-      </c>
-      <c r="F32" s="193" t="s">
-        <v>244</v>
-      </c>
-      <c r="G32" s="174" t="s">
-        <v>956</v>
-      </c>
-      <c r="H32" s="178"/>
+      <c r="G32" s="194"/>
       <c r="I32" s="179">
         <v>43196</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="69">
+    <row r="33" spans="1:10" ht="110.4">
       <c r="A33" s="196" t="s">
         <v>239</v>
       </c>
       <c r="B33" s="174"/>
       <c r="C33" s="174"/>
       <c r="D33" s="174" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E33" s="182" t="s">
-        <v>246</v>
-      </c>
-      <c r="F33" s="177" t="s">
-        <v>247</v>
+        <v>243</v>
+      </c>
+      <c r="F33" s="193" t="s">
+        <v>244</v>
       </c>
       <c r="G33" s="174" t="s">
-        <v>248</v>
+        <v>956</v>
       </c>
       <c r="H33" s="178"/>
       <c r="I33" s="179">
         <v>43196</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="55.2">
-      <c r="A34" s="173" t="s">
-        <v>249</v>
-      </c>
-      <c r="B34" s="174" t="s">
-        <v>250</v>
-      </c>
+    <row r="34" spans="1:10" ht="69">
+      <c r="A34" s="196" t="s">
+        <v>239</v>
+      </c>
+      <c r="B34" s="174"/>
       <c r="C34" s="174"/>
       <c r="D34" s="174" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E34" s="182" t="s">
-        <v>947</v>
+        <v>246</v>
       </c>
       <c r="F34" s="177" t="s">
-        <v>255</v>
-      </c>
-      <c r="G34" s="174"/>
+        <v>247</v>
+      </c>
+      <c r="G34" s="174" t="s">
+        <v>248</v>
+      </c>
       <c r="H34" s="178"/>
-      <c r="I34" s="179"/>
+      <c r="I34" s="179">
+        <v>43196</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="55.2">
-      <c r="A35" s="196" t="s">
+      <c r="A35" s="173" t="s">
         <v>249</v>
       </c>
       <c r="B35" s="174" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C35" s="174"/>
       <c r="D35" s="174" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E35" s="182" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F35" s="177" t="s">
         <v>255</v>
@@ -6872,107 +6916,99 @@
       <c r="H35" s="178"/>
       <c r="I35" s="179"/>
     </row>
-    <row r="36" spans="1:10" ht="317.39999999999998">
-      <c r="A36" s="173" t="s">
+    <row r="36" spans="1:10" ht="55.2">
+      <c r="A36" s="196" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36" s="174" t="s">
+        <v>256</v>
+      </c>
+      <c r="C36" s="174"/>
+      <c r="D36" s="174" t="s">
+        <v>257</v>
+      </c>
+      <c r="E36" s="182" t="s">
+        <v>948</v>
+      </c>
+      <c r="F36" s="177" t="s">
+        <v>255</v>
+      </c>
+      <c r="G36" s="174"/>
+      <c r="H36" s="178"/>
+      <c r="I36" s="179"/>
+    </row>
+    <row r="37" spans="1:10" ht="317.39999999999998">
+      <c r="A37" s="173" t="s">
         <v>970</v>
       </c>
-      <c r="B36" s="174" t="s">
+      <c r="B37" s="174" t="s">
         <v>261</v>
       </c>
-      <c r="C36" s="174"/>
-      <c r="D36" s="175" t="s">
+      <c r="C37" s="174"/>
+      <c r="D37" s="175" t="s">
         <v>262</v>
-      </c>
-      <c r="E36" s="186" t="s">
-        <v>978</v>
-      </c>
-      <c r="F36" s="177" t="s">
-        <v>971</v>
-      </c>
-      <c r="G36" s="205"/>
-      <c r="H36" s="206"/>
-      <c r="I36" s="205">
-        <v>9005524</v>
-      </c>
-      <c r="J36" s="206" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="303.60000000000002">
-      <c r="A37" s="196" t="s">
-        <v>970</v>
-      </c>
-      <c r="B37" s="180" t="s">
-        <v>945</v>
-      </c>
-      <c r="C37" s="207">
-        <v>2399733</v>
       </c>
       <c r="E37" s="186" t="s">
         <v>978</v>
       </c>
-      <c r="F37" s="208" t="s">
-        <v>972</v>
+      <c r="F37" s="177" t="s">
+        <v>971</v>
       </c>
       <c r="G37" s="205"/>
       <c r="H37" s="206"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="206"/>
-    </row>
-    <row r="38" spans="1:10" ht="124.2">
-      <c r="A38" s="173" t="s">
+      <c r="I37" s="205">
+        <v>9005524</v>
+      </c>
+      <c r="J37" s="206" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="303.60000000000002">
+      <c r="A38" s="196" t="s">
+        <v>970</v>
+      </c>
+      <c r="B38" s="180" t="s">
+        <v>945</v>
+      </c>
+      <c r="C38" s="207">
+        <v>2399733</v>
+      </c>
+      <c r="E38" s="186" t="s">
+        <v>978</v>
+      </c>
+      <c r="F38" s="208" t="s">
+        <v>972</v>
+      </c>
+      <c r="G38" s="205"/>
+      <c r="H38" s="206"/>
+      <c r="I38" s="205"/>
+      <c r="J38" s="206"/>
+    </row>
+    <row r="39" spans="1:10" ht="151.80000000000001">
+      <c r="A39" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B38" s="178" t="s">
+      <c r="B39" s="178" t="s">
         <v>272</v>
       </c>
-      <c r="D38" s="174" t="s">
+      <c r="D39" s="174" t="s">
         <v>273</v>
       </c>
-      <c r="E38" s="182" t="s">
+      <c r="E39" s="182" t="s">
         <v>274</v>
       </c>
-      <c r="F38" s="177" t="s">
+      <c r="F39" s="177" t="s">
         <v>275</v>
       </c>
-      <c r="G38" s="174" t="s">
+      <c r="G39" s="174" t="s">
         <v>276</v>
       </c>
-      <c r="H38" s="178"/>
-      <c r="I38" s="179"/>
-    </row>
-    <row r="39" spans="1:10" ht="96.6">
-      <c r="A39" s="196" t="s">
+      <c r="H39" s="178"/>
+      <c r="I39" s="179"/>
+    </row>
+    <row r="40" spans="1:10" ht="96.6">
+      <c r="A40" s="196" t="s">
         <v>277</v>
-      </c>
-      <c r="B39" s="178" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="175" t="s">
-        <v>278</v>
-      </c>
-      <c r="E39" s="182" t="s">
-        <v>279</v>
-      </c>
-      <c r="F39" s="199" t="s">
-        <v>957</v>
-      </c>
-      <c r="G39" s="199" t="s">
-        <v>280</v>
-      </c>
-      <c r="H39" s="178" t="s">
-        <v>281</v>
-      </c>
-      <c r="I39" s="179">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="82.8">
-      <c r="A40" s="173" t="s">
-        <v>282</v>
       </c>
       <c r="B40" s="178" t="s">
         <v>21</v>
@@ -6980,17 +7016,17 @@
       <c r="C40" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="200" t="s">
-        <v>283</v>
+      <c r="D40" s="175" t="s">
+        <v>278</v>
       </c>
       <c r="E40" s="182" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F40" s="199" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G40" s="199" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="H40" s="178" t="s">
         <v>281</v>
@@ -7000,7 +7036,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="82.8">
-      <c r="A41" s="196" t="s">
+      <c r="A41" s="173" t="s">
         <v>282</v>
       </c>
       <c r="B41" s="178" t="s">
@@ -7010,16 +7046,16 @@
         <v>22</v>
       </c>
       <c r="D41" s="200" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E41" s="182" t="s">
-        <v>290</v>
-      </c>
-      <c r="F41" s="177" t="s">
-        <v>959</v>
+        <v>285</v>
+      </c>
+      <c r="F41" s="199" t="s">
+        <v>958</v>
       </c>
       <c r="G41" s="199" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H41" s="178" t="s">
         <v>281</v>
@@ -7028,36 +7064,36 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="96.6">
-      <c r="A42" s="173" t="s">
-        <v>293</v>
+    <row r="42" spans="1:10" ht="82.8">
+      <c r="A42" s="196" t="s">
+        <v>282</v>
       </c>
       <c r="B42" s="178" t="s">
-        <v>294</v>
-      </c>
-      <c r="C42" s="209">
-        <v>8000036</v>
-      </c>
-      <c r="D42" s="209" t="s">
-        <v>298</v>
+        <v>21</v>
+      </c>
+      <c r="C42" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="200" t="s">
+        <v>289</v>
       </c>
       <c r="E42" s="182" t="s">
-        <v>299</v>
-      </c>
-      <c r="F42" s="239" t="s">
-        <v>303</v>
-      </c>
-      <c r="G42" s="174" t="s">
-        <v>980</v>
-      </c>
-      <c r="H42" s="195" t="s">
-        <v>1010</v>
+        <v>290</v>
+      </c>
+      <c r="F42" s="177" t="s">
+        <v>959</v>
+      </c>
+      <c r="G42" s="199" t="s">
+        <v>291</v>
+      </c>
+      <c r="H42" s="178" t="s">
+        <v>281</v>
       </c>
       <c r="I42" s="179">
-        <v>43292</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="41.4">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="96.6">
       <c r="A43" s="173" t="s">
         <v>293</v>
       </c>
@@ -7068,16 +7104,16 @@
         <v>8000036</v>
       </c>
       <c r="D43" s="209" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E43" s="182" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="F43" s="239" t="s">
         <v>303</v>
       </c>
       <c r="G43" s="174" t="s">
-        <v>304</v>
+        <v>980</v>
       </c>
       <c r="H43" s="195" t="s">
         <v>1010</v>
@@ -7086,7 +7122,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="55.2">
+    <row r="44" spans="1:10" ht="41.4">
       <c r="A44" s="173" t="s">
         <v>293</v>
       </c>
@@ -7097,19 +7133,19 @@
         <v>8000036</v>
       </c>
       <c r="D44" s="209" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E44" s="182" t="s">
-        <v>316</v>
-      </c>
-      <c r="F44" s="201" t="s">
-        <v>979</v>
+        <v>314</v>
+      </c>
+      <c r="F44" s="239" t="s">
+        <v>303</v>
       </c>
       <c r="G44" s="174" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="H44" s="195" t="s">
-        <v>337</v>
+        <v>1010</v>
       </c>
       <c r="I44" s="179">
         <v>43292</v>
@@ -7117,88 +7153,87 @@
     </row>
     <row r="45" spans="1:10" ht="55.2">
       <c r="A45" s="173" t="s">
+        <v>293</v>
+      </c>
+      <c r="B45" s="178" t="s">
+        <v>294</v>
+      </c>
+      <c r="C45" s="209">
+        <v>8000036</v>
+      </c>
+      <c r="D45" s="209" t="s">
+        <v>315</v>
+      </c>
+      <c r="E45" s="182" t="s">
+        <v>316</v>
+      </c>
+      <c r="F45" s="201" t="s">
+        <v>979</v>
+      </c>
+      <c r="G45" s="174" t="s">
+        <v>317</v>
+      </c>
+      <c r="H45" s="195" t="s">
+        <v>337</v>
+      </c>
+      <c r="I45" s="179">
+        <v>43292</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="55.2">
+      <c r="A46" s="173" t="s">
         <v>320</v>
       </c>
-      <c r="B45" s="178" t="s">
+      <c r="B46" s="178" t="s">
         <v>321</v>
       </c>
-      <c r="C45" s="174" t="s">
+      <c r="C46" s="174" t="s">
         <v>322</v>
       </c>
-      <c r="D45" s="210" t="s">
+      <c r="D46" s="210" t="s">
         <v>323</v>
       </c>
-      <c r="E45" s="182" t="s">
+      <c r="E46" s="182" t="s">
         <v>324</v>
       </c>
-      <c r="F45" s="199" t="s">
+      <c r="F46" s="199" t="s">
         <v>325</v>
       </c>
-      <c r="G45" s="174" t="s">
+      <c r="G46" s="174" t="s">
         <v>326</v>
       </c>
-      <c r="H45" s="178"/>
-      <c r="I45" s="179">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="82.8">
-      <c r="A46" s="173" t="s">
-        <v>327</v>
-      </c>
-      <c r="B46" s="178" t="s">
-        <v>200</v>
-      </c>
-      <c r="C46" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="197" t="s">
-        <v>328</v>
-      </c>
-      <c r="E46" s="182" t="s">
-        <v>329</v>
-      </c>
-      <c r="F46" s="201" t="s">
-        <v>330</v>
-      </c>
-      <c r="G46" s="178" t="s">
-        <v>332</v>
-      </c>
-      <c r="H46" s="178" t="s">
-        <v>333</v>
-      </c>
+      <c r="H46" s="178"/>
       <c r="I46" s="179">
         <v>43250</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="41.4">
+    <row r="47" spans="1:10" ht="82.8">
       <c r="A47" s="173" t="s">
         <v>327</v>
       </c>
       <c r="B47" s="178" t="s">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="C47" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="174" t="s">
-        <v>334</v>
+      <c r="D47" s="197" t="s">
+        <v>328</v>
       </c>
       <c r="E47" s="182" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F47" s="201" t="s">
-        <v>336</v>
-      </c>
-      <c r="G47" s="178"/>
+        <v>330</v>
+      </c>
+      <c r="G47" s="178" t="s">
+        <v>332</v>
+      </c>
       <c r="H47" s="178" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I47" s="179">
-        <v>43278</v>
-      </c>
-      <c r="J47" s="180" t="s">
-        <v>338</v>
+        <v>43250</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="41.4">
@@ -7212,13 +7247,13 @@
         <v>22</v>
       </c>
       <c r="D48" s="174" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E48" s="182" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F48" s="201" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G48" s="178"/>
       <c r="H48" s="178" t="s">
@@ -7227,35 +7262,40 @@
       <c r="I48" s="179">
         <v>43278</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="69.599999999999994">
+      <c r="J48" s="180" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="41.4">
       <c r="A49" s="173" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="B49" s="178" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
       <c r="C49" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="200" t="s">
-        <v>344</v>
+      <c r="D49" s="174" t="s">
+        <v>340</v>
       </c>
       <c r="E49" s="182" t="s">
-        <v>345</v>
-      </c>
-      <c r="F49" s="177" t="s">
-        <v>960</v>
-      </c>
-      <c r="G49" s="199"/>
-      <c r="H49" s="178"/>
+        <v>341</v>
+      </c>
+      <c r="F49" s="201" t="s">
+        <v>342</v>
+      </c>
+      <c r="G49" s="178"/>
+      <c r="H49" s="178" t="s">
+        <v>337</v>
+      </c>
       <c r="I49" s="179">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="41.4">
+        <v>43278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="69.3">
       <c r="A50" s="173" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B50" s="178" t="s">
         <v>21</v>
@@ -7263,18 +7303,16 @@
       <c r="C50" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="175" t="s">
-        <v>349</v>
+      <c r="D50" s="200" t="s">
+        <v>344</v>
       </c>
       <c r="E50" s="182" t="s">
-        <v>350</v>
-      </c>
-      <c r="F50" s="211" t="s">
-        <v>351</v>
-      </c>
-      <c r="G50" s="199" t="s">
-        <v>961</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="F50" s="177" t="s">
+        <v>960</v>
+      </c>
+      <c r="G50" s="199"/>
       <c r="H50" s="178"/>
       <c r="I50" s="179">
         <v>43240</v>
@@ -7291,7 +7329,7 @@
         <v>22</v>
       </c>
       <c r="D51" s="175" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E51" s="182" t="s">
         <v>350</v>
@@ -7307,76 +7345,78 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="193.2">
-      <c r="A52" s="212" t="s">
+    <row r="52" spans="1:9" ht="41.4">
+      <c r="A52" s="173" t="s">
+        <v>347</v>
+      </c>
+      <c r="B52" s="178" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="175" t="s">
+        <v>357</v>
+      </c>
+      <c r="E52" s="182" t="s">
+        <v>350</v>
+      </c>
+      <c r="F52" s="211" t="s">
+        <v>351</v>
+      </c>
+      <c r="G52" s="199" t="s">
+        <v>961</v>
+      </c>
+      <c r="H52" s="178"/>
+      <c r="I52" s="179">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="193.2">
+      <c r="A53" s="212" t="s">
         <v>358</v>
       </c>
-      <c r="B52" s="178" t="s">
+      <c r="B53" s="178" t="s">
         <v>363</v>
-      </c>
-      <c r="C52" s="178"/>
-      <c r="D52" s="175" t="s">
-        <v>364</v>
-      </c>
-      <c r="E52" s="182"/>
-      <c r="F52" s="213" t="s">
-        <v>366</v>
-      </c>
-      <c r="G52" s="199" t="s">
-        <v>368</v>
-      </c>
-      <c r="H52" s="178"/>
-      <c r="I52" s="179"/>
-    </row>
-    <row r="53" spans="1:9" ht="27.6">
-      <c r="A53" s="212" t="s">
-        <v>371</v>
-      </c>
-      <c r="B53" s="178" t="s">
-        <v>1002</v>
       </c>
       <c r="C53" s="178"/>
       <c r="D53" s="175" t="s">
+        <v>364</v>
+      </c>
+      <c r="E53" s="182"/>
+      <c r="F53" s="213" t="s">
+        <v>366</v>
+      </c>
+      <c r="G53" s="199" t="s">
+        <v>368</v>
+      </c>
+      <c r="H53" s="178"/>
+      <c r="I53" s="179"/>
+    </row>
+    <row r="54" spans="1:9" ht="27.6">
+      <c r="A54" s="212" t="s">
+        <v>371</v>
+      </c>
+      <c r="B54" s="178" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C54" s="178"/>
+      <c r="D54" s="175" t="s">
         <v>1003</v>
       </c>
-      <c r="E53" s="182" t="s">
+      <c r="E54" s="182" t="s">
         <v>1004</v>
       </c>
-      <c r="F53" s="237" t="s">
+      <c r="F54" s="237" t="s">
         <v>1005</v>
       </c>
-      <c r="G53" s="199"/>
-      <c r="H53" s="178"/>
-      <c r="I53" s="179">
-        <v>43298</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="27.6">
-      <c r="A54" s="173" t="s">
-        <v>371</v>
-      </c>
-      <c r="B54" s="174" t="s">
-        <v>372</v>
-      </c>
-      <c r="C54" s="174"/>
-      <c r="D54" s="174" t="s">
-        <v>373</v>
-      </c>
-      <c r="E54" s="182" t="s">
-        <v>374</v>
-      </c>
-      <c r="F54" s="211" t="s">
-        <v>376</v>
-      </c>
-      <c r="G54" s="178" t="s">
-        <v>377</v>
-      </c>
+      <c r="G54" s="199"/>
       <c r="H54" s="178"/>
       <c r="I54" s="179">
-        <v>43252</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="179.4">
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="27.6">
       <c r="A55" s="173" t="s">
         <v>371</v>
       </c>
@@ -7385,49 +7425,47 @@
       </c>
       <c r="C55" s="174"/>
       <c r="D55" s="174" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E55" s="182" t="s">
-        <v>379</v>
-      </c>
-      <c r="F55" s="213" t="s">
-        <v>380</v>
-      </c>
-      <c r="G55" s="178"/>
+        <v>374</v>
+      </c>
+      <c r="F55" s="211" t="s">
+        <v>376</v>
+      </c>
+      <c r="G55" s="178" t="s">
+        <v>377</v>
+      </c>
       <c r="H55" s="178"/>
       <c r="I55" s="179">
-        <v>43290</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="41.4">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="179.4">
       <c r="A56" s="173" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B56" s="174" t="s">
-        <v>382</v>
-      </c>
-      <c r="C56" s="174" t="s">
-        <v>22</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="C56" s="174"/>
       <c r="D56" s="174" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E56" s="182" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F56" s="213" t="s">
-        <v>385</v>
-      </c>
-      <c r="G56" s="178" t="s">
-        <v>386</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="G56" s="178"/>
       <c r="H56" s="178"/>
       <c r="I56" s="179">
-        <v>43277</v>
+        <v>43290</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="41.4">
-      <c r="A57" s="196" t="s">
+      <c r="A57" s="173" t="s">
         <v>381</v>
       </c>
       <c r="B57" s="174" t="s">
@@ -7437,16 +7475,20 @@
         <v>22</v>
       </c>
       <c r="D57" s="174" t="s">
-        <v>387</v>
-      </c>
-      <c r="E57" s="182"/>
-      <c r="F57" s="211" t="s">
-        <v>388</v>
-      </c>
-      <c r="G57" s="178"/>
+        <v>383</v>
+      </c>
+      <c r="E57" s="182" t="s">
+        <v>384</v>
+      </c>
+      <c r="F57" s="213" t="s">
+        <v>385</v>
+      </c>
+      <c r="G57" s="178" t="s">
+        <v>386</v>
+      </c>
       <c r="H57" s="178"/>
       <c r="I57" s="179">
-        <v>43278</v>
+        <v>43277</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="41.4">
@@ -7460,7 +7502,7 @@
         <v>22</v>
       </c>
       <c r="D58" s="174" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E58" s="182"/>
       <c r="F58" s="211" t="s">
@@ -7483,7 +7525,7 @@
         <v>22</v>
       </c>
       <c r="D59" s="174" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E59" s="182"/>
       <c r="F59" s="211" t="s">
@@ -7495,42 +7537,44 @@
         <v>43278</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="55.2">
+    <row r="60" spans="1:9" ht="41.4">
       <c r="A60" s="196" t="s">
         <v>381</v>
       </c>
       <c r="B60" s="174" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C60" s="174" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="174" t="s">
-        <v>393</v>
-      </c>
-      <c r="E60" s="182" t="s">
-        <v>949</v>
-      </c>
-      <c r="F60" s="213" t="s">
-        <v>394</v>
+        <v>390</v>
+      </c>
+      <c r="E60" s="182"/>
+      <c r="F60" s="211" t="s">
+        <v>388</v>
       </c>
       <c r="G60" s="178"/>
       <c r="H60" s="178"/>
-      <c r="I60" s="179"/>
-    </row>
-    <row r="61" spans="1:9" ht="41.4">
-      <c r="A61" s="173" t="s">
-        <v>395</v>
+      <c r="I60" s="179">
+        <v>43278</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="55.2">
+      <c r="A61" s="196" t="s">
+        <v>381</v>
       </c>
       <c r="B61" s="174" t="s">
-        <v>396</v>
-      </c>
-      <c r="C61" s="174"/>
+        <v>392</v>
+      </c>
+      <c r="C61" s="174" t="s">
+        <v>22</v>
+      </c>
       <c r="D61" s="174" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E61" s="182" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F61" s="213" t="s">
         <v>394</v>
@@ -7539,58 +7583,52 @@
       <c r="H61" s="178"/>
       <c r="I61" s="179"/>
     </row>
-    <row r="62" spans="1:9" ht="27.6">
+    <row r="62" spans="1:9" ht="41.4">
       <c r="A62" s="173" t="s">
+        <v>395</v>
+      </c>
+      <c r="B62" s="174" t="s">
+        <v>396</v>
+      </c>
+      <c r="C62" s="174"/>
+      <c r="D62" s="174" t="s">
+        <v>397</v>
+      </c>
+      <c r="E62" s="182" t="s">
+        <v>950</v>
+      </c>
+      <c r="F62" s="213" t="s">
+        <v>394</v>
+      </c>
+      <c r="G62" s="178"/>
+      <c r="H62" s="178"/>
+      <c r="I62" s="179"/>
+    </row>
+    <row r="63" spans="1:9" ht="27.6">
+      <c r="A63" s="173" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="178" t="s">
+      <c r="B63" s="178" t="s">
         <v>400</v>
       </c>
-      <c r="C62" s="178" t="s">
+      <c r="C63" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="178" t="s">
+      <c r="D63" s="178" t="s">
         <v>401</v>
       </c>
-      <c r="E62" s="176" t="s">
+      <c r="E63" s="176" t="s">
         <v>402</v>
       </c>
-      <c r="F62" s="199" t="s">
+      <c r="F63" s="199" t="s">
         <v>403</v>
-      </c>
-      <c r="H62" s="178"/>
-      <c r="I62" s="179">
-        <v>43283</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="41.4">
-      <c r="A63" s="196" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="174" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="214">
-        <v>2320789</v>
-      </c>
-      <c r="E63" s="182" t="s">
-        <v>405</v>
-      </c>
-      <c r="F63" s="213" t="s">
-        <v>407</v>
-      </c>
-      <c r="G63" s="178" t="s">
-        <v>408</v>
       </c>
       <c r="H63" s="178"/>
       <c r="I63" s="179">
-        <v>43284</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="41.4">
+        <v>43283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="55.2">
       <c r="A64" s="196" t="s">
         <v>76</v>
       </c>
@@ -7600,8 +7638,8 @@
       <c r="C64" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="214" t="s">
-        <v>409</v>
+      <c r="D64" s="214">
+        <v>2320789</v>
       </c>
       <c r="E64" s="182" t="s">
         <v>405</v>
@@ -7610,14 +7648,14 @@
         <v>407</v>
       </c>
       <c r="G64" s="178" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H64" s="178"/>
       <c r="I64" s="179">
-        <v>43285</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="41.4">
+        <v>43284</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="55.2">
       <c r="A65" s="196" t="s">
         <v>76</v>
       </c>
@@ -7628,23 +7666,23 @@
         <v>22</v>
       </c>
       <c r="D65" s="214" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E65" s="182" t="s">
-        <v>101</v>
+        <v>405</v>
       </c>
       <c r="F65" s="213" t="s">
         <v>407</v>
       </c>
       <c r="G65" s="178" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H65" s="178"/>
       <c r="I65" s="179">
-        <v>43287</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="41.4">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="55.2">
       <c r="A66" s="196" t="s">
         <v>76</v>
       </c>
@@ -7655,7 +7693,7 @@
         <v>22</v>
       </c>
       <c r="D66" s="214" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E66" s="182" t="s">
         <v>101</v>
@@ -7663,15 +7701,15 @@
       <c r="F66" s="213" t="s">
         <v>407</v>
       </c>
-      <c r="G66" s="214" t="s">
-        <v>416</v>
+      <c r="G66" s="178" t="s">
+        <v>412</v>
       </c>
       <c r="H66" s="178"/>
       <c r="I66" s="179">
-        <v>43288</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="41.4">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="55.2">
       <c r="A67" s="196" t="s">
         <v>76</v>
       </c>
@@ -7682,19 +7720,21 @@
         <v>22</v>
       </c>
       <c r="D67" s="214" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E67" s="182" t="s">
         <v>101</v>
       </c>
       <c r="F67" s="213" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="G67" s="214" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H67" s="178"/>
-      <c r="I67" s="179"/>
+      <c r="I67" s="179">
+        <v>43288</v>
+      </c>
     </row>
     <row r="68" spans="1:9" ht="41.4">
       <c r="A68" s="196" t="s">
@@ -7707,7 +7747,7 @@
         <v>22</v>
       </c>
       <c r="D68" s="214" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E68" s="182" t="s">
         <v>101</v>
@@ -7716,7 +7756,7 @@
         <v>421</v>
       </c>
       <c r="G68" s="214" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="H68" s="178"/>
       <c r="I68" s="179"/>
@@ -7731,22 +7771,22 @@
       <c r="C69" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="200" t="s">
-        <v>431</v>
+      <c r="D69" s="214" t="s">
+        <v>423</v>
       </c>
       <c r="E69" s="182" t="s">
         <v>101</v>
       </c>
       <c r="F69" s="213" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="G69" s="214" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H69" s="178"/>
       <c r="I69" s="179"/>
     </row>
-    <row r="70" spans="1:9" ht="41.4">
+    <row r="70" spans="1:9" ht="55.2">
       <c r="A70" s="196" t="s">
         <v>76</v>
       </c>
@@ -7757,16 +7797,16 @@
         <v>22</v>
       </c>
       <c r="D70" s="200" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E70" s="182" t="s">
         <v>101</v>
       </c>
       <c r="F70" s="213" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="G70" s="214" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H70" s="178"/>
       <c r="I70" s="179"/>
@@ -7782,23 +7822,23 @@
         <v>22</v>
       </c>
       <c r="D71" s="200" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E71" s="182" t="s">
         <v>101</v>
       </c>
       <c r="F71" s="213" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="G71" s="214" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H71" s="178"/>
       <c r="I71" s="179"/>
     </row>
-    <row r="72" spans="1:9" ht="262.2">
-      <c r="A72" s="173" t="s">
-        <v>442</v>
+    <row r="72" spans="1:9" ht="55.2">
+      <c r="A72" s="196" t="s">
+        <v>76</v>
       </c>
       <c r="B72" s="174" t="s">
         <v>77</v>
@@ -7806,24 +7846,24 @@
       <c r="C72" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="215">
-        <v>2368196</v>
+      <c r="D72" s="200" t="s">
+        <v>436</v>
       </c>
       <c r="E72" s="182" t="s">
-        <v>444</v>
+        <v>101</v>
       </c>
       <c r="F72" s="213" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="G72" s="214" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H72" s="178"/>
       <c r="I72" s="179"/>
     </row>
-    <row r="73" spans="1:9" ht="41.4">
-      <c r="A73" s="196" t="s">
-        <v>447</v>
+    <row r="73" spans="1:9" ht="262.2">
+      <c r="A73" s="173" t="s">
+        <v>442</v>
       </c>
       <c r="B73" s="174" t="s">
         <v>77</v>
@@ -7831,26 +7871,24 @@
       <c r="C73" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="216">
-        <v>2356457</v>
+      <c r="D73" s="215">
+        <v>2368196</v>
       </c>
       <c r="E73" s="182" t="s">
-        <v>101</v>
+        <v>444</v>
       </c>
       <c r="F73" s="213" t="s">
-        <v>407</v>
+        <v>445</v>
       </c>
       <c r="G73" s="214" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H73" s="178"/>
-      <c r="I73" s="179">
-        <v>43289</v>
-      </c>
+      <c r="I73" s="179"/>
     </row>
     <row r="74" spans="1:9" ht="55.2">
-      <c r="A74" s="173" t="s">
-        <v>450</v>
+      <c r="A74" s="196" t="s">
+        <v>447</v>
       </c>
       <c r="B74" s="174" t="s">
         <v>77</v>
@@ -7859,7 +7897,7 @@
         <v>22</v>
       </c>
       <c r="D74" s="216">
-        <v>535230</v>
+        <v>2356457</v>
       </c>
       <c r="E74" s="182" t="s">
         <v>101</v>
@@ -7868,192 +7906,192 @@
         <v>407</v>
       </c>
       <c r="G74" s="214" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H74" s="178"/>
       <c r="I74" s="179">
-        <v>43290</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="55.2">
-      <c r="A75" s="217" t="s">
-        <v>452</v>
+        <v>43289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="56.4">
+      <c r="A75" s="173" t="s">
+        <v>450</v>
       </c>
       <c r="B75" s="174" t="s">
-        <v>453</v>
-      </c>
-      <c r="C75" s="174"/>
-      <c r="D75" s="214" t="s">
-        <v>364</v>
+        <v>77</v>
+      </c>
+      <c r="C75" s="174" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="216">
+        <v>535230</v>
       </c>
       <c r="E75" s="182" t="s">
         <v>101</v>
       </c>
       <c r="F75" s="213" t="s">
-        <v>454</v>
-      </c>
-      <c r="G75" s="214"/>
+        <v>407</v>
+      </c>
+      <c r="G75" s="214" t="s">
+        <v>451</v>
+      </c>
       <c r="H75" s="178"/>
       <c r="I75" s="179">
-        <v>43288</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="193.2">
-      <c r="A76" s="173" t="s">
-        <v>455</v>
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="56.4">
+      <c r="A76" s="217" t="s">
+        <v>452</v>
       </c>
       <c r="B76" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76" s="174" t="s">
-        <v>22</v>
-      </c>
-      <c r="D76" s="216">
-        <v>2410583</v>
+        <v>453</v>
+      </c>
+      <c r="C76" s="174"/>
+      <c r="D76" s="214" t="s">
+        <v>364</v>
       </c>
       <c r="E76" s="182" t="s">
-        <v>456</v>
+        <v>101</v>
       </c>
       <c r="F76" s="213" t="s">
         <v>454</v>
       </c>
-      <c r="G76" s="214" t="s">
-        <v>457</v>
-      </c>
+      <c r="G76" s="214"/>
       <c r="H76" s="178"/>
       <c r="I76" s="179">
-        <v>43291</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="55.2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="193.2">
       <c r="A77" s="173" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B77" s="174" t="s">
-        <v>460</v>
+        <v>77</v>
       </c>
       <c r="C77" s="174" t="s">
-        <v>461</v>
-      </c>
-      <c r="D77" s="178" t="s">
-        <v>207</v>
-      </c>
-      <c r="E77" s="218"/>
+        <v>22</v>
+      </c>
+      <c r="D77" s="216">
+        <v>2410583</v>
+      </c>
+      <c r="E77" s="182" t="s">
+        <v>456</v>
+      </c>
       <c r="F77" s="213" t="s">
-        <v>462</v>
-      </c>
-      <c r="G77" s="178" t="s">
-        <v>463</v>
+        <v>454</v>
+      </c>
+      <c r="G77" s="214" t="s">
+        <v>457</v>
       </c>
       <c r="H77" s="178"/>
       <c r="I77" s="179">
-        <v>43196</v>
+        <v>43291</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="55.2">
-      <c r="A78" s="196" t="s">
+      <c r="A78" s="173" t="s">
         <v>459</v>
       </c>
-      <c r="B78" s="174"/>
-      <c r="C78" s="174"/>
-      <c r="D78" s="174" t="s">
-        <v>464</v>
-      </c>
-      <c r="E78" s="182" t="s">
-        <v>465</v>
-      </c>
-      <c r="F78" s="211" t="s">
-        <v>466</v>
+      <c r="B78" s="174" t="s">
+        <v>460</v>
+      </c>
+      <c r="C78" s="174" t="s">
+        <v>461</v>
+      </c>
+      <c r="D78" s="178" t="s">
+        <v>207</v>
+      </c>
+      <c r="E78" s="218"/>
+      <c r="F78" s="213" t="s">
+        <v>462</v>
       </c>
       <c r="G78" s="178" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H78" s="178"/>
       <c r="I78" s="179">
         <v>43196</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="151.80000000000001">
-      <c r="A79" s="173" t="s">
-        <v>468</v>
-      </c>
-      <c r="B79" s="174" t="s">
-        <v>460</v>
-      </c>
-      <c r="C79" s="174" t="s">
-        <v>469</v>
-      </c>
-      <c r="D79" s="178" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="218"/>
+    <row r="79" spans="1:9" ht="55.2">
+      <c r="A79" s="196" t="s">
+        <v>459</v>
+      </c>
+      <c r="B79" s="174"/>
+      <c r="C79" s="174"/>
+      <c r="D79" s="174" t="s">
+        <v>464</v>
+      </c>
+      <c r="E79" s="182" t="s">
+        <v>465</v>
+      </c>
       <c r="F79" s="211" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G79" s="178" t="s">
-        <v>472</v>
-      </c>
-      <c r="H79" s="178" t="s">
-        <v>472</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="H79" s="178"/>
       <c r="I79" s="179">
         <v>43196</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="124.2">
+    <row r="80" spans="1:9" ht="151.80000000000001">
       <c r="A80" s="173" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" s="174" t="s">
+        <v>460</v>
+      </c>
+      <c r="C80" s="174" t="s">
+        <v>469</v>
+      </c>
+      <c r="D80" s="178" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="218"/>
+      <c r="F80" s="211" t="s">
+        <v>471</v>
+      </c>
+      <c r="G80" s="178" t="s">
+        <v>472</v>
+      </c>
+      <c r="H80" s="178" t="s">
+        <v>472</v>
+      </c>
+      <c r="I80" s="179">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="138">
+      <c r="A81" s="173" t="s">
         <v>473</v>
       </c>
-      <c r="B80" s="174" t="s">
+      <c r="B81" s="174" t="s">
         <v>474</v>
       </c>
-      <c r="C80" s="174"/>
-      <c r="D80" s="175" t="s">
+      <c r="C81" s="174"/>
+      <c r="D81" s="175" t="s">
         <v>475</v>
       </c>
-      <c r="E80" s="182" t="s">
+      <c r="E81" s="182" t="s">
         <v>476</v>
       </c>
-      <c r="F80" s="213" t="s">
+      <c r="F81" s="213" t="s">
         <v>477</v>
       </c>
-      <c r="G80" s="178" t="s">
+      <c r="G81" s="178" t="s">
         <v>478</v>
-      </c>
-      <c r="H80" s="178"/>
-      <c r="I80" s="179">
-        <v>43264</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="409.6">
-      <c r="A81" s="173" t="s">
-        <v>480</v>
-      </c>
-      <c r="B81" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C81" s="194">
-        <v>8001266</v>
-      </c>
-      <c r="D81" s="200" t="s">
-        <v>487</v>
-      </c>
-      <c r="E81" s="192" t="s">
-        <v>488</v>
-      </c>
-      <c r="F81" s="199" t="s">
-        <v>489</v>
-      </c>
-      <c r="G81" s="178" t="s">
-        <v>490</v>
       </c>
       <c r="H81" s="178"/>
       <c r="I81" s="179">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="41.4">
-      <c r="A82" s="196" t="s">
+        <v>43264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="409.5">
+      <c r="A82" s="173" t="s">
         <v>480</v>
       </c>
       <c r="B82" s="178" t="s">
@@ -8063,23 +8101,23 @@
         <v>8001266</v>
       </c>
       <c r="D82" s="200" t="s">
-        <v>491</v>
-      </c>
-      <c r="E82" s="182" t="s">
+        <v>487</v>
+      </c>
+      <c r="E82" s="192" t="s">
         <v>488</v>
       </c>
       <c r="F82" s="199" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G82" s="178" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H82" s="178"/>
       <c r="I82" s="179">
         <v>43240</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="69">
+    <row r="83" spans="1:10" ht="41.4">
       <c r="A83" s="196" t="s">
         <v>480</v>
       </c>
@@ -8090,23 +8128,23 @@
         <v>8001266</v>
       </c>
       <c r="D83" s="200" t="s">
-        <v>497</v>
-      </c>
-      <c r="E83" s="219" t="s">
-        <v>498</v>
+        <v>491</v>
+      </c>
+      <c r="E83" s="182" t="s">
+        <v>488</v>
       </c>
       <c r="F83" s="199" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="G83" s="178" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H83" s="178"/>
       <c r="I83" s="179">
         <v>43240</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="55.2">
+    <row r="84" spans="1:10" ht="69">
       <c r="A84" s="196" t="s">
         <v>480</v>
       </c>
@@ -8117,23 +8155,23 @@
         <v>8001266</v>
       </c>
       <c r="D84" s="200" t="s">
-        <v>501</v>
-      </c>
-      <c r="E84" s="182" t="s">
-        <v>488</v>
+        <v>497</v>
+      </c>
+      <c r="E84" s="219" t="s">
+        <v>498</v>
       </c>
       <c r="F84" s="199" t="s">
-        <v>502</v>
-      </c>
-      <c r="G84" s="180" t="s">
-        <v>490</v>
-      </c>
-      <c r="H84" s="174"/>
+        <v>499</v>
+      </c>
+      <c r="G84" s="178" t="s">
+        <v>500</v>
+      </c>
+      <c r="H84" s="178"/>
       <c r="I84" s="179">
         <v>43240</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="138">
+    <row r="85" spans="1:10" ht="55.2">
       <c r="A85" s="196" t="s">
         <v>480</v>
       </c>
@@ -8144,23 +8182,23 @@
         <v>8001266</v>
       </c>
       <c r="D85" s="200" t="s">
-        <v>503</v>
-      </c>
-      <c r="E85" s="176" t="s">
+        <v>501</v>
+      </c>
+      <c r="E85" s="182" t="s">
         <v>488</v>
       </c>
       <c r="F85" s="199" t="s">
-        <v>504</v>
-      </c>
-      <c r="G85" s="199" t="s">
-        <v>506</v>
-      </c>
-      <c r="H85" s="194"/>
+        <v>502</v>
+      </c>
+      <c r="G85" s="180" t="s">
+        <v>490</v>
+      </c>
+      <c r="H85" s="174"/>
       <c r="I85" s="179">
         <v>43240</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="69">
+    <row r="86" spans="1:10" ht="138">
       <c r="A86" s="196" t="s">
         <v>480</v>
       </c>
@@ -8171,18 +8209,18 @@
         <v>8001266</v>
       </c>
       <c r="D86" s="200" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E86" s="176" t="s">
         <v>488</v>
       </c>
       <c r="F86" s="199" t="s">
-        <v>508</v>
-      </c>
-      <c r="G86" s="178" t="s">
-        <v>509</v>
-      </c>
-      <c r="H86" s="178"/>
+        <v>504</v>
+      </c>
+      <c r="G86" s="199" t="s">
+        <v>506</v>
+      </c>
+      <c r="H86" s="194"/>
       <c r="I86" s="179">
         <v>43240</v>
       </c>
@@ -8198,16 +8236,16 @@
         <v>8001266</v>
       </c>
       <c r="D87" s="200" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E87" s="176" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="F87" s="199" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G87" s="178" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H87" s="178"/>
       <c r="I87" s="179">
@@ -8215,55 +8253,59 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="69">
-      <c r="A88" s="173" t="s">
-        <v>514</v>
+      <c r="A88" s="196" t="s">
+        <v>480</v>
       </c>
       <c r="B88" s="178" t="s">
-        <v>150</v>
-      </c>
-      <c r="C88" s="174" t="s">
-        <v>515</v>
-      </c>
-      <c r="D88" s="174" t="s">
-        <v>516</v>
-      </c>
-      <c r="E88" s="182" t="s">
-        <v>951</v>
-      </c>
-      <c r="F88" s="211" t="s">
-        <v>518</v>
-      </c>
-      <c r="G88" s="178"/>
+        <v>45</v>
+      </c>
+      <c r="C88" s="194">
+        <v>8001266</v>
+      </c>
+      <c r="D88" s="200" t="s">
+        <v>510</v>
+      </c>
+      <c r="E88" s="176" t="s">
+        <v>511</v>
+      </c>
+      <c r="F88" s="199" t="s">
+        <v>512</v>
+      </c>
+      <c r="G88" s="178" t="s">
+        <v>513</v>
+      </c>
       <c r="H88" s="178"/>
       <c r="I88" s="179">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="69">
+      <c r="A89" s="173" t="s">
+        <v>514</v>
+      </c>
+      <c r="B89" s="178" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89" s="174" t="s">
+        <v>515</v>
+      </c>
+      <c r="D89" s="174" t="s">
+        <v>516</v>
+      </c>
+      <c r="E89" s="182" t="s">
+        <v>951</v>
+      </c>
+      <c r="F89" s="211" t="s">
+        <v>518</v>
+      </c>
+      <c r="G89" s="178"/>
+      <c r="H89" s="178"/>
+      <c r="I89" s="179">
         <v>43196</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="96.6">
-      <c r="A89" s="173" t="s">
-        <v>519</v>
-      </c>
-      <c r="B89" s="178" t="s">
-        <v>520</v>
-      </c>
-      <c r="C89" s="174"/>
-      <c r="D89" s="174" t="s">
-        <v>521</v>
-      </c>
-      <c r="E89" s="182" t="s">
-        <v>522</v>
-      </c>
-      <c r="F89" s="213" t="s">
-        <v>962</v>
-      </c>
-      <c r="G89" s="178" t="s">
-        <v>524</v>
-      </c>
-      <c r="H89" s="178"/>
-      <c r="I89" s="179"/>
-    </row>
-    <row r="90" spans="1:10" ht="138">
-      <c r="A90" s="196" t="s">
+    <row r="90" spans="1:10" ht="96.6">
+      <c r="A90" s="173" t="s">
         <v>519</v>
       </c>
       <c r="B90" s="178" t="s">
@@ -8271,113 +8313,110 @@
       </c>
       <c r="C90" s="174"/>
       <c r="D90" s="174" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E90" s="182" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F90" s="213" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="G90" s="178" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="H90" s="178"/>
       <c r="I90" s="179"/>
     </row>
-    <row r="91" spans="1:10" ht="234.6">
+    <row r="91" spans="1:10" ht="138">
       <c r="A91" s="196" t="s">
         <v>519</v>
       </c>
-      <c r="B91" s="178"/>
+      <c r="B91" s="178" t="s">
+        <v>520</v>
+      </c>
       <c r="C91" s="174"/>
       <c r="D91" s="174" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E91" s="182" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F91" s="213" t="s">
-        <v>964</v>
-      </c>
-      <c r="G91" s="194" t="s">
-        <v>532</v>
+        <v>963</v>
+      </c>
+      <c r="G91" s="178" t="s">
+        <v>528</v>
       </c>
       <c r="H91" s="178"/>
       <c r="I91" s="179"/>
     </row>
-    <row r="92" spans="1:10" ht="82.8">
-      <c r="A92" s="173" t="s">
+    <row r="92" spans="1:10" ht="234.6">
+      <c r="A92" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="B92" s="178"/>
+      <c r="C92" s="174"/>
+      <c r="D92" s="174" t="s">
+        <v>529</v>
+      </c>
+      <c r="E92" s="182" t="s">
+        <v>530</v>
+      </c>
+      <c r="F92" s="213" t="s">
+        <v>964</v>
+      </c>
+      <c r="G92" s="194" t="s">
+        <v>532</v>
+      </c>
+      <c r="H92" s="178"/>
+      <c r="I92" s="179"/>
+    </row>
+    <row r="93" spans="1:10" ht="82.8">
+      <c r="A93" s="173" t="s">
         <v>533</v>
       </c>
-      <c r="B92" s="178" t="s">
+      <c r="B93" s="178" t="s">
         <v>150</v>
       </c>
-      <c r="C92" s="174" t="s">
+      <c r="C93" s="174" t="s">
         <v>534</v>
       </c>
-      <c r="D92" s="174" t="s">
+      <c r="D93" s="174" t="s">
         <v>535</v>
       </c>
-      <c r="E92" s="182" t="s">
+      <c r="E93" s="182" t="s">
         <v>952</v>
       </c>
-      <c r="F92" s="199" t="s">
+      <c r="F93" s="199" t="s">
         <v>537</v>
       </c>
-      <c r="G92" s="174" t="s">
+      <c r="G93" s="174" t="s">
         <v>538</v>
-      </c>
-      <c r="H92" s="178"/>
-      <c r="I92" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="55.2">
-      <c r="A93" s="181" t="s">
-        <v>539</v>
-      </c>
-      <c r="B93" s="178" t="s">
-        <v>546</v>
-      </c>
-      <c r="C93" s="178"/>
-      <c r="D93" s="175" t="s">
-        <v>552</v>
-      </c>
-      <c r="E93" s="182" t="s">
-        <v>553</v>
-      </c>
-      <c r="F93" s="201" t="s">
-        <v>554</v>
-      </c>
-      <c r="G93" s="178" t="s">
-        <v>558</v>
       </c>
       <c r="H93" s="178"/>
       <c r="I93" s="179">
-        <v>76138</v>
-      </c>
-      <c r="J93" s="178"/>
-    </row>
-    <row r="94" spans="1:10" ht="96.6">
-      <c r="A94" s="173" t="s">
-        <v>564</v>
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="55.2">
+      <c r="A94" s="181" t="s">
+        <v>539</v>
       </c>
       <c r="B94" s="178" t="s">
         <v>546</v>
       </c>
       <c r="C94" s="178"/>
       <c r="D94" s="175" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="E94" s="182" t="s">
-        <v>953</v>
-      </c>
-      <c r="F94" s="199" t="s">
-        <v>578</v>
+        <v>553</v>
+      </c>
+      <c r="F94" s="201" t="s">
+        <v>554</v>
       </c>
       <c r="G94" s="178" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="H94" s="178"/>
       <c r="I94" s="179">
@@ -8385,122 +8424,119 @@
       </c>
       <c r="J94" s="178"/>
     </row>
-    <row r="95" spans="1:10" ht="41.4">
+    <row r="95" spans="1:10" ht="96.6">
       <c r="A95" s="173" t="s">
+        <v>564</v>
+      </c>
+      <c r="B95" s="178" t="s">
+        <v>546</v>
+      </c>
+      <c r="C95" s="178"/>
+      <c r="D95" s="175" t="s">
+        <v>569</v>
+      </c>
+      <c r="E95" s="182" t="s">
+        <v>953</v>
+      </c>
+      <c r="F95" s="199" t="s">
+        <v>578</v>
+      </c>
+      <c r="G95" s="178" t="s">
+        <v>582</v>
+      </c>
+      <c r="H95" s="178"/>
+      <c r="I95" s="179">
+        <v>76138</v>
+      </c>
+      <c r="J95" s="178"/>
+    </row>
+    <row r="96" spans="1:10" ht="41.4">
+      <c r="A96" s="173" t="s">
         <v>587</v>
       </c>
-      <c r="B95" s="178" t="s">
+      <c r="B96" s="178" t="s">
         <v>591</v>
       </c>
-      <c r="C95" s="178"/>
-      <c r="D95" s="174" t="s">
+      <c r="C96" s="178"/>
+      <c r="D96" s="174" t="s">
         <v>592</v>
       </c>
-      <c r="E95" s="182" t="s">
+      <c r="E96" s="182" t="s">
         <v>593</v>
       </c>
-      <c r="F95" s="201" t="s">
+      <c r="F96" s="201" t="s">
         <v>594</v>
       </c>
-      <c r="G95" s="178" t="s">
+      <c r="G96" s="178" t="s">
         <v>597</v>
       </c>
-      <c r="H95" s="178"/>
-      <c r="I95" s="179"/>
-      <c r="J95" s="178"/>
-    </row>
-    <row r="96" spans="1:10" ht="55.2">
-      <c r="A96" s="173" t="s">
+      <c r="H96" s="178"/>
+      <c r="I96" s="179"/>
+      <c r="J96" s="178"/>
+    </row>
+    <row r="97" spans="1:9" ht="55.2">
+      <c r="A97" s="173" t="s">
         <v>598</v>
       </c>
-      <c r="B96" s="178" t="s">
+      <c r="B97" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="C96" s="178" t="s">
+      <c r="C97" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D96" s="197" t="s">
+      <c r="D97" s="197" t="s">
         <v>599</v>
       </c>
-      <c r="E96" s="176"/>
-      <c r="F96" s="220" t="s">
+      <c r="E97" s="176"/>
+      <c r="F97" s="220" t="s">
         <v>965</v>
       </c>
-      <c r="G96" s="178"/>
-      <c r="H96" s="178" t="s">
+      <c r="G97" s="178"/>
+      <c r="H97" s="178" t="s">
         <v>605</v>
       </c>
-      <c r="I96" s="179">
+      <c r="I97" s="179">
         <v>43240</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="27.6">
-      <c r="A97" s="173" t="s">
+    <row r="98" spans="1:9" ht="27.6">
+      <c r="A98" s="173" t="s">
         <v>606</v>
       </c>
-      <c r="B97" s="178" t="s">
+      <c r="B98" s="178" t="s">
         <v>221</v>
       </c>
-      <c r="C97" s="178"/>
-      <c r="D97" s="238">
+      <c r="C98" s="178"/>
+      <c r="D98" s="238">
         <v>2243686</v>
       </c>
-      <c r="E97" s="176" t="s">
+      <c r="E98" s="176" t="s">
         <v>1009</v>
       </c>
-      <c r="F97" s="220" t="s">
+      <c r="F98" s="220" t="s">
         <v>1008</v>
       </c>
-      <c r="G97" s="178"/>
-      <c r="H97" s="178"/>
-      <c r="I97" s="179"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="173" t="s">
+      <c r="G98" s="178"/>
+      <c r="H98" s="178"/>
+      <c r="I98" s="179"/>
+    </row>
+    <row r="99" spans="1:9" ht="14.1">
+      <c r="A99" s="173" t="s">
         <v>612</v>
       </c>
-      <c r="B98" s="178" t="s">
+      <c r="B99" s="178" t="s">
         <v>613</v>
       </c>
-      <c r="C98" s="178">
+      <c r="C99" s="178">
         <v>8001119</v>
       </c>
-      <c r="D98" s="194"/>
-      <c r="E98" s="176"/>
-      <c r="F98" s="199" t="s">
+      <c r="D99" s="194"/>
+      <c r="E99" s="176"/>
+      <c r="F99" s="199" t="s">
         <v>616</v>
       </c>
-      <c r="G98" s="178" t="s">
+      <c r="G99" s="178" t="s">
         <v>617</v>
-      </c>
-      <c r="H98" s="178" t="s">
-        <v>618</v>
-      </c>
-      <c r="I98" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="82.8">
-      <c r="A99" s="173" t="s">
-        <v>619</v>
-      </c>
-      <c r="B99" s="174" t="s">
-        <v>483</v>
-      </c>
-      <c r="C99" s="178">
-        <v>8001130</v>
-      </c>
-      <c r="D99" s="174" t="s">
-        <v>621</v>
-      </c>
-      <c r="E99" s="182" t="s">
-        <v>622</v>
-      </c>
-      <c r="F99" s="199" t="s">
-        <v>623</v>
-      </c>
-      <c r="G99" s="178" t="s">
-        <v>624</v>
       </c>
       <c r="H99" s="178" t="s">
         <v>618</v>
@@ -8509,104 +8545,110 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="27.6">
+    <row r="100" spans="1:9" ht="82.8">
       <c r="A100" s="173" t="s">
+        <v>619</v>
+      </c>
+      <c r="B100" s="174" t="s">
+        <v>483</v>
+      </c>
+      <c r="C100" s="178">
+        <v>8001130</v>
+      </c>
+      <c r="D100" s="174" t="s">
+        <v>621</v>
+      </c>
+      <c r="E100" s="182" t="s">
+        <v>622</v>
+      </c>
+      <c r="F100" s="199" t="s">
+        <v>623</v>
+      </c>
+      <c r="G100" s="178" t="s">
+        <v>624</v>
+      </c>
+      <c r="H100" s="178" t="s">
+        <v>618</v>
+      </c>
+      <c r="I100" s="179">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="27.6">
+      <c r="A101" s="173" t="s">
         <v>625</v>
       </c>
-      <c r="B100" s="174" t="s">
+      <c r="B101" s="174" t="s">
         <v>626</v>
       </c>
-      <c r="C100" s="174" t="s">
+      <c r="C101" s="174" t="s">
         <v>627</v>
       </c>
-      <c r="D100" s="174" t="s">
+      <c r="D101" s="174" t="s">
         <v>628</v>
       </c>
-      <c r="E100" s="182" t="s">
+      <c r="E101" s="182" t="s">
         <v>629</v>
       </c>
-      <c r="F100" s="201" t="s">
+      <c r="F101" s="201" t="s">
         <v>630</v>
       </c>
-      <c r="G100" s="178" t="s">
+      <c r="G101" s="178" t="s">
         <v>631</v>
       </c>
-      <c r="H100" s="178"/>
-      <c r="I100" s="179">
+      <c r="H101" s="178"/>
+      <c r="I101" s="179">
         <v>43266</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="41.4">
-      <c r="A101" s="173" t="s">
+    <row r="102" spans="1:9" ht="41.4">
+      <c r="A102" s="173" t="s">
         <v>632</v>
       </c>
-      <c r="B101" s="174" t="s">
+      <c r="B102" s="174" t="s">
         <v>634</v>
       </c>
-      <c r="C101" s="178"/>
-      <c r="D101" s="175" t="s">
+      <c r="C102" s="178"/>
+      <c r="D102" s="175" t="s">
         <v>635</v>
       </c>
-      <c r="E101" s="182" t="s">
+      <c r="E102" s="182" t="s">
         <v>101</v>
       </c>
-      <c r="F101" s="201" t="s">
+      <c r="F102" s="201" t="s">
         <v>637</v>
       </c>
-      <c r="G101" s="178" t="s">
+      <c r="G102" s="178" t="s">
         <v>638</v>
       </c>
-      <c r="H101" s="178"/>
-      <c r="I101" s="179"/>
-    </row>
-    <row r="102" spans="1:9" ht="69">
-      <c r="A102" s="173" t="s">
+      <c r="H102" s="178"/>
+      <c r="I102" s="179"/>
+    </row>
+    <row r="103" spans="1:9" ht="69">
+      <c r="A103" s="173" t="s">
         <v>641</v>
       </c>
-      <c r="B102" s="178" t="s">
+      <c r="B103" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="C102" s="178" t="s">
+      <c r="C103" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="234" t="s">
+      <c r="D103" s="234" t="s">
         <v>984</v>
-      </c>
-      <c r="E102" s="236" t="s">
-        <v>990</v>
-      </c>
-      <c r="F102" s="199" t="s">
-        <v>991</v>
-      </c>
-      <c r="G102" s="178" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H102" s="178"/>
-      <c r="I102" s="179">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="69">
-      <c r="A103" s="196" t="s">
-        <v>641</v>
-      </c>
-      <c r="B103" s="178"/>
-      <c r="C103" s="178"/>
-      <c r="D103" s="235" t="s">
-        <v>985</v>
       </c>
       <c r="E103" s="236" t="s">
         <v>990</v>
       </c>
       <c r="F103" s="199" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G103" s="178" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H103" s="178"/>
       <c r="I103" s="179">
-        <v>43298</v>
+        <v>43240</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="69">
@@ -8616,62 +8658,62 @@
       <c r="B104" s="178"/>
       <c r="C104" s="178"/>
       <c r="D104" s="235" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E104" s="236" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="F104" s="199" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="G104" s="178" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H104" s="178"/>
       <c r="I104" s="179">
         <v>43298</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="55.2">
+    <row r="105" spans="1:9" ht="69">
       <c r="A105" s="196" t="s">
         <v>641</v>
       </c>
       <c r="B105" s="178"/>
       <c r="C105" s="178"/>
       <c r="D105" s="235" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E105" s="236" t="s">
         <v>993</v>
       </c>
       <c r="F105" s="199" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G105" s="178" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H105" s="178"/>
       <c r="I105" s="179">
         <v>43298</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="69">
+    <row r="106" spans="1:9" ht="55.2">
       <c r="A106" s="196" t="s">
         <v>641</v>
       </c>
       <c r="B106" s="178"/>
       <c r="C106" s="178"/>
       <c r="D106" s="235" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E106" s="236" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F106" s="199" t="s">
         <v>992</v>
       </c>
       <c r="G106" s="178" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H106" s="178"/>
       <c r="I106" s="179">
@@ -8685,137 +8727,137 @@
       <c r="B107" s="178"/>
       <c r="C107" s="178"/>
       <c r="D107" s="235" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E107" s="236" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F107" s="199" t="s">
         <v>992</v>
       </c>
       <c r="G107" s="178" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="H107" s="178"/>
       <c r="I107" s="179">
         <v>43298</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="124.2">
-      <c r="A108" s="173" t="s">
+    <row r="108" spans="1:9" ht="69">
+      <c r="A108" s="196" t="s">
+        <v>641</v>
+      </c>
+      <c r="B108" s="178"/>
+      <c r="C108" s="178"/>
+      <c r="D108" s="235" t="s">
+        <v>989</v>
+      </c>
+      <c r="E108" s="236" t="s">
+        <v>995</v>
+      </c>
+      <c r="F108" s="199" t="s">
+        <v>992</v>
+      </c>
+      <c r="G108" s="178" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H108" s="178"/>
+      <c r="I108" s="179">
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="124.2">
+      <c r="A109" s="173" t="s">
         <v>655</v>
       </c>
-      <c r="B108" s="178" t="s">
+      <c r="B109" s="178" t="s">
         <v>591</v>
-      </c>
-      <c r="C108" s="178"/>
-      <c r="D108" s="174" t="s">
-        <v>656</v>
-      </c>
-      <c r="E108" s="182" t="s">
-        <v>657</v>
-      </c>
-      <c r="F108" s="199" t="s">
-        <v>658</v>
-      </c>
-      <c r="G108" s="178" t="s">
-        <v>660</v>
-      </c>
-      <c r="H108" s="178"/>
-      <c r="I108" s="179"/>
-    </row>
-    <row r="109" spans="1:9" ht="138">
-      <c r="A109" s="196" t="s">
-        <v>655</v>
-      </c>
-      <c r="B109" s="178" t="s">
-        <v>661</v>
       </c>
       <c r="C109" s="178"/>
       <c r="D109" s="174" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E109" s="182" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F109" s="199" t="s">
         <v>658</v>
       </c>
       <c r="G109" s="178" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="H109" s="178"/>
       <c r="I109" s="179"/>
     </row>
-    <row r="110" spans="1:9" ht="124.2">
+    <row r="110" spans="1:9" ht="138">
       <c r="A110" s="196" t="s">
         <v>655</v>
       </c>
       <c r="B110" s="178" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C110" s="178"/>
       <c r="D110" s="174" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E110" s="182" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F110" s="199" t="s">
         <v>658</v>
       </c>
-      <c r="G110" s="194" t="s">
-        <v>668</v>
+      <c r="G110" s="178" t="s">
+        <v>664</v>
       </c>
       <c r="H110" s="178"/>
       <c r="I110" s="179"/>
     </row>
-    <row r="111" spans="1:9" ht="82.8">
-      <c r="A111" s="173" t="s">
+    <row r="111" spans="1:9" ht="124.2">
+      <c r="A111" s="196" t="s">
+        <v>655</v>
+      </c>
+      <c r="B111" s="178" t="s">
+        <v>665</v>
+      </c>
+      <c r="C111" s="178"/>
+      <c r="D111" s="174" t="s">
+        <v>666</v>
+      </c>
+      <c r="E111" s="182" t="s">
+        <v>667</v>
+      </c>
+      <c r="F111" s="199" t="s">
+        <v>658</v>
+      </c>
+      <c r="G111" s="194" t="s">
+        <v>668</v>
+      </c>
+      <c r="H111" s="178"/>
+      <c r="I111" s="179"/>
+    </row>
+    <row r="112" spans="1:9" ht="96.6">
+      <c r="A112" s="173" t="s">
         <v>669</v>
       </c>
-      <c r="B111" s="178" t="s">
+      <c r="B112" s="178" t="s">
         <v>150</v>
       </c>
-      <c r="C111" s="174" t="s">
+      <c r="C112" s="174" t="s">
         <v>670</v>
       </c>
-      <c r="D111" s="174" t="s">
+      <c r="D112" s="174" t="s">
         <v>672</v>
       </c>
-      <c r="E111" s="176"/>
-      <c r="F111" s="204" t="s">
+      <c r="E112" s="176"/>
+      <c r="F112" s="204" t="s">
         <v>674</v>
       </c>
-      <c r="G111" s="178" t="s">
+      <c r="G112" s="178" t="s">
         <v>683</v>
       </c>
-      <c r="H111" s="178"/>
-      <c r="I111" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="41.4">
-      <c r="A112" s="173" t="s">
-        <v>684</v>
-      </c>
-      <c r="B112" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="C112" s="174" t="s">
-        <v>22</v>
-      </c>
-      <c r="D112" s="175" t="s">
-        <v>686</v>
-      </c>
-      <c r="E112" s="182"/>
-      <c r="F112" s="211" t="s">
-        <v>966</v>
-      </c>
-      <c r="G112" s="178"/>
       <c r="H112" s="178"/>
       <c r="I112" s="179">
-        <v>43276</v>
+        <v>43196</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="41.4">
@@ -8829,11 +8871,11 @@
         <v>22</v>
       </c>
       <c r="D113" s="175" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="E113" s="182"/>
-      <c r="F113" s="193" t="s">
-        <v>967</v>
+      <c r="F113" s="211" t="s">
+        <v>966</v>
       </c>
       <c r="G113" s="178"/>
       <c r="H113" s="178"/>
@@ -8841,112 +8883,110 @@
         <v>43276</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="55.2">
+    <row r="114" spans="1:9" ht="41.4">
       <c r="A114" s="173" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
       <c r="B114" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="C114" s="174"/>
-      <c r="D114" s="174" t="s">
-        <v>704</v>
-      </c>
-      <c r="E114" s="176" t="s">
-        <v>705</v>
-      </c>
+      <c r="C114" s="174" t="s">
+        <v>22</v>
+      </c>
+      <c r="D114" s="175" t="s">
+        <v>696</v>
+      </c>
+      <c r="E114" s="182"/>
       <c r="F114" s="193" t="s">
-        <v>707</v>
-      </c>
-      <c r="G114" s="178" t="s">
-        <v>710</v>
-      </c>
+        <v>967</v>
+      </c>
+      <c r="G114" s="178"/>
       <c r="H114" s="178"/>
       <c r="I114" s="179">
-        <v>43293</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="207">
+        <v>43276</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="55.2">
       <c r="A115" s="173" t="s">
-        <v>711</v>
-      </c>
-      <c r="B115" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C115" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D115" s="200" t="s">
-        <v>714</v>
-      </c>
-      <c r="E115" s="176"/>
-      <c r="F115" s="199" t="s">
-        <v>717</v>
+        <v>703</v>
+      </c>
+      <c r="B115" s="174" t="s">
+        <v>77</v>
+      </c>
+      <c r="C115" s="174"/>
+      <c r="D115" s="174" t="s">
+        <v>704</v>
+      </c>
+      <c r="E115" s="176" t="s">
+        <v>705</v>
+      </c>
+      <c r="F115" s="193" t="s">
+        <v>707</v>
       </c>
       <c r="G115" s="178" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H115" s="178"/>
       <c r="I115" s="179">
+        <v>43293</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="207">
+      <c r="A116" s="173" t="s">
+        <v>711</v>
+      </c>
+      <c r="B116" s="178" t="s">
+        <v>45</v>
+      </c>
+      <c r="C116" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" s="200" t="s">
+        <v>714</v>
+      </c>
+      <c r="E116" s="176"/>
+      <c r="F116" s="199" t="s">
+        <v>717</v>
+      </c>
+      <c r="G116" s="178" t="s">
+        <v>718</v>
+      </c>
+      <c r="H116" s="178"/>
+      <c r="I116" s="179">
         <v>43240</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="69">
-      <c r="A116" s="173" t="s">
-        <v>719</v>
-      </c>
-      <c r="B116" s="194" t="s">
-        <v>150</v>
-      </c>
-      <c r="C116" s="194">
-        <v>8000823</v>
-      </c>
-      <c r="D116" s="174" t="s">
-        <v>726</v>
-      </c>
-      <c r="E116" s="182" t="s">
-        <v>730</v>
-      </c>
-      <c r="F116" s="220" t="s">
-        <v>732</v>
-      </c>
-      <c r="G116" s="194" t="s">
-        <v>733</v>
-      </c>
-      <c r="H116" s="178" t="s">
-        <v>734</v>
-      </c>
-      <c r="I116" s="179">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="82.8">
+    <row r="117" spans="1:9" ht="69">
       <c r="A117" s="173" t="s">
         <v>719</v>
       </c>
       <c r="B117" s="194" t="s">
         <v>150</v>
       </c>
-      <c r="C117" s="194"/>
+      <c r="C117" s="194">
+        <v>8000823</v>
+      </c>
       <c r="D117" s="174" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="E117" s="182" t="s">
-        <v>736</v>
-      </c>
-      <c r="F117" s="177" t="s">
-        <v>738</v>
-      </c>
-      <c r="G117" s="199" t="s">
-        <v>740</v>
-      </c>
-      <c r="H117" s="178"/>
+        <v>730</v>
+      </c>
+      <c r="F117" s="220" t="s">
+        <v>732</v>
+      </c>
+      <c r="G117" s="194" t="s">
+        <v>733</v>
+      </c>
+      <c r="H117" s="178" t="s">
+        <v>734</v>
+      </c>
       <c r="I117" s="179">
         <v>43196</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="41.4">
-      <c r="A118" s="196" t="s">
+    <row r="118" spans="1:9" ht="82.8">
+      <c r="A118" s="173" t="s">
         <v>719</v>
       </c>
       <c r="B118" s="194" t="s">
@@ -8954,101 +8994,103 @@
       </c>
       <c r="C118" s="194"/>
       <c r="D118" s="174" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="E118" s="182" t="s">
-        <v>743</v>
-      </c>
-      <c r="F118" s="178" t="s">
-        <v>744</v>
-      </c>
-      <c r="G118" s="177" t="s">
-        <v>745</v>
+        <v>736</v>
+      </c>
+      <c r="F118" s="177" t="s">
+        <v>738</v>
+      </c>
+      <c r="G118" s="199" t="s">
+        <v>740</v>
       </c>
       <c r="H118" s="178"/>
       <c r="I118" s="179">
         <v>43196</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="27.6">
-      <c r="A119" s="173" t="s">
-        <v>746</v>
-      </c>
-      <c r="B119" s="178" t="s">
-        <v>143</v>
-      </c>
-      <c r="C119" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D119" s="197" t="s">
-        <v>747</v>
-      </c>
-      <c r="E119" s="221" t="s">
-        <v>759</v>
-      </c>
-      <c r="F119" s="201" t="s">
-        <v>769</v>
-      </c>
-      <c r="G119" s="178" t="s">
-        <v>770</v>
+    <row r="119" spans="1:9" ht="41.4">
+      <c r="A119" s="196" t="s">
+        <v>719</v>
+      </c>
+      <c r="B119" s="194" t="s">
+        <v>150</v>
+      </c>
+      <c r="C119" s="194"/>
+      <c r="D119" s="174" t="s">
+        <v>742</v>
+      </c>
+      <c r="E119" s="182" t="s">
+        <v>743</v>
+      </c>
+      <c r="F119" s="178" t="s">
+        <v>744</v>
+      </c>
+      <c r="G119" s="177" t="s">
+        <v>745</v>
       </c>
       <c r="H119" s="178"/>
       <c r="I119" s="179">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="96.6">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="41.4">
       <c r="A120" s="173" t="s">
-        <v>771</v>
+        <v>746</v>
       </c>
       <c r="B120" s="178" t="s">
-        <v>772</v>
+        <v>143</v>
       </c>
       <c r="C120" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D120" s="200" t="s">
+      <c r="D120" s="197" t="s">
+        <v>747</v>
+      </c>
+      <c r="E120" s="221" t="s">
+        <v>759</v>
+      </c>
+      <c r="F120" s="201" t="s">
+        <v>769</v>
+      </c>
+      <c r="G120" s="178" t="s">
+        <v>770</v>
+      </c>
+      <c r="H120" s="178"/>
+      <c r="I120" s="179">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="96.6">
+      <c r="A121" s="173" t="s">
+        <v>771</v>
+      </c>
+      <c r="B121" s="178" t="s">
+        <v>772</v>
+      </c>
+      <c r="C121" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D121" s="200" t="s">
         <v>773</v>
       </c>
-      <c r="E120" s="221" t="s">
+      <c r="E121" s="221" t="s">
         <v>607</v>
       </c>
-      <c r="F120" s="199" t="s">
+      <c r="F121" s="199" t="s">
         <v>1006</v>
       </c>
-      <c r="G120" s="178" t="s">
+      <c r="G121" s="178" t="s">
         <v>1007</v>
       </c>
-      <c r="H120" s="222"/>
-      <c r="I120" s="179">
+      <c r="H121" s="222"/>
+      <c r="I121" s="179">
         <v>43264</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="27.6">
-      <c r="A121" s="173" t="s">
-        <v>775</v>
-      </c>
-      <c r="B121" s="178" t="s">
-        <v>776</v>
-      </c>
-      <c r="C121" s="178"/>
-      <c r="D121" s="191" t="s">
-        <v>777</v>
-      </c>
-      <c r="E121" s="192" t="s">
-        <v>781</v>
-      </c>
-      <c r="F121" s="201" t="s">
-        <v>782</v>
-      </c>
-      <c r="G121" s="178"/>
-      <c r="H121" s="223" t="s">
-        <v>973</v>
-      </c>
-      <c r="I121" s="179"/>
-    </row>
     <row r="122" spans="1:9" ht="27.6">
-      <c r="A122" s="196" t="s">
+      <c r="A122" s="173" t="s">
         <v>775</v>
       </c>
       <c r="B122" s="178" t="s">
@@ -9056,7 +9098,7 @@
       </c>
       <c r="C122" s="178"/>
       <c r="D122" s="191" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="E122" s="192" t="s">
         <v>781</v>
@@ -9079,7 +9121,7 @@
       </c>
       <c r="C123" s="178"/>
       <c r="D123" s="191" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="E123" s="192" t="s">
         <v>781</v>
@@ -9095,153 +9137,149 @@
     </row>
     <row r="124" spans="1:9" ht="27.6">
       <c r="A124" s="196" t="s">
+        <v>775</v>
+      </c>
+      <c r="B124" s="178" t="s">
+        <v>776</v>
+      </c>
+      <c r="C124" s="178"/>
+      <c r="D124" s="191" t="s">
+        <v>792</v>
+      </c>
+      <c r="E124" s="192" t="s">
+        <v>781</v>
+      </c>
+      <c r="F124" s="201" t="s">
+        <v>782</v>
+      </c>
+      <c r="G124" s="178"/>
+      <c r="H124" s="223" t="s">
+        <v>973</v>
+      </c>
+      <c r="I124" s="179"/>
+    </row>
+    <row r="125" spans="1:9" ht="41.4">
+      <c r="A125" s="196" t="s">
         <v>805</v>
       </c>
-      <c r="B124" s="178" t="s">
+      <c r="B125" s="178" t="s">
         <v>806</v>
       </c>
-      <c r="C124" s="174" t="s">
+      <c r="C125" s="174" t="s">
         <v>807</v>
       </c>
-      <c r="D124" s="174" t="s">
+      <c r="D125" s="174" t="s">
         <v>809</v>
       </c>
-      <c r="E124" s="182" t="s">
+      <c r="E125" s="182" t="s">
         <v>814</v>
       </c>
-      <c r="F124" s="199" t="s">
+      <c r="F125" s="199" t="s">
         <v>815</v>
       </c>
-      <c r="G124" s="178" t="s">
+      <c r="G125" s="178" t="s">
         <v>816</v>
       </c>
-      <c r="H124" s="222"/>
-      <c r="I124" s="179"/>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="173" t="s">
+      <c r="H125" s="222"/>
+      <c r="I125" s="179"/>
+    </row>
+    <row r="126" spans="1:9" ht="14.1">
+      <c r="A126" s="173" t="s">
         <v>817</v>
-      </c>
-      <c r="B125" s="178" t="s">
-        <v>45</v>
-      </c>
-      <c r="C125" s="174" t="s">
-        <v>818</v>
-      </c>
-      <c r="D125" s="200" t="s">
-        <v>819</v>
-      </c>
-      <c r="E125" s="176" t="s">
-        <v>607</v>
-      </c>
-      <c r="F125" s="201" t="s">
-        <v>831</v>
-      </c>
-      <c r="G125" s="178"/>
-      <c r="H125" s="178"/>
-      <c r="I125" s="179">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="96.6">
-      <c r="A126" s="173" t="s">
-        <v>837</v>
       </c>
       <c r="B126" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="C126" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D126" s="178" t="s">
-        <v>838</v>
+      <c r="C126" s="174" t="s">
+        <v>818</v>
+      </c>
+      <c r="D126" s="200" t="s">
+        <v>819</v>
       </c>
       <c r="E126" s="176" t="s">
-        <v>837</v>
+        <v>607</v>
       </c>
       <c r="F126" s="201" t="s">
-        <v>844</v>
-      </c>
-      <c r="G126" s="180" t="s">
-        <v>968</v>
-      </c>
+        <v>831</v>
+      </c>
+      <c r="G126" s="178"/>
       <c r="H126" s="178"/>
       <c r="I126" s="179">
         <v>43240</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="41.4">
+    <row r="127" spans="1:9" ht="96.6">
       <c r="A127" s="173" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="B127" s="178" t="s">
-        <v>846</v>
-      </c>
-      <c r="C127" s="178"/>
-      <c r="D127" s="178"/>
-      <c r="E127" s="176"/>
-      <c r="F127" s="199" t="s">
-        <v>851</v>
-      </c>
-      <c r="G127" s="178"/>
+        <v>45</v>
+      </c>
+      <c r="C127" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D127" s="178" t="s">
+        <v>838</v>
+      </c>
+      <c r="E127" s="176" t="s">
+        <v>837</v>
+      </c>
+      <c r="F127" s="201" t="s">
+        <v>844</v>
+      </c>
+      <c r="G127" s="180" t="s">
+        <v>968</v>
+      </c>
       <c r="H127" s="178"/>
       <c r="I127" s="179">
-        <v>43196</v>
+        <v>43240</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="41.4">
       <c r="A128" s="173" t="s">
-        <v>852</v>
-      </c>
-      <c r="B128" s="174" t="s">
-        <v>294</v>
-      </c>
-      <c r="C128" s="174"/>
-      <c r="D128" s="209" t="s">
-        <v>854</v>
-      </c>
-      <c r="E128" s="182" t="s">
-        <v>855</v>
-      </c>
-      <c r="F128" s="177" t="s">
-        <v>856</v>
-      </c>
-      <c r="G128" s="178" t="s">
-        <v>864</v>
-      </c>
+        <v>845</v>
+      </c>
+      <c r="B128" s="178" t="s">
+        <v>846</v>
+      </c>
+      <c r="C128" s="178"/>
+      <c r="D128" s="178"/>
+      <c r="E128" s="176"/>
+      <c r="F128" s="199" t="s">
+        <v>851</v>
+      </c>
+      <c r="G128" s="178"/>
       <c r="H128" s="178"/>
       <c r="I128" s="179">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="41.4">
+      <c r="A129" s="173" t="s">
+        <v>852</v>
+      </c>
+      <c r="B129" s="174" t="s">
+        <v>294</v>
+      </c>
+      <c r="C129" s="174"/>
+      <c r="D129" s="209" t="s">
+        <v>854</v>
+      </c>
+      <c r="E129" s="182" t="s">
+        <v>855</v>
+      </c>
+      <c r="F129" s="177" t="s">
+        <v>856</v>
+      </c>
+      <c r="G129" s="178" t="s">
+        <v>864</v>
+      </c>
+      <c r="H129" s="178"/>
+      <c r="I129" s="179">
         <v>43288</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="138">
-      <c r="A129" s="173" t="s">
-        <v>866</v>
-      </c>
-      <c r="B129" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="C129" s="174" t="s">
-        <v>22</v>
-      </c>
-      <c r="D129" s="175" t="s">
-        <v>867</v>
-      </c>
-      <c r="E129" s="182"/>
-      <c r="F129" s="193" t="s">
-        <v>868</v>
-      </c>
-      <c r="G129" s="178" t="s">
-        <v>869</v>
-      </c>
-      <c r="H129" s="223" t="s">
-        <v>973</v>
-      </c>
-      <c r="I129" s="179">
-        <v>43270</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="41.4">
+    <row r="130" spans="1:9" ht="138">
       <c r="A130" s="173" t="s">
         <v>866</v>
       </c>
@@ -9252,17 +9290,17 @@
         <v>22</v>
       </c>
       <c r="D130" s="175" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E130" s="182"/>
       <c r="F130" s="193" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="G130" s="178" t="s">
-        <v>872</v>
-      </c>
-      <c r="H130" s="195" t="s">
-        <v>974</v>
+        <v>869</v>
+      </c>
+      <c r="H130" s="223" t="s">
+        <v>973</v>
       </c>
       <c r="I130" s="179">
         <v>43270</v>
@@ -9279,11 +9317,11 @@
         <v>22</v>
       </c>
       <c r="D131" s="175" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E131" s="182"/>
       <c r="F131" s="193" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="G131" s="178" t="s">
         <v>872</v>
@@ -9306,87 +9344,103 @@
         <v>22</v>
       </c>
       <c r="D132" s="175" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E132" s="182"/>
-      <c r="F132" s="211" t="s">
-        <v>876</v>
-      </c>
-      <c r="G132" s="178"/>
-      <c r="H132" s="223" t="s">
-        <v>973</v>
+      <c r="F132" s="193" t="s">
+        <v>874</v>
+      </c>
+      <c r="G132" s="178" t="s">
+        <v>872</v>
+      </c>
+      <c r="H132" s="195" t="s">
+        <v>974</v>
       </c>
       <c r="I132" s="179">
         <v>43270</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="41.4">
+    <row r="133" spans="1:9" ht="55.2">
       <c r="A133" s="173" t="s">
+        <v>866</v>
+      </c>
+      <c r="B133" s="174" t="s">
+        <v>77</v>
+      </c>
+      <c r="C133" s="174" t="s">
+        <v>22</v>
+      </c>
+      <c r="D133" s="175" t="s">
+        <v>875</v>
+      </c>
+      <c r="E133" s="182"/>
+      <c r="F133" s="211" t="s">
+        <v>876</v>
+      </c>
+      <c r="G133" s="178"/>
+      <c r="H133" s="223" t="s">
+        <v>973</v>
+      </c>
+      <c r="I133" s="179">
+        <v>43270</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="41.4">
+      <c r="A134" s="173" t="s">
         <v>877</v>
       </c>
-      <c r="B133" s="178" t="s">
+      <c r="B134" s="178" t="s">
         <v>143</v>
-      </c>
-      <c r="C133" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="D133" s="197" t="s">
-        <v>878</v>
-      </c>
-      <c r="E133" s="224" t="s">
-        <v>879</v>
-      </c>
-      <c r="F133" s="201" t="s">
-        <v>769</v>
-      </c>
-      <c r="G133" s="178" t="s">
-        <v>886</v>
-      </c>
-      <c r="H133" s="223" t="s">
-        <v>975</v>
-      </c>
-      <c r="I133" s="179">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="27.6">
-      <c r="A134" s="173" t="s">
-        <v>887</v>
-      </c>
-      <c r="B134" s="178" t="s">
-        <v>772</v>
       </c>
       <c r="C134" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D134" s="200" t="s">
+      <c r="D134" s="197" t="s">
+        <v>878</v>
+      </c>
+      <c r="E134" s="224" t="s">
+        <v>879</v>
+      </c>
+      <c r="F134" s="201" t="s">
+        <v>769</v>
+      </c>
+      <c r="G134" s="178" t="s">
+        <v>886</v>
+      </c>
+      <c r="H134" s="223" t="s">
+        <v>975</v>
+      </c>
+      <c r="I134" s="179">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="27.6">
+      <c r="A135" s="173" t="s">
+        <v>887</v>
+      </c>
+      <c r="B135" s="178" t="s">
+        <v>772</v>
+      </c>
+      <c r="C135" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" s="200" t="s">
         <v>893</v>
       </c>
-      <c r="F134" s="201" t="s">
+      <c r="F135" s="201" t="s">
         <v>904</v>
       </c>
-      <c r="H134" s="223" t="s">
+      <c r="H135" s="223" t="s">
         <v>973</v>
       </c>
-      <c r="I134" s="225">
+      <c r="I135" s="225">
         <v>43288</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
-      <c r="D135" s="178"/>
-    </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="173"/>
-      <c r="B136" s="174"/>
-      <c r="C136" s="174"/>
-      <c r="D136" s="174"/>
-      <c r="E136" s="182"/>
-      <c r="F136" s="213"/>
-      <c r="G136" s="178"/>
-      <c r="H136" s="178"/>
-      <c r="I136" s="179"/>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="D136" s="178"/>
+    </row>
+    <row r="137" spans="1:9" ht="14.1">
       <c r="A137" s="173"/>
       <c r="B137" s="174"/>
       <c r="C137" s="174"/>
@@ -9397,7 +9451,7 @@
       <c r="H137" s="178"/>
       <c r="I137" s="179"/>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" ht="14.1">
       <c r="A138" s="173"/>
       <c r="B138" s="174"/>
       <c r="C138" s="174"/>
@@ -9408,7 +9462,7 @@
       <c r="H138" s="178"/>
       <c r="I138" s="179"/>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" ht="14.1">
       <c r="A139" s="173"/>
       <c r="B139" s="174"/>
       <c r="C139" s="174"/>
@@ -9419,7 +9473,7 @@
       <c r="H139" s="178"/>
       <c r="I139" s="179"/>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" ht="14.1">
       <c r="A140" s="173"/>
       <c r="B140" s="174"/>
       <c r="C140" s="174"/>
@@ -9430,7 +9484,7 @@
       <c r="H140" s="178"/>
       <c r="I140" s="179"/>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" ht="14.1">
       <c r="A141" s="173"/>
       <c r="B141" s="174"/>
       <c r="C141" s="174"/>
@@ -9441,7 +9495,7 @@
       <c r="H141" s="178"/>
       <c r="I141" s="179"/>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" ht="14.1">
       <c r="A142" s="173"/>
       <c r="B142" s="174"/>
       <c r="C142" s="174"/>
@@ -9452,7 +9506,7 @@
       <c r="H142" s="178"/>
       <c r="I142" s="179"/>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" ht="14.1">
       <c r="A143" s="173"/>
       <c r="B143" s="174"/>
       <c r="C143" s="174"/>
@@ -9463,9 +9517,20 @@
       <c r="H143" s="178"/>
       <c r="I143" s="179"/>
     </row>
+    <row r="144" spans="1:9" ht="14.1">
+      <c r="A144" s="173"/>
+      <c r="B144" s="174"/>
+      <c r="C144" s="174"/>
+      <c r="D144" s="174"/>
+      <c r="E144" s="182"/>
+      <c r="F144" s="213"/>
+      <c r="G144" s="178"/>
+      <c r="H144" s="178"/>
+      <c r="I144" s="179"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F111" r:id="rId1" location="gid=314589613&amp;range=309:309"/>
+    <hyperlink ref="F112" r:id="rId1" location="gid=314589613&amp;range=309:309" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -9474,23 +9539,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.4">
+    <row r="1" spans="1:10" ht="24.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9520,7 +9585,7 @@
       </c>
       <c r="J1" s="241"/>
     </row>
-    <row r="2" spans="1:10" ht="26.4">
+    <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -9566,7 +9631,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="330">
+    <row r="4" spans="1:10" ht="282.89999999999998">
       <c r="A4" s="6" t="s">
         <v>149</v>
       </c>
@@ -9598,7 +9663,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="158.4">
+    <row r="5" spans="1:10" ht="135.30000000000001">
       <c r="A5" s="14" t="s">
         <v>19</v>
       </c>
@@ -9628,7 +9693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="211.2">
+    <row r="6" spans="1:10" ht="184.5">
       <c r="A6" s="14" t="s">
         <v>19</v>
       </c>
@@ -9658,7 +9723,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="211.2">
+    <row r="7" spans="1:10" ht="184.5">
       <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
@@ -9688,7 +9753,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="211.2">
+    <row r="8" spans="1:10" ht="184.5">
       <c r="A8" s="14" t="s">
         <v>19</v>
       </c>
@@ -9718,7 +9783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="211.2">
+    <row r="9" spans="1:10" ht="184.5">
       <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
@@ -9748,7 +9813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="92.4">
+    <row r="10" spans="1:10" ht="86.1">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -9776,7 +9841,7 @@
       </c>
       <c r="J10" s="36"/>
     </row>
-    <row r="11" spans="1:10" ht="92.4">
+    <row r="11" spans="1:10" ht="86.1">
       <c r="A11" s="8" t="s">
         <v>44</v>
       </c>
@@ -9804,7 +9869,7 @@
       </c>
       <c r="J11" s="36"/>
     </row>
-    <row r="12" spans="1:10" ht="92.4">
+    <row r="12" spans="1:10" ht="86.1">
       <c r="A12" s="8" t="s">
         <v>44</v>
       </c>
@@ -9832,7 +9897,7 @@
       </c>
       <c r="J12" s="36"/>
     </row>
-    <row r="13" spans="1:10" ht="184.8">
+    <row r="13" spans="1:10" ht="172.2">
       <c r="A13" s="8" t="s">
         <v>198</v>
       </c>
@@ -9858,7 +9923,7 @@
       </c>
       <c r="J13" s="36"/>
     </row>
-    <row r="14" spans="1:10" ht="409.6">
+    <row r="14" spans="1:10" ht="393.6">
       <c r="A14" s="6" t="s">
         <v>222</v>
       </c>
@@ -9889,7 +9954,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="211.2">
+    <row r="15" spans="1:10" ht="196.8">
       <c r="A15" s="6" t="s">
         <v>287</v>
       </c>
@@ -9919,7 +9984,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="274.8">
+    <row r="16" spans="1:10" ht="264.89999999999998">
       <c r="A16" s="8" t="s">
         <v>287</v>
       </c>
@@ -9947,7 +10012,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="105.6">
+    <row r="17" spans="1:10" ht="98.4">
       <c r="A17" s="8" t="s">
         <v>76</v>
       </c>
@@ -9999,7 +10064,7 @@
       </c>
       <c r="J18" s="36"/>
     </row>
-    <row r="19" spans="1:10" ht="58.2" thickBot="1">
+    <row r="19" spans="1:10" ht="57.9" thickBot="1">
       <c r="A19" s="8" t="s">
         <v>76</v>
       </c>
@@ -10051,7 +10116,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="36"/>
     </row>
-    <row r="21" spans="1:10" s="233" customFormat="1" ht="66">
+    <row r="21" spans="1:10" s="233" customFormat="1" ht="61.5">
       <c r="A21" s="228" t="s">
         <v>641</v>
       </c>
@@ -10076,7 +10141,7 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="66.599999999999994" thickBot="1">
+    <row r="22" spans="1:10" ht="61.8" thickBot="1">
       <c r="A22" s="6" t="s">
         <v>824</v>
       </c>
@@ -10106,7 +10171,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="106.2" thickBot="1">
+    <row r="23" spans="1:10" ht="86.4" thickBot="1">
       <c r="A23" s="52" t="s">
         <v>746</v>
       </c>
@@ -10146,7 +10211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10159,7 +10224,7 @@
       <selection pane="bottomRight" activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -10172,7 +10237,7 @@
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.4">
+    <row r="1" spans="1:10" ht="24.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10202,7 +10267,7 @@
       </c>
       <c r="J1" s="241"/>
     </row>
-    <row r="2" spans="1:10" ht="26.4">
+    <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -10218,7 +10283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="52.8">
+    <row r="3" spans="1:10" ht="49.2">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -10244,7 +10309,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="26.4">
+    <row r="4" spans="1:10" ht="24.6">
       <c r="A4" s="17" t="s">
         <v>24</v>
       </c>
@@ -10318,7 +10383,7 @@
       </c>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="1:10" ht="39.6">
+    <row r="7" spans="1:10" ht="36.9">
       <c r="A7" s="245" t="s">
         <v>79</v>
       </c>
@@ -10348,7 +10413,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="39.6">
+    <row r="8" spans="1:10" ht="36.9">
       <c r="A8" s="241"/>
       <c r="B8" s="8" t="s">
         <v>21</v>
@@ -10375,7 +10440,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="39.6">
+    <row r="9" spans="1:10" ht="36.9">
       <c r="A9" s="244"/>
       <c r="B9" s="47" t="s">
         <v>21</v>
@@ -10427,7 +10492,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="39.6">
+    <row r="11" spans="1:10" ht="36.9">
       <c r="A11" s="246" t="s">
         <v>118</v>
       </c>
@@ -10456,7 +10521,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="39.6">
+    <row r="12" spans="1:10" ht="36.9">
       <c r="A12" s="241"/>
       <c r="B12" s="8" t="s">
         <v>21</v>
@@ -10483,7 +10548,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="39.6">
+    <row r="13" spans="1:10" ht="24.6">
       <c r="A13" s="241"/>
       <c r="B13" s="8" t="s">
         <v>21</v>
@@ -10510,7 +10575,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="39.6">
+    <row r="14" spans="1:10" ht="36.9">
       <c r="A14" s="241"/>
       <c r="B14" s="47" t="s">
         <v>21</v>
@@ -10538,7 +10603,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="26.4">
+    <row r="15" spans="1:10" ht="24.6">
       <c r="A15" s="6" t="s">
         <v>158</v>
       </c>
@@ -10564,7 +10629,7 @@
       </c>
       <c r="J15" s="36"/>
     </row>
-    <row r="16" spans="1:10" ht="26.4">
+    <row r="16" spans="1:10" ht="24.6">
       <c r="A16" s="6" t="s">
         <v>166</v>
       </c>
@@ -10590,7 +10655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="105.6">
+    <row r="22" spans="1:10" ht="98.4">
       <c r="A22" s="14" t="s">
         <v>19</v>
       </c>
@@ -10620,7 +10685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="79.2">
+    <row r="26" spans="1:10" ht="73.8">
       <c r="A26" s="6" t="s">
         <v>178</v>
       </c>
@@ -10650,7 +10715,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="52.8">
+    <row r="27" spans="1:10" ht="36.9">
       <c r="A27" s="65" t="s">
         <v>189</v>
       </c>
@@ -10682,7 +10747,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="92.4">
+    <row r="28" spans="1:10" ht="86.1">
       <c r="A28" s="6" t="s">
         <v>258</v>
       </c>
@@ -10712,7 +10777,7 @@
         <v>76138</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="66">
+    <row r="29" spans="1:10" ht="61.5">
       <c r="A29" s="6" t="s">
         <v>268</v>
       </c>
@@ -10784,7 +10849,7 @@
       <c r="I31" s="12"/>
       <c r="J31" s="36"/>
     </row>
-    <row r="32" spans="1:10" ht="79.2">
+    <row r="32" spans="1:10" ht="73.8">
       <c r="A32" s="6" t="s">
         <v>319</v>
       </c>
@@ -10814,7 +10879,7 @@
       </c>
       <c r="J32" s="36"/>
     </row>
-    <row r="33" spans="1:10" ht="92.4">
+    <row r="33" spans="1:10" ht="86.1">
       <c r="A33" s="87" t="s">
         <v>346</v>
       </c>
@@ -10844,7 +10909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="39.6">
+    <row r="34" spans="1:10" ht="36.9">
       <c r="A34" s="6" t="s">
         <v>355</v>
       </c>
@@ -10872,7 +10937,7 @@
       </c>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" ht="66">
+    <row r="35" spans="1:10" ht="61.5">
       <c r="A35" s="6" t="s">
         <v>362</v>
       </c>
@@ -10904,7 +10969,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="39.6">
+    <row r="36" spans="1:10" ht="36.9">
       <c r="A36" s="243" t="s">
         <v>375</v>
       </c>
@@ -10934,7 +10999,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="39.6">
+    <row r="37" spans="1:10" ht="36.9">
       <c r="A37" s="241"/>
       <c r="B37" s="8" t="s">
         <v>21</v>
@@ -10962,7 +11027,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="66">
+    <row r="38" spans="1:10" ht="61.5">
       <c r="A38" s="241"/>
       <c r="B38" s="8" t="s">
         <v>21</v>
@@ -10990,7 +11055,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="39.6">
+    <row r="39" spans="1:10" ht="36.9">
       <c r="A39" s="241"/>
       <c r="B39" s="8" t="s">
         <v>21</v>
@@ -11018,7 +11083,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="39.6">
+    <row r="40" spans="1:10" ht="36.9">
       <c r="A40" s="241"/>
       <c r="B40" s="8" t="s">
         <v>21</v>
@@ -11046,7 +11111,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="39.6">
+    <row r="41" spans="1:10" ht="36.9">
       <c r="A41" s="241"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
@@ -11074,7 +11139,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="39.6">
+    <row r="42" spans="1:10" ht="36.9">
       <c r="A42" s="241"/>
       <c r="B42" s="8" t="s">
         <v>21</v>
@@ -11102,7 +11167,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="39.6">
+    <row r="43" spans="1:10" ht="36.9">
       <c r="A43" s="241"/>
       <c r="B43" s="8" t="s">
         <v>21</v>
@@ -11130,7 +11195,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="39.6">
+    <row r="44" spans="1:10" ht="36.9">
       <c r="A44" s="241"/>
       <c r="B44" s="8" t="s">
         <v>21</v>
@@ -11158,7 +11223,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="39.6">
+    <row r="45" spans="1:10" ht="36.9">
       <c r="A45" s="244"/>
       <c r="B45" s="47" t="s">
         <v>21</v>
@@ -11186,7 +11251,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="39.6">
+    <row r="46" spans="1:10" ht="36.9">
       <c r="A46" s="105" t="s">
         <v>458</v>
       </c>
@@ -11246,7 +11311,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="66">
+    <row r="48" spans="1:10" ht="61.5">
       <c r="A48" s="243" t="s">
         <v>495</v>
       </c>
@@ -11276,7 +11341,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="39.6">
+    <row r="49" spans="1:10" ht="36.9">
       <c r="A49" s="244"/>
       <c r="B49" s="47" t="s">
         <v>21</v>
@@ -11332,7 +11397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="26.4">
+    <row r="51" spans="1:10" ht="24.6">
       <c r="A51" s="8" t="s">
         <v>459</v>
       </c>
@@ -11358,7 +11423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="79.2">
+    <row r="52" spans="1:10" ht="73.8">
       <c r="A52" s="6" t="s">
         <v>548</v>
       </c>
@@ -11390,7 +11455,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="52.8">
+    <row r="53" spans="1:10" ht="49.2">
       <c r="A53" s="8" t="s">
         <v>548</v>
       </c>
@@ -11422,7 +11487,7 @@
         <v>43283</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="52.8">
+    <row r="54" spans="1:10" ht="49.2">
       <c r="A54" s="8" t="s">
         <v>548</v>
       </c>
@@ -11454,7 +11519,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="52.8">
+    <row r="55" spans="1:10" ht="49.2">
       <c r="A55" s="8" t="s">
         <v>548</v>
       </c>
@@ -11486,7 +11551,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="66">
+    <row r="56" spans="1:10" ht="61.5">
       <c r="A56" s="8" t="s">
         <v>548</v>
       </c>
@@ -11518,7 +11583,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="52.8">
+    <row r="57" spans="1:10" ht="49.2">
       <c r="A57" s="8" t="s">
         <v>548</v>
       </c>
@@ -11550,7 +11615,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="52.8">
+    <row r="58" spans="1:10" ht="49.2">
       <c r="A58" s="8" t="s">
         <v>548</v>
       </c>
@@ -11582,7 +11647,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="52.8">
+    <row r="59" spans="1:10" ht="49.2">
       <c r="A59" s="8" t="s">
         <v>548</v>
       </c>
@@ -11614,7 +11679,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="52.8">
+    <row r="60" spans="1:10" ht="49.2">
       <c r="A60" s="6" t="s">
         <v>589</v>
       </c>
@@ -11644,7 +11709,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="26.4">
+    <row r="61" spans="1:10" ht="24.6">
       <c r="A61" s="8" t="s">
         <v>589</v>
       </c>
@@ -11674,7 +11739,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="79.2">
+    <row r="62" spans="1:10" ht="73.8">
       <c r="A62" s="6" t="s">
         <v>603</v>
       </c>
@@ -11704,7 +11769,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="26.4">
+    <row r="63" spans="1:10" ht="24.6">
       <c r="A63" s="132" t="s">
         <v>611</v>
       </c>
@@ -11734,7 +11799,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="52.8">
+    <row r="64" spans="1:10" ht="49.2">
       <c r="A64" s="6" t="s">
         <v>636</v>
       </c>
@@ -11796,7 +11861,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="52.8">
+    <row r="66" spans="1:10" ht="49.2">
       <c r="A66" s="125" t="s">
         <v>651</v>
       </c>
@@ -11823,7 +11888,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="66">
+    <row r="67" spans="1:10" ht="61.5">
       <c r="A67" s="123" t="s">
         <v>651</v>
       </c>
@@ -11958,7 +12023,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="39.6">
+    <row r="72" spans="1:10" ht="43.2">
       <c r="A72" s="123" t="s">
         <v>651</v>
       </c>
@@ -12180,7 +12245,7 @@
         <v>43295</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="79.2">
+    <row r="80" spans="1:10" ht="61.5">
       <c r="A80" s="125" t="s">
         <v>564</v>
       </c>
@@ -12208,7 +12273,7 @@
         <v>43296</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="66">
+    <row r="81" spans="1:10" ht="57.6">
       <c r="A81" s="123" t="s">
         <v>564</v>
       </c>
@@ -12236,7 +12301,7 @@
         <v>43297</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="66">
+    <row r="82" spans="1:10" ht="61.5">
       <c r="A82" s="123" t="s">
         <v>564</v>
       </c>
@@ -12318,7 +12383,7 @@
         <v>43300</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="52.8">
+    <row r="85" spans="1:10" ht="49.2">
       <c r="A85" s="8" t="s">
         <v>753</v>
       </c>
@@ -12348,7 +12413,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="52.8">
+    <row r="86" spans="1:10" ht="49.2">
       <c r="A86" s="6" t="s">
         <v>762</v>
       </c>
@@ -12378,7 +12443,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="118.8">
+    <row r="87" spans="1:10" ht="110.7">
       <c r="A87" s="6" t="s">
         <v>767</v>
       </c>
@@ -12406,7 +12471,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="39.6">
+    <row r="88" spans="1:10" ht="36.9">
       <c r="A88" s="245" t="s">
         <v>779</v>
       </c>
@@ -12436,7 +12501,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="39.6">
+    <row r="89" spans="1:10" ht="36.9">
       <c r="A89" s="241"/>
       <c r="B89" s="8" t="s">
         <v>45</v>
@@ -12464,7 +12529,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="39.6">
+    <row r="90" spans="1:10" ht="36.9">
       <c r="A90" s="241"/>
       <c r="B90" s="8" t="s">
         <v>45</v>
@@ -12492,7 +12557,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="39.6">
+    <row r="91" spans="1:10" ht="36.9">
       <c r="A91" s="241"/>
       <c r="B91" s="8" t="s">
         <v>45</v>
@@ -12520,7 +12585,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="39.6">
+    <row r="92" spans="1:10" ht="24.6">
       <c r="A92" s="241"/>
       <c r="B92" s="8" t="s">
         <v>45</v>
@@ -12548,7 +12613,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="39.6">
+    <row r="93" spans="1:10" ht="24.6">
       <c r="A93" s="241"/>
       <c r="B93" s="8" t="s">
         <v>45</v>
@@ -12576,7 +12641,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="39.6">
+    <row r="94" spans="1:10" ht="36.9">
       <c r="A94" s="241"/>
       <c r="B94" s="8" t="s">
         <v>45</v>
@@ -12604,7 +12669,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="39.6">
+    <row r="95" spans="1:10" ht="36.9">
       <c r="A95" s="241"/>
       <c r="B95" s="8" t="s">
         <v>45</v>
@@ -12632,7 +12697,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="26.4">
+    <row r="96" spans="1:10" ht="24.6">
       <c r="A96" s="6" t="s">
         <v>812</v>
       </c>
@@ -12664,7 +12729,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="52.8">
+    <row r="97" spans="1:10" ht="49.2">
       <c r="A97" s="6" t="s">
         <v>833</v>
       </c>
@@ -12694,7 +12759,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="39.6">
+    <row r="98" spans="1:10" ht="36.9">
       <c r="A98" s="6" t="s">
         <v>841</v>
       </c>
@@ -12857,7 +12922,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="66">
+    <row r="104" spans="1:10" ht="61.5">
       <c r="A104" s="6" t="s">
         <v>892</v>
       </c>
@@ -12887,7 +12952,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="66">
+    <row r="105" spans="1:10" ht="61.5">
       <c r="A105" s="6" t="s">
         <v>892</v>
       </c>
@@ -13224,7 +13289,7 @@
         <v>43293</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="118.8">
+    <row r="117" spans="1:10" ht="98.4">
       <c r="A117" s="6" t="s">
         <v>926</v>
       </c>
@@ -13256,7 +13321,7 @@
         <v>43294</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="26.4">
+    <row r="118" spans="1:10" ht="24.6">
       <c r="A118" s="6" t="s">
         <v>926</v>
       </c>
@@ -13445,7 +13510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -13455,7 +13520,7 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
@@ -13469,7 +13534,7 @@
     <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39.6">
+    <row r="1" spans="1:10" ht="36.9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -13499,7 +13564,7 @@
       </c>
       <c r="J1" s="241"/>
     </row>
-    <row r="2" spans="1:10" ht="26.4">
+    <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -13515,7 +13580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="211.2">
+    <row r="3" spans="1:10" ht="196.8">
       <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
@@ -13545,7 +13610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="211.2">
+    <row r="4" spans="1:10" ht="196.8">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
@@ -13575,7 +13640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="211.2">
+    <row r="5" spans="1:10" ht="196.8">
       <c r="A5" s="14" t="s">
         <v>19</v>
       </c>

--- a/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
+++ b/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barbj\Documents\Infoway-Health Canada CCDD\formulary\Working QA Team Folders\Pre- Release QA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{545CBD86-9AC5-4D7E-9FCA-F483CF6EEFFD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="17268" windowHeight="5256"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="17268" windowHeight="5256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Action Items, Open" sheetId="1" r:id="rId1"/>
@@ -12,17 +18,17 @@
     <sheet name="Completed AIs Released" sheetId="3" r:id="rId3"/>
     <sheet name="AIs no longer relevant" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="F123" authorId="0">
+    <comment ref="F123" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -34,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F134" authorId="0">
+    <comment ref="F134" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -51,12 +57,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G26" authorId="0">
+    <comment ref="G26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F27" authorId="0">
+    <comment ref="F27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,12 +94,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E88" authorId="0">
+    <comment ref="E88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G96" authorId="0">
+    <comment ref="G96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H117" authorId="0">
+    <comment ref="H117" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="1049">
   <si>
     <t>TM</t>
   </si>
@@ -4476,18 +4482,24 @@
       <t>UoP changes: 1, 2 and 5 mL vials</t>
     </r>
   </si>
+  <si>
+    <t>U of Ps Done July 27 2018 bfj</t>
+  </si>
+  <si>
+    <t>Louise: DPD ingredient should be tobramycin sulfate according to monograph.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="#0"/>
     <numFmt numFmtId="167" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="62">
+  <fonts count="63">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4830,8 +4842,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4848,6 +4866,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -5121,7 +5145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="307">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5768,12 +5792,239 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="57" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="58" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="58" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="58" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="58" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5788,231 +6039,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="57" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="58" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="58" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="58" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="58" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="36" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6328,22 +6358,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H135" sqref="H135"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
@@ -6361,7 +6391,7 @@
     <col min="11" max="16384" width="14.44140625" style="166"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="158" customFormat="1" ht="27.6">
+    <row r="1" spans="1:10" s="158" customFormat="1" ht="28.2">
       <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
@@ -6414,7 +6444,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="96.6">
+    <row r="3" spans="1:10" ht="98.7">
       <c r="A3" s="159" t="s">
         <v>1006</v>
       </c>
@@ -6535,7 +6565,7 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="317.39999999999998">
+    <row r="8" spans="1:10" ht="345">
       <c r="A8" s="170" t="s">
         <v>437</v>
       </c>
@@ -6556,7 +6586,7 @@
       <c r="H8" s="164"/>
       <c r="I8" s="165"/>
     </row>
-    <row r="9" spans="1:10" ht="331.2">
+    <row r="9" spans="1:10" ht="358.8">
       <c r="A9" s="173" t="s">
         <v>939</v>
       </c>
@@ -6577,7 +6607,7 @@
       <c r="H9" s="164"/>
       <c r="I9" s="165"/>
     </row>
-    <row r="10" spans="1:10" ht="409.6">
+    <row r="10" spans="1:10" ht="409.5">
       <c r="A10" s="170" t="s">
         <v>963</v>
       </c>
@@ -6609,7 +6639,7 @@
       <c r="D11" s="193" t="s">
         <v>1013</v>
       </c>
-      <c r="E11" s="229" t="s">
+      <c r="E11" s="221" t="s">
         <v>1011</v>
       </c>
       <c r="F11" s="166" t="s">
@@ -6631,10 +6661,10 @@
         <v>1010</v>
       </c>
       <c r="C12" s="160"/>
-      <c r="D12" s="230" t="s">
+      <c r="D12" s="222" t="s">
         <v>1018</v>
       </c>
-      <c r="E12" s="229" t="s">
+      <c r="E12" s="221" t="s">
         <v>1015</v>
       </c>
       <c r="F12" s="166" t="s">
@@ -6740,7 +6770,7 @@
       <c r="H16" s="164"/>
       <c r="I16" s="165"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="14.1">
       <c r="A17" s="159" t="s">
         <v>121</v>
       </c>
@@ -6788,7 +6818,7 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="41.4">
+    <row r="19" spans="1:9" ht="42.3">
       <c r="A19" s="159" t="s">
         <v>135</v>
       </c>
@@ -6955,7 +6985,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="27.6">
+    <row r="26" spans="1:9" ht="28.2">
       <c r="A26" s="159" t="s">
         <v>210</v>
       </c>
@@ -7001,7 +7031,7 @@
       <c r="H27" s="181"/>
       <c r="I27" s="165"/>
     </row>
-    <row r="28" spans="1:9" ht="41.4">
+    <row r="28" spans="1:9" ht="55.2">
       <c r="A28" s="159" t="s">
         <v>222</v>
       </c>
@@ -7026,7 +7056,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="41.4">
+    <row r="29" spans="1:9" ht="55.2">
       <c r="A29" s="182" t="s">
         <v>222</v>
       </c>
@@ -7047,7 +7077,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="41.4">
+    <row r="30" spans="1:9" ht="55.2">
       <c r="A30" s="182" t="s">
         <v>222</v>
       </c>
@@ -7068,7 +7098,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="41.4">
+    <row r="31" spans="1:9" ht="55.2">
       <c r="A31" s="182" t="s">
         <v>222</v>
       </c>
@@ -7270,7 +7300,7 @@
       <c r="I39" s="191"/>
       <c r="J39" s="192"/>
     </row>
-    <row r="40" spans="1:10" ht="124.2">
+    <row r="40" spans="1:10" ht="151.80000000000001">
       <c r="A40" s="159" t="s">
         <v>267</v>
       </c>
@@ -7493,7 +7523,7 @@
         <v>43250</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="69.599999999999994">
+    <row r="48" spans="1:10" ht="69.3">
       <c r="A48" s="159" t="s">
         <v>338</v>
       </c>
@@ -7828,7 +7858,7 @@
         <v>43283</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="41.4">
+    <row r="62" spans="1:9" ht="55.2">
       <c r="A62" s="182" t="s">
         <v>76</v>
       </c>
@@ -7855,7 +7885,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="41.4">
+    <row r="63" spans="1:9" ht="55.2">
       <c r="A63" s="182" t="s">
         <v>76</v>
       </c>
@@ -7882,7 +7912,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="41.4">
+    <row r="64" spans="1:9" ht="55.2">
       <c r="A64" s="182" t="s">
         <v>76</v>
       </c>
@@ -7909,7 +7939,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="41.4">
+    <row r="65" spans="1:9" ht="55.2">
       <c r="A65" s="182" t="s">
         <v>76</v>
       </c>
@@ -7986,7 +8016,7 @@
       <c r="H67" s="164"/>
       <c r="I67" s="165"/>
     </row>
-    <row r="68" spans="1:9" ht="41.4">
+    <row r="68" spans="1:9" ht="55.2">
       <c r="A68" s="182" t="s">
         <v>76</v>
       </c>
@@ -8036,7 +8066,7 @@
       <c r="H69" s="164"/>
       <c r="I69" s="165"/>
     </row>
-    <row r="70" spans="1:9" ht="41.4">
+    <row r="70" spans="1:9" ht="55.2">
       <c r="A70" s="182" t="s">
         <v>76</v>
       </c>
@@ -8086,7 +8116,7 @@
       <c r="H71" s="164"/>
       <c r="I71" s="165"/>
     </row>
-    <row r="72" spans="1:9" ht="41.4">
+    <row r="72" spans="1:9" ht="55.2">
       <c r="A72" s="182" t="s">
         <v>442</v>
       </c>
@@ -8113,7 +8143,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="55.2">
+    <row r="73" spans="1:9" ht="56.4">
       <c r="A73" s="159" t="s">
         <v>445</v>
       </c>
@@ -8140,7 +8170,7 @@
         <v>43290</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="55.2">
+    <row r="74" spans="1:9" ht="56.4">
       <c r="A74" s="203" t="s">
         <v>447</v>
       </c>
@@ -8265,7 +8295,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="124.2">
+    <row r="79" spans="1:9" ht="138">
       <c r="A79" s="159" t="s">
         <v>468</v>
       </c>
@@ -8290,7 +8320,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="409.6">
+    <row r="80" spans="1:9" ht="409.5">
       <c r="A80" s="159" t="s">
         <v>475</v>
       </c>
@@ -8489,7 +8519,7 @@
       <c r="D87" s="189" t="s">
         <v>1021</v>
       </c>
-      <c r="E87" s="229" t="s">
+      <c r="E87" s="221" t="s">
         <v>1023</v>
       </c>
       <c r="F87" s="187" t="s">
@@ -8511,7 +8541,7 @@
       <c r="D88" s="189" t="s">
         <v>1022</v>
       </c>
-      <c r="E88" s="229" t="s">
+      <c r="E88" s="221" t="s">
         <v>1023</v>
       </c>
       <c r="F88" s="187" t="s">
@@ -8533,7 +8563,7 @@
       <c r="D89" s="189" t="s">
         <v>1027</v>
       </c>
-      <c r="E89" s="231" t="s">
+      <c r="E89" s="223" t="s">
         <v>1028</v>
       </c>
       <c r="F89" s="215" t="s">
@@ -8637,7 +8667,7 @@
       <c r="H93" s="164"/>
       <c r="I93" s="165"/>
     </row>
-    <row r="94" spans="1:10" ht="96.6">
+    <row r="94" spans="1:10" ht="82.8">
       <c r="A94" s="159" t="s">
         <v>528</v>
       </c>
@@ -8675,7 +8705,7 @@
       <c r="D95" s="160" t="s">
         <v>1031</v>
       </c>
-      <c r="E95" s="228" t="s">
+      <c r="E95" s="220" t="s">
         <v>1032</v>
       </c>
       <c r="F95" s="187" t="s">
@@ -8812,7 +8842,7 @@
       <c r="H100" s="164"/>
       <c r="I100" s="165"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" ht="14.1">
       <c r="A101" s="159" t="s">
         <v>607</v>
       </c>
@@ -8924,7 +8954,7 @@
         <v>1010</v>
       </c>
       <c r="C105" s="164"/>
-      <c r="D105" s="232" t="s">
+      <c r="D105" s="224" t="s">
         <v>1041</v>
       </c>
       <c r="E105" s="168" t="s">
@@ -9152,7 +9182,7 @@
       <c r="H114" s="164"/>
       <c r="I114" s="165"/>
     </row>
-    <row r="115" spans="1:9" ht="82.8">
+    <row r="115" spans="1:9" ht="96.6">
       <c r="A115" s="159" t="s">
         <v>664</v>
       </c>
@@ -9352,7 +9382,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="27.6">
+    <row r="123" spans="1:9" ht="41.4">
       <c r="A123" s="159" t="s">
         <v>741</v>
       </c>
@@ -9431,7 +9461,7 @@
       <c r="H125" s="208"/>
       <c r="I125" s="165"/>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" ht="14.1">
       <c r="A126" s="159" t="s">
         <v>812</v>
       </c>
@@ -9469,9 +9499,7 @@
       <c r="D127" s="164" t="s">
         <v>833</v>
       </c>
-      <c r="E127" s="162" t="s">
-        <v>832</v>
-      </c>
+      <c r="E127" s="162"/>
       <c r="F127" s="187" t="s">
         <v>839</v>
       </c>
@@ -9484,22 +9512,17 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="41.4">
-      <c r="A128" s="159" t="s">
+      <c r="A128" s="170" t="s">
         <v>840</v>
       </c>
-      <c r="B128" s="164" t="s">
-        <v>841</v>
-      </c>
-      <c r="C128" s="164"/>
-      <c r="D128" s="164"/>
-      <c r="E128" s="162"/>
-      <c r="F128" s="185" t="s">
-        <v>846</v>
-      </c>
-      <c r="G128" s="164"/>
-      <c r="H128" s="164"/>
-      <c r="I128" s="165">
-        <v>43196</v>
+      <c r="D128" s="307">
+        <v>2420287</v>
+      </c>
+      <c r="F128" s="166" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I128" s="308">
+        <v>372000</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="41.4">
@@ -9608,7 +9631,7 @@
         <v>43270</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="41.4">
+    <row r="133" spans="1:9" ht="55.2">
       <c r="A133" s="159" t="s">
         <v>861</v>
       </c>
@@ -9688,7 +9711,7 @@
     <row r="136" spans="1:9">
       <c r="D136" s="164"/>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" ht="14.1">
       <c r="A137" s="159"/>
       <c r="B137" s="160"/>
       <c r="C137" s="160"/>
@@ -9699,7 +9722,7 @@
       <c r="H137" s="164"/>
       <c r="I137" s="165"/>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" ht="14.1">
       <c r="A138" s="159"/>
       <c r="B138" s="160"/>
       <c r="C138" s="160"/>
@@ -9710,7 +9733,7 @@
       <c r="H138" s="164"/>
       <c r="I138" s="165"/>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" ht="14.1">
       <c r="A139" s="159"/>
       <c r="B139" s="160"/>
       <c r="C139" s="160"/>
@@ -9721,7 +9744,7 @@
       <c r="H139" s="164"/>
       <c r="I139" s="165"/>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" ht="14.1">
       <c r="A140" s="159"/>
       <c r="B140" s="160"/>
       <c r="C140" s="160"/>
@@ -9732,7 +9755,7 @@
       <c r="H140" s="164"/>
       <c r="I140" s="165"/>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" ht="14.1">
       <c r="A141" s="159"/>
       <c r="B141" s="160"/>
       <c r="C141" s="160"/>
@@ -9743,7 +9766,7 @@
       <c r="H141" s="164"/>
       <c r="I141" s="165"/>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" ht="14.1">
       <c r="A142" s="159"/>
       <c r="B142" s="160"/>
       <c r="C142" s="160"/>
@@ -9754,7 +9777,7 @@
       <c r="H142" s="164"/>
       <c r="I142" s="165"/>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" ht="14.1">
       <c r="A143" s="159"/>
       <c r="B143" s="160"/>
       <c r="C143" s="160"/>
@@ -9765,7 +9788,7 @@
       <c r="H143" s="164"/>
       <c r="I143" s="165"/>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" ht="14.1">
       <c r="A144" s="159"/>
       <c r="B144" s="160"/>
       <c r="C144" s="160"/>
@@ -9778,7 +9801,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F115" r:id="rId1" location="gid=314589613&amp;range=309:309"/>
+    <hyperlink ref="F115" r:id="rId1" location="gid=314589613&amp;range=309:309" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -9787,868 +9810,889 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="240" customWidth="1"/>
-    <col min="2" max="5" width="14.44140625" style="240"/>
-    <col min="6" max="6" width="28.88671875" style="240" customWidth="1"/>
-    <col min="7" max="7" width="23" style="240" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" style="240" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="240"/>
-    <col min="10" max="10" width="15.5546875" style="240" customWidth="1"/>
-    <col min="11" max="16384" width="14.44140625" style="240"/>
+    <col min="1" max="1" width="18.109375" style="232" customWidth="1"/>
+    <col min="2" max="5" width="14.44140625" style="232"/>
+    <col min="6" max="6" width="28.88671875" style="232" customWidth="1"/>
+    <col min="7" max="7" width="23" style="232" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" style="232" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="232"/>
+    <col min="10" max="10" width="15.5546875" style="232" customWidth="1"/>
+    <col min="11" max="16384" width="14.44140625" style="232"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="282" customFormat="1" ht="26.4">
-      <c r="A1" s="278" t="s">
+    <row r="1" spans="1:10" s="272" customFormat="1" ht="24.6">
+      <c r="A1" s="270" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="279" t="s">
+      <c r="B1" s="271" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="279" t="s">
+      <c r="C1" s="271" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="278" t="s">
+      <c r="D1" s="270" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="278" t="s">
+      <c r="E1" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="278" t="s">
+      <c r="F1" s="270" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="278" t="s">
+      <c r="G1" s="270" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="278" t="s">
+      <c r="H1" s="270" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="280" t="s">
+      <c r="I1" s="297" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="281"/>
-    </row>
-    <row r="2" spans="1:10" s="286" customFormat="1" ht="26.4">
-      <c r="A2" s="283"/>
-      <c r="B2" s="284"/>
-      <c r="C2" s="284"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="285" t="s">
+      <c r="J1" s="298"/>
+    </row>
+    <row r="2" spans="1:10" s="276" customFormat="1" ht="24.6">
+      <c r="A2" s="273"/>
+      <c r="B2" s="274"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="275" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="285" t="s">
+      <c r="J2" s="275" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="296" customFormat="1" ht="66">
-      <c r="A3" s="287" t="s">
+    <row r="3" spans="1:10" s="286" customFormat="1" ht="61.5">
+      <c r="A3" s="277" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="288" t="s">
+      <c r="B3" s="278" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="289" t="s">
+      <c r="C3" s="279" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="290" t="s">
+      <c r="D3" s="280" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="291" t="s">
+      <c r="E3" s="281" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="292" t="s">
+      <c r="F3" s="282" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="293" t="s">
+      <c r="G3" s="283" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="288" t="s">
+      <c r="H3" s="278" t="s">
         <v>1005</v>
       </c>
-      <c r="I3" s="294"/>
-      <c r="J3" s="295" t="s">
+      <c r="I3" s="284"/>
+      <c r="J3" s="285" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="118.8">
-      <c r="A4" s="233" t="s">
+    <row r="4" spans="1:10" ht="110.7">
+      <c r="A4" s="225" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="234" t="s">
+      <c r="B4" s="226" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="235">
+      <c r="C4" s="227">
         <v>8001144</v>
       </c>
-      <c r="D4" s="235" t="s">
+      <c r="D4" s="227" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="235" t="s">
+      <c r="E4" s="227" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="236" t="s">
+      <c r="F4" s="228" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="234" t="s">
+      <c r="G4" s="226" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="237" t="s">
+      <c r="H4" s="229" t="s">
         <v>154</v>
       </c>
-      <c r="I4" s="238">
+      <c r="I4" s="230">
         <v>43196</v>
       </c>
-      <c r="J4" s="239" t="s">
+      <c r="J4" s="231" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="92.4">
-      <c r="A5" s="241" t="s">
+    <row r="5" spans="1:10" ht="86.1">
+      <c r="A5" s="233" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="234" t="s">
+      <c r="B5" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="234" t="s">
+      <c r="C5" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="242" t="s">
+      <c r="D5" s="234" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="243" t="s">
+      <c r="E5" s="235" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="244" t="s">
+      <c r="F5" s="236" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="245"/>
-      <c r="H5" s="234" t="s">
+      <c r="G5" s="237"/>
+      <c r="H5" s="226" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="238">
+      <c r="I5" s="230">
         <v>43240</v>
       </c>
-      <c r="J5" s="246" t="s">
+      <c r="J5" s="238" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="105.6">
-      <c r="A6" s="241" t="s">
+    <row r="6" spans="1:10" ht="98.4">
+      <c r="A6" s="233" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="234" t="s">
+      <c r="B6" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="234" t="s">
+      <c r="C6" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="247" t="s">
+      <c r="D6" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="243" t="s">
+      <c r="E6" s="235" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="244" t="s">
+      <c r="F6" s="236" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="245"/>
-      <c r="H6" s="234" t="s">
+      <c r="G6" s="237"/>
+      <c r="H6" s="226" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="238">
+      <c r="I6" s="230">
         <v>43240</v>
       </c>
-      <c r="J6" s="246" t="s">
+      <c r="J6" s="238" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="105.6">
-      <c r="A7" s="241" t="s">
+    <row r="7" spans="1:10" ht="98.4">
+      <c r="A7" s="233" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="234" t="s">
+      <c r="B7" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="234" t="s">
+      <c r="C7" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="247" t="s">
+      <c r="D7" s="239" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="243" t="s">
+      <c r="E7" s="235" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="244" t="s">
+      <c r="F7" s="236" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="245"/>
-      <c r="H7" s="234" t="s">
+      <c r="G7" s="237"/>
+      <c r="H7" s="226" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="238">
+      <c r="I7" s="230">
         <v>43240</v>
       </c>
-      <c r="J7" s="246" t="s">
+      <c r="J7" s="238" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="105.6">
-      <c r="A8" s="241" t="s">
+    <row r="8" spans="1:10" ht="98.4">
+      <c r="A8" s="233" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="234" t="s">
+      <c r="B8" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="234" t="s">
+      <c r="C8" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="242" t="s">
+      <c r="D8" s="234" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="243" t="s">
+      <c r="E8" s="235" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="244" t="s">
+      <c r="F8" s="236" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="245"/>
-      <c r="H8" s="234" t="s">
+      <c r="G8" s="237"/>
+      <c r="H8" s="226" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="238">
+      <c r="I8" s="230">
         <v>43240</v>
       </c>
-      <c r="J8" s="246" t="s">
+      <c r="J8" s="238" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="167.4" customHeight="1">
-      <c r="A9" s="241" t="s">
+      <c r="A9" s="233" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="234" t="s">
+      <c r="B9" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="234" t="s">
+      <c r="C9" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="242" t="s">
+      <c r="D9" s="234" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="243" t="s">
+      <c r="E9" s="235" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="244" t="s">
+      <c r="F9" s="236" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="245"/>
-      <c r="H9" s="234" t="s">
+      <c r="G9" s="237"/>
+      <c r="H9" s="226" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="238">
+      <c r="I9" s="230">
         <v>43240</v>
       </c>
-      <c r="J9" s="246" t="s">
+      <c r="J9" s="238" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="92.4">
-      <c r="A10" s="237" t="s">
+    <row r="10" spans="1:10" ht="73.8">
+      <c r="A10" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="234" t="s">
+      <c r="B10" s="226" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="248" t="s">
+      <c r="C10" s="240" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="242" t="s">
+      <c r="D10" s="234" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="249" t="s">
+      <c r="E10" s="241" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="250" t="s">
+      <c r="F10" s="242" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="251"/>
-      <c r="H10" s="234" t="s">
+      <c r="G10" s="243"/>
+      <c r="H10" s="226" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="238">
+      <c r="I10" s="230">
         <v>43240</v>
       </c>
-      <c r="J10" s="239"/>
-    </row>
-    <row r="11" spans="1:10" ht="92.4">
-      <c r="A11" s="234" t="s">
+      <c r="J10" s="231"/>
+    </row>
+    <row r="11" spans="1:10" ht="73.8">
+      <c r="A11" s="226" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="234" t="s">
+      <c r="B11" s="226" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="248" t="s">
+      <c r="C11" s="240" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="242" t="s">
+      <c r="D11" s="234" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="249" t="s">
+      <c r="E11" s="241" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="250" t="s">
+      <c r="F11" s="242" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="251"/>
-      <c r="H11" s="234" t="s">
+      <c r="G11" s="243"/>
+      <c r="H11" s="226" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="238">
+      <c r="I11" s="230">
         <v>43240</v>
       </c>
-      <c r="J11" s="239"/>
-    </row>
-    <row r="12" spans="1:10" ht="92.4">
-      <c r="A12" s="234" t="s">
+      <c r="J11" s="231"/>
+    </row>
+    <row r="12" spans="1:10" ht="73.8">
+      <c r="A12" s="226" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="234" t="s">
+      <c r="B12" s="226" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="248" t="s">
+      <c r="C12" s="240" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="242" t="s">
+      <c r="D12" s="234" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="249" t="s">
+      <c r="E12" s="241" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="250" t="s">
+      <c r="F12" s="242" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="251"/>
-      <c r="H12" s="234" t="s">
+      <c r="G12" s="243"/>
+      <c r="H12" s="226" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="238">
+      <c r="I12" s="230">
         <v>43240</v>
       </c>
-      <c r="J12" s="239"/>
-    </row>
-    <row r="13" spans="1:10" ht="118.8">
-      <c r="A13" s="234" t="s">
+      <c r="J12" s="231"/>
+    </row>
+    <row r="13" spans="1:10" ht="98.4">
+      <c r="A13" s="226" t="s">
         <v>194</v>
       </c>
-      <c r="B13" s="251" t="s">
+      <c r="B13" s="243" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="234"/>
-      <c r="D13" s="247" t="s">
+      <c r="C13" s="226"/>
+      <c r="D13" s="239" t="s">
         <v>197</v>
       </c>
-      <c r="E13" s="252" t="s">
+      <c r="E13" s="244" t="s">
         <v>198</v>
       </c>
-      <c r="F13" s="250" t="s">
+      <c r="F13" s="242" t="s">
         <v>207</v>
       </c>
-      <c r="G13" s="253" t="s">
+      <c r="G13" s="245" t="s">
         <v>211</v>
       </c>
-      <c r="H13" s="234"/>
-      <c r="I13" s="238">
+      <c r="H13" s="226"/>
+      <c r="I13" s="230">
         <v>43250</v>
       </c>
-      <c r="J13" s="239"/>
-    </row>
-    <row r="14" spans="1:10" ht="250.8">
-      <c r="A14" s="237" t="s">
+      <c r="J13" s="231"/>
+    </row>
+    <row r="14" spans="1:10" ht="233.7">
+      <c r="A14" s="229" t="s">
         <v>218</v>
       </c>
-      <c r="B14" s="254" t="str">
+      <c r="B14" s="246" t="str">
         <f>HYPERLINK("https://docs.google.com/spreadsheets/d/1CZZj8fSMSaEaqlK8KCBOVHZaJixwFi-xHDmvUY_rwCk/edit#gid=1997930010&amp;range=L34","Master: Antibacterials A")</f>
         <v>Master: Antibacterials A</v>
       </c>
-      <c r="C14" s="234" t="s">
+      <c r="C14" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="255" t="s">
+      <c r="D14" s="247" t="s">
         <v>231</v>
       </c>
-      <c r="E14" s="256"/>
-      <c r="F14" s="257" t="s">
+      <c r="E14" s="248"/>
+      <c r="F14" s="249" t="s">
         <v>237</v>
       </c>
-      <c r="G14" s="252" t="s">
+      <c r="G14" s="244" t="s">
         <v>248</v>
       </c>
-      <c r="H14" s="234" t="s">
+      <c r="H14" s="226" t="s">
         <v>249</v>
       </c>
-      <c r="I14" s="238">
+      <c r="I14" s="230">
         <v>43250</v>
       </c>
-      <c r="J14" s="258" t="s">
+      <c r="J14" s="250" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="105.6">
-      <c r="A15" s="237" t="s">
+    <row r="15" spans="1:10" ht="98.4">
+      <c r="A15" s="229" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="234" t="s">
+      <c r="B15" s="226" t="s">
         <v>255</v>
       </c>
-      <c r="C15" s="259">
+      <c r="C15" s="251">
         <v>8001180</v>
       </c>
-      <c r="D15" s="260" t="s">
+      <c r="D15" s="252" t="s">
         <v>288</v>
       </c>
-      <c r="E15" s="261" t="s">
+      <c r="E15" s="253" t="s">
         <v>291</v>
       </c>
-      <c r="F15" s="257" t="s">
+      <c r="F15" s="249" t="s">
         <v>292</v>
       </c>
-      <c r="G15" s="251"/>
-      <c r="H15" s="234" t="s">
+      <c r="G15" s="243"/>
+      <c r="H15" s="226" t="s">
         <v>293</v>
       </c>
-      <c r="I15" s="238">
+      <c r="I15" s="230">
         <v>43250</v>
       </c>
-      <c r="J15" s="258" t="s">
+      <c r="J15" s="250" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="165.6">
+    <row r="16" spans="1:10" ht="160.19999999999999">
       <c r="A16" s="162" t="s">
         <v>283</v>
       </c>
-      <c r="B16" s="234"/>
-      <c r="C16" s="259"/>
-      <c r="D16" s="260" t="s">
+      <c r="B16" s="226"/>
+      <c r="C16" s="251"/>
+      <c r="D16" s="252" t="s">
         <v>296</v>
       </c>
-      <c r="E16" s="261" t="s">
+      <c r="E16" s="253" t="s">
         <v>297</v>
       </c>
-      <c r="F16" s="262" t="s">
+      <c r="F16" s="254" t="s">
         <v>298</v>
       </c>
-      <c r="G16" s="235" t="s">
+      <c r="G16" s="227" t="s">
         <v>301</v>
       </c>
-      <c r="H16" s="234" t="s">
+      <c r="H16" s="226" t="s">
         <v>302</v>
       </c>
-      <c r="I16" s="238">
+      <c r="I16" s="230">
         <v>43250</v>
       </c>
-      <c r="J16" s="246" t="s">
+      <c r="J16" s="238" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="275" customFormat="1" ht="144.6" customHeight="1">
-      <c r="A17" s="271" t="s">
+    <row r="17" spans="1:10" s="267" customFormat="1" ht="144.6" customHeight="1">
+      <c r="A17" s="263" t="s">
         <v>323</v>
       </c>
-      <c r="B17" s="271" t="s">
+      <c r="B17" s="263" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="271" t="s">
+      <c r="C17" s="263" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="297" t="s">
+      <c r="D17" s="287" t="s">
         <v>324</v>
       </c>
-      <c r="E17" s="298" t="s">
+      <c r="E17" s="288" t="s">
         <v>325</v>
       </c>
-      <c r="F17" s="299" t="s">
+      <c r="F17" s="289" t="s">
         <v>326</v>
       </c>
-      <c r="G17" s="271" t="s">
+      <c r="G17" s="263" t="s">
         <v>328</v>
       </c>
-      <c r="H17" s="271" t="s">
+      <c r="H17" s="263" t="s">
         <v>329</v>
       </c>
-      <c r="I17" s="274">
+      <c r="I17" s="266">
         <v>43250</v>
       </c>
-      <c r="J17" s="300" t="s">
+      <c r="J17" s="290" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="275" customFormat="1" ht="92.4">
-      <c r="A18" s="271" t="s">
+    <row r="18" spans="1:10" s="267" customFormat="1" ht="86.1">
+      <c r="A18" s="263" t="s">
         <v>323</v>
       </c>
-      <c r="B18" s="271" t="s">
+      <c r="B18" s="263" t="s">
         <v>268</v>
       </c>
-      <c r="C18" s="271" t="s">
+      <c r="C18" s="263" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="301" t="s">
+      <c r="D18" s="291" t="s">
         <v>330</v>
       </c>
-      <c r="E18" s="298" t="s">
+      <c r="E18" s="288" t="s">
         <v>331</v>
       </c>
-      <c r="F18" s="299" t="s">
+      <c r="F18" s="289" t="s">
         <v>332</v>
       </c>
-      <c r="G18" s="271"/>
-      <c r="H18" s="271" t="s">
+      <c r="G18" s="263"/>
+      <c r="H18" s="263" t="s">
         <v>333</v>
       </c>
-      <c r="I18" s="274">
+      <c r="I18" s="266">
         <v>43278</v>
       </c>
-      <c r="J18" s="300" t="s">
+      <c r="J18" s="290" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="275" customFormat="1" ht="92.4">
-      <c r="A19" s="271" t="s">
+    <row r="19" spans="1:10" s="267" customFormat="1" ht="86.1">
+      <c r="A19" s="263" t="s">
         <v>323</v>
       </c>
-      <c r="B19" s="271" t="s">
+      <c r="B19" s="263" t="s">
         <v>268</v>
       </c>
-      <c r="C19" s="271" t="s">
+      <c r="C19" s="263" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="301" t="s">
+      <c r="D19" s="291" t="s">
         <v>335</v>
       </c>
-      <c r="E19" s="298" t="s">
+      <c r="E19" s="288" t="s">
         <v>336</v>
       </c>
-      <c r="F19" s="299" t="s">
+      <c r="F19" s="289" t="s">
         <v>337</v>
       </c>
-      <c r="G19" s="271"/>
-      <c r="H19" s="271" t="s">
+      <c r="G19" s="263"/>
+      <c r="H19" s="263" t="s">
         <v>333</v>
       </c>
-      <c r="I19" s="274">
+      <c r="I19" s="266">
         <v>43278</v>
       </c>
-      <c r="J19" s="300" t="s">
+      <c r="J19" s="290" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="79.2">
-      <c r="A20" s="234" t="s">
+    <row r="20" spans="1:10" ht="73.8">
+      <c r="A20" s="226" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="263" t="s">
+      <c r="B20" s="255" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="235" t="s">
+      <c r="C20" s="227" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="264" t="s">
+      <c r="D20" s="256" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="235"/>
-      <c r="F20" s="265" t="s">
+      <c r="E20" s="227"/>
+      <c r="F20" s="257" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="234" t="s">
+      <c r="G20" s="226" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="234"/>
-      <c r="I20" s="238"/>
-      <c r="J20" s="239"/>
+      <c r="H20" s="226"/>
+      <c r="I20" s="230"/>
+      <c r="J20" s="231"/>
     </row>
     <row r="21" spans="1:10" ht="28.8">
-      <c r="A21" s="234" t="s">
+      <c r="A21" s="226" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="263" t="s">
+      <c r="B21" s="255" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="235" t="s">
+      <c r="C21" s="227" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="266" t="s">
+      <c r="D21" s="258" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="235" t="s">
+      <c r="E21" s="227" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="265" t="s">
+      <c r="F21" s="257" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="234" t="s">
+      <c r="G21" s="226" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="234"/>
-      <c r="I21" s="238">
+      <c r="H21" s="226"/>
+      <c r="I21" s="230">
         <v>43286</v>
       </c>
-      <c r="J21" s="239"/>
-    </row>
-    <row r="22" spans="1:10" ht="55.2">
-      <c r="A22" s="234" t="s">
+      <c r="J21" s="231"/>
+    </row>
+    <row r="22" spans="1:10" ht="51.6">
+      <c r="A22" s="226" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="263" t="s">
+      <c r="B22" s="255" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="235" t="s">
+      <c r="C22" s="227" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="267" t="s">
+      <c r="D22" s="259" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="268" t="s">
+      <c r="E22" s="260" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="265" t="s">
+      <c r="F22" s="257" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="269" t="s">
+      <c r="G22" s="261" t="s">
         <v>107</v>
       </c>
-      <c r="H22" s="234"/>
-      <c r="I22" s="238"/>
-      <c r="J22" s="239"/>
-    </row>
-    <row r="23" spans="1:10" ht="55.2">
-      <c r="A23" s="234" t="s">
+      <c r="H22" s="226"/>
+      <c r="I22" s="230"/>
+      <c r="J22" s="231"/>
+    </row>
+    <row r="23" spans="1:10" ht="51.6">
+      <c r="A23" s="226" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="263" t="s">
+      <c r="B23" s="255" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="235" t="s">
+      <c r="C23" s="227" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="270" t="s">
+      <c r="D23" s="262" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="268" t="s">
+      <c r="E23" s="260" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="265" t="s">
+      <c r="F23" s="257" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="269" t="s">
+      <c r="G23" s="261" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="234"/>
-      <c r="I23" s="238"/>
-      <c r="J23" s="239"/>
-    </row>
-    <row r="24" spans="1:10" s="275" customFormat="1" ht="39.6">
-      <c r="A24" s="305" t="s">
+      <c r="H23" s="226"/>
+      <c r="I23" s="230"/>
+      <c r="J23" s="231"/>
+    </row>
+    <row r="24" spans="1:10" s="267" customFormat="1" ht="36.9">
+      <c r="A24" s="295" t="s">
         <v>593</v>
       </c>
-      <c r="B24" s="271" t="s">
+      <c r="B24" s="263" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="271" t="s">
+      <c r="C24" s="263" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="297" t="s">
+      <c r="D24" s="287" t="s">
         <v>594</v>
       </c>
-      <c r="E24" s="237"/>
-      <c r="F24" s="306" t="s">
+      <c r="E24" s="229"/>
+      <c r="F24" s="296" t="s">
         <v>1046</v>
       </c>
-      <c r="G24" s="271"/>
-      <c r="H24" s="271" t="s">
+      <c r="G24" s="263"/>
+      <c r="H24" s="263" t="s">
         <v>600</v>
       </c>
-      <c r="I24" s="274">
+      <c r="I24" s="266">
         <v>43240</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="275" customFormat="1" ht="66">
-      <c r="A25" s="271" t="s">
+    <row r="25" spans="1:10" s="267" customFormat="1" ht="61.5">
+      <c r="A25" s="263" t="s">
         <v>636</v>
       </c>
-      <c r="B25" s="271" t="s">
+      <c r="B25" s="263" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="271" t="s">
+      <c r="C25" s="263" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="272" t="s">
+      <c r="D25" s="264" t="s">
         <v>977</v>
       </c>
-      <c r="E25" s="237"/>
-      <c r="F25" s="273" t="s">
+      <c r="E25" s="229"/>
+      <c r="F25" s="265" t="s">
         <v>976</v>
       </c>
-      <c r="G25" s="271" t="s">
+      <c r="G25" s="263" t="s">
         <v>975</v>
       </c>
-      <c r="H25" s="271"/>
-      <c r="I25" s="274">
+      <c r="H25" s="263"/>
+      <c r="I25" s="266">
         <v>43240</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="57.6">
-      <c r="A26" s="237" t="s">
+      <c r="A26" s="229" t="s">
         <v>819</v>
       </c>
-      <c r="B26" s="234" t="s">
+      <c r="B26" s="226" t="s">
         <v>820</v>
       </c>
-      <c r="C26" s="235" t="s">
+      <c r="C26" s="227" t="s">
         <v>821</v>
       </c>
-      <c r="D26" s="276" t="s">
+      <c r="D26" s="268" t="s">
         <v>822</v>
       </c>
-      <c r="E26" s="235" t="s">
+      <c r="E26" s="227" t="s">
         <v>823</v>
       </c>
-      <c r="F26" s="239" t="s">
+      <c r="F26" s="231" t="s">
         <v>824</v>
       </c>
-      <c r="G26" s="234" t="s">
+      <c r="G26" s="226" t="s">
         <v>825</v>
       </c>
-      <c r="H26" s="234"/>
-      <c r="I26" s="238">
+      <c r="H26" s="226"/>
+      <c r="I26" s="230">
         <v>43240</v>
       </c>
-      <c r="J26" s="246" t="s">
+      <c r="J26" s="238" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="79.2">
-      <c r="A27" s="271" t="s">
+    <row r="27" spans="1:10" ht="73.8">
+      <c r="A27" s="263" t="s">
         <v>741</v>
       </c>
-      <c r="B27" s="251" t="s">
+      <c r="B27" s="243" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="234" t="s">
+      <c r="C27" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="277" t="s">
+      <c r="D27" s="269" t="s">
         <v>880</v>
       </c>
-      <c r="E27" s="235" t="s">
+      <c r="E27" s="227" t="s">
         <v>883</v>
       </c>
-      <c r="F27" s="244" t="s">
+      <c r="F27" s="236" t="s">
         <v>884</v>
       </c>
-      <c r="G27" s="251" t="s">
+      <c r="G27" s="243" t="s">
         <v>885</v>
       </c>
-      <c r="H27" s="234" t="s">
+      <c r="H27" s="226" t="s">
         <v>886</v>
       </c>
-      <c r="I27" s="238">
+      <c r="I27" s="230">
         <v>43250</v>
       </c>
-      <c r="J27" s="239"/>
-    </row>
-    <row r="28" spans="1:10" s="275" customFormat="1" ht="79.2">
-      <c r="A28" s="305" t="s">
+      <c r="J27" s="231"/>
+    </row>
+    <row r="28" spans="1:10" s="267" customFormat="1" ht="61.5">
+      <c r="A28" s="295" t="s">
         <v>770</v>
       </c>
-      <c r="B28" s="271" t="s">
+      <c r="B28" s="263" t="s">
         <v>771</v>
       </c>
-      <c r="C28" s="271"/>
-      <c r="D28" s="302" t="s">
+      <c r="C28" s="263"/>
+      <c r="D28" s="292" t="s">
         <v>772</v>
       </c>
-      <c r="E28" s="303" t="s">
+      <c r="E28" s="293" t="s">
         <v>776</v>
       </c>
-      <c r="F28" s="299" t="s">
+      <c r="F28" s="289" t="s">
         <v>777</v>
       </c>
-      <c r="G28" s="271"/>
-      <c r="H28" s="300" t="s">
+      <c r="G28" s="263"/>
+      <c r="H28" s="290" t="s">
         <v>967</v>
       </c>
-      <c r="I28" s="274"/>
-      <c r="J28" s="304" t="s">
+      <c r="I28" s="266"/>
+      <c r="J28" s="294" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="275" customFormat="1" ht="79.2">
-      <c r="A29" s="305" t="s">
+    <row r="29" spans="1:10" s="267" customFormat="1" ht="61.5">
+      <c r="A29" s="295" t="s">
         <v>770</v>
       </c>
-      <c r="B29" s="271" t="s">
+      <c r="B29" s="263" t="s">
         <v>771</v>
       </c>
-      <c r="C29" s="271"/>
-      <c r="D29" s="302" t="s">
+      <c r="C29" s="263"/>
+      <c r="D29" s="292" t="s">
         <v>778</v>
       </c>
-      <c r="E29" s="303" t="s">
+      <c r="E29" s="293" t="s">
         <v>776</v>
       </c>
-      <c r="F29" s="299" t="s">
+      <c r="F29" s="289" t="s">
         <v>777</v>
       </c>
-      <c r="G29" s="271"/>
-      <c r="H29" s="300" t="s">
+      <c r="G29" s="263"/>
+      <c r="H29" s="290" t="s">
         <v>967</v>
       </c>
-      <c r="I29" s="274"/>
-      <c r="J29" s="304" t="s">
+      <c r="I29" s="266"/>
+      <c r="J29" s="294" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="275" customFormat="1" ht="79.2">
-      <c r="A30" s="305" t="s">
+    <row r="30" spans="1:10" s="267" customFormat="1" ht="61.5">
+      <c r="A30" s="295" t="s">
         <v>770</v>
       </c>
-      <c r="B30" s="271" t="s">
+      <c r="B30" s="263" t="s">
         <v>771</v>
       </c>
-      <c r="C30" s="271"/>
-      <c r="D30" s="302" t="s">
+      <c r="C30" s="263"/>
+      <c r="D30" s="292" t="s">
         <v>787</v>
       </c>
-      <c r="E30" s="303" t="s">
+      <c r="E30" s="293" t="s">
         <v>776</v>
       </c>
-      <c r="F30" s="299" t="s">
+      <c r="F30" s="289" t="s">
         <v>777</v>
       </c>
-      <c r="G30" s="271"/>
-      <c r="H30" s="300" t="s">
+      <c r="G30" s="263"/>
+      <c r="H30" s="290" t="s">
         <v>967</v>
       </c>
-      <c r="I30" s="274"/>
-      <c r="J30" s="304" t="s">
+      <c r="I30" s="266"/>
+      <c r="J30" s="294" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="166" customFormat="1" ht="41.4">
+      <c r="A31" s="159" t="s">
+        <v>840</v>
+      </c>
+      <c r="B31" s="164" t="s">
+        <v>841</v>
+      </c>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="185" t="s">
+        <v>846</v>
+      </c>
+      <c r="G31" s="164" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H31" s="164"/>
+      <c r="I31" s="165">
+        <v>43196</v>
       </c>
     </row>
   </sheetData>
@@ -10661,7 +10705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10674,7 +10718,7 @@
       <selection pane="bottomRight" activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -10687,7 +10731,7 @@
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.4">
+    <row r="1" spans="1:10" ht="24.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10712,12 +10756,12 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="220" t="s">
+      <c r="I1" s="301" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="221"/>
-    </row>
-    <row r="2" spans="1:10" ht="26.4">
+      <c r="J1" s="300"/>
+    </row>
+    <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -10733,7 +10777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="52.8">
+    <row r="3" spans="1:10" ht="49.2">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -10759,7 +10803,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="26.4">
+    <row r="4" spans="1:10" ht="24.6">
       <c r="A4" s="17" t="s">
         <v>24</v>
       </c>
@@ -10786,13 +10830,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="86.4">
-      <c r="A5" s="225" t="s">
+      <c r="A5" s="304" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="222" t="s">
+      <c r="B5" s="299" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="222" t="s">
+      <c r="C5" s="299" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -10814,9 +10858,9 @@
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="86.4">
-      <c r="A6" s="221"/>
-      <c r="B6" s="221"/>
-      <c r="C6" s="221"/>
+      <c r="A6" s="300"/>
+      <c r="B6" s="300"/>
+      <c r="C6" s="300"/>
       <c r="D6" s="13" t="s">
         <v>68</v>
       </c>
@@ -10833,8 +10877,8 @@
       </c>
       <c r="J6" s="35"/>
     </row>
-    <row r="7" spans="1:10" ht="39.6">
-      <c r="A7" s="225" t="s">
+    <row r="7" spans="1:10" ht="36.9">
+      <c r="A7" s="304" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -10863,8 +10907,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="39.6">
-      <c r="A8" s="221"/>
+    <row r="8" spans="1:10" ht="36.9">
+      <c r="A8" s="300"/>
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
@@ -10890,8 +10934,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="39.6">
-      <c r="A9" s="224"/>
+    <row r="9" spans="1:10" ht="36.9">
+      <c r="A9" s="303"/>
       <c r="B9" s="41" t="s">
         <v>21</v>
       </c>
@@ -10942,8 +10986,8 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="39.6">
-      <c r="A11" s="226" t="s">
+    <row r="11" spans="1:10" ht="36.9">
+      <c r="A11" s="305" t="s">
         <v>117</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -10971,8 +11015,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="39.6">
-      <c r="A12" s="221"/>
+    <row r="12" spans="1:10" ht="36.9">
+      <c r="A12" s="300"/>
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
@@ -10998,8 +11042,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="39.6">
-      <c r="A13" s="221"/>
+    <row r="13" spans="1:10" ht="24.6">
+      <c r="A13" s="300"/>
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -11025,8 +11069,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="39.6">
-      <c r="A14" s="221"/>
+    <row r="14" spans="1:10" ht="36.9">
+      <c r="A14" s="300"/>
       <c r="B14" s="41" t="s">
         <v>21</v>
       </c>
@@ -11053,7 +11097,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="26.4">
+    <row r="15" spans="1:10" ht="24.6">
       <c r="A15" s="6" t="s">
         <v>156</v>
       </c>
@@ -11079,7 +11123,7 @@
       </c>
       <c r="J15" s="35"/>
     </row>
-    <row r="16" spans="1:10" ht="26.4">
+    <row r="16" spans="1:10" ht="24.6">
       <c r="A16" s="6" t="s">
         <v>164</v>
       </c>
@@ -11105,7 +11149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="105.6">
+    <row r="22" spans="1:10" ht="98.4">
       <c r="A22" s="14" t="s">
         <v>19</v>
       </c>
@@ -11135,7 +11179,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="79.2">
+    <row r="26" spans="1:10" ht="73.8">
       <c r="A26" s="6" t="s">
         <v>174</v>
       </c>
@@ -11165,7 +11209,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="52.8">
+    <row r="27" spans="1:10" ht="36.9">
       <c r="A27" s="59" t="s">
         <v>185</v>
       </c>
@@ -11197,7 +11241,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="92.4">
+    <row r="28" spans="1:10" ht="86.1">
       <c r="A28" s="6" t="s">
         <v>254</v>
       </c>
@@ -11227,7 +11271,7 @@
         <v>76138</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="66">
+    <row r="29" spans="1:10" ht="61.5">
       <c r="A29" s="6" t="s">
         <v>264</v>
       </c>
@@ -11299,7 +11343,7 @@
       <c r="I31" s="12"/>
       <c r="J31" s="35"/>
     </row>
-    <row r="32" spans="1:10" ht="79.2">
+    <row r="32" spans="1:10" ht="73.8">
       <c r="A32" s="6" t="s">
         <v>315</v>
       </c>
@@ -11329,7 +11373,7 @@
       </c>
       <c r="J32" s="35"/>
     </row>
-    <row r="33" spans="1:10" ht="92.4">
+    <row r="33" spans="1:10" ht="86.1">
       <c r="A33" s="74" t="s">
         <v>341</v>
       </c>
@@ -11359,7 +11403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="39.6">
+    <row r="34" spans="1:10" ht="36.9">
       <c r="A34" s="6" t="s">
         <v>350</v>
       </c>
@@ -11387,7 +11431,7 @@
       </c>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" ht="66">
+    <row r="35" spans="1:10" ht="61.5">
       <c r="A35" s="6" t="s">
         <v>357</v>
       </c>
@@ -11419,8 +11463,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="39.6">
-      <c r="A36" s="223" t="s">
+    <row r="36" spans="1:10" ht="36.9">
+      <c r="A36" s="302" t="s">
         <v>370</v>
       </c>
       <c r="B36" s="77" t="s">
@@ -11449,8 +11493,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="39.6">
-      <c r="A37" s="221"/>
+    <row r="37" spans="1:10" ht="36.9">
+      <c r="A37" s="300"/>
       <c r="B37" s="8" t="s">
         <v>21</v>
       </c>
@@ -11477,8 +11521,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="66">
-      <c r="A38" s="221"/>
+    <row r="38" spans="1:10" ht="61.5">
+      <c r="A38" s="300"/>
       <c r="B38" s="8" t="s">
         <v>21</v>
       </c>
@@ -11505,8 +11549,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="39.6">
-      <c r="A39" s="221"/>
+    <row r="39" spans="1:10" ht="36.9">
+      <c r="A39" s="300"/>
       <c r="B39" s="8" t="s">
         <v>21</v>
       </c>
@@ -11533,8 +11577,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="39.6">
-      <c r="A40" s="221"/>
+    <row r="40" spans="1:10" ht="36.9">
+      <c r="A40" s="300"/>
       <c r="B40" s="8" t="s">
         <v>21</v>
       </c>
@@ -11561,8 +11605,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="39.6">
-      <c r="A41" s="221"/>
+    <row r="41" spans="1:10" ht="36.9">
+      <c r="A41" s="300"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
       </c>
@@ -11589,8 +11633,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="39.6">
-      <c r="A42" s="221"/>
+    <row r="42" spans="1:10" ht="36.9">
+      <c r="A42" s="300"/>
       <c r="B42" s="8" t="s">
         <v>21</v>
       </c>
@@ -11617,8 +11661,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="39.6">
-      <c r="A43" s="221"/>
+    <row r="43" spans="1:10" ht="36.9">
+      <c r="A43" s="300"/>
       <c r="B43" s="8" t="s">
         <v>21</v>
       </c>
@@ -11645,8 +11689,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="39.6">
-      <c r="A44" s="221"/>
+    <row r="44" spans="1:10" ht="36.9">
+      <c r="A44" s="300"/>
       <c r="B44" s="8" t="s">
         <v>21</v>
       </c>
@@ -11673,8 +11717,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="39.6">
-      <c r="A45" s="224"/>
+    <row r="45" spans="1:10" ht="36.9">
+      <c r="A45" s="303"/>
       <c r="B45" s="41" t="s">
         <v>21</v>
       </c>
@@ -11701,7 +11745,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="39.6">
+    <row r="46" spans="1:10" ht="36.9">
       <c r="A46" s="92" t="s">
         <v>453</v>
       </c>
@@ -11761,8 +11805,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="66">
-      <c r="A48" s="223" t="s">
+    <row r="48" spans="1:10" ht="61.5">
+      <c r="A48" s="302" t="s">
         <v>490</v>
       </c>
       <c r="B48" s="77" t="s">
@@ -11791,8 +11835,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="39.6">
-      <c r="A49" s="224"/>
+    <row r="49" spans="1:10" ht="36.9">
+      <c r="A49" s="303"/>
       <c r="B49" s="41" t="s">
         <v>21</v>
       </c>
@@ -11847,7 +11891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="26.4">
+    <row r="51" spans="1:10" ht="24.6">
       <c r="A51" s="8" t="s">
         <v>454</v>
       </c>
@@ -11873,7 +11917,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="79.2">
+    <row r="52" spans="1:10" ht="73.8">
       <c r="A52" s="6" t="s">
         <v>543</v>
       </c>
@@ -11905,7 +11949,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="52.8">
+    <row r="53" spans="1:10" ht="49.2">
       <c r="A53" s="8" t="s">
         <v>543</v>
       </c>
@@ -11937,7 +11981,7 @@
         <v>43283</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="52.8">
+    <row r="54" spans="1:10" ht="49.2">
       <c r="A54" s="8" t="s">
         <v>543</v>
       </c>
@@ -11969,7 +12013,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="52.8">
+    <row r="55" spans="1:10" ht="49.2">
       <c r="A55" s="8" t="s">
         <v>543</v>
       </c>
@@ -12001,7 +12045,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="66">
+    <row r="56" spans="1:10" ht="61.5">
       <c r="A56" s="8" t="s">
         <v>543</v>
       </c>
@@ -12033,7 +12077,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="52.8">
+    <row r="57" spans="1:10" ht="49.2">
       <c r="A57" s="8" t="s">
         <v>543</v>
       </c>
@@ -12065,7 +12109,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="52.8">
+    <row r="58" spans="1:10" ht="49.2">
       <c r="A58" s="8" t="s">
         <v>543</v>
       </c>
@@ -12097,7 +12141,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="52.8">
+    <row r="59" spans="1:10" ht="49.2">
       <c r="A59" s="8" t="s">
         <v>543</v>
       </c>
@@ -12129,7 +12173,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="52.8">
+    <row r="60" spans="1:10" ht="49.2">
       <c r="A60" s="6" t="s">
         <v>584</v>
       </c>
@@ -12159,7 +12203,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="26.4">
+    <row r="61" spans="1:10" ht="24.6">
       <c r="A61" s="8" t="s">
         <v>584</v>
       </c>
@@ -12189,7 +12233,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="79.2">
+    <row r="62" spans="1:10" ht="73.8">
       <c r="A62" s="6" t="s">
         <v>598</v>
       </c>
@@ -12219,7 +12263,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="26.4">
+    <row r="63" spans="1:10" ht="24.6">
       <c r="A63" s="119" t="s">
         <v>606</v>
       </c>
@@ -12249,7 +12293,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="52.8">
+    <row r="64" spans="1:10" ht="49.2">
       <c r="A64" s="6" t="s">
         <v>631</v>
       </c>
@@ -12311,7 +12355,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="52.8">
+    <row r="66" spans="1:10" ht="49.2">
       <c r="A66" s="112" t="s">
         <v>646</v>
       </c>
@@ -12338,7 +12382,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="66">
+    <row r="67" spans="1:10" ht="61.5">
       <c r="A67" s="110" t="s">
         <v>646</v>
       </c>
@@ -12473,7 +12517,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="39.6">
+    <row r="72" spans="1:10" ht="43.2">
       <c r="A72" s="110" t="s">
         <v>646</v>
       </c>
@@ -12695,7 +12739,7 @@
         <v>43295</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="79.2">
+    <row r="80" spans="1:10" ht="61.5">
       <c r="A80" s="112" t="s">
         <v>559</v>
       </c>
@@ -12723,7 +12767,7 @@
         <v>43296</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="66">
+    <row r="81" spans="1:10" ht="57.6">
       <c r="A81" s="110" t="s">
         <v>559</v>
       </c>
@@ -12751,7 +12795,7 @@
         <v>43297</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="66">
+    <row r="82" spans="1:10" ht="61.5">
       <c r="A82" s="110" t="s">
         <v>559</v>
       </c>
@@ -12833,7 +12877,7 @@
         <v>43300</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="52.8">
+    <row r="85" spans="1:10" ht="49.2">
       <c r="A85" s="8" t="s">
         <v>748</v>
       </c>
@@ -12863,7 +12907,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="52.8">
+    <row r="86" spans="1:10" ht="49.2">
       <c r="A86" s="6" t="s">
         <v>757</v>
       </c>
@@ -12893,7 +12937,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="118.8">
+    <row r="87" spans="1:10" ht="110.7">
       <c r="A87" s="6" t="s">
         <v>762</v>
       </c>
@@ -12921,8 +12965,8 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="39.6">
-      <c r="A88" s="225" t="s">
+    <row r="88" spans="1:10" ht="36.9">
+      <c r="A88" s="304" t="s">
         <v>774</v>
       </c>
       <c r="B88" s="8" t="s">
@@ -12951,8 +12995,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="39.6">
-      <c r="A89" s="221"/>
+    <row r="89" spans="1:10" ht="36.9">
+      <c r="A89" s="300"/>
       <c r="B89" s="8" t="s">
         <v>45</v>
       </c>
@@ -12979,8 +13023,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="39.6">
-      <c r="A90" s="221"/>
+    <row r="90" spans="1:10" ht="36.9">
+      <c r="A90" s="300"/>
       <c r="B90" s="8" t="s">
         <v>45</v>
       </c>
@@ -13007,8 +13051,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="39.6">
-      <c r="A91" s="221"/>
+    <row r="91" spans="1:10" ht="36.9">
+      <c r="A91" s="300"/>
       <c r="B91" s="8" t="s">
         <v>45</v>
       </c>
@@ -13035,8 +13079,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="39.6">
-      <c r="A92" s="221"/>
+    <row r="92" spans="1:10" ht="24.6">
+      <c r="A92" s="300"/>
       <c r="B92" s="8" t="s">
         <v>45</v>
       </c>
@@ -13063,8 +13107,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="39.6">
-      <c r="A93" s="221"/>
+    <row r="93" spans="1:10" ht="24.6">
+      <c r="A93" s="300"/>
       <c r="B93" s="8" t="s">
         <v>45</v>
       </c>
@@ -13091,8 +13135,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="39.6">
-      <c r="A94" s="221"/>
+    <row r="94" spans="1:10" ht="36.9">
+      <c r="A94" s="300"/>
       <c r="B94" s="8" t="s">
         <v>45</v>
       </c>
@@ -13119,8 +13163,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="39.6">
-      <c r="A95" s="221"/>
+    <row r="95" spans="1:10" ht="36.9">
+      <c r="A95" s="300"/>
       <c r="B95" s="8" t="s">
         <v>45</v>
       </c>
@@ -13147,7 +13191,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="26.4">
+    <row r="96" spans="1:10" ht="24.6">
       <c r="A96" s="6" t="s">
         <v>807</v>
       </c>
@@ -13179,7 +13223,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="52.8">
+    <row r="97" spans="1:10" ht="49.2">
       <c r="A97" s="6" t="s">
         <v>828</v>
       </c>
@@ -13209,7 +13253,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="39.6">
+    <row r="98" spans="1:10" ht="36.9">
       <c r="A98" s="6" t="s">
         <v>836</v>
       </c>
@@ -13372,7 +13416,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="66">
+    <row r="104" spans="1:10" ht="61.5">
       <c r="A104" s="6" t="s">
         <v>887</v>
       </c>
@@ -13402,7 +13446,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="66">
+    <row r="105" spans="1:10" ht="61.5">
       <c r="A105" s="6" t="s">
         <v>887</v>
       </c>
@@ -13739,7 +13783,7 @@
         <v>43293</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="118.8">
+    <row r="117" spans="1:10" ht="98.4">
       <c r="A117" s="6" t="s">
         <v>921</v>
       </c>
@@ -13771,7 +13815,7 @@
         <v>43294</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="26.4">
+    <row r="118" spans="1:10" ht="24.6">
       <c r="A118" s="6" t="s">
         <v>921</v>
       </c>
@@ -13960,7 +14004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -13970,7 +14014,7 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
@@ -13984,7 +14028,7 @@
     <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39.6">
+    <row r="1" spans="1:10" ht="36.9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -14009,12 +14053,12 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="227" t="s">
+      <c r="I1" s="306" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="221"/>
-    </row>
-    <row r="2" spans="1:10" ht="26.4">
+      <c r="J1" s="300"/>
+    </row>
+    <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -14030,7 +14074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="211.2">
+    <row r="3" spans="1:10" ht="196.8">
       <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
@@ -14060,7 +14104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="211.2">
+    <row r="4" spans="1:10" ht="196.8">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
@@ -14090,7 +14134,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="211.2">
+    <row r="5" spans="1:10" ht="196.8">
       <c r="A5" s="14" t="s">
         <v>19</v>
       </c>

--- a/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
+++ b/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barbj\Documents\Infoway-Health Canada CCDD\formulary\Working QA Team Folders\Pre- Release QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{545CBD86-9AC5-4D7E-9FCA-F483CF6EEFFD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{57AA0FC3-B916-439D-A35A-CBF8EDA48FEC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="17268" windowHeight="5256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6015,6 +6015,12 @@
     <xf numFmtId="0" fontId="61" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="36" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6038,12 +6044,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="36" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6373,7 +6373,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I128" sqref="I128"/>
+      <selection pane="bottomLeft" activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
@@ -9515,13 +9515,13 @@
       <c r="A128" s="170" t="s">
         <v>840</v>
       </c>
-      <c r="D128" s="307">
+      <c r="D128" s="297">
         <v>2420287</v>
       </c>
       <c r="F128" s="166" t="s">
         <v>1048</v>
       </c>
-      <c r="I128" s="308">
+      <c r="I128" s="298">
         <v>372000</v>
       </c>
     </row>
@@ -9858,10 +9858,10 @@
       <c r="H1" s="270" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="297" t="s">
+      <c r="I1" s="299" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="298"/>
+      <c r="J1" s="300"/>
     </row>
     <row r="2" spans="1:10" s="276" customFormat="1" ht="24.6">
       <c r="A2" s="273"/>
@@ -10756,10 +10756,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="301" t="s">
+      <c r="I1" s="303" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="300"/>
+      <c r="J1" s="302"/>
     </row>
     <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="1"/>
@@ -10830,13 +10830,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="86.4">
-      <c r="A5" s="304" t="s">
+      <c r="A5" s="306" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="299" t="s">
+      <c r="B5" s="301" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="299" t="s">
+      <c r="C5" s="301" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -10858,9 +10858,9 @@
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="86.4">
-      <c r="A6" s="300"/>
-      <c r="B6" s="300"/>
-      <c r="C6" s="300"/>
+      <c r="A6" s="302"/>
+      <c r="B6" s="302"/>
+      <c r="C6" s="302"/>
       <c r="D6" s="13" t="s">
         <v>68</v>
       </c>
@@ -10878,7 +10878,7 @@
       <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10" ht="36.9">
-      <c r="A7" s="304" t="s">
+      <c r="A7" s="306" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -10908,7 +10908,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="36.9">
-      <c r="A8" s="300"/>
+      <c r="A8" s="302"/>
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
@@ -10935,7 +10935,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="36.9">
-      <c r="A9" s="303"/>
+      <c r="A9" s="305"/>
       <c r="B9" s="41" t="s">
         <v>21</v>
       </c>
@@ -10987,7 +10987,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="36.9">
-      <c r="A11" s="305" t="s">
+      <c r="A11" s="307" t="s">
         <v>117</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -11016,7 +11016,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="36.9">
-      <c r="A12" s="300"/>
+      <c r="A12" s="302"/>
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
@@ -11043,7 +11043,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.6">
-      <c r="A13" s="300"/>
+      <c r="A13" s="302"/>
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -11070,7 +11070,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="36.9">
-      <c r="A14" s="300"/>
+      <c r="A14" s="302"/>
       <c r="B14" s="41" t="s">
         <v>21</v>
       </c>
@@ -11464,7 +11464,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="36.9">
-      <c r="A36" s="302" t="s">
+      <c r="A36" s="304" t="s">
         <v>370</v>
       </c>
       <c r="B36" s="77" t="s">
@@ -11494,7 +11494,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="36.9">
-      <c r="A37" s="300"/>
+      <c r="A37" s="302"/>
       <c r="B37" s="8" t="s">
         <v>21</v>
       </c>
@@ -11522,7 +11522,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="61.5">
-      <c r="A38" s="300"/>
+      <c r="A38" s="302"/>
       <c r="B38" s="8" t="s">
         <v>21</v>
       </c>
@@ -11550,7 +11550,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="36.9">
-      <c r="A39" s="300"/>
+      <c r="A39" s="302"/>
       <c r="B39" s="8" t="s">
         <v>21</v>
       </c>
@@ -11578,7 +11578,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="36.9">
-      <c r="A40" s="300"/>
+      <c r="A40" s="302"/>
       <c r="B40" s="8" t="s">
         <v>21</v>
       </c>
@@ -11606,7 +11606,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="36.9">
-      <c r="A41" s="300"/>
+      <c r="A41" s="302"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
       </c>
@@ -11634,7 +11634,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="36.9">
-      <c r="A42" s="300"/>
+      <c r="A42" s="302"/>
       <c r="B42" s="8" t="s">
         <v>21</v>
       </c>
@@ -11662,7 +11662,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="36.9">
-      <c r="A43" s="300"/>
+      <c r="A43" s="302"/>
       <c r="B43" s="8" t="s">
         <v>21</v>
       </c>
@@ -11690,7 +11690,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="36.9">
-      <c r="A44" s="300"/>
+      <c r="A44" s="302"/>
       <c r="B44" s="8" t="s">
         <v>21</v>
       </c>
@@ -11718,7 +11718,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="36.9">
-      <c r="A45" s="303"/>
+      <c r="A45" s="305"/>
       <c r="B45" s="41" t="s">
         <v>21</v>
       </c>
@@ -11806,7 +11806,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="61.5">
-      <c r="A48" s="302" t="s">
+      <c r="A48" s="304" t="s">
         <v>490</v>
       </c>
       <c r="B48" s="77" t="s">
@@ -11836,7 +11836,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="36.9">
-      <c r="A49" s="303"/>
+      <c r="A49" s="305"/>
       <c r="B49" s="41" t="s">
         <v>21</v>
       </c>
@@ -12966,7 +12966,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="36.9">
-      <c r="A88" s="304" t="s">
+      <c r="A88" s="306" t="s">
         <v>774</v>
       </c>
       <c r="B88" s="8" t="s">
@@ -12996,7 +12996,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="36.9">
-      <c r="A89" s="300"/>
+      <c r="A89" s="302"/>
       <c r="B89" s="8" t="s">
         <v>45</v>
       </c>
@@ -13024,7 +13024,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="36.9">
-      <c r="A90" s="300"/>
+      <c r="A90" s="302"/>
       <c r="B90" s="8" t="s">
         <v>45</v>
       </c>
@@ -13052,7 +13052,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="36.9">
-      <c r="A91" s="300"/>
+      <c r="A91" s="302"/>
       <c r="B91" s="8" t="s">
         <v>45</v>
       </c>
@@ -13080,7 +13080,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="24.6">
-      <c r="A92" s="300"/>
+      <c r="A92" s="302"/>
       <c r="B92" s="8" t="s">
         <v>45</v>
       </c>
@@ -13108,7 +13108,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="24.6">
-      <c r="A93" s="300"/>
+      <c r="A93" s="302"/>
       <c r="B93" s="8" t="s">
         <v>45</v>
       </c>
@@ -13136,7 +13136,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="36.9">
-      <c r="A94" s="300"/>
+      <c r="A94" s="302"/>
       <c r="B94" s="8" t="s">
         <v>45</v>
       </c>
@@ -13164,7 +13164,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="36.9">
-      <c r="A95" s="300"/>
+      <c r="A95" s="302"/>
       <c r="B95" s="8" t="s">
         <v>45</v>
       </c>
@@ -14053,10 +14053,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="306" t="s">
+      <c r="I1" s="308" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="300"/>
+      <c r="J1" s="302"/>
     </row>
     <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="3"/>

--- a/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
+++ b/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barbj\Documents\Infoway-Health Canada CCDD\formulary\Working QA Team Folders\Pre- Release QA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{57AA0FC3-B916-439D-A35A-CBF8EDA48FEC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="17268" windowHeight="5256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="17268" windowHeight="5256"/>
   </bookViews>
   <sheets>
     <sheet name="Action Items, Open" sheetId="1" r:id="rId1"/>
@@ -18,17 +12,17 @@
     <sheet name="Completed AIs Released" sheetId="3" r:id="rId3"/>
     <sheet name="AIs no longer relevant" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="F123" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F124" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +34,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F134" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F136" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,12 +51,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="G26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="F27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,12 +88,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="E88" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="G96" authorId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H117" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="H117" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="1054">
   <si>
     <t>TM</t>
   </si>
@@ -3373,9 +3367,6 @@
 UoP: 91710, vial, 16.7, mL, Y, N</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>ranibizumab</t>
   </si>
   <si>
@@ -4488,11 +4479,29 @@
   <si>
     <t>Louise: DPD ingredient should be tobramycin sulfate according to monograph.</t>
   </si>
+  <si>
+    <t>Louise: change concentration to 300 mg per 16.7 mL</t>
+  </si>
+  <si>
+    <t>Did not resolve issue. New action item created. Jh</t>
+  </si>
+  <si>
+    <t>Done; This did not produce the desired ntp. The calculation provided 300.6 mg per 16.7 mL. Will create new AI to have changed in DPD. Jh July 30/18</t>
+  </si>
+  <si>
+    <t>Relationship File Aug Pre-release QA 20170718</t>
+  </si>
+  <si>
+    <t>02300435</t>
+  </si>
+  <si>
+    <t>Louise: change to solution (currently liquid)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
@@ -5145,7 +5154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6044,6 +6053,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6358,22 +6373,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J144"/>
+  <dimension ref="A1:J146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F128" sqref="F128"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
@@ -6391,7 +6406,7 @@
     <col min="11" max="16384" width="14.44140625" style="166"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="158" customFormat="1" ht="28.2">
+    <row r="1" spans="1:10" s="158" customFormat="1" ht="27.6">
       <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
@@ -6444,9 +6459,9 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="98.7">
+    <row r="3" spans="1:10" ht="96.6">
       <c r="A3" s="159" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B3" s="160"/>
       <c r="C3" s="160"/>
@@ -6454,10 +6469,10 @@
         <v>2246848</v>
       </c>
       <c r="E3" s="219" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F3" s="163" t="s">
         <v>1007</v>
-      </c>
-      <c r="F3" s="163" t="s">
-        <v>1008</v>
       </c>
       <c r="G3" s="160"/>
       <c r="H3" s="164"/>
@@ -6565,64 +6580,64 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="345">
+    <row r="8" spans="1:10" ht="317.39999999999998">
       <c r="A8" s="170" t="s">
         <v>437</v>
       </c>
       <c r="B8" s="164" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C8" s="160"/>
       <c r="D8" s="171">
         <v>2368196</v>
       </c>
       <c r="E8" s="172" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F8" s="163" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G8" s="160"/>
       <c r="H8" s="164"/>
       <c r="I8" s="165"/>
     </row>
-    <row r="9" spans="1:10" ht="358.8">
+    <row r="9" spans="1:10" ht="331.2">
       <c r="A9" s="173" t="s">
+        <v>938</v>
+      </c>
+      <c r="B9" s="164" t="s">
         <v>939</v>
-      </c>
-      <c r="B9" s="164" t="s">
-        <v>940</v>
       </c>
       <c r="C9" s="160"/>
       <c r="D9" s="174">
         <v>2388537</v>
       </c>
       <c r="E9" s="172" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F9" s="163" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G9" s="160"/>
       <c r="H9" s="164"/>
       <c r="I9" s="165"/>
     </row>
-    <row r="10" spans="1:10" ht="409.5">
+    <row r="10" spans="1:10" ht="409.6">
       <c r="A10" s="170" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B10" s="164" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C10" s="160"/>
       <c r="D10" s="174">
         <v>2383608</v>
       </c>
       <c r="E10" s="175" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F10" s="176" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G10" s="176"/>
       <c r="H10" s="164"/>
@@ -6630,287 +6645,283 @@
     </row>
     <row r="11" spans="1:10" ht="69">
       <c r="A11" s="173" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="164" t="s">
         <v>1009</v>
-      </c>
-      <c r="B11" s="164" t="s">
-        <v>1010</v>
       </c>
       <c r="C11" s="160"/>
       <c r="D11" s="193" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E11" s="221" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F11" s="166" t="s">
         <v>1011</v>
       </c>
-      <c r="F11" s="166" t="s">
-        <v>1012</v>
-      </c>
       <c r="G11" s="176" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H11" s="164"/>
       <c r="I11" s="165">
         <v>43305</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="41.4">
-      <c r="A12" s="173" t="s">
-        <v>1014</v>
+    <row r="12" spans="1:10" ht="27.6">
+      <c r="A12" s="170" t="s">
+        <v>1008</v>
       </c>
       <c r="B12" s="164" t="s">
-        <v>1010</v>
+        <v>1051</v>
       </c>
       <c r="C12" s="160"/>
       <c r="D12" s="222" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E12" s="221" t="s">
-        <v>1015</v>
-      </c>
+        <v>1052</v>
+      </c>
+      <c r="E12" s="166"/>
       <c r="F12" s="166" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G12" s="176" t="s">
-        <v>1019</v>
-      </c>
+        <v>1053</v>
+      </c>
+      <c r="G12" s="176"/>
       <c r="H12" s="164"/>
       <c r="I12" s="165">
+        <v>43311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="41.4">
+      <c r="A13" s="173" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B13" s="164" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C13" s="160"/>
+      <c r="D13" s="222" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E13" s="221" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F13" s="166" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G13" s="176" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H13" s="164"/>
+      <c r="I13" s="165">
         <v>43305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="41.4">
-      <c r="A13" s="159" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="160" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="160" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="160" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="168" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="163" t="s">
-        <v>949</v>
-      </c>
-      <c r="G13" s="180"/>
-      <c r="H13" s="181" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I13" s="165">
-        <v>43196</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="41.4">
       <c r="A14" s="159" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="160" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="160" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="160" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="168" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="163" t="s">
+        <v>948</v>
+      </c>
+      <c r="G14" s="180"/>
+      <c r="H14" s="181" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I14" s="165">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="41.4">
+      <c r="A15" s="159" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="160"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="163" t="s">
+      <c r="B15" s="160"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="163" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="180"/>
-      <c r="H14" s="181"/>
-      <c r="I14" s="165">
+      <c r="G15" s="180"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="165">
         <v>39614</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="331.2">
-      <c r="A15" s="159" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="160" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="160"/>
-      <c r="D15" s="161" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="168" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="163" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="164" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" s="164"/>
-      <c r="I15" s="165">
-        <v>43271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="96.6">
-      <c r="A16" s="182" t="s">
+    <row r="16" spans="1:10" ht="331.2">
+      <c r="A16" s="159" t="s">
         <v>98</v>
       </c>
       <c r="B16" s="160" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="160"/>
-      <c r="D16" s="183" t="s">
+      <c r="D16" s="161" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="168" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="163" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="164" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="164"/>
+      <c r="I16" s="165">
+        <v>43271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="96.6">
+      <c r="A17" s="182" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="160" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="160"/>
+      <c r="D17" s="183" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="168" t="s">
+      <c r="E17" s="168" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="163" t="s">
+      <c r="F17" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="G16" s="164" t="s">
+      <c r="G17" s="164" t="s">
         <v>120</v>
       </c>
-      <c r="H16" s="164"/>
-      <c r="I16" s="165"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.1">
-      <c r="A17" s="159" t="s">
+      <c r="H17" s="164"/>
+      <c r="I17" s="165"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="164" t="s">
+      <c r="B18" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="160" t="s">
+      <c r="C18" s="160" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="160"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="163" t="s">
+      <c r="D18" s="160"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="163" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="165">
+      <c r="G18" s="164"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="165">
         <v>43252</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="41.4">
-      <c r="A18" s="182" t="s">
+    <row r="19" spans="1:9" ht="41.4">
+      <c r="A19" s="182" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="164" t="s">
+      <c r="B19" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="160" t="s">
+      <c r="C19" s="160" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="166" t="s">
+      <c r="D19" s="166" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="184" t="s">
+      <c r="E19" s="184" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="163" t="s">
+      <c r="F19" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="180"/>
-      <c r="H18" s="185" t="s">
+      <c r="G19" s="180"/>
+      <c r="H19" s="185" t="s">
         <v>134</v>
       </c>
-      <c r="I18" s="165">
+      <c r="I19" s="165">
         <v>43240</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="42.3">
-      <c r="A19" s="159" t="s">
+    <row r="20" spans="1:9" ht="41.4">
+      <c r="A20" s="159" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="164" t="s">
+      <c r="B20" s="164" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="177" t="s">
+      <c r="C20" s="177" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="164" t="s">
+      <c r="D20" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="162"/>
-      <c r="F19" s="164" t="s">
+      <c r="E20" s="162"/>
+      <c r="F20" s="164" t="s">
         <v>139</v>
       </c>
-      <c r="G19" s="164" t="s">
+      <c r="G20" s="164" t="s">
         <v>140</v>
       </c>
-      <c r="H19" s="164"/>
-      <c r="I19" s="165">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="27.6">
-      <c r="A20" s="159" t="s">
-        <v>141</v>
-      </c>
-      <c r="B20" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="161"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="185" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="164"/>
       <c r="H20" s="164"/>
       <c r="I20" s="165">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="27.6">
+      <c r="A21" s="159" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="164" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="161"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="185" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="165">
         <v>43250</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="165.6">
-      <c r="A21" s="159" t="s">
+    <row r="22" spans="1:9" ht="165.6">
+      <c r="A22" s="159" t="s">
         <v>171</v>
       </c>
-      <c r="B21" s="164" t="s">
+      <c r="B22" s="164" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="177" t="s">
+      <c r="C22" s="177" t="s">
         <v>173</v>
       </c>
-      <c r="D21" s="186"/>
-      <c r="E21" s="168" t="s">
-        <v>941</v>
-      </c>
-      <c r="F21" s="185" t="s">
+      <c r="D22" s="186"/>
+      <c r="E22" s="168" t="s">
+        <v>940</v>
+      </c>
+      <c r="F22" s="185" t="s">
         <v>175</v>
       </c>
-      <c r="G21" s="164" t="s">
+      <c r="G22" s="164" t="s">
         <v>178</v>
       </c>
-      <c r="H21" s="164"/>
-      <c r="I21" s="165"/>
-    </row>
-    <row r="22" spans="1:9" ht="55.2">
-      <c r="A22" s="159" t="s">
-        <v>156</v>
-      </c>
-      <c r="B22" s="164" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="161" t="s">
-        <v>180</v>
-      </c>
-      <c r="E22" s="162"/>
-      <c r="F22" s="187" t="s">
-        <v>182</v>
-      </c>
-      <c r="G22" s="188" t="s">
-        <v>186</v>
-      </c>
       <c r="H22" s="164"/>
-      <c r="I22" s="165">
-        <v>43263</v>
-      </c>
+      <c r="I22" s="165"/>
     </row>
     <row r="23" spans="1:9" ht="55.2">
       <c r="A23" s="159" t="s">
@@ -6923,147 +6934,149 @@
         <v>22</v>
       </c>
       <c r="D23" s="161" t="s">
-        <v>195</v>
-      </c>
-      <c r="E23" s="172" t="s">
-        <v>199</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E23" s="162"/>
       <c r="F23" s="187" t="s">
-        <v>200</v>
-      </c>
-      <c r="G23" s="164"/>
+        <v>182</v>
+      </c>
+      <c r="G23" s="188" t="s">
+        <v>186</v>
+      </c>
       <c r="H23" s="164"/>
       <c r="I23" s="165">
         <v>43263</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="69">
+    <row r="24" spans="1:9" ht="55.2">
       <c r="A24" s="159" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="164" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="161" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="172" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" s="187" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="165">
+        <v>43263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="69">
+      <c r="A25" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="160" t="s">
+      <c r="B25" s="160" t="s">
         <v>201</v>
       </c>
-      <c r="C24" s="160" t="s">
-        <v>202</v>
-      </c>
-      <c r="D24" s="166" t="s">
-        <v>203</v>
-      </c>
-      <c r="E24" s="168"/>
-      <c r="F24" s="163" t="s">
-        <v>204</v>
-      </c>
-      <c r="G24" s="180"/>
-      <c r="H24" s="185"/>
-      <c r="I24" s="165">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="41.4">
-      <c r="A25" s="159" t="s">
-        <v>205</v>
-      </c>
-      <c r="B25" s="160" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" s="189" t="s">
+      <c r="C25" s="160" t="s">
         <v>202</v>
       </c>
       <c r="D25" s="166" t="s">
         <v>203</v>
       </c>
       <c r="E25" s="168"/>
-      <c r="F25" s="166" t="s">
-        <v>208</v>
-      </c>
-      <c r="G25" s="180" t="s">
-        <v>209</v>
-      </c>
-      <c r="H25" s="164"/>
+      <c r="F25" s="163" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" s="180"/>
+      <c r="H25" s="185"/>
       <c r="I25" s="165">
         <v>43196</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="28.2">
+    <row r="26" spans="1:9" ht="41.4">
       <c r="A26" s="159" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B26" s="160" t="s">
         <v>206</v>
       </c>
-      <c r="C26" s="160" t="s">
-        <v>212</v>
-      </c>
-      <c r="D26" s="160" t="s">
-        <v>213</v>
+      <c r="C26" s="189" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="166" t="s">
+        <v>203</v>
       </c>
       <c r="E26" s="168"/>
-      <c r="F26" s="185" t="s">
-        <v>214</v>
-      </c>
-      <c r="G26" s="180"/>
-      <c r="H26" s="181" t="s">
-        <v>215</v>
-      </c>
+      <c r="F26" s="166" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" s="180" t="s">
+        <v>209</v>
+      </c>
+      <c r="H26" s="164"/>
       <c r="I26" s="165">
         <v>43196</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="69">
+    <row r="27" spans="1:9" ht="27.6">
       <c r="A27" s="159" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="160" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="160" t="s">
+        <v>212</v>
+      </c>
+      <c r="D27" s="160" t="s">
+        <v>213</v>
+      </c>
+      <c r="E27" s="168"/>
+      <c r="F27" s="185" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" s="180"/>
+      <c r="H27" s="181" t="s">
+        <v>215</v>
+      </c>
+      <c r="I27" s="165">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="69">
+      <c r="A28" s="159" t="s">
         <v>216</v>
       </c>
-      <c r="B27" s="160" t="s">
+      <c r="B28" s="160" t="s">
         <v>217</v>
       </c>
-      <c r="C27" s="186"/>
-      <c r="D27" s="161" t="s">
+      <c r="C28" s="186"/>
+      <c r="D28" s="161" t="s">
         <v>219</v>
       </c>
-      <c r="E27" s="178"/>
-      <c r="F27" s="187" t="s">
+      <c r="E28" s="178"/>
+      <c r="F28" s="187" t="s">
         <v>220</v>
       </c>
-      <c r="G27" s="180" t="s">
+      <c r="G28" s="180" t="s">
         <v>221</v>
       </c>
-      <c r="H27" s="181"/>
-      <c r="I27" s="165"/>
-    </row>
-    <row r="28" spans="1:9" ht="55.2">
-      <c r="A28" s="159" t="s">
+      <c r="H28" s="181"/>
+      <c r="I28" s="165"/>
+    </row>
+    <row r="29" spans="1:9" ht="41.4">
+      <c r="A29" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="B28" s="164" t="s">
+      <c r="B29" s="164" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="164"/>
-      <c r="D28" s="160" t="s">
-        <v>223</v>
-      </c>
-      <c r="E28" s="168" t="s">
-        <v>224</v>
-      </c>
-      <c r="F28" s="163" t="s">
-        <v>225</v>
-      </c>
-      <c r="G28" s="180"/>
-      <c r="H28" s="164" t="s">
-        <v>226</v>
-      </c>
-      <c r="I28" s="165">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="55.2">
-      <c r="A29" s="182" t="s">
-        <v>222</v>
-      </c>
-      <c r="B29" s="164"/>
       <c r="C29" s="164"/>
       <c r="D29" s="160" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E29" s="168" t="s">
         <v>224</v>
@@ -7072,19 +7085,21 @@
         <v>225</v>
       </c>
       <c r="G29" s="180"/>
-      <c r="H29" s="164"/>
+      <c r="H29" s="164" t="s">
+        <v>226</v>
+      </c>
       <c r="I29" s="165">
         <v>43196</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="55.2">
+    <row r="30" spans="1:9" ht="41.4">
       <c r="A30" s="182" t="s">
         <v>222</v>
       </c>
       <c r="B30" s="164"/>
       <c r="C30" s="164"/>
       <c r="D30" s="160" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E30" s="168" t="s">
         <v>224</v>
@@ -7098,17 +7113,17 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="55.2">
+    <row r="31" spans="1:9" ht="41.4">
       <c r="A31" s="182" t="s">
         <v>222</v>
       </c>
       <c r="B31" s="164"/>
       <c r="C31" s="164"/>
       <c r="D31" s="160" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E31" s="168" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F31" s="163" t="s">
         <v>225</v>
@@ -7120,131 +7135,131 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="41.4">
-      <c r="A32" s="159" t="s">
+      <c r="A32" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" s="164"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="160" t="s">
+        <v>229</v>
+      </c>
+      <c r="E32" s="168" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="163" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" s="180"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="165">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="41.4">
+      <c r="A33" s="159" t="s">
         <v>194</v>
       </c>
-      <c r="B32" s="190" t="str">
+      <c r="B33" s="190" t="str">
         <f>HYPERLINK("https://docs.google.com/spreadsheets/d/1CZZj8fSMSaEaqlK8KCBOVHZaJixwFi-xHDmvUY_rwCk/edit#gid=1997930010&amp;range=A3:A19","Master: Antibacterials A")</f>
         <v>Master: Antibacterials A</v>
       </c>
-      <c r="C32" s="164"/>
-      <c r="D32" s="161" t="s">
+      <c r="C33" s="164"/>
+      <c r="D33" s="161" t="s">
         <v>232</v>
       </c>
-      <c r="E32" s="162" t="s">
+      <c r="E33" s="162" t="s">
         <v>233</v>
       </c>
-      <c r="F32" s="187" t="s">
+      <c r="F33" s="187" t="s">
         <v>234</v>
       </c>
-      <c r="G32" s="164"/>
-      <c r="H32" s="164"/>
-      <c r="I32" s="165">
+      <c r="G33" s="164"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="165">
         <v>43250</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="110.4">
-      <c r="A33" s="159" t="s">
+    <row r="34" spans="1:10" ht="110.4">
+      <c r="A34" s="159" t="s">
         <v>235</v>
       </c>
-      <c r="B33" s="160" t="s">
+      <c r="B34" s="160" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="160" t="s">
+      <c r="C34" s="160" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="166" t="s">
+      <c r="D34" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="E33" s="168"/>
-      <c r="F33" s="163" t="s">
-        <v>950</v>
-      </c>
-      <c r="G33" s="180"/>
-      <c r="I33" s="165">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="110.4">
-      <c r="A34" s="182" t="s">
-        <v>235</v>
-      </c>
-      <c r="B34" s="160"/>
-      <c r="C34" s="160"/>
-      <c r="D34" s="160" t="s">
-        <v>238</v>
-      </c>
-      <c r="E34" s="168" t="s">
-        <v>239</v>
-      </c>
-      <c r="F34" s="179" t="s">
-        <v>240</v>
-      </c>
-      <c r="G34" s="160" t="s">
-        <v>951</v>
-      </c>
-      <c r="H34" s="164"/>
+      <c r="E34" s="168"/>
+      <c r="F34" s="163" t="s">
+        <v>949</v>
+      </c>
+      <c r="G34" s="180"/>
       <c r="I34" s="165">
         <v>43196</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="69">
+    <row r="35" spans="1:10" ht="110.4">
       <c r="A35" s="182" t="s">
         <v>235</v>
       </c>
       <c r="B35" s="160"/>
       <c r="C35" s="160"/>
       <c r="D35" s="160" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E35" s="168" t="s">
-        <v>242</v>
-      </c>
-      <c r="F35" s="163" t="s">
-        <v>243</v>
+        <v>239</v>
+      </c>
+      <c r="F35" s="179" t="s">
+        <v>240</v>
       </c>
       <c r="G35" s="160" t="s">
-        <v>244</v>
+        <v>950</v>
       </c>
       <c r="H35" s="164"/>
       <c r="I35" s="165">
         <v>43196</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="55.2">
-      <c r="A36" s="159" t="s">
-        <v>245</v>
-      </c>
-      <c r="B36" s="160" t="s">
-        <v>246</v>
-      </c>
+    <row r="36" spans="1:10" ht="69">
+      <c r="A36" s="182" t="s">
+        <v>235</v>
+      </c>
+      <c r="B36" s="160"/>
       <c r="C36" s="160"/>
       <c r="D36" s="160" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E36" s="168" t="s">
-        <v>942</v>
+        <v>242</v>
       </c>
       <c r="F36" s="163" t="s">
-        <v>251</v>
-      </c>
-      <c r="G36" s="160"/>
+        <v>243</v>
+      </c>
+      <c r="G36" s="160" t="s">
+        <v>244</v>
+      </c>
       <c r="H36" s="164"/>
-      <c r="I36" s="165"/>
+      <c r="I36" s="165">
+        <v>43196</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="55.2">
-      <c r="A37" s="182" t="s">
+      <c r="A37" s="159" t="s">
         <v>245</v>
       </c>
       <c r="B37" s="160" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C37" s="160"/>
       <c r="D37" s="160" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E37" s="168" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F37" s="163" t="s">
         <v>251</v>
@@ -7253,107 +7268,99 @@
       <c r="H37" s="164"/>
       <c r="I37" s="165"/>
     </row>
-    <row r="38" spans="1:10" ht="317.39999999999998">
-      <c r="A38" s="159" t="s">
+    <row r="38" spans="1:10" ht="55.2">
+      <c r="A38" s="182" t="s">
+        <v>245</v>
+      </c>
+      <c r="B38" s="160" t="s">
+        <v>252</v>
+      </c>
+      <c r="C38" s="160"/>
+      <c r="D38" s="160" t="s">
+        <v>253</v>
+      </c>
+      <c r="E38" s="168" t="s">
+        <v>942</v>
+      </c>
+      <c r="F38" s="163" t="s">
+        <v>251</v>
+      </c>
+      <c r="G38" s="160"/>
+      <c r="H38" s="164"/>
+      <c r="I38" s="165"/>
+    </row>
+    <row r="39" spans="1:10" ht="317.39999999999998">
+      <c r="A39" s="159" t="s">
+        <v>963</v>
+      </c>
+      <c r="B39" s="160" t="s">
+        <v>257</v>
+      </c>
+      <c r="C39" s="160"/>
+      <c r="D39" s="161" t="s">
+        <v>258</v>
+      </c>
+      <c r="E39" s="172" t="s">
+        <v>971</v>
+      </c>
+      <c r="F39" s="163" t="s">
         <v>964</v>
-      </c>
-      <c r="B38" s="160" t="s">
-        <v>257</v>
-      </c>
-      <c r="C38" s="160"/>
-      <c r="D38" s="161" t="s">
-        <v>258</v>
-      </c>
-      <c r="E38" s="172" t="s">
-        <v>972</v>
-      </c>
-      <c r="F38" s="163" t="s">
-        <v>965</v>
-      </c>
-      <c r="G38" s="191"/>
-      <c r="H38" s="192"/>
-      <c r="I38" s="191">
-        <v>9005524</v>
-      </c>
-      <c r="J38" s="192" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="303.60000000000002">
-      <c r="A39" s="182" t="s">
-        <v>964</v>
-      </c>
-      <c r="B39" s="166" t="s">
-        <v>940</v>
-      </c>
-      <c r="C39" s="193">
-        <v>2399733</v>
-      </c>
-      <c r="E39" s="172" t="s">
-        <v>972</v>
-      </c>
-      <c r="F39" s="194" t="s">
-        <v>966</v>
       </c>
       <c r="G39" s="191"/>
       <c r="H39" s="192"/>
-      <c r="I39" s="191"/>
-      <c r="J39" s="192"/>
-    </row>
-    <row r="40" spans="1:10" ht="151.80000000000001">
-      <c r="A40" s="159" t="s">
+      <c r="I39" s="191">
+        <v>9005524</v>
+      </c>
+      <c r="J39" s="192" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="303.60000000000002">
+      <c r="A40" s="182" t="s">
+        <v>963</v>
+      </c>
+      <c r="B40" s="166" t="s">
+        <v>939</v>
+      </c>
+      <c r="C40" s="193">
+        <v>2399733</v>
+      </c>
+      <c r="E40" s="172" t="s">
+        <v>971</v>
+      </c>
+      <c r="F40" s="194" t="s">
+        <v>965</v>
+      </c>
+      <c r="G40" s="191"/>
+      <c r="H40" s="192"/>
+      <c r="I40" s="191"/>
+      <c r="J40" s="192"/>
+    </row>
+    <row r="41" spans="1:10" ht="124.2">
+      <c r="A41" s="159" t="s">
         <v>267</v>
       </c>
-      <c r="B40" s="164" t="s">
+      <c r="B41" s="164" t="s">
         <v>268</v>
       </c>
-      <c r="D40" s="160" t="s">
+      <c r="D41" s="160" t="s">
         <v>269</v>
       </c>
-      <c r="E40" s="168" t="s">
+      <c r="E41" s="168" t="s">
         <v>270</v>
       </c>
-      <c r="F40" s="163" t="s">
+      <c r="F41" s="163" t="s">
         <v>271</v>
       </c>
-      <c r="G40" s="160" t="s">
+      <c r="G41" s="160" t="s">
         <v>272</v>
       </c>
-      <c r="H40" s="164"/>
-      <c r="I40" s="165"/>
-    </row>
-    <row r="41" spans="1:10" ht="96.6">
-      <c r="A41" s="182" t="s">
+      <c r="H41" s="164"/>
+      <c r="I41" s="165"/>
+    </row>
+    <row r="42" spans="1:10" ht="96.6">
+      <c r="A42" s="182" t="s">
         <v>273</v>
-      </c>
-      <c r="B41" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="161" t="s">
-        <v>274</v>
-      </c>
-      <c r="E41" s="168" t="s">
-        <v>275</v>
-      </c>
-      <c r="F41" s="185" t="s">
-        <v>952</v>
-      </c>
-      <c r="G41" s="185" t="s">
-        <v>276</v>
-      </c>
-      <c r="H41" s="164" t="s">
-        <v>277</v>
-      </c>
-      <c r="I41" s="165">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="82.8">
-      <c r="A42" s="159" t="s">
-        <v>278</v>
       </c>
       <c r="B42" s="164" t="s">
         <v>21</v>
@@ -7361,17 +7368,17 @@
       <c r="C42" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="186" t="s">
-        <v>279</v>
+      <c r="D42" s="161" t="s">
+        <v>274</v>
       </c>
       <c r="E42" s="168" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F42" s="185" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="G42" s="185" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H42" s="164" t="s">
         <v>277</v>
@@ -7381,7 +7388,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="82.8">
-      <c r="A43" s="182" t="s">
+      <c r="A43" s="159" t="s">
         <v>278</v>
       </c>
       <c r="B43" s="164" t="s">
@@ -7391,16 +7398,16 @@
         <v>22</v>
       </c>
       <c r="D43" s="186" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E43" s="168" t="s">
-        <v>286</v>
-      </c>
-      <c r="F43" s="163" t="s">
-        <v>954</v>
+        <v>281</v>
+      </c>
+      <c r="F43" s="185" t="s">
+        <v>952</v>
       </c>
       <c r="G43" s="185" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H43" s="164" t="s">
         <v>277</v>
@@ -7409,36 +7416,36 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="96.6">
-      <c r="A44" s="159" t="s">
-        <v>289</v>
+    <row r="44" spans="1:10" ht="82.8">
+      <c r="A44" s="182" t="s">
+        <v>278</v>
       </c>
       <c r="B44" s="164" t="s">
-        <v>290</v>
-      </c>
-      <c r="C44" s="195">
-        <v>8000036</v>
-      </c>
-      <c r="D44" s="195" t="s">
-        <v>294</v>
+        <v>21</v>
+      </c>
+      <c r="C44" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="186" t="s">
+        <v>285</v>
       </c>
       <c r="E44" s="168" t="s">
-        <v>295</v>
-      </c>
-      <c r="F44" s="217" t="s">
-        <v>299</v>
-      </c>
-      <c r="G44" s="160" t="s">
-        <v>974</v>
-      </c>
-      <c r="H44" s="181" t="s">
-        <v>1004</v>
+        <v>286</v>
+      </c>
+      <c r="F44" s="163" t="s">
+        <v>953</v>
+      </c>
+      <c r="G44" s="185" t="s">
+        <v>287</v>
+      </c>
+      <c r="H44" s="164" t="s">
+        <v>277</v>
       </c>
       <c r="I44" s="165">
-        <v>43292</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="41.4">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="96.6">
       <c r="A45" s="159" t="s">
         <v>289</v>
       </c>
@@ -7449,25 +7456,25 @@
         <v>8000036</v>
       </c>
       <c r="D45" s="195" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="E45" s="168" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="F45" s="217" t="s">
         <v>299</v>
       </c>
       <c r="G45" s="160" t="s">
-        <v>300</v>
+        <v>973</v>
       </c>
       <c r="H45" s="181" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I45" s="165">
         <v>43292</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="55.2">
+    <row r="46" spans="1:10" ht="41.4">
       <c r="A46" s="159" t="s">
         <v>289</v>
       </c>
@@ -7478,19 +7485,19 @@
         <v>8000036</v>
       </c>
       <c r="D46" s="195" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E46" s="168" t="s">
-        <v>312</v>
-      </c>
-      <c r="F46" s="187" t="s">
-        <v>973</v>
+        <v>310</v>
+      </c>
+      <c r="F46" s="217" t="s">
+        <v>299</v>
       </c>
       <c r="G46" s="160" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="H46" s="181" t="s">
-        <v>333</v>
+        <v>1003</v>
       </c>
       <c r="I46" s="165">
         <v>43292</v>
@@ -7498,59 +7505,63 @@
     </row>
     <row r="47" spans="1:10" ht="55.2">
       <c r="A47" s="159" t="s">
+        <v>289</v>
+      </c>
+      <c r="B47" s="164" t="s">
+        <v>290</v>
+      </c>
+      <c r="C47" s="195">
+        <v>8000036</v>
+      </c>
+      <c r="D47" s="195" t="s">
+        <v>311</v>
+      </c>
+      <c r="E47" s="168" t="s">
+        <v>312</v>
+      </c>
+      <c r="F47" s="187" t="s">
+        <v>972</v>
+      </c>
+      <c r="G47" s="160" t="s">
+        <v>313</v>
+      </c>
+      <c r="H47" s="181" t="s">
+        <v>333</v>
+      </c>
+      <c r="I47" s="165">
+        <v>43292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="55.2">
+      <c r="A48" s="159" t="s">
         <v>316</v>
       </c>
-      <c r="B47" s="164" t="s">
+      <c r="B48" s="164" t="s">
         <v>317</v>
       </c>
-      <c r="C47" s="160" t="s">
+      <c r="C48" s="160" t="s">
         <v>318</v>
       </c>
-      <c r="D47" s="196" t="s">
+      <c r="D48" s="196" t="s">
         <v>319</v>
       </c>
-      <c r="E47" s="168" t="s">
+      <c r="E48" s="168" t="s">
         <v>320</v>
       </c>
-      <c r="F47" s="185" t="s">
+      <c r="F48" s="185" t="s">
         <v>321</v>
       </c>
-      <c r="G47" s="160" t="s">
+      <c r="G48" s="160" t="s">
         <v>322</v>
       </c>
-      <c r="H47" s="164"/>
-      <c r="I47" s="165">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="69.3">
-      <c r="A48" s="159" t="s">
-        <v>338</v>
-      </c>
-      <c r="B48" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="186" t="s">
-        <v>339</v>
-      </c>
-      <c r="E48" s="168" t="s">
-        <v>340</v>
-      </c>
-      <c r="F48" s="163" t="s">
-        <v>955</v>
-      </c>
-      <c r="G48" s="185"/>
       <c r="H48" s="164"/>
       <c r="I48" s="165">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="41.4">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="69.599999999999994">
       <c r="A49" s="159" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B49" s="164" t="s">
         <v>21</v>
@@ -7558,18 +7569,16 @@
       <c r="C49" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="161" t="s">
-        <v>344</v>
+      <c r="D49" s="186" t="s">
+        <v>339</v>
       </c>
       <c r="E49" s="168" t="s">
-        <v>345</v>
-      </c>
-      <c r="F49" s="197" t="s">
-        <v>346</v>
-      </c>
-      <c r="G49" s="185" t="s">
-        <v>956</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F49" s="163" t="s">
+        <v>954</v>
+      </c>
+      <c r="G49" s="185"/>
       <c r="H49" s="164"/>
       <c r="I49" s="165">
         <v>43240</v>
@@ -7586,7 +7595,7 @@
         <v>22</v>
       </c>
       <c r="D50" s="161" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E50" s="168" t="s">
         <v>345</v>
@@ -7595,83 +7604,85 @@
         <v>346</v>
       </c>
       <c r="G50" s="185" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H50" s="164"/>
       <c r="I50" s="165">
         <v>43240</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="193.2">
-      <c r="A51" s="198" t="s">
+    <row r="51" spans="1:9" ht="41.4">
+      <c r="A51" s="159" t="s">
+        <v>342</v>
+      </c>
+      <c r="B51" s="164" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="161" t="s">
+        <v>352</v>
+      </c>
+      <c r="E51" s="168" t="s">
+        <v>345</v>
+      </c>
+      <c r="F51" s="197" t="s">
+        <v>346</v>
+      </c>
+      <c r="G51" s="185" t="s">
+        <v>955</v>
+      </c>
+      <c r="H51" s="164"/>
+      <c r="I51" s="165">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="193.2">
+      <c r="A52" s="198" t="s">
         <v>353</v>
       </c>
-      <c r="B51" s="164" t="s">
+      <c r="B52" s="164" t="s">
         <v>358</v>
-      </c>
-      <c r="C51" s="164"/>
-      <c r="D51" s="161" t="s">
-        <v>359</v>
-      </c>
-      <c r="E51" s="168"/>
-      <c r="F51" s="199" t="s">
-        <v>361</v>
-      </c>
-      <c r="G51" s="185" t="s">
-        <v>363</v>
-      </c>
-      <c r="H51" s="164"/>
-      <c r="I51" s="165"/>
-    </row>
-    <row r="52" spans="1:9" ht="27.6">
-      <c r="A52" s="198" t="s">
-        <v>366</v>
-      </c>
-      <c r="B52" s="164" t="s">
-        <v>996</v>
       </c>
       <c r="C52" s="164"/>
       <c r="D52" s="161" t="s">
+        <v>359</v>
+      </c>
+      <c r="E52" s="168"/>
+      <c r="F52" s="199" t="s">
+        <v>361</v>
+      </c>
+      <c r="G52" s="185" t="s">
+        <v>363</v>
+      </c>
+      <c r="H52" s="164"/>
+      <c r="I52" s="165"/>
+    </row>
+    <row r="53" spans="1:9" ht="27.6">
+      <c r="A53" s="198" t="s">
+        <v>366</v>
+      </c>
+      <c r="B53" s="164" t="s">
+        <v>995</v>
+      </c>
+      <c r="C53" s="164"/>
+      <c r="D53" s="161" t="s">
+        <v>996</v>
+      </c>
+      <c r="E53" s="168" t="s">
         <v>997</v>
       </c>
-      <c r="E52" s="168" t="s">
+      <c r="F53" s="215" t="s">
         <v>998</v>
       </c>
-      <c r="F52" s="215" t="s">
-        <v>999</v>
-      </c>
-      <c r="G52" s="185"/>
-      <c r="H52" s="164"/>
-      <c r="I52" s="165">
-        <v>43298</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="27.6">
-      <c r="A53" s="159" t="s">
-        <v>366</v>
-      </c>
-      <c r="B53" s="160" t="s">
-        <v>367</v>
-      </c>
-      <c r="C53" s="160"/>
-      <c r="D53" s="160" t="s">
-        <v>368</v>
-      </c>
-      <c r="E53" s="168" t="s">
-        <v>369</v>
-      </c>
-      <c r="F53" s="197" t="s">
-        <v>371</v>
-      </c>
-      <c r="G53" s="164" t="s">
-        <v>372</v>
-      </c>
+      <c r="G53" s="185"/>
       <c r="H53" s="164"/>
       <c r="I53" s="165">
-        <v>43252</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="179.4">
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="27.6">
       <c r="A54" s="159" t="s">
         <v>366</v>
       </c>
@@ -7680,49 +7691,47 @@
       </c>
       <c r="C54" s="160"/>
       <c r="D54" s="160" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E54" s="168" t="s">
-        <v>374</v>
-      </c>
-      <c r="F54" s="199" t="s">
-        <v>375</v>
-      </c>
-      <c r="G54" s="164"/>
+        <v>369</v>
+      </c>
+      <c r="F54" s="197" t="s">
+        <v>371</v>
+      </c>
+      <c r="G54" s="164" t="s">
+        <v>372</v>
+      </c>
       <c r="H54" s="164"/>
       <c r="I54" s="165">
-        <v>43290</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="41.4">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="179.4">
       <c r="A55" s="159" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B55" s="160" t="s">
-        <v>377</v>
-      </c>
-      <c r="C55" s="160" t="s">
-        <v>22</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C55" s="160"/>
       <c r="D55" s="160" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E55" s="168" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F55" s="199" t="s">
-        <v>380</v>
-      </c>
-      <c r="G55" s="164" t="s">
-        <v>381</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G55" s="164"/>
       <c r="H55" s="164"/>
       <c r="I55" s="165">
-        <v>43277</v>
+        <v>43290</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="41.4">
-      <c r="A56" s="182" t="s">
+      <c r="A56" s="159" t="s">
         <v>376</v>
       </c>
       <c r="B56" s="160" t="s">
@@ -7732,16 +7741,20 @@
         <v>22</v>
       </c>
       <c r="D56" s="160" t="s">
-        <v>382</v>
-      </c>
-      <c r="E56" s="168"/>
-      <c r="F56" s="197" t="s">
-        <v>383</v>
-      </c>
-      <c r="G56" s="164"/>
+        <v>378</v>
+      </c>
+      <c r="E56" s="168" t="s">
+        <v>379</v>
+      </c>
+      <c r="F56" s="199" t="s">
+        <v>380</v>
+      </c>
+      <c r="G56" s="164" t="s">
+        <v>381</v>
+      </c>
       <c r="H56" s="164"/>
       <c r="I56" s="165">
-        <v>43278</v>
+        <v>43277</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="41.4">
@@ -7755,7 +7768,7 @@
         <v>22</v>
       </c>
       <c r="D57" s="160" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E57" s="168"/>
       <c r="F57" s="197" t="s">
@@ -7778,7 +7791,7 @@
         <v>22</v>
       </c>
       <c r="D58" s="160" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E58" s="168"/>
       <c r="F58" s="197" t="s">
@@ -7790,42 +7803,44 @@
         <v>43278</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="55.2">
+    <row r="59" spans="1:9" ht="41.4">
       <c r="A59" s="182" t="s">
         <v>376</v>
       </c>
       <c r="B59" s="160" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C59" s="160" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="160" t="s">
-        <v>388</v>
-      </c>
-      <c r="E59" s="168" t="s">
-        <v>944</v>
-      </c>
-      <c r="F59" s="199" t="s">
-        <v>389</v>
+        <v>385</v>
+      </c>
+      <c r="E59" s="168"/>
+      <c r="F59" s="197" t="s">
+        <v>383</v>
       </c>
       <c r="G59" s="164"/>
       <c r="H59" s="164"/>
-      <c r="I59" s="165"/>
-    </row>
-    <row r="60" spans="1:9" ht="41.4">
-      <c r="A60" s="159" t="s">
-        <v>390</v>
+      <c r="I59" s="165">
+        <v>43278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="55.2">
+      <c r="A60" s="182" t="s">
+        <v>376</v>
       </c>
       <c r="B60" s="160" t="s">
-        <v>391</v>
-      </c>
-      <c r="C60" s="160"/>
+        <v>387</v>
+      </c>
+      <c r="C60" s="160" t="s">
+        <v>22</v>
+      </c>
       <c r="D60" s="160" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E60" s="168" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F60" s="199" t="s">
         <v>389</v>
@@ -7834,58 +7849,52 @@
       <c r="H60" s="164"/>
       <c r="I60" s="165"/>
     </row>
-    <row r="61" spans="1:9" ht="27.6">
+    <row r="61" spans="1:9" ht="41.4">
       <c r="A61" s="159" t="s">
+        <v>390</v>
+      </c>
+      <c r="B61" s="160" t="s">
+        <v>391</v>
+      </c>
+      <c r="C61" s="160"/>
+      <c r="D61" s="160" t="s">
+        <v>392</v>
+      </c>
+      <c r="E61" s="168" t="s">
+        <v>944</v>
+      </c>
+      <c r="F61" s="199" t="s">
+        <v>389</v>
+      </c>
+      <c r="G61" s="164"/>
+      <c r="H61" s="164"/>
+      <c r="I61" s="165"/>
+    </row>
+    <row r="62" spans="1:9" ht="27.6">
+      <c r="A62" s="159" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="164" t="s">
+      <c r="B62" s="164" t="s">
         <v>395</v>
       </c>
-      <c r="C61" s="164" t="s">
+      <c r="C62" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="164" t="s">
+      <c r="D62" s="164" t="s">
         <v>396</v>
       </c>
-      <c r="E61" s="162" t="s">
+      <c r="E62" s="162" t="s">
         <v>397</v>
       </c>
-      <c r="F61" s="185" t="s">
+      <c r="F62" s="185" t="s">
         <v>398</v>
-      </c>
-      <c r="H61" s="164"/>
-      <c r="I61" s="165">
-        <v>43283</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="55.2">
-      <c r="A62" s="182" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="160" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="160" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" s="200">
-        <v>2320789</v>
-      </c>
-      <c r="E62" s="168" t="s">
-        <v>400</v>
-      </c>
-      <c r="F62" s="199" t="s">
-        <v>402</v>
-      </c>
-      <c r="G62" s="164" t="s">
-        <v>403</v>
       </c>
       <c r="H62" s="164"/>
       <c r="I62" s="165">
-        <v>43284</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="55.2">
+        <v>43283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="41.4">
       <c r="A63" s="182" t="s">
         <v>76</v>
       </c>
@@ -7895,8 +7904,8 @@
       <c r="C63" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="200" t="s">
-        <v>404</v>
+      <c r="D63" s="200">
+        <v>2320789</v>
       </c>
       <c r="E63" s="168" t="s">
         <v>400</v>
@@ -7905,14 +7914,14 @@
         <v>402</v>
       </c>
       <c r="G63" s="164" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H63" s="164"/>
       <c r="I63" s="165">
-        <v>43285</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="55.2">
+        <v>43284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="41.4">
       <c r="A64" s="182" t="s">
         <v>76</v>
       </c>
@@ -7923,23 +7932,23 @@
         <v>22</v>
       </c>
       <c r="D64" s="200" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E64" s="168" t="s">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F64" s="199" t="s">
         <v>402</v>
       </c>
       <c r="G64" s="164" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H64" s="164"/>
       <c r="I64" s="165">
-        <v>43287</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="55.2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="41.4">
       <c r="A65" s="182" t="s">
         <v>76</v>
       </c>
@@ -7950,7 +7959,7 @@
         <v>22</v>
       </c>
       <c r="D65" s="200" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E65" s="168" t="s">
         <v>100</v>
@@ -7958,12 +7967,12 @@
       <c r="F65" s="199" t="s">
         <v>402</v>
       </c>
-      <c r="G65" s="200" t="s">
-        <v>411</v>
+      <c r="G65" s="164" t="s">
+        <v>407</v>
       </c>
       <c r="H65" s="164"/>
       <c r="I65" s="165">
-        <v>43288</v>
+        <v>43287</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="41.4">
@@ -7977,19 +7986,21 @@
         <v>22</v>
       </c>
       <c r="D66" s="200" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E66" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F66" s="199" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="G66" s="200" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="H66" s="164"/>
-      <c r="I66" s="165"/>
+      <c r="I66" s="165">
+        <v>43288</v>
+      </c>
     </row>
     <row r="67" spans="1:9" ht="41.4">
       <c r="A67" s="182" t="s">
@@ -8002,7 +8013,7 @@
         <v>22</v>
       </c>
       <c r="D67" s="200" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E67" s="168" t="s">
         <v>100</v>
@@ -8011,12 +8022,12 @@
         <v>416</v>
       </c>
       <c r="G67" s="200" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H67" s="164"/>
       <c r="I67" s="165"/>
     </row>
-    <row r="68" spans="1:9" ht="55.2">
+    <row r="68" spans="1:9" ht="41.4">
       <c r="A68" s="182" t="s">
         <v>76</v>
       </c>
@@ -8026,17 +8037,17 @@
       <c r="C68" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="186" t="s">
-        <v>426</v>
+      <c r="D68" s="200" t="s">
+        <v>418</v>
       </c>
       <c r="E68" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F68" s="199" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="G68" s="200" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H68" s="164"/>
       <c r="I68" s="165"/>
@@ -8052,21 +8063,21 @@
         <v>22</v>
       </c>
       <c r="D69" s="186" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E69" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F69" s="199" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="G69" s="200" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H69" s="164"/>
       <c r="I69" s="165"/>
     </row>
-    <row r="70" spans="1:9" ht="55.2">
+    <row r="70" spans="1:9" ht="41.4">
       <c r="A70" s="182" t="s">
         <v>76</v>
       </c>
@@ -8077,23 +8088,23 @@
         <v>22</v>
       </c>
       <c r="D70" s="186" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E70" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F70" s="199" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="G70" s="200" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="H70" s="164"/>
       <c r="I70" s="165"/>
     </row>
-    <row r="71" spans="1:9" ht="262.2">
-      <c r="A71" s="159" t="s">
-        <v>437</v>
+    <row r="71" spans="1:9" ht="41.4">
+      <c r="A71" s="182" t="s">
+        <v>76</v>
       </c>
       <c r="B71" s="160" t="s">
         <v>77</v>
@@ -8101,24 +8112,24 @@
       <c r="C71" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="201">
-        <v>2368196</v>
+      <c r="D71" s="186" t="s">
+        <v>431</v>
       </c>
       <c r="E71" s="168" t="s">
-        <v>439</v>
+        <v>100</v>
       </c>
       <c r="F71" s="199" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="G71" s="200" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H71" s="164"/>
       <c r="I71" s="165"/>
     </row>
-    <row r="72" spans="1:9" ht="55.2">
-      <c r="A72" s="182" t="s">
-        <v>442</v>
+    <row r="72" spans="1:9" ht="262.2">
+      <c r="A72" s="159" t="s">
+        <v>437</v>
       </c>
       <c r="B72" s="160" t="s">
         <v>77</v>
@@ -8126,26 +8137,24 @@
       <c r="C72" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="202">
-        <v>2356457</v>
+      <c r="D72" s="201">
+        <v>2368196</v>
       </c>
       <c r="E72" s="168" t="s">
-        <v>100</v>
+        <v>439</v>
       </c>
       <c r="F72" s="199" t="s">
-        <v>402</v>
+        <v>440</v>
       </c>
       <c r="G72" s="200" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H72" s="164"/>
-      <c r="I72" s="165">
-        <v>43289</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="56.4">
-      <c r="A73" s="159" t="s">
-        <v>445</v>
+      <c r="I72" s="165"/>
+    </row>
+    <row r="73" spans="1:9" ht="41.4">
+      <c r="A73" s="182" t="s">
+        <v>442</v>
       </c>
       <c r="B73" s="160" t="s">
         <v>77</v>
@@ -8154,7 +8163,7 @@
         <v>22</v>
       </c>
       <c r="D73" s="202">
-        <v>535230</v>
+        <v>2356457</v>
       </c>
       <c r="E73" s="168" t="s">
         <v>100</v>
@@ -8163,192 +8172,192 @@
         <v>402</v>
       </c>
       <c r="G73" s="200" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H73" s="164"/>
       <c r="I73" s="165">
-        <v>43290</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="56.4">
-      <c r="A74" s="203" t="s">
-        <v>447</v>
+        <v>43289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="55.2">
+      <c r="A74" s="159" t="s">
+        <v>445</v>
       </c>
       <c r="B74" s="160" t="s">
-        <v>448</v>
-      </c>
-      <c r="C74" s="160"/>
-      <c r="D74" s="200" t="s">
-        <v>359</v>
+        <v>77</v>
+      </c>
+      <c r="C74" s="160" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="202">
+        <v>535230</v>
       </c>
       <c r="E74" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F74" s="199" t="s">
-        <v>449</v>
-      </c>
-      <c r="G74" s="200"/>
+        <v>402</v>
+      </c>
+      <c r="G74" s="200" t="s">
+        <v>446</v>
+      </c>
       <c r="H74" s="164"/>
       <c r="I74" s="165">
-        <v>43288</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="193.2">
-      <c r="A75" s="159" t="s">
-        <v>450</v>
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="55.2">
+      <c r="A75" s="203" t="s">
+        <v>447</v>
       </c>
       <c r="B75" s="160" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" s="160" t="s">
-        <v>22</v>
-      </c>
-      <c r="D75" s="202">
-        <v>2410583</v>
+        <v>448</v>
+      </c>
+      <c r="C75" s="160"/>
+      <c r="D75" s="200" t="s">
+        <v>359</v>
       </c>
       <c r="E75" s="168" t="s">
-        <v>451</v>
+        <v>100</v>
       </c>
       <c r="F75" s="199" t="s">
         <v>449</v>
       </c>
-      <c r="G75" s="200" t="s">
-        <v>452</v>
-      </c>
+      <c r="G75" s="200"/>
       <c r="H75" s="164"/>
       <c r="I75" s="165">
-        <v>43291</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="55.2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="193.2">
       <c r="A76" s="159" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B76" s="160" t="s">
-        <v>455</v>
+        <v>77</v>
       </c>
       <c r="C76" s="160" t="s">
-        <v>456</v>
-      </c>
-      <c r="D76" s="164" t="s">
-        <v>203</v>
-      </c>
-      <c r="E76" s="204"/>
+        <v>22</v>
+      </c>
+      <c r="D76" s="202">
+        <v>2410583</v>
+      </c>
+      <c r="E76" s="168" t="s">
+        <v>451</v>
+      </c>
       <c r="F76" s="199" t="s">
-        <v>457</v>
-      </c>
-      <c r="G76" s="164" t="s">
-        <v>458</v>
+        <v>449</v>
+      </c>
+      <c r="G76" s="200" t="s">
+        <v>452</v>
       </c>
       <c r="H76" s="164"/>
       <c r="I76" s="165">
-        <v>43196</v>
+        <v>43291</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="55.2">
-      <c r="A77" s="182" t="s">
+      <c r="A77" s="159" t="s">
         <v>454</v>
       </c>
-      <c r="B77" s="160"/>
-      <c r="C77" s="160"/>
-      <c r="D77" s="160" t="s">
-        <v>459</v>
-      </c>
-      <c r="E77" s="168" t="s">
-        <v>460</v>
-      </c>
-      <c r="F77" s="197" t="s">
-        <v>461</v>
+      <c r="B77" s="160" t="s">
+        <v>455</v>
+      </c>
+      <c r="C77" s="160" t="s">
+        <v>456</v>
+      </c>
+      <c r="D77" s="164" t="s">
+        <v>203</v>
+      </c>
+      <c r="E77" s="204"/>
+      <c r="F77" s="199" t="s">
+        <v>457</v>
       </c>
       <c r="G77" s="164" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H77" s="164"/>
       <c r="I77" s="165">
         <v>43196</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="151.80000000000001">
-      <c r="A78" s="159" t="s">
-        <v>463</v>
-      </c>
-      <c r="B78" s="160" t="s">
-        <v>455</v>
-      </c>
-      <c r="C78" s="160" t="s">
-        <v>464</v>
-      </c>
-      <c r="D78" s="164" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="204"/>
+    <row r="78" spans="1:9" ht="55.2">
+      <c r="A78" s="182" t="s">
+        <v>454</v>
+      </c>
+      <c r="B78" s="160"/>
+      <c r="C78" s="160"/>
+      <c r="D78" s="160" t="s">
+        <v>459</v>
+      </c>
+      <c r="E78" s="168" t="s">
+        <v>460</v>
+      </c>
       <c r="F78" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G78" s="164" t="s">
-        <v>467</v>
-      </c>
-      <c r="H78" s="164" t="s">
-        <v>467</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="H78" s="164"/>
       <c r="I78" s="165">
         <v>43196</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="138">
+    <row r="79" spans="1:9" ht="151.80000000000001">
       <c r="A79" s="159" t="s">
+        <v>463</v>
+      </c>
+      <c r="B79" s="160" t="s">
+        <v>455</v>
+      </c>
+      <c r="C79" s="160" t="s">
+        <v>464</v>
+      </c>
+      <c r="D79" s="164" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="204"/>
+      <c r="F79" s="197" t="s">
+        <v>466</v>
+      </c>
+      <c r="G79" s="164" t="s">
+        <v>467</v>
+      </c>
+      <c r="H79" s="164" t="s">
+        <v>467</v>
+      </c>
+      <c r="I79" s="165">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="124.2">
+      <c r="A80" s="159" t="s">
         <v>468</v>
       </c>
-      <c r="B79" s="160" t="s">
+      <c r="B80" s="160" t="s">
         <v>469</v>
       </c>
-      <c r="C79" s="160"/>
-      <c r="D79" s="161" t="s">
+      <c r="C80" s="160"/>
+      <c r="D80" s="161" t="s">
         <v>470</v>
       </c>
-      <c r="E79" s="168" t="s">
+      <c r="E80" s="168" t="s">
         <v>471</v>
       </c>
-      <c r="F79" s="199" t="s">
+      <c r="F80" s="199" t="s">
         <v>472</v>
       </c>
-      <c r="G79" s="164" t="s">
+      <c r="G80" s="164" t="s">
         <v>473</v>
-      </c>
-      <c r="H79" s="164"/>
-      <c r="I79" s="165">
-        <v>43264</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="409.5">
-      <c r="A80" s="159" t="s">
-        <v>475</v>
-      </c>
-      <c r="B80" s="164" t="s">
-        <v>45</v>
-      </c>
-      <c r="C80" s="180">
-        <v>8001266</v>
-      </c>
-      <c r="D80" s="186" t="s">
-        <v>482</v>
-      </c>
-      <c r="E80" s="178" t="s">
-        <v>483</v>
-      </c>
-      <c r="F80" s="185" t="s">
-        <v>484</v>
-      </c>
-      <c r="G80" s="164" t="s">
-        <v>485</v>
       </c>
       <c r="H80" s="164"/>
       <c r="I80" s="165">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="41.4">
-      <c r="A81" s="182" t="s">
+        <v>43264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="409.6">
+      <c r="A81" s="159" t="s">
         <v>475</v>
       </c>
       <c r="B81" s="164" t="s">
@@ -8358,23 +8367,23 @@
         <v>8001266</v>
       </c>
       <c r="D81" s="186" t="s">
-        <v>486</v>
-      </c>
-      <c r="E81" s="168" t="s">
+        <v>482</v>
+      </c>
+      <c r="E81" s="178" t="s">
         <v>483</v>
       </c>
       <c r="F81" s="185" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G81" s="164" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H81" s="164"/>
       <c r="I81" s="165">
         <v>43240</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="69">
+    <row r="82" spans="1:9" ht="41.4">
       <c r="A82" s="182" t="s">
         <v>475</v>
       </c>
@@ -8385,23 +8394,23 @@
         <v>8001266</v>
       </c>
       <c r="D82" s="186" t="s">
-        <v>492</v>
-      </c>
-      <c r="E82" s="205" t="s">
-        <v>493</v>
+        <v>486</v>
+      </c>
+      <c r="E82" s="168" t="s">
+        <v>483</v>
       </c>
       <c r="F82" s="185" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G82" s="164" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H82" s="164"/>
       <c r="I82" s="165">
         <v>43240</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="55.2">
+    <row r="83" spans="1:9" ht="69">
       <c r="A83" s="182" t="s">
         <v>475</v>
       </c>
@@ -8412,23 +8421,23 @@
         <v>8001266</v>
       </c>
       <c r="D83" s="186" t="s">
-        <v>496</v>
-      </c>
-      <c r="E83" s="168" t="s">
-        <v>483</v>
+        <v>492</v>
+      </c>
+      <c r="E83" s="205" t="s">
+        <v>493</v>
       </c>
       <c r="F83" s="185" t="s">
-        <v>497</v>
-      </c>
-      <c r="G83" s="166" t="s">
-        <v>485</v>
-      </c>
-      <c r="H83" s="160"/>
+        <v>494</v>
+      </c>
+      <c r="G83" s="164" t="s">
+        <v>495</v>
+      </c>
+      <c r="H83" s="164"/>
       <c r="I83" s="165">
         <v>43240</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="138">
+    <row r="84" spans="1:9" ht="55.2">
       <c r="A84" s="182" t="s">
         <v>475</v>
       </c>
@@ -8439,23 +8448,23 @@
         <v>8001266</v>
       </c>
       <c r="D84" s="186" t="s">
-        <v>498</v>
-      </c>
-      <c r="E84" s="162" t="s">
+        <v>496</v>
+      </c>
+      <c r="E84" s="168" t="s">
         <v>483</v>
       </c>
       <c r="F84" s="185" t="s">
-        <v>499</v>
-      </c>
-      <c r="G84" s="185" t="s">
-        <v>501</v>
-      </c>
-      <c r="H84" s="180"/>
+        <v>497</v>
+      </c>
+      <c r="G84" s="166" t="s">
+        <v>485</v>
+      </c>
+      <c r="H84" s="160"/>
       <c r="I84" s="165">
         <v>43240</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="69">
+    <row r="85" spans="1:9" ht="138">
       <c r="A85" s="182" t="s">
         <v>475</v>
       </c>
@@ -8466,23 +8475,23 @@
         <v>8001266</v>
       </c>
       <c r="D85" s="186" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E85" s="162" t="s">
         <v>483</v>
       </c>
       <c r="F85" s="185" t="s">
-        <v>503</v>
-      </c>
-      <c r="G85" s="164" t="s">
-        <v>504</v>
-      </c>
-      <c r="H85" s="164"/>
+        <v>499</v>
+      </c>
+      <c r="G85" s="185" t="s">
+        <v>501</v>
+      </c>
+      <c r="H85" s="180"/>
       <c r="I85" s="165">
         <v>43240</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="69">
+    <row r="86" spans="1:9" ht="69">
       <c r="A86" s="182" t="s">
         <v>475</v>
       </c>
@@ -8493,59 +8502,64 @@
         <v>8001266</v>
       </c>
       <c r="D86" s="186" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E86" s="162" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="F86" s="185" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G86" s="164" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H86" s="164"/>
       <c r="I86" s="165">
         <v>43240</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="27.6">
-      <c r="A87" s="159" t="s">
-        <v>1020</v>
+    <row r="87" spans="1:9" ht="69">
+      <c r="A87" s="182" t="s">
+        <v>475</v>
       </c>
       <c r="B87" s="164" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D87" s="189" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E87" s="221" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F87" s="187" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G87" s="164"/>
+        <v>45</v>
+      </c>
+      <c r="C87" s="180">
+        <v>8001266</v>
+      </c>
+      <c r="D87" s="186" t="s">
+        <v>505</v>
+      </c>
+      <c r="E87" s="162" t="s">
+        <v>506</v>
+      </c>
+      <c r="F87" s="185" t="s">
+        <v>507</v>
+      </c>
+      <c r="G87" s="164" t="s">
+        <v>508</v>
+      </c>
       <c r="H87" s="164"/>
       <c r="I87" s="165">
-        <v>43305</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="27.6">
-      <c r="A88" s="182" t="s">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="27.6">
+      <c r="A88" s="159" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B88" s="164" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D88" s="189" t="s">
         <v>1020</v>
       </c>
-      <c r="B88" s="164" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D88" s="189" t="s">
+      <c r="E88" s="221" t="s">
         <v>1022</v>
       </c>
-      <c r="E88" s="221" t="s">
+      <c r="F88" s="187" t="s">
         <v>1023</v>
-      </c>
-      <c r="F88" s="187" t="s">
-        <v>1025</v>
       </c>
       <c r="G88" s="164"/>
       <c r="H88" s="164"/>
@@ -8553,21 +8567,21 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="82.8">
-      <c r="A89" s="159" t="s">
-        <v>1026</v>
+    <row r="89" spans="1:9" ht="27.6">
+      <c r="A89" s="182" t="s">
+        <v>1019</v>
       </c>
       <c r="B89" s="164" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D89" s="189" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E89" s="223" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F89" s="215" t="s">
-        <v>1029</v>
+        <v>1021</v>
+      </c>
+      <c r="E89" s="221" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F89" s="187" t="s">
+        <v>1024</v>
       </c>
       <c r="G89" s="164"/>
       <c r="H89" s="164"/>
@@ -8575,56 +8589,55 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="69">
+    <row r="90" spans="1:9" ht="82.8">
       <c r="A90" s="159" t="s">
-        <v>509</v>
+        <v>1025</v>
       </c>
       <c r="B90" s="164" t="s">
-        <v>149</v>
-      </c>
-      <c r="C90" s="160" t="s">
-        <v>510</v>
-      </c>
-      <c r="D90" s="160" t="s">
-        <v>511</v>
-      </c>
-      <c r="E90" s="168" t="s">
-        <v>946</v>
-      </c>
-      <c r="F90" s="197" t="s">
-        <v>513</v>
+        <v>1009</v>
+      </c>
+      <c r="D90" s="189" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E90" s="223" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F90" s="215" t="s">
+        <v>1028</v>
       </c>
       <c r="G90" s="164"/>
       <c r="H90" s="164"/>
       <c r="I90" s="165">
+        <v>43305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="69">
+      <c r="A91" s="159" t="s">
+        <v>509</v>
+      </c>
+      <c r="B91" s="164" t="s">
+        <v>149</v>
+      </c>
+      <c r="C91" s="160" t="s">
+        <v>510</v>
+      </c>
+      <c r="D91" s="160" t="s">
+        <v>511</v>
+      </c>
+      <c r="E91" s="168" t="s">
+        <v>945</v>
+      </c>
+      <c r="F91" s="197" t="s">
+        <v>513</v>
+      </c>
+      <c r="G91" s="164"/>
+      <c r="H91" s="164"/>
+      <c r="I91" s="165">
         <v>43196</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="96.6">
-      <c r="A91" s="159" t="s">
-        <v>514</v>
-      </c>
-      <c r="B91" s="164" t="s">
-        <v>515</v>
-      </c>
-      <c r="C91" s="160"/>
-      <c r="D91" s="160" t="s">
-        <v>516</v>
-      </c>
-      <c r="E91" s="168" t="s">
-        <v>517</v>
-      </c>
-      <c r="F91" s="199" t="s">
-        <v>957</v>
-      </c>
-      <c r="G91" s="164" t="s">
-        <v>519</v>
-      </c>
-      <c r="H91" s="164"/>
-      <c r="I91" s="165"/>
-    </row>
-    <row r="92" spans="1:10" ht="138">
-      <c r="A92" s="182" t="s">
+    <row r="92" spans="1:9" ht="96.6">
+      <c r="A92" s="159" t="s">
         <v>514</v>
       </c>
       <c r="B92" s="164" t="s">
@@ -8632,138 +8645,135 @@
       </c>
       <c r="C92" s="160"/>
       <c r="D92" s="160" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E92" s="168" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F92" s="199" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G92" s="164" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H92" s="164"/>
       <c r="I92" s="165"/>
     </row>
-    <row r="93" spans="1:10" ht="234.6">
+    <row r="93" spans="1:9" ht="138">
       <c r="A93" s="182" t="s">
         <v>514</v>
       </c>
-      <c r="B93" s="164"/>
+      <c r="B93" s="164" t="s">
+        <v>515</v>
+      </c>
       <c r="C93" s="160"/>
       <c r="D93" s="160" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E93" s="168" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F93" s="199" t="s">
-        <v>959</v>
-      </c>
-      <c r="G93" s="180" t="s">
-        <v>527</v>
+        <v>957</v>
+      </c>
+      <c r="G93" s="164" t="s">
+        <v>523</v>
       </c>
       <c r="H93" s="164"/>
       <c r="I93" s="165"/>
     </row>
-    <row r="94" spans="1:10" ht="82.8">
-      <c r="A94" s="159" t="s">
+    <row r="94" spans="1:9" ht="234.6">
+      <c r="A94" s="182" t="s">
+        <v>514</v>
+      </c>
+      <c r="B94" s="164"/>
+      <c r="C94" s="160"/>
+      <c r="D94" s="160" t="s">
+        <v>524</v>
+      </c>
+      <c r="E94" s="168" t="s">
+        <v>525</v>
+      </c>
+      <c r="F94" s="199" t="s">
+        <v>958</v>
+      </c>
+      <c r="G94" s="180" t="s">
+        <v>527</v>
+      </c>
+      <c r="H94" s="164"/>
+      <c r="I94" s="165"/>
+    </row>
+    <row r="95" spans="1:9" ht="82.8">
+      <c r="A95" s="159" t="s">
         <v>528</v>
       </c>
-      <c r="B94" s="164" t="s">
+      <c r="B95" s="164" t="s">
         <v>149</v>
       </c>
-      <c r="C94" s="160" t="s">
+      <c r="C95" s="160" t="s">
         <v>529</v>
       </c>
-      <c r="D94" s="160" t="s">
+      <c r="D95" s="160" t="s">
         <v>530</v>
       </c>
-      <c r="E94" s="168" t="s">
-        <v>947</v>
-      </c>
-      <c r="F94" s="185" t="s">
+      <c r="E95" s="168" t="s">
+        <v>946</v>
+      </c>
+      <c r="F95" s="185" t="s">
         <v>532</v>
       </c>
-      <c r="G94" s="160" t="s">
+      <c r="G95" s="160" t="s">
         <v>533</v>
-      </c>
-      <c r="H94" s="164"/>
-      <c r="I94" s="165">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="41.4">
-      <c r="A95" s="159" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B95" s="164" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C95" s="160"/>
-      <c r="D95" s="160" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E95" s="220" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F95" s="187" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G95" s="160" t="s">
-        <v>1034</v>
       </c>
       <c r="H95" s="164"/>
       <c r="I95" s="165">
-        <v>43305</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="55.2">
-      <c r="A96" s="167" t="s">
-        <v>534</v>
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="41.4">
+      <c r="A96" s="159" t="s">
+        <v>1029</v>
       </c>
       <c r="B96" s="164" t="s">
-        <v>541</v>
-      </c>
-      <c r="C96" s="164"/>
-      <c r="D96" s="161" t="s">
-        <v>547</v>
-      </c>
-      <c r="E96" s="168" t="s">
-        <v>548</v>
+        <v>1009</v>
+      </c>
+      <c r="C96" s="160"/>
+      <c r="D96" s="160" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E96" s="220" t="s">
+        <v>1031</v>
       </c>
       <c r="F96" s="187" t="s">
-        <v>549</v>
-      </c>
-      <c r="G96" s="164" t="s">
-        <v>553</v>
+        <v>1032</v>
+      </c>
+      <c r="G96" s="160" t="s">
+        <v>1033</v>
       </c>
       <c r="H96" s="164"/>
       <c r="I96" s="165">
-        <v>76138</v>
-      </c>
-      <c r="J96" s="164"/>
-    </row>
-    <row r="97" spans="1:10" ht="96.6">
-      <c r="A97" s="159" t="s">
-        <v>559</v>
+        <v>43305</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="55.2">
+      <c r="A97" s="167" t="s">
+        <v>534</v>
       </c>
       <c r="B97" s="164" t="s">
         <v>541</v>
       </c>
       <c r="C97" s="164"/>
       <c r="D97" s="161" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="E97" s="168" t="s">
-        <v>948</v>
-      </c>
-      <c r="F97" s="185" t="s">
-        <v>573</v>
+        <v>548</v>
+      </c>
+      <c r="F97" s="187" t="s">
+        <v>549</v>
       </c>
       <c r="G97" s="164" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="H97" s="164"/>
       <c r="I97" s="165">
@@ -8771,123 +8781,120 @@
       </c>
       <c r="J97" s="164"/>
     </row>
-    <row r="98" spans="1:10" ht="41.4">
+    <row r="98" spans="1:10" ht="96.6">
       <c r="A98" s="159" t="s">
-        <v>582</v>
+        <v>559</v>
       </c>
       <c r="B98" s="164" t="s">
-        <v>586</v>
+        <v>541</v>
       </c>
       <c r="C98" s="164"/>
-      <c r="D98" s="160" t="s">
-        <v>587</v>
+      <c r="D98" s="161" t="s">
+        <v>564</v>
       </c>
       <c r="E98" s="168" t="s">
-        <v>588</v>
-      </c>
-      <c r="F98" s="187" t="s">
-        <v>589</v>
+        <v>947</v>
+      </c>
+      <c r="F98" s="185" t="s">
+        <v>573</v>
       </c>
       <c r="G98" s="164" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="H98" s="164"/>
-      <c r="I98" s="165"/>
+      <c r="I98" s="165">
+        <v>76138</v>
+      </c>
       <c r="J98" s="164"/>
     </row>
     <row r="99" spans="1:10" ht="41.4">
       <c r="A99" s="159" t="s">
-        <v>1035</v>
+        <v>582</v>
       </c>
       <c r="B99" s="164" t="s">
-        <v>1010</v>
+        <v>586</v>
       </c>
       <c r="C99" s="164"/>
       <c r="D99" s="160" t="s">
+        <v>587</v>
+      </c>
+      <c r="E99" s="168" t="s">
+        <v>588</v>
+      </c>
+      <c r="F99" s="187" t="s">
+        <v>589</v>
+      </c>
+      <c r="G99" s="164" t="s">
+        <v>592</v>
+      </c>
+      <c r="H99" s="164"/>
+      <c r="I99" s="165"/>
+      <c r="J99" s="164"/>
+    </row>
+    <row r="100" spans="1:10" ht="41.4">
+      <c r="A100" s="159" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B100" s="164" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C100" s="164"/>
+      <c r="D100" s="160" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E100" s="168" t="s">
         <v>1036</v>
       </c>
-      <c r="E99" s="168" t="s">
+      <c r="F100" s="187" t="s">
         <v>1037</v>
       </c>
-      <c r="F99" s="187" t="s">
+      <c r="G100" s="164" t="s">
         <v>1038</v>
       </c>
-      <c r="G99" s="164" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H99" s="164"/>
-      <c r="I99" s="165">
+      <c r="H100" s="164"/>
+      <c r="I100" s="165">
         <v>43305</v>
       </c>
-      <c r="J99" s="164"/>
-    </row>
-    <row r="100" spans="1:10" ht="27.6">
-      <c r="A100" s="159" t="s">
+      <c r="J100" s="164"/>
+    </row>
+    <row r="101" spans="1:10" ht="27.6">
+      <c r="A101" s="159" t="s">
         <v>601</v>
       </c>
-      <c r="B100" s="164" t="s">
+      <c r="B101" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="C100" s="164"/>
-      <c r="D100" s="216">
+      <c r="C101" s="164"/>
+      <c r="D101" s="216">
         <v>2243686</v>
       </c>
-      <c r="E100" s="162" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F100" s="206" t="s">
+      <c r="E101" s="162" t="s">
         <v>1002</v>
       </c>
-      <c r="G100" s="164"/>
-      <c r="H100" s="164"/>
-      <c r="I100" s="165"/>
-    </row>
-    <row r="101" spans="1:10" ht="14.1">
-      <c r="A101" s="159" t="s">
+      <c r="F101" s="206" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G101" s="164"/>
+      <c r="H101" s="164"/>
+      <c r="I101" s="165"/>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="159" t="s">
         <v>607</v>
       </c>
-      <c r="B101" s="164" t="s">
+      <c r="B102" s="164" t="s">
         <v>608</v>
       </c>
-      <c r="C101" s="164">
+      <c r="C102" s="164">
         <v>8001119</v>
       </c>
-      <c r="D101" s="180"/>
-      <c r="E101" s="162"/>
-      <c r="F101" s="185" t="s">
+      <c r="D102" s="180"/>
+      <c r="E102" s="162"/>
+      <c r="F102" s="185" t="s">
         <v>611</v>
       </c>
-      <c r="G101" s="164" t="s">
+      <c r="G102" s="164" t="s">
         <v>612</v>
-      </c>
-      <c r="H101" s="164" t="s">
-        <v>613</v>
-      </c>
-      <c r="I101" s="165">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="82.8">
-      <c r="A102" s="159" t="s">
-        <v>614</v>
-      </c>
-      <c r="B102" s="160" t="s">
-        <v>478</v>
-      </c>
-      <c r="C102" s="164">
-        <v>8001130</v>
-      </c>
-      <c r="D102" s="160" t="s">
-        <v>616</v>
-      </c>
-      <c r="E102" s="168" t="s">
-        <v>617</v>
-      </c>
-      <c r="F102" s="185" t="s">
-        <v>618</v>
-      </c>
-      <c r="G102" s="164" t="s">
-        <v>619</v>
       </c>
       <c r="H102" s="164" t="s">
         <v>613</v>
@@ -8896,129 +8903,135 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="27.6">
+    <row r="103" spans="1:10" ht="82.8">
       <c r="A103" s="159" t="s">
+        <v>614</v>
+      </c>
+      <c r="B103" s="160" t="s">
+        <v>478</v>
+      </c>
+      <c r="C103" s="164">
+        <v>8001130</v>
+      </c>
+      <c r="D103" s="160" t="s">
+        <v>616</v>
+      </c>
+      <c r="E103" s="168" t="s">
+        <v>617</v>
+      </c>
+      <c r="F103" s="185" t="s">
+        <v>618</v>
+      </c>
+      <c r="G103" s="164" t="s">
+        <v>619</v>
+      </c>
+      <c r="H103" s="164" t="s">
+        <v>613</v>
+      </c>
+      <c r="I103" s="165">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="27.6">
+      <c r="A104" s="159" t="s">
         <v>620</v>
       </c>
-      <c r="B103" s="160" t="s">
+      <c r="B104" s="160" t="s">
         <v>621</v>
       </c>
-      <c r="C103" s="160" t="s">
+      <c r="C104" s="160" t="s">
         <v>622</v>
       </c>
-      <c r="D103" s="160" t="s">
+      <c r="D104" s="160" t="s">
         <v>623</v>
       </c>
-      <c r="E103" s="168" t="s">
+      <c r="E104" s="168" t="s">
         <v>624</v>
       </c>
-      <c r="F103" s="187" t="s">
+      <c r="F104" s="187" t="s">
         <v>625</v>
       </c>
-      <c r="G103" s="164" t="s">
+      <c r="G104" s="164" t="s">
         <v>626</v>
       </c>
-      <c r="H103" s="164"/>
-      <c r="I103" s="165">
+      <c r="H104" s="164"/>
+      <c r="I104" s="165">
         <v>43266</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="41.4">
-      <c r="A104" s="159" t="s">
+    <row r="105" spans="1:10" ht="41.4">
+      <c r="A105" s="159" t="s">
         <v>627</v>
       </c>
-      <c r="B104" s="160" t="s">
+      <c r="B105" s="160" t="s">
         <v>629</v>
       </c>
-      <c r="C104" s="164"/>
-      <c r="D104" s="161" t="s">
+      <c r="C105" s="164"/>
+      <c r="D105" s="161" t="s">
         <v>630</v>
       </c>
-      <c r="E104" s="168" t="s">
+      <c r="E105" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="F104" s="187" t="s">
+      <c r="F105" s="187" t="s">
         <v>632</v>
       </c>
-      <c r="G104" s="164" t="s">
+      <c r="G105" s="164" t="s">
         <v>633</v>
       </c>
-      <c r="H104" s="164"/>
-      <c r="I104" s="165"/>
-    </row>
-    <row r="105" spans="1:10" ht="27.6">
-      <c r="A105" s="159" t="s">
+      <c r="H105" s="164"/>
+      <c r="I105" s="165"/>
+    </row>
+    <row r="106" spans="1:10" ht="27.6">
+      <c r="A106" s="159" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B106" s="164" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C106" s="164"/>
+      <c r="D106" s="224" t="s">
         <v>1040</v>
       </c>
-      <c r="B105" s="164" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C105" s="164"/>
-      <c r="D105" s="224" t="s">
+      <c r="E106" s="168" t="s">
         <v>1041</v>
       </c>
-      <c r="E105" s="168" t="s">
+      <c r="F106" s="187" t="s">
         <v>1042</v>
       </c>
-      <c r="F105" s="187" t="s">
+      <c r="G106" s="164" t="s">
         <v>1043</v>
-      </c>
-      <c r="G105" s="164" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H105" s="164"/>
-      <c r="I105" s="165">
-        <v>43305</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="69">
-      <c r="A106" s="159" t="s">
-        <v>636</v>
-      </c>
-      <c r="B106" s="164" t="s">
-        <v>45</v>
-      </c>
-      <c r="C106" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D106" s="212" t="s">
-        <v>978</v>
-      </c>
-      <c r="E106" s="214" t="s">
-        <v>984</v>
-      </c>
-      <c r="F106" s="185" t="s">
-        <v>985</v>
-      </c>
-      <c r="G106" s="164" t="s">
-        <v>994</v>
       </c>
       <c r="H106" s="164"/>
       <c r="I106" s="165">
-        <v>43240</v>
+        <v>43305</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="69">
-      <c r="A107" s="182" t="s">
+      <c r="A107" s="159" t="s">
         <v>636</v>
       </c>
-      <c r="B107" s="164"/>
-      <c r="C107" s="164"/>
-      <c r="D107" s="213" t="s">
-        <v>979</v>
+      <c r="B107" s="164" t="s">
+        <v>45</v>
+      </c>
+      <c r="C107" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="212" t="s">
+        <v>977</v>
       </c>
       <c r="E107" s="214" t="s">
+        <v>983</v>
+      </c>
+      <c r="F107" s="185" t="s">
         <v>984</v>
-      </c>
-      <c r="F107" s="185" t="s">
-        <v>986</v>
       </c>
       <c r="G107" s="164" t="s">
         <v>993</v>
       </c>
       <c r="H107" s="164"/>
       <c r="I107" s="165">
-        <v>43298</v>
+        <v>43240</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="69">
@@ -9028,10 +9041,10 @@
       <c r="B108" s="164"/>
       <c r="C108" s="164"/>
       <c r="D108" s="213" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E108" s="214" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="F108" s="185" t="s">
         <v>985</v>
@@ -9044,20 +9057,20 @@
         <v>43298</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="55.2">
+    <row r="109" spans="1:10" ht="69">
       <c r="A109" s="182" t="s">
         <v>636</v>
       </c>
       <c r="B109" s="164"/>
       <c r="C109" s="164"/>
       <c r="D109" s="213" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E109" s="214" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F109" s="185" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="G109" s="164" t="s">
         <v>991</v>
@@ -9067,20 +9080,20 @@
         <v>43298</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="69">
+    <row r="110" spans="1:10" ht="55.2">
       <c r="A110" s="182" t="s">
         <v>636</v>
       </c>
       <c r="B110" s="164"/>
       <c r="C110" s="164"/>
       <c r="D110" s="213" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E110" s="214" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F110" s="185" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G110" s="164" t="s">
         <v>990</v>
@@ -9097,137 +9110,137 @@
       <c r="B111" s="164"/>
       <c r="C111" s="164"/>
       <c r="D111" s="213" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E111" s="214" t="s">
+        <v>987</v>
+      </c>
+      <c r="F111" s="185" t="s">
+        <v>985</v>
+      </c>
+      <c r="G111" s="164" t="s">
         <v>989</v>
-      </c>
-      <c r="F111" s="185" t="s">
-        <v>986</v>
-      </c>
-      <c r="G111" s="164" t="s">
-        <v>995</v>
       </c>
       <c r="H111" s="164"/>
       <c r="I111" s="165">
         <v>43298</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="124.2">
-      <c r="A112" s="159" t="s">
+    <row r="112" spans="1:10" ht="69">
+      <c r="A112" s="182" t="s">
+        <v>636</v>
+      </c>
+      <c r="B112" s="164"/>
+      <c r="C112" s="164"/>
+      <c r="D112" s="213" t="s">
+        <v>982</v>
+      </c>
+      <c r="E112" s="214" t="s">
+        <v>988</v>
+      </c>
+      <c r="F112" s="185" t="s">
+        <v>985</v>
+      </c>
+      <c r="G112" s="164" t="s">
+        <v>994</v>
+      </c>
+      <c r="H112" s="164"/>
+      <c r="I112" s="165">
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="124.2">
+      <c r="A113" s="159" t="s">
         <v>650</v>
       </c>
-      <c r="B112" s="164" t="s">
+      <c r="B113" s="164" t="s">
         <v>586</v>
-      </c>
-      <c r="C112" s="164"/>
-      <c r="D112" s="160" t="s">
-        <v>651</v>
-      </c>
-      <c r="E112" s="168" t="s">
-        <v>652</v>
-      </c>
-      <c r="F112" s="185" t="s">
-        <v>653</v>
-      </c>
-      <c r="G112" s="164" t="s">
-        <v>655</v>
-      </c>
-      <c r="H112" s="164"/>
-      <c r="I112" s="165"/>
-    </row>
-    <row r="113" spans="1:9" ht="138">
-      <c r="A113" s="182" t="s">
-        <v>650</v>
-      </c>
-      <c r="B113" s="164" t="s">
-        <v>656</v>
       </c>
       <c r="C113" s="164"/>
       <c r="D113" s="160" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="E113" s="168" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="F113" s="185" t="s">
         <v>653</v>
       </c>
       <c r="G113" s="164" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H113" s="164"/>
       <c r="I113" s="165"/>
     </row>
-    <row r="114" spans="1:9" ht="124.2">
+    <row r="114" spans="1:9" ht="138">
       <c r="A114" s="182" t="s">
         <v>650</v>
       </c>
       <c r="B114" s="164" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C114" s="164"/>
       <c r="D114" s="160" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E114" s="168" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F114" s="185" t="s">
         <v>653</v>
       </c>
-      <c r="G114" s="180" t="s">
-        <v>663</v>
+      <c r="G114" s="164" t="s">
+        <v>659</v>
       </c>
       <c r="H114" s="164"/>
       <c r="I114" s="165"/>
     </row>
-    <row r="115" spans="1:9" ht="96.6">
-      <c r="A115" s="159" t="s">
+    <row r="115" spans="1:9" ht="124.2">
+      <c r="A115" s="182" t="s">
+        <v>650</v>
+      </c>
+      <c r="B115" s="164" t="s">
+        <v>660</v>
+      </c>
+      <c r="C115" s="164"/>
+      <c r="D115" s="160" t="s">
+        <v>661</v>
+      </c>
+      <c r="E115" s="168" t="s">
+        <v>662</v>
+      </c>
+      <c r="F115" s="185" t="s">
+        <v>653</v>
+      </c>
+      <c r="G115" s="180" t="s">
+        <v>663</v>
+      </c>
+      <c r="H115" s="164"/>
+      <c r="I115" s="165"/>
+    </row>
+    <row r="116" spans="1:9" ht="82.8">
+      <c r="A116" s="159" t="s">
         <v>664</v>
       </c>
-      <c r="B115" s="164" t="s">
+      <c r="B116" s="164" t="s">
         <v>149</v>
       </c>
-      <c r="C115" s="160" t="s">
+      <c r="C116" s="160" t="s">
         <v>665</v>
       </c>
-      <c r="D115" s="160" t="s">
+      <c r="D116" s="160" t="s">
         <v>667</v>
       </c>
-      <c r="E115" s="162"/>
-      <c r="F115" s="190" t="s">
+      <c r="E116" s="162"/>
+      <c r="F116" s="190" t="s">
         <v>669</v>
       </c>
-      <c r="G115" s="164" t="s">
+      <c r="G116" s="164" t="s">
         <v>678</v>
       </c>
-      <c r="H115" s="164"/>
-      <c r="I115" s="165">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="41.4">
-      <c r="A116" s="159" t="s">
-        <v>679</v>
-      </c>
-      <c r="B116" s="160" t="s">
-        <v>77</v>
-      </c>
-      <c r="C116" s="160" t="s">
-        <v>22</v>
-      </c>
-      <c r="D116" s="161" t="s">
-        <v>681</v>
-      </c>
-      <c r="E116" s="168"/>
-      <c r="F116" s="197" t="s">
-        <v>960</v>
-      </c>
-      <c r="G116" s="164"/>
       <c r="H116" s="164"/>
       <c r="I116" s="165">
-        <v>43276</v>
+        <v>43196</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="41.4">
@@ -9241,11 +9254,11 @@
         <v>22</v>
       </c>
       <c r="D117" s="161" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="E117" s="168"/>
-      <c r="F117" s="179" t="s">
-        <v>961</v>
+      <c r="F117" s="197" t="s">
+        <v>959</v>
       </c>
       <c r="G117" s="164"/>
       <c r="H117" s="164"/>
@@ -9253,112 +9266,110 @@
         <v>43276</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="55.2">
+    <row r="118" spans="1:9" ht="41.4">
       <c r="A118" s="159" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="B118" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="C118" s="160"/>
-      <c r="D118" s="160" t="s">
-        <v>699</v>
-      </c>
-      <c r="E118" s="162" t="s">
-        <v>700</v>
-      </c>
+      <c r="C118" s="160" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" s="161" t="s">
+        <v>691</v>
+      </c>
+      <c r="E118" s="168"/>
       <c r="F118" s="179" t="s">
-        <v>702</v>
-      </c>
-      <c r="G118" s="164" t="s">
-        <v>705</v>
-      </c>
+        <v>960</v>
+      </c>
+      <c r="G118" s="164"/>
       <c r="H118" s="164"/>
       <c r="I118" s="165">
-        <v>43293</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="207">
+        <v>43276</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="55.2">
       <c r="A119" s="159" t="s">
-        <v>706</v>
-      </c>
-      <c r="B119" s="164" t="s">
-        <v>45</v>
-      </c>
-      <c r="C119" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D119" s="186" t="s">
-        <v>709</v>
-      </c>
-      <c r="E119" s="162"/>
-      <c r="F119" s="185" t="s">
-        <v>712</v>
+        <v>698</v>
+      </c>
+      <c r="B119" s="160" t="s">
+        <v>77</v>
+      </c>
+      <c r="C119" s="160"/>
+      <c r="D119" s="160" t="s">
+        <v>699</v>
+      </c>
+      <c r="E119" s="162" t="s">
+        <v>700</v>
+      </c>
+      <c r="F119" s="179" t="s">
+        <v>702</v>
       </c>
       <c r="G119" s="164" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="H119" s="164"/>
       <c r="I119" s="165">
+        <v>43293</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="207">
+      <c r="A120" s="159" t="s">
+        <v>706</v>
+      </c>
+      <c r="B120" s="164" t="s">
+        <v>45</v>
+      </c>
+      <c r="C120" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120" s="186" t="s">
+        <v>709</v>
+      </c>
+      <c r="E120" s="162"/>
+      <c r="F120" s="185" t="s">
+        <v>712</v>
+      </c>
+      <c r="G120" s="164" t="s">
+        <v>713</v>
+      </c>
+      <c r="H120" s="164"/>
+      <c r="I120" s="165">
         <v>43240</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="69">
-      <c r="A120" s="159" t="s">
-        <v>714</v>
-      </c>
-      <c r="B120" s="180" t="s">
-        <v>149</v>
-      </c>
-      <c r="C120" s="180">
-        <v>8000823</v>
-      </c>
-      <c r="D120" s="160" t="s">
-        <v>721</v>
-      </c>
-      <c r="E120" s="168" t="s">
-        <v>725</v>
-      </c>
-      <c r="F120" s="206" t="s">
-        <v>727</v>
-      </c>
-      <c r="G120" s="180" t="s">
-        <v>728</v>
-      </c>
-      <c r="H120" s="164" t="s">
-        <v>729</v>
-      </c>
-      <c r="I120" s="165">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="82.8">
+    <row r="121" spans="1:9" ht="69">
       <c r="A121" s="159" t="s">
         <v>714</v>
       </c>
       <c r="B121" s="180" t="s">
         <v>149</v>
       </c>
-      <c r="C121" s="180"/>
+      <c r="C121" s="180">
+        <v>8000823</v>
+      </c>
       <c r="D121" s="160" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="E121" s="168" t="s">
-        <v>731</v>
-      </c>
-      <c r="F121" s="163" t="s">
-        <v>733</v>
-      </c>
-      <c r="G121" s="185" t="s">
-        <v>735</v>
-      </c>
-      <c r="H121" s="164"/>
+        <v>725</v>
+      </c>
+      <c r="F121" s="206" t="s">
+        <v>727</v>
+      </c>
+      <c r="G121" s="180" t="s">
+        <v>728</v>
+      </c>
+      <c r="H121" s="164" t="s">
+        <v>729</v>
+      </c>
       <c r="I121" s="165">
         <v>43196</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="41.4">
-      <c r="A122" s="182" t="s">
+    <row r="122" spans="1:9" ht="82.8">
+      <c r="A122" s="159" t="s">
         <v>714</v>
       </c>
       <c r="B122" s="180" t="s">
@@ -9366,16 +9377,16 @@
       </c>
       <c r="C122" s="180"/>
       <c r="D122" s="160" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="E122" s="168" t="s">
-        <v>738</v>
-      </c>
-      <c r="F122" s="164" t="s">
-        <v>739</v>
-      </c>
-      <c r="G122" s="163" t="s">
-        <v>740</v>
+        <v>731</v>
+      </c>
+      <c r="F122" s="163" t="s">
+        <v>733</v>
+      </c>
+      <c r="G122" s="185" t="s">
+        <v>735</v>
       </c>
       <c r="H122" s="164"/>
       <c r="I122" s="165">
@@ -9383,228 +9394,222 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="41.4">
-      <c r="A123" s="159" t="s">
-        <v>741</v>
-      </c>
-      <c r="B123" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="C123" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D123" s="183" t="s">
-        <v>742</v>
-      </c>
-      <c r="E123" s="207" t="s">
-        <v>754</v>
-      </c>
-      <c r="F123" s="187" t="s">
-        <v>764</v>
-      </c>
-      <c r="G123" s="164" t="s">
-        <v>765</v>
+      <c r="A123" s="182" t="s">
+        <v>714</v>
+      </c>
+      <c r="B123" s="180" t="s">
+        <v>149</v>
+      </c>
+      <c r="C123" s="180"/>
+      <c r="D123" s="160" t="s">
+        <v>737</v>
+      </c>
+      <c r="E123" s="168" t="s">
+        <v>738</v>
+      </c>
+      <c r="F123" s="164" t="s">
+        <v>739</v>
+      </c>
+      <c r="G123" s="163" t="s">
+        <v>740</v>
       </c>
       <c r="H123" s="164"/>
       <c r="I123" s="165">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="96.6">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="41.4">
       <c r="A124" s="159" t="s">
-        <v>766</v>
+        <v>741</v>
       </c>
       <c r="B124" s="164" t="s">
-        <v>767</v>
+        <v>142</v>
       </c>
       <c r="C124" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="D124" s="186" t="s">
+      <c r="D124" s="183" t="s">
+        <v>742</v>
+      </c>
+      <c r="E124" s="207" t="s">
+        <v>754</v>
+      </c>
+      <c r="F124" s="187" t="s">
+        <v>764</v>
+      </c>
+      <c r="G124" s="164" t="s">
+        <v>765</v>
+      </c>
+      <c r="H124" s="164"/>
+      <c r="I124" s="165">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="27.6">
+      <c r="A125" s="182" t="s">
+        <v>741</v>
+      </c>
+      <c r="B125" s="164" t="s">
+        <v>142</v>
+      </c>
+      <c r="C125" s="164"/>
+      <c r="D125" s="309" t="s">
+        <v>880</v>
+      </c>
+      <c r="E125" s="160" t="s">
+        <v>883</v>
+      </c>
+      <c r="F125" s="187" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G125" s="164"/>
+      <c r="H125" s="164"/>
+      <c r="I125" s="165">
+        <v>43311</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="96.6">
+      <c r="A126" s="159" t="s">
+        <v>766</v>
+      </c>
+      <c r="B126" s="164" t="s">
+        <v>767</v>
+      </c>
+      <c r="C126" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" s="186" t="s">
         <v>768</v>
       </c>
-      <c r="E124" s="207" t="s">
+      <c r="E126" s="207" t="s">
         <v>602</v>
       </c>
-      <c r="F124" s="185" t="s">
+      <c r="F126" s="185" t="s">
+        <v>999</v>
+      </c>
+      <c r="G126" s="164" t="s">
         <v>1000</v>
       </c>
-      <c r="G124" s="164" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H124" s="208"/>
-      <c r="I124" s="165">
+      <c r="H126" s="208"/>
+      <c r="I126" s="165">
         <v>43264</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="41.4">
-      <c r="A125" s="182" t="s">
+    <row r="127" spans="1:9" ht="27.6">
+      <c r="A127" s="182" t="s">
         <v>800</v>
       </c>
-      <c r="B125" s="164" t="s">
+      <c r="B127" s="164" t="s">
         <v>801</v>
       </c>
-      <c r="C125" s="160" t="s">
+      <c r="C127" s="160" t="s">
         <v>802</v>
       </c>
-      <c r="D125" s="160" t="s">
+      <c r="D127" s="160" t="s">
         <v>804</v>
       </c>
-      <c r="E125" s="168" t="s">
+      <c r="E127" s="168" t="s">
         <v>809</v>
       </c>
-      <c r="F125" s="185" t="s">
+      <c r="F127" s="185" t="s">
         <v>810</v>
       </c>
-      <c r="G125" s="164" t="s">
+      <c r="G127" s="164" t="s">
         <v>811</v>
       </c>
-      <c r="H125" s="208"/>
-      <c r="I125" s="165"/>
-    </row>
-    <row r="126" spans="1:9" ht="14.1">
-      <c r="A126" s="159" t="s">
+      <c r="H127" s="208"/>
+      <c r="I127" s="165"/>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="159" t="s">
         <v>812</v>
       </c>
-      <c r="B126" s="164" t="s">
+      <c r="B128" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="C126" s="160" t="s">
+      <c r="C128" s="160" t="s">
         <v>813</v>
       </c>
-      <c r="D126" s="186" t="s">
+      <c r="D128" s="186" t="s">
         <v>814</v>
       </c>
-      <c r="E126" s="162" t="s">
+      <c r="E128" s="162" t="s">
         <v>602</v>
       </c>
-      <c r="F126" s="187" t="s">
+      <c r="F128" s="187" t="s">
         <v>826</v>
       </c>
-      <c r="G126" s="164"/>
-      <c r="H126" s="164"/>
-      <c r="I126" s="165">
+      <c r="G128" s="164"/>
+      <c r="H128" s="164"/>
+      <c r="I128" s="165">
         <v>43240</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="96.6">
-      <c r="A127" s="159" t="s">
+    <row r="129" spans="1:9" ht="96.6">
+      <c r="A129" s="159" t="s">
         <v>832</v>
       </c>
-      <c r="B127" s="164" t="s">
+      <c r="B129" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="C127" s="164" t="s">
+      <c r="C129" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="D127" s="164" t="s">
+      <c r="D129" s="164" t="s">
         <v>833</v>
       </c>
-      <c r="E127" s="162"/>
-      <c r="F127" s="187" t="s">
+      <c r="E129" s="162"/>
+      <c r="F129" s="187" t="s">
         <v>839</v>
       </c>
-      <c r="G127" s="166" t="s">
-        <v>962</v>
-      </c>
-      <c r="H127" s="164"/>
-      <c r="I127" s="165">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="41.4">
-      <c r="A128" s="170" t="s">
-        <v>840</v>
-      </c>
-      <c r="D128" s="297">
-        <v>2420287</v>
-      </c>
-      <c r="F128" s="166" t="s">
-        <v>1048</v>
-      </c>
-      <c r="I128" s="298">
-        <v>372000</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="41.4">
-      <c r="A129" s="159" t="s">
-        <v>847</v>
-      </c>
-      <c r="B129" s="160" t="s">
-        <v>290</v>
-      </c>
-      <c r="C129" s="160"/>
-      <c r="D129" s="195" t="s">
-        <v>849</v>
-      </c>
-      <c r="E129" s="168" t="s">
-        <v>850</v>
-      </c>
-      <c r="F129" s="163" t="s">
-        <v>851</v>
-      </c>
-      <c r="G129" s="164" t="s">
-        <v>859</v>
+      <c r="G129" s="166" t="s">
+        <v>961</v>
       </c>
       <c r="H129" s="164"/>
       <c r="I129" s="165">
-        <v>43288</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="138">
-      <c r="A130" s="159" t="s">
-        <v>861</v>
-      </c>
-      <c r="B130" s="160" t="s">
-        <v>77</v>
-      </c>
-      <c r="C130" s="160" t="s">
-        <v>22</v>
-      </c>
-      <c r="D130" s="161" t="s">
-        <v>862</v>
-      </c>
-      <c r="E130" s="168"/>
-      <c r="F130" s="179" t="s">
-        <v>863</v>
-      </c>
-      <c r="G130" s="164" t="s">
-        <v>864</v>
-      </c>
-      <c r="H130" s="209" t="s">
-        <v>967</v>
-      </c>
-      <c r="I130" s="165">
-        <v>43270</v>
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="41.4">
+      <c r="A130" s="170" t="s">
+        <v>840</v>
+      </c>
+      <c r="D130" s="297">
+        <v>2420287</v>
+      </c>
+      <c r="F130" s="166" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I130" s="298">
+        <v>372000</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="41.4">
       <c r="A131" s="159" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="B131" s="160" t="s">
-        <v>77</v>
-      </c>
-      <c r="C131" s="160" t="s">
-        <v>22</v>
-      </c>
-      <c r="D131" s="161" t="s">
-        <v>865</v>
-      </c>
-      <c r="E131" s="168"/>
-      <c r="F131" s="179" t="s">
-        <v>866</v>
+        <v>290</v>
+      </c>
+      <c r="C131" s="160"/>
+      <c r="D131" s="195" t="s">
+        <v>849</v>
+      </c>
+      <c r="E131" s="168" t="s">
+        <v>850</v>
+      </c>
+      <c r="F131" s="163" t="s">
+        <v>851</v>
       </c>
       <c r="G131" s="164" t="s">
-        <v>867</v>
-      </c>
-      <c r="H131" s="181" t="s">
-        <v>968</v>
-      </c>
+        <v>859</v>
+      </c>
+      <c r="H131" s="164"/>
       <c r="I131" s="165">
-        <v>43270</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="41.4">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="138">
       <c r="A132" s="159" t="s">
         <v>861</v>
       </c>
@@ -9615,23 +9620,23 @@
         <v>22</v>
       </c>
       <c r="D132" s="161" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E132" s="168"/>
       <c r="F132" s="179" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="G132" s="164" t="s">
-        <v>867</v>
-      </c>
-      <c r="H132" s="181" t="s">
-        <v>968</v>
+        <v>864</v>
+      </c>
+      <c r="H132" s="209" t="s">
+        <v>966</v>
       </c>
       <c r="I132" s="165">
         <v>43270</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="55.2">
+    <row r="133" spans="1:9" ht="41.4">
       <c r="A133" s="159" t="s">
         <v>861</v>
       </c>
@@ -9642,14 +9647,16 @@
         <v>22</v>
       </c>
       <c r="D133" s="161" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E133" s="168"/>
-      <c r="F133" s="197" t="s">
-        <v>871</v>
-      </c>
-      <c r="G133" s="164"/>
-      <c r="H133" s="209" t="s">
+      <c r="F133" s="179" t="s">
+        <v>866</v>
+      </c>
+      <c r="G133" s="164" t="s">
+        <v>867</v>
+      </c>
+      <c r="H133" s="181" t="s">
         <v>967</v>
       </c>
       <c r="I133" s="165">
@@ -9658,82 +9665,112 @@
     </row>
     <row r="134" spans="1:9" ht="41.4">
       <c r="A134" s="159" t="s">
+        <v>861</v>
+      </c>
+      <c r="B134" s="160" t="s">
+        <v>77</v>
+      </c>
+      <c r="C134" s="160" t="s">
+        <v>22</v>
+      </c>
+      <c r="D134" s="161" t="s">
+        <v>868</v>
+      </c>
+      <c r="E134" s="168"/>
+      <c r="F134" s="179" t="s">
+        <v>869</v>
+      </c>
+      <c r="G134" s="164" t="s">
+        <v>867</v>
+      </c>
+      <c r="H134" s="181" t="s">
+        <v>967</v>
+      </c>
+      <c r="I134" s="165">
+        <v>43270</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="41.4">
+      <c r="A135" s="159" t="s">
+        <v>861</v>
+      </c>
+      <c r="B135" s="160" t="s">
+        <v>77</v>
+      </c>
+      <c r="C135" s="160" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" s="161" t="s">
+        <v>870</v>
+      </c>
+      <c r="E135" s="168"/>
+      <c r="F135" s="197" t="s">
+        <v>871</v>
+      </c>
+      <c r="G135" s="164"/>
+      <c r="H135" s="209" t="s">
+        <v>966</v>
+      </c>
+      <c r="I135" s="165">
+        <v>43270</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="41.4">
+      <c r="A136" s="159" t="s">
         <v>872</v>
       </c>
-      <c r="B134" s="164" t="s">
+      <c r="B136" s="164" t="s">
         <v>142</v>
       </c>
-      <c r="C134" s="164" t="s">
+      <c r="C136" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="D134" s="183" t="s">
+      <c r="D136" s="183" t="s">
         <v>873</v>
       </c>
-      <c r="E134" s="210" t="s">
+      <c r="E136" s="210" t="s">
         <v>874</v>
       </c>
-      <c r="F134" s="187" t="s">
+      <c r="F136" s="187" t="s">
         <v>764</v>
       </c>
-      <c r="G134" s="164" t="s">
+      <c r="G136" s="164" t="s">
         <v>881</v>
       </c>
-      <c r="H134" s="209" t="s">
-        <v>969</v>
-      </c>
-      <c r="I134" s="165">
+      <c r="H136" s="209" t="s">
+        <v>968</v>
+      </c>
+      <c r="I136" s="165">
         <v>43250</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="27.6">
-      <c r="A135" s="159" t="s">
+    <row r="137" spans="1:9" ht="27.6">
+      <c r="A137" s="159" t="s">
         <v>882</v>
       </c>
-      <c r="B135" s="164" t="s">
+      <c r="B137" s="164" t="s">
         <v>767</v>
       </c>
-      <c r="C135" s="164" t="s">
+      <c r="C137" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="D135" s="186" t="s">
-        <v>888</v>
-      </c>
-      <c r="F135" s="187" t="s">
-        <v>899</v>
-      </c>
-      <c r="H135" s="209" t="s">
-        <v>967</v>
-      </c>
-      <c r="I135" s="211">
+      <c r="D137" s="186" t="s">
+        <v>887</v>
+      </c>
+      <c r="F137" s="187" t="s">
+        <v>898</v>
+      </c>
+      <c r="H137" s="209" t="s">
+        <v>966</v>
+      </c>
+      <c r="I137" s="211">
         <v>43288</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
-      <c r="D136" s="164"/>
-    </row>
-    <row r="137" spans="1:9" ht="14.1">
-      <c r="A137" s="159"/>
-      <c r="B137" s="160"/>
-      <c r="C137" s="160"/>
-      <c r="D137" s="160"/>
-      <c r="E137" s="168"/>
-      <c r="F137" s="199"/>
-      <c r="G137" s="164"/>
-      <c r="H137" s="164"/>
-      <c r="I137" s="165"/>
-    </row>
-    <row r="138" spans="1:9" ht="14.1">
-      <c r="A138" s="159"/>
-      <c r="B138" s="160"/>
-      <c r="C138" s="160"/>
-      <c r="D138" s="160"/>
-      <c r="E138" s="168"/>
-      <c r="F138" s="199"/>
-      <c r="G138" s="164"/>
-      <c r="H138" s="164"/>
-      <c r="I138" s="165"/>
-    </row>
-    <row r="139" spans="1:9" ht="14.1">
+    <row r="138" spans="1:9">
+      <c r="D138" s="164"/>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="159"/>
       <c r="B139" s="160"/>
       <c r="C139" s="160"/>
@@ -9744,7 +9781,7 @@
       <c r="H139" s="164"/>
       <c r="I139" s="165"/>
     </row>
-    <row r="140" spans="1:9" ht="14.1">
+    <row r="140" spans="1:9">
       <c r="A140" s="159"/>
       <c r="B140" s="160"/>
       <c r="C140" s="160"/>
@@ -9755,7 +9792,7 @@
       <c r="H140" s="164"/>
       <c r="I140" s="165"/>
     </row>
-    <row r="141" spans="1:9" ht="14.1">
+    <row r="141" spans="1:9">
       <c r="A141" s="159"/>
       <c r="B141" s="160"/>
       <c r="C141" s="160"/>
@@ -9766,7 +9803,7 @@
       <c r="H141" s="164"/>
       <c r="I141" s="165"/>
     </row>
-    <row r="142" spans="1:9" ht="14.1">
+    <row r="142" spans="1:9">
       <c r="A142" s="159"/>
       <c r="B142" s="160"/>
       <c r="C142" s="160"/>
@@ -9777,7 +9814,7 @@
       <c r="H142" s="164"/>
       <c r="I142" s="165"/>
     </row>
-    <row r="143" spans="1:9" ht="14.1">
+    <row r="143" spans="1:9">
       <c r="A143" s="159"/>
       <c r="B143" s="160"/>
       <c r="C143" s="160"/>
@@ -9788,7 +9825,7 @@
       <c r="H143" s="164"/>
       <c r="I143" s="165"/>
     </row>
-    <row r="144" spans="1:9" ht="14.1">
+    <row r="144" spans="1:9">
       <c r="A144" s="159"/>
       <c r="B144" s="160"/>
       <c r="C144" s="160"/>
@@ -9799,9 +9836,31 @@
       <c r="H144" s="164"/>
       <c r="I144" s="165"/>
     </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="159"/>
+      <c r="B145" s="160"/>
+      <c r="C145" s="160"/>
+      <c r="D145" s="160"/>
+      <c r="E145" s="168"/>
+      <c r="F145" s="199"/>
+      <c r="G145" s="164"/>
+      <c r="H145" s="164"/>
+      <c r="I145" s="165"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="159"/>
+      <c r="B146" s="160"/>
+      <c r="C146" s="160"/>
+      <c r="D146" s="160"/>
+      <c r="E146" s="168"/>
+      <c r="F146" s="199"/>
+      <c r="G146" s="164"/>
+      <c r="H146" s="164"/>
+      <c r="I146" s="165"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F115" r:id="rId1" location="gid=314589613&amp;range=309:309" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F116" r:id="rId1" location="gid=314589613&amp;range=309:309"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -9810,7 +9869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -9818,10 +9877,10 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="18.109375" style="232" customWidth="1"/>
     <col min="2" max="5" width="14.44140625" style="232"/>
@@ -9833,7 +9892,7 @@
     <col min="11" max="16384" width="14.44140625" style="232"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="272" customFormat="1" ht="24.6">
+    <row r="1" spans="1:10" s="272" customFormat="1" ht="26.4">
       <c r="A1" s="270" t="s">
         <v>0</v>
       </c>
@@ -9863,7 +9922,7 @@
       </c>
       <c r="J1" s="300"/>
     </row>
-    <row r="2" spans="1:10" s="276" customFormat="1" ht="24.6">
+    <row r="2" spans="1:10" s="276" customFormat="1" ht="26.4">
       <c r="A2" s="273"/>
       <c r="B2" s="274"/>
       <c r="C2" s="274"/>
@@ -9879,7 +9938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="286" customFormat="1" ht="61.5">
+    <row r="3" spans="1:10" s="286" customFormat="1" ht="66">
       <c r="A3" s="277" t="s">
         <v>60</v>
       </c>
@@ -9902,14 +9961,14 @@
         <v>87</v>
       </c>
       <c r="H3" s="278" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I3" s="284"/>
       <c r="J3" s="285" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="110.7">
+    <row r="4" spans="1:10" ht="118.8">
       <c r="A4" s="225" t="s">
         <v>148</v>
       </c>
@@ -9941,7 +10000,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="86.1">
+    <row r="5" spans="1:10" ht="92.4">
       <c r="A5" s="233" t="s">
         <v>19</v>
       </c>
@@ -9971,7 +10030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="98.4">
+    <row r="6" spans="1:10" ht="105.6">
       <c r="A6" s="233" t="s">
         <v>19</v>
       </c>
@@ -10001,7 +10060,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="98.4">
+    <row r="7" spans="1:10" ht="105.6">
       <c r="A7" s="233" t="s">
         <v>19</v>
       </c>
@@ -10031,7 +10090,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="98.4">
+    <row r="8" spans="1:10" ht="105.6">
       <c r="A8" s="233" t="s">
         <v>19</v>
       </c>
@@ -10091,7 +10150,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="73.8">
+    <row r="10" spans="1:10" ht="92.4">
       <c r="A10" s="229" t="s">
         <v>44</v>
       </c>
@@ -10119,7 +10178,7 @@
       </c>
       <c r="J10" s="231"/>
     </row>
-    <row r="11" spans="1:10" ht="73.8">
+    <row r="11" spans="1:10" ht="92.4">
       <c r="A11" s="226" t="s">
         <v>44</v>
       </c>
@@ -10147,7 +10206,7 @@
       </c>
       <c r="J11" s="231"/>
     </row>
-    <row r="12" spans="1:10" ht="73.8">
+    <row r="12" spans="1:10" ht="92.4">
       <c r="A12" s="226" t="s">
         <v>44</v>
       </c>
@@ -10175,7 +10234,7 @@
       </c>
       <c r="J12" s="231"/>
     </row>
-    <row r="13" spans="1:10" ht="98.4">
+    <row r="13" spans="1:10" ht="118.8">
       <c r="A13" s="226" t="s">
         <v>194</v>
       </c>
@@ -10201,7 +10260,7 @@
       </c>
       <c r="J13" s="231"/>
     </row>
-    <row r="14" spans="1:10" ht="233.7">
+    <row r="14" spans="1:10" ht="250.8">
       <c r="A14" s="229" t="s">
         <v>218</v>
       </c>
@@ -10232,7 +10291,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="98.4">
+    <row r="15" spans="1:10" ht="105.6">
       <c r="A15" s="229" t="s">
         <v>283</v>
       </c>
@@ -10262,7 +10321,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="160.19999999999999">
+    <row r="16" spans="1:10" ht="165.6">
       <c r="A16" s="162" t="s">
         <v>283</v>
       </c>
@@ -10322,7 +10381,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="267" customFormat="1" ht="86.1">
+    <row r="18" spans="1:10" s="267" customFormat="1" ht="92.4">
       <c r="A18" s="263" t="s">
         <v>323</v>
       </c>
@@ -10352,7 +10411,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="267" customFormat="1" ht="86.1">
+    <row r="19" spans="1:10" s="267" customFormat="1" ht="92.4">
       <c r="A19" s="263" t="s">
         <v>323</v>
       </c>
@@ -10382,7 +10441,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="73.8">
+    <row r="20" spans="1:10" ht="79.2">
       <c r="A20" s="226" t="s">
         <v>76</v>
       </c>
@@ -10434,7 +10493,7 @@
       </c>
       <c r="J21" s="231"/>
     </row>
-    <row r="22" spans="1:10" ht="51.6">
+    <row r="22" spans="1:10" ht="55.2">
       <c r="A22" s="226" t="s">
         <v>76</v>
       </c>
@@ -10460,7 +10519,7 @@
       <c r="I22" s="230"/>
       <c r="J22" s="231"/>
     </row>
-    <row r="23" spans="1:10" ht="51.6">
+    <row r="23" spans="1:10" ht="55.2">
       <c r="A23" s="226" t="s">
         <v>76</v>
       </c>
@@ -10486,7 +10545,7 @@
       <c r="I23" s="230"/>
       <c r="J23" s="231"/>
     </row>
-    <row r="24" spans="1:10" s="267" customFormat="1" ht="36.9">
+    <row r="24" spans="1:10" s="267" customFormat="1" ht="39.6">
       <c r="A24" s="295" t="s">
         <v>593</v>
       </c>
@@ -10501,7 +10560,7 @@
       </c>
       <c r="E24" s="229"/>
       <c r="F24" s="296" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G24" s="263"/>
       <c r="H24" s="263" t="s">
@@ -10511,7 +10570,7 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="267" customFormat="1" ht="61.5">
+    <row r="25" spans="1:10" s="267" customFormat="1" ht="66">
       <c r="A25" s="263" t="s">
         <v>636</v>
       </c>
@@ -10522,14 +10581,14 @@
         <v>22</v>
       </c>
       <c r="D25" s="264" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E25" s="229"/>
       <c r="F25" s="265" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G25" s="263" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H25" s="263"/>
       <c r="I25" s="266">
@@ -10566,7 +10625,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="73.8">
+    <row r="27" spans="1:10" ht="79.2">
       <c r="A27" s="263" t="s">
         <v>741</v>
       </c>
@@ -10588,15 +10647,17 @@
       <c r="G27" s="243" t="s">
         <v>885</v>
       </c>
-      <c r="H27" s="226" t="s">
-        <v>886</v>
+      <c r="H27" s="229" t="s">
+        <v>1050</v>
       </c>
       <c r="I27" s="230">
         <v>43250</v>
       </c>
-      <c r="J27" s="231"/>
-    </row>
-    <row r="28" spans="1:10" s="267" customFormat="1" ht="61.5">
+      <c r="J27" s="310" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="267" customFormat="1" ht="79.2">
       <c r="A28" s="295" t="s">
         <v>770</v>
       </c>
@@ -10615,14 +10676,14 @@
       </c>
       <c r="G28" s="263"/>
       <c r="H28" s="290" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I28" s="266"/>
       <c r="J28" s="294" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="267" customFormat="1" ht="61.5">
+    <row r="29" spans="1:10" s="267" customFormat="1" ht="79.2">
       <c r="A29" s="295" t="s">
         <v>770</v>
       </c>
@@ -10641,14 +10702,14 @@
       </c>
       <c r="G29" s="263"/>
       <c r="H29" s="290" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I29" s="266"/>
       <c r="J29" s="294" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="267" customFormat="1" ht="61.5">
+    <row r="30" spans="1:10" s="267" customFormat="1" ht="79.2">
       <c r="A30" s="295" t="s">
         <v>770</v>
       </c>
@@ -10667,7 +10728,7 @@
       </c>
       <c r="G30" s="263"/>
       <c r="H30" s="290" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I30" s="266"/>
       <c r="J30" s="294" t="s">
@@ -10688,7 +10749,7 @@
         <v>846</v>
       </c>
       <c r="G31" s="164" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H31" s="164"/>
       <c r="I31" s="165">
@@ -10705,7 +10766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10718,7 +10779,7 @@
       <selection pane="bottomRight" activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -10731,7 +10792,7 @@
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.6">
+    <row r="1" spans="1:10" ht="26.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10761,7 +10822,7 @@
       </c>
       <c r="J1" s="302"/>
     </row>
-    <row r="2" spans="1:10" ht="24.6">
+    <row r="2" spans="1:10" ht="26.4">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -10777,7 +10838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="49.2">
+    <row r="3" spans="1:10" ht="52.8">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -10803,7 +10864,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="24.6">
+    <row r="4" spans="1:10" ht="26.4">
       <c r="A4" s="17" t="s">
         <v>24</v>
       </c>
@@ -10877,7 +10938,7 @@
       </c>
       <c r="J6" s="35"/>
     </row>
-    <row r="7" spans="1:10" ht="36.9">
+    <row r="7" spans="1:10" ht="39.6">
       <c r="A7" s="306" t="s">
         <v>79</v>
       </c>
@@ -10907,7 +10968,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="36.9">
+    <row r="8" spans="1:10" ht="39.6">
       <c r="A8" s="302"/>
       <c r="B8" s="8" t="s">
         <v>21</v>
@@ -10934,7 +10995,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="36.9">
+    <row r="9" spans="1:10" ht="39.6">
       <c r="A9" s="305"/>
       <c r="B9" s="41" t="s">
         <v>21</v>
@@ -10986,7 +11047,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="36.9">
+    <row r="11" spans="1:10" ht="39.6">
       <c r="A11" s="307" t="s">
         <v>117</v>
       </c>
@@ -11015,7 +11076,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="36.9">
+    <row r="12" spans="1:10" ht="39.6">
       <c r="A12" s="302"/>
       <c r="B12" s="8" t="s">
         <v>21</v>
@@ -11042,7 +11103,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="24.6">
+    <row r="13" spans="1:10" ht="39.6">
       <c r="A13" s="302"/>
       <c r="B13" s="8" t="s">
         <v>21</v>
@@ -11069,7 +11130,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="36.9">
+    <row r="14" spans="1:10" ht="39.6">
       <c r="A14" s="302"/>
       <c r="B14" s="41" t="s">
         <v>21</v>
@@ -11097,7 +11158,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="24.6">
+    <row r="15" spans="1:10" ht="26.4">
       <c r="A15" s="6" t="s">
         <v>156</v>
       </c>
@@ -11123,7 +11184,7 @@
       </c>
       <c r="J15" s="35"/>
     </row>
-    <row r="16" spans="1:10" ht="24.6">
+    <row r="16" spans="1:10" ht="26.4">
       <c r="A16" s="6" t="s">
         <v>164</v>
       </c>
@@ -11149,7 +11210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="98.4">
+    <row r="22" spans="1:10" ht="105.6">
       <c r="A22" s="14" t="s">
         <v>19</v>
       </c>
@@ -11179,7 +11240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="73.8">
+    <row r="26" spans="1:10" ht="79.2">
       <c r="A26" s="6" t="s">
         <v>174</v>
       </c>
@@ -11209,7 +11270,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="36.9">
+    <row r="27" spans="1:10" ht="52.8">
       <c r="A27" s="59" t="s">
         <v>185</v>
       </c>
@@ -11241,7 +11302,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="86.1">
+    <row r="28" spans="1:10" ht="92.4">
       <c r="A28" s="6" t="s">
         <v>254</v>
       </c>
@@ -11271,7 +11332,7 @@
         <v>76138</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="61.5">
+    <row r="29" spans="1:10" ht="66">
       <c r="A29" s="6" t="s">
         <v>264</v>
       </c>
@@ -11343,7 +11404,7 @@
       <c r="I31" s="12"/>
       <c r="J31" s="35"/>
     </row>
-    <row r="32" spans="1:10" ht="73.8">
+    <row r="32" spans="1:10" ht="79.2">
       <c r="A32" s="6" t="s">
         <v>315</v>
       </c>
@@ -11373,7 +11434,7 @@
       </c>
       <c r="J32" s="35"/>
     </row>
-    <row r="33" spans="1:10" ht="86.1">
+    <row r="33" spans="1:10" ht="92.4">
       <c r="A33" s="74" t="s">
         <v>341</v>
       </c>
@@ -11403,7 +11464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="36.9">
+    <row r="34" spans="1:10" ht="39.6">
       <c r="A34" s="6" t="s">
         <v>350</v>
       </c>
@@ -11431,7 +11492,7 @@
       </c>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" ht="61.5">
+    <row r="35" spans="1:10" ht="66">
       <c r="A35" s="6" t="s">
         <v>357</v>
       </c>
@@ -11463,7 +11524,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="36.9">
+    <row r="36" spans="1:10" ht="39.6">
       <c r="A36" s="304" t="s">
         <v>370</v>
       </c>
@@ -11493,7 +11554,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="36.9">
+    <row r="37" spans="1:10" ht="39.6">
       <c r="A37" s="302"/>
       <c r="B37" s="8" t="s">
         <v>21</v>
@@ -11521,7 +11582,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="61.5">
+    <row r="38" spans="1:10" ht="66">
       <c r="A38" s="302"/>
       <c r="B38" s="8" t="s">
         <v>21</v>
@@ -11549,7 +11610,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="36.9">
+    <row r="39" spans="1:10" ht="39.6">
       <c r="A39" s="302"/>
       <c r="B39" s="8" t="s">
         <v>21</v>
@@ -11577,7 +11638,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="36.9">
+    <row r="40" spans="1:10" ht="39.6">
       <c r="A40" s="302"/>
       <c r="B40" s="8" t="s">
         <v>21</v>
@@ -11605,7 +11666,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="36.9">
+    <row r="41" spans="1:10" ht="39.6">
       <c r="A41" s="302"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
@@ -11633,7 +11694,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="36.9">
+    <row r="42" spans="1:10" ht="39.6">
       <c r="A42" s="302"/>
       <c r="B42" s="8" t="s">
         <v>21</v>
@@ -11661,7 +11722,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="36.9">
+    <row r="43" spans="1:10" ht="39.6">
       <c r="A43" s="302"/>
       <c r="B43" s="8" t="s">
         <v>21</v>
@@ -11689,7 +11750,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="36.9">
+    <row r="44" spans="1:10" ht="39.6">
       <c r="A44" s="302"/>
       <c r="B44" s="8" t="s">
         <v>21</v>
@@ -11717,7 +11778,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="36.9">
+    <row r="45" spans="1:10" ht="39.6">
       <c r="A45" s="305"/>
       <c r="B45" s="41" t="s">
         <v>21</v>
@@ -11745,7 +11806,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="36.9">
+    <row r="46" spans="1:10" ht="39.6">
       <c r="A46" s="92" t="s">
         <v>453</v>
       </c>
@@ -11805,7 +11866,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="61.5">
+    <row r="48" spans="1:10" ht="66">
       <c r="A48" s="304" t="s">
         <v>490</v>
       </c>
@@ -11835,7 +11896,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="36.9">
+    <row r="49" spans="1:10" ht="39.6">
       <c r="A49" s="305"/>
       <c r="B49" s="41" t="s">
         <v>21</v>
@@ -11891,7 +11952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="24.6">
+    <row r="51" spans="1:10" ht="26.4">
       <c r="A51" s="8" t="s">
         <v>454</v>
       </c>
@@ -11917,7 +11978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="73.8">
+    <row r="52" spans="1:10" ht="79.2">
       <c r="A52" s="6" t="s">
         <v>543</v>
       </c>
@@ -11949,7 +12010,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="49.2">
+    <row r="53" spans="1:10" ht="52.8">
       <c r="A53" s="8" t="s">
         <v>543</v>
       </c>
@@ -11981,7 +12042,7 @@
         <v>43283</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="49.2">
+    <row r="54" spans="1:10" ht="52.8">
       <c r="A54" s="8" t="s">
         <v>543</v>
       </c>
@@ -12013,7 +12074,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="49.2">
+    <row r="55" spans="1:10" ht="52.8">
       <c r="A55" s="8" t="s">
         <v>543</v>
       </c>
@@ -12045,7 +12106,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="61.5">
+    <row r="56" spans="1:10" ht="66">
       <c r="A56" s="8" t="s">
         <v>543</v>
       </c>
@@ -12077,7 +12138,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="49.2">
+    <row r="57" spans="1:10" ht="52.8">
       <c r="A57" s="8" t="s">
         <v>543</v>
       </c>
@@ -12109,7 +12170,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="49.2">
+    <row r="58" spans="1:10" ht="52.8">
       <c r="A58" s="8" t="s">
         <v>543</v>
       </c>
@@ -12141,7 +12202,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="49.2">
+    <row r="59" spans="1:10" ht="52.8">
       <c r="A59" s="8" t="s">
         <v>543</v>
       </c>
@@ -12173,7 +12234,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="49.2">
+    <row r="60" spans="1:10" ht="52.8">
       <c r="A60" s="6" t="s">
         <v>584</v>
       </c>
@@ -12203,7 +12264,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="24.6">
+    <row r="61" spans="1:10" ht="26.4">
       <c r="A61" s="8" t="s">
         <v>584</v>
       </c>
@@ -12233,7 +12294,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="73.8">
+    <row r="62" spans="1:10" ht="79.2">
       <c r="A62" s="6" t="s">
         <v>598</v>
       </c>
@@ -12263,7 +12324,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="24.6">
+    <row r="63" spans="1:10" ht="26.4">
       <c r="A63" s="119" t="s">
         <v>606</v>
       </c>
@@ -12293,7 +12354,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="49.2">
+    <row r="64" spans="1:10" ht="52.8">
       <c r="A64" s="6" t="s">
         <v>631</v>
       </c>
@@ -12355,7 +12416,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="49.2">
+    <row r="66" spans="1:10" ht="52.8">
       <c r="A66" s="112" t="s">
         <v>646</v>
       </c>
@@ -12382,7 +12443,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="61.5">
+    <row r="67" spans="1:10" ht="66">
       <c r="A67" s="110" t="s">
         <v>646</v>
       </c>
@@ -12517,7 +12578,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="43.2">
+    <row r="72" spans="1:10" ht="39.6">
       <c r="A72" s="110" t="s">
         <v>646</v>
       </c>
@@ -12739,7 +12800,7 @@
         <v>43295</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="61.5">
+    <row r="80" spans="1:10" ht="79.2">
       <c r="A80" s="112" t="s">
         <v>559</v>
       </c>
@@ -12767,7 +12828,7 @@
         <v>43296</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="57.6">
+    <row r="81" spans="1:10" ht="66">
       <c r="A81" s="110" t="s">
         <v>559</v>
       </c>
@@ -12795,7 +12856,7 @@
         <v>43297</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="61.5">
+    <row r="82" spans="1:10" ht="66">
       <c r="A82" s="110" t="s">
         <v>559</v>
       </c>
@@ -12877,7 +12938,7 @@
         <v>43300</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="49.2">
+    <row r="85" spans="1:10" ht="52.8">
       <c r="A85" s="8" t="s">
         <v>748</v>
       </c>
@@ -12907,7 +12968,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="49.2">
+    <row r="86" spans="1:10" ht="52.8">
       <c r="A86" s="6" t="s">
         <v>757</v>
       </c>
@@ -12937,7 +12998,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="110.7">
+    <row r="87" spans="1:10" ht="118.8">
       <c r="A87" s="6" t="s">
         <v>762</v>
       </c>
@@ -12965,7 +13026,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="36.9">
+    <row r="88" spans="1:10" ht="39.6">
       <c r="A88" s="306" t="s">
         <v>774</v>
       </c>
@@ -12995,7 +13056,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="36.9">
+    <row r="89" spans="1:10" ht="39.6">
       <c r="A89" s="302"/>
       <c r="B89" s="8" t="s">
         <v>45</v>
@@ -13023,7 +13084,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="36.9">
+    <row r="90" spans="1:10" ht="39.6">
       <c r="A90" s="302"/>
       <c r="B90" s="8" t="s">
         <v>45</v>
@@ -13051,7 +13112,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="36.9">
+    <row r="91" spans="1:10" ht="39.6">
       <c r="A91" s="302"/>
       <c r="B91" s="8" t="s">
         <v>45</v>
@@ -13079,7 +13140,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="24.6">
+    <row r="92" spans="1:10" ht="39.6">
       <c r="A92" s="302"/>
       <c r="B92" s="8" t="s">
         <v>45</v>
@@ -13107,7 +13168,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="24.6">
+    <row r="93" spans="1:10" ht="39.6">
       <c r="A93" s="302"/>
       <c r="B93" s="8" t="s">
         <v>45</v>
@@ -13135,7 +13196,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="36.9">
+    <row r="94" spans="1:10" ht="39.6">
       <c r="A94" s="302"/>
       <c r="B94" s="8" t="s">
         <v>45</v>
@@ -13163,7 +13224,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="36.9">
+    <row r="95" spans="1:10" ht="39.6">
       <c r="A95" s="302"/>
       <c r="B95" s="8" t="s">
         <v>45</v>
@@ -13191,7 +13252,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="24.6">
+    <row r="96" spans="1:10" ht="26.4">
       <c r="A96" s="6" t="s">
         <v>807</v>
       </c>
@@ -13223,7 +13284,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="49.2">
+    <row r="97" spans="1:10" ht="52.8">
       <c r="A97" s="6" t="s">
         <v>828</v>
       </c>
@@ -13253,7 +13314,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="36.9">
+    <row r="98" spans="1:10" ht="39.6">
       <c r="A98" s="6" t="s">
         <v>836</v>
       </c>
@@ -13416,9 +13477,9 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="61.5">
+    <row r="104" spans="1:10" ht="66">
       <c r="A104" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>45</v>
@@ -13430,13 +13491,13 @@
         <v>2296810</v>
       </c>
       <c r="E104" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="F104" s="20" t="s">
         <v>889</v>
       </c>
-      <c r="F104" s="20" t="s">
+      <c r="G104" s="8" t="s">
         <v>890</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>891</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="12">
@@ -13446,9 +13507,9 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="61.5">
+    <row r="105" spans="1:10" ht="66">
       <c r="A105" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>45</v>
@@ -13460,13 +13521,13 @@
         <v>2425629</v>
       </c>
       <c r="E105" s="13" t="s">
+        <v>891</v>
+      </c>
+      <c r="F105" s="20" t="s">
         <v>892</v>
       </c>
-      <c r="F105" s="20" t="s">
+      <c r="G105" s="8" t="s">
         <v>893</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>894</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="12">
@@ -13478,7 +13539,7 @@
     </row>
     <row r="106" spans="1:10" ht="28.8">
       <c r="A106" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B106" s="27" t="s">
         <v>77</v>
@@ -13487,14 +13548,14 @@
         <v>22</v>
       </c>
       <c r="D106" s="82" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E106" s="13"/>
       <c r="F106" s="38" t="s">
+        <v>896</v>
+      </c>
+      <c r="G106" s="8" t="s">
         <v>897</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>898</v>
       </c>
       <c r="I106" s="12">
         <v>43270</v>
@@ -13505,7 +13566,7 @@
     </row>
     <row r="107" spans="1:10" ht="28.8">
       <c r="A107" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B107" s="27" t="s">
         <v>77</v>
@@ -13514,14 +13575,14 @@
         <v>22</v>
       </c>
       <c r="D107" s="82" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E107" s="13"/>
       <c r="F107" s="38" t="s">
+        <v>900</v>
+      </c>
+      <c r="G107" s="8" t="s">
         <v>901</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>902</v>
       </c>
       <c r="H107" s="9"/>
       <c r="I107" s="12">
@@ -13533,7 +13594,7 @@
     </row>
     <row r="108" spans="1:10" ht="28.8">
       <c r="A108" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B108" s="27" t="s">
         <v>77</v>
@@ -13542,14 +13603,14 @@
         <v>22</v>
       </c>
       <c r="D108" s="82" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E108" s="13"/>
       <c r="F108" s="38" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H108" s="9"/>
       <c r="I108" s="12">
@@ -13561,7 +13622,7 @@
     </row>
     <row r="109" spans="1:10" ht="28.8">
       <c r="A109" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B109" s="27" t="s">
         <v>77</v>
@@ -13570,14 +13631,14 @@
         <v>22</v>
       </c>
       <c r="D109" s="82" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E109" s="13"/>
       <c r="F109" s="38" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H109" s="9"/>
       <c r="I109" s="12">
@@ -13589,7 +13650,7 @@
     </row>
     <row r="110" spans="1:10" ht="28.8">
       <c r="A110" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B110" s="27" t="s">
         <v>77</v>
@@ -13598,14 +13659,14 @@
         <v>22</v>
       </c>
       <c r="D110" s="82" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E110" s="13"/>
       <c r="F110" s="38" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H110" s="9"/>
       <c r="I110" s="12">
@@ -13617,7 +13678,7 @@
     </row>
     <row r="111" spans="1:10" ht="28.8">
       <c r="A111" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B111" s="27" t="s">
         <v>77</v>
@@ -13626,14 +13687,14 @@
         <v>22</v>
       </c>
       <c r="D111" s="147" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="38" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H111" s="9"/>
       <c r="I111" s="12">
@@ -13645,7 +13706,7 @@
     </row>
     <row r="112" spans="1:10" ht="28.8">
       <c r="A112" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B112" s="27" t="s">
         <v>77</v>
@@ -13654,14 +13715,14 @@
         <v>22</v>
       </c>
       <c r="D112" s="148" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E112" s="13"/>
       <c r="F112" s="38" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H112" s="9"/>
       <c r="I112" s="12">
@@ -13673,7 +13734,7 @@
     </row>
     <row r="113" spans="1:10" ht="28.8">
       <c r="A113" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B113" s="27" t="s">
         <v>77</v>
@@ -13682,14 +13743,14 @@
         <v>22</v>
       </c>
       <c r="D113" s="149" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E113" s="13"/>
       <c r="F113" s="150" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H113" s="9"/>
       <c r="I113" s="12">
@@ -13701,7 +13762,7 @@
     </row>
     <row r="114" spans="1:10" ht="28.8">
       <c r="A114" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B114" s="27" t="s">
         <v>77</v>
@@ -13710,14 +13771,14 @@
         <v>22</v>
       </c>
       <c r="D114" s="151" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="152" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H114" s="9"/>
       <c r="I114" s="12">
@@ -13729,7 +13790,7 @@
     </row>
     <row r="115" spans="1:10" ht="28.8">
       <c r="A115" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B115" s="27" t="s">
         <v>77</v>
@@ -13738,14 +13799,14 @@
         <v>22</v>
       </c>
       <c r="D115" s="82" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="152" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="12">
@@ -13757,7 +13818,7 @@
     </row>
     <row r="116" spans="1:10" ht="28.8">
       <c r="A116" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B116" s="27" t="s">
         <v>77</v>
@@ -13766,14 +13827,14 @@
         <v>22</v>
       </c>
       <c r="D116" s="149" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="38" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H116" s="9"/>
       <c r="I116" s="12">
@@ -13783,9 +13844,9 @@
         <v>43293</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="98.4">
+    <row r="117" spans="1:10" ht="118.8">
       <c r="A117" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>45</v>
@@ -13794,19 +13855,19 @@
         <v>22</v>
       </c>
       <c r="D117" s="135" t="s">
+        <v>921</v>
+      </c>
+      <c r="E117" s="22" t="s">
         <v>922</v>
       </c>
-      <c r="E117" s="22" t="s">
+      <c r="F117" s="20" t="s">
         <v>923</v>
       </c>
-      <c r="F117" s="20" t="s">
+      <c r="G117" s="117" t="s">
         <v>924</v>
       </c>
-      <c r="G117" s="117" t="s">
+      <c r="H117" s="8" t="s">
         <v>925</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>926</v>
       </c>
       <c r="I117" s="12">
         <v>43240</v>
@@ -13815,9 +13876,9 @@
         <v>43294</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="24.6">
+    <row r="118" spans="1:10" ht="26.4">
       <c r="A118" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>45</v>
@@ -13826,14 +13887,14 @@
         <v>22</v>
       </c>
       <c r="D118" s="135" t="s">
+        <v>926</v>
+      </c>
+      <c r="E118" s="22" t="s">
         <v>927</v>
-      </c>
-      <c r="E118" s="22" t="s">
-        <v>928</v>
       </c>
       <c r="F118" s="20"/>
       <c r="G118" s="8" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H118" s="9"/>
       <c r="I118" s="12">
@@ -13845,7 +13906,7 @@
     </row>
     <row r="119" spans="1:10" ht="28.8">
       <c r="A119" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B119" s="27" t="s">
         <v>77</v>
@@ -13856,7 +13917,7 @@
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
       <c r="F119" s="38" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G119" s="111" t="s">
         <v>163</v>
@@ -13871,7 +13932,7 @@
     </row>
     <row r="120" spans="1:10" ht="28.8">
       <c r="A120" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B120" s="27" t="s">
         <v>77</v>
@@ -13884,10 +13945,10 @@
       </c>
       <c r="E120" s="13"/>
       <c r="F120" s="38" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H120" s="9"/>
       <c r="I120" s="12">
@@ -14004,7 +14065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -14014,7 +14075,7 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
@@ -14028,7 +14089,7 @@
     <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36.9">
+    <row r="1" spans="1:10" ht="39.6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -14058,7 +14119,7 @@
       </c>
       <c r="J1" s="302"/>
     </row>
-    <row r="2" spans="1:10" ht="24.6">
+    <row r="2" spans="1:10" ht="26.4">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -14074,7 +14135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="196.8">
+    <row r="3" spans="1:10" ht="211.2">
       <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
@@ -14104,7 +14165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="196.8">
+    <row r="4" spans="1:10" ht="211.2">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
@@ -14134,7 +14195,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="196.8">
+    <row r="5" spans="1:10" ht="211.2">
       <c r="A5" s="14" t="s">
         <v>19</v>
       </c>

--- a/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
+++ b/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
@@ -6030,6 +6030,12 @@
     <xf numFmtId="17" fontId="36" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="40" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6053,12 +6059,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6373,7 +6373,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6387,8 +6387,8 @@
   <dimension ref="A1:J146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
@@ -6772,7 +6772,7 @@
       <c r="E16" s="168" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="163" t="s">
+      <c r="F16" s="179" t="s">
         <v>104</v>
       </c>
       <c r="G16" s="164" t="s">
@@ -6797,7 +6797,7 @@
       <c r="E17" s="168" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="163" t="s">
+      <c r="F17" s="179" t="s">
         <v>119</v>
       </c>
       <c r="G17" s="164" t="s">
@@ -9418,7 +9418,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="41.4">
+    <row r="124" spans="1:9" ht="27.6">
       <c r="A124" s="159" t="s">
         <v>741</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>142</v>
       </c>
       <c r="C125" s="164"/>
-      <c r="D125" s="309" t="s">
+      <c r="D125" s="299" t="s">
         <v>880</v>
       </c>
       <c r="E125" s="160" t="s">
@@ -9917,10 +9917,10 @@
       <c r="H1" s="270" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="299" t="s">
+      <c r="I1" s="301" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="300"/>
+      <c r="J1" s="302"/>
     </row>
     <row r="2" spans="1:10" s="276" customFormat="1" ht="26.4">
       <c r="A2" s="273"/>
@@ -10653,7 +10653,7 @@
       <c r="I27" s="230">
         <v>43250</v>
       </c>
-      <c r="J27" s="310" t="s">
+      <c r="J27" s="300" t="s">
         <v>1049</v>
       </c>
     </row>
@@ -10817,10 +10817,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="303" t="s">
+      <c r="I1" s="305" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="302"/>
+      <c r="J1" s="304"/>
     </row>
     <row r="2" spans="1:10" ht="26.4">
       <c r="A2" s="1"/>
@@ -10891,13 +10891,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="86.4">
-      <c r="A5" s="306" t="s">
+      <c r="A5" s="308" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="301" t="s">
+      <c r="B5" s="303" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="303" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -10919,9 +10919,9 @@
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="86.4">
-      <c r="A6" s="302"/>
-      <c r="B6" s="302"/>
-      <c r="C6" s="302"/>
+      <c r="A6" s="304"/>
+      <c r="B6" s="304"/>
+      <c r="C6" s="304"/>
       <c r="D6" s="13" t="s">
         <v>68</v>
       </c>
@@ -10939,7 +10939,7 @@
       <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10" ht="39.6">
-      <c r="A7" s="306" t="s">
+      <c r="A7" s="308" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -10969,7 +10969,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="39.6">
-      <c r="A8" s="302"/>
+      <c r="A8" s="304"/>
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
@@ -10996,7 +10996,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="39.6">
-      <c r="A9" s="305"/>
+      <c r="A9" s="307"/>
       <c r="B9" s="41" t="s">
         <v>21</v>
       </c>
@@ -11048,7 +11048,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="39.6">
-      <c r="A11" s="307" t="s">
+      <c r="A11" s="309" t="s">
         <v>117</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -11077,7 +11077,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="39.6">
-      <c r="A12" s="302"/>
+      <c r="A12" s="304"/>
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
@@ -11104,7 +11104,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="39.6">
-      <c r="A13" s="302"/>
+      <c r="A13" s="304"/>
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -11131,7 +11131,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="39.6">
-      <c r="A14" s="302"/>
+      <c r="A14" s="304"/>
       <c r="B14" s="41" t="s">
         <v>21</v>
       </c>
@@ -11525,7 +11525,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="39.6">
-      <c r="A36" s="304" t="s">
+      <c r="A36" s="306" t="s">
         <v>370</v>
       </c>
       <c r="B36" s="77" t="s">
@@ -11555,7 +11555,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="39.6">
-      <c r="A37" s="302"/>
+      <c r="A37" s="304"/>
       <c r="B37" s="8" t="s">
         <v>21</v>
       </c>
@@ -11583,7 +11583,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="66">
-      <c r="A38" s="302"/>
+      <c r="A38" s="304"/>
       <c r="B38" s="8" t="s">
         <v>21</v>
       </c>
@@ -11611,7 +11611,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="39.6">
-      <c r="A39" s="302"/>
+      <c r="A39" s="304"/>
       <c r="B39" s="8" t="s">
         <v>21</v>
       </c>
@@ -11639,7 +11639,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="39.6">
-      <c r="A40" s="302"/>
+      <c r="A40" s="304"/>
       <c r="B40" s="8" t="s">
         <v>21</v>
       </c>
@@ -11667,7 +11667,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="39.6">
-      <c r="A41" s="302"/>
+      <c r="A41" s="304"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
       </c>
@@ -11695,7 +11695,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="39.6">
-      <c r="A42" s="302"/>
+      <c r="A42" s="304"/>
       <c r="B42" s="8" t="s">
         <v>21</v>
       </c>
@@ -11723,7 +11723,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="39.6">
-      <c r="A43" s="302"/>
+      <c r="A43" s="304"/>
       <c r="B43" s="8" t="s">
         <v>21</v>
       </c>
@@ -11751,7 +11751,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="39.6">
-      <c r="A44" s="302"/>
+      <c r="A44" s="304"/>
       <c r="B44" s="8" t="s">
         <v>21</v>
       </c>
@@ -11779,7 +11779,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="39.6">
-      <c r="A45" s="305"/>
+      <c r="A45" s="307"/>
       <c r="B45" s="41" t="s">
         <v>21</v>
       </c>
@@ -11867,7 +11867,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="66">
-      <c r="A48" s="304" t="s">
+      <c r="A48" s="306" t="s">
         <v>490</v>
       </c>
       <c r="B48" s="77" t="s">
@@ -11897,7 +11897,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="39.6">
-      <c r="A49" s="305"/>
+      <c r="A49" s="307"/>
       <c r="B49" s="41" t="s">
         <v>21</v>
       </c>
@@ -13027,7 +13027,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="39.6">
-      <c r="A88" s="306" t="s">
+      <c r="A88" s="308" t="s">
         <v>774</v>
       </c>
       <c r="B88" s="8" t="s">
@@ -13057,7 +13057,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="39.6">
-      <c r="A89" s="302"/>
+      <c r="A89" s="304"/>
       <c r="B89" s="8" t="s">
         <v>45</v>
       </c>
@@ -13085,7 +13085,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="39.6">
-      <c r="A90" s="302"/>
+      <c r="A90" s="304"/>
       <c r="B90" s="8" t="s">
         <v>45</v>
       </c>
@@ -13113,7 +13113,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="39.6">
-      <c r="A91" s="302"/>
+      <c r="A91" s="304"/>
       <c r="B91" s="8" t="s">
         <v>45</v>
       </c>
@@ -13141,7 +13141,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="39.6">
-      <c r="A92" s="302"/>
+      <c r="A92" s="304"/>
       <c r="B92" s="8" t="s">
         <v>45</v>
       </c>
@@ -13169,7 +13169,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="39.6">
-      <c r="A93" s="302"/>
+      <c r="A93" s="304"/>
       <c r="B93" s="8" t="s">
         <v>45</v>
       </c>
@@ -13197,7 +13197,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="39.6">
-      <c r="A94" s="302"/>
+      <c r="A94" s="304"/>
       <c r="B94" s="8" t="s">
         <v>45</v>
       </c>
@@ -13225,7 +13225,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="39.6">
-      <c r="A95" s="302"/>
+      <c r="A95" s="304"/>
       <c r="B95" s="8" t="s">
         <v>45</v>
       </c>
@@ -14114,10 +14114,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="308" t="s">
+      <c r="I1" s="310" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="302"/>
+      <c r="J1" s="304"/>
     </row>
     <row r="2" spans="1:10" ht="26.4">
       <c r="A2" s="3"/>

--- a/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
+++ b/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="1056">
   <si>
     <t>TM</t>
   </si>
@@ -1270,10 +1270,6 @@
     <t>clotrimazole 1 % and fluconazole 150 mg NA</t>
   </si>
   <si>
-    <t>Julie: Combo  product
-Two of the DINs are identical - Louise to check email from Julie.</t>
-  </si>
-  <si>
     <t>clotrimazole 1% vaginal cream with fluconazole 150 mg oral capsule</t>
   </si>
   <si>
@@ -1787,9 +1783,6 @@
   </si>
   <si>
     <t>Not yet generated.</t>
-  </si>
-  <si>
-    <t>Louise: Need to check product label and potentially change the strength in DPD to match what clinicians will see and use (i.e., 90 mg per vial). BFJ</t>
   </si>
   <si>
     <t>Suggested ntp: enfuvirtide 90* mg per vial powder for solution for injection 
@@ -1884,10 +1877,6 @@
     <t>02462850</t>
   </si>
   <si>
-    <t>DPD: strength = 50 mg per 1 mL
-Unit of presentation: syringe*</t>
-  </si>
-  <si>
     <t>02244475</t>
   </si>
   <si>
@@ -4496,6 +4485,45 @@
   </si>
   <si>
     <t>Louise: change to solution (currently liquid)</t>
+  </si>
+  <si>
+    <t>Ingredients from label: Citric acid, colour, flavour, potassium sorbate, propylene glycol, purified water, sodium citrate, sucrose jh Aug 2</t>
+  </si>
+  <si>
+    <t>From label: alcohol free liquid; Ingredients: citric acid, colour, flavour, glycerin, water, sodium benzoate, sodium citrate, sorbitol, sucralose jh Aug 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Julie: Combo  product
+Two of the DINs are identical - Louise to check email from Julie. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;JH&gt; DINs 02445131 and 0241727 are indeed the same manufactured products but one product (1727) is produced and packaged for another company with different labelling. JH Aug2-18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Louise: Need to check product label and potentially change the strength in DPD to match what clinicians will see and use (i.e., 90 mg per vial). BFJ; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Label sent to Barb Aug 2/18 jh</t>
+    </r>
+  </si>
+  <si>
+    <t>Louise: strength = 50 mg per 1 mL
+Unit of presentation: syringe*</t>
   </si>
 </sst>
 </file>
@@ -6373,7 +6401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6387,8 +6415,8 @@
   <dimension ref="A1:J146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
@@ -6461,7 +6489,7 @@
     </row>
     <row r="3" spans="1:10" ht="96.6">
       <c r="A3" s="159" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B3" s="160"/>
       <c r="C3" s="160"/>
@@ -6469,10 +6497,10 @@
         <v>2246848</v>
       </c>
       <c r="E3" s="219" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="F3" s="163" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="G3" s="160"/>
       <c r="H3" s="164"/>
@@ -6582,20 +6610,20 @@
     </row>
     <row r="8" spans="1:10" ht="317.39999999999998">
       <c r="A8" s="170" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B8" s="164" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C8" s="160"/>
       <c r="D8" s="171">
         <v>2368196</v>
       </c>
       <c r="E8" s="172" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F8" s="163" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="G8" s="160"/>
       <c r="H8" s="164"/>
@@ -6603,20 +6631,20 @@
     </row>
     <row r="9" spans="1:10" ht="331.2">
       <c r="A9" s="173" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B9" s="164" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C9" s="160"/>
       <c r="D9" s="174">
         <v>2388537</v>
       </c>
       <c r="E9" s="172" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="F9" s="163" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="G9" s="160"/>
       <c r="H9" s="164"/>
@@ -6624,20 +6652,20 @@
     </row>
     <row r="10" spans="1:10" ht="409.6">
       <c r="A10" s="170" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B10" s="164" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C10" s="160"/>
       <c r="D10" s="174">
         <v>2383608</v>
       </c>
       <c r="E10" s="175" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="F10" s="176" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="G10" s="176"/>
       <c r="H10" s="164"/>
@@ -6645,23 +6673,23 @@
     </row>
     <row r="11" spans="1:10" ht="69">
       <c r="A11" s="173" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B11" s="164" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C11" s="160"/>
       <c r="D11" s="193" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="E11" s="221" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="F11" s="166" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="G11" s="176" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="H11" s="164"/>
       <c r="I11" s="165">
@@ -6670,18 +6698,18 @@
     </row>
     <row r="12" spans="1:10" ht="27.6">
       <c r="A12" s="170" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B12" s="164" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C12" s="160"/>
       <c r="D12" s="222" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E12" s="166"/>
       <c r="F12" s="166" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="G12" s="176"/>
       <c r="H12" s="164"/>
@@ -6691,23 +6719,23 @@
     </row>
     <row r="13" spans="1:10" ht="41.4">
       <c r="A13" s="173" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B13" s="164" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C13" s="160"/>
       <c r="D13" s="222" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E13" s="221" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="F13" s="166" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G13" s="176" t="s">
         <v>1015</v>
-      </c>
-      <c r="G13" s="176" t="s">
-        <v>1018</v>
       </c>
       <c r="H13" s="164"/>
       <c r="I13" s="165">
@@ -6731,11 +6759,11 @@
         <v>92</v>
       </c>
       <c r="F14" s="163" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G14" s="180"/>
       <c r="H14" s="181" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="I14" s="165">
         <v>43196</v>
@@ -6912,7 +6940,7 @@
       </c>
       <c r="D22" s="186"/>
       <c r="E22" s="168" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F22" s="185" t="s">
         <v>175</v>
@@ -7194,7 +7222,7 @@
       </c>
       <c r="E34" s="168"/>
       <c r="F34" s="163" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="G34" s="180"/>
       <c r="I34" s="165">
@@ -7217,7 +7245,7 @@
         <v>240</v>
       </c>
       <c r="G35" s="160" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="H35" s="164"/>
       <c r="I35" s="165">
@@ -7259,16 +7287,18 @@
         <v>247</v>
       </c>
       <c r="E37" s="168" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F37" s="163" t="s">
         <v>251</v>
       </c>
-      <c r="G37" s="160"/>
+      <c r="G37" s="160" t="s">
+        <v>1051</v>
+      </c>
       <c r="H37" s="164"/>
       <c r="I37" s="165"/>
     </row>
-    <row r="38" spans="1:10" ht="55.2">
+    <row r="38" spans="1:10" ht="69">
       <c r="A38" s="182" t="s">
         <v>245</v>
       </c>
@@ -7280,18 +7310,20 @@
         <v>253</v>
       </c>
       <c r="E38" s="168" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="F38" s="163" t="s">
         <v>251</v>
       </c>
-      <c r="G38" s="160"/>
+      <c r="G38" s="160" t="s">
+        <v>1052</v>
+      </c>
       <c r="H38" s="164"/>
       <c r="I38" s="165"/>
     </row>
     <row r="39" spans="1:10" ht="317.39999999999998">
       <c r="A39" s="159" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B39" s="160" t="s">
         <v>257</v>
@@ -7301,10 +7333,10 @@
         <v>258</v>
       </c>
       <c r="E39" s="172" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F39" s="163" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="G39" s="191"/>
       <c r="H39" s="192"/>
@@ -7312,24 +7344,24 @@
         <v>9005524</v>
       </c>
       <c r="J39" s="192" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="303.60000000000002">
       <c r="A40" s="182" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B40" s="166" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C40" s="193">
         <v>2399733</v>
       </c>
       <c r="E40" s="172" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F40" s="194" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G40" s="191"/>
       <c r="H40" s="192"/>
@@ -7375,7 +7407,7 @@
         <v>275</v>
       </c>
       <c r="F42" s="185" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="G42" s="185" t="s">
         <v>276</v>
@@ -7404,7 +7436,7 @@
         <v>281</v>
       </c>
       <c r="F43" s="185" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G43" s="185" t="s">
         <v>284</v>
@@ -7433,7 +7465,7 @@
         <v>286</v>
       </c>
       <c r="F44" s="163" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G44" s="185" t="s">
         <v>287</v>
@@ -7465,10 +7497,10 @@
         <v>299</v>
       </c>
       <c r="G45" s="160" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="H45" s="181" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="I45" s="165">
         <v>43292</v>
@@ -7497,7 +7529,7 @@
         <v>300</v>
       </c>
       <c r="H46" s="181" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="I46" s="165">
         <v>43292</v>
@@ -7520,19 +7552,19 @@
         <v>312</v>
       </c>
       <c r="F47" s="187" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="G47" s="160" t="s">
         <v>313</v>
       </c>
       <c r="H47" s="181" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I47" s="165">
         <v>43292</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="55.2">
+    <row r="48" spans="1:10" ht="151.80000000000001">
       <c r="A48" s="159" t="s">
         <v>316</v>
       </c>
@@ -7549,10 +7581,10 @@
         <v>320</v>
       </c>
       <c r="F48" s="185" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G48" s="160" t="s">
         <v>321</v>
-      </c>
-      <c r="G48" s="160" t="s">
-        <v>322</v>
       </c>
       <c r="H48" s="164"/>
       <c r="I48" s="165">
@@ -7561,7 +7593,7 @@
     </row>
     <row r="49" spans="1:9" ht="69.599999999999994">
       <c r="A49" s="159" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B49" s="164" t="s">
         <v>21</v>
@@ -7570,13 +7602,13 @@
         <v>22</v>
       </c>
       <c r="D49" s="186" t="s">
+        <v>338</v>
+      </c>
+      <c r="E49" s="168" t="s">
         <v>339</v>
       </c>
-      <c r="E49" s="168" t="s">
-        <v>340</v>
-      </c>
       <c r="F49" s="163" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G49" s="185"/>
       <c r="H49" s="164"/>
@@ -7586,7 +7618,7 @@
     </row>
     <row r="50" spans="1:9" ht="41.4">
       <c r="A50" s="159" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B50" s="164" t="s">
         <v>21</v>
@@ -7595,16 +7627,16 @@
         <v>22</v>
       </c>
       <c r="D50" s="161" t="s">
+        <v>343</v>
+      </c>
+      <c r="E50" s="168" t="s">
         <v>344</v>
       </c>
-      <c r="E50" s="168" t="s">
+      <c r="F50" s="197" t="s">
         <v>345</v>
       </c>
-      <c r="F50" s="197" t="s">
-        <v>346</v>
-      </c>
       <c r="G50" s="185" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="H50" s="164"/>
       <c r="I50" s="165">
@@ -7613,7 +7645,7 @@
     </row>
     <row r="51" spans="1:9" ht="41.4">
       <c r="A51" s="159" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B51" s="164" t="s">
         <v>21</v>
@@ -7622,16 +7654,16 @@
         <v>22</v>
       </c>
       <c r="D51" s="161" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E51" s="168" t="s">
+        <v>344</v>
+      </c>
+      <c r="F51" s="197" t="s">
         <v>345</v>
       </c>
-      <c r="F51" s="197" t="s">
-        <v>346</v>
-      </c>
       <c r="G51" s="185" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="H51" s="164"/>
       <c r="I51" s="165">
@@ -7640,41 +7672,41 @@
     </row>
     <row r="52" spans="1:9" ht="193.2">
       <c r="A52" s="198" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B52" s="164" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C52" s="164"/>
       <c r="D52" s="161" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E52" s="168"/>
       <c r="F52" s="199" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G52" s="185" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H52" s="164"/>
       <c r="I52" s="165"/>
     </row>
     <row r="53" spans="1:9" ht="27.6">
       <c r="A53" s="198" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B53" s="164" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C53" s="164"/>
       <c r="D53" s="161" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E53" s="168" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="F53" s="215" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="G53" s="185"/>
       <c r="H53" s="164"/>
@@ -7684,23 +7716,23 @@
     </row>
     <row r="54" spans="1:9" ht="27.6">
       <c r="A54" s="159" t="s">
+        <v>365</v>
+      </c>
+      <c r="B54" s="160" t="s">
         <v>366</v>
-      </c>
-      <c r="B54" s="160" t="s">
-        <v>367</v>
       </c>
       <c r="C54" s="160"/>
       <c r="D54" s="160" t="s">
+        <v>367</v>
+      </c>
+      <c r="E54" s="168" t="s">
         <v>368</v>
       </c>
-      <c r="E54" s="168" t="s">
-        <v>369</v>
-      </c>
       <c r="F54" s="197" t="s">
+        <v>370</v>
+      </c>
+      <c r="G54" s="164" t="s">
         <v>371</v>
-      </c>
-      <c r="G54" s="164" t="s">
-        <v>372</v>
       </c>
       <c r="H54" s="164"/>
       <c r="I54" s="165">
@@ -7709,20 +7741,20 @@
     </row>
     <row r="55" spans="1:9" ht="179.4">
       <c r="A55" s="159" t="s">
+        <v>365</v>
+      </c>
+      <c r="B55" s="160" t="s">
         <v>366</v>
-      </c>
-      <c r="B55" s="160" t="s">
-        <v>367</v>
       </c>
       <c r="C55" s="160"/>
       <c r="D55" s="160" t="s">
+        <v>372</v>
+      </c>
+      <c r="E55" s="168" t="s">
         <v>373</v>
       </c>
-      <c r="E55" s="168" t="s">
+      <c r="F55" s="199" t="s">
         <v>374</v>
-      </c>
-      <c r="F55" s="199" t="s">
-        <v>375</v>
       </c>
       <c r="G55" s="164"/>
       <c r="H55" s="164"/>
@@ -7732,25 +7764,25 @@
     </row>
     <row r="56" spans="1:9" ht="41.4">
       <c r="A56" s="159" t="s">
+        <v>375</v>
+      </c>
+      <c r="B56" s="160" t="s">
         <v>376</v>
-      </c>
-      <c r="B56" s="160" t="s">
-        <v>377</v>
       </c>
       <c r="C56" s="160" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="160" t="s">
+        <v>377</v>
+      </c>
+      <c r="E56" s="168" t="s">
         <v>378</v>
       </c>
-      <c r="E56" s="168" t="s">
+      <c r="F56" s="199" t="s">
         <v>379</v>
       </c>
-      <c r="F56" s="199" t="s">
+      <c r="G56" s="164" t="s">
         <v>380</v>
-      </c>
-      <c r="G56" s="164" t="s">
-        <v>381</v>
       </c>
       <c r="H56" s="164"/>
       <c r="I56" s="165">
@@ -7759,20 +7791,20 @@
     </row>
     <row r="57" spans="1:9" ht="41.4">
       <c r="A57" s="182" t="s">
+        <v>375</v>
+      </c>
+      <c r="B57" s="160" t="s">
         <v>376</v>
-      </c>
-      <c r="B57" s="160" t="s">
-        <v>377</v>
       </c>
       <c r="C57" s="160" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="160" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E57" s="168"/>
       <c r="F57" s="197" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G57" s="164"/>
       <c r="H57" s="164"/>
@@ -7782,20 +7814,20 @@
     </row>
     <row r="58" spans="1:9" ht="41.4">
       <c r="A58" s="182" t="s">
+        <v>375</v>
+      </c>
+      <c r="B58" s="160" t="s">
         <v>376</v>
-      </c>
-      <c r="B58" s="160" t="s">
-        <v>377</v>
       </c>
       <c r="C58" s="160" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="160" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E58" s="168"/>
       <c r="F58" s="197" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G58" s="164"/>
       <c r="H58" s="164"/>
@@ -7805,20 +7837,20 @@
     </row>
     <row r="59" spans="1:9" ht="41.4">
       <c r="A59" s="182" t="s">
+        <v>375</v>
+      </c>
+      <c r="B59" s="160" t="s">
         <v>376</v>
-      </c>
-      <c r="B59" s="160" t="s">
-        <v>377</v>
       </c>
       <c r="C59" s="160" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="160" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E59" s="168"/>
       <c r="F59" s="197" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G59" s="164"/>
       <c r="H59" s="164"/>
@@ -7828,22 +7860,22 @@
     </row>
     <row r="60" spans="1:9" ht="55.2">
       <c r="A60" s="182" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B60" s="160" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C60" s="160" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="160" t="s">
+        <v>387</v>
+      </c>
+      <c r="E60" s="168" t="s">
+        <v>940</v>
+      </c>
+      <c r="F60" s="199" t="s">
         <v>388</v>
-      </c>
-      <c r="E60" s="168" t="s">
-        <v>943</v>
-      </c>
-      <c r="F60" s="199" t="s">
-        <v>389</v>
       </c>
       <c r="G60" s="164"/>
       <c r="H60" s="164"/>
@@ -7851,20 +7883,20 @@
     </row>
     <row r="61" spans="1:9" ht="41.4">
       <c r="A61" s="159" t="s">
+        <v>389</v>
+      </c>
+      <c r="B61" s="160" t="s">
         <v>390</v>
-      </c>
-      <c r="B61" s="160" t="s">
-        <v>391</v>
       </c>
       <c r="C61" s="160"/>
       <c r="D61" s="160" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E61" s="168" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F61" s="199" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G61" s="164"/>
       <c r="H61" s="164"/>
@@ -7875,19 +7907,19 @@
         <v>76</v>
       </c>
       <c r="B62" s="164" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C62" s="164" t="s">
         <v>22</v>
       </c>
       <c r="D62" s="164" t="s">
+        <v>395</v>
+      </c>
+      <c r="E62" s="162" t="s">
         <v>396</v>
       </c>
-      <c r="E62" s="162" t="s">
+      <c r="F62" s="185" t="s">
         <v>397</v>
-      </c>
-      <c r="F62" s="185" t="s">
-        <v>398</v>
       </c>
       <c r="H62" s="164"/>
       <c r="I62" s="165">
@@ -7908,13 +7940,13 @@
         <v>2320789</v>
       </c>
       <c r="E63" s="168" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F63" s="199" t="s">
+        <v>401</v>
+      </c>
+      <c r="G63" s="164" t="s">
         <v>402</v>
-      </c>
-      <c r="G63" s="164" t="s">
-        <v>403</v>
       </c>
       <c r="H63" s="164"/>
       <c r="I63" s="165">
@@ -7932,16 +7964,16 @@
         <v>22</v>
       </c>
       <c r="D64" s="200" t="s">
+        <v>403</v>
+      </c>
+      <c r="E64" s="168" t="s">
+        <v>399</v>
+      </c>
+      <c r="F64" s="199" t="s">
+        <v>401</v>
+      </c>
+      <c r="G64" s="164" t="s">
         <v>404</v>
-      </c>
-      <c r="E64" s="168" t="s">
-        <v>400</v>
-      </c>
-      <c r="F64" s="199" t="s">
-        <v>402</v>
-      </c>
-      <c r="G64" s="164" t="s">
-        <v>405</v>
       </c>
       <c r="H64" s="164"/>
       <c r="I64" s="165">
@@ -7959,16 +7991,16 @@
         <v>22</v>
       </c>
       <c r="D65" s="200" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E65" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F65" s="199" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G65" s="164" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H65" s="164"/>
       <c r="I65" s="165">
@@ -7986,16 +8018,16 @@
         <v>22</v>
       </c>
       <c r="D66" s="200" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E66" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F66" s="199" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G66" s="200" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H66" s="164"/>
       <c r="I66" s="165">
@@ -8013,16 +8045,16 @@
         <v>22</v>
       </c>
       <c r="D67" s="200" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E67" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F67" s="199" t="s">
+        <v>415</v>
+      </c>
+      <c r="G67" s="200" t="s">
         <v>416</v>
-      </c>
-      <c r="G67" s="200" t="s">
-        <v>417</v>
       </c>
       <c r="H67" s="164"/>
       <c r="I67" s="165"/>
@@ -8038,16 +8070,16 @@
         <v>22</v>
       </c>
       <c r="D68" s="200" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E68" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F68" s="199" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G68" s="200" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H68" s="164"/>
       <c r="I68" s="165"/>
@@ -8063,16 +8095,16 @@
         <v>22</v>
       </c>
       <c r="D69" s="186" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E69" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F69" s="199" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G69" s="200" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H69" s="164"/>
       <c r="I69" s="165"/>
@@ -8088,16 +8120,16 @@
         <v>22</v>
       </c>
       <c r="D70" s="186" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E70" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F70" s="199" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G70" s="200" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H70" s="164"/>
       <c r="I70" s="165"/>
@@ -8113,23 +8145,23 @@
         <v>22</v>
       </c>
       <c r="D71" s="186" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E71" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F71" s="199" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G71" s="200" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H71" s="164"/>
       <c r="I71" s="165"/>
     </row>
     <row r="72" spans="1:9" ht="262.2">
       <c r="A72" s="159" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B72" s="160" t="s">
         <v>77</v>
@@ -8141,20 +8173,20 @@
         <v>2368196</v>
       </c>
       <c r="E72" s="168" t="s">
+        <v>438</v>
+      </c>
+      <c r="F72" s="199" t="s">
         <v>439</v>
       </c>
-      <c r="F72" s="199" t="s">
+      <c r="G72" s="200" t="s">
         <v>440</v>
-      </c>
-      <c r="G72" s="200" t="s">
-        <v>441</v>
       </c>
       <c r="H72" s="164"/>
       <c r="I72" s="165"/>
     </row>
     <row r="73" spans="1:9" ht="41.4">
       <c r="A73" s="182" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B73" s="160" t="s">
         <v>77</v>
@@ -8169,10 +8201,10 @@
         <v>100</v>
       </c>
       <c r="F73" s="199" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G73" s="200" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H73" s="164"/>
       <c r="I73" s="165">
@@ -8181,7 +8213,7 @@
     </row>
     <row r="74" spans="1:9" ht="55.2">
       <c r="A74" s="159" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B74" s="160" t="s">
         <v>77</v>
@@ -8196,10 +8228,10 @@
         <v>100</v>
       </c>
       <c r="F74" s="199" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G74" s="200" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H74" s="164"/>
       <c r="I74" s="165">
@@ -8208,20 +8240,20 @@
     </row>
     <row r="75" spans="1:9" ht="55.2">
       <c r="A75" s="203" t="s">
+        <v>446</v>
+      </c>
+      <c r="B75" s="160" t="s">
         <v>447</v>
-      </c>
-      <c r="B75" s="160" t="s">
-        <v>448</v>
       </c>
       <c r="C75" s="160"/>
       <c r="D75" s="200" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E75" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F75" s="199" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G75" s="200"/>
       <c r="H75" s="164"/>
@@ -8231,7 +8263,7 @@
     </row>
     <row r="76" spans="1:9" ht="193.2">
       <c r="A76" s="159" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B76" s="160" t="s">
         <v>77</v>
@@ -8243,13 +8275,13 @@
         <v>2410583</v>
       </c>
       <c r="E76" s="168" t="s">
+        <v>450</v>
+      </c>
+      <c r="F76" s="199" t="s">
+        <v>448</v>
+      </c>
+      <c r="G76" s="200" t="s">
         <v>451</v>
-      </c>
-      <c r="F76" s="199" t="s">
-        <v>449</v>
-      </c>
-      <c r="G76" s="200" t="s">
-        <v>452</v>
       </c>
       <c r="H76" s="164"/>
       <c r="I76" s="165">
@@ -8258,23 +8290,23 @@
     </row>
     <row r="77" spans="1:9" ht="55.2">
       <c r="A77" s="159" t="s">
+        <v>453</v>
+      </c>
+      <c r="B77" s="160" t="s">
         <v>454</v>
       </c>
-      <c r="B77" s="160" t="s">
+      <c r="C77" s="160" t="s">
         <v>455</v>
-      </c>
-      <c r="C77" s="160" t="s">
-        <v>456</v>
       </c>
       <c r="D77" s="164" t="s">
         <v>203</v>
       </c>
       <c r="E77" s="204"/>
       <c r="F77" s="199" t="s">
+        <v>456</v>
+      </c>
+      <c r="G77" s="164" t="s">
         <v>457</v>
-      </c>
-      <c r="G77" s="164" t="s">
-        <v>458</v>
       </c>
       <c r="H77" s="164"/>
       <c r="I77" s="165">
@@ -8283,21 +8315,21 @@
     </row>
     <row r="78" spans="1:9" ht="55.2">
       <c r="A78" s="182" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B78" s="160"/>
       <c r="C78" s="160"/>
       <c r="D78" s="160" t="s">
+        <v>458</v>
+      </c>
+      <c r="E78" s="168" t="s">
         <v>459</v>
       </c>
-      <c r="E78" s="168" t="s">
+      <c r="F78" s="197" t="s">
         <v>460</v>
       </c>
-      <c r="F78" s="197" t="s">
+      <c r="G78" s="164" t="s">
         <v>461</v>
-      </c>
-      <c r="G78" s="164" t="s">
-        <v>462</v>
       </c>
       <c r="H78" s="164"/>
       <c r="I78" s="165">
@@ -8306,50 +8338,50 @@
     </row>
     <row r="79" spans="1:9" ht="151.80000000000001">
       <c r="A79" s="159" t="s">
+        <v>462</v>
+      </c>
+      <c r="B79" s="160" t="s">
+        <v>454</v>
+      </c>
+      <c r="C79" s="160" t="s">
         <v>463</v>
-      </c>
-      <c r="B79" s="160" t="s">
-        <v>455</v>
-      </c>
-      <c r="C79" s="160" t="s">
-        <v>464</v>
       </c>
       <c r="D79" s="164" t="s">
         <v>13</v>
       </c>
       <c r="E79" s="204"/>
       <c r="F79" s="197" t="s">
+        <v>465</v>
+      </c>
+      <c r="G79" s="164" t="s">
         <v>466</v>
       </c>
-      <c r="G79" s="164" t="s">
-        <v>467</v>
-      </c>
       <c r="H79" s="164" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I79" s="165">
         <v>43196</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="124.2">
+    <row r="80" spans="1:9" ht="138">
       <c r="A80" s="159" t="s">
+        <v>467</v>
+      </c>
+      <c r="B80" s="160" t="s">
         <v>468</v>
-      </c>
-      <c r="B80" s="160" t="s">
-        <v>469</v>
       </c>
       <c r="C80" s="160"/>
       <c r="D80" s="161" t="s">
+        <v>469</v>
+      </c>
+      <c r="E80" s="168" t="s">
         <v>470</v>
       </c>
-      <c r="E80" s="168" t="s">
+      <c r="F80" s="199" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G80" s="164" t="s">
         <v>471</v>
-      </c>
-      <c r="F80" s="199" t="s">
-        <v>472</v>
-      </c>
-      <c r="G80" s="164" t="s">
-        <v>473</v>
       </c>
       <c r="H80" s="164"/>
       <c r="I80" s="165">
@@ -8358,7 +8390,7 @@
     </row>
     <row r="81" spans="1:9" ht="409.6">
       <c r="A81" s="159" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B81" s="164" t="s">
         <v>45</v>
@@ -8367,16 +8399,16 @@
         <v>8001266</v>
       </c>
       <c r="D81" s="186" t="s">
+        <v>480</v>
+      </c>
+      <c r="E81" s="178" t="s">
+        <v>481</v>
+      </c>
+      <c r="F81" s="185" t="s">
         <v>482</v>
       </c>
-      <c r="E81" s="178" t="s">
+      <c r="G81" s="164" t="s">
         <v>483</v>
-      </c>
-      <c r="F81" s="185" t="s">
-        <v>484</v>
-      </c>
-      <c r="G81" s="164" t="s">
-        <v>485</v>
       </c>
       <c r="H81" s="164"/>
       <c r="I81" s="165">
@@ -8385,7 +8417,7 @@
     </row>
     <row r="82" spans="1:9" ht="41.4">
       <c r="A82" s="182" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B82" s="164" t="s">
         <v>45</v>
@@ -8394,16 +8426,16 @@
         <v>8001266</v>
       </c>
       <c r="D82" s="186" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E82" s="168" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F82" s="185" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G82" s="164" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H82" s="164"/>
       <c r="I82" s="165">
@@ -8412,7 +8444,7 @@
     </row>
     <row r="83" spans="1:9" ht="69">
       <c r="A83" s="182" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B83" s="164" t="s">
         <v>45</v>
@@ -8421,16 +8453,16 @@
         <v>8001266</v>
       </c>
       <c r="D83" s="186" t="s">
+        <v>490</v>
+      </c>
+      <c r="E83" s="205" t="s">
+        <v>491</v>
+      </c>
+      <c r="F83" s="185" t="s">
         <v>492</v>
       </c>
-      <c r="E83" s="205" t="s">
+      <c r="G83" s="164" t="s">
         <v>493</v>
-      </c>
-      <c r="F83" s="185" t="s">
-        <v>494</v>
-      </c>
-      <c r="G83" s="164" t="s">
-        <v>495</v>
       </c>
       <c r="H83" s="164"/>
       <c r="I83" s="165">
@@ -8439,7 +8471,7 @@
     </row>
     <row r="84" spans="1:9" ht="55.2">
       <c r="A84" s="182" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B84" s="164" t="s">
         <v>45</v>
@@ -8448,16 +8480,16 @@
         <v>8001266</v>
       </c>
       <c r="D84" s="186" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E84" s="168" t="s">
+        <v>481</v>
+      </c>
+      <c r="F84" s="185" t="s">
+        <v>495</v>
+      </c>
+      <c r="G84" s="166" t="s">
         <v>483</v>
-      </c>
-      <c r="F84" s="185" t="s">
-        <v>497</v>
-      </c>
-      <c r="G84" s="166" t="s">
-        <v>485</v>
       </c>
       <c r="H84" s="160"/>
       <c r="I84" s="165">
@@ -8466,7 +8498,7 @@
     </row>
     <row r="85" spans="1:9" ht="138">
       <c r="A85" s="182" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B85" s="164" t="s">
         <v>45</v>
@@ -8475,16 +8507,16 @@
         <v>8001266</v>
       </c>
       <c r="D85" s="186" t="s">
+        <v>496</v>
+      </c>
+      <c r="E85" s="162" t="s">
+        <v>481</v>
+      </c>
+      <c r="F85" s="187" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G85" s="185" t="s">
         <v>498</v>
-      </c>
-      <c r="E85" s="162" t="s">
-        <v>483</v>
-      </c>
-      <c r="F85" s="185" t="s">
-        <v>499</v>
-      </c>
-      <c r="G85" s="185" t="s">
-        <v>501</v>
       </c>
       <c r="H85" s="180"/>
       <c r="I85" s="165">
@@ -8493,7 +8525,7 @@
     </row>
     <row r="86" spans="1:9" ht="69">
       <c r="A86" s="182" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B86" s="164" t="s">
         <v>45</v>
@@ -8502,16 +8534,16 @@
         <v>8001266</v>
       </c>
       <c r="D86" s="186" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E86" s="162" t="s">
-        <v>483</v>
-      </c>
-      <c r="F86" s="185" t="s">
-        <v>503</v>
+        <v>481</v>
+      </c>
+      <c r="F86" s="187" t="s">
+        <v>500</v>
       </c>
       <c r="G86" s="164" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H86" s="164"/>
       <c r="I86" s="165">
@@ -8520,7 +8552,7 @@
     </row>
     <row r="87" spans="1:9" ht="69">
       <c r="A87" s="182" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B87" s="164" t="s">
         <v>45</v>
@@ -8529,16 +8561,16 @@
         <v>8001266</v>
       </c>
       <c r="D87" s="186" t="s">
+        <v>502</v>
+      </c>
+      <c r="E87" s="162" t="s">
+        <v>503</v>
+      </c>
+      <c r="F87" s="187" t="s">
+        <v>504</v>
+      </c>
+      <c r="G87" s="164" t="s">
         <v>505</v>
-      </c>
-      <c r="E87" s="162" t="s">
-        <v>506</v>
-      </c>
-      <c r="F87" s="185" t="s">
-        <v>507</v>
-      </c>
-      <c r="G87" s="164" t="s">
-        <v>508</v>
       </c>
       <c r="H87" s="164"/>
       <c r="I87" s="165">
@@ -8547,19 +8579,19 @@
     </row>
     <row r="88" spans="1:9" ht="27.6">
       <c r="A88" s="159" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B88" s="164" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D88" s="189" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E88" s="221" t="s">
         <v>1019</v>
       </c>
-      <c r="B88" s="164" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D88" s="189" t="s">
+      <c r="F88" s="187" t="s">
         <v>1020</v>
-      </c>
-      <c r="E88" s="221" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F88" s="187" t="s">
-        <v>1023</v>
       </c>
       <c r="G88" s="164"/>
       <c r="H88" s="164"/>
@@ -8569,19 +8601,19 @@
     </row>
     <row r="89" spans="1:9" ht="27.6">
       <c r="A89" s="182" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B89" s="164" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D89" s="189" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E89" s="221" t="s">
         <v>1019</v>
       </c>
-      <c r="B89" s="164" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D89" s="189" t="s">
+      <c r="F89" s="187" t="s">
         <v>1021</v>
-      </c>
-      <c r="E89" s="221" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F89" s="187" t="s">
-        <v>1024</v>
       </c>
       <c r="G89" s="164"/>
       <c r="H89" s="164"/>
@@ -8591,19 +8623,19 @@
     </row>
     <row r="90" spans="1:9" ht="82.8">
       <c r="A90" s="159" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B90" s="164" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D90" s="189" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E90" s="223" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F90" s="215" t="s">
         <v>1025</v>
-      </c>
-      <c r="B90" s="164" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D90" s="189" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E90" s="223" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F90" s="215" t="s">
-        <v>1028</v>
       </c>
       <c r="G90" s="164"/>
       <c r="H90" s="164"/>
@@ -8613,22 +8645,22 @@
     </row>
     <row r="91" spans="1:9" ht="69">
       <c r="A91" s="159" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B91" s="164" t="s">
         <v>149</v>
       </c>
       <c r="C91" s="160" t="s">
+        <v>507</v>
+      </c>
+      <c r="D91" s="160" t="s">
+        <v>508</v>
+      </c>
+      <c r="E91" s="168" t="s">
+        <v>942</v>
+      </c>
+      <c r="F91" s="197" t="s">
         <v>510</v>
-      </c>
-      <c r="D91" s="160" t="s">
-        <v>511</v>
-      </c>
-      <c r="E91" s="168" t="s">
-        <v>945</v>
-      </c>
-      <c r="F91" s="197" t="s">
-        <v>513</v>
       </c>
       <c r="G91" s="164"/>
       <c r="H91" s="164"/>
@@ -8638,92 +8670,92 @@
     </row>
     <row r="92" spans="1:9" ht="96.6">
       <c r="A92" s="159" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B92" s="164" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C92" s="160"/>
       <c r="D92" s="160" t="s">
+        <v>513</v>
+      </c>
+      <c r="E92" s="168" t="s">
+        <v>514</v>
+      </c>
+      <c r="F92" s="199" t="s">
+        <v>953</v>
+      </c>
+      <c r="G92" s="164" t="s">
         <v>516</v>
-      </c>
-      <c r="E92" s="168" t="s">
-        <v>517</v>
-      </c>
-      <c r="F92" s="199" t="s">
-        <v>956</v>
-      </c>
-      <c r="G92" s="164" t="s">
-        <v>519</v>
       </c>
       <c r="H92" s="164"/>
       <c r="I92" s="165"/>
     </row>
     <row r="93" spans="1:9" ht="138">
       <c r="A93" s="182" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B93" s="164" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C93" s="160"/>
       <c r="D93" s="160" t="s">
+        <v>517</v>
+      </c>
+      <c r="E93" s="168" t="s">
+        <v>518</v>
+      </c>
+      <c r="F93" s="199" t="s">
+        <v>954</v>
+      </c>
+      <c r="G93" s="164" t="s">
         <v>520</v>
-      </c>
-      <c r="E93" s="168" t="s">
-        <v>521</v>
-      </c>
-      <c r="F93" s="199" t="s">
-        <v>957</v>
-      </c>
-      <c r="G93" s="164" t="s">
-        <v>523</v>
       </c>
       <c r="H93" s="164"/>
       <c r="I93" s="165"/>
     </row>
     <row r="94" spans="1:9" ht="234.6">
       <c r="A94" s="182" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B94" s="164"/>
       <c r="C94" s="160"/>
       <c r="D94" s="160" t="s">
+        <v>521</v>
+      </c>
+      <c r="E94" s="168" t="s">
+        <v>522</v>
+      </c>
+      <c r="F94" s="199" t="s">
+        <v>955</v>
+      </c>
+      <c r="G94" s="180" t="s">
         <v>524</v>
-      </c>
-      <c r="E94" s="168" t="s">
-        <v>525</v>
-      </c>
-      <c r="F94" s="199" t="s">
-        <v>958</v>
-      </c>
-      <c r="G94" s="180" t="s">
-        <v>527</v>
       </c>
       <c r="H94" s="164"/>
       <c r="I94" s="165"/>
     </row>
     <row r="95" spans="1:9" ht="82.8">
       <c r="A95" s="159" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B95" s="164" t="s">
         <v>149</v>
       </c>
       <c r="C95" s="160" t="s">
+        <v>526</v>
+      </c>
+      <c r="D95" s="160" t="s">
+        <v>527</v>
+      </c>
+      <c r="E95" s="168" t="s">
+        <v>943</v>
+      </c>
+      <c r="F95" s="185" t="s">
         <v>529</v>
       </c>
-      <c r="D95" s="160" t="s">
+      <c r="G95" s="160" t="s">
         <v>530</v>
-      </c>
-      <c r="E95" s="168" t="s">
-        <v>946</v>
-      </c>
-      <c r="F95" s="185" t="s">
-        <v>532</v>
-      </c>
-      <c r="G95" s="160" t="s">
-        <v>533</v>
       </c>
       <c r="H95" s="164"/>
       <c r="I95" s="165">
@@ -8732,23 +8764,23 @@
     </row>
     <row r="96" spans="1:9" ht="41.4">
       <c r="A96" s="159" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="B96" s="164" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C96" s="160"/>
       <c r="D96" s="160" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E96" s="220" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F96" s="187" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G96" s="160" t="s">
         <v>1030</v>
-      </c>
-      <c r="E96" s="220" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F96" s="187" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G96" s="160" t="s">
-        <v>1033</v>
       </c>
       <c r="H96" s="164"/>
       <c r="I96" s="165">
@@ -8757,23 +8789,23 @@
     </row>
     <row r="97" spans="1:10" ht="55.2">
       <c r="A97" s="167" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B97" s="164" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C97" s="164"/>
       <c r="D97" s="161" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E97" s="168" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F97" s="187" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G97" s="164" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H97" s="164"/>
       <c r="I97" s="165">
@@ -8783,23 +8815,23 @@
     </row>
     <row r="98" spans="1:10" ht="96.6">
       <c r="A98" s="159" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B98" s="164" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C98" s="164"/>
       <c r="D98" s="161" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E98" s="168" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="F98" s="185" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G98" s="164" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H98" s="164"/>
       <c r="I98" s="165">
@@ -8809,23 +8841,23 @@
     </row>
     <row r="99" spans="1:10" ht="41.4">
       <c r="A99" s="159" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B99" s="164" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C99" s="164"/>
       <c r="D99" s="160" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E99" s="168" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F99" s="187" t="s">
+        <v>586</v>
+      </c>
+      <c r="G99" s="164" t="s">
         <v>589</v>
-      </c>
-      <c r="G99" s="164" t="s">
-        <v>592</v>
       </c>
       <c r="H99" s="164"/>
       <c r="I99" s="165"/>
@@ -8833,23 +8865,23 @@
     </row>
     <row r="100" spans="1:10" ht="41.4">
       <c r="A100" s="159" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B100" s="164" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C100" s="164"/>
       <c r="D100" s="160" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E100" s="168" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F100" s="187" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G100" s="164" t="s">
         <v>1035</v>
-      </c>
-      <c r="E100" s="168" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F100" s="187" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G100" s="164" t="s">
-        <v>1038</v>
       </c>
       <c r="H100" s="164"/>
       <c r="I100" s="165">
@@ -8859,7 +8891,7 @@
     </row>
     <row r="101" spans="1:10" ht="27.6">
       <c r="A101" s="159" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B101" s="164" t="s">
         <v>217</v>
@@ -8869,10 +8901,10 @@
         <v>2243686</v>
       </c>
       <c r="E101" s="162" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="F101" s="206" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="G101" s="164"/>
       <c r="H101" s="164"/>
@@ -8880,10 +8912,10 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="159" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B102" s="164" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C102" s="164">
         <v>8001119</v>
@@ -8891,13 +8923,13 @@
       <c r="D102" s="180"/>
       <c r="E102" s="162"/>
       <c r="F102" s="185" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G102" s="164" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H102" s="164" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I102" s="165">
         <v>43196</v>
@@ -8905,28 +8937,28 @@
     </row>
     <row r="103" spans="1:10" ht="82.8">
       <c r="A103" s="159" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B103" s="160" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C103" s="164">
         <v>8001130</v>
       </c>
       <c r="D103" s="160" t="s">
+        <v>613</v>
+      </c>
+      <c r="E103" s="168" t="s">
+        <v>614</v>
+      </c>
+      <c r="F103" s="185" t="s">
+        <v>615</v>
+      </c>
+      <c r="G103" s="164" t="s">
         <v>616</v>
       </c>
-      <c r="E103" s="168" t="s">
-        <v>617</v>
-      </c>
-      <c r="F103" s="185" t="s">
-        <v>618</v>
-      </c>
-      <c r="G103" s="164" t="s">
-        <v>619</v>
-      </c>
       <c r="H103" s="164" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I103" s="165">
         <v>43196</v>
@@ -8934,25 +8966,25 @@
     </row>
     <row r="104" spans="1:10" ht="27.6">
       <c r="A104" s="159" t="s">
+        <v>617</v>
+      </c>
+      <c r="B104" s="160" t="s">
+        <v>618</v>
+      </c>
+      <c r="C104" s="160" t="s">
+        <v>619</v>
+      </c>
+      <c r="D104" s="160" t="s">
         <v>620</v>
       </c>
-      <c r="B104" s="160" t="s">
+      <c r="E104" s="168" t="s">
         <v>621</v>
       </c>
-      <c r="C104" s="160" t="s">
+      <c r="F104" s="187" t="s">
         <v>622</v>
       </c>
-      <c r="D104" s="160" t="s">
+      <c r="G104" s="164" t="s">
         <v>623</v>
-      </c>
-      <c r="E104" s="168" t="s">
-        <v>624</v>
-      </c>
-      <c r="F104" s="187" t="s">
-        <v>625</v>
-      </c>
-      <c r="G104" s="164" t="s">
-        <v>626</v>
       </c>
       <c r="H104" s="164"/>
       <c r="I104" s="165">
@@ -8961,46 +8993,46 @@
     </row>
     <row r="105" spans="1:10" ht="41.4">
       <c r="A105" s="159" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B105" s="160" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C105" s="164"/>
       <c r="D105" s="161" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E105" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F105" s="187" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G105" s="164" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H105" s="164"/>
       <c r="I105" s="165"/>
     </row>
     <row r="106" spans="1:10" ht="27.6">
       <c r="A106" s="159" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B106" s="164" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C106" s="164"/>
       <c r="D106" s="224" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E106" s="168" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F106" s="187" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G106" s="164" t="s">
         <v>1040</v>
-      </c>
-      <c r="E106" s="168" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F106" s="187" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G106" s="164" t="s">
-        <v>1043</v>
       </c>
       <c r="H106" s="164"/>
       <c r="I106" s="165">
@@ -9009,7 +9041,7 @@
     </row>
     <row r="107" spans="1:10" ht="69">
       <c r="A107" s="159" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B107" s="164" t="s">
         <v>45</v>
@@ -9018,16 +9050,16 @@
         <v>22</v>
       </c>
       <c r="D107" s="212" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E107" s="214" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F107" s="185" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="G107" s="164" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="H107" s="164"/>
       <c r="I107" s="165">
@@ -9036,21 +9068,21 @@
     </row>
     <row r="108" spans="1:10" ht="69">
       <c r="A108" s="182" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B108" s="164"/>
       <c r="C108" s="164"/>
       <c r="D108" s="213" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E108" s="214" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F108" s="185" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="G108" s="164" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="H108" s="164"/>
       <c r="I108" s="165">
@@ -9059,21 +9091,21 @@
     </row>
     <row r="109" spans="1:10" ht="69">
       <c r="A109" s="182" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B109" s="164"/>
       <c r="C109" s="164"/>
       <c r="D109" s="213" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="E109" s="214" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="F109" s="185" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="G109" s="164" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="H109" s="164"/>
       <c r="I109" s="165">
@@ -9082,21 +9114,21 @@
     </row>
     <row r="110" spans="1:10" ht="55.2">
       <c r="A110" s="182" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B110" s="164"/>
       <c r="C110" s="164"/>
       <c r="D110" s="213" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E110" s="214" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="F110" s="185" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="G110" s="164" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="H110" s="164"/>
       <c r="I110" s="165">
@@ -9105,21 +9137,21 @@
     </row>
     <row r="111" spans="1:10" ht="69">
       <c r="A111" s="182" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B111" s="164"/>
       <c r="C111" s="164"/>
       <c r="D111" s="213" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="E111" s="214" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="F111" s="185" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="G111" s="164" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="H111" s="164"/>
       <c r="I111" s="165">
@@ -9128,21 +9160,21 @@
     </row>
     <row r="112" spans="1:10" ht="69">
       <c r="A112" s="182" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B112" s="164"/>
       <c r="C112" s="164"/>
       <c r="D112" s="213" t="s">
+        <v>979</v>
+      </c>
+      <c r="E112" s="214" t="s">
+        <v>985</v>
+      </c>
+      <c r="F112" s="185" t="s">
         <v>982</v>
       </c>
-      <c r="E112" s="214" t="s">
-        <v>988</v>
-      </c>
-      <c r="F112" s="185" t="s">
-        <v>985</v>
-      </c>
       <c r="G112" s="164" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="H112" s="164"/>
       <c r="I112" s="165">
@@ -9151,92 +9183,92 @@
     </row>
     <row r="113" spans="1:9" ht="124.2">
       <c r="A113" s="159" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B113" s="164" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C113" s="164"/>
       <c r="D113" s="160" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E113" s="168" t="s">
+        <v>649</v>
+      </c>
+      <c r="F113" s="185" t="s">
+        <v>650</v>
+      </c>
+      <c r="G113" s="164" t="s">
         <v>652</v>
-      </c>
-      <c r="F113" s="185" t="s">
-        <v>653</v>
-      </c>
-      <c r="G113" s="164" t="s">
-        <v>655</v>
       </c>
       <c r="H113" s="164"/>
       <c r="I113" s="165"/>
     </row>
     <row r="114" spans="1:9" ht="138">
       <c r="A114" s="182" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B114" s="164" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C114" s="164"/>
       <c r="D114" s="160" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E114" s="168" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F114" s="185" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G114" s="164" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="H114" s="164"/>
       <c r="I114" s="165"/>
     </row>
     <row r="115" spans="1:9" ht="124.2">
       <c r="A115" s="182" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B115" s="164" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C115" s="164"/>
       <c r="D115" s="160" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E115" s="168" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F115" s="185" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G115" s="180" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="H115" s="164"/>
       <c r="I115" s="165"/>
     </row>
     <row r="116" spans="1:9" ht="82.8">
       <c r="A116" s="159" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B116" s="164" t="s">
         <v>149</v>
       </c>
       <c r="C116" s="160" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D116" s="160" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E116" s="162"/>
       <c r="F116" s="190" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="G116" s="164" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="H116" s="164"/>
       <c r="I116" s="165">
@@ -9245,7 +9277,7 @@
     </row>
     <row r="117" spans="1:9" ht="41.4">
       <c r="A117" s="159" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B117" s="160" t="s">
         <v>77</v>
@@ -9254,11 +9286,11 @@
         <v>22</v>
       </c>
       <c r="D117" s="161" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E117" s="168"/>
       <c r="F117" s="197" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="G117" s="164"/>
       <c r="H117" s="164"/>
@@ -9268,7 +9300,7 @@
     </row>
     <row r="118" spans="1:9" ht="41.4">
       <c r="A118" s="159" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B118" s="160" t="s">
         <v>77</v>
@@ -9277,11 +9309,11 @@
         <v>22</v>
       </c>
       <c r="D118" s="161" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E118" s="168"/>
       <c r="F118" s="179" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="G118" s="164"/>
       <c r="H118" s="164"/>
@@ -9291,23 +9323,23 @@
     </row>
     <row r="119" spans="1:9" ht="55.2">
       <c r="A119" s="159" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B119" s="160" t="s">
         <v>77</v>
       </c>
       <c r="C119" s="160"/>
       <c r="D119" s="160" t="s">
+        <v>696</v>
+      </c>
+      <c r="E119" s="162" t="s">
+        <v>697</v>
+      </c>
+      <c r="F119" s="179" t="s">
         <v>699</v>
       </c>
-      <c r="E119" s="162" t="s">
-        <v>700</v>
-      </c>
-      <c r="F119" s="179" t="s">
+      <c r="G119" s="164" t="s">
         <v>702</v>
-      </c>
-      <c r="G119" s="164" t="s">
-        <v>705</v>
       </c>
       <c r="H119" s="164"/>
       <c r="I119" s="165">
@@ -9316,7 +9348,7 @@
     </row>
     <row r="120" spans="1:9" ht="207">
       <c r="A120" s="159" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B120" s="164" t="s">
         <v>45</v>
@@ -9325,14 +9357,14 @@
         <v>22</v>
       </c>
       <c r="D120" s="186" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E120" s="162"/>
       <c r="F120" s="185" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G120" s="164" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="H120" s="164"/>
       <c r="I120" s="165">
@@ -9341,7 +9373,7 @@
     </row>
     <row r="121" spans="1:9" ht="69">
       <c r="A121" s="159" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B121" s="180" t="s">
         <v>149</v>
@@ -9350,19 +9382,19 @@
         <v>8000823</v>
       </c>
       <c r="D121" s="160" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E121" s="168" t="s">
+        <v>722</v>
+      </c>
+      <c r="F121" s="206" t="s">
+        <v>724</v>
+      </c>
+      <c r="G121" s="180" t="s">
         <v>725</v>
       </c>
-      <c r="F121" s="206" t="s">
-        <v>727</v>
-      </c>
-      <c r="G121" s="180" t="s">
-        <v>728</v>
-      </c>
       <c r="H121" s="164" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="I121" s="165">
         <v>43196</v>
@@ -9370,23 +9402,23 @@
     </row>
     <row r="122" spans="1:9" ht="82.8">
       <c r="A122" s="159" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B122" s="180" t="s">
         <v>149</v>
       </c>
       <c r="C122" s="180"/>
       <c r="D122" s="160" t="s">
+        <v>727</v>
+      </c>
+      <c r="E122" s="168" t="s">
+        <v>728</v>
+      </c>
+      <c r="F122" s="163" t="s">
         <v>730</v>
       </c>
-      <c r="E122" s="168" t="s">
-        <v>731</v>
-      </c>
-      <c r="F122" s="163" t="s">
-        <v>733</v>
-      </c>
       <c r="G122" s="185" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="H122" s="164"/>
       <c r="I122" s="165">
@@ -9395,23 +9427,23 @@
     </row>
     <row r="123" spans="1:9" ht="41.4">
       <c r="A123" s="182" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B123" s="180" t="s">
         <v>149</v>
       </c>
       <c r="C123" s="180"/>
       <c r="D123" s="160" t="s">
+        <v>734</v>
+      </c>
+      <c r="E123" s="168" t="s">
+        <v>735</v>
+      </c>
+      <c r="F123" s="164" t="s">
+        <v>736</v>
+      </c>
+      <c r="G123" s="163" t="s">
         <v>737</v>
-      </c>
-      <c r="E123" s="168" t="s">
-        <v>738</v>
-      </c>
-      <c r="F123" s="164" t="s">
-        <v>739</v>
-      </c>
-      <c r="G123" s="163" t="s">
-        <v>740</v>
       </c>
       <c r="H123" s="164"/>
       <c r="I123" s="165">
@@ -9420,7 +9452,7 @@
     </row>
     <row r="124" spans="1:9" ht="27.6">
       <c r="A124" s="159" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B124" s="164" t="s">
         <v>142</v>
@@ -9429,16 +9461,16 @@
         <v>22</v>
       </c>
       <c r="D124" s="183" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E124" s="207" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F124" s="187" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="G124" s="164" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="H124" s="164"/>
       <c r="I124" s="165">
@@ -9447,20 +9479,20 @@
     </row>
     <row r="125" spans="1:9" ht="27.6">
       <c r="A125" s="182" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B125" s="164" t="s">
         <v>142</v>
       </c>
       <c r="C125" s="164"/>
       <c r="D125" s="299" t="s">
+        <v>877</v>
+      </c>
+      <c r="E125" s="160" t="s">
         <v>880</v>
       </c>
-      <c r="E125" s="160" t="s">
-        <v>883</v>
-      </c>
       <c r="F125" s="187" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="G125" s="164"/>
       <c r="H125" s="164"/>
@@ -9470,25 +9502,25 @@
     </row>
     <row r="126" spans="1:9" ht="96.6">
       <c r="A126" s="159" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B126" s="164" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C126" s="164" t="s">
         <v>22</v>
       </c>
       <c r="D126" s="186" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E126" s="207" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F126" s="185" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="G126" s="164" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="H126" s="208"/>
       <c r="I126" s="165">
@@ -9497,47 +9529,47 @@
     </row>
     <row r="127" spans="1:9" ht="27.6">
       <c r="A127" s="182" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B127" s="164" t="s">
+        <v>798</v>
+      </c>
+      <c r="C127" s="160" t="s">
+        <v>799</v>
+      </c>
+      <c r="D127" s="160" t="s">
         <v>801</v>
       </c>
-      <c r="C127" s="160" t="s">
-        <v>802</v>
-      </c>
-      <c r="D127" s="160" t="s">
-        <v>804</v>
-      </c>
       <c r="E127" s="168" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F127" s="185" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G127" s="164" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="H127" s="208"/>
       <c r="I127" s="165"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="159" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B128" s="164" t="s">
         <v>45</v>
       </c>
       <c r="C128" s="160" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D128" s="186" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="E128" s="162" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F128" s="187" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="G128" s="164"/>
       <c r="H128" s="164"/>
@@ -9547,7 +9579,7 @@
     </row>
     <row r="129" spans="1:9" ht="96.6">
       <c r="A129" s="159" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B129" s="164" t="s">
         <v>45</v>
@@ -9556,14 +9588,14 @@
         <v>22</v>
       </c>
       <c r="D129" s="164" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E129" s="162"/>
       <c r="F129" s="187" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="G129" s="166" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="H129" s="164"/>
       <c r="I129" s="165">
@@ -9572,13 +9604,13 @@
     </row>
     <row r="130" spans="1:9" ht="41.4">
       <c r="A130" s="170" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D130" s="297">
         <v>2420287</v>
       </c>
       <c r="F130" s="166" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="I130" s="298">
         <v>372000</v>
@@ -9586,23 +9618,23 @@
     </row>
     <row r="131" spans="1:9" ht="41.4">
       <c r="A131" s="159" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B131" s="160" t="s">
         <v>290</v>
       </c>
       <c r="C131" s="160"/>
       <c r="D131" s="195" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E131" s="168" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="F131" s="163" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="G131" s="164" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="H131" s="164"/>
       <c r="I131" s="165">
@@ -9611,7 +9643,7 @@
     </row>
     <row r="132" spans="1:9" ht="138">
       <c r="A132" s="159" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B132" s="160" t="s">
         <v>77</v>
@@ -9620,17 +9652,17 @@
         <v>22</v>
       </c>
       <c r="D132" s="161" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E132" s="168"/>
       <c r="F132" s="179" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="G132" s="164" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="H132" s="209" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="I132" s="165">
         <v>43270</v>
@@ -9638,7 +9670,7 @@
     </row>
     <row r="133" spans="1:9" ht="41.4">
       <c r="A133" s="159" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B133" s="160" t="s">
         <v>77</v>
@@ -9647,17 +9679,17 @@
         <v>22</v>
       </c>
       <c r="D133" s="161" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E133" s="168"/>
       <c r="F133" s="179" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="G133" s="164" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="H133" s="181" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="I133" s="165">
         <v>43270</v>
@@ -9665,7 +9697,7 @@
     </row>
     <row r="134" spans="1:9" ht="41.4">
       <c r="A134" s="159" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B134" s="160" t="s">
         <v>77</v>
@@ -9674,17 +9706,17 @@
         <v>22</v>
       </c>
       <c r="D134" s="161" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="E134" s="168"/>
       <c r="F134" s="179" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G134" s="164" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="H134" s="181" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="I134" s="165">
         <v>43270</v>
@@ -9692,7 +9724,7 @@
     </row>
     <row r="135" spans="1:9" ht="41.4">
       <c r="A135" s="159" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B135" s="160" t="s">
         <v>77</v>
@@ -9701,15 +9733,15 @@
         <v>22</v>
       </c>
       <c r="D135" s="161" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E135" s="168"/>
       <c r="F135" s="197" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="G135" s="164"/>
       <c r="H135" s="209" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="I135" s="165">
         <v>43270</v>
@@ -9717,7 +9749,7 @@
     </row>
     <row r="136" spans="1:9" ht="41.4">
       <c r="A136" s="159" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B136" s="164" t="s">
         <v>142</v>
@@ -9726,19 +9758,19 @@
         <v>22</v>
       </c>
       <c r="D136" s="183" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E136" s="210" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="F136" s="187" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="G136" s="164" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="H136" s="209" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="I136" s="165">
         <v>43250</v>
@@ -9746,22 +9778,22 @@
     </row>
     <row r="137" spans="1:9" ht="27.6">
       <c r="A137" s="159" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B137" s="164" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C137" s="164" t="s">
         <v>22</v>
       </c>
       <c r="D137" s="186" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="F137" s="187" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="H137" s="209" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="I137" s="211">
         <v>43288</v>
@@ -9961,7 +9993,7 @@
         <v>87</v>
       </c>
       <c r="H3" s="278" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="I3" s="284"/>
       <c r="J3" s="285" t="s">
@@ -10351,7 +10383,7 @@
     </row>
     <row r="17" spans="1:10" s="267" customFormat="1" ht="144.6" customHeight="1">
       <c r="A17" s="263" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B17" s="263" t="s">
         <v>196</v>
@@ -10360,19 +10392,19 @@
         <v>22</v>
       </c>
       <c r="D17" s="287" t="s">
+        <v>323</v>
+      </c>
+      <c r="E17" s="288" t="s">
         <v>324</v>
       </c>
-      <c r="E17" s="288" t="s">
+      <c r="F17" s="289" t="s">
         <v>325</v>
       </c>
-      <c r="F17" s="289" t="s">
-        <v>326</v>
-      </c>
       <c r="G17" s="263" t="s">
+        <v>327</v>
+      </c>
+      <c r="H17" s="263" t="s">
         <v>328</v>
-      </c>
-      <c r="H17" s="263" t="s">
-        <v>329</v>
       </c>
       <c r="I17" s="266">
         <v>43250</v>
@@ -10383,7 +10415,7 @@
     </row>
     <row r="18" spans="1:10" s="267" customFormat="1" ht="92.4">
       <c r="A18" s="263" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B18" s="263" t="s">
         <v>268</v>
@@ -10392,17 +10424,17 @@
         <v>22</v>
       </c>
       <c r="D18" s="291" t="s">
+        <v>329</v>
+      </c>
+      <c r="E18" s="288" t="s">
         <v>330</v>
       </c>
-      <c r="E18" s="288" t="s">
+      <c r="F18" s="289" t="s">
         <v>331</v>
-      </c>
-      <c r="F18" s="289" t="s">
-        <v>332</v>
       </c>
       <c r="G18" s="263"/>
       <c r="H18" s="263" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I18" s="266">
         <v>43278</v>
@@ -10413,7 +10445,7 @@
     </row>
     <row r="19" spans="1:10" s="267" customFormat="1" ht="92.4">
       <c r="A19" s="263" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B19" s="263" t="s">
         <v>268</v>
@@ -10422,17 +10454,17 @@
         <v>22</v>
       </c>
       <c r="D19" s="291" t="s">
+        <v>334</v>
+      </c>
+      <c r="E19" s="288" t="s">
         <v>335</v>
       </c>
-      <c r="E19" s="288" t="s">
+      <c r="F19" s="289" t="s">
         <v>336</v>
-      </c>
-      <c r="F19" s="289" t="s">
-        <v>337</v>
       </c>
       <c r="G19" s="263"/>
       <c r="H19" s="263" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I19" s="266">
         <v>43278</v>
@@ -10547,7 +10579,7 @@
     </row>
     <row r="24" spans="1:10" s="267" customFormat="1" ht="39.6">
       <c r="A24" s="295" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B24" s="263" t="s">
         <v>45</v>
@@ -10556,15 +10588,15 @@
         <v>22</v>
       </c>
       <c r="D24" s="287" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E24" s="229"/>
       <c r="F24" s="296" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="G24" s="263"/>
       <c r="H24" s="263" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="I24" s="266">
         <v>43240</v>
@@ -10572,7 +10604,7 @@
     </row>
     <row r="25" spans="1:10" s="267" customFormat="1" ht="66">
       <c r="A25" s="263" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B25" s="263" t="s">
         <v>45</v>
@@ -10581,14 +10613,14 @@
         <v>22</v>
       </c>
       <c r="D25" s="264" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="E25" s="229"/>
       <c r="F25" s="265" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="G25" s="263" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="H25" s="263"/>
       <c r="I25" s="266">
@@ -10597,37 +10629,37 @@
     </row>
     <row r="26" spans="1:10" ht="57.6">
       <c r="A26" s="229" t="s">
+        <v>816</v>
+      </c>
+      <c r="B26" s="226" t="s">
+        <v>817</v>
+      </c>
+      <c r="C26" s="227" t="s">
+        <v>818</v>
+      </c>
+      <c r="D26" s="268" t="s">
         <v>819</v>
       </c>
-      <c r="B26" s="226" t="s">
+      <c r="E26" s="227" t="s">
         <v>820</v>
       </c>
-      <c r="C26" s="227" t="s">
+      <c r="F26" s="231" t="s">
         <v>821</v>
       </c>
-      <c r="D26" s="268" t="s">
+      <c r="G26" s="226" t="s">
         <v>822</v>
-      </c>
-      <c r="E26" s="227" t="s">
-        <v>823</v>
-      </c>
-      <c r="F26" s="231" t="s">
-        <v>824</v>
-      </c>
-      <c r="G26" s="226" t="s">
-        <v>825</v>
       </c>
       <c r="H26" s="226"/>
       <c r="I26" s="230">
         <v>43240</v>
       </c>
       <c r="J26" s="238" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="79.2">
       <c r="A27" s="263" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B27" s="243" t="s">
         <v>142</v>
@@ -10636,47 +10668,47 @@
         <v>22</v>
       </c>
       <c r="D27" s="269" t="s">
+        <v>877</v>
+      </c>
+      <c r="E27" s="227" t="s">
         <v>880</v>
       </c>
-      <c r="E27" s="227" t="s">
-        <v>883</v>
-      </c>
       <c r="F27" s="236" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="G27" s="243" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="H27" s="229" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="I27" s="230">
         <v>43250</v>
       </c>
       <c r="J27" s="300" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="267" customFormat="1" ht="79.2">
       <c r="A28" s="295" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B28" s="263" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C28" s="263"/>
       <c r="D28" s="292" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E28" s="293" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="F28" s="289" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="G28" s="263"/>
       <c r="H28" s="290" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="I28" s="266"/>
       <c r="J28" s="294" t="s">
@@ -10685,24 +10717,24 @@
     </row>
     <row r="29" spans="1:10" s="267" customFormat="1" ht="79.2">
       <c r="A29" s="295" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B29" s="263" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C29" s="263"/>
       <c r="D29" s="292" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E29" s="293" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="F29" s="289" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="G29" s="263"/>
       <c r="H29" s="290" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="I29" s="266"/>
       <c r="J29" s="294" t="s">
@@ -10711,24 +10743,24 @@
     </row>
     <row r="30" spans="1:10" s="267" customFormat="1" ht="79.2">
       <c r="A30" s="295" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B30" s="263" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C30" s="263"/>
       <c r="D30" s="292" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E30" s="293" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="F30" s="289" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="G30" s="263"/>
       <c r="H30" s="290" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="I30" s="266"/>
       <c r="J30" s="294" t="s">
@@ -10737,19 +10769,19 @@
     </row>
     <row r="31" spans="1:10" s="166" customFormat="1" ht="41.4">
       <c r="A31" s="159" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B31" s="164" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C31" s="164"/>
       <c r="D31" s="164"/>
       <c r="E31" s="162"/>
       <c r="F31" s="185" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="G31" s="164" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="H31" s="164"/>
       <c r="I31" s="165">
@@ -11418,10 +11450,10 @@
         <v>279</v>
       </c>
       <c r="E32" s="73" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G32" s="57" t="s">
         <v>284</v>
@@ -11436,7 +11468,7 @@
     </row>
     <row r="33" spans="1:10" ht="92.4">
       <c r="A33" s="74" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>217</v>
@@ -11445,20 +11477,20 @@
         <v>22</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E33" s="30" t="s">
         <v>100</v>
       </c>
       <c r="F33" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="G33" s="57" t="s">
         <v>347</v>
-      </c>
-      <c r="G33" s="57" t="s">
-        <v>348</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J33" s="32" t="s">
         <v>22</v>
@@ -11466,10 +11498,10 @@
     </row>
     <row r="34" spans="1:10" ht="39.6">
       <c r="A34" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B34" s="27" t="s">
         <v>350</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>351</v>
       </c>
       <c r="C34" s="34">
         <v>8001077</v>
@@ -11478,14 +11510,14 @@
         <v>2046113</v>
       </c>
       <c r="E34" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="F34" s="20" t="s">
         <v>354</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>355</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I34" s="12">
         <v>43210</v>
@@ -11494,7 +11526,7 @@
     </row>
     <row r="35" spans="1:10" ht="66">
       <c r="A35" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>21</v>
@@ -11503,16 +11535,16 @@
         <v>22</v>
       </c>
       <c r="D35" s="76" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F35" s="57" t="s">
+        <v>363</v>
+      </c>
+      <c r="G35" s="57" t="s">
         <v>364</v>
-      </c>
-      <c r="G35" s="57" t="s">
-        <v>365</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>83</v>
@@ -11526,7 +11558,7 @@
     </row>
     <row r="36" spans="1:10" ht="39.6">
       <c r="A36" s="306" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B36" s="77" t="s">
         <v>21</v>
@@ -11535,13 +11567,13 @@
         <v>22</v>
       </c>
       <c r="D36" s="78" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E36" s="79" t="s">
+        <v>392</v>
+      </c>
+      <c r="F36" s="80" t="s">
         <v>393</v>
-      </c>
-      <c r="F36" s="80" t="s">
-        <v>394</v>
       </c>
       <c r="G36" s="81"/>
       <c r="H36" s="8" t="s">
@@ -11563,13 +11595,13 @@
         <v>22</v>
       </c>
       <c r="D37" s="82" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E37" s="83" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8" t="s">
@@ -11591,13 +11623,13 @@
         <v>22</v>
       </c>
       <c r="D38" s="72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E38" s="84" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F38" s="85" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8" t="s">
@@ -11619,13 +11651,13 @@
         <v>22</v>
       </c>
       <c r="D39" s="82" t="s">
+        <v>413</v>
+      </c>
+      <c r="E39" s="86" t="s">
         <v>414</v>
       </c>
-      <c r="E39" s="86" t="s">
-        <v>415</v>
-      </c>
       <c r="F39" s="33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8" t="s">
@@ -11647,13 +11679,13 @@
         <v>22</v>
       </c>
       <c r="D40" s="82" t="s">
+        <v>419</v>
+      </c>
+      <c r="E40" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="E40" s="31" t="s">
-        <v>421</v>
-      </c>
       <c r="F40" s="33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8" t="s">
@@ -11675,13 +11707,13 @@
         <v>22</v>
       </c>
       <c r="D41" s="72" t="s">
+        <v>421</v>
+      </c>
+      <c r="E41" s="31" t="s">
         <v>422</v>
       </c>
-      <c r="E41" s="31" t="s">
-        <v>423</v>
-      </c>
       <c r="F41" s="33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G41" s="22"/>
       <c r="H41" s="8" t="s">
@@ -11703,13 +11735,13 @@
         <v>22</v>
       </c>
       <c r="D42" s="82" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F42" s="85" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G42" s="87"/>
       <c r="H42" s="8" t="s">
@@ -11731,13 +11763,13 @@
         <v>22</v>
       </c>
       <c r="D43" s="82" t="s">
+        <v>431</v>
+      </c>
+      <c r="E43" s="83" t="s">
         <v>432</v>
       </c>
-      <c r="E43" s="83" t="s">
-        <v>433</v>
-      </c>
       <c r="F43" s="33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8" t="s">
@@ -11759,13 +11791,13 @@
         <v>22</v>
       </c>
       <c r="D44" s="82" t="s">
+        <v>433</v>
+      </c>
+      <c r="E44" s="31" t="s">
         <v>434</v>
       </c>
-      <c r="E44" s="31" t="s">
-        <v>435</v>
-      </c>
       <c r="F44" s="33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8" t="s">
@@ -11787,13 +11819,13 @@
         <v>22</v>
       </c>
       <c r="D45" s="88" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E45" s="89" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F45" s="90" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G45" s="91"/>
       <c r="H45" s="8" t="s">
@@ -11808,7 +11840,7 @@
     </row>
     <row r="46" spans="1:10" ht="39.6">
       <c r="A46" s="92" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B46" s="41" t="s">
         <v>21</v>
@@ -11817,13 +11849,13 @@
         <v>22</v>
       </c>
       <c r="D46" s="94" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E46" s="41" t="s">
+        <v>472</v>
+      </c>
+      <c r="F46" s="95" t="s">
         <v>474</v>
-      </c>
-      <c r="F46" s="95" t="s">
-        <v>476</v>
       </c>
       <c r="G46" s="91"/>
       <c r="H46" s="8" t="s">
@@ -11838,26 +11870,26 @@
     </row>
     <row r="47" spans="1:10" ht="57.6">
       <c r="A47" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="C47" s="27" t="s">
         <v>477</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="D47" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="E47" s="96" t="s">
         <v>479</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="E47" s="96" t="s">
-        <v>481</v>
-      </c>
       <c r="F47" s="20" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I47" s="12">
         <v>43210</v>
@@ -11868,7 +11900,7 @@
     </row>
     <row r="48" spans="1:10" ht="66">
       <c r="A48" s="306" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B48" s="77" t="s">
         <v>21</v>
@@ -11877,17 +11909,17 @@
         <v>22</v>
       </c>
       <c r="D48" s="98" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E48" s="99" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F48" s="80" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G48" s="100"/>
       <c r="H48" s="77" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I48" s="101">
         <v>43240</v>
@@ -11905,17 +11937,17 @@
         <v>22</v>
       </c>
       <c r="D49" s="104" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E49" s="105" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F49" s="106" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="G49" s="40"/>
       <c r="H49" s="41" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I49" s="107">
         <v>43240</v>
@@ -11926,27 +11958,27 @@
     </row>
     <row r="50" spans="1:10" ht="72">
       <c r="A50" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B50" s="27" t="s">
         <v>45</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="F50" s="38" t="s">
+        <v>534</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>535</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="F50" s="38" t="s">
-        <v>537</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>538</v>
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="32" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="J50" s="32" t="s">
         <v>22</v>
@@ -11954,19 +11986,19 @@
     </row>
     <row r="51" spans="1:10" ht="26.4">
       <c r="A51" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="13"/>
       <c r="D51" s="108" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="67" t="s">
         <v>166</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>168</v>
@@ -11980,7 +12012,7 @@
     </row>
     <row r="52" spans="1:10" ht="79.2">
       <c r="A52" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>45</v>
@@ -11989,19 +12021,19 @@
         <v>8001265</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F52" s="57" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G52" s="51" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I52" s="12">
         <v>43240</v>
@@ -12012,7 +12044,7 @@
     </row>
     <row r="53" spans="1:10" ht="52.8">
       <c r="A53" s="8" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>45</v>
@@ -12021,19 +12053,19 @@
         <v>8001265</v>
       </c>
       <c r="D53" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="F53" s="57" t="s">
         <v>552</v>
       </c>
-      <c r="E53" s="31" t="s">
-        <v>554</v>
-      </c>
-      <c r="F53" s="57" t="s">
-        <v>555</v>
-      </c>
       <c r="G53" s="51" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I53" s="12">
         <v>43240</v>
@@ -12044,7 +12076,7 @@
     </row>
     <row r="54" spans="1:10" ht="52.8">
       <c r="A54" s="8" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>45</v>
@@ -12053,19 +12085,19 @@
         <v>8001265</v>
       </c>
       <c r="D54" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>555</v>
+      </c>
+      <c r="F54" s="57" t="s">
+        <v>552</v>
+      </c>
+      <c r="G54" s="51" t="s">
         <v>557</v>
       </c>
-      <c r="E54" s="31" t="s">
-        <v>558</v>
-      </c>
-      <c r="F54" s="57" t="s">
-        <v>555</v>
-      </c>
-      <c r="G54" s="51" t="s">
-        <v>560</v>
-      </c>
       <c r="H54" s="8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I54" s="12">
         <v>43240</v>
@@ -12076,7 +12108,7 @@
     </row>
     <row r="55" spans="1:10" ht="52.8">
       <c r="A55" s="8" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>45</v>
@@ -12085,19 +12117,19 @@
         <v>8001265</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F55" s="57" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="G55" s="51" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I55" s="12">
         <v>43240</v>
@@ -12108,7 +12140,7 @@
     </row>
     <row r="56" spans="1:10" ht="66">
       <c r="A56" s="8" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>45</v>
@@ -12117,19 +12149,19 @@
         <v>8001265</v>
       </c>
       <c r="D56" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="F56" s="57" t="s">
+        <v>564</v>
+      </c>
+      <c r="G56" s="51" t="s">
         <v>565</v>
       </c>
-      <c r="E56" s="31" t="s">
-        <v>566</v>
-      </c>
-      <c r="F56" s="57" t="s">
-        <v>567</v>
-      </c>
-      <c r="G56" s="51" t="s">
-        <v>568</v>
-      </c>
       <c r="H56" s="8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I56" s="12">
         <v>43240</v>
@@ -12140,7 +12172,7 @@
     </row>
     <row r="57" spans="1:10" ht="52.8">
       <c r="A57" s="8" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>45</v>
@@ -12149,19 +12181,19 @@
         <v>8001265</v>
       </c>
       <c r="D57" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>567</v>
+      </c>
+      <c r="F57" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="G57" s="51" t="s">
         <v>569</v>
       </c>
-      <c r="E57" s="31" t="s">
-        <v>570</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>571</v>
-      </c>
-      <c r="G57" s="51" t="s">
-        <v>572</v>
-      </c>
       <c r="H57" s="8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I57" s="12">
         <v>43240</v>
@@ -12172,7 +12204,7 @@
     </row>
     <row r="58" spans="1:10" ht="52.8">
       <c r="A58" s="8" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>45</v>
@@ -12181,19 +12213,19 @@
         <v>8001265</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E58" s="31" t="s">
+        <v>572</v>
+      </c>
+      <c r="F58" s="57" t="s">
+        <v>573</v>
+      </c>
+      <c r="G58" s="51" t="s">
         <v>575</v>
       </c>
-      <c r="F58" s="57" t="s">
-        <v>576</v>
-      </c>
-      <c r="G58" s="51" t="s">
-        <v>578</v>
-      </c>
       <c r="H58" s="8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I58" s="12">
         <v>43240</v>
@@ -12204,7 +12236,7 @@
     </row>
     <row r="59" spans="1:10" ht="52.8">
       <c r="A59" s="8" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>45</v>
@@ -12213,19 +12245,19 @@
         <v>8001265</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E59" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="F59" s="57" t="s">
+        <v>578</v>
+      </c>
+      <c r="G59" s="51" t="s">
         <v>580</v>
       </c>
-      <c r="F59" s="57" t="s">
-        <v>581</v>
-      </c>
-      <c r="G59" s="51" t="s">
-        <v>583</v>
-      </c>
       <c r="H59" s="8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I59" s="12">
         <v>43240</v>
@@ -12236,7 +12268,7 @@
     </row>
     <row r="60" spans="1:10" ht="52.8">
       <c r="A60" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>45</v>
@@ -12245,17 +12277,17 @@
         <v>22</v>
       </c>
       <c r="D60" s="115" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F60" s="57" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="G60" s="116"/>
       <c r="H60" s="8" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I60" s="12">
         <v>43240</v>
@@ -12266,7 +12298,7 @@
     </row>
     <row r="61" spans="1:10" ht="26.4">
       <c r="A61" s="8" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>45</v>
@@ -12275,17 +12307,17 @@
         <v>22</v>
       </c>
       <c r="D61" s="115" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E61" s="39" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F61" s="57" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G61" s="116"/>
       <c r="H61" s="8" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I61" s="12">
         <v>43240</v>
@@ -12296,7 +12328,7 @@
     </row>
     <row r="62" spans="1:10" ht="79.2">
       <c r="A62" s="6" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>45</v>
@@ -12305,16 +12337,16 @@
         <v>22</v>
       </c>
       <c r="D62" s="118" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F62" s="57" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G62" s="57" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="12">
@@ -12326,7 +12358,7 @@
     </row>
     <row r="63" spans="1:10" ht="26.4">
       <c r="A63" s="119" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B63" s="120" t="s">
         <v>45</v>
@@ -12335,17 +12367,17 @@
         <v>22</v>
       </c>
       <c r="D63" s="122" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E63" s="123" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F63" s="124" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G63" s="124"/>
       <c r="H63" s="120" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="I63" s="12">
         <v>43240</v>
@@ -12356,23 +12388,23 @@
     </row>
     <row r="64" spans="1:10" ht="52.8">
       <c r="A64" s="6" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>149</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="38" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>307</v>
@@ -12386,28 +12418,28 @@
     </row>
     <row r="65" spans="1:10" ht="57.6">
       <c r="A65" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>637</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="E65" s="71" t="s">
         <v>639</v>
       </c>
-      <c r="B65" s="27" t="s">
-        <v>478</v>
-      </c>
-      <c r="C65" s="34" t="s">
+      <c r="F65" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="G65" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="E65" s="71" t="s">
+      <c r="H65" s="8" t="s">
         <v>642</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>645</v>
       </c>
       <c r="I65" s="12">
         <v>43210</v>
@@ -12418,23 +12450,23 @@
     </row>
     <row r="66" spans="1:10" ht="52.8">
       <c r="A66" s="112" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B66" s="109" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C66" s="110"/>
       <c r="D66" s="76" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F66" s="113" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G66" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I66" s="23">
         <v>76138</v>
@@ -12445,23 +12477,23 @@
     </row>
     <row r="67" spans="1:10" ht="66">
       <c r="A67" s="110" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B67" s="109" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C67" s="110"/>
       <c r="D67" s="126" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F67" s="113" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G67" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I67" s="23">
         <v>76138</v>
@@ -12472,23 +12504,23 @@
     </row>
     <row r="68" spans="1:10" ht="43.2">
       <c r="A68" s="110" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B68" s="109" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C68" s="110"/>
       <c r="D68" s="76" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F68" s="113" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G68" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I68" s="23">
         <v>76138</v>
@@ -12499,23 +12531,23 @@
     </row>
     <row r="69" spans="1:10" ht="43.2">
       <c r="A69" s="110" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B69" s="109" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C69" s="110"/>
       <c r="D69" s="76" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F69" s="113" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G69" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I69" s="23">
         <v>76138</v>
@@ -12526,23 +12558,23 @@
     </row>
     <row r="70" spans="1:10" ht="43.2">
       <c r="A70" s="110" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B70" s="109" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C70" s="110"/>
       <c r="D70" s="76" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E70" s="34" t="s">
+        <v>671</v>
+      </c>
+      <c r="F70" s="113" t="s">
         <v>674</v>
       </c>
-      <c r="F70" s="113" t="s">
-        <v>677</v>
-      </c>
       <c r="G70" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I70" s="23">
         <v>76138</v>
@@ -12553,23 +12585,23 @@
     </row>
     <row r="71" spans="1:10" ht="43.2">
       <c r="A71" s="110" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B71" s="109" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C71" s="110"/>
       <c r="D71" s="76" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E71" s="34" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F71" s="113" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G71" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I71" s="23">
         <v>76138</v>
@@ -12580,23 +12612,23 @@
     </row>
     <row r="72" spans="1:10" ht="39.6">
       <c r="A72" s="110" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B72" s="109" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C72" s="110"/>
       <c r="D72" s="76" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F72" s="113" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="G72" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I72" s="23">
         <v>76138</v>
@@ -12607,23 +12639,23 @@
     </row>
     <row r="73" spans="1:10" ht="57.6">
       <c r="A73" s="112" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B73" s="109" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C73" s="110"/>
       <c r="D73" s="76" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="F73" s="113" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="G73" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I73" s="23">
         <v>76138</v>
@@ -12634,23 +12666,23 @@
     </row>
     <row r="74" spans="1:10" ht="57.6">
       <c r="A74" s="110" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B74" s="109" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C74" s="110"/>
       <c r="D74" s="76" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="F74" s="113" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G74" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H74" s="127"/>
       <c r="I74" s="23">
@@ -12662,23 +12694,23 @@
     </row>
     <row r="75" spans="1:10" ht="57.6">
       <c r="A75" s="110" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B75" s="109" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C75" s="110"/>
       <c r="D75" s="76" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="F75" s="113" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G75" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H75" s="127"/>
       <c r="I75" s="23">
@@ -12690,23 +12722,23 @@
     </row>
     <row r="76" spans="1:10" ht="57.6">
       <c r="A76" s="110" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B76" s="109" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C76" s="110"/>
       <c r="D76" s="76" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F76" s="113" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G76" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H76" s="127"/>
       <c r="I76" s="23">
@@ -12718,23 +12750,23 @@
     </row>
     <row r="77" spans="1:10" ht="57.6">
       <c r="A77" s="110" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B77" s="109" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C77" s="110"/>
       <c r="D77" s="76" t="s">
+        <v>698</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>700</v>
+      </c>
+      <c r="F77" s="113" t="s">
         <v>701</v>
       </c>
-      <c r="E77" s="34" t="s">
-        <v>703</v>
-      </c>
-      <c r="F77" s="113" t="s">
-        <v>704</v>
-      </c>
       <c r="G77" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H77" s="127"/>
       <c r="I77" s="23">
@@ -12746,23 +12778,23 @@
     </row>
     <row r="78" spans="1:10" ht="43.2">
       <c r="A78" s="112" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B78" s="109" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C78" s="110"/>
       <c r="D78" s="76" t="s">
+        <v>705</v>
+      </c>
+      <c r="E78" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="F78" s="113" t="s">
         <v>708</v>
       </c>
-      <c r="E78" s="34" t="s">
-        <v>710</v>
-      </c>
-      <c r="F78" s="113" t="s">
-        <v>711</v>
-      </c>
       <c r="G78" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H78" s="128"/>
       <c r="I78" s="23">
@@ -12774,23 +12806,23 @@
     </row>
     <row r="79" spans="1:10" ht="43.2">
       <c r="A79" s="112" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B79" s="109" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C79" s="110"/>
       <c r="D79" s="76" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E79" s="34" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F79" s="113" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G79" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H79" s="114"/>
       <c r="I79" s="23">
@@ -12802,23 +12834,23 @@
     </row>
     <row r="80" spans="1:10" ht="79.2">
       <c r="A80" s="112" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B80" s="109" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C80" s="110"/>
       <c r="D80" s="76" t="s">
+        <v>716</v>
+      </c>
+      <c r="E80" s="130" t="s">
+        <v>717</v>
+      </c>
+      <c r="F80" s="113" t="s">
         <v>719</v>
       </c>
-      <c r="E80" s="130" t="s">
-        <v>720</v>
-      </c>
-      <c r="F80" s="113" t="s">
-        <v>722</v>
-      </c>
       <c r="G80" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H80" s="114"/>
       <c r="I80" s="23">
@@ -12830,23 +12862,23 @@
     </row>
     <row r="81" spans="1:10" ht="66">
       <c r="A81" s="110" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B81" s="109" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C81" s="110"/>
       <c r="D81" s="76" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E81" s="34" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F81" s="113" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G81" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H81" s="114"/>
       <c r="I81" s="23">
@@ -12858,23 +12890,23 @@
     </row>
     <row r="82" spans="1:10" ht="66">
       <c r="A82" s="110" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B82" s="109" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C82" s="110"/>
       <c r="D82" s="76" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E82" s="34" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F82" s="113" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G82" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I82" s="23">
         <v>76138</v>
@@ -12885,23 +12917,23 @@
     </row>
     <row r="83" spans="1:10" ht="57.6">
       <c r="A83" s="110" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B83" s="109" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C83" s="110"/>
       <c r="D83" s="131" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E83" s="34" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F83" s="113" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G83" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I83" s="23">
         <v>76138</v>
@@ -12912,23 +12944,23 @@
     </row>
     <row r="84" spans="1:10" ht="28.8">
       <c r="A84" s="112" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B84" s="109" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C84" s="110"/>
       <c r="D84" s="76" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E84" s="34" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F84" s="113" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G84" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H84" s="127"/>
       <c r="I84" s="23">
@@ -12940,37 +12972,37 @@
     </row>
     <row r="85" spans="1:10" ht="52.8">
       <c r="A85" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>746</v>
+      </c>
+      <c r="C85" s="36" t="s">
+        <v>747</v>
+      </c>
+      <c r="D85" s="62" t="s">
         <v>748</v>
       </c>
-      <c r="B85" s="27" t="s">
+      <c r="E85" s="30" t="s">
         <v>749</v>
       </c>
-      <c r="C85" s="36" t="s">
+      <c r="F85" s="20" t="s">
         <v>750</v>
       </c>
-      <c r="D85" s="62" t="s">
-        <v>751</v>
-      </c>
-      <c r="E85" s="30" t="s">
+      <c r="G85" s="8" t="s">
         <v>752</v>
-      </c>
-      <c r="F85" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>755</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="12">
         <v>43264</v>
       </c>
       <c r="J85" s="32" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="52.8">
       <c r="A86" s="6" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>149</v>
@@ -12979,17 +13011,17 @@
         <v>8001143</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="8" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="I86" s="12">
         <v>43196</v>
@@ -13000,10 +13032,10 @@
     </row>
     <row r="87" spans="1:10" ht="118.8">
       <c r="A87" s="6" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C87" s="13">
         <v>8001107</v>
@@ -13013,10 +13045,10 @@
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="12">
@@ -13028,7 +13060,7 @@
     </row>
     <row r="88" spans="1:10" ht="39.6">
       <c r="A88" s="308" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>45</v>
@@ -13037,13 +13069,13 @@
         <v>22</v>
       </c>
       <c r="D88" s="133" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E88" s="87" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="8" t="s">
@@ -13065,13 +13097,13 @@
         <v>22</v>
       </c>
       <c r="D89" s="133" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="8" t="s">
@@ -13093,13 +13125,13 @@
         <v>22</v>
       </c>
       <c r="D90" s="133" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="8" t="s">
@@ -13121,13 +13153,13 @@
         <v>22</v>
       </c>
       <c r="D91" s="133" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G91" s="8"/>
       <c r="H91" s="8" t="s">
@@ -13149,13 +13181,13 @@
         <v>22</v>
       </c>
       <c r="D92" s="133" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="G92" s="8"/>
       <c r="H92" s="8" t="s">
@@ -13177,13 +13209,13 @@
         <v>22</v>
       </c>
       <c r="D93" s="133" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G93" s="8"/>
       <c r="H93" s="8" t="s">
@@ -13205,13 +13237,13 @@
         <v>22</v>
       </c>
       <c r="D94" s="133" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="8" t="s">
@@ -13233,13 +13265,13 @@
         <v>22</v>
       </c>
       <c r="D95" s="134" t="s">
+        <v>800</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="F95" s="20" t="s">
         <v>803</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>805</v>
-      </c>
-      <c r="F95" s="20" t="s">
-        <v>806</v>
       </c>
       <c r="G95" s="8"/>
       <c r="H95" s="8" t="s">
@@ -13254,7 +13286,7 @@
     </row>
     <row r="96" spans="1:10" ht="26.4">
       <c r="A96" s="6" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>45</v>
@@ -13263,19 +13295,19 @@
         <v>22</v>
       </c>
       <c r="D96" s="135" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E96" s="22" t="s">
+        <v>812</v>
+      </c>
+      <c r="F96" s="20" t="s">
+        <v>813</v>
+      </c>
+      <c r="G96" s="32" t="s">
+        <v>814</v>
+      </c>
+      <c r="H96" s="8" t="s">
         <v>815</v>
-      </c>
-      <c r="F96" s="20" t="s">
-        <v>816</v>
-      </c>
-      <c r="G96" s="32" t="s">
-        <v>817</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>818</v>
       </c>
       <c r="I96" s="12">
         <v>43240</v>
@@ -13286,26 +13318,26 @@
     </row>
     <row r="97" spans="1:10" ht="52.8">
       <c r="A97" s="6" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>149</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E97" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="F97" s="8" t="s">
         <v>831</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>834</v>
       </c>
       <c r="G97" s="8"/>
       <c r="H97" s="8" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="I97" s="12">
         <v>43210</v>
@@ -13316,18 +13348,18 @@
     </row>
     <row r="98" spans="1:10" ht="39.6">
       <c r="A98" s="6" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="136" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="8" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="G98" s="8"/>
       <c r="H98" s="8" t="s">
@@ -13342,7 +13374,7 @@
     </row>
     <row r="99" spans="1:10" ht="100.8">
       <c r="A99" s="6" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>149</v>
@@ -13351,17 +13383,17 @@
         <v>8001106</v>
       </c>
       <c r="D99" s="129" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E99" s="30" t="s">
+        <v>842</v>
+      </c>
+      <c r="F99" s="30" t="s">
         <v>845</v>
-      </c>
-      <c r="F99" s="30" t="s">
-        <v>848</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="8" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="I99" s="12">
         <v>43210</v>
@@ -13372,23 +13404,23 @@
     </row>
     <row r="100" spans="1:10" ht="43.2">
       <c r="A100" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="E100" s="96" t="s">
         <v>853</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="F100" s="8" t="s">
         <v>854</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>855</v>
-      </c>
-      <c r="E100" s="96" t="s">
-        <v>856</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>857</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="8" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="I100" s="12">
         <v>43210</v>
@@ -13399,7 +13431,7 @@
     </row>
     <row r="101" spans="1:10" ht="72">
       <c r="A101" s="17" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B101" s="137" t="s">
         <v>149</v>
@@ -13408,19 +13440,19 @@
         <v>8000823</v>
       </c>
       <c r="D101" s="139" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E101" s="140" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F101" s="141" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G101" s="142" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="I101" s="143">
         <v>43196</v>
@@ -13429,23 +13461,23 @@
     </row>
     <row r="102" spans="1:10" ht="72">
       <c r="A102" s="19" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B102" s="137" t="s">
         <v>149</v>
       </c>
       <c r="C102" s="138"/>
       <c r="D102" s="145" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="143">
@@ -13455,21 +13487,21 @@
     </row>
     <row r="103" spans="1:10" ht="72">
       <c r="A103" s="6" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B103" s="66" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C103" s="129"/>
       <c r="D103" s="102"/>
       <c r="E103" s="30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F103" s="68" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="G103" s="28" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="12"/>
@@ -13479,7 +13511,7 @@
     </row>
     <row r="104" spans="1:10" ht="66">
       <c r="A104" s="6" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>45</v>
@@ -13491,13 +13523,13 @@
         <v>2296810</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="F104" s="20" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="12">
@@ -13509,7 +13541,7 @@
     </row>
     <row r="105" spans="1:10" ht="66">
       <c r="A105" s="6" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>45</v>
@@ -13521,13 +13553,13 @@
         <v>2425629</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F105" s="20" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="12">
@@ -13539,7 +13571,7 @@
     </row>
     <row r="106" spans="1:10" ht="28.8">
       <c r="A106" s="6" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B106" s="27" t="s">
         <v>77</v>
@@ -13548,14 +13580,14 @@
         <v>22</v>
       </c>
       <c r="D106" s="82" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E106" s="13"/>
       <c r="F106" s="38" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="I106" s="12">
         <v>43270</v>
@@ -13566,7 +13598,7 @@
     </row>
     <row r="107" spans="1:10" ht="28.8">
       <c r="A107" s="6" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B107" s="27" t="s">
         <v>77</v>
@@ -13575,14 +13607,14 @@
         <v>22</v>
       </c>
       <c r="D107" s="82" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E107" s="13"/>
       <c r="F107" s="38" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H107" s="9"/>
       <c r="I107" s="12">
@@ -13594,7 +13626,7 @@
     </row>
     <row r="108" spans="1:10" ht="28.8">
       <c r="A108" s="6" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B108" s="27" t="s">
         <v>77</v>
@@ -13603,14 +13635,14 @@
         <v>22</v>
       </c>
       <c r="D108" s="82" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E108" s="13"/>
       <c r="F108" s="38" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H108" s="9"/>
       <c r="I108" s="12">
@@ -13622,7 +13654,7 @@
     </row>
     <row r="109" spans="1:10" ht="28.8">
       <c r="A109" s="6" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B109" s="27" t="s">
         <v>77</v>
@@ -13631,14 +13663,14 @@
         <v>22</v>
       </c>
       <c r="D109" s="82" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E109" s="13"/>
       <c r="F109" s="38" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H109" s="9"/>
       <c r="I109" s="12">
@@ -13650,7 +13682,7 @@
     </row>
     <row r="110" spans="1:10" ht="28.8">
       <c r="A110" s="6" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B110" s="27" t="s">
         <v>77</v>
@@ -13659,14 +13691,14 @@
         <v>22</v>
       </c>
       <c r="D110" s="82" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E110" s="13"/>
       <c r="F110" s="38" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H110" s="9"/>
       <c r="I110" s="12">
@@ -13678,7 +13710,7 @@
     </row>
     <row r="111" spans="1:10" ht="28.8">
       <c r="A111" s="6" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B111" s="27" t="s">
         <v>77</v>
@@ -13687,14 +13719,14 @@
         <v>22</v>
       </c>
       <c r="D111" s="147" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="38" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H111" s="9"/>
       <c r="I111" s="12">
@@ -13706,7 +13738,7 @@
     </row>
     <row r="112" spans="1:10" ht="28.8">
       <c r="A112" s="6" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B112" s="27" t="s">
         <v>77</v>
@@ -13715,14 +13747,14 @@
         <v>22</v>
       </c>
       <c r="D112" s="148" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E112" s="13"/>
       <c r="F112" s="38" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H112" s="9"/>
       <c r="I112" s="12">
@@ -13734,7 +13766,7 @@
     </row>
     <row r="113" spans="1:10" ht="28.8">
       <c r="A113" s="6" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B113" s="27" t="s">
         <v>77</v>
@@ -13743,14 +13775,14 @@
         <v>22</v>
       </c>
       <c r="D113" s="149" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E113" s="13"/>
       <c r="F113" s="150" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H113" s="9"/>
       <c r="I113" s="12">
@@ -13762,7 +13794,7 @@
     </row>
     <row r="114" spans="1:10" ht="28.8">
       <c r="A114" s="6" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B114" s="27" t="s">
         <v>77</v>
@@ -13771,14 +13803,14 @@
         <v>22</v>
       </c>
       <c r="D114" s="151" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="152" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H114" s="9"/>
       <c r="I114" s="12">
@@ -13790,7 +13822,7 @@
     </row>
     <row r="115" spans="1:10" ht="28.8">
       <c r="A115" s="6" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B115" s="27" t="s">
         <v>77</v>
@@ -13799,14 +13831,14 @@
         <v>22</v>
       </c>
       <c r="D115" s="82" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="152" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="12">
@@ -13818,7 +13850,7 @@
     </row>
     <row r="116" spans="1:10" ht="28.8">
       <c r="A116" s="6" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B116" s="27" t="s">
         <v>77</v>
@@ -13827,14 +13859,14 @@
         <v>22</v>
       </c>
       <c r="D116" s="149" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="38" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H116" s="9"/>
       <c r="I116" s="12">
@@ -13846,7 +13878,7 @@
     </row>
     <row r="117" spans="1:10" ht="118.8">
       <c r="A117" s="6" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>45</v>
@@ -13855,19 +13887,19 @@
         <v>22</v>
       </c>
       <c r="D117" s="135" t="s">
+        <v>918</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>919</v>
+      </c>
+      <c r="F117" s="20" t="s">
+        <v>920</v>
+      </c>
+      <c r="G117" s="117" t="s">
         <v>921</v>
       </c>
-      <c r="E117" s="22" t="s">
+      <c r="H117" s="8" t="s">
         <v>922</v>
-      </c>
-      <c r="F117" s="20" t="s">
-        <v>923</v>
-      </c>
-      <c r="G117" s="117" t="s">
-        <v>924</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>925</v>
       </c>
       <c r="I117" s="12">
         <v>43240</v>
@@ -13878,7 +13910,7 @@
     </row>
     <row r="118" spans="1:10" ht="26.4">
       <c r="A118" s="6" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>45</v>
@@ -13887,14 +13919,14 @@
         <v>22</v>
       </c>
       <c r="D118" s="135" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="F118" s="20"/>
       <c r="G118" s="8" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="H118" s="9"/>
       <c r="I118" s="12">
@@ -13906,7 +13938,7 @@
     </row>
     <row r="119" spans="1:10" ht="28.8">
       <c r="A119" s="6" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B119" s="27" t="s">
         <v>77</v>
@@ -13917,7 +13949,7 @@
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
       <c r="F119" s="38" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G119" s="111" t="s">
         <v>163</v>
@@ -13932,7 +13964,7 @@
     </row>
     <row r="120" spans="1:10" ht="28.8">
       <c r="A120" s="6" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B120" s="27" t="s">
         <v>77</v>
@@ -13945,10 +13977,10 @@
       </c>
       <c r="E120" s="13"/>
       <c r="F120" s="38" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H120" s="9"/>
       <c r="I120" s="12">

--- a/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
+++ b/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barbj\Documents\Infoway-Health Canada CCDD\formulary\Working QA Team Folders\Pre- Release QA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{814B819D-5C0E-4775-9CCD-55D66B214693}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="17268" windowHeight="5256"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="17268" windowHeight="5256" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Action Items, Open" sheetId="1" r:id="rId1"/>
@@ -12,17 +18,17 @@
     <sheet name="Completed AIs Released" sheetId="3" r:id="rId3"/>
     <sheet name="AIs no longer relevant" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="F124" authorId="0">
+    <comment ref="F124" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -34,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F136" authorId="0">
+    <comment ref="F137" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -51,12 +57,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G26" authorId="0">
+    <comment ref="G26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F27" authorId="0">
+    <comment ref="F27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,12 +94,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E88" authorId="0">
+    <comment ref="E88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G96" authorId="0">
+    <comment ref="G96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H117" authorId="0">
+    <comment ref="H117" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="1065">
   <si>
     <t>TM</t>
   </si>
@@ -3203,9 +3209,6 @@
     <t>valganciclovir (valganciclovir hydrochloride) 50 mg per mL powder for oral solution</t>
   </si>
   <si>
-    <t>Discussion: Should transform as oral solution</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">&lt;JMJ&gt; Monograph says vial, or am I misreading it? 
 </t>
@@ -4466,9 +4469,6 @@
     <t>U of Ps Done July 27 2018 bfj</t>
   </si>
   <si>
-    <t>Louise: DPD ingredient should be tobramycin sulfate according to monograph.</t>
-  </si>
-  <si>
     <t>Louise: change concentration to 300 mg per 16.7 mL</t>
   </si>
   <si>
@@ -4525,11 +4525,45 @@
     <t>Louise: strength = 50 mg per 1 mL
 Unit of presentation: syringe*</t>
   </si>
+  <si>
+    <t>valproic acid (valproate)</t>
+  </si>
+  <si>
+    <t>August Release QA</t>
+  </si>
+  <si>
+    <t>valproic acid (sodium valproate) 250 mg per 5 mL syrup</t>
+  </si>
+  <si>
+    <t>This outlier results in an extra (unnecessary) ntp. Bfj</t>
+  </si>
+  <si>
+    <t>02238370
+02236807</t>
+  </si>
+  <si>
+    <t>Discussion: Should transform as oral solution - Louise/Jo-Anne?</t>
+  </si>
+  <si>
+    <t>tobramycin 40 mg per mL solution for injection</t>
+  </si>
+  <si>
+    <t>Louise: I think DPD ingredient should be tobramycin (tobramycin sulfate). Otherwise it differs from all other tobramycin injections, which I'm not inclined to believe. There is some evidence in the monograph that it contains tobramycin sodium. bfj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louise: both are described as oral solutions in monographs. Extra ntp results from description as syrup. </t>
+  </si>
+  <si>
+    <t>Jo and Louise looking into this one (which one is correct for all three - syrup or solution?). Bfj</t>
+  </si>
+  <si>
+    <t>Aug 3 2018</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
@@ -5743,12 +5777,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5811,14 +5839,8 @@
     <xf numFmtId="49" fontId="40" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5826,10 +5848,6 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6052,9 +6070,6 @@
     <xf numFmtId="0" fontId="61" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="17" fontId="36" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6087,6 +6102,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="38" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6096,8 +6132,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFF00FF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF521BED"/>
     </mruColors>
   </colors>
@@ -6401,29 +6437,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J146"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="19.44140625" style="170" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="166" customWidth="1"/>
-    <col min="3" max="3" width="9" style="166" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="166" customWidth="1"/>
     <col min="4" max="4" width="13" style="166" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.109375" style="172" customWidth="1"/>
     <col min="6" max="6" width="28" style="166" customWidth="1"/>
@@ -6434,7 +6470,7 @@
     <col min="11" max="16384" width="14.44140625" style="166"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="158" customFormat="1" ht="27.6">
+    <row r="1" spans="1:10" s="158" customFormat="1" ht="28.2">
       <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
@@ -6487,20 +6523,20 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="96.6">
+    <row r="3" spans="1:10" ht="98.7">
       <c r="A3" s="159" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B3" s="160"/>
       <c r="C3" s="160"/>
-      <c r="D3" s="218">
+      <c r="D3" s="214">
         <v>2246848</v>
       </c>
-      <c r="E3" s="219" t="s">
+      <c r="E3" s="306" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F3" s="163" t="s">
         <v>1003</v>
-      </c>
-      <c r="F3" s="163" t="s">
-        <v>1004</v>
       </c>
       <c r="G3" s="160"/>
       <c r="H3" s="164"/>
@@ -6608,64 +6644,64 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="317.39999999999998">
+    <row r="8" spans="1:10" ht="345">
       <c r="A8" s="170" t="s">
         <v>436</v>
       </c>
       <c r="B8" s="164" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C8" s="160"/>
       <c r="D8" s="171">
         <v>2368196</v>
       </c>
       <c r="E8" s="172" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F8" s="163" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G8" s="160"/>
       <c r="H8" s="164"/>
       <c r="I8" s="165"/>
     </row>
-    <row r="9" spans="1:10" ht="331.2">
+    <row r="9" spans="1:10" ht="358.8">
       <c r="A9" s="173" t="s">
+        <v>934</v>
+      </c>
+      <c r="B9" s="164" t="s">
         <v>935</v>
-      </c>
-      <c r="B9" s="164" t="s">
-        <v>936</v>
       </c>
       <c r="C9" s="160"/>
       <c r="D9" s="174">
         <v>2388537</v>
       </c>
       <c r="E9" s="172" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F9" s="163" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G9" s="160"/>
       <c r="H9" s="164"/>
       <c r="I9" s="165"/>
     </row>
-    <row r="10" spans="1:10" ht="409.6">
+    <row r="10" spans="1:10" ht="409.5">
       <c r="A10" s="170" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B10" s="164" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C10" s="160"/>
       <c r="D10" s="174">
         <v>2383608</v>
       </c>
       <c r="E10" s="175" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F10" s="176" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G10" s="176"/>
       <c r="H10" s="164"/>
@@ -6673,23 +6709,23 @@
     </row>
     <row r="11" spans="1:10" ht="69">
       <c r="A11" s="173" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B11" s="164" t="s">
         <v>1005</v>
       </c>
-      <c r="B11" s="164" t="s">
+      <c r="C11" s="160"/>
+      <c r="D11" s="191" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E11" s="215" t="s">
         <v>1006</v>
       </c>
-      <c r="C11" s="160"/>
-      <c r="D11" s="193" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E11" s="221" t="s">
+      <c r="F11" s="166" t="s">
         <v>1007</v>
       </c>
-      <c r="F11" s="166" t="s">
-        <v>1008</v>
-      </c>
       <c r="G11" s="176" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H11" s="164"/>
       <c r="I11" s="165">
@@ -6698,18 +6734,18 @@
     </row>
     <row r="12" spans="1:10" ht="27.6">
       <c r="A12" s="170" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B12" s="164" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C12" s="160"/>
-      <c r="D12" s="222" t="s">
-        <v>1049</v>
+      <c r="D12" s="216" t="s">
+        <v>1047</v>
       </c>
       <c r="E12" s="166"/>
       <c r="F12" s="166" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="G12" s="176"/>
       <c r="H12" s="164"/>
@@ -6719,23 +6755,23 @@
     </row>
     <row r="13" spans="1:10" ht="41.4">
       <c r="A13" s="173" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B13" s="164" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C13" s="160"/>
+      <c r="D13" s="216" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E13" s="215" t="s">
         <v>1010</v>
       </c>
-      <c r="B13" s="164" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="222" t="s">
+      <c r="F13" s="166" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G13" s="176" t="s">
         <v>1014</v>
-      </c>
-      <c r="E13" s="221" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F13" s="166" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G13" s="176" t="s">
-        <v>1015</v>
       </c>
       <c r="H13" s="164"/>
       <c r="I13" s="165">
@@ -6759,11 +6795,11 @@
         <v>92</v>
       </c>
       <c r="F14" s="163" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="G14" s="180"/>
       <c r="H14" s="181" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I14" s="165">
         <v>43196</v>
@@ -6834,7 +6870,7 @@
       <c r="H17" s="164"/>
       <c r="I17" s="165"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="14.1">
       <c r="A18" s="159" t="s">
         <v>121</v>
       </c>
@@ -6882,7 +6918,7 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="41.4">
+    <row r="20" spans="1:9" ht="42.3">
       <c r="A20" s="159" t="s">
         <v>135</v>
       </c>
@@ -6940,7 +6976,7 @@
       </c>
       <c r="D22" s="186"/>
       <c r="E22" s="168" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F22" s="185" t="s">
         <v>175</v>
@@ -7049,7 +7085,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="27.6">
+    <row r="27" spans="1:9" ht="28.2">
       <c r="A27" s="159" t="s">
         <v>210</v>
       </c>
@@ -7095,7 +7131,7 @@
       <c r="H28" s="181"/>
       <c r="I28" s="165"/>
     </row>
-    <row r="29" spans="1:9" ht="41.4">
+    <row r="29" spans="1:9" ht="55.2">
       <c r="A29" s="159" t="s">
         <v>222</v>
       </c>
@@ -7120,7 +7156,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="41.4">
+    <row r="30" spans="1:9" ht="55.2">
       <c r="A30" s="182" t="s">
         <v>222</v>
       </c>
@@ -7141,7 +7177,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="41.4">
+    <row r="31" spans="1:9" ht="55.2">
       <c r="A31" s="182" t="s">
         <v>222</v>
       </c>
@@ -7162,7 +7198,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="41.4">
+    <row r="32" spans="1:9" ht="55.2">
       <c r="A32" s="182" t="s">
         <v>222</v>
       </c>
@@ -7222,7 +7258,7 @@
       </c>
       <c r="E34" s="168"/>
       <c r="F34" s="163" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G34" s="180"/>
       <c r="I34" s="165">
@@ -7245,7 +7281,7 @@
         <v>240</v>
       </c>
       <c r="G35" s="160" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H35" s="164"/>
       <c r="I35" s="165">
@@ -7287,13 +7323,13 @@
         <v>247</v>
       </c>
       <c r="E37" s="168" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F37" s="163" t="s">
         <v>251</v>
       </c>
       <c r="G37" s="160" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="H37" s="164"/>
       <c r="I37" s="165"/>
@@ -7310,20 +7346,20 @@
         <v>253</v>
       </c>
       <c r="E38" s="168" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F38" s="163" t="s">
         <v>251</v>
       </c>
       <c r="G38" s="160" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="H38" s="164"/>
       <c r="I38" s="165"/>
     </row>
     <row r="39" spans="1:10" ht="317.39999999999998">
       <c r="A39" s="159" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B39" s="160" t="s">
         <v>257</v>
@@ -7333,42 +7369,39 @@
         <v>258</v>
       </c>
       <c r="E39" s="172" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F39" s="163" t="s">
-        <v>961</v>
-      </c>
-      <c r="G39" s="191"/>
-      <c r="H39" s="192"/>
-      <c r="I39" s="191">
+        <v>960</v>
+      </c>
+      <c r="G39" s="307"/>
+      <c r="I39" s="307">
         <v>9005524</v>
       </c>
-      <c r="J39" s="192" t="s">
-        <v>968</v>
+      <c r="J39" s="166" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="303.60000000000002">
       <c r="A40" s="182" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B40" s="166" t="s">
-        <v>936</v>
-      </c>
-      <c r="C40" s="193">
+        <v>935</v>
+      </c>
+      <c r="C40" s="191">
         <v>2399733</v>
       </c>
       <c r="E40" s="172" t="s">
-        <v>968</v>
-      </c>
-      <c r="F40" s="194" t="s">
-        <v>962</v>
-      </c>
-      <c r="G40" s="191"/>
-      <c r="H40" s="192"/>
-      <c r="I40" s="191"/>
-      <c r="J40" s="192"/>
-    </row>
-    <row r="41" spans="1:10" ht="124.2">
+        <v>967</v>
+      </c>
+      <c r="F40" s="192" t="s">
+        <v>961</v>
+      </c>
+      <c r="G40" s="307"/>
+      <c r="I40" s="307"/>
+    </row>
+    <row r="41" spans="1:10" ht="151.80000000000001">
       <c r="A41" s="159" t="s">
         <v>267</v>
       </c>
@@ -7407,7 +7440,7 @@
         <v>275</v>
       </c>
       <c r="F42" s="185" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G42" s="185" t="s">
         <v>276</v>
@@ -7436,7 +7469,7 @@
         <v>281</v>
       </c>
       <c r="F43" s="185" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G43" s="185" t="s">
         <v>284</v>
@@ -7465,7 +7498,7 @@
         <v>286</v>
       </c>
       <c r="F44" s="163" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G44" s="185" t="s">
         <v>287</v>
@@ -7484,23 +7517,23 @@
       <c r="B45" s="164" t="s">
         <v>290</v>
       </c>
-      <c r="C45" s="195">
+      <c r="C45" s="193">
         <v>8000036</v>
       </c>
-      <c r="D45" s="195" t="s">
+      <c r="D45" s="193" t="s">
         <v>294</v>
       </c>
       <c r="E45" s="168" t="s">
         <v>295</v>
       </c>
-      <c r="F45" s="217" t="s">
+      <c r="F45" s="213" t="s">
         <v>299</v>
       </c>
       <c r="G45" s="160" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H45" s="181" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I45" s="165">
         <v>43292</v>
@@ -7513,23 +7546,23 @@
       <c r="B46" s="164" t="s">
         <v>290</v>
       </c>
-      <c r="C46" s="195">
+      <c r="C46" s="193">
         <v>8000036</v>
       </c>
-      <c r="D46" s="195" t="s">
+      <c r="D46" s="193" t="s">
         <v>309</v>
       </c>
       <c r="E46" s="168" t="s">
         <v>310</v>
       </c>
-      <c r="F46" s="217" t="s">
+      <c r="F46" s="213" t="s">
         <v>299</v>
       </c>
       <c r="G46" s="160" t="s">
         <v>300</v>
       </c>
       <c r="H46" s="181" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I46" s="165">
         <v>43292</v>
@@ -7542,17 +7575,17 @@
       <c r="B47" s="164" t="s">
         <v>290</v>
       </c>
-      <c r="C47" s="195">
+      <c r="C47" s="193">
         <v>8000036</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="193" t="s">
         <v>311</v>
       </c>
       <c r="E47" s="168" t="s">
         <v>312</v>
       </c>
       <c r="F47" s="187" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="G47" s="160" t="s">
         <v>313</v>
@@ -7574,14 +7607,14 @@
       <c r="C48" s="160" t="s">
         <v>318</v>
       </c>
-      <c r="D48" s="196" t="s">
+      <c r="D48" s="194" t="s">
         <v>319</v>
       </c>
       <c r="E48" s="168" t="s">
         <v>320</v>
       </c>
       <c r="F48" s="185" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="G48" s="160" t="s">
         <v>321</v>
@@ -7591,7 +7624,7 @@
         <v>43250</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="69.599999999999994">
+    <row r="49" spans="1:9" ht="69.3">
       <c r="A49" s="159" t="s">
         <v>337</v>
       </c>
@@ -7608,7 +7641,7 @@
         <v>339</v>
       </c>
       <c r="F49" s="163" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G49" s="185"/>
       <c r="H49" s="164"/>
@@ -7632,11 +7665,11 @@
       <c r="E50" s="168" t="s">
         <v>344</v>
       </c>
-      <c r="F50" s="197" t="s">
+      <c r="F50" s="195" t="s">
         <v>345</v>
       </c>
       <c r="G50" s="185" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H50" s="164"/>
       <c r="I50" s="165">
@@ -7659,11 +7692,11 @@
       <c r="E51" s="168" t="s">
         <v>344</v>
       </c>
-      <c r="F51" s="197" t="s">
+      <c r="F51" s="195" t="s">
         <v>345</v>
       </c>
       <c r="G51" s="185" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H51" s="164"/>
       <c r="I51" s="165">
@@ -7671,7 +7704,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="193.2">
-      <c r="A52" s="198" t="s">
+      <c r="A52" s="196" t="s">
         <v>352</v>
       </c>
       <c r="B52" s="164" t="s">
@@ -7682,7 +7715,7 @@
         <v>358</v>
       </c>
       <c r="E52" s="168"/>
-      <c r="F52" s="199" t="s">
+      <c r="F52" s="197" t="s">
         <v>360</v>
       </c>
       <c r="G52" s="185" t="s">
@@ -7692,21 +7725,21 @@
       <c r="I52" s="165"/>
     </row>
     <row r="53" spans="1:9" ht="27.6">
-      <c r="A53" s="198" t="s">
+      <c r="A53" s="196" t="s">
         <v>365</v>
       </c>
       <c r="B53" s="164" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C53" s="164"/>
       <c r="D53" s="161" t="s">
+        <v>992</v>
+      </c>
+      <c r="E53" s="168" t="s">
         <v>993</v>
       </c>
-      <c r="E53" s="168" t="s">
+      <c r="F53" s="212" t="s">
         <v>994</v>
-      </c>
-      <c r="F53" s="215" t="s">
-        <v>995</v>
       </c>
       <c r="G53" s="185"/>
       <c r="H53" s="164"/>
@@ -7728,7 +7761,7 @@
       <c r="E54" s="168" t="s">
         <v>368</v>
       </c>
-      <c r="F54" s="197" t="s">
+      <c r="F54" s="195" t="s">
         <v>370</v>
       </c>
       <c r="G54" s="164" t="s">
@@ -7753,7 +7786,7 @@
       <c r="E55" s="168" t="s">
         <v>373</v>
       </c>
-      <c r="F55" s="199" t="s">
+      <c r="F55" s="197" t="s">
         <v>374</v>
       </c>
       <c r="G55" s="164"/>
@@ -7778,7 +7811,7 @@
       <c r="E56" s="168" t="s">
         <v>378</v>
       </c>
-      <c r="F56" s="199" t="s">
+      <c r="F56" s="197" t="s">
         <v>379</v>
       </c>
       <c r="G56" s="164" t="s">
@@ -7803,7 +7836,7 @@
         <v>381</v>
       </c>
       <c r="E57" s="168"/>
-      <c r="F57" s="197" t="s">
+      <c r="F57" s="195" t="s">
         <v>382</v>
       </c>
       <c r="G57" s="164"/>
@@ -7826,7 +7859,7 @@
         <v>383</v>
       </c>
       <c r="E58" s="168"/>
-      <c r="F58" s="197" t="s">
+      <c r="F58" s="195" t="s">
         <v>382</v>
       </c>
       <c r="G58" s="164"/>
@@ -7849,7 +7882,7 @@
         <v>384</v>
       </c>
       <c r="E59" s="168"/>
-      <c r="F59" s="197" t="s">
+      <c r="F59" s="195" t="s">
         <v>382</v>
       </c>
       <c r="G59" s="164"/>
@@ -7872,9 +7905,9 @@
         <v>387</v>
       </c>
       <c r="E60" s="168" t="s">
-        <v>940</v>
-      </c>
-      <c r="F60" s="199" t="s">
+        <v>939</v>
+      </c>
+      <c r="F60" s="197" t="s">
         <v>388</v>
       </c>
       <c r="G60" s="164"/>
@@ -7893,9 +7926,9 @@
         <v>391</v>
       </c>
       <c r="E61" s="168" t="s">
-        <v>941</v>
-      </c>
-      <c r="F61" s="199" t="s">
+        <v>940</v>
+      </c>
+      <c r="F61" s="197" t="s">
         <v>388</v>
       </c>
       <c r="G61" s="164"/>
@@ -7926,7 +7959,7 @@
         <v>43283</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="41.4">
+    <row r="63" spans="1:9" ht="55.2">
       <c r="A63" s="182" t="s">
         <v>76</v>
       </c>
@@ -7936,13 +7969,13 @@
       <c r="C63" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="200">
+      <c r="D63" s="198">
         <v>2320789</v>
       </c>
       <c r="E63" s="168" t="s">
         <v>399</v>
       </c>
-      <c r="F63" s="199" t="s">
+      <c r="F63" s="197" t="s">
         <v>401</v>
       </c>
       <c r="G63" s="164" t="s">
@@ -7953,7 +7986,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="41.4">
+    <row r="64" spans="1:9" ht="55.2">
       <c r="A64" s="182" t="s">
         <v>76</v>
       </c>
@@ -7963,13 +7996,13 @@
       <c r="C64" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="200" t="s">
+      <c r="D64" s="198" t="s">
         <v>403</v>
       </c>
       <c r="E64" s="168" t="s">
         <v>399</v>
       </c>
-      <c r="F64" s="199" t="s">
+      <c r="F64" s="197" t="s">
         <v>401</v>
       </c>
       <c r="G64" s="164" t="s">
@@ -7980,7 +8013,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="41.4">
+    <row r="65" spans="1:9" ht="55.2">
       <c r="A65" s="182" t="s">
         <v>76</v>
       </c>
@@ -7990,13 +8023,13 @@
       <c r="C65" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="200" t="s">
+      <c r="D65" s="198" t="s">
         <v>405</v>
       </c>
       <c r="E65" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="F65" s="199" t="s">
+      <c r="F65" s="197" t="s">
         <v>401</v>
       </c>
       <c r="G65" s="164" t="s">
@@ -8007,7 +8040,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="41.4">
+    <row r="66" spans="1:9" ht="55.2">
       <c r="A66" s="182" t="s">
         <v>76</v>
       </c>
@@ -8017,16 +8050,16 @@
       <c r="C66" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="200" t="s">
+      <c r="D66" s="198" t="s">
         <v>408</v>
       </c>
       <c r="E66" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="F66" s="199" t="s">
+      <c r="F66" s="197" t="s">
         <v>401</v>
       </c>
-      <c r="G66" s="200" t="s">
+      <c r="G66" s="198" t="s">
         <v>410</v>
       </c>
       <c r="H66" s="164"/>
@@ -8044,16 +8077,16 @@
       <c r="C67" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="200" t="s">
+      <c r="D67" s="198" t="s">
         <v>412</v>
       </c>
       <c r="E67" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="F67" s="199" t="s">
+      <c r="F67" s="197" t="s">
         <v>415</v>
       </c>
-      <c r="G67" s="200" t="s">
+      <c r="G67" s="198" t="s">
         <v>416</v>
       </c>
       <c r="H67" s="164"/>
@@ -8069,22 +8102,22 @@
       <c r="C68" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="200" t="s">
+      <c r="D68" s="198" t="s">
         <v>417</v>
       </c>
       <c r="E68" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="F68" s="199" t="s">
+      <c r="F68" s="197" t="s">
         <v>415</v>
       </c>
-      <c r="G68" s="200" t="s">
+      <c r="G68" s="198" t="s">
         <v>423</v>
       </c>
       <c r="H68" s="164"/>
       <c r="I68" s="165"/>
     </row>
-    <row r="69" spans="1:9" ht="41.4">
+    <row r="69" spans="1:9" ht="55.2">
       <c r="A69" s="182" t="s">
         <v>76</v>
       </c>
@@ -8100,10 +8133,10 @@
       <c r="E69" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="F69" s="199" t="s">
+      <c r="F69" s="197" t="s">
         <v>401</v>
       </c>
-      <c r="G69" s="200" t="s">
+      <c r="G69" s="198" t="s">
         <v>427</v>
       </c>
       <c r="H69" s="164"/>
@@ -8125,16 +8158,16 @@
       <c r="E70" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="F70" s="199" t="s">
+      <c r="F70" s="197" t="s">
         <v>415</v>
       </c>
-      <c r="G70" s="200" t="s">
+      <c r="G70" s="198" t="s">
         <v>429</v>
       </c>
       <c r="H70" s="164"/>
       <c r="I70" s="165"/>
     </row>
-    <row r="71" spans="1:9" ht="41.4">
+    <row r="71" spans="1:9" ht="55.2">
       <c r="A71" s="182" t="s">
         <v>76</v>
       </c>
@@ -8150,10 +8183,10 @@
       <c r="E71" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="F71" s="199" t="s">
+      <c r="F71" s="197" t="s">
         <v>401</v>
       </c>
-      <c r="G71" s="200" t="s">
+      <c r="G71" s="198" t="s">
         <v>435</v>
       </c>
       <c r="H71" s="164"/>
@@ -8169,22 +8202,22 @@
       <c r="C72" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="201">
+      <c r="D72" s="199">
         <v>2368196</v>
       </c>
       <c r="E72" s="168" t="s">
         <v>438</v>
       </c>
-      <c r="F72" s="199" t="s">
+      <c r="F72" s="197" t="s">
         <v>439</v>
       </c>
-      <c r="G72" s="200" t="s">
+      <c r="G72" s="198" t="s">
         <v>440</v>
       </c>
       <c r="H72" s="164"/>
       <c r="I72" s="165"/>
     </row>
-    <row r="73" spans="1:9" ht="41.4">
+    <row r="73" spans="1:9" ht="55.2">
       <c r="A73" s="182" t="s">
         <v>441</v>
       </c>
@@ -8194,16 +8227,16 @@
       <c r="C73" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="202">
+      <c r="D73" s="200">
         <v>2356457</v>
       </c>
       <c r="E73" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="F73" s="199" t="s">
+      <c r="F73" s="197" t="s">
         <v>401</v>
       </c>
-      <c r="G73" s="200" t="s">
+      <c r="G73" s="198" t="s">
         <v>443</v>
       </c>
       <c r="H73" s="164"/>
@@ -8211,7 +8244,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="55.2">
+    <row r="74" spans="1:9" ht="56.4">
       <c r="A74" s="159" t="s">
         <v>444</v>
       </c>
@@ -8221,16 +8254,16 @@
       <c r="C74" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="202">
+      <c r="D74" s="200">
         <v>535230</v>
       </c>
       <c r="E74" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="F74" s="199" t="s">
+      <c r="F74" s="197" t="s">
         <v>401</v>
       </c>
-      <c r="G74" s="200" t="s">
+      <c r="G74" s="198" t="s">
         <v>445</v>
       </c>
       <c r="H74" s="164"/>
@@ -8238,24 +8271,24 @@
         <v>43290</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="55.2">
-      <c r="A75" s="203" t="s">
+    <row r="75" spans="1:9" ht="56.4">
+      <c r="A75" s="201" t="s">
         <v>446</v>
       </c>
       <c r="B75" s="160" t="s">
         <v>447</v>
       </c>
       <c r="C75" s="160"/>
-      <c r="D75" s="200" t="s">
+      <c r="D75" s="198" t="s">
         <v>358</v>
       </c>
       <c r="E75" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="F75" s="199" t="s">
+      <c r="F75" s="197" t="s">
         <v>448</v>
       </c>
-      <c r="G75" s="200"/>
+      <c r="G75" s="198"/>
       <c r="H75" s="164"/>
       <c r="I75" s="165">
         <v>43288</v>
@@ -8271,16 +8304,16 @@
       <c r="C76" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="202">
+      <c r="D76" s="200">
         <v>2410583</v>
       </c>
       <c r="E76" s="168" t="s">
         <v>450</v>
       </c>
-      <c r="F76" s="199" t="s">
+      <c r="F76" s="197" t="s">
         <v>448</v>
       </c>
-      <c r="G76" s="200" t="s">
+      <c r="G76" s="198" t="s">
         <v>451</v>
       </c>
       <c r="H76" s="164"/>
@@ -8301,8 +8334,8 @@
       <c r="D77" s="164" t="s">
         <v>203</v>
       </c>
-      <c r="E77" s="204"/>
-      <c r="F77" s="199" t="s">
+      <c r="E77" s="202"/>
+      <c r="F77" s="197" t="s">
         <v>456</v>
       </c>
       <c r="G77" s="164" t="s">
@@ -8325,7 +8358,7 @@
       <c r="E78" s="168" t="s">
         <v>459</v>
       </c>
-      <c r="F78" s="197" t="s">
+      <c r="F78" s="195" t="s">
         <v>460</v>
       </c>
       <c r="G78" s="164" t="s">
@@ -8349,8 +8382,8 @@
       <c r="D79" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="204"/>
-      <c r="F79" s="197" t="s">
+      <c r="E79" s="202"/>
+      <c r="F79" s="195" t="s">
         <v>465</v>
       </c>
       <c r="G79" s="164" t="s">
@@ -8377,8 +8410,8 @@
       <c r="E80" s="168" t="s">
         <v>470</v>
       </c>
-      <c r="F80" s="199" t="s">
-        <v>1054</v>
+      <c r="F80" s="197" t="s">
+        <v>1052</v>
       </c>
       <c r="G80" s="164" t="s">
         <v>471</v>
@@ -8388,7 +8421,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="409.6">
+    <row r="81" spans="1:9" ht="409.5">
       <c r="A81" s="159" t="s">
         <v>473</v>
       </c>
@@ -8455,7 +8488,7 @@
       <c r="D83" s="186" t="s">
         <v>490</v>
       </c>
-      <c r="E83" s="205" t="s">
+      <c r="E83" s="203" t="s">
         <v>491</v>
       </c>
       <c r="F83" s="185" t="s">
@@ -8513,7 +8546,7 @@
         <v>481</v>
       </c>
       <c r="F85" s="187" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="G85" s="185" t="s">
         <v>498</v>
@@ -8579,19 +8612,19 @@
     </row>
     <row r="88" spans="1:9" ht="27.6">
       <c r="A88" s="159" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B88" s="164" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D88" s="189" t="s">
         <v>1016</v>
       </c>
-      <c r="B88" s="164" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D88" s="189" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E88" s="221" t="s">
+      <c r="E88" s="215" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F88" s="187" t="s">
         <v>1019</v>
-      </c>
-      <c r="F88" s="187" t="s">
-        <v>1020</v>
       </c>
       <c r="G88" s="164"/>
       <c r="H88" s="164"/>
@@ -8601,19 +8634,19 @@
     </row>
     <row r="89" spans="1:9" ht="27.6">
       <c r="A89" s="182" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B89" s="164" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D89" s="189" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E89" s="215" t="s">
         <v>1018</v>
       </c>
-      <c r="E89" s="221" t="s">
-        <v>1019</v>
-      </c>
       <c r="F89" s="187" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G89" s="164"/>
       <c r="H89" s="164"/>
@@ -8623,19 +8656,19 @@
     </row>
     <row r="90" spans="1:9" ht="82.8">
       <c r="A90" s="159" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B90" s="164" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D90" s="189" t="s">
         <v>1022</v>
       </c>
-      <c r="B90" s="164" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D90" s="189" t="s">
+      <c r="E90" s="217" t="s">
         <v>1023</v>
       </c>
-      <c r="E90" s="223" t="s">
+      <c r="F90" s="212" t="s">
         <v>1024</v>
-      </c>
-      <c r="F90" s="215" t="s">
-        <v>1025</v>
       </c>
       <c r="G90" s="164"/>
       <c r="H90" s="164"/>
@@ -8657,9 +8690,9 @@
         <v>508</v>
       </c>
       <c r="E91" s="168" t="s">
-        <v>942</v>
-      </c>
-      <c r="F91" s="197" t="s">
+        <v>941</v>
+      </c>
+      <c r="F91" s="195" t="s">
         <v>510</v>
       </c>
       <c r="G91" s="164"/>
@@ -8682,8 +8715,8 @@
       <c r="E92" s="168" t="s">
         <v>514</v>
       </c>
-      <c r="F92" s="199" t="s">
-        <v>953</v>
+      <c r="F92" s="197" t="s">
+        <v>952</v>
       </c>
       <c r="G92" s="164" t="s">
         <v>516</v>
@@ -8705,8 +8738,8 @@
       <c r="E93" s="168" t="s">
         <v>518</v>
       </c>
-      <c r="F93" s="199" t="s">
-        <v>954</v>
+      <c r="F93" s="197" t="s">
+        <v>953</v>
       </c>
       <c r="G93" s="164" t="s">
         <v>520</v>
@@ -8726,8 +8759,8 @@
       <c r="E94" s="168" t="s">
         <v>522</v>
       </c>
-      <c r="F94" s="199" t="s">
-        <v>955</v>
+      <c r="F94" s="197" t="s">
+        <v>954</v>
       </c>
       <c r="G94" s="180" t="s">
         <v>524</v>
@@ -8749,7 +8782,7 @@
         <v>527</v>
       </c>
       <c r="E95" s="168" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F95" s="185" t="s">
         <v>529</v>
@@ -8764,23 +8797,23 @@
     </row>
     <row r="96" spans="1:9" ht="41.4">
       <c r="A96" s="159" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B96" s="164" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C96" s="160"/>
       <c r="D96" s="160" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E96" s="217" t="s">
         <v>1027</v>
       </c>
-      <c r="E96" s="220" t="s">
+      <c r="F96" s="187" t="s">
         <v>1028</v>
       </c>
-      <c r="F96" s="187" t="s">
+      <c r="G96" s="160" t="s">
         <v>1029</v>
-      </c>
-      <c r="G96" s="160" t="s">
-        <v>1030</v>
       </c>
       <c r="H96" s="164"/>
       <c r="I96" s="165">
@@ -8825,7 +8858,7 @@
         <v>561</v>
       </c>
       <c r="E98" s="168" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F98" s="185" t="s">
         <v>570</v>
@@ -8865,23 +8898,23 @@
     </row>
     <row r="100" spans="1:10" ht="41.4">
       <c r="A100" s="159" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B100" s="164" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C100" s="164"/>
       <c r="D100" s="160" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E100" s="168" t="s">
         <v>1032</v>
       </c>
-      <c r="E100" s="168" t="s">
+      <c r="F100" s="187" t="s">
         <v>1033</v>
       </c>
-      <c r="F100" s="187" t="s">
+      <c r="G100" s="164" t="s">
         <v>1034</v>
-      </c>
-      <c r="G100" s="164" t="s">
-        <v>1035</v>
       </c>
       <c r="H100" s="164"/>
       <c r="I100" s="165">
@@ -8897,20 +8930,20 @@
         <v>217</v>
       </c>
       <c r="C101" s="164"/>
-      <c r="D101" s="216">
+      <c r="D101" s="308">
         <v>2243686</v>
       </c>
       <c r="E101" s="162" t="s">
-        <v>999</v>
-      </c>
-      <c r="F101" s="206" t="s">
         <v>998</v>
+      </c>
+      <c r="F101" s="204" t="s">
+        <v>997</v>
       </c>
       <c r="G101" s="164"/>
       <c r="H101" s="164"/>
       <c r="I101" s="165"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" ht="14.1">
       <c r="A102" s="159" t="s">
         <v>604</v>
       </c>
@@ -9016,23 +9049,23 @@
     </row>
     <row r="106" spans="1:10" ht="27.6">
       <c r="A106" s="159" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B106" s="164" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C106" s="164"/>
+      <c r="D106" s="218" t="s">
         <v>1036</v>
       </c>
-      <c r="B106" s="164" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C106" s="164"/>
-      <c r="D106" s="224" t="s">
+      <c r="E106" s="168" t="s">
         <v>1037</v>
       </c>
-      <c r="E106" s="168" t="s">
+      <c r="F106" s="187" t="s">
         <v>1038</v>
       </c>
-      <c r="F106" s="187" t="s">
+      <c r="G106" s="164" t="s">
         <v>1039</v>
-      </c>
-      <c r="G106" s="164" t="s">
-        <v>1040</v>
       </c>
       <c r="H106" s="164"/>
       <c r="I106" s="165">
@@ -9049,17 +9082,17 @@
       <c r="C107" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="D107" s="212" t="s">
-        <v>974</v>
-      </c>
-      <c r="E107" s="214" t="s">
+      <c r="D107" s="210" t="s">
+        <v>973</v>
+      </c>
+      <c r="E107" s="309" t="s">
+        <v>979</v>
+      </c>
+      <c r="F107" s="185" t="s">
         <v>980</v>
       </c>
-      <c r="F107" s="185" t="s">
-        <v>981</v>
-      </c>
       <c r="G107" s="164" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H107" s="164"/>
       <c r="I107" s="165">
@@ -9072,17 +9105,17 @@
       </c>
       <c r="B108" s="164"/>
       <c r="C108" s="164"/>
-      <c r="D108" s="213" t="s">
-        <v>975</v>
-      </c>
-      <c r="E108" s="214" t="s">
-        <v>980</v>
+      <c r="D108" s="211" t="s">
+        <v>974</v>
+      </c>
+      <c r="E108" s="309" t="s">
+        <v>979</v>
       </c>
       <c r="F108" s="185" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G108" s="164" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H108" s="164"/>
       <c r="I108" s="165">
@@ -9095,17 +9128,17 @@
       </c>
       <c r="B109" s="164"/>
       <c r="C109" s="164"/>
-      <c r="D109" s="213" t="s">
-        <v>976</v>
-      </c>
-      <c r="E109" s="214" t="s">
-        <v>983</v>
+      <c r="D109" s="211" t="s">
+        <v>975</v>
+      </c>
+      <c r="E109" s="309" t="s">
+        <v>982</v>
       </c>
       <c r="F109" s="185" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G109" s="164" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H109" s="164"/>
       <c r="I109" s="165">
@@ -9118,17 +9151,17 @@
       </c>
       <c r="B110" s="164"/>
       <c r="C110" s="164"/>
-      <c r="D110" s="213" t="s">
-        <v>977</v>
-      </c>
-      <c r="E110" s="214" t="s">
-        <v>983</v>
+      <c r="D110" s="211" t="s">
+        <v>976</v>
+      </c>
+      <c r="E110" s="309" t="s">
+        <v>982</v>
       </c>
       <c r="F110" s="185" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G110" s="164" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H110" s="164"/>
       <c r="I110" s="165">
@@ -9141,17 +9174,17 @@
       </c>
       <c r="B111" s="164"/>
       <c r="C111" s="164"/>
-      <c r="D111" s="213" t="s">
-        <v>978</v>
-      </c>
-      <c r="E111" s="214" t="s">
-        <v>984</v>
+      <c r="D111" s="211" t="s">
+        <v>977</v>
+      </c>
+      <c r="E111" s="309" t="s">
+        <v>983</v>
       </c>
       <c r="F111" s="185" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G111" s="164" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H111" s="164"/>
       <c r="I111" s="165">
@@ -9164,17 +9197,17 @@
       </c>
       <c r="B112" s="164"/>
       <c r="C112" s="164"/>
-      <c r="D112" s="213" t="s">
-        <v>979</v>
-      </c>
-      <c r="E112" s="214" t="s">
-        <v>985</v>
+      <c r="D112" s="211" t="s">
+        <v>978</v>
+      </c>
+      <c r="E112" s="309" t="s">
+        <v>984</v>
       </c>
       <c r="F112" s="185" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G112" s="164" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H112" s="164"/>
       <c r="I112" s="165">
@@ -9250,7 +9283,7 @@
       <c r="H115" s="164"/>
       <c r="I115" s="165"/>
     </row>
-    <row r="116" spans="1:9" ht="82.8">
+    <row r="116" spans="1:9" ht="96.6">
       <c r="A116" s="159" t="s">
         <v>661</v>
       </c>
@@ -9289,8 +9322,8 @@
         <v>678</v>
       </c>
       <c r="E117" s="168"/>
-      <c r="F117" s="197" t="s">
-        <v>956</v>
+      <c r="F117" s="195" t="s">
+        <v>955</v>
       </c>
       <c r="G117" s="164"/>
       <c r="H117" s="164"/>
@@ -9313,7 +9346,7 @@
       </c>
       <c r="E118" s="168"/>
       <c r="F118" s="179" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G118" s="164"/>
       <c r="H118" s="164"/>
@@ -9387,7 +9420,7 @@
       <c r="E121" s="168" t="s">
         <v>722</v>
       </c>
-      <c r="F121" s="206" t="s">
+      <c r="F121" s="204" t="s">
         <v>724</v>
       </c>
       <c r="G121" s="180" t="s">
@@ -9450,7 +9483,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="27.6">
+    <row r="124" spans="1:9" ht="41.4">
       <c r="A124" s="159" t="s">
         <v>738</v>
       </c>
@@ -9463,7 +9496,7 @@
       <c r="D124" s="183" t="s">
         <v>739</v>
       </c>
-      <c r="E124" s="207" t="s">
+      <c r="E124" s="205" t="s">
         <v>751</v>
       </c>
       <c r="F124" s="187" t="s">
@@ -9485,14 +9518,14 @@
         <v>142</v>
       </c>
       <c r="C125" s="164"/>
-      <c r="D125" s="299" t="s">
-        <v>877</v>
+      <c r="D125" s="292" t="s">
+        <v>876</v>
       </c>
       <c r="E125" s="160" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F125" s="187" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="G125" s="164"/>
       <c r="H125" s="164"/>
@@ -9513,21 +9546,21 @@
       <c r="D126" s="186" t="s">
         <v>765</v>
       </c>
-      <c r="E126" s="207" t="s">
+      <c r="E126" s="205" t="s">
         <v>599</v>
       </c>
       <c r="F126" s="185" t="s">
+        <v>995</v>
+      </c>
+      <c r="G126" s="164" t="s">
         <v>996</v>
       </c>
-      <c r="G126" s="164" t="s">
-        <v>997</v>
-      </c>
-      <c r="H126" s="208"/>
+      <c r="H126" s="206"/>
       <c r="I126" s="165">
         <v>43264</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="27.6">
+    <row r="127" spans="1:9" ht="41.4">
       <c r="A127" s="182" t="s">
         <v>797</v>
       </c>
@@ -9549,10 +9582,10 @@
       <c r="G127" s="164" t="s">
         <v>808</v>
       </c>
-      <c r="H127" s="208"/>
+      <c r="H127" s="206"/>
       <c r="I127" s="165"/>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" ht="14.1">
       <c r="A128" s="159" t="s">
         <v>809</v>
       </c>
@@ -9595,24 +9628,30 @@
         <v>836</v>
       </c>
       <c r="G129" s="166" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H129" s="164"/>
       <c r="I129" s="165">
         <v>43240</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="41.4">
-      <c r="A130" s="170" t="s">
+    <row r="130" spans="1:9" ht="138">
+      <c r="A130" s="173" t="s">
         <v>837</v>
       </c>
-      <c r="D130" s="297">
+      <c r="D130" s="310">
         <v>2420287</v>
       </c>
-      <c r="F130" s="166" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I130" s="298">
+      <c r="E130" s="215" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F130" s="185" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G130" s="166" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I130" s="291">
         <v>372000</v>
       </c>
     </row>
@@ -9624,53 +9663,51 @@
         <v>290</v>
       </c>
       <c r="C131" s="160"/>
-      <c r="D131" s="195" t="s">
+      <c r="D131" s="193" t="s">
         <v>846</v>
       </c>
       <c r="E131" s="168" t="s">
         <v>847</v>
       </c>
       <c r="F131" s="163" t="s">
-        <v>848</v>
+        <v>1059</v>
       </c>
       <c r="G131" s="164" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H131" s="164"/>
       <c r="I131" s="165">
         <v>43288</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="138">
+    <row r="132" spans="1:9" ht="55.2">
       <c r="A132" s="159" t="s">
-        <v>858</v>
+        <v>1054</v>
       </c>
       <c r="B132" s="160" t="s">
-        <v>77</v>
-      </c>
-      <c r="C132" s="160" t="s">
-        <v>22</v>
-      </c>
-      <c r="D132" s="161" t="s">
-        <v>859</v>
-      </c>
-      <c r="E132" s="168"/>
-      <c r="F132" s="179" t="s">
-        <v>860</v>
+        <v>1055</v>
+      </c>
+      <c r="C132" s="160"/>
+      <c r="D132" s="305" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E132" s="215" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F132" s="163" t="s">
+        <v>1062</v>
       </c>
       <c r="G132" s="164" t="s">
-        <v>861</v>
-      </c>
-      <c r="H132" s="209" t="s">
-        <v>963</v>
-      </c>
-      <c r="I132" s="165">
-        <v>43270</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="41.4">
+        <v>1063</v>
+      </c>
+      <c r="H132" s="164"/>
+      <c r="I132" s="165" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="138">
       <c r="A133" s="159" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B133" s="160" t="s">
         <v>77</v>
@@ -9679,25 +9716,25 @@
         <v>22</v>
       </c>
       <c r="D133" s="161" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E133" s="168"/>
       <c r="F133" s="179" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="G133" s="164" t="s">
-        <v>864</v>
-      </c>
-      <c r="H133" s="181" t="s">
-        <v>964</v>
+        <v>860</v>
+      </c>
+      <c r="H133" s="207" t="s">
+        <v>962</v>
       </c>
       <c r="I133" s="165">
         <v>43270</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="41.4">
-      <c r="A134" s="159" t="s">
-        <v>858</v>
+      <c r="A134" s="182" t="s">
+        <v>857</v>
       </c>
       <c r="B134" s="160" t="s">
         <v>77</v>
@@ -9706,25 +9743,25 @@
         <v>22</v>
       </c>
       <c r="D134" s="161" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="E134" s="168"/>
       <c r="F134" s="179" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G134" s="164" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H134" s="181" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I134" s="165">
         <v>43270</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="41.4">
-      <c r="A135" s="159" t="s">
-        <v>858</v>
+      <c r="A135" s="182" t="s">
+        <v>857</v>
       </c>
       <c r="B135" s="160" t="s">
         <v>77</v>
@@ -9733,166 +9770,177 @@
         <v>22</v>
       </c>
       <c r="D135" s="161" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E135" s="168"/>
-      <c r="F135" s="197" t="s">
-        <v>868</v>
-      </c>
-      <c r="G135" s="164"/>
-      <c r="H135" s="209" t="s">
+      <c r="F135" s="179" t="s">
+        <v>865</v>
+      </c>
+      <c r="G135" s="164" t="s">
+        <v>863</v>
+      </c>
+      <c r="H135" s="181" t="s">
         <v>963</v>
       </c>
       <c r="I135" s="165">
         <v>43270</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="41.4">
-      <c r="A136" s="159" t="s">
-        <v>869</v>
-      </c>
-      <c r="B136" s="164" t="s">
+    <row r="136" spans="1:9" ht="55.2">
+      <c r="A136" s="182" t="s">
+        <v>857</v>
+      </c>
+      <c r="B136" s="160" t="s">
+        <v>77</v>
+      </c>
+      <c r="C136" s="160" t="s">
+        <v>22</v>
+      </c>
+      <c r="D136" s="161" t="s">
+        <v>866</v>
+      </c>
+      <c r="E136" s="168"/>
+      <c r="F136" s="195" t="s">
+        <v>867</v>
+      </c>
+      <c r="G136" s="164"/>
+      <c r="H136" s="207" t="s">
+        <v>962</v>
+      </c>
+      <c r="I136" s="165">
+        <v>43270</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="41.4">
+      <c r="A137" s="182" t="s">
+        <v>857</v>
+      </c>
+      <c r="B137" s="164" t="s">
         <v>142</v>
-      </c>
-      <c r="C136" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D136" s="183" t="s">
-        <v>870</v>
-      </c>
-      <c r="E136" s="210" t="s">
-        <v>871</v>
-      </c>
-      <c r="F136" s="187" t="s">
-        <v>761</v>
-      </c>
-      <c r="G136" s="164" t="s">
-        <v>878</v>
-      </c>
-      <c r="H136" s="209" t="s">
-        <v>965</v>
-      </c>
-      <c r="I136" s="165">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="27.6">
-      <c r="A137" s="159" t="s">
-        <v>879</v>
-      </c>
-      <c r="B137" s="164" t="s">
-        <v>764</v>
       </c>
       <c r="C137" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="D137" s="186" t="s">
-        <v>884</v>
+      <c r="D137" s="183" t="s">
+        <v>869</v>
+      </c>
+      <c r="E137" s="208" t="s">
+        <v>870</v>
       </c>
       <c r="F137" s="187" t="s">
-        <v>895</v>
-      </c>
-      <c r="H137" s="209" t="s">
-        <v>963</v>
-      </c>
-      <c r="I137" s="211">
-        <v>43288</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="D138" s="164"/>
+        <v>761</v>
+      </c>
+      <c r="G137" s="164" t="s">
+        <v>877</v>
+      </c>
+      <c r="H137" s="207" t="s">
+        <v>964</v>
+      </c>
+      <c r="I137" s="165">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="14.1">
+      <c r="A138" s="159" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="159"/>
-      <c r="B139" s="160"/>
-      <c r="C139" s="160"/>
-      <c r="D139" s="160"/>
-      <c r="E139" s="168"/>
-      <c r="F139" s="199"/>
-      <c r="G139" s="164"/>
-      <c r="H139" s="164"/>
-      <c r="I139" s="165"/>
+      <c r="D139" s="164"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="159"/>
       <c r="B140" s="160"/>
       <c r="C140" s="160"/>
       <c r="D140" s="160"/>
       <c r="E140" s="168"/>
-      <c r="F140" s="199"/>
+      <c r="F140" s="197"/>
       <c r="G140" s="164"/>
       <c r="H140" s="164"/>
       <c r="I140" s="165"/>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" ht="14.1">
       <c r="A141" s="159"/>
       <c r="B141" s="160"/>
       <c r="C141" s="160"/>
       <c r="D141" s="160"/>
       <c r="E141" s="168"/>
-      <c r="F141" s="199"/>
+      <c r="F141" s="197"/>
       <c r="G141" s="164"/>
       <c r="H141" s="164"/>
       <c r="I141" s="165"/>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" ht="14.1">
       <c r="A142" s="159"/>
       <c r="B142" s="160"/>
       <c r="C142" s="160"/>
       <c r="D142" s="160"/>
       <c r="E142" s="168"/>
-      <c r="F142" s="199"/>
+      <c r="F142" s="197"/>
       <c r="G142" s="164"/>
       <c r="H142" s="164"/>
       <c r="I142" s="165"/>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" ht="14.1">
       <c r="A143" s="159"/>
       <c r="B143" s="160"/>
       <c r="C143" s="160"/>
       <c r="D143" s="160"/>
       <c r="E143" s="168"/>
-      <c r="F143" s="199"/>
+      <c r="F143" s="197"/>
       <c r="G143" s="164"/>
       <c r="H143" s="164"/>
       <c r="I143" s="165"/>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" ht="14.1">
       <c r="A144" s="159"/>
       <c r="B144" s="160"/>
       <c r="C144" s="160"/>
       <c r="D144" s="160"/>
       <c r="E144" s="168"/>
-      <c r="F144" s="199"/>
+      <c r="F144" s="197"/>
       <c r="G144" s="164"/>
       <c r="H144" s="164"/>
       <c r="I144" s="165"/>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" ht="14.1">
       <c r="A145" s="159"/>
       <c r="B145" s="160"/>
       <c r="C145" s="160"/>
       <c r="D145" s="160"/>
       <c r="E145" s="168"/>
-      <c r="F145" s="199"/>
+      <c r="F145" s="197"/>
       <c r="G145" s="164"/>
       <c r="H145" s="164"/>
       <c r="I145" s="165"/>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" ht="14.1">
       <c r="A146" s="159"/>
       <c r="B146" s="160"/>
       <c r="C146" s="160"/>
       <c r="D146" s="160"/>
       <c r="E146" s="168"/>
-      <c r="F146" s="199"/>
+      <c r="F146" s="197"/>
       <c r="G146" s="164"/>
       <c r="H146" s="164"/>
       <c r="I146" s="165"/>
     </row>
+    <row r="147" spans="1:9" ht="14.1">
+      <c r="A147" s="159"/>
+      <c r="B147" s="160"/>
+      <c r="C147" s="160"/>
+      <c r="D147" s="160"/>
+      <c r="E147" s="168"/>
+      <c r="F147" s="197"/>
+      <c r="G147" s="164"/>
+      <c r="H147" s="164"/>
+      <c r="I147" s="165"/>
+    </row>
+    <row r="148" spans="1:9" ht="14.1">
+      <c r="A148" s="159"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F116" r:id="rId1" location="gid=314589613&amp;range=309:309"/>
+    <hyperlink ref="F116" r:id="rId1" location="gid=314589613&amp;range=309:309" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -9901,869 +9949,869 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="232" customWidth="1"/>
-    <col min="2" max="5" width="14.44140625" style="232"/>
-    <col min="6" max="6" width="28.88671875" style="232" customWidth="1"/>
-    <col min="7" max="7" width="23" style="232" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" style="232" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="232"/>
-    <col min="10" max="10" width="15.5546875" style="232" customWidth="1"/>
-    <col min="11" max="16384" width="14.44140625" style="232"/>
+    <col min="1" max="1" width="18.109375" style="226" customWidth="1"/>
+    <col min="2" max="5" width="14.44140625" style="226"/>
+    <col min="6" max="6" width="28.88671875" style="226" customWidth="1"/>
+    <col min="7" max="7" width="23" style="226" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" style="226" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="226"/>
+    <col min="10" max="10" width="15.5546875" style="226" customWidth="1"/>
+    <col min="11" max="16384" width="14.44140625" style="226"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="272" customFormat="1" ht="26.4">
-      <c r="A1" s="270" t="s">
+    <row r="1" spans="1:10" s="266" customFormat="1" ht="24.6">
+      <c r="A1" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="271" t="s">
+      <c r="B1" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="271" t="s">
+      <c r="C1" s="265" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="270" t="s">
+      <c r="D1" s="264" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="270" t="s">
+      <c r="E1" s="264" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="270" t="s">
+      <c r="F1" s="264" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="270" t="s">
+      <c r="G1" s="264" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="270" t="s">
+      <c r="H1" s="264" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="301" t="s">
+      <c r="I1" s="294" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="302"/>
-    </row>
-    <row r="2" spans="1:10" s="276" customFormat="1" ht="26.4">
-      <c r="A2" s="273"/>
-      <c r="B2" s="274"/>
-      <c r="C2" s="274"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273"/>
-      <c r="I2" s="275" t="s">
+      <c r="J1" s="295"/>
+    </row>
+    <row r="2" spans="1:10" s="270" customFormat="1" ht="24.6">
+      <c r="A2" s="267"/>
+      <c r="B2" s="268"/>
+      <c r="C2" s="268"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="269" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="275" t="s">
+      <c r="J2" s="269" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="286" customFormat="1" ht="66">
-      <c r="A3" s="277" t="s">
+    <row r="3" spans="1:10" s="280" customFormat="1" ht="61.5">
+      <c r="A3" s="271" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="278" t="s">
+      <c r="B3" s="272" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="279" t="s">
+      <c r="C3" s="273" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="280" t="s">
+      <c r="D3" s="274" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="281" t="s">
+      <c r="E3" s="275" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="282" t="s">
+      <c r="F3" s="276" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="283" t="s">
+      <c r="G3" s="277" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="278" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I3" s="284"/>
-      <c r="J3" s="285" t="s">
+      <c r="H3" s="272" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="278"/>
+      <c r="J3" s="279" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="118.8">
-      <c r="A4" s="225" t="s">
+    <row r="4" spans="1:10" ht="110.7">
+      <c r="A4" s="219" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="226" t="s">
+      <c r="B4" s="220" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="227">
+      <c r="C4" s="221">
         <v>8001144</v>
       </c>
-      <c r="D4" s="227" t="s">
+      <c r="D4" s="221" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="227" t="s">
+      <c r="E4" s="221" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="228" t="s">
+      <c r="F4" s="222" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="226" t="s">
+      <c r="G4" s="220" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="229" t="s">
+      <c r="H4" s="223" t="s">
         <v>154</v>
       </c>
-      <c r="I4" s="230">
+      <c r="I4" s="224">
         <v>43196</v>
       </c>
-      <c r="J4" s="231" t="s">
+      <c r="J4" s="225" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="92.4">
-      <c r="A5" s="233" t="s">
+    <row r="5" spans="1:10" ht="86.1">
+      <c r="A5" s="227" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="226" t="s">
+      <c r="B5" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="226" t="s">
+      <c r="C5" s="220" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="234" t="s">
+      <c r="D5" s="228" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="235" t="s">
+      <c r="E5" s="229" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="236" t="s">
+      <c r="F5" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="237"/>
-      <c r="H5" s="226" t="s">
+      <c r="G5" s="231"/>
+      <c r="H5" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="230">
+      <c r="I5" s="224">
         <v>43240</v>
       </c>
-      <c r="J5" s="238" t="s">
+      <c r="J5" s="232" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="105.6">
-      <c r="A6" s="233" t="s">
+    <row r="6" spans="1:10" ht="98.4">
+      <c r="A6" s="227" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="226" t="s">
+      <c r="B6" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="226" t="s">
+      <c r="C6" s="220" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="239" t="s">
+      <c r="D6" s="233" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="235" t="s">
+      <c r="E6" s="229" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="236" t="s">
+      <c r="F6" s="230" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="237"/>
-      <c r="H6" s="226" t="s">
+      <c r="G6" s="231"/>
+      <c r="H6" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="230">
+      <c r="I6" s="224">
         <v>43240</v>
       </c>
-      <c r="J6" s="238" t="s">
+      <c r="J6" s="232" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="105.6">
-      <c r="A7" s="233" t="s">
+    <row r="7" spans="1:10" ht="98.4">
+      <c r="A7" s="227" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="226" t="s">
+      <c r="B7" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="226" t="s">
+      <c r="C7" s="220" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="239" t="s">
+      <c r="D7" s="233" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="235" t="s">
+      <c r="E7" s="229" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="236" t="s">
+      <c r="F7" s="230" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="237"/>
-      <c r="H7" s="226" t="s">
+      <c r="G7" s="231"/>
+      <c r="H7" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="230">
+      <c r="I7" s="224">
         <v>43240</v>
       </c>
-      <c r="J7" s="238" t="s">
+      <c r="J7" s="232" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="105.6">
-      <c r="A8" s="233" t="s">
+    <row r="8" spans="1:10" ht="98.4">
+      <c r="A8" s="227" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="226" t="s">
+      <c r="B8" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="226" t="s">
+      <c r="C8" s="220" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="234" t="s">
+      <c r="D8" s="228" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="235" t="s">
+      <c r="E8" s="229" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="236" t="s">
+      <c r="F8" s="230" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="237"/>
-      <c r="H8" s="226" t="s">
+      <c r="G8" s="231"/>
+      <c r="H8" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="230">
+      <c r="I8" s="224">
         <v>43240</v>
       </c>
-      <c r="J8" s="238" t="s">
+      <c r="J8" s="232" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="167.4" customHeight="1">
-      <c r="A9" s="233" t="s">
+      <c r="A9" s="227" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="226" t="s">
+      <c r="B9" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="226" t="s">
+      <c r="C9" s="220" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="234" t="s">
+      <c r="D9" s="228" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="235" t="s">
+      <c r="E9" s="229" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="236" t="s">
+      <c r="F9" s="230" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="237"/>
-      <c r="H9" s="226" t="s">
+      <c r="G9" s="231"/>
+      <c r="H9" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="230">
+      <c r="I9" s="224">
         <v>43240</v>
       </c>
-      <c r="J9" s="238" t="s">
+      <c r="J9" s="232" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="92.4">
-      <c r="A10" s="229" t="s">
+    <row r="10" spans="1:10" ht="73.8">
+      <c r="A10" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="226" t="s">
+      <c r="B10" s="220" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="240" t="s">
+      <c r="C10" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="234" t="s">
+      <c r="D10" s="228" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="241" t="s">
+      <c r="E10" s="235" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="242" t="s">
+      <c r="F10" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="243"/>
-      <c r="H10" s="226" t="s">
+      <c r="G10" s="237"/>
+      <c r="H10" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="230">
+      <c r="I10" s="224">
         <v>43240</v>
       </c>
-      <c r="J10" s="231"/>
-    </row>
-    <row r="11" spans="1:10" ht="92.4">
-      <c r="A11" s="226" t="s">
+      <c r="J10" s="225"/>
+    </row>
+    <row r="11" spans="1:10" ht="73.8">
+      <c r="A11" s="220" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="226" t="s">
+      <c r="B11" s="220" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="240" t="s">
+      <c r="C11" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="234" t="s">
+      <c r="D11" s="228" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="241" t="s">
+      <c r="E11" s="235" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="242" t="s">
+      <c r="F11" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="243"/>
-      <c r="H11" s="226" t="s">
+      <c r="G11" s="237"/>
+      <c r="H11" s="220" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="230">
+      <c r="I11" s="224">
         <v>43240</v>
       </c>
-      <c r="J11" s="231"/>
-    </row>
-    <row r="12" spans="1:10" ht="92.4">
-      <c r="A12" s="226" t="s">
+      <c r="J11" s="225"/>
+    </row>
+    <row r="12" spans="1:10" ht="73.8">
+      <c r="A12" s="220" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="226" t="s">
+      <c r="B12" s="220" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="240" t="s">
+      <c r="C12" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="234" t="s">
+      <c r="D12" s="228" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="241" t="s">
+      <c r="E12" s="235" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="242" t="s">
+      <c r="F12" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="243"/>
-      <c r="H12" s="226" t="s">
+      <c r="G12" s="237"/>
+      <c r="H12" s="220" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="230">
+      <c r="I12" s="224">
         <v>43240</v>
       </c>
-      <c r="J12" s="231"/>
-    </row>
-    <row r="13" spans="1:10" ht="118.8">
-      <c r="A13" s="226" t="s">
+      <c r="J12" s="225"/>
+    </row>
+    <row r="13" spans="1:10" ht="98.4">
+      <c r="A13" s="220" t="s">
         <v>194</v>
       </c>
-      <c r="B13" s="243" t="s">
+      <c r="B13" s="237" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="226"/>
-      <c r="D13" s="239" t="s">
+      <c r="C13" s="220"/>
+      <c r="D13" s="233" t="s">
         <v>197</v>
       </c>
-      <c r="E13" s="244" t="s">
+      <c r="E13" s="238" t="s">
         <v>198</v>
       </c>
-      <c r="F13" s="242" t="s">
+      <c r="F13" s="236" t="s">
         <v>207</v>
       </c>
-      <c r="G13" s="245" t="s">
+      <c r="G13" s="239" t="s">
         <v>211</v>
       </c>
-      <c r="H13" s="226"/>
-      <c r="I13" s="230">
+      <c r="H13" s="220"/>
+      <c r="I13" s="224">
         <v>43250</v>
       </c>
-      <c r="J13" s="231"/>
-    </row>
-    <row r="14" spans="1:10" ht="250.8">
-      <c r="A14" s="229" t="s">
+      <c r="J13" s="225"/>
+    </row>
+    <row r="14" spans="1:10" ht="233.7">
+      <c r="A14" s="223" t="s">
         <v>218</v>
       </c>
-      <c r="B14" s="246" t="str">
+      <c r="B14" s="240" t="str">
         <f>HYPERLINK("https://docs.google.com/spreadsheets/d/1CZZj8fSMSaEaqlK8KCBOVHZaJixwFi-xHDmvUY_rwCk/edit#gid=1997930010&amp;range=L34","Master: Antibacterials A")</f>
         <v>Master: Antibacterials A</v>
       </c>
-      <c r="C14" s="226" t="s">
+      <c r="C14" s="220" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="247" t="s">
+      <c r="D14" s="241" t="s">
         <v>231</v>
       </c>
-      <c r="E14" s="248"/>
-      <c r="F14" s="249" t="s">
+      <c r="E14" s="242"/>
+      <c r="F14" s="243" t="s">
         <v>237</v>
       </c>
-      <c r="G14" s="244" t="s">
+      <c r="G14" s="238" t="s">
         <v>248</v>
       </c>
-      <c r="H14" s="226" t="s">
+      <c r="H14" s="220" t="s">
         <v>249</v>
       </c>
-      <c r="I14" s="230">
+      <c r="I14" s="224">
         <v>43250</v>
       </c>
-      <c r="J14" s="250" t="s">
+      <c r="J14" s="244" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="105.6">
-      <c r="A15" s="229" t="s">
+    <row r="15" spans="1:10" ht="98.4">
+      <c r="A15" s="223" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="226" t="s">
+      <c r="B15" s="220" t="s">
         <v>255</v>
       </c>
-      <c r="C15" s="251">
+      <c r="C15" s="245">
         <v>8001180</v>
       </c>
-      <c r="D15" s="252" t="s">
+      <c r="D15" s="246" t="s">
         <v>288</v>
       </c>
-      <c r="E15" s="253" t="s">
+      <c r="E15" s="247" t="s">
         <v>291</v>
       </c>
-      <c r="F15" s="249" t="s">
+      <c r="F15" s="243" t="s">
         <v>292</v>
       </c>
-      <c r="G15" s="243"/>
-      <c r="H15" s="226" t="s">
+      <c r="G15" s="237"/>
+      <c r="H15" s="220" t="s">
         <v>293</v>
       </c>
-      <c r="I15" s="230">
+      <c r="I15" s="224">
         <v>43250</v>
       </c>
-      <c r="J15" s="250" t="s">
+      <c r="J15" s="244" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="165.6">
+    <row r="16" spans="1:10" ht="160.19999999999999">
       <c r="A16" s="162" t="s">
         <v>283</v>
       </c>
-      <c r="B16" s="226"/>
-      <c r="C16" s="251"/>
-      <c r="D16" s="252" t="s">
+      <c r="B16" s="220"/>
+      <c r="C16" s="245"/>
+      <c r="D16" s="246" t="s">
         <v>296</v>
       </c>
-      <c r="E16" s="253" t="s">
+      <c r="E16" s="247" t="s">
         <v>297</v>
       </c>
-      <c r="F16" s="254" t="s">
+      <c r="F16" s="248" t="s">
         <v>298</v>
       </c>
-      <c r="G16" s="227" t="s">
+      <c r="G16" s="221" t="s">
         <v>301</v>
       </c>
-      <c r="H16" s="226" t="s">
+      <c r="H16" s="220" t="s">
         <v>302</v>
       </c>
-      <c r="I16" s="230">
+      <c r="I16" s="224">
         <v>43250</v>
       </c>
-      <c r="J16" s="238" t="s">
+      <c r="J16" s="232" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="267" customFormat="1" ht="144.6" customHeight="1">
-      <c r="A17" s="263" t="s">
+    <row r="17" spans="1:10" s="261" customFormat="1" ht="144.6" customHeight="1">
+      <c r="A17" s="257" t="s">
         <v>322</v>
       </c>
-      <c r="B17" s="263" t="s">
+      <c r="B17" s="257" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="263" t="s">
+      <c r="C17" s="257" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="287" t="s">
+      <c r="D17" s="281" t="s">
         <v>323</v>
       </c>
-      <c r="E17" s="288" t="s">
+      <c r="E17" s="282" t="s">
         <v>324</v>
       </c>
-      <c r="F17" s="289" t="s">
+      <c r="F17" s="283" t="s">
         <v>325</v>
       </c>
-      <c r="G17" s="263" t="s">
+      <c r="G17" s="257" t="s">
         <v>327</v>
       </c>
-      <c r="H17" s="263" t="s">
+      <c r="H17" s="257" t="s">
         <v>328</v>
       </c>
-      <c r="I17" s="266">
+      <c r="I17" s="260">
         <v>43250</v>
       </c>
-      <c r="J17" s="290" t="s">
+      <c r="J17" s="284" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="267" customFormat="1" ht="92.4">
-      <c r="A18" s="263" t="s">
+    <row r="18" spans="1:10" s="261" customFormat="1" ht="86.1">
+      <c r="A18" s="257" t="s">
         <v>322</v>
       </c>
-      <c r="B18" s="263" t="s">
+      <c r="B18" s="257" t="s">
         <v>268</v>
       </c>
-      <c r="C18" s="263" t="s">
+      <c r="C18" s="257" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="291" t="s">
+      <c r="D18" s="285" t="s">
         <v>329</v>
       </c>
-      <c r="E18" s="288" t="s">
+      <c r="E18" s="282" t="s">
         <v>330</v>
       </c>
-      <c r="F18" s="289" t="s">
+      <c r="F18" s="283" t="s">
         <v>331</v>
       </c>
-      <c r="G18" s="263"/>
-      <c r="H18" s="263" t="s">
+      <c r="G18" s="257"/>
+      <c r="H18" s="257" t="s">
         <v>332</v>
       </c>
-      <c r="I18" s="266">
+      <c r="I18" s="260">
         <v>43278</v>
       </c>
-      <c r="J18" s="290" t="s">
+      <c r="J18" s="284" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="267" customFormat="1" ht="92.4">
-      <c r="A19" s="263" t="s">
+    <row r="19" spans="1:10" s="261" customFormat="1" ht="86.1">
+      <c r="A19" s="257" t="s">
         <v>322</v>
       </c>
-      <c r="B19" s="263" t="s">
+      <c r="B19" s="257" t="s">
         <v>268</v>
       </c>
-      <c r="C19" s="263" t="s">
+      <c r="C19" s="257" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="291" t="s">
+      <c r="D19" s="285" t="s">
         <v>334</v>
       </c>
-      <c r="E19" s="288" t="s">
+      <c r="E19" s="282" t="s">
         <v>335</v>
       </c>
-      <c r="F19" s="289" t="s">
+      <c r="F19" s="283" t="s">
         <v>336</v>
       </c>
-      <c r="G19" s="263"/>
-      <c r="H19" s="263" t="s">
+      <c r="G19" s="257"/>
+      <c r="H19" s="257" t="s">
         <v>332</v>
       </c>
-      <c r="I19" s="266">
+      <c r="I19" s="260">
         <v>43278</v>
       </c>
-      <c r="J19" s="290" t="s">
+      <c r="J19" s="284" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="79.2">
-      <c r="A20" s="226" t="s">
+    <row r="20" spans="1:10" ht="73.8">
+      <c r="A20" s="220" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="255" t="s">
+      <c r="B20" s="249" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="227" t="s">
+      <c r="C20" s="221" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="256" t="s">
+      <c r="D20" s="250" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="227"/>
-      <c r="F20" s="257" t="s">
+      <c r="E20" s="221"/>
+      <c r="F20" s="251" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="226" t="s">
+      <c r="G20" s="220" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="226"/>
-      <c r="I20" s="230"/>
-      <c r="J20" s="231"/>
+      <c r="H20" s="220"/>
+      <c r="I20" s="224"/>
+      <c r="J20" s="225"/>
     </row>
     <row r="21" spans="1:10" ht="28.8">
-      <c r="A21" s="226" t="s">
+      <c r="A21" s="220" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="255" t="s">
+      <c r="B21" s="249" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="227" t="s">
+      <c r="C21" s="221" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="258" t="s">
+      <c r="D21" s="252" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="227" t="s">
+      <c r="E21" s="221" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="257" t="s">
+      <c r="F21" s="251" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="226" t="s">
+      <c r="G21" s="220" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="226"/>
-      <c r="I21" s="230">
+      <c r="H21" s="220"/>
+      <c r="I21" s="224">
         <v>43286</v>
       </c>
-      <c r="J21" s="231"/>
-    </row>
-    <row r="22" spans="1:10" ht="55.2">
-      <c r="A22" s="226" t="s">
+      <c r="J21" s="225"/>
+    </row>
+    <row r="22" spans="1:10" ht="51.6">
+      <c r="A22" s="220" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="255" t="s">
+      <c r="B22" s="249" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="227" t="s">
+      <c r="C22" s="221" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="259" t="s">
+      <c r="D22" s="253" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="260" t="s">
+      <c r="E22" s="254" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="257" t="s">
+      <c r="F22" s="251" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="261" t="s">
+      <c r="G22" s="255" t="s">
         <v>107</v>
       </c>
-      <c r="H22" s="226"/>
-      <c r="I22" s="230"/>
-      <c r="J22" s="231"/>
-    </row>
-    <row r="23" spans="1:10" ht="55.2">
-      <c r="A23" s="226" t="s">
+      <c r="H22" s="220"/>
+      <c r="I22" s="224"/>
+      <c r="J22" s="225"/>
+    </row>
+    <row r="23" spans="1:10" ht="51.6">
+      <c r="A23" s="220" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="255" t="s">
+      <c r="B23" s="249" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="227" t="s">
+      <c r="C23" s="221" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="262" t="s">
+      <c r="D23" s="256" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="260" t="s">
+      <c r="E23" s="254" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="257" t="s">
+      <c r="F23" s="251" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="261" t="s">
+      <c r="G23" s="255" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="226"/>
-      <c r="I23" s="230"/>
-      <c r="J23" s="231"/>
-    </row>
-    <row r="24" spans="1:10" s="267" customFormat="1" ht="39.6">
-      <c r="A24" s="295" t="s">
+      <c r="H23" s="220"/>
+      <c r="I23" s="224"/>
+      <c r="J23" s="225"/>
+    </row>
+    <row r="24" spans="1:10" s="261" customFormat="1" ht="36.9">
+      <c r="A24" s="289" t="s">
         <v>590</v>
       </c>
-      <c r="B24" s="263" t="s">
+      <c r="B24" s="257" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="263" t="s">
+      <c r="C24" s="257" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="287" t="s">
+      <c r="D24" s="281" t="s">
         <v>591</v>
       </c>
-      <c r="E24" s="229"/>
-      <c r="F24" s="296" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G24" s="263"/>
-      <c r="H24" s="263" t="s">
+      <c r="E24" s="223"/>
+      <c r="F24" s="290" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G24" s="257"/>
+      <c r="H24" s="257" t="s">
         <v>597</v>
       </c>
-      <c r="I24" s="266">
+      <c r="I24" s="260">
         <v>43240</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="267" customFormat="1" ht="66">
-      <c r="A25" s="263" t="s">
+    <row r="25" spans="1:10" s="261" customFormat="1" ht="61.5">
+      <c r="A25" s="257" t="s">
         <v>633</v>
       </c>
-      <c r="B25" s="263" t="s">
+      <c r="B25" s="257" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="263" t="s">
+      <c r="C25" s="257" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="264" t="s">
-        <v>973</v>
-      </c>
-      <c r="E25" s="229"/>
-      <c r="F25" s="265" t="s">
+      <c r="D25" s="258" t="s">
         <v>972</v>
       </c>
-      <c r="G25" s="263" t="s">
+      <c r="E25" s="223"/>
+      <c r="F25" s="259" t="s">
         <v>971</v>
       </c>
-      <c r="H25" s="263"/>
-      <c r="I25" s="266">
+      <c r="G25" s="257" t="s">
+        <v>970</v>
+      </c>
+      <c r="H25" s="257"/>
+      <c r="I25" s="260">
         <v>43240</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="57.6">
-      <c r="A26" s="229" t="s">
+      <c r="A26" s="223" t="s">
         <v>816</v>
       </c>
-      <c r="B26" s="226" t="s">
+      <c r="B26" s="220" t="s">
         <v>817</v>
       </c>
-      <c r="C26" s="227" t="s">
+      <c r="C26" s="221" t="s">
         <v>818</v>
       </c>
-      <c r="D26" s="268" t="s">
+      <c r="D26" s="262" t="s">
         <v>819</v>
       </c>
-      <c r="E26" s="227" t="s">
+      <c r="E26" s="221" t="s">
         <v>820</v>
       </c>
-      <c r="F26" s="231" t="s">
+      <c r="F26" s="225" t="s">
         <v>821</v>
       </c>
-      <c r="G26" s="226" t="s">
+      <c r="G26" s="220" t="s">
         <v>822</v>
       </c>
-      <c r="H26" s="226"/>
-      <c r="I26" s="230">
+      <c r="H26" s="220"/>
+      <c r="I26" s="224">
         <v>43240</v>
       </c>
-      <c r="J26" s="238" t="s">
+      <c r="J26" s="232" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="79.2">
-      <c r="A27" s="263" t="s">
+    <row r="27" spans="1:10" ht="73.8">
+      <c r="A27" s="257" t="s">
         <v>738</v>
       </c>
-      <c r="B27" s="243" t="s">
+      <c r="B27" s="237" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="226" t="s">
+      <c r="C27" s="220" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="269" t="s">
-        <v>877</v>
-      </c>
-      <c r="E27" s="227" t="s">
+      <c r="D27" s="263" t="s">
+        <v>876</v>
+      </c>
+      <c r="E27" s="221" t="s">
+        <v>879</v>
+      </c>
+      <c r="F27" s="230" t="s">
         <v>880</v>
       </c>
-      <c r="F27" s="236" t="s">
+      <c r="G27" s="237" t="s">
         <v>881</v>
       </c>
-      <c r="G27" s="243" t="s">
-        <v>882</v>
-      </c>
-      <c r="H27" s="229" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I27" s="230">
+      <c r="H27" s="223" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I27" s="224">
         <v>43250</v>
       </c>
-      <c r="J27" s="300" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="267" customFormat="1" ht="79.2">
-      <c r="A28" s="295" t="s">
+      <c r="J27" s="293" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="261" customFormat="1" ht="61.5">
+      <c r="A28" s="289" t="s">
         <v>767</v>
       </c>
-      <c r="B28" s="263" t="s">
+      <c r="B28" s="257" t="s">
         <v>768</v>
       </c>
-      <c r="C28" s="263"/>
-      <c r="D28" s="292" t="s">
+      <c r="C28" s="257"/>
+      <c r="D28" s="286" t="s">
         <v>769</v>
       </c>
-      <c r="E28" s="293" t="s">
+      <c r="E28" s="287" t="s">
         <v>773</v>
       </c>
-      <c r="F28" s="289" t="s">
+      <c r="F28" s="283" t="s">
         <v>774</v>
       </c>
-      <c r="G28" s="263"/>
-      <c r="H28" s="290" t="s">
-        <v>963</v>
-      </c>
-      <c r="I28" s="266"/>
-      <c r="J28" s="294" t="s">
+      <c r="G28" s="257"/>
+      <c r="H28" s="284" t="s">
+        <v>962</v>
+      </c>
+      <c r="I28" s="260"/>
+      <c r="J28" s="288" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="267" customFormat="1" ht="79.2">
-      <c r="A29" s="295" t="s">
+    <row r="29" spans="1:10" s="261" customFormat="1" ht="61.5">
+      <c r="A29" s="289" t="s">
         <v>767</v>
       </c>
-      <c r="B29" s="263" t="s">
+      <c r="B29" s="257" t="s">
         <v>768</v>
       </c>
-      <c r="C29" s="263"/>
-      <c r="D29" s="292" t="s">
+      <c r="C29" s="257"/>
+      <c r="D29" s="286" t="s">
         <v>775</v>
       </c>
-      <c r="E29" s="293" t="s">
+      <c r="E29" s="287" t="s">
         <v>773</v>
       </c>
-      <c r="F29" s="289" t="s">
+      <c r="F29" s="283" t="s">
         <v>774</v>
       </c>
-      <c r="G29" s="263"/>
-      <c r="H29" s="290" t="s">
-        <v>963</v>
-      </c>
-      <c r="I29" s="266"/>
-      <c r="J29" s="294" t="s">
+      <c r="G29" s="257"/>
+      <c r="H29" s="284" t="s">
+        <v>962</v>
+      </c>
+      <c r="I29" s="260"/>
+      <c r="J29" s="288" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="267" customFormat="1" ht="79.2">
-      <c r="A30" s="295" t="s">
+    <row r="30" spans="1:10" s="261" customFormat="1" ht="61.5">
+      <c r="A30" s="289" t="s">
         <v>767</v>
       </c>
-      <c r="B30" s="263" t="s">
+      <c r="B30" s="257" t="s">
         <v>768</v>
       </c>
-      <c r="C30" s="263"/>
-      <c r="D30" s="292" t="s">
+      <c r="C30" s="257"/>
+      <c r="D30" s="286" t="s">
         <v>784</v>
       </c>
-      <c r="E30" s="293" t="s">
+      <c r="E30" s="287" t="s">
         <v>773</v>
       </c>
-      <c r="F30" s="289" t="s">
+      <c r="F30" s="283" t="s">
         <v>774</v>
       </c>
-      <c r="G30" s="263"/>
-      <c r="H30" s="290" t="s">
-        <v>963</v>
-      </c>
-      <c r="I30" s="266"/>
-      <c r="J30" s="294" t="s">
+      <c r="G30" s="257"/>
+      <c r="H30" s="284" t="s">
+        <v>962</v>
+      </c>
+      <c r="I30" s="260"/>
+      <c r="J30" s="288" t="s">
         <v>30</v>
       </c>
     </row>
@@ -10781,11 +10829,38 @@
         <v>843</v>
       </c>
       <c r="G31" s="164" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H31" s="164"/>
       <c r="I31" s="165">
         <v>43196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="166" customFormat="1" ht="55.2">
+      <c r="A32" s="159" t="s">
+        <v>878</v>
+      </c>
+      <c r="B32" s="164" t="s">
+        <v>764</v>
+      </c>
+      <c r="C32" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="186" t="s">
+        <v>883</v>
+      </c>
+      <c r="E32" s="172"/>
+      <c r="F32" s="187" t="s">
+        <v>894</v>
+      </c>
+      <c r="H32" s="207" t="s">
+        <v>962</v>
+      </c>
+      <c r="I32" s="209">
+        <v>43288</v>
+      </c>
+      <c r="J32" s="304" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -10793,12 +10868,13 @@
     <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10811,7 +10887,7 @@
       <selection pane="bottomRight" activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -10824,7 +10900,7 @@
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.4">
+    <row r="1" spans="1:10" ht="24.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10849,12 +10925,12 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="305" t="s">
+      <c r="I1" s="298" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="304"/>
-    </row>
-    <row r="2" spans="1:10" ht="26.4">
+      <c r="J1" s="297"/>
+    </row>
+    <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -10870,7 +10946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="52.8">
+    <row r="3" spans="1:10" ht="49.2">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -10896,7 +10972,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="26.4">
+    <row r="4" spans="1:10" ht="24.6">
       <c r="A4" s="17" t="s">
         <v>24</v>
       </c>
@@ -10923,13 +10999,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="86.4">
-      <c r="A5" s="308" t="s">
+      <c r="A5" s="301" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="303" t="s">
+      <c r="B5" s="296" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="303" t="s">
+      <c r="C5" s="296" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -10951,9 +11027,9 @@
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="86.4">
-      <c r="A6" s="304"/>
-      <c r="B6" s="304"/>
-      <c r="C6" s="304"/>
+      <c r="A6" s="297"/>
+      <c r="B6" s="297"/>
+      <c r="C6" s="297"/>
       <c r="D6" s="13" t="s">
         <v>68</v>
       </c>
@@ -10970,8 +11046,8 @@
       </c>
       <c r="J6" s="35"/>
     </row>
-    <row r="7" spans="1:10" ht="39.6">
-      <c r="A7" s="308" t="s">
+    <row r="7" spans="1:10" ht="36.9">
+      <c r="A7" s="301" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -11000,8 +11076,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="39.6">
-      <c r="A8" s="304"/>
+    <row r="8" spans="1:10" ht="36.9">
+      <c r="A8" s="297"/>
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
@@ -11027,8 +11103,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="39.6">
-      <c r="A9" s="307"/>
+    <row r="9" spans="1:10" ht="36.9">
+      <c r="A9" s="300"/>
       <c r="B9" s="41" t="s">
         <v>21</v>
       </c>
@@ -11079,8 +11155,8 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="39.6">
-      <c r="A11" s="309" t="s">
+    <row r="11" spans="1:10" ht="36.9">
+      <c r="A11" s="302" t="s">
         <v>117</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -11108,8 +11184,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="39.6">
-      <c r="A12" s="304"/>
+    <row r="12" spans="1:10" ht="36.9">
+      <c r="A12" s="297"/>
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
@@ -11135,8 +11211,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="39.6">
-      <c r="A13" s="304"/>
+    <row r="13" spans="1:10" ht="24.6">
+      <c r="A13" s="297"/>
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -11162,8 +11238,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="39.6">
-      <c r="A14" s="304"/>
+    <row r="14" spans="1:10" ht="36.9">
+      <c r="A14" s="297"/>
       <c r="B14" s="41" t="s">
         <v>21</v>
       </c>
@@ -11190,7 +11266,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="26.4">
+    <row r="15" spans="1:10" ht="24.6">
       <c r="A15" s="6" t="s">
         <v>156</v>
       </c>
@@ -11216,7 +11292,7 @@
       </c>
       <c r="J15" s="35"/>
     </row>
-    <row r="16" spans="1:10" ht="26.4">
+    <row r="16" spans="1:10" ht="24.6">
       <c r="A16" s="6" t="s">
         <v>164</v>
       </c>
@@ -11242,7 +11318,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="105.6">
+    <row r="22" spans="1:10" ht="98.4">
       <c r="A22" s="14" t="s">
         <v>19</v>
       </c>
@@ -11272,7 +11348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="79.2">
+    <row r="26" spans="1:10" ht="73.8">
       <c r="A26" s="6" t="s">
         <v>174</v>
       </c>
@@ -11302,7 +11378,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="52.8">
+    <row r="27" spans="1:10" ht="36.9">
       <c r="A27" s="59" t="s">
         <v>185</v>
       </c>
@@ -11334,7 +11410,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="92.4">
+    <row r="28" spans="1:10" ht="86.1">
       <c r="A28" s="6" t="s">
         <v>254</v>
       </c>
@@ -11364,7 +11440,7 @@
         <v>76138</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="66">
+    <row r="29" spans="1:10" ht="61.5">
       <c r="A29" s="6" t="s">
         <v>264</v>
       </c>
@@ -11436,7 +11512,7 @@
       <c r="I31" s="12"/>
       <c r="J31" s="35"/>
     </row>
-    <row r="32" spans="1:10" ht="79.2">
+    <row r="32" spans="1:10" ht="73.8">
       <c r="A32" s="6" t="s">
         <v>315</v>
       </c>
@@ -11466,7 +11542,7 @@
       </c>
       <c r="J32" s="35"/>
     </row>
-    <row r="33" spans="1:10" ht="92.4">
+    <row r="33" spans="1:10" ht="86.1">
       <c r="A33" s="74" t="s">
         <v>340</v>
       </c>
@@ -11496,7 +11572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="39.6">
+    <row r="34" spans="1:10" ht="36.9">
       <c r="A34" s="6" t="s">
         <v>349</v>
       </c>
@@ -11524,7 +11600,7 @@
       </c>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" ht="66">
+    <row r="35" spans="1:10" ht="61.5">
       <c r="A35" s="6" t="s">
         <v>356</v>
       </c>
@@ -11556,8 +11632,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="39.6">
-      <c r="A36" s="306" t="s">
+    <row r="36" spans="1:10" ht="36.9">
+      <c r="A36" s="299" t="s">
         <v>369</v>
       </c>
       <c r="B36" s="77" t="s">
@@ -11586,8 +11662,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="39.6">
-      <c r="A37" s="304"/>
+    <row r="37" spans="1:10" ht="36.9">
+      <c r="A37" s="297"/>
       <c r="B37" s="8" t="s">
         <v>21</v>
       </c>
@@ -11614,8 +11690,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="66">
-      <c r="A38" s="304"/>
+    <row r="38" spans="1:10" ht="61.5">
+      <c r="A38" s="297"/>
       <c r="B38" s="8" t="s">
         <v>21</v>
       </c>
@@ -11642,8 +11718,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="39.6">
-      <c r="A39" s="304"/>
+    <row r="39" spans="1:10" ht="36.9">
+      <c r="A39" s="297"/>
       <c r="B39" s="8" t="s">
         <v>21</v>
       </c>
@@ -11670,8 +11746,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="39.6">
-      <c r="A40" s="304"/>
+    <row r="40" spans="1:10" ht="36.9">
+      <c r="A40" s="297"/>
       <c r="B40" s="8" t="s">
         <v>21</v>
       </c>
@@ -11698,8 +11774,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="39.6">
-      <c r="A41" s="304"/>
+    <row r="41" spans="1:10" ht="36.9">
+      <c r="A41" s="297"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
       </c>
@@ -11726,8 +11802,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="39.6">
-      <c r="A42" s="304"/>
+    <row r="42" spans="1:10" ht="36.9">
+      <c r="A42" s="297"/>
       <c r="B42" s="8" t="s">
         <v>21</v>
       </c>
@@ -11754,8 +11830,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="39.6">
-      <c r="A43" s="304"/>
+    <row r="43" spans="1:10" ht="36.9">
+      <c r="A43" s="297"/>
       <c r="B43" s="8" t="s">
         <v>21</v>
       </c>
@@ -11782,8 +11858,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="39.6">
-      <c r="A44" s="304"/>
+    <row r="44" spans="1:10" ht="36.9">
+      <c r="A44" s="297"/>
       <c r="B44" s="8" t="s">
         <v>21</v>
       </c>
@@ -11810,8 +11886,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="39.6">
-      <c r="A45" s="307"/>
+    <row r="45" spans="1:10" ht="36.9">
+      <c r="A45" s="300"/>
       <c r="B45" s="41" t="s">
         <v>21</v>
       </c>
@@ -11838,7 +11914,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="39.6">
+    <row r="46" spans="1:10" ht="36.9">
       <c r="A46" s="92" t="s">
         <v>452</v>
       </c>
@@ -11898,8 +11974,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="66">
-      <c r="A48" s="306" t="s">
+    <row r="48" spans="1:10" ht="61.5">
+      <c r="A48" s="299" t="s">
         <v>488</v>
       </c>
       <c r="B48" s="77" t="s">
@@ -11928,8 +12004,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="39.6">
-      <c r="A49" s="307"/>
+    <row r="49" spans="1:10" ht="36.9">
+      <c r="A49" s="300"/>
       <c r="B49" s="41" t="s">
         <v>21</v>
       </c>
@@ -11984,7 +12060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="26.4">
+    <row r="51" spans="1:10" ht="24.6">
       <c r="A51" s="8" t="s">
         <v>453</v>
       </c>
@@ -12010,7 +12086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="79.2">
+    <row r="52" spans="1:10" ht="73.8">
       <c r="A52" s="6" t="s">
         <v>540</v>
       </c>
@@ -12042,7 +12118,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="52.8">
+    <row r="53" spans="1:10" ht="49.2">
       <c r="A53" s="8" t="s">
         <v>540</v>
       </c>
@@ -12074,7 +12150,7 @@
         <v>43283</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="52.8">
+    <row r="54" spans="1:10" ht="49.2">
       <c r="A54" s="8" t="s">
         <v>540</v>
       </c>
@@ -12106,7 +12182,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="52.8">
+    <row r="55" spans="1:10" ht="49.2">
       <c r="A55" s="8" t="s">
         <v>540</v>
       </c>
@@ -12138,7 +12214,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="66">
+    <row r="56" spans="1:10" ht="61.5">
       <c r="A56" s="8" t="s">
         <v>540</v>
       </c>
@@ -12170,7 +12246,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="52.8">
+    <row r="57" spans="1:10" ht="49.2">
       <c r="A57" s="8" t="s">
         <v>540</v>
       </c>
@@ -12202,7 +12278,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="52.8">
+    <row r="58" spans="1:10" ht="49.2">
       <c r="A58" s="8" t="s">
         <v>540</v>
       </c>
@@ -12234,7 +12310,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="52.8">
+    <row r="59" spans="1:10" ht="49.2">
       <c r="A59" s="8" t="s">
         <v>540</v>
       </c>
@@ -12266,7 +12342,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="52.8">
+    <row r="60" spans="1:10" ht="49.2">
       <c r="A60" s="6" t="s">
         <v>581</v>
       </c>
@@ -12296,7 +12372,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="26.4">
+    <row r="61" spans="1:10" ht="24.6">
       <c r="A61" s="8" t="s">
         <v>581</v>
       </c>
@@ -12326,7 +12402,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="79.2">
+    <row r="62" spans="1:10" ht="73.8">
       <c r="A62" s="6" t="s">
         <v>595</v>
       </c>
@@ -12356,7 +12432,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="26.4">
+    <row r="63" spans="1:10" ht="24.6">
       <c r="A63" s="119" t="s">
         <v>603</v>
       </c>
@@ -12386,7 +12462,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="52.8">
+    <row r="64" spans="1:10" ht="49.2">
       <c r="A64" s="6" t="s">
         <v>628</v>
       </c>
@@ -12448,7 +12524,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="52.8">
+    <row r="66" spans="1:10" ht="49.2">
       <c r="A66" s="112" t="s">
         <v>643</v>
       </c>
@@ -12475,7 +12551,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="66">
+    <row r="67" spans="1:10" ht="61.5">
       <c r="A67" s="110" t="s">
         <v>643</v>
       </c>
@@ -12610,7 +12686,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="39.6">
+    <row r="72" spans="1:10" ht="43.2">
       <c r="A72" s="110" t="s">
         <v>643</v>
       </c>
@@ -12832,7 +12908,7 @@
         <v>43295</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="79.2">
+    <row r="80" spans="1:10" ht="61.5">
       <c r="A80" s="112" t="s">
         <v>556</v>
       </c>
@@ -12860,7 +12936,7 @@
         <v>43296</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="66">
+    <row r="81" spans="1:10" ht="57.6">
       <c r="A81" s="110" t="s">
         <v>556</v>
       </c>
@@ -12888,7 +12964,7 @@
         <v>43297</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="66">
+    <row r="82" spans="1:10" ht="61.5">
       <c r="A82" s="110" t="s">
         <v>556</v>
       </c>
@@ -12970,7 +13046,7 @@
         <v>43300</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="52.8">
+    <row r="85" spans="1:10" ht="49.2">
       <c r="A85" s="8" t="s">
         <v>745</v>
       </c>
@@ -13000,7 +13076,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="52.8">
+    <row r="86" spans="1:10" ht="49.2">
       <c r="A86" s="6" t="s">
         <v>754</v>
       </c>
@@ -13030,7 +13106,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="118.8">
+    <row r="87" spans="1:10" ht="110.7">
       <c r="A87" s="6" t="s">
         <v>759</v>
       </c>
@@ -13058,8 +13134,8 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="39.6">
-      <c r="A88" s="308" t="s">
+    <row r="88" spans="1:10" ht="36.9">
+      <c r="A88" s="301" t="s">
         <v>771</v>
       </c>
       <c r="B88" s="8" t="s">
@@ -13088,8 +13164,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="39.6">
-      <c r="A89" s="304"/>
+    <row r="89" spans="1:10" ht="36.9">
+      <c r="A89" s="297"/>
       <c r="B89" s="8" t="s">
         <v>45</v>
       </c>
@@ -13116,8 +13192,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="39.6">
-      <c r="A90" s="304"/>
+    <row r="90" spans="1:10" ht="36.9">
+      <c r="A90" s="297"/>
       <c r="B90" s="8" t="s">
         <v>45</v>
       </c>
@@ -13144,8 +13220,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="39.6">
-      <c r="A91" s="304"/>
+    <row r="91" spans="1:10" ht="36.9">
+      <c r="A91" s="297"/>
       <c r="B91" s="8" t="s">
         <v>45</v>
       </c>
@@ -13172,8 +13248,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="39.6">
-      <c r="A92" s="304"/>
+    <row r="92" spans="1:10" ht="24.6">
+      <c r="A92" s="297"/>
       <c r="B92" s="8" t="s">
         <v>45</v>
       </c>
@@ -13200,8 +13276,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="39.6">
-      <c r="A93" s="304"/>
+    <row r="93" spans="1:10" ht="24.6">
+      <c r="A93" s="297"/>
       <c r="B93" s="8" t="s">
         <v>45</v>
       </c>
@@ -13228,8 +13304,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="39.6">
-      <c r="A94" s="304"/>
+    <row r="94" spans="1:10" ht="36.9">
+      <c r="A94" s="297"/>
       <c r="B94" s="8" t="s">
         <v>45</v>
       </c>
@@ -13256,8 +13332,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="39.6">
-      <c r="A95" s="304"/>
+    <row r="95" spans="1:10" ht="36.9">
+      <c r="A95" s="297"/>
       <c r="B95" s="8" t="s">
         <v>45</v>
       </c>
@@ -13284,7 +13360,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="26.4">
+    <row r="96" spans="1:10" ht="24.6">
       <c r="A96" s="6" t="s">
         <v>804</v>
       </c>
@@ -13316,7 +13392,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="52.8">
+    <row r="97" spans="1:10" ht="49.2">
       <c r="A97" s="6" t="s">
         <v>825</v>
       </c>
@@ -13346,7 +13422,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="39.6">
+    <row r="98" spans="1:10" ht="36.9">
       <c r="A98" s="6" t="s">
         <v>833</v>
       </c>
@@ -13393,7 +13469,7 @@
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I99" s="12">
         <v>43210</v>
@@ -13404,23 +13480,23 @@
     </row>
     <row r="100" spans="1:10" ht="43.2">
       <c r="A100" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="D100" s="13" t="s">
         <v>851</v>
       </c>
-      <c r="D100" s="13" t="s">
+      <c r="E100" s="96" t="s">
         <v>852</v>
       </c>
-      <c r="E100" s="96" t="s">
+      <c r="F100" s="8" t="s">
         <v>853</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>854</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="8" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I100" s="12">
         <v>43210</v>
@@ -13449,7 +13525,7 @@
         <v>724</v>
       </c>
       <c r="G101" s="142" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H101" s="19" t="s">
         <v>726</v>
@@ -13477,7 +13553,7 @@
         <v>736</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="143">
@@ -13487,10 +13563,10 @@
     </row>
     <row r="103" spans="1:10" ht="72">
       <c r="A103" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="B103" s="66" t="s">
         <v>873</v>
-      </c>
-      <c r="B103" s="66" t="s">
-        <v>874</v>
       </c>
       <c r="C103" s="129"/>
       <c r="D103" s="102"/>
@@ -13498,10 +13574,10 @@
         <v>470</v>
       </c>
       <c r="F103" s="68" t="s">
+        <v>874</v>
+      </c>
+      <c r="G103" s="28" t="s">
         <v>875</v>
-      </c>
-      <c r="G103" s="28" t="s">
-        <v>876</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="12"/>
@@ -13509,9 +13585,9 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="66">
+    <row r="104" spans="1:10" ht="61.5">
       <c r="A104" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>45</v>
@@ -13523,13 +13599,13 @@
         <v>2296810</v>
       </c>
       <c r="E104" s="13" t="s">
+        <v>884</v>
+      </c>
+      <c r="F104" s="20" t="s">
         <v>885</v>
       </c>
-      <c r="F104" s="20" t="s">
+      <c r="G104" s="8" t="s">
         <v>886</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>887</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="12">
@@ -13539,9 +13615,9 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="66">
+    <row r="105" spans="1:10" ht="61.5">
       <c r="A105" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>45</v>
@@ -13553,13 +13629,13 @@
         <v>2425629</v>
       </c>
       <c r="E105" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="F105" s="20" t="s">
         <v>888</v>
       </c>
-      <c r="F105" s="20" t="s">
+      <c r="G105" s="8" t="s">
         <v>889</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>890</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="12">
@@ -13571,7 +13647,7 @@
     </row>
     <row r="106" spans="1:10" ht="28.8">
       <c r="A106" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B106" s="27" t="s">
         <v>77</v>
@@ -13580,14 +13656,14 @@
         <v>22</v>
       </c>
       <c r="D106" s="82" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E106" s="13"/>
       <c r="F106" s="38" t="s">
+        <v>892</v>
+      </c>
+      <c r="G106" s="8" t="s">
         <v>893</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>894</v>
       </c>
       <c r="I106" s="12">
         <v>43270</v>
@@ -13598,7 +13674,7 @@
     </row>
     <row r="107" spans="1:10" ht="28.8">
       <c r="A107" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B107" s="27" t="s">
         <v>77</v>
@@ -13607,14 +13683,14 @@
         <v>22</v>
       </c>
       <c r="D107" s="82" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E107" s="13"/>
       <c r="F107" s="38" t="s">
+        <v>896</v>
+      </c>
+      <c r="G107" s="8" t="s">
         <v>897</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>898</v>
       </c>
       <c r="H107" s="9"/>
       <c r="I107" s="12">
@@ -13626,7 +13702,7 @@
     </row>
     <row r="108" spans="1:10" ht="28.8">
       <c r="A108" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B108" s="27" t="s">
         <v>77</v>
@@ -13635,14 +13711,14 @@
         <v>22</v>
       </c>
       <c r="D108" s="82" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E108" s="13"/>
       <c r="F108" s="38" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H108" s="9"/>
       <c r="I108" s="12">
@@ -13654,7 +13730,7 @@
     </row>
     <row r="109" spans="1:10" ht="28.8">
       <c r="A109" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B109" s="27" t="s">
         <v>77</v>
@@ -13663,14 +13739,14 @@
         <v>22</v>
       </c>
       <c r="D109" s="82" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E109" s="13"/>
       <c r="F109" s="38" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H109" s="9"/>
       <c r="I109" s="12">
@@ -13682,7 +13758,7 @@
     </row>
     <row r="110" spans="1:10" ht="28.8">
       <c r="A110" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B110" s="27" t="s">
         <v>77</v>
@@ -13691,14 +13767,14 @@
         <v>22</v>
       </c>
       <c r="D110" s="82" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E110" s="13"/>
       <c r="F110" s="38" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H110" s="9"/>
       <c r="I110" s="12">
@@ -13710,7 +13786,7 @@
     </row>
     <row r="111" spans="1:10" ht="28.8">
       <c r="A111" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B111" s="27" t="s">
         <v>77</v>
@@ -13719,14 +13795,14 @@
         <v>22</v>
       </c>
       <c r="D111" s="147" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="38" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H111" s="9"/>
       <c r="I111" s="12">
@@ -13738,7 +13814,7 @@
     </row>
     <row r="112" spans="1:10" ht="28.8">
       <c r="A112" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B112" s="27" t="s">
         <v>77</v>
@@ -13747,14 +13823,14 @@
         <v>22</v>
       </c>
       <c r="D112" s="148" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E112" s="13"/>
       <c r="F112" s="38" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H112" s="9"/>
       <c r="I112" s="12">
@@ -13766,7 +13842,7 @@
     </row>
     <row r="113" spans="1:10" ht="28.8">
       <c r="A113" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B113" s="27" t="s">
         <v>77</v>
@@ -13775,14 +13851,14 @@
         <v>22</v>
       </c>
       <c r="D113" s="149" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E113" s="13"/>
       <c r="F113" s="150" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H113" s="9"/>
       <c r="I113" s="12">
@@ -13794,7 +13870,7 @@
     </row>
     <row r="114" spans="1:10" ht="28.8">
       <c r="A114" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B114" s="27" t="s">
         <v>77</v>
@@ -13803,14 +13879,14 @@
         <v>22</v>
       </c>
       <c r="D114" s="151" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="152" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H114" s="9"/>
       <c r="I114" s="12">
@@ -13822,7 +13898,7 @@
     </row>
     <row r="115" spans="1:10" ht="28.8">
       <c r="A115" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B115" s="27" t="s">
         <v>77</v>
@@ -13831,14 +13907,14 @@
         <v>22</v>
       </c>
       <c r="D115" s="82" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="152" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="12">
@@ -13850,7 +13926,7 @@
     </row>
     <row r="116" spans="1:10" ht="28.8">
       <c r="A116" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B116" s="27" t="s">
         <v>77</v>
@@ -13859,14 +13935,14 @@
         <v>22</v>
       </c>
       <c r="D116" s="149" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="38" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H116" s="9"/>
       <c r="I116" s="12">
@@ -13876,9 +13952,9 @@
         <v>43293</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="118.8">
+    <row r="117" spans="1:10" ht="98.4">
       <c r="A117" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>45</v>
@@ -13887,19 +13963,19 @@
         <v>22</v>
       </c>
       <c r="D117" s="135" t="s">
+        <v>917</v>
+      </c>
+      <c r="E117" s="22" t="s">
         <v>918</v>
       </c>
-      <c r="E117" s="22" t="s">
+      <c r="F117" s="20" t="s">
         <v>919</v>
       </c>
-      <c r="F117" s="20" t="s">
+      <c r="G117" s="117" t="s">
         <v>920</v>
       </c>
-      <c r="G117" s="117" t="s">
+      <c r="H117" s="8" t="s">
         <v>921</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>922</v>
       </c>
       <c r="I117" s="12">
         <v>43240</v>
@@ -13908,9 +13984,9 @@
         <v>43294</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="26.4">
+    <row r="118" spans="1:10" ht="24.6">
       <c r="A118" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>45</v>
@@ -13919,14 +13995,14 @@
         <v>22</v>
       </c>
       <c r="D118" s="135" t="s">
+        <v>922</v>
+      </c>
+      <c r="E118" s="22" t="s">
         <v>923</v>
-      </c>
-      <c r="E118" s="22" t="s">
-        <v>924</v>
       </c>
       <c r="F118" s="20"/>
       <c r="G118" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H118" s="9"/>
       <c r="I118" s="12">
@@ -13938,7 +14014,7 @@
     </row>
     <row r="119" spans="1:10" ht="28.8">
       <c r="A119" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B119" s="27" t="s">
         <v>77</v>
@@ -13949,7 +14025,7 @@
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
       <c r="F119" s="38" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G119" s="111" t="s">
         <v>163</v>
@@ -13964,7 +14040,7 @@
     </row>
     <row r="120" spans="1:10" ht="28.8">
       <c r="A120" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B120" s="27" t="s">
         <v>77</v>
@@ -13977,10 +14053,10 @@
       </c>
       <c r="E120" s="13"/>
       <c r="F120" s="38" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H120" s="9"/>
       <c r="I120" s="12">
@@ -14097,7 +14173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -14107,7 +14183,7 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
@@ -14121,7 +14197,7 @@
     <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39.6">
+    <row r="1" spans="1:10" ht="36.9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -14146,12 +14222,12 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="310" t="s">
+      <c r="I1" s="303" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="304"/>
-    </row>
-    <row r="2" spans="1:10" ht="26.4">
+      <c r="J1" s="297"/>
+    </row>
+    <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -14167,7 +14243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="211.2">
+    <row r="3" spans="1:10" ht="196.8">
       <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
@@ -14197,7 +14273,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="211.2">
+    <row r="4" spans="1:10" ht="196.8">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
@@ -14227,7 +14303,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="211.2">
+    <row r="5" spans="1:10" ht="196.8">
       <c r="A5" s="14" t="s">
         <v>19</v>
       </c>

--- a/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
+++ b/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barbj\Documents\Infoway-Health Canada CCDD\formulary\Working QA Team Folders\Pre- Release QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{814B819D-5C0E-4775-9CCD-55D66B214693}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E2E1BC34-DABF-49A9-887B-DCBBF380242C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="17268" windowHeight="5256" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="17268" windowHeight="5256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Action Items, Open" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F124" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F125" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F137" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F138" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="1069">
   <si>
     <t>TM</t>
   </si>
@@ -4559,6 +4559,81 @@
   <si>
     <t>Aug 3 2018</t>
   </si>
+  <si>
+    <t>0000868
+0000841
+0000844</t>
+  </si>
+  <si>
+    <t>pilocarpine</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. pilocarpine hydrochloride 20 mg per mL ophthalmic drops </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF521BED"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2 %)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. pilocarpine hydrochloride 40 mg per mL ophthalmic drops </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF521BED"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4 %)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3. pilocarpine hydrochloride 10 mg per mL ophthalmic drops </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF521BED"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1 %)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Louise: Change strength to percentage. </t>
+  </si>
 </sst>
 </file>
 
@@ -4570,7 +4645,7 @@
     <numFmt numFmtId="166" formatCode="#0"/>
     <numFmt numFmtId="167" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="63">
+  <fonts count="64">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4919,6 +4994,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF521BED"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5216,7 +5298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6079,6 +6161,27 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="38" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6103,26 +6206,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="38" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6132,9 +6217,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF521BED"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFFF00FF"/>
-      <color rgb="FF521BED"/>
     </mruColors>
   </colors>
   <extLst>
@@ -6448,11 +6533,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J148"/>
+  <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K133" sqref="K133"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
@@ -6532,7 +6617,7 @@
       <c r="D3" s="214">
         <v>2246848</v>
       </c>
-      <c r="E3" s="306" t="s">
+      <c r="E3" s="296" t="s">
         <v>1002</v>
       </c>
       <c r="F3" s="163" t="s">
@@ -7374,8 +7459,8 @@
       <c r="F39" s="163" t="s">
         <v>960</v>
       </c>
-      <c r="G39" s="307"/>
-      <c r="I39" s="307">
+      <c r="G39" s="297"/>
+      <c r="I39" s="297">
         <v>9005524</v>
       </c>
       <c r="J39" s="166" t="s">
@@ -7398,8 +7483,8 @@
       <c r="F40" s="192" t="s">
         <v>961</v>
       </c>
-      <c r="G40" s="307"/>
-      <c r="I40" s="307"/>
+      <c r="G40" s="297"/>
+      <c r="I40" s="297"/>
     </row>
     <row r="41" spans="1:10" ht="151.80000000000001">
       <c r="A41" s="159" t="s">
@@ -8930,7 +9015,7 @@
         <v>217</v>
       </c>
       <c r="C101" s="164"/>
-      <c r="D101" s="308">
+      <c r="D101" s="298">
         <v>2243686</v>
       </c>
       <c r="E101" s="162" t="s">
@@ -9085,7 +9170,7 @@
       <c r="D107" s="210" t="s">
         <v>973</v>
       </c>
-      <c r="E107" s="309" t="s">
+      <c r="E107" s="299" t="s">
         <v>979</v>
       </c>
       <c r="F107" s="185" t="s">
@@ -9108,7 +9193,7 @@
       <c r="D108" s="211" t="s">
         <v>974</v>
       </c>
-      <c r="E108" s="309" t="s">
+      <c r="E108" s="299" t="s">
         <v>979</v>
       </c>
       <c r="F108" s="185" t="s">
@@ -9131,7 +9216,7 @@
       <c r="D109" s="211" t="s">
         <v>975</v>
       </c>
-      <c r="E109" s="309" t="s">
+      <c r="E109" s="299" t="s">
         <v>982</v>
       </c>
       <c r="F109" s="185" t="s">
@@ -9154,7 +9239,7 @@
       <c r="D110" s="211" t="s">
         <v>976</v>
       </c>
-      <c r="E110" s="309" t="s">
+      <c r="E110" s="299" t="s">
         <v>982</v>
       </c>
       <c r="F110" s="185" t="s">
@@ -9177,7 +9262,7 @@
       <c r="D111" s="211" t="s">
         <v>977</v>
       </c>
-      <c r="E111" s="309" t="s">
+      <c r="E111" s="299" t="s">
         <v>983</v>
       </c>
       <c r="F111" s="185" t="s">
@@ -9200,7 +9285,7 @@
       <c r="D112" s="211" t="s">
         <v>978</v>
       </c>
-      <c r="E112" s="309" t="s">
+      <c r="E112" s="299" t="s">
         <v>984</v>
       </c>
       <c r="F112" s="185" t="s">
@@ -9472,7 +9557,7 @@
       <c r="E123" s="168" t="s">
         <v>735</v>
       </c>
-      <c r="F123" s="164" t="s">
+      <c r="F123" s="185" t="s">
         <v>736</v>
       </c>
       <c r="G123" s="163" t="s">
@@ -9483,257 +9568,253 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="41.4">
-      <c r="A124" s="159" t="s">
-        <v>738</v>
-      </c>
-      <c r="B124" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="C124" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D124" s="183" t="s">
-        <v>739</v>
-      </c>
-      <c r="E124" s="205" t="s">
-        <v>751</v>
-      </c>
-      <c r="F124" s="187" t="s">
-        <v>761</v>
-      </c>
-      <c r="G124" s="164" t="s">
-        <v>762</v>
-      </c>
+    <row r="124" spans="1:9" ht="86.4">
+      <c r="A124" s="182" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B124" s="180" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C124" s="180"/>
+      <c r="D124" s="311" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E124" s="168" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F124" s="185" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G124" s="163"/>
       <c r="H124" s="164"/>
-      <c r="I124" s="165">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="27.6">
-      <c r="A125" s="182" t="s">
+      <c r="I124" s="165" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="41.4">
+      <c r="A125" s="159" t="s">
         <v>738</v>
       </c>
       <c r="B125" s="164" t="s">
         <v>142</v>
       </c>
-      <c r="C125" s="164"/>
-      <c r="D125" s="292" t="s">
-        <v>876</v>
-      </c>
-      <c r="E125" s="160" t="s">
-        <v>879</v>
+      <c r="C125" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="183" t="s">
+        <v>739</v>
+      </c>
+      <c r="E125" s="205" t="s">
+        <v>751</v>
       </c>
       <c r="F125" s="187" t="s">
-        <v>1043</v>
-      </c>
-      <c r="G125" s="164"/>
+        <v>761</v>
+      </c>
+      <c r="G125" s="164" t="s">
+        <v>762</v>
+      </c>
       <c r="H125" s="164"/>
       <c r="I125" s="165">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="27.6">
+      <c r="A126" s="182" t="s">
+        <v>738</v>
+      </c>
+      <c r="B126" s="164" t="s">
+        <v>142</v>
+      </c>
+      <c r="C126" s="164"/>
+      <c r="D126" s="292" t="s">
+        <v>876</v>
+      </c>
+      <c r="E126" s="160" t="s">
+        <v>879</v>
+      </c>
+      <c r="F126" s="187" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G126" s="164"/>
+      <c r="H126" s="164"/>
+      <c r="I126" s="165">
         <v>43311</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="96.6">
-      <c r="A126" s="159" t="s">
+    <row r="127" spans="1:9" ht="96.6">
+      <c r="A127" s="159" t="s">
         <v>763</v>
       </c>
-      <c r="B126" s="164" t="s">
+      <c r="B127" s="164" t="s">
         <v>764</v>
       </c>
-      <c r="C126" s="164" t="s">
+      <c r="C127" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="D126" s="186" t="s">
+      <c r="D127" s="186" t="s">
         <v>765</v>
       </c>
-      <c r="E126" s="205" t="s">
+      <c r="E127" s="205" t="s">
         <v>599</v>
       </c>
-      <c r="F126" s="185" t="s">
+      <c r="F127" s="185" t="s">
         <v>995</v>
       </c>
-      <c r="G126" s="164" t="s">
+      <c r="G127" s="164" t="s">
         <v>996</v>
       </c>
-      <c r="H126" s="206"/>
-      <c r="I126" s="165">
+      <c r="H127" s="206"/>
+      <c r="I127" s="165">
         <v>43264</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="41.4">
-      <c r="A127" s="182" t="s">
+    <row r="128" spans="1:9" ht="41.4">
+      <c r="A128" s="182" t="s">
         <v>797</v>
       </c>
-      <c r="B127" s="164" t="s">
+      <c r="B128" s="164" t="s">
         <v>798</v>
       </c>
-      <c r="C127" s="160" t="s">
+      <c r="C128" s="160" t="s">
         <v>799</v>
       </c>
-      <c r="D127" s="160" t="s">
+      <c r="D128" s="160" t="s">
         <v>801</v>
       </c>
-      <c r="E127" s="168" t="s">
+      <c r="E128" s="168" t="s">
         <v>806</v>
       </c>
-      <c r="F127" s="185" t="s">
+      <c r="F128" s="185" t="s">
         <v>807</v>
       </c>
-      <c r="G127" s="164" t="s">
+      <c r="G128" s="164" t="s">
         <v>808</v>
       </c>
-      <c r="H127" s="206"/>
-      <c r="I127" s="165"/>
-    </row>
-    <row r="128" spans="1:9" ht="14.1">
-      <c r="A128" s="159" t="s">
+      <c r="H128" s="206"/>
+      <c r="I128" s="165"/>
+    </row>
+    <row r="129" spans="1:9" ht="14.1">
+      <c r="A129" s="159" t="s">
         <v>809</v>
-      </c>
-      <c r="B128" s="164" t="s">
-        <v>45</v>
-      </c>
-      <c r="C128" s="160" t="s">
-        <v>810</v>
-      </c>
-      <c r="D128" s="186" t="s">
-        <v>811</v>
-      </c>
-      <c r="E128" s="162" t="s">
-        <v>599</v>
-      </c>
-      <c r="F128" s="187" t="s">
-        <v>823</v>
-      </c>
-      <c r="G128" s="164"/>
-      <c r="H128" s="164"/>
-      <c r="I128" s="165">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="96.6">
-      <c r="A129" s="159" t="s">
-        <v>829</v>
       </c>
       <c r="B129" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="C129" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D129" s="164" t="s">
-        <v>830</v>
-      </c>
-      <c r="E129" s="162"/>
+      <c r="C129" s="160" t="s">
+        <v>810</v>
+      </c>
+      <c r="D129" s="186" t="s">
+        <v>811</v>
+      </c>
+      <c r="E129" s="162" t="s">
+        <v>599</v>
+      </c>
       <c r="F129" s="187" t="s">
-        <v>836</v>
-      </c>
-      <c r="G129" s="166" t="s">
-        <v>957</v>
-      </c>
+        <v>823</v>
+      </c>
+      <c r="G129" s="164"/>
       <c r="H129" s="164"/>
       <c r="I129" s="165">
         <v>43240</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="138">
-      <c r="A130" s="173" t="s">
+    <row r="130" spans="1:9" ht="96.6">
+      <c r="A130" s="159" t="s">
+        <v>829</v>
+      </c>
+      <c r="B130" s="164" t="s">
+        <v>45</v>
+      </c>
+      <c r="C130" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D130" s="164" t="s">
+        <v>830</v>
+      </c>
+      <c r="E130" s="162"/>
+      <c r="F130" s="187" t="s">
+        <v>836</v>
+      </c>
+      <c r="G130" s="166" t="s">
+        <v>957</v>
+      </c>
+      <c r="H130" s="164"/>
+      <c r="I130" s="165">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="138">
+      <c r="A131" s="173" t="s">
         <v>837</v>
       </c>
-      <c r="D130" s="310">
+      <c r="D131" s="300">
         <v>2420287</v>
       </c>
-      <c r="E130" s="215" t="s">
+      <c r="E131" s="215" t="s">
         <v>1060</v>
       </c>
-      <c r="F130" s="185" t="s">
+      <c r="F131" s="185" t="s">
         <v>1061</v>
       </c>
-      <c r="G130" s="166" t="s">
+      <c r="G131" s="166" t="s">
         <v>1057</v>
       </c>
-      <c r="I130" s="291">
+      <c r="I131" s="291">
         <v>372000</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="41.4">
-      <c r="A131" s="159" t="s">
+    <row r="132" spans="1:9" ht="41.4">
+      <c r="A132" s="159" t="s">
         <v>844</v>
       </c>
-      <c r="B131" s="160" t="s">
+      <c r="B132" s="160" t="s">
         <v>290</v>
       </c>
-      <c r="C131" s="160"/>
-      <c r="D131" s="193" t="s">
+      <c r="C132" s="160"/>
+      <c r="D132" s="193" t="s">
         <v>846</v>
       </c>
-      <c r="E131" s="168" t="s">
+      <c r="E132" s="168" t="s">
         <v>847</v>
       </c>
-      <c r="F131" s="163" t="s">
+      <c r="F132" s="163" t="s">
         <v>1059</v>
       </c>
-      <c r="G131" s="164" t="s">
+      <c r="G132" s="164" t="s">
         <v>855</v>
       </c>
-      <c r="H131" s="164"/>
-      <c r="I131" s="165">
+      <c r="H132" s="164"/>
+      <c r="I132" s="165">
         <v>43288</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="55.2">
-      <c r="A132" s="159" t="s">
+    <row r="133" spans="1:9" ht="55.2">
+      <c r="A133" s="159" t="s">
         <v>1054</v>
       </c>
-      <c r="B132" s="160" t="s">
+      <c r="B133" s="160" t="s">
         <v>1055</v>
       </c>
-      <c r="C132" s="160"/>
-      <c r="D132" s="305" t="s">
+      <c r="C133" s="160"/>
+      <c r="D133" s="295" t="s">
         <v>1058</v>
       </c>
-      <c r="E132" s="215" t="s">
+      <c r="E133" s="215" t="s">
         <v>1056</v>
       </c>
-      <c r="F132" s="163" t="s">
+      <c r="F133" s="163" t="s">
         <v>1062</v>
       </c>
-      <c r="G132" s="164" t="s">
+      <c r="G133" s="164" t="s">
         <v>1063</v>
       </c>
-      <c r="H132" s="164"/>
-      <c r="I132" s="165" t="s">
+      <c r="H133" s="164"/>
+      <c r="I133" s="165" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="138">
-      <c r="A133" s="159" t="s">
-        <v>857</v>
-      </c>
-      <c r="B133" s="160" t="s">
-        <v>77</v>
-      </c>
-      <c r="C133" s="160" t="s">
-        <v>22</v>
-      </c>
-      <c r="D133" s="161" t="s">
-        <v>858</v>
-      </c>
-      <c r="E133" s="168"/>
-      <c r="F133" s="179" t="s">
-        <v>859</v>
-      </c>
-      <c r="G133" s="164" t="s">
-        <v>860</v>
-      </c>
-      <c r="H133" s="207" t="s">
-        <v>962</v>
-      </c>
-      <c r="I133" s="165">
-        <v>43270</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="41.4">
-      <c r="A134" s="182" t="s">
+    <row r="134" spans="1:9" ht="138">
+      <c r="A134" s="159" t="s">
         <v>857</v>
       </c>
       <c r="B134" s="160" t="s">
@@ -9743,17 +9824,17 @@
         <v>22</v>
       </c>
       <c r="D134" s="161" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E134" s="168"/>
       <c r="F134" s="179" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="G134" s="164" t="s">
-        <v>863</v>
-      </c>
-      <c r="H134" s="181" t="s">
-        <v>963</v>
+        <v>860</v>
+      </c>
+      <c r="H134" s="207" t="s">
+        <v>962</v>
       </c>
       <c r="I134" s="165">
         <v>43270</v>
@@ -9770,11 +9851,11 @@
         <v>22</v>
       </c>
       <c r="D135" s="161" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E135" s="168"/>
       <c r="F135" s="179" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="G135" s="164" t="s">
         <v>863</v>
@@ -9786,7 +9867,7 @@
         <v>43270</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="55.2">
+    <row r="136" spans="1:9" ht="41.4">
       <c r="A136" s="182" t="s">
         <v>857</v>
       </c>
@@ -9797,69 +9878,85 @@
         <v>22</v>
       </c>
       <c r="D136" s="161" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E136" s="168"/>
-      <c r="F136" s="195" t="s">
-        <v>867</v>
-      </c>
-      <c r="G136" s="164"/>
-      <c r="H136" s="207" t="s">
-        <v>962</v>
+      <c r="F136" s="179" t="s">
+        <v>865</v>
+      </c>
+      <c r="G136" s="164" t="s">
+        <v>863</v>
+      </c>
+      <c r="H136" s="181" t="s">
+        <v>963</v>
       </c>
       <c r="I136" s="165">
         <v>43270</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="41.4">
+    <row r="137" spans="1:9" ht="55.2">
       <c r="A137" s="182" t="s">
         <v>857</v>
       </c>
-      <c r="B137" s="164" t="s">
+      <c r="B137" s="160" t="s">
+        <v>77</v>
+      </c>
+      <c r="C137" s="160" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137" s="161" t="s">
+        <v>866</v>
+      </c>
+      <c r="E137" s="168"/>
+      <c r="F137" s="195" t="s">
+        <v>867</v>
+      </c>
+      <c r="G137" s="164"/>
+      <c r="H137" s="207" t="s">
+        <v>962</v>
+      </c>
+      <c r="I137" s="165">
+        <v>43270</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="41.4">
+      <c r="A138" s="182" t="s">
+        <v>857</v>
+      </c>
+      <c r="B138" s="164" t="s">
         <v>142</v>
       </c>
-      <c r="C137" s="164" t="s">
+      <c r="C138" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="D137" s="183" t="s">
+      <c r="D138" s="183" t="s">
         <v>869</v>
       </c>
-      <c r="E137" s="208" t="s">
+      <c r="E138" s="208" t="s">
         <v>870</v>
       </c>
-      <c r="F137" s="187" t="s">
+      <c r="F138" s="187" t="s">
         <v>761</v>
       </c>
-      <c r="G137" s="164" t="s">
+      <c r="G138" s="164" t="s">
         <v>877</v>
       </c>
-      <c r="H137" s="207" t="s">
+      <c r="H138" s="207" t="s">
         <v>964</v>
       </c>
-      <c r="I137" s="165">
+      <c r="I138" s="165">
         <v>43250</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="14.1">
-      <c r="A138" s="159" t="s">
+    <row r="139" spans="1:9" ht="14.1">
+      <c r="A139" s="159" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
-      <c r="D139" s="164"/>
-    </row>
     <row r="140" spans="1:9">
-      <c r="B140" s="160"/>
-      <c r="C140" s="160"/>
-      <c r="D140" s="160"/>
-      <c r="E140" s="168"/>
-      <c r="F140" s="197"/>
-      <c r="G140" s="164"/>
-      <c r="H140" s="164"/>
-      <c r="I140" s="165"/>
-    </row>
-    <row r="141" spans="1:9" ht="14.1">
-      <c r="A141" s="159"/>
+      <c r="D140" s="164"/>
+    </row>
+    <row r="141" spans="1:9">
       <c r="B141" s="160"/>
       <c r="C141" s="160"/>
       <c r="D141" s="160"/>
@@ -9937,6 +10034,17 @@
     </row>
     <row r="148" spans="1:9" ht="14.1">
       <c r="A148" s="159"/>
+      <c r="B148" s="160"/>
+      <c r="C148" s="160"/>
+      <c r="D148" s="160"/>
+      <c r="E148" s="168"/>
+      <c r="F148" s="197"/>
+      <c r="G148" s="164"/>
+      <c r="H148" s="164"/>
+      <c r="I148" s="165"/>
+    </row>
+    <row r="149" spans="1:9" ht="14.1">
+      <c r="A149" s="159"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9955,7 +10063,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
@@ -9997,10 +10105,10 @@
       <c r="H1" s="264" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="294" t="s">
+      <c r="I1" s="301" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="295"/>
+      <c r="J1" s="302"/>
     </row>
     <row r="2" spans="1:10" s="270" customFormat="1" ht="24.6">
       <c r="A2" s="267"/>
@@ -10859,7 +10967,7 @@
       <c r="I32" s="209">
         <v>43288</v>
       </c>
-      <c r="J32" s="304" t="s">
+      <c r="J32" s="294" t="s">
         <v>30</v>
       </c>
     </row>
@@ -10925,10 +11033,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="298" t="s">
+      <c r="I1" s="305" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="297"/>
+      <c r="J1" s="304"/>
     </row>
     <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="1"/>
@@ -10999,13 +11107,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="86.4">
-      <c r="A5" s="301" t="s">
+      <c r="A5" s="308" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="296" t="s">
+      <c r="B5" s="303" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="303" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -11027,9 +11135,9 @@
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="86.4">
-      <c r="A6" s="297"/>
-      <c r="B6" s="297"/>
-      <c r="C6" s="297"/>
+      <c r="A6" s="304"/>
+      <c r="B6" s="304"/>
+      <c r="C6" s="304"/>
       <c r="D6" s="13" t="s">
         <v>68</v>
       </c>
@@ -11047,7 +11155,7 @@
       <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10" ht="36.9">
-      <c r="A7" s="301" t="s">
+      <c r="A7" s="308" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -11077,7 +11185,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="36.9">
-      <c r="A8" s="297"/>
+      <c r="A8" s="304"/>
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
@@ -11104,7 +11212,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="36.9">
-      <c r="A9" s="300"/>
+      <c r="A9" s="307"/>
       <c r="B9" s="41" t="s">
         <v>21</v>
       </c>
@@ -11156,7 +11264,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="36.9">
-      <c r="A11" s="302" t="s">
+      <c r="A11" s="309" t="s">
         <v>117</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -11185,7 +11293,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="36.9">
-      <c r="A12" s="297"/>
+      <c r="A12" s="304"/>
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
@@ -11212,7 +11320,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.6">
-      <c r="A13" s="297"/>
+      <c r="A13" s="304"/>
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -11239,7 +11347,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="36.9">
-      <c r="A14" s="297"/>
+      <c r="A14" s="304"/>
       <c r="B14" s="41" t="s">
         <v>21</v>
       </c>
@@ -11633,7 +11741,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="36.9">
-      <c r="A36" s="299" t="s">
+      <c r="A36" s="306" t="s">
         <v>369</v>
       </c>
       <c r="B36" s="77" t="s">
@@ -11663,7 +11771,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="36.9">
-      <c r="A37" s="297"/>
+      <c r="A37" s="304"/>
       <c r="B37" s="8" t="s">
         <v>21</v>
       </c>
@@ -11691,7 +11799,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="61.5">
-      <c r="A38" s="297"/>
+      <c r="A38" s="304"/>
       <c r="B38" s="8" t="s">
         <v>21</v>
       </c>
@@ -11719,7 +11827,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="36.9">
-      <c r="A39" s="297"/>
+      <c r="A39" s="304"/>
       <c r="B39" s="8" t="s">
         <v>21</v>
       </c>
@@ -11747,7 +11855,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="36.9">
-      <c r="A40" s="297"/>
+      <c r="A40" s="304"/>
       <c r="B40" s="8" t="s">
         <v>21</v>
       </c>
@@ -11775,7 +11883,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="36.9">
-      <c r="A41" s="297"/>
+      <c r="A41" s="304"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
       </c>
@@ -11803,7 +11911,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="36.9">
-      <c r="A42" s="297"/>
+      <c r="A42" s="304"/>
       <c r="B42" s="8" t="s">
         <v>21</v>
       </c>
@@ -11831,7 +11939,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="36.9">
-      <c r="A43" s="297"/>
+      <c r="A43" s="304"/>
       <c r="B43" s="8" t="s">
         <v>21</v>
       </c>
@@ -11859,7 +11967,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="36.9">
-      <c r="A44" s="297"/>
+      <c r="A44" s="304"/>
       <c r="B44" s="8" t="s">
         <v>21</v>
       </c>
@@ -11887,7 +11995,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="36.9">
-      <c r="A45" s="300"/>
+      <c r="A45" s="307"/>
       <c r="B45" s="41" t="s">
         <v>21</v>
       </c>
@@ -11975,7 +12083,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="61.5">
-      <c r="A48" s="299" t="s">
+      <c r="A48" s="306" t="s">
         <v>488</v>
       </c>
       <c r="B48" s="77" t="s">
@@ -12005,7 +12113,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="36.9">
-      <c r="A49" s="300"/>
+      <c r="A49" s="307"/>
       <c r="B49" s="41" t="s">
         <v>21</v>
       </c>
@@ -13135,7 +13243,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="36.9">
-      <c r="A88" s="301" t="s">
+      <c r="A88" s="308" t="s">
         <v>771</v>
       </c>
       <c r="B88" s="8" t="s">
@@ -13165,7 +13273,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="36.9">
-      <c r="A89" s="297"/>
+      <c r="A89" s="304"/>
       <c r="B89" s="8" t="s">
         <v>45</v>
       </c>
@@ -13193,7 +13301,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="36.9">
-      <c r="A90" s="297"/>
+      <c r="A90" s="304"/>
       <c r="B90" s="8" t="s">
         <v>45</v>
       </c>
@@ -13221,7 +13329,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="36.9">
-      <c r="A91" s="297"/>
+      <c r="A91" s="304"/>
       <c r="B91" s="8" t="s">
         <v>45</v>
       </c>
@@ -13249,7 +13357,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="24.6">
-      <c r="A92" s="297"/>
+      <c r="A92" s="304"/>
       <c r="B92" s="8" t="s">
         <v>45</v>
       </c>
@@ -13277,7 +13385,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="24.6">
-      <c r="A93" s="297"/>
+      <c r="A93" s="304"/>
       <c r="B93" s="8" t="s">
         <v>45</v>
       </c>
@@ -13305,7 +13413,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="36.9">
-      <c r="A94" s="297"/>
+      <c r="A94" s="304"/>
       <c r="B94" s="8" t="s">
         <v>45</v>
       </c>
@@ -13333,7 +13441,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="36.9">
-      <c r="A95" s="297"/>
+      <c r="A95" s="304"/>
       <c r="B95" s="8" t="s">
         <v>45</v>
       </c>
@@ -14222,10 +14330,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="303" t="s">
+      <c r="I1" s="310" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="297"/>
+      <c r="J1" s="304"/>
     </row>
     <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="3"/>

--- a/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
+++ b/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barbj\Documents\Infoway-Health Canada CCDD\formulary\Working QA Team Folders\Pre- Release QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E2E1BC34-DABF-49A9-887B-DCBBF380242C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{75020C4D-C594-4E0B-A377-E6E84E381CE4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="17268" windowHeight="5256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="17268" windowHeight="5256" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Action Items, Open" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="1070">
   <si>
     <t>TM</t>
   </si>
@@ -4633,6 +4633,9 @@
   </si>
   <si>
     <t xml:space="preserve">Louise: Change strength to percentage. </t>
+  </si>
+  <si>
+    <t>Remaining action item for TM</t>
   </si>
 </sst>
 </file>
@@ -6182,6 +6185,9 @@
     <xf numFmtId="0" fontId="62" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6205,9 +6211,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6535,9 +6538,9 @@
   </sheetPr>
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I124" sqref="I124"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A123" sqref="A123:XFD123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
@@ -9489,35 +9492,6 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="69">
-      <c r="A121" s="159" t="s">
-        <v>711</v>
-      </c>
-      <c r="B121" s="180" t="s">
-        <v>149</v>
-      </c>
-      <c r="C121" s="180">
-        <v>8000823</v>
-      </c>
-      <c r="D121" s="160" t="s">
-        <v>718</v>
-      </c>
-      <c r="E121" s="168" t="s">
-        <v>722</v>
-      </c>
-      <c r="F121" s="204" t="s">
-        <v>724</v>
-      </c>
-      <c r="G121" s="180" t="s">
-        <v>725</v>
-      </c>
-      <c r="H121" s="164" t="s">
-        <v>726</v>
-      </c>
-      <c r="I121" s="165">
-        <v>43196</v>
-      </c>
-    </row>
     <row r="122" spans="1:9" ht="82.8">
       <c r="A122" s="159" t="s">
         <v>711</v>
@@ -9543,31 +9517,6 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="41.4">
-      <c r="A123" s="182" t="s">
-        <v>711</v>
-      </c>
-      <c r="B123" s="180" t="s">
-        <v>149</v>
-      </c>
-      <c r="C123" s="180"/>
-      <c r="D123" s="160" t="s">
-        <v>734</v>
-      </c>
-      <c r="E123" s="168" t="s">
-        <v>735</v>
-      </c>
-      <c r="F123" s="185" t="s">
-        <v>736</v>
-      </c>
-      <c r="G123" s="163" t="s">
-        <v>737</v>
-      </c>
-      <c r="H123" s="164"/>
-      <c r="I123" s="165">
-        <v>43196</v>
-      </c>
-    </row>
     <row r="124" spans="1:9" ht="86.4">
       <c r="A124" s="182" t="s">
         <v>1066</v>
@@ -9576,7 +9525,7 @@
         <v>1055</v>
       </c>
       <c r="C124" s="180"/>
-      <c r="D124" s="311" t="s">
+      <c r="D124" s="301" t="s">
         <v>1065</v>
       </c>
       <c r="E124" s="168" t="s">
@@ -10061,11 +10010,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
@@ -10105,10 +10054,10 @@
       <c r="H1" s="264" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="301" t="s">
+      <c r="I1" s="302" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="302"/>
+      <c r="J1" s="303"/>
     </row>
     <row r="2" spans="1:10" s="270" customFormat="1" ht="24.6">
       <c r="A2" s="267"/>
@@ -10845,56 +10794,64 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="261" customFormat="1" ht="61.5">
-      <c r="A28" s="289" t="s">
-        <v>767</v>
-      </c>
-      <c r="B28" s="257" t="s">
-        <v>768</v>
-      </c>
-      <c r="C28" s="257"/>
-      <c r="D28" s="286" t="s">
-        <v>769</v>
-      </c>
-      <c r="E28" s="287" t="s">
-        <v>773</v>
-      </c>
-      <c r="F28" s="283" t="s">
-        <v>774</v>
-      </c>
-      <c r="G28" s="257"/>
-      <c r="H28" s="284" t="s">
-        <v>962</v>
-      </c>
-      <c r="I28" s="260"/>
-      <c r="J28" s="288" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="261" customFormat="1" ht="61.5">
-      <c r="A29" s="289" t="s">
-        <v>767</v>
-      </c>
-      <c r="B29" s="257" t="s">
-        <v>768</v>
-      </c>
-      <c r="C29" s="257"/>
-      <c r="D29" s="286" t="s">
-        <v>775</v>
-      </c>
-      <c r="E29" s="287" t="s">
-        <v>773</v>
-      </c>
-      <c r="F29" s="283" t="s">
-        <v>774</v>
-      </c>
-      <c r="G29" s="257"/>
-      <c r="H29" s="284" t="s">
-        <v>962</v>
-      </c>
-      <c r="I29" s="260"/>
-      <c r="J29" s="288" t="s">
-        <v>30</v>
+    <row r="28" spans="1:10" s="166" customFormat="1" ht="69">
+      <c r="A28" s="159" t="s">
+        <v>711</v>
+      </c>
+      <c r="B28" s="180" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="180">
+        <v>8000823</v>
+      </c>
+      <c r="D28" s="160" t="s">
+        <v>718</v>
+      </c>
+      <c r="E28" s="168" t="s">
+        <v>722</v>
+      </c>
+      <c r="F28" s="204" t="s">
+        <v>724</v>
+      </c>
+      <c r="G28" s="180" t="s">
+        <v>725</v>
+      </c>
+      <c r="H28" s="164" t="s">
+        <v>726</v>
+      </c>
+      <c r="I28" s="165">
+        <v>43196</v>
+      </c>
+      <c r="J28" s="166" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="166" customFormat="1" ht="82.8">
+      <c r="A29" s="182" t="s">
+        <v>711</v>
+      </c>
+      <c r="B29" s="180" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="180"/>
+      <c r="D29" s="160" t="s">
+        <v>734</v>
+      </c>
+      <c r="E29" s="168" t="s">
+        <v>735</v>
+      </c>
+      <c r="F29" s="185" t="s">
+        <v>736</v>
+      </c>
+      <c r="G29" s="163" t="s">
+        <v>737</v>
+      </c>
+      <c r="H29" s="164"/>
+      <c r="I29" s="165">
+        <v>43196</v>
+      </c>
+      <c r="J29" s="166" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="261" customFormat="1" ht="61.5">
@@ -10906,7 +10863,7 @@
       </c>
       <c r="C30" s="257"/>
       <c r="D30" s="286" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="E30" s="287" t="s">
         <v>773</v>
@@ -10923,51 +10880,103 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="166" customFormat="1" ht="41.4">
-      <c r="A31" s="159" t="s">
+    <row r="31" spans="1:10" s="261" customFormat="1" ht="61.5">
+      <c r="A31" s="289" t="s">
+        <v>767</v>
+      </c>
+      <c r="B31" s="257" t="s">
+        <v>768</v>
+      </c>
+      <c r="C31" s="257"/>
+      <c r="D31" s="286" t="s">
+        <v>775</v>
+      </c>
+      <c r="E31" s="287" t="s">
+        <v>773</v>
+      </c>
+      <c r="F31" s="283" t="s">
+        <v>774</v>
+      </c>
+      <c r="G31" s="257"/>
+      <c r="H31" s="284" t="s">
+        <v>962</v>
+      </c>
+      <c r="I31" s="260"/>
+      <c r="J31" s="288" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="261" customFormat="1" ht="61.5">
+      <c r="A32" s="289" t="s">
+        <v>767</v>
+      </c>
+      <c r="B32" s="257" t="s">
+        <v>768</v>
+      </c>
+      <c r="C32" s="257"/>
+      <c r="D32" s="286" t="s">
+        <v>784</v>
+      </c>
+      <c r="E32" s="287" t="s">
+        <v>773</v>
+      </c>
+      <c r="F32" s="283" t="s">
+        <v>774</v>
+      </c>
+      <c r="G32" s="257"/>
+      <c r="H32" s="284" t="s">
+        <v>962</v>
+      </c>
+      <c r="I32" s="260"/>
+      <c r="J32" s="288" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="166" customFormat="1" ht="41.4">
+      <c r="A33" s="159" t="s">
         <v>837</v>
       </c>
-      <c r="B31" s="164" t="s">
+      <c r="B33" s="164" t="s">
         <v>838</v>
       </c>
-      <c r="C31" s="164"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="162"/>
-      <c r="F31" s="185" t="s">
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="185" t="s">
         <v>843</v>
       </c>
-      <c r="G31" s="164" t="s">
+      <c r="G33" s="164" t="s">
         <v>1042</v>
       </c>
-      <c r="H31" s="164"/>
-      <c r="I31" s="165">
+      <c r="H33" s="164"/>
+      <c r="I33" s="165">
         <v>43196</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="166" customFormat="1" ht="55.2">
-      <c r="A32" s="159" t="s">
+    <row r="34" spans="1:10" s="166" customFormat="1" ht="55.2">
+      <c r="A34" s="159" t="s">
         <v>878</v>
       </c>
-      <c r="B32" s="164" t="s">
+      <c r="B34" s="164" t="s">
         <v>764</v>
       </c>
-      <c r="C32" s="164" t="s">
+      <c r="C34" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="186" t="s">
+      <c r="D34" s="186" t="s">
         <v>883</v>
       </c>
-      <c r="E32" s="172"/>
-      <c r="F32" s="187" t="s">
+      <c r="E34" s="172"/>
+      <c r="F34" s="187" t="s">
         <v>894</v>
       </c>
-      <c r="H32" s="207" t="s">
+      <c r="H34" s="207" t="s">
         <v>962</v>
       </c>
-      <c r="I32" s="209">
+      <c r="I34" s="209">
         <v>43288</v>
       </c>
-      <c r="J32" s="294" t="s">
+      <c r="J34" s="294" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11033,10 +11042,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="305" t="s">
+      <c r="I1" s="306" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="304"/>
+      <c r="J1" s="305"/>
     </row>
     <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="1"/>
@@ -11107,13 +11116,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="86.4">
-      <c r="A5" s="308" t="s">
+      <c r="A5" s="309" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="303" t="s">
+      <c r="B5" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="303" t="s">
+      <c r="C5" s="304" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -11135,9 +11144,9 @@
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="86.4">
-      <c r="A6" s="304"/>
-      <c r="B6" s="304"/>
-      <c r="C6" s="304"/>
+      <c r="A6" s="305"/>
+      <c r="B6" s="305"/>
+      <c r="C6" s="305"/>
       <c r="D6" s="13" t="s">
         <v>68</v>
       </c>
@@ -11155,7 +11164,7 @@
       <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10" ht="36.9">
-      <c r="A7" s="308" t="s">
+      <c r="A7" s="309" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -11185,7 +11194,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="36.9">
-      <c r="A8" s="304"/>
+      <c r="A8" s="305"/>
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
@@ -11212,7 +11221,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="36.9">
-      <c r="A9" s="307"/>
+      <c r="A9" s="308"/>
       <c r="B9" s="41" t="s">
         <v>21</v>
       </c>
@@ -11264,7 +11273,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="36.9">
-      <c r="A11" s="309" t="s">
+      <c r="A11" s="310" t="s">
         <v>117</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -11293,7 +11302,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="36.9">
-      <c r="A12" s="304"/>
+      <c r="A12" s="305"/>
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
@@ -11320,7 +11329,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.6">
-      <c r="A13" s="304"/>
+      <c r="A13" s="305"/>
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -11347,7 +11356,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="36.9">
-      <c r="A14" s="304"/>
+      <c r="A14" s="305"/>
       <c r="B14" s="41" t="s">
         <v>21</v>
       </c>
@@ -11741,7 +11750,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="36.9">
-      <c r="A36" s="306" t="s">
+      <c r="A36" s="307" t="s">
         <v>369</v>
       </c>
       <c r="B36" s="77" t="s">
@@ -11771,7 +11780,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="36.9">
-      <c r="A37" s="304"/>
+      <c r="A37" s="305"/>
       <c r="B37" s="8" t="s">
         <v>21</v>
       </c>
@@ -11799,7 +11808,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="61.5">
-      <c r="A38" s="304"/>
+      <c r="A38" s="305"/>
       <c r="B38" s="8" t="s">
         <v>21</v>
       </c>
@@ -11827,7 +11836,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="36.9">
-      <c r="A39" s="304"/>
+      <c r="A39" s="305"/>
       <c r="B39" s="8" t="s">
         <v>21</v>
       </c>
@@ -11855,7 +11864,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="36.9">
-      <c r="A40" s="304"/>
+      <c r="A40" s="305"/>
       <c r="B40" s="8" t="s">
         <v>21</v>
       </c>
@@ -11883,7 +11892,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="36.9">
-      <c r="A41" s="304"/>
+      <c r="A41" s="305"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
       </c>
@@ -11911,7 +11920,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="36.9">
-      <c r="A42" s="304"/>
+      <c r="A42" s="305"/>
       <c r="B42" s="8" t="s">
         <v>21</v>
       </c>
@@ -11939,7 +11948,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="36.9">
-      <c r="A43" s="304"/>
+      <c r="A43" s="305"/>
       <c r="B43" s="8" t="s">
         <v>21</v>
       </c>
@@ -11967,7 +11976,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="36.9">
-      <c r="A44" s="304"/>
+      <c r="A44" s="305"/>
       <c r="B44" s="8" t="s">
         <v>21</v>
       </c>
@@ -11995,7 +12004,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="36.9">
-      <c r="A45" s="307"/>
+      <c r="A45" s="308"/>
       <c r="B45" s="41" t="s">
         <v>21</v>
       </c>
@@ -12083,7 +12092,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="61.5">
-      <c r="A48" s="306" t="s">
+      <c r="A48" s="307" t="s">
         <v>488</v>
       </c>
       <c r="B48" s="77" t="s">
@@ -12113,7 +12122,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="36.9">
-      <c r="A49" s="307"/>
+      <c r="A49" s="308"/>
       <c r="B49" s="41" t="s">
         <v>21</v>
       </c>
@@ -13243,7 +13252,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="36.9">
-      <c r="A88" s="308" t="s">
+      <c r="A88" s="309" t="s">
         <v>771</v>
       </c>
       <c r="B88" s="8" t="s">
@@ -13273,7 +13282,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="36.9">
-      <c r="A89" s="304"/>
+      <c r="A89" s="305"/>
       <c r="B89" s="8" t="s">
         <v>45</v>
       </c>
@@ -13301,7 +13310,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="36.9">
-      <c r="A90" s="304"/>
+      <c r="A90" s="305"/>
       <c r="B90" s="8" t="s">
         <v>45</v>
       </c>
@@ -13329,7 +13338,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="36.9">
-      <c r="A91" s="304"/>
+      <c r="A91" s="305"/>
       <c r="B91" s="8" t="s">
         <v>45</v>
       </c>
@@ -13357,7 +13366,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="24.6">
-      <c r="A92" s="304"/>
+      <c r="A92" s="305"/>
       <c r="B92" s="8" t="s">
         <v>45</v>
       </c>
@@ -13385,7 +13394,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="24.6">
-      <c r="A93" s="304"/>
+      <c r="A93" s="305"/>
       <c r="B93" s="8" t="s">
         <v>45</v>
       </c>
@@ -13413,7 +13422,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="36.9">
-      <c r="A94" s="304"/>
+      <c r="A94" s="305"/>
       <c r="B94" s="8" t="s">
         <v>45</v>
       </c>
@@ -13441,7 +13450,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="36.9">
-      <c r="A95" s="304"/>
+      <c r="A95" s="305"/>
       <c r="B95" s="8" t="s">
         <v>45</v>
       </c>
@@ -14330,10 +14339,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="310" t="s">
+      <c r="I1" s="311" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="304"/>
+      <c r="J1" s="305"/>
     </row>
     <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="3"/>

--- a/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
+++ b/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barbj\Documents\Infoway-Health Canada CCDD\formulary\Working QA Team Folders\Pre- Release QA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D0A31C1B-A009-4E14-95F9-9DC6FBBE9C11}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="17268" windowHeight="5256"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="17268" windowHeight="5256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Action Items, Open" sheetId="1" r:id="rId1"/>
@@ -12,17 +18,17 @@
     <sheet name="Completed AIs Released" sheetId="3" r:id="rId3"/>
     <sheet name="AIs no longer relevant" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="F130" authorId="0">
+    <comment ref="F131" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -34,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F142" authorId="0">
+    <comment ref="F143" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -51,12 +57,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G21" authorId="0">
+    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0">
+    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,12 +94,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E93" authorId="0">
+    <comment ref="E93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G101" authorId="0">
+    <comment ref="G101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H122" authorId="0">
+    <comment ref="H122" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="1094">
   <si>
     <t>TM</t>
   </si>
@@ -4631,18 +4637,105 @@
   <si>
     <t>fluorometholone acetate 0.1 % ophthalmic drops</t>
   </si>
+  <si>
+    <t>pilocarpine</t>
+  </si>
+  <si>
+    <t>August Release QA</t>
+  </si>
+  <si>
+    <t>0000868
+0000841
+0000844</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. pilocarpine hydrochloride 20 mg per mL ophthalmic drops </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF521BED"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2 %)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. pilocarpine hydrochloride 40 mg per mL ophthalmic drops </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF521BED"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4 %)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3. pilocarpine hydrochloride 10 mg per mL ophthalmic drops </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF521BED"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1 %)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Louise: Change strength to percentage. </t>
+  </si>
+  <si>
+    <t>Aug 3 2018</t>
+  </si>
+  <si>
+    <t>Done - one remaining action item for TM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outstanding </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="#0"/>
     <numFmt numFmtId="167" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="63">
+  <fonts count="64">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4991,6 +5084,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF521BED"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5288,7 +5388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="314">
+  <cellXfs count="315">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6170,6 +6270,15 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6194,14 +6303,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6516,22 +6619,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J152"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G95" sqref="G95"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J128" sqref="J128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
@@ -6549,7 +6652,7 @@
     <col min="11" max="16384" width="14.44140625" style="166"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="158" customFormat="1" ht="27.6">
+    <row r="1" spans="1:10" s="158" customFormat="1" ht="28.2">
       <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
@@ -6602,7 +6705,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="96.6">
+    <row r="3" spans="1:10" ht="98.7">
       <c r="A3" s="159" t="s">
         <v>1001</v>
       </c>
@@ -6723,7 +6826,7 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="317.39999999999998">
+    <row r="8" spans="1:10" ht="345">
       <c r="A8" s="170" t="s">
         <v>435</v>
       </c>
@@ -6744,7 +6847,7 @@
       <c r="H8" s="164"/>
       <c r="I8" s="165"/>
     </row>
-    <row r="9" spans="1:10" ht="331.2">
+    <row r="9" spans="1:10" ht="358.8">
       <c r="A9" s="173" t="s">
         <v>934</v>
       </c>
@@ -6765,7 +6868,7 @@
       <c r="H9" s="164"/>
       <c r="I9" s="165"/>
     </row>
-    <row r="10" spans="1:10" ht="409.6">
+    <row r="10" spans="1:10" ht="409.5">
       <c r="A10" s="170" t="s">
         <v>958</v>
       </c>
@@ -6951,7 +7054,7 @@
       </c>
       <c r="I17" s="165"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="14.1">
       <c r="A18" s="159" t="s">
         <v>121</v>
       </c>
@@ -6999,7 +7102,7 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="41.4">
+    <row r="20" spans="1:9" ht="42.3">
       <c r="A20" s="159" t="s">
         <v>135</v>
       </c>
@@ -7166,7 +7269,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="27.6">
+    <row r="27" spans="1:9" ht="28.2">
       <c r="A27" s="159" t="s">
         <v>209</v>
       </c>
@@ -7212,7 +7315,7 @@
       <c r="H28" s="181"/>
       <c r="I28" s="165"/>
     </row>
-    <row r="29" spans="1:9" ht="41.4">
+    <row r="29" spans="1:9" ht="55.2">
       <c r="A29" s="159" t="s">
         <v>221</v>
       </c>
@@ -7237,7 +7340,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="41.4">
+    <row r="30" spans="1:9" ht="55.2">
       <c r="A30" s="182" t="s">
         <v>221</v>
       </c>
@@ -7258,7 +7361,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="41.4">
+    <row r="31" spans="1:9" ht="55.2">
       <c r="A31" s="182" t="s">
         <v>221</v>
       </c>
@@ -7279,7 +7382,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="41.4">
+    <row r="32" spans="1:9" ht="55.2">
       <c r="A32" s="182" t="s">
         <v>221</v>
       </c>
@@ -7485,7 +7588,7 @@
       <c r="I40" s="191"/>
       <c r="J40" s="192"/>
     </row>
-    <row r="41" spans="1:10" ht="124.2">
+    <row r="41" spans="1:10" ht="151.80000000000001">
       <c r="A41" s="159" t="s">
         <v>266</v>
       </c>
@@ -7708,7 +7811,7 @@
         <v>43250</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="69.599999999999994">
+    <row r="49" spans="1:9" ht="69.3">
       <c r="A49" s="159" t="s">
         <v>336</v>
       </c>
@@ -8043,7 +8146,7 @@
         <v>43283</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="41.4">
+    <row r="63" spans="1:9" ht="55.2">
       <c r="A63" s="182" t="s">
         <v>76</v>
       </c>
@@ -8070,7 +8173,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="41.4">
+    <row r="64" spans="1:9" ht="55.2">
       <c r="A64" s="182" t="s">
         <v>76</v>
       </c>
@@ -8097,7 +8200,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="41.4">
+    <row r="65" spans="1:9" ht="55.2">
       <c r="A65" s="182" t="s">
         <v>76</v>
       </c>
@@ -8124,7 +8227,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="41.4">
+    <row r="66" spans="1:9" ht="55.2">
       <c r="A66" s="182" t="s">
         <v>76</v>
       </c>
@@ -8201,7 +8304,7 @@
       <c r="H68" s="164"/>
       <c r="I68" s="165"/>
     </row>
-    <row r="69" spans="1:9" ht="41.4">
+    <row r="69" spans="1:9" ht="55.2">
       <c r="A69" s="182" t="s">
         <v>76</v>
       </c>
@@ -8251,7 +8354,7 @@
       <c r="H70" s="164"/>
       <c r="I70" s="165"/>
     </row>
-    <row r="71" spans="1:9" ht="41.4">
+    <row r="71" spans="1:9" ht="55.2">
       <c r="A71" s="182" t="s">
         <v>76</v>
       </c>
@@ -8301,7 +8404,7 @@
       <c r="H72" s="164"/>
       <c r="I72" s="165"/>
     </row>
-    <row r="73" spans="1:9" ht="41.4">
+    <row r="73" spans="1:9" ht="55.2">
       <c r="A73" s="182" t="s">
         <v>440</v>
       </c>
@@ -8328,7 +8431,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="55.2">
+    <row r="74" spans="1:9" ht="56.4">
       <c r="A74" s="159" t="s">
         <v>443</v>
       </c>
@@ -8355,7 +8458,7 @@
         <v>43290</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="55.2">
+    <row r="75" spans="1:9" ht="56.4">
       <c r="A75" s="203" t="s">
         <v>445</v>
       </c>
@@ -8505,7 +8608,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="55.2">
+    <row r="81" spans="1:9" ht="41.4">
       <c r="A81" s="159" t="s">
         <v>1058</v>
       </c>
@@ -8516,7 +8619,7 @@
       <c r="D81" s="161" t="s">
         <v>1059</v>
       </c>
-      <c r="E81" s="311" t="s">
+      <c r="E81" s="301" t="s">
         <v>1061</v>
       </c>
       <c r="F81" s="197" t="s">
@@ -8531,7 +8634,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="55.2">
-      <c r="A82" s="312" t="s">
+      <c r="A82" s="302" t="s">
         <v>1064</v>
       </c>
       <c r="B82" s="160" t="s">
@@ -8555,7 +8658,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="55.2">
+    <row r="83" spans="1:9" ht="41.4">
       <c r="A83" s="159" t="s">
         <v>1065</v>
       </c>
@@ -8580,7 +8683,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="409.6">
+    <row r="84" spans="1:9" ht="409.5">
       <c r="A84" s="159" t="s">
         <v>472</v>
       </c>
@@ -8872,7 +8975,7 @@
       <c r="E95" s="221" t="s">
         <v>1085</v>
       </c>
-      <c r="F95" s="313" t="s">
+      <c r="F95" s="303" t="s">
         <v>1083</v>
       </c>
       <c r="G95" s="164" t="s">
@@ -9150,7 +9253,7 @@
       <c r="H106" s="164"/>
       <c r="I106" s="165"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" ht="14.1">
       <c r="A107" s="159" t="s">
         <v>603</v>
       </c>
@@ -9304,7 +9407,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="69">
+    <row r="113" spans="1:10" ht="69">
       <c r="A113" s="159" t="s">
         <v>632</v>
       </c>
@@ -9331,7 +9434,7 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="69">
+    <row r="114" spans="1:10" ht="69">
       <c r="A114" s="182" t="s">
         <v>632</v>
       </c>
@@ -9354,7 +9457,7 @@
         <v>43298</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="69">
+    <row r="115" spans="1:10" ht="69">
       <c r="A115" s="182" t="s">
         <v>632</v>
       </c>
@@ -9377,7 +9480,7 @@
         <v>43298</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="55.2">
+    <row r="116" spans="1:10" ht="55.2">
       <c r="A116" s="182" t="s">
         <v>632</v>
       </c>
@@ -9400,7 +9503,7 @@
         <v>43298</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="69">
+    <row r="117" spans="1:10" ht="69">
       <c r="A117" s="182" t="s">
         <v>632</v>
       </c>
@@ -9423,7 +9526,7 @@
         <v>43298</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="69">
+    <row r="118" spans="1:10" ht="69">
       <c r="A118" s="182" t="s">
         <v>632</v>
       </c>
@@ -9446,7 +9549,7 @@
         <v>43298</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="124.2">
+    <row r="119" spans="1:10" ht="124.2">
       <c r="A119" s="159" t="s">
         <v>646</v>
       </c>
@@ -9469,7 +9572,7 @@
       <c r="H119" s="164"/>
       <c r="I119" s="165"/>
     </row>
-    <row r="120" spans="1:9" ht="138">
+    <row r="120" spans="1:10" ht="138">
       <c r="A120" s="182" t="s">
         <v>646</v>
       </c>
@@ -9492,7 +9595,7 @@
       <c r="H120" s="164"/>
       <c r="I120" s="165"/>
     </row>
-    <row r="121" spans="1:9" ht="124.2">
+    <row r="121" spans="1:10" ht="124.2">
       <c r="A121" s="182" t="s">
         <v>646</v>
       </c>
@@ -9515,7 +9618,7 @@
       <c r="H121" s="164"/>
       <c r="I121" s="165"/>
     </row>
-    <row r="122" spans="1:9" ht="82.8">
+    <row r="122" spans="1:10" ht="96.6">
       <c r="A122" s="159" t="s">
         <v>660</v>
       </c>
@@ -9540,7 +9643,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="41.4">
+    <row r="123" spans="1:10" ht="41.4">
       <c r="A123" s="159" t="s">
         <v>675</v>
       </c>
@@ -9563,7 +9666,7 @@
         <v>43276</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="41.4">
+    <row r="124" spans="1:10" ht="41.4">
       <c r="A124" s="159" t="s">
         <v>675</v>
       </c>
@@ -9586,7 +9689,7 @@
         <v>43276</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="55.2">
+    <row r="125" spans="1:10" ht="55.2">
       <c r="A125" s="159" t="s">
         <v>694</v>
       </c>
@@ -9611,7 +9714,7 @@
         <v>43293</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="207">
+    <row r="126" spans="1:10" ht="207">
       <c r="A126" s="159" t="s">
         <v>702</v>
       </c>
@@ -9636,7 +9739,7 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="69">
+    <row r="127" spans="1:10" ht="69">
       <c r="A127" s="159" t="s">
         <v>710</v>
       </c>
@@ -9664,8 +9767,11 @@
       <c r="I127" s="165">
         <v>43196</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" ht="82.8">
+      <c r="J127" s="166" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="82.8">
       <c r="A128" s="159" t="s">
         <v>710</v>
       </c>
@@ -9689,8 +9795,11 @@
       <c r="I128" s="165">
         <v>43196</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" ht="41.4">
+      <c r="J128" s="181" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="55.2">
       <c r="A129" s="182" t="s">
         <v>710</v>
       </c>
@@ -9714,226 +9823,225 @@
       <c r="I129" s="165">
         <v>43196</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" ht="27.6">
-      <c r="A130" s="159" t="s">
-        <v>737</v>
-      </c>
-      <c r="B130" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="C130" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D130" s="183" t="s">
-        <v>738</v>
-      </c>
-      <c r="E130" s="207" t="s">
-        <v>750</v>
-      </c>
-      <c r="F130" s="187" t="s">
-        <v>760</v>
-      </c>
-      <c r="G130" s="164" t="s">
-        <v>761</v>
-      </c>
+      <c r="J129" s="166" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="86.4">
+      <c r="A130" s="182" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B130" s="180" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C130" s="180"/>
+      <c r="D130" s="314" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E130" s="168" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F130" s="185" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G130" s="163"/>
       <c r="H130" s="164"/>
-      <c r="I130" s="165">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="27.6">
-      <c r="A131" s="182" t="s">
+      <c r="I130" s="165" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="41.4">
+      <c r="A131" s="159" t="s">
         <v>737</v>
       </c>
       <c r="B131" s="164" t="s">
         <v>142</v>
       </c>
-      <c r="C131" s="164"/>
-      <c r="D131" s="299" t="s">
-        <v>876</v>
-      </c>
-      <c r="E131" s="160" t="s">
-        <v>879</v>
+      <c r="C131" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131" s="183" t="s">
+        <v>738</v>
+      </c>
+      <c r="E131" s="207" t="s">
+        <v>750</v>
       </c>
       <c r="F131" s="187" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G131" s="164"/>
+        <v>760</v>
+      </c>
+      <c r="G131" s="164" t="s">
+        <v>761</v>
+      </c>
       <c r="H131" s="164"/>
       <c r="I131" s="165">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="27.6">
+      <c r="A132" s="182" t="s">
+        <v>737</v>
+      </c>
+      <c r="B132" s="164" t="s">
+        <v>142</v>
+      </c>
+      <c r="C132" s="164"/>
+      <c r="D132" s="299" t="s">
+        <v>876</v>
+      </c>
+      <c r="E132" s="160" t="s">
+        <v>879</v>
+      </c>
+      <c r="F132" s="187" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G132" s="164"/>
+      <c r="H132" s="164"/>
+      <c r="I132" s="165">
         <v>43311</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="96.6">
-      <c r="A132" s="159" t="s">
+    <row r="133" spans="1:10" ht="96.6">
+      <c r="A133" s="159" t="s">
         <v>762</v>
       </c>
-      <c r="B132" s="164" t="s">
+      <c r="B133" s="164" t="s">
         <v>763</v>
       </c>
-      <c r="C132" s="164" t="s">
+      <c r="C133" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="D132" s="186" t="s">
+      <c r="D133" s="186" t="s">
         <v>764</v>
       </c>
-      <c r="E132" s="207" t="s">
+      <c r="E133" s="207" t="s">
         <v>598</v>
       </c>
-      <c r="F132" s="185" t="s">
+      <c r="F133" s="185" t="s">
         <v>995</v>
       </c>
-      <c r="G132" s="164" t="s">
+      <c r="G133" s="164" t="s">
         <v>996</v>
       </c>
-      <c r="H132" s="208"/>
-      <c r="I132" s="165">
+      <c r="H133" s="208"/>
+      <c r="I133" s="165">
         <v>43264</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="27.6">
-      <c r="A133" s="182" t="s">
+    <row r="134" spans="1:10" ht="41.4">
+      <c r="A134" s="182" t="s">
         <v>796</v>
       </c>
-      <c r="B133" s="164" t="s">
+      <c r="B134" s="164" t="s">
         <v>797</v>
       </c>
-      <c r="C133" s="160" t="s">
+      <c r="C134" s="160" t="s">
         <v>798</v>
       </c>
-      <c r="D133" s="160" t="s">
+      <c r="D134" s="160" t="s">
         <v>800</v>
       </c>
-      <c r="E133" s="168" t="s">
+      <c r="E134" s="168" t="s">
         <v>805</v>
       </c>
-      <c r="F133" s="185" t="s">
+      <c r="F134" s="185" t="s">
         <v>806</v>
       </c>
-      <c r="G133" s="164" t="s">
+      <c r="G134" s="164" t="s">
         <v>807</v>
       </c>
-      <c r="H133" s="208"/>
-      <c r="I133" s="165"/>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="159" t="s">
+      <c r="H134" s="208"/>
+      <c r="I134" s="165"/>
+    </row>
+    <row r="135" spans="1:10" ht="14.1">
+      <c r="A135" s="159" t="s">
         <v>808</v>
-      </c>
-      <c r="B134" s="164" t="s">
-        <v>45</v>
-      </c>
-      <c r="C134" s="160" t="s">
-        <v>809</v>
-      </c>
-      <c r="D134" s="186" t="s">
-        <v>810</v>
-      </c>
-      <c r="E134" s="162" t="s">
-        <v>598</v>
-      </c>
-      <c r="F134" s="187" t="s">
-        <v>822</v>
-      </c>
-      <c r="G134" s="164"/>
-      <c r="H134" s="164"/>
-      <c r="I134" s="165">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="96.6">
-      <c r="A135" s="159" t="s">
-        <v>828</v>
       </c>
       <c r="B135" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="C135" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D135" s="164" t="s">
-        <v>829</v>
-      </c>
-      <c r="E135" s="162"/>
+      <c r="C135" s="160" t="s">
+        <v>809</v>
+      </c>
+      <c r="D135" s="186" t="s">
+        <v>810</v>
+      </c>
+      <c r="E135" s="162" t="s">
+        <v>598</v>
+      </c>
       <c r="F135" s="187" t="s">
-        <v>835</v>
-      </c>
-      <c r="G135" s="166" t="s">
-        <v>957</v>
-      </c>
+        <v>822</v>
+      </c>
+      <c r="G135" s="164"/>
       <c r="H135" s="164"/>
       <c r="I135" s="165">
         <v>43240</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="41.4">
-      <c r="A136" s="170" t="s">
+    <row r="136" spans="1:10" ht="96.6">
+      <c r="A136" s="159" t="s">
+        <v>828</v>
+      </c>
+      <c r="B136" s="164" t="s">
+        <v>45</v>
+      </c>
+      <c r="C136" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D136" s="164" t="s">
+        <v>829</v>
+      </c>
+      <c r="E136" s="162"/>
+      <c r="F136" s="187" t="s">
+        <v>835</v>
+      </c>
+      <c r="G136" s="166" t="s">
+        <v>957</v>
+      </c>
+      <c r="H136" s="164"/>
+      <c r="I136" s="165">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="41.4">
+      <c r="A137" s="170" t="s">
         <v>836</v>
       </c>
-      <c r="D136" s="297">
+      <c r="D137" s="297">
         <v>2420287</v>
       </c>
-      <c r="F136" s="166" t="s">
+      <c r="F137" s="166" t="s">
         <v>1040</v>
       </c>
-      <c r="I136" s="298">
+      <c r="I137" s="298">
         <v>372000</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="41.4">
-      <c r="A137" s="159" t="s">
+    <row r="138" spans="1:10" ht="41.4">
+      <c r="A138" s="159" t="s">
         <v>843</v>
       </c>
-      <c r="B137" s="160" t="s">
+      <c r="B138" s="160" t="s">
         <v>289</v>
       </c>
-      <c r="C137" s="160"/>
-      <c r="D137" s="195" t="s">
+      <c r="C138" s="160"/>
+      <c r="D138" s="195" t="s">
         <v>845</v>
       </c>
-      <c r="E137" s="168" t="s">
+      <c r="E138" s="168" t="s">
         <v>846</v>
       </c>
-      <c r="F137" s="163" t="s">
+      <c r="F138" s="163" t="s">
         <v>847</v>
       </c>
-      <c r="G137" s="164" t="s">
+      <c r="G138" s="164" t="s">
         <v>855</v>
       </c>
-      <c r="H137" s="164"/>
-      <c r="I137" s="165">
+      <c r="H138" s="164"/>
+      <c r="I138" s="165">
         <v>43288</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="138">
-      <c r="A138" s="159" t="s">
-        <v>857</v>
-      </c>
-      <c r="B138" s="160" t="s">
-        <v>77</v>
-      </c>
-      <c r="C138" s="160" t="s">
-        <v>22</v>
-      </c>
-      <c r="D138" s="161" t="s">
-        <v>858</v>
-      </c>
-      <c r="E138" s="168"/>
-      <c r="F138" s="179" t="s">
-        <v>859</v>
-      </c>
-      <c r="G138" s="164" t="s">
-        <v>860</v>
-      </c>
-      <c r="H138" s="209" t="s">
-        <v>962</v>
-      </c>
-      <c r="I138" s="165">
-        <v>43270</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="41.4">
+    <row r="139" spans="1:10" ht="138">
       <c r="A139" s="159" t="s">
         <v>857</v>
       </c>
@@ -9944,23 +10052,23 @@
         <v>22</v>
       </c>
       <c r="D139" s="161" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E139" s="168"/>
       <c r="F139" s="179" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="G139" s="164" t="s">
-        <v>863</v>
-      </c>
-      <c r="H139" s="181" t="s">
-        <v>963</v>
+        <v>860</v>
+      </c>
+      <c r="H139" s="209" t="s">
+        <v>962</v>
       </c>
       <c r="I139" s="165">
         <v>43270</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="41.4">
+    <row r="140" spans="1:10" ht="41.4">
       <c r="A140" s="159" t="s">
         <v>857</v>
       </c>
@@ -9971,11 +10079,11 @@
         <v>22</v>
       </c>
       <c r="D140" s="161" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E140" s="168"/>
       <c r="F140" s="179" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="G140" s="164" t="s">
         <v>863</v>
@@ -9987,7 +10095,7 @@
         <v>43270</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="41.4">
+    <row r="141" spans="1:10" ht="41.4">
       <c r="A141" s="159" t="s">
         <v>857</v>
       </c>
@@ -9998,87 +10106,103 @@
         <v>22</v>
       </c>
       <c r="D141" s="161" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E141" s="168"/>
-      <c r="F141" s="197" t="s">
-        <v>867</v>
-      </c>
-      <c r="G141" s="164"/>
-      <c r="H141" s="209" t="s">
-        <v>962</v>
+      <c r="F141" s="179" t="s">
+        <v>865</v>
+      </c>
+      <c r="G141" s="164" t="s">
+        <v>863</v>
+      </c>
+      <c r="H141" s="181" t="s">
+        <v>963</v>
       </c>
       <c r="I141" s="165">
         <v>43270</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="41.4">
+    <row r="142" spans="1:10" ht="55.2">
       <c r="A142" s="159" t="s">
+        <v>857</v>
+      </c>
+      <c r="B142" s="160" t="s">
+        <v>77</v>
+      </c>
+      <c r="C142" s="160" t="s">
+        <v>22</v>
+      </c>
+      <c r="D142" s="161" t="s">
+        <v>866</v>
+      </c>
+      <c r="E142" s="168"/>
+      <c r="F142" s="197" t="s">
+        <v>867</v>
+      </c>
+      <c r="G142" s="164"/>
+      <c r="H142" s="209" t="s">
+        <v>962</v>
+      </c>
+      <c r="I142" s="165">
+        <v>43270</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="41.4">
+      <c r="A143" s="159" t="s">
         <v>868</v>
       </c>
-      <c r="B142" s="164" t="s">
+      <c r="B143" s="164" t="s">
         <v>142</v>
-      </c>
-      <c r="C142" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D142" s="183" t="s">
-        <v>869</v>
-      </c>
-      <c r="E142" s="210" t="s">
-        <v>870</v>
-      </c>
-      <c r="F142" s="187" t="s">
-        <v>760</v>
-      </c>
-      <c r="G142" s="164" t="s">
-        <v>877</v>
-      </c>
-      <c r="H142" s="209" t="s">
-        <v>964</v>
-      </c>
-      <c r="I142" s="165">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="27.6">
-      <c r="A143" s="159" t="s">
-        <v>878</v>
-      </c>
-      <c r="B143" s="164" t="s">
-        <v>763</v>
       </c>
       <c r="C143" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="D143" s="186" t="s">
+      <c r="D143" s="183" t="s">
+        <v>869</v>
+      </c>
+      <c r="E143" s="210" t="s">
+        <v>870</v>
+      </c>
+      <c r="F143" s="187" t="s">
+        <v>760</v>
+      </c>
+      <c r="G143" s="164" t="s">
+        <v>877</v>
+      </c>
+      <c r="H143" s="209" t="s">
+        <v>964</v>
+      </c>
+      <c r="I143" s="165">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="27.6">
+      <c r="A144" s="159" t="s">
+        <v>878</v>
+      </c>
+      <c r="B144" s="164" t="s">
+        <v>763</v>
+      </c>
+      <c r="C144" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D144" s="186" t="s">
         <v>883</v>
       </c>
-      <c r="F143" s="187" t="s">
+      <c r="F144" s="187" t="s">
         <v>894</v>
       </c>
-      <c r="H143" s="209" t="s">
+      <c r="H144" s="209" t="s">
         <v>962</v>
       </c>
-      <c r="I143" s="211">
+      <c r="I144" s="211">
         <v>43288</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
-      <c r="D144" s="164"/>
-    </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="159"/>
-      <c r="B145" s="160"/>
-      <c r="C145" s="160"/>
-      <c r="D145" s="160"/>
-      <c r="E145" s="168"/>
-      <c r="F145" s="199"/>
-      <c r="G145" s="164"/>
-      <c r="H145" s="164"/>
-      <c r="I145" s="165"/>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="D145" s="164"/>
+    </row>
+    <row r="146" spans="1:9" ht="14.1">
       <c r="A146" s="159"/>
       <c r="B146" s="160"/>
       <c r="C146" s="160"/>
@@ -10089,7 +10213,7 @@
       <c r="H146" s="164"/>
       <c r="I146" s="165"/>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" ht="14.1">
       <c r="A147" s="159"/>
       <c r="B147" s="160"/>
       <c r="C147" s="160"/>
@@ -10100,7 +10224,7 @@
       <c r="H147" s="164"/>
       <c r="I147" s="165"/>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" ht="14.1">
       <c r="A148" s="159"/>
       <c r="B148" s="160"/>
       <c r="C148" s="160"/>
@@ -10111,7 +10235,7 @@
       <c r="H148" s="164"/>
       <c r="I148" s="165"/>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" ht="14.1">
       <c r="A149" s="159"/>
       <c r="B149" s="160"/>
       <c r="C149" s="160"/>
@@ -10122,7 +10246,7 @@
       <c r="H149" s="164"/>
       <c r="I149" s="165"/>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" ht="14.1">
       <c r="A150" s="159"/>
       <c r="B150" s="160"/>
       <c r="C150" s="160"/>
@@ -10133,7 +10257,7 @@
       <c r="H150" s="164"/>
       <c r="I150" s="165"/>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" ht="14.1">
       <c r="A151" s="159"/>
       <c r="B151" s="160"/>
       <c r="C151" s="160"/>
@@ -10144,7 +10268,7 @@
       <c r="H151" s="164"/>
       <c r="I151" s="165"/>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" ht="14.1">
       <c r="A152" s="159"/>
       <c r="B152" s="160"/>
       <c r="C152" s="160"/>
@@ -10155,9 +10279,20 @@
       <c r="H152" s="164"/>
       <c r="I152" s="165"/>
     </row>
+    <row r="153" spans="1:9" ht="14.1">
+      <c r="A153" s="159"/>
+      <c r="B153" s="160"/>
+      <c r="C153" s="160"/>
+      <c r="D153" s="160"/>
+      <c r="E153" s="168"/>
+      <c r="F153" s="199"/>
+      <c r="G153" s="164"/>
+      <c r="H153" s="164"/>
+      <c r="I153" s="165"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F122" r:id="rId1" location="gid=314589613&amp;range=309:309"/>
+    <hyperlink ref="F122" r:id="rId1" location="gid=314589613&amp;range=309:309" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -10166,7 +10301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10177,7 +10312,7 @@
       <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" style="232" customWidth="1"/>
     <col min="2" max="5" width="14.44140625" style="232"/>
@@ -10189,7 +10324,7 @@
     <col min="11" max="16384" width="14.44140625" style="232"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="272" customFormat="1" ht="26.4">
+    <row r="1" spans="1:10" s="272" customFormat="1" ht="24.6">
       <c r="A1" s="270" t="s">
         <v>0</v>
       </c>
@@ -10214,12 +10349,12 @@
       <c r="H1" s="270" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="301" t="s">
+      <c r="I1" s="304" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="302"/>
-    </row>
-    <row r="2" spans="1:10" s="276" customFormat="1" ht="26.4">
+      <c r="J1" s="305"/>
+    </row>
+    <row r="2" spans="1:10" s="276" customFormat="1" ht="24.6">
       <c r="A2" s="273"/>
       <c r="B2" s="274"/>
       <c r="C2" s="274"/>
@@ -10235,7 +10370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="286" customFormat="1" ht="66">
+    <row r="3" spans="1:10" s="286" customFormat="1" ht="61.5">
       <c r="A3" s="277" t="s">
         <v>60</v>
       </c>
@@ -10265,7 +10400,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="92.4">
+    <row r="4" spans="1:10" ht="86.1">
       <c r="A4" s="233" t="s">
         <v>19</v>
       </c>
@@ -10295,7 +10430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="105.6">
+    <row r="5" spans="1:10" ht="98.4">
       <c r="A5" s="233" t="s">
         <v>19</v>
       </c>
@@ -10325,7 +10460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="105.6">
+    <row r="6" spans="1:10" ht="98.4">
       <c r="A6" s="233" t="s">
         <v>19</v>
       </c>
@@ -10355,7 +10490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="105.6">
+    <row r="7" spans="1:10" ht="98.4">
       <c r="A7" s="233" t="s">
         <v>19</v>
       </c>
@@ -10415,7 +10550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="92.4">
+    <row r="9" spans="1:10" ht="73.8">
       <c r="A9" s="229" t="s">
         <v>44</v>
       </c>
@@ -10443,7 +10578,7 @@
       </c>
       <c r="J9" s="231"/>
     </row>
-    <row r="10" spans="1:10" ht="92.4">
+    <row r="10" spans="1:10" ht="73.8">
       <c r="A10" s="226" t="s">
         <v>44</v>
       </c>
@@ -10471,7 +10606,7 @@
       </c>
       <c r="J10" s="231"/>
     </row>
-    <row r="11" spans="1:10" ht="92.4">
+    <row r="11" spans="1:10" ht="73.8">
       <c r="A11" s="226" t="s">
         <v>44</v>
       </c>
@@ -10499,7 +10634,7 @@
       </c>
       <c r="J11" s="231"/>
     </row>
-    <row r="12" spans="1:10" ht="118.8">
+    <row r="12" spans="1:10" ht="98.4">
       <c r="A12" s="226" t="s">
         <v>193</v>
       </c>
@@ -10525,7 +10660,7 @@
       </c>
       <c r="J12" s="231"/>
     </row>
-    <row r="13" spans="1:10" ht="250.8">
+    <row r="13" spans="1:10" ht="233.7">
       <c r="A13" s="229" t="s">
         <v>217</v>
       </c>
@@ -10556,7 +10691,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="165.6">
+    <row r="14" spans="1:10" ht="160.19999999999999">
       <c r="A14" s="162" t="s">
         <v>282</v>
       </c>
@@ -10584,7 +10719,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="79.2">
+    <row r="15" spans="1:10" ht="73.8">
       <c r="A15" s="226" t="s">
         <v>76</v>
       </c>
@@ -10636,7 +10771,7 @@
       </c>
       <c r="J16" s="231"/>
     </row>
-    <row r="17" spans="1:10" ht="55.2">
+    <row r="17" spans="1:10" ht="51.6">
       <c r="A17" s="226" t="s">
         <v>76</v>
       </c>
@@ -10662,7 +10797,7 @@
       <c r="I17" s="230"/>
       <c r="J17" s="231"/>
     </row>
-    <row r="18" spans="1:10" ht="55.2">
+    <row r="18" spans="1:10" ht="51.6">
       <c r="A18" s="226" t="s">
         <v>76</v>
       </c>
@@ -10688,7 +10823,7 @@
       <c r="I18" s="230"/>
       <c r="J18" s="231"/>
     </row>
-    <row r="19" spans="1:10" s="267" customFormat="1" ht="39.6">
+    <row r="19" spans="1:10" s="267" customFormat="1" ht="36.9">
       <c r="A19" s="295" t="s">
         <v>589</v>
       </c>
@@ -10713,7 +10848,7 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="267" customFormat="1" ht="66">
+    <row r="20" spans="1:10" s="267" customFormat="1" ht="61.5">
       <c r="A20" s="263" t="s">
         <v>632</v>
       </c>
@@ -10768,7 +10903,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="79.2">
+    <row r="22" spans="1:10" ht="73.8">
       <c r="A22" s="263" t="s">
         <v>737</v>
       </c>
@@ -10800,7 +10935,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="267" customFormat="1" ht="79.2">
+    <row r="23" spans="1:10" s="267" customFormat="1" ht="61.5">
       <c r="A23" s="295" t="s">
         <v>766</v>
       </c>
@@ -10826,7 +10961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="267" customFormat="1" ht="79.2">
+    <row r="24" spans="1:10" s="267" customFormat="1" ht="61.5">
       <c r="A24" s="295" t="s">
         <v>766</v>
       </c>
@@ -10852,7 +10987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="267" customFormat="1" ht="79.2">
+    <row r="25" spans="1:10" s="267" customFormat="1" ht="61.5">
       <c r="A25" s="295" t="s">
         <v>766</v>
       </c>
@@ -10910,7 +11045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10923,7 +11058,7 @@
       <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -10936,7 +11071,7 @@
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.4">
+    <row r="1" spans="1:10" ht="24.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10961,12 +11096,12 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="305" t="s">
+      <c r="I1" s="308" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="304"/>
-    </row>
-    <row r="2" spans="1:10" ht="26.4">
+      <c r="J1" s="307"/>
+    </row>
+    <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -10982,7 +11117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="52.8">
+    <row r="3" spans="1:10" ht="49.2">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -11008,7 +11143,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="26.4">
+    <row r="4" spans="1:10" ht="24.6">
       <c r="A4" s="17" t="s">
         <v>24</v>
       </c>
@@ -11035,13 +11170,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="86.4">
-      <c r="A5" s="308" t="s">
+      <c r="A5" s="311" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="303" t="s">
+      <c r="B5" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="303" t="s">
+      <c r="C5" s="306" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -11063,9 +11198,9 @@
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="86.4">
-      <c r="A6" s="304"/>
-      <c r="B6" s="304"/>
-      <c r="C6" s="304"/>
+      <c r="A6" s="307"/>
+      <c r="B6" s="307"/>
+      <c r="C6" s="307"/>
       <c r="D6" s="13" t="s">
         <v>68</v>
       </c>
@@ -11082,8 +11217,8 @@
       </c>
       <c r="J6" s="35"/>
     </row>
-    <row r="7" spans="1:10" ht="39.6">
-      <c r="A7" s="308" t="s">
+    <row r="7" spans="1:10" ht="36.9">
+      <c r="A7" s="311" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -11112,8 +11247,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="39.6">
-      <c r="A8" s="304"/>
+    <row r="8" spans="1:10" ht="36.9">
+      <c r="A8" s="307"/>
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
@@ -11139,8 +11274,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="39.6">
-      <c r="A9" s="307"/>
+    <row r="9" spans="1:10" ht="36.9">
+      <c r="A9" s="310"/>
       <c r="B9" s="41" t="s">
         <v>21</v>
       </c>
@@ -11191,8 +11326,8 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="39.6">
-      <c r="A11" s="309" t="s">
+    <row r="11" spans="1:10" ht="36.9">
+      <c r="A11" s="312" t="s">
         <v>117</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -11220,8 +11355,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="39.6">
-      <c r="A12" s="304"/>
+    <row r="12" spans="1:10" ht="36.9">
+      <c r="A12" s="307"/>
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
@@ -11247,8 +11382,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="39.6">
-      <c r="A13" s="304"/>
+    <row r="13" spans="1:10" ht="24.6">
+      <c r="A13" s="307"/>
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -11274,8 +11409,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="39.6">
-      <c r="A14" s="304"/>
+    <row r="14" spans="1:10" ht="36.9">
+      <c r="A14" s="307"/>
       <c r="B14" s="41" t="s">
         <v>21</v>
       </c>
@@ -11302,7 +11437,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="232" customFormat="1" ht="118.8">
+    <row r="15" spans="1:10" s="232" customFormat="1" ht="98.4">
       <c r="A15" s="225" t="s">
         <v>148</v>
       </c>
@@ -11334,7 +11469,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="26.4">
+    <row r="16" spans="1:10" ht="24.6">
       <c r="A16" s="6" t="s">
         <v>155</v>
       </c>
@@ -11360,7 +11495,7 @@
       </c>
       <c r="J16" s="35"/>
     </row>
-    <row r="17" spans="1:10" ht="26.4">
+    <row r="17" spans="1:10" ht="24.6">
       <c r="A17" s="6" t="s">
         <v>163</v>
       </c>
@@ -11386,7 +11521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="105.6">
+    <row r="23" spans="1:10" ht="98.4">
       <c r="A23" s="14" t="s">
         <v>19</v>
       </c>
@@ -11416,7 +11551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="79.2">
+    <row r="27" spans="1:10" ht="73.8">
       <c r="A27" s="6" t="s">
         <v>173</v>
       </c>
@@ -11446,7 +11581,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="52.8">
+    <row r="28" spans="1:10" ht="36.9">
       <c r="A28" s="59" t="s">
         <v>184</v>
       </c>
@@ -11478,7 +11613,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="92.4">
+    <row r="29" spans="1:10" ht="86.1">
       <c r="A29" s="6" t="s">
         <v>253</v>
       </c>
@@ -11508,7 +11643,7 @@
         <v>76138</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="66">
+    <row r="30" spans="1:10" ht="61.5">
       <c r="A30" s="6" t="s">
         <v>263</v>
       </c>
@@ -11534,7 +11669,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="232" customFormat="1" ht="92.4">
+    <row r="31" spans="1:10" s="232" customFormat="1" ht="86.1">
       <c r="A31" s="229" t="s">
         <v>282</v>
       </c>
@@ -11610,7 +11745,7 @@
       <c r="I33" s="12"/>
       <c r="J33" s="35"/>
     </row>
-    <row r="34" spans="1:10" ht="79.2">
+    <row r="34" spans="1:10" ht="73.8">
       <c r="A34" s="6" t="s">
         <v>314</v>
       </c>
@@ -11640,7 +11775,7 @@
       </c>
       <c r="J34" s="35"/>
     </row>
-    <row r="35" spans="1:10" ht="92.4">
+    <row r="35" spans="1:10" ht="86.1">
       <c r="A35" s="74" t="s">
         <v>339</v>
       </c>
@@ -11702,7 +11837,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="267" customFormat="1" ht="66">
+    <row r="37" spans="1:10" s="267" customFormat="1" ht="61.5">
       <c r="A37" s="263" t="s">
         <v>321</v>
       </c>
@@ -11732,7 +11867,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="267" customFormat="1" ht="66">
+    <row r="38" spans="1:10" s="267" customFormat="1" ht="61.5">
       <c r="A38" s="263" t="s">
         <v>321</v>
       </c>
@@ -11762,7 +11897,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="39.6">
+    <row r="39" spans="1:10" ht="36.9">
       <c r="A39" s="6" t="s">
         <v>348</v>
       </c>
@@ -11790,7 +11925,7 @@
       </c>
       <c r="J39" s="32"/>
     </row>
-    <row r="40" spans="1:10" ht="66">
+    <row r="40" spans="1:10" ht="61.5">
       <c r="A40" s="6" t="s">
         <v>355</v>
       </c>
@@ -11822,8 +11957,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="39.6">
-      <c r="A41" s="306" t="s">
+    <row r="41" spans="1:10" ht="36.9">
+      <c r="A41" s="309" t="s">
         <v>368</v>
       </c>
       <c r="B41" s="77" t="s">
@@ -11852,8 +11987,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="39.6">
-      <c r="A42" s="304"/>
+    <row r="42" spans="1:10" ht="36.9">
+      <c r="A42" s="307"/>
       <c r="B42" s="8" t="s">
         <v>21</v>
       </c>
@@ -11880,8 +12015,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="66">
-      <c r="A43" s="304"/>
+    <row r="43" spans="1:10" ht="61.5">
+      <c r="A43" s="307"/>
       <c r="B43" s="8" t="s">
         <v>21</v>
       </c>
@@ -11908,8 +12043,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="39.6">
-      <c r="A44" s="304"/>
+    <row r="44" spans="1:10" ht="36.9">
+      <c r="A44" s="307"/>
       <c r="B44" s="8" t="s">
         <v>21</v>
       </c>
@@ -11936,8 +12071,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="39.6">
-      <c r="A45" s="304"/>
+    <row r="45" spans="1:10" ht="36.9">
+      <c r="A45" s="307"/>
       <c r="B45" s="8" t="s">
         <v>21</v>
       </c>
@@ -11964,8 +12099,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="39.6">
-      <c r="A46" s="304"/>
+    <row r="46" spans="1:10" ht="36.9">
+      <c r="A46" s="307"/>
       <c r="B46" s="8" t="s">
         <v>21</v>
       </c>
@@ -11992,8 +12127,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="39.6">
-      <c r="A47" s="304"/>
+    <row r="47" spans="1:10" ht="36.9">
+      <c r="A47" s="307"/>
       <c r="B47" s="8" t="s">
         <v>21</v>
       </c>
@@ -12020,8 +12155,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="39.6">
-      <c r="A48" s="304"/>
+    <row r="48" spans="1:10" ht="36.9">
+      <c r="A48" s="307"/>
       <c r="B48" s="8" t="s">
         <v>21</v>
       </c>
@@ -12048,8 +12183,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="39.6">
-      <c r="A49" s="304"/>
+    <row r="49" spans="1:10" ht="36.9">
+      <c r="A49" s="307"/>
       <c r="B49" s="8" t="s">
         <v>21</v>
       </c>
@@ -12076,8 +12211,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="39.6">
-      <c r="A50" s="307"/>
+    <row r="50" spans="1:10" ht="36.9">
+      <c r="A50" s="310"/>
       <c r="B50" s="41" t="s">
         <v>21</v>
       </c>
@@ -12104,7 +12239,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="39.6">
+    <row r="51" spans="1:10" ht="36.9">
       <c r="A51" s="92" t="s">
         <v>451</v>
       </c>
@@ -12164,8 +12299,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="66">
-      <c r="A53" s="306" t="s">
+    <row r="53" spans="1:10" ht="61.5">
+      <c r="A53" s="309" t="s">
         <v>487</v>
       </c>
       <c r="B53" s="77" t="s">
@@ -12194,8 +12329,8 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="39.6">
-      <c r="A54" s="307"/>
+    <row r="54" spans="1:10" ht="36.9">
+      <c r="A54" s="310"/>
       <c r="B54" s="41" t="s">
         <v>21</v>
       </c>
@@ -12250,7 +12385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="26.4">
+    <row r="56" spans="1:10" ht="24.6">
       <c r="A56" s="8" t="s">
         <v>452</v>
       </c>
@@ -12276,7 +12411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="79.2">
+    <row r="57" spans="1:10" ht="73.8">
       <c r="A57" s="6" t="s">
         <v>539</v>
       </c>
@@ -12308,7 +12443,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="52.8">
+    <row r="58" spans="1:10" ht="49.2">
       <c r="A58" s="8" t="s">
         <v>539</v>
       </c>
@@ -12340,7 +12475,7 @@
         <v>43283</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="52.8">
+    <row r="59" spans="1:10" ht="49.2">
       <c r="A59" s="8" t="s">
         <v>539</v>
       </c>
@@ -12372,7 +12507,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="52.8">
+    <row r="60" spans="1:10" ht="49.2">
       <c r="A60" s="8" t="s">
         <v>539</v>
       </c>
@@ -12404,7 +12539,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="66">
+    <row r="61" spans="1:10" ht="61.5">
       <c r="A61" s="8" t="s">
         <v>539</v>
       </c>
@@ -12436,7 +12571,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="52.8">
+    <row r="62" spans="1:10" ht="49.2">
       <c r="A62" s="8" t="s">
         <v>539</v>
       </c>
@@ -12468,7 +12603,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="52.8">
+    <row r="63" spans="1:10" ht="49.2">
       <c r="A63" s="8" t="s">
         <v>539</v>
       </c>
@@ -12500,7 +12635,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="52.8">
+    <row r="64" spans="1:10" ht="49.2">
       <c r="A64" s="8" t="s">
         <v>539</v>
       </c>
@@ -12532,7 +12667,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="52.8">
+    <row r="65" spans="1:10" ht="49.2">
       <c r="A65" s="6" t="s">
         <v>580</v>
       </c>
@@ -12562,7 +12697,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="26.4">
+    <row r="66" spans="1:10" ht="24.6">
       <c r="A66" s="8" t="s">
         <v>580</v>
       </c>
@@ -12592,7 +12727,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="79.2">
+    <row r="67" spans="1:10" ht="73.8">
       <c r="A67" s="6" t="s">
         <v>594</v>
       </c>
@@ -12622,7 +12757,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="26.4">
+    <row r="68" spans="1:10" ht="24.6">
       <c r="A68" s="119" t="s">
         <v>602</v>
       </c>
@@ -12652,7 +12787,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="52.8">
+    <row r="69" spans="1:10" ht="49.2">
       <c r="A69" s="6" t="s">
         <v>627</v>
       </c>
@@ -12714,7 +12849,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="52.8">
+    <row r="71" spans="1:10" ht="49.2">
       <c r="A71" s="112" t="s">
         <v>642</v>
       </c>
@@ -12741,7 +12876,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="66">
+    <row r="72" spans="1:10" ht="61.5">
       <c r="A72" s="110" t="s">
         <v>642</v>
       </c>
@@ -12876,7 +13011,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="39.6">
+    <row r="77" spans="1:10" ht="43.2">
       <c r="A77" s="110" t="s">
         <v>642</v>
       </c>
@@ -13098,7 +13233,7 @@
         <v>43295</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="79.2">
+    <row r="85" spans="1:10" ht="61.5">
       <c r="A85" s="112" t="s">
         <v>555</v>
       </c>
@@ -13126,7 +13261,7 @@
         <v>43296</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="66">
+    <row r="86" spans="1:10" ht="57.6">
       <c r="A86" s="110" t="s">
         <v>555</v>
       </c>
@@ -13154,7 +13289,7 @@
         <v>43297</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="66">
+    <row r="87" spans="1:10" ht="61.5">
       <c r="A87" s="110" t="s">
         <v>555</v>
       </c>
@@ -13236,7 +13371,7 @@
         <v>43300</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="52.8">
+    <row r="90" spans="1:10" ht="49.2">
       <c r="A90" s="8" t="s">
         <v>744</v>
       </c>
@@ -13266,7 +13401,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="52.8">
+    <row r="91" spans="1:10" ht="49.2">
       <c r="A91" s="6" t="s">
         <v>753</v>
       </c>
@@ -13296,7 +13431,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="118.8">
+    <row r="92" spans="1:10" ht="110.7">
       <c r="A92" s="6" t="s">
         <v>758</v>
       </c>
@@ -13324,8 +13459,8 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="39.6">
-      <c r="A93" s="308" t="s">
+    <row r="93" spans="1:10" ht="36.9">
+      <c r="A93" s="311" t="s">
         <v>770</v>
       </c>
       <c r="B93" s="8" t="s">
@@ -13354,8 +13489,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="39.6">
-      <c r="A94" s="304"/>
+    <row r="94" spans="1:10" ht="36.9">
+      <c r="A94" s="307"/>
       <c r="B94" s="8" t="s">
         <v>45</v>
       </c>
@@ -13382,8 +13517,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="39.6">
-      <c r="A95" s="304"/>
+    <row r="95" spans="1:10" ht="36.9">
+      <c r="A95" s="307"/>
       <c r="B95" s="8" t="s">
         <v>45</v>
       </c>
@@ -13410,8 +13545,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="39.6">
-      <c r="A96" s="304"/>
+    <row r="96" spans="1:10" ht="36.9">
+      <c r="A96" s="307"/>
       <c r="B96" s="8" t="s">
         <v>45</v>
       </c>
@@ -13438,8 +13573,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="39.6">
-      <c r="A97" s="304"/>
+    <row r="97" spans="1:10" ht="24.6">
+      <c r="A97" s="307"/>
       <c r="B97" s="8" t="s">
         <v>45</v>
       </c>
@@ -13466,8 +13601,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="39.6">
-      <c r="A98" s="304"/>
+    <row r="98" spans="1:10" ht="24.6">
+      <c r="A98" s="307"/>
       <c r="B98" s="8" t="s">
         <v>45</v>
       </c>
@@ -13494,8 +13629,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="39.6">
-      <c r="A99" s="304"/>
+    <row r="99" spans="1:10" ht="36.9">
+      <c r="A99" s="307"/>
       <c r="B99" s="8" t="s">
         <v>45</v>
       </c>
@@ -13522,8 +13657,8 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="39.6">
-      <c r="A100" s="304"/>
+    <row r="100" spans="1:10" ht="36.9">
+      <c r="A100" s="307"/>
       <c r="B100" s="8" t="s">
         <v>45</v>
       </c>
@@ -13550,7 +13685,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="26.4">
+    <row r="101" spans="1:10" ht="24.6">
       <c r="A101" s="6" t="s">
         <v>803</v>
       </c>
@@ -13582,7 +13717,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="52.8">
+    <row r="102" spans="1:10" ht="49.2">
       <c r="A102" s="6" t="s">
         <v>824</v>
       </c>
@@ -13612,7 +13747,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="39.6">
+    <row r="103" spans="1:10" ht="36.9">
       <c r="A103" s="6" t="s">
         <v>832</v>
       </c>
@@ -13775,7 +13910,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="66">
+    <row r="109" spans="1:10" ht="61.5">
       <c r="A109" s="6" t="s">
         <v>882</v>
       </c>
@@ -13805,7 +13940,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="66">
+    <row r="110" spans="1:10" ht="61.5">
       <c r="A110" s="6" t="s">
         <v>882</v>
       </c>
@@ -14142,7 +14277,7 @@
         <v>43293</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="118.8">
+    <row r="122" spans="1:10" ht="98.4">
       <c r="A122" s="6" t="s">
         <v>916</v>
       </c>
@@ -14174,7 +14309,7 @@
         <v>43294</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="26.4">
+    <row r="123" spans="1:10" ht="24.6">
       <c r="A123" s="6" t="s">
         <v>916</v>
       </c>
@@ -14363,7 +14498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -14373,7 +14508,7 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
@@ -14387,7 +14522,7 @@
     <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39.6">
+    <row r="1" spans="1:10" ht="36.9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -14412,12 +14547,12 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="310" t="s">
+      <c r="I1" s="313" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="304"/>
-    </row>
-    <row r="2" spans="1:10" ht="26.4">
+      <c r="J1" s="307"/>
+    </row>
+    <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -14433,7 +14568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="211.2">
+    <row r="3" spans="1:10" ht="196.8">
       <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
@@ -14463,7 +14598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="211.2">
+    <row r="4" spans="1:10" ht="196.8">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
@@ -14493,7 +14628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="211.2">
+    <row r="5" spans="1:10" ht="196.8">
       <c r="A5" s="14" t="s">
         <v>19</v>
       </c>

--- a/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
+++ b/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barbj\Documents\Infoway-Health Canada CCDD\formulary\Working QA Team Folders\Pre- Release QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D0A31C1B-A009-4E14-95F9-9DC6FBBE9C11}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{55FF531F-FA46-4F04-9922-F3F9D34F80E7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="17268" windowHeight="5256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F143" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F144" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="1101">
   <si>
     <t>TM</t>
   </si>
@@ -4459,9 +4459,6 @@
     <t>U of Ps Done July 27 2018 bfj</t>
   </si>
   <si>
-    <t>Louise: DPD ingredient should be tobramycin sulfate according to monograph.</t>
-  </si>
-  <si>
     <t>Louise: change concentration to 300 mg per 16.7 mL</t>
   </si>
   <si>
@@ -4723,6 +4720,31 @@
   </si>
   <si>
     <t xml:space="preserve">Outstanding </t>
+  </si>
+  <si>
+    <t>tobramycin 40 mg per mL solution for injection</t>
+  </si>
+  <si>
+    <t>Louise: I think DPD ingredient should be tobramycin (tobramycin sulfate). Otherwise it differs from all other tobramycin injections, which I'm not inclined to believe. There is some evidence in the monograph that it contains tobramycin sodium. bfj</t>
+  </si>
+  <si>
+    <t>This outlier results in an extra (unnecessary) ntp. Bfj</t>
+  </si>
+  <si>
+    <t>valproic acid (valproate)</t>
+  </si>
+  <si>
+    <t>02238370
+02236807</t>
+  </si>
+  <si>
+    <t>valproic acid (sodium valproate) 250 mg per 5 mL syrup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louise: both are described as oral solutions in monographs. Extra ntp results from description as syrup. </t>
+  </si>
+  <si>
+    <t>Jo and Louise looking into this one (which one is correct for all three - syrup or solution?). Bfj</t>
   </si>
 </sst>
 </file>
@@ -5388,7 +5410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="315">
+  <cellXfs count="316">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6258,9 +6280,6 @@
     <xf numFmtId="0" fontId="61" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="17" fontId="36" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6278,6 +6297,9 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6303,8 +6325,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="62" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6630,11 +6655,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J128" sqref="J128"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A139" sqref="A139:XFD139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
@@ -6919,15 +6944,15 @@
         <v>1004</v>
       </c>
       <c r="B12" s="164" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C12" s="160"/>
       <c r="D12" s="222" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E12" s="166"/>
       <c r="F12" s="166" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G12" s="176"/>
       <c r="H12" s="164"/>
@@ -7050,7 +7075,7 @@
         <v>120</v>
       </c>
       <c r="H17" s="181" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I17" s="165"/>
     </row>
@@ -7513,7 +7538,7 @@
         <v>250</v>
       </c>
       <c r="G37" s="160" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H37" s="164"/>
       <c r="I37" s="165"/>
@@ -7536,7 +7561,7 @@
         <v>250</v>
       </c>
       <c r="G38" s="160" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H38" s="164"/>
       <c r="I38" s="165"/>
@@ -7801,7 +7826,7 @@
         <v>319</v>
       </c>
       <c r="F48" s="185" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G48" s="160" t="s">
         <v>320</v>
@@ -8598,7 +8623,7 @@
         <v>469</v>
       </c>
       <c r="F80" s="199" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="G80" s="164" t="s">
         <v>470</v>
@@ -8610,23 +8635,23 @@
     </row>
     <row r="81" spans="1:9" ht="41.4">
       <c r="A81" s="159" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B81" s="160" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C81" s="160"/>
       <c r="D81" s="161" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E81" s="301" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E81" s="300" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F81" s="197" t="s">
         <v>1061</v>
       </c>
-      <c r="F81" s="197" t="s">
+      <c r="G81" s="164" t="s">
         <v>1062</v>
-      </c>
-      <c r="G81" s="164" t="s">
-        <v>1063</v>
       </c>
       <c r="H81" s="164"/>
       <c r="I81" s="165">
@@ -8634,24 +8659,24 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="55.2">
-      <c r="A82" s="302" t="s">
-        <v>1064</v>
+      <c r="A82" s="301" t="s">
+        <v>1063</v>
       </c>
       <c r="B82" s="160" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C82" s="160"/>
       <c r="D82" s="161" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E82" s="221" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F82" s="197" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G82" s="164" t="s">
         <v>1062</v>
-      </c>
-      <c r="G82" s="164" t="s">
-        <v>1063</v>
       </c>
       <c r="H82" s="164"/>
       <c r="I82" s="165">
@@ -8660,23 +8685,23 @@
     </row>
     <row r="83" spans="1:9" ht="41.4">
       <c r="A83" s="159" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B83" s="160" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C83" s="160"/>
       <c r="D83" s="161" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E83" s="168" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F83" s="197" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G83" s="164" t="s">
         <v>1062</v>
-      </c>
-      <c r="G83" s="164" t="s">
-        <v>1063</v>
       </c>
       <c r="H83" s="164"/>
       <c r="I83" s="165">
@@ -8808,7 +8833,7 @@
         <v>480</v>
       </c>
       <c r="F88" s="187" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G88" s="185" t="s">
         <v>497</v>
@@ -8918,22 +8943,22 @@
     </row>
     <row r="93" spans="1:9" ht="55.2">
       <c r="A93" s="159" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B93" s="160" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D93" s="189" t="s">
         <v>1070</v>
       </c>
-      <c r="B93" s="160" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D93" s="189" t="s">
+      <c r="E93" s="221" t="s">
         <v>1071</v>
       </c>
-      <c r="E93" s="221" t="s">
-        <v>1072</v>
-      </c>
       <c r="F93" s="187" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G93" s="164" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H93" s="164"/>
       <c r="I93" s="165">
@@ -8954,7 +8979,7 @@
         <v>1023</v>
       </c>
       <c r="F94" s="215" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G94" s="164"/>
       <c r="H94" s="164"/>
@@ -8964,22 +8989,22 @@
     </row>
     <row r="95" spans="1:9" ht="27.6">
       <c r="A95" s="159" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B95" s="164" t="s">
         <v>1005</v>
       </c>
       <c r="D95" s="189" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E95" s="221" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F95" s="302" t="s">
         <v>1082</v>
       </c>
-      <c r="E95" s="221" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F95" s="303" t="s">
+      <c r="G95" s="164" t="s">
         <v>1083</v>
-      </c>
-      <c r="G95" s="164" t="s">
-        <v>1084</v>
       </c>
       <c r="H95" s="164"/>
       <c r="I95" s="165">
@@ -9120,7 +9145,7 @@
         <v>1026</v>
       </c>
       <c r="F101" s="187" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G101" s="160" t="s">
         <v>1027</v>
@@ -9221,7 +9246,7 @@
         <v>1030</v>
       </c>
       <c r="F105" s="187" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G105" s="164" t="s">
         <v>1031</v>
@@ -9384,23 +9409,23 @@
     </row>
     <row r="112" spans="1:10" ht="41.4">
       <c r="A112" s="159" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B112" s="160" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C112" s="164"/>
       <c r="D112" s="224" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E112" s="168" t="s">
         <v>1074</v>
       </c>
-      <c r="E112" s="168" t="s">
-        <v>1075</v>
-      </c>
       <c r="F112" s="187" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G112" s="164" t="s">
         <v>1077</v>
-      </c>
-      <c r="G112" s="164" t="s">
-        <v>1078</v>
       </c>
       <c r="H112" s="164"/>
       <c r="I112" s="165">
@@ -9768,7 +9793,7 @@
         <v>43196</v>
       </c>
       <c r="J127" s="166" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="82.8">
@@ -9796,7 +9821,7 @@
         <v>43196</v>
       </c>
       <c r="J128" s="181" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="55.2">
@@ -9824,30 +9849,30 @@
         <v>43196</v>
       </c>
       <c r="J129" s="166" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="86.4">
       <c r="A130" s="182" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B130" s="180" t="s">
         <v>1086</v>
       </c>
-      <c r="B130" s="180" t="s">
+      <c r="C130" s="180"/>
+      <c r="D130" s="303" t="s">
         <v>1087</v>
       </c>
-      <c r="C130" s="180"/>
-      <c r="D130" s="314" t="s">
+      <c r="E130" s="168" t="s">
         <v>1088</v>
       </c>
-      <c r="E130" s="168" t="s">
+      <c r="F130" s="185" t="s">
         <v>1089</v>
-      </c>
-      <c r="F130" s="185" t="s">
-        <v>1090</v>
       </c>
       <c r="G130" s="163"/>
       <c r="H130" s="164"/>
       <c r="I130" s="165" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="41.4">
@@ -9885,14 +9910,14 @@
         <v>142</v>
       </c>
       <c r="C132" s="164"/>
-      <c r="D132" s="299" t="s">
+      <c r="D132" s="298" t="s">
         <v>876</v>
       </c>
       <c r="E132" s="160" t="s">
         <v>879</v>
       </c>
       <c r="F132" s="187" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G132" s="164"/>
       <c r="H132" s="164"/>
@@ -10002,17 +10027,23 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="41.4">
-      <c r="A137" s="170" t="s">
+    <row r="137" spans="1:10" ht="138">
+      <c r="A137" s="173" t="s">
         <v>836</v>
       </c>
-      <c r="D137" s="297">
+      <c r="D137" s="314">
         <v>2420287</v>
       </c>
-      <c r="F137" s="166" t="s">
-        <v>1040</v>
-      </c>
-      <c r="I137" s="298">
+      <c r="E137" s="221" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F137" s="185" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G137" s="166" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I137" s="297">
         <v>372000</v>
       </c>
     </row>
@@ -10041,34 +10072,32 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="138">
+    <row r="139" spans="1:10" ht="55.2">
       <c r="A139" s="159" t="s">
-        <v>857</v>
+        <v>1096</v>
       </c>
       <c r="B139" s="160" t="s">
-        <v>77</v>
-      </c>
-      <c r="C139" s="160" t="s">
-        <v>22</v>
-      </c>
-      <c r="D139" s="161" t="s">
-        <v>858</v>
-      </c>
-      <c r="E139" s="168"/>
-      <c r="F139" s="179" t="s">
-        <v>859</v>
+        <v>1086</v>
+      </c>
+      <c r="C139" s="160"/>
+      <c r="D139" s="315" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E139" s="221" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F139" s="163" t="s">
+        <v>1099</v>
       </c>
       <c r="G139" s="164" t="s">
-        <v>860</v>
-      </c>
-      <c r="H139" s="209" t="s">
-        <v>962</v>
-      </c>
-      <c r="I139" s="165">
-        <v>43270</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="41.4">
+        <v>1100</v>
+      </c>
+      <c r="H139" s="164"/>
+      <c r="I139" s="165" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="138">
       <c r="A140" s="159" t="s">
         <v>857</v>
       </c>
@@ -10079,17 +10108,17 @@
         <v>22</v>
       </c>
       <c r="D140" s="161" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E140" s="168"/>
       <c r="F140" s="179" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="G140" s="164" t="s">
-        <v>863</v>
-      </c>
-      <c r="H140" s="181" t="s">
-        <v>963</v>
+        <v>860</v>
+      </c>
+      <c r="H140" s="209" t="s">
+        <v>962</v>
       </c>
       <c r="I140" s="165">
         <v>43270</v>
@@ -10106,11 +10135,11 @@
         <v>22</v>
       </c>
       <c r="D141" s="161" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E141" s="168"/>
       <c r="F141" s="179" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="G141" s="164" t="s">
         <v>863</v>
@@ -10122,7 +10151,7 @@
         <v>43270</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="55.2">
+    <row r="142" spans="1:10" ht="41.4">
       <c r="A142" s="159" t="s">
         <v>857</v>
       </c>
@@ -10133,85 +10162,101 @@
         <v>22</v>
       </c>
       <c r="D142" s="161" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E142" s="168"/>
-      <c r="F142" s="197" t="s">
-        <v>867</v>
-      </c>
-      <c r="G142" s="164"/>
-      <c r="H142" s="209" t="s">
-        <v>962</v>
+      <c r="F142" s="179" t="s">
+        <v>865</v>
+      </c>
+      <c r="G142" s="164" t="s">
+        <v>863</v>
+      </c>
+      <c r="H142" s="181" t="s">
+        <v>963</v>
       </c>
       <c r="I142" s="165">
         <v>43270</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="41.4">
+    <row r="143" spans="1:10" ht="55.2">
       <c r="A143" s="159" t="s">
+        <v>857</v>
+      </c>
+      <c r="B143" s="160" t="s">
+        <v>77</v>
+      </c>
+      <c r="C143" s="160" t="s">
+        <v>22</v>
+      </c>
+      <c r="D143" s="161" t="s">
+        <v>866</v>
+      </c>
+      <c r="E143" s="168"/>
+      <c r="F143" s="197" t="s">
+        <v>867</v>
+      </c>
+      <c r="G143" s="164"/>
+      <c r="H143" s="209" t="s">
+        <v>962</v>
+      </c>
+      <c r="I143" s="165">
+        <v>43270</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="41.4">
+      <c r="A144" s="159" t="s">
         <v>868</v>
       </c>
-      <c r="B143" s="164" t="s">
+      <c r="B144" s="164" t="s">
         <v>142</v>
-      </c>
-      <c r="C143" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D143" s="183" t="s">
-        <v>869</v>
-      </c>
-      <c r="E143" s="210" t="s">
-        <v>870</v>
-      </c>
-      <c r="F143" s="187" t="s">
-        <v>760</v>
-      </c>
-      <c r="G143" s="164" t="s">
-        <v>877</v>
-      </c>
-      <c r="H143" s="209" t="s">
-        <v>964</v>
-      </c>
-      <c r="I143" s="165">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="27.6">
-      <c r="A144" s="159" t="s">
-        <v>878</v>
-      </c>
-      <c r="B144" s="164" t="s">
-        <v>763</v>
       </c>
       <c r="C144" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="D144" s="186" t="s">
+      <c r="D144" s="183" t="s">
+        <v>869</v>
+      </c>
+      <c r="E144" s="210" t="s">
+        <v>870</v>
+      </c>
+      <c r="F144" s="187" t="s">
+        <v>760</v>
+      </c>
+      <c r="G144" s="164" t="s">
+        <v>877</v>
+      </c>
+      <c r="H144" s="209" t="s">
+        <v>964</v>
+      </c>
+      <c r="I144" s="165">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="27.6">
+      <c r="A145" s="159" t="s">
+        <v>878</v>
+      </c>
+      <c r="B145" s="164" t="s">
+        <v>763</v>
+      </c>
+      <c r="C145" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D145" s="186" t="s">
         <v>883</v>
       </c>
-      <c r="F144" s="187" t="s">
+      <c r="F145" s="187" t="s">
         <v>894</v>
       </c>
-      <c r="H144" s="209" t="s">
+      <c r="H145" s="209" t="s">
         <v>962</v>
       </c>
-      <c r="I144" s="211">
+      <c r="I145" s="211">
         <v>43288</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
-      <c r="D145" s="164"/>
-    </row>
-    <row r="146" spans="1:9" ht="14.1">
-      <c r="A146" s="159"/>
-      <c r="B146" s="160"/>
-      <c r="C146" s="160"/>
-      <c r="D146" s="160"/>
-      <c r="E146" s="168"/>
-      <c r="F146" s="199"/>
-      <c r="G146" s="164"/>
-      <c r="H146" s="164"/>
-      <c r="I146" s="165"/>
+    <row r="146" spans="1:9">
+      <c r="D146" s="164"/>
     </row>
     <row r="147" spans="1:9" ht="14.1">
       <c r="A147" s="159"/>
@@ -10289,6 +10334,17 @@
       <c r="G153" s="164"/>
       <c r="H153" s="164"/>
       <c r="I153" s="165"/>
+    </row>
+    <row r="154" spans="1:9" ht="14.1">
+      <c r="A154" s="159"/>
+      <c r="B154" s="160"/>
+      <c r="C154" s="160"/>
+      <c r="D154" s="160"/>
+      <c r="E154" s="168"/>
+      <c r="F154" s="199"/>
+      <c r="G154" s="164"/>
+      <c r="H154" s="164"/>
+      <c r="I154" s="165"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10926,13 +10982,13 @@
         <v>881</v>
       </c>
       <c r="H22" s="229" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I22" s="230">
         <v>43250</v>
       </c>
-      <c r="J22" s="300" t="s">
-        <v>1042</v>
+      <c r="J22" s="299" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="267" customFormat="1" ht="61.5">
@@ -11465,8 +11521,8 @@
       <c r="I15" s="230">
         <v>43196</v>
       </c>
-      <c r="J15" s="300" t="s">
-        <v>1052</v>
+      <c r="J15" s="299" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="24.6">
@@ -11696,7 +11752,7 @@
         <v>43250</v>
       </c>
       <c r="J31" s="263" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="28.8">
@@ -11834,7 +11890,7 @@
         <v>43250</v>
       </c>
       <c r="J36" s="229" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="267" customFormat="1" ht="61.5">
@@ -11864,7 +11920,7 @@
         <v>43278</v>
       </c>
       <c r="J37" s="229" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="267" customFormat="1" ht="61.5">
@@ -11894,7 +11950,7 @@
         <v>43278</v>
       </c>
       <c r="J38" s="229" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="36.9">

--- a/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
+++ b/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barbj\Documents\Infoway-Health Canada CCDD\formulary\Working QA Team Folders\Pre- Release QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{55FF531F-FA46-4F04-9922-F3F9D34F80E7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8CE121D7-BE02-4341-9643-EF065CB45640}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="17268" windowHeight="5256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F131" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F132" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F144" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F145" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="1103">
   <si>
     <t>TM</t>
   </si>
@@ -4745,6 +4745,12 @@
   </si>
   <si>
     <t>Jo and Louise looking into this one (which one is correct for all three - syrup or solution?). Bfj</t>
+  </si>
+  <si>
+    <t>amantadine</t>
+  </si>
+  <si>
+    <t>(Discussed at Webex meeting in July - Barb will follow up with Julie re. 23.2 vs. 20 mcg and then add to combination product table).</t>
   </si>
 </sst>
 </file>
@@ -6301,6 +6307,12 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6324,12 +6336,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6655,11 +6661,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J154"/>
+  <dimension ref="A1:J155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A139" sqref="A139:XFD139"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
@@ -7049,7 +7055,9 @@
       <c r="G16" s="164" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="164"/>
+      <c r="H16" s="164" t="s">
+        <v>1102</v>
+      </c>
       <c r="I16" s="165">
         <v>43271</v>
       </c>
@@ -7081,145 +7089,133 @@
     </row>
     <row r="18" spans="1:9" ht="14.1">
       <c r="A18" s="159" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B18" s="160"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="165"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.1">
+      <c r="A19" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="164" t="s">
+      <c r="B19" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="160" t="s">
+      <c r="C19" s="160" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="160"/>
-      <c r="E18" s="168"/>
-      <c r="F18" s="163" t="s">
+      <c r="D19" s="160"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="163" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="164"/>
-      <c r="H18" s="164"/>
-      <c r="I18" s="165">
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="165">
         <v>43252</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="41.4">
-      <c r="A19" s="182" t="s">
+    <row r="20" spans="1:9" ht="41.4">
+      <c r="A20" s="182" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="164" t="s">
+      <c r="B20" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="160" t="s">
+      <c r="C20" s="160" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="166" t="s">
+      <c r="D20" s="166" t="s">
         <v>127</v>
       </c>
-      <c r="E19" s="184" t="s">
+      <c r="E20" s="184" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="163" t="s">
+      <c r="F20" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="G19" s="180"/>
-      <c r="H19" s="185" t="s">
+      <c r="G20" s="180"/>
+      <c r="H20" s="185" t="s">
         <v>134</v>
       </c>
-      <c r="I19" s="165">
+      <c r="I20" s="165">
         <v>43240</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="42.3">
-      <c r="A20" s="159" t="s">
+    <row r="21" spans="1:9" ht="42.3">
+      <c r="A21" s="159" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="164" t="s">
+      <c r="B21" s="164" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="177" t="s">
+      <c r="C21" s="177" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="164" t="s">
+      <c r="D21" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="162"/>
-      <c r="F20" s="164" t="s">
+      <c r="E21" s="162"/>
+      <c r="F21" s="164" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="164" t="s">
+      <c r="G21" s="164" t="s">
         <v>140</v>
       </c>
-      <c r="H20" s="164"/>
-      <c r="I20" s="165">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="27.6">
-      <c r="A21" s="159" t="s">
-        <v>141</v>
-      </c>
-      <c r="B21" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="161"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="185" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" s="164"/>
       <c r="H21" s="164"/>
       <c r="I21" s="165">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="27.6">
+      <c r="A22" s="159" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="164" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="161"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="185" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="165">
         <v>43250</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="165.6">
-      <c r="A22" s="159" t="s">
+    <row r="23" spans="1:9" ht="165.6">
+      <c r="A23" s="159" t="s">
         <v>170</v>
       </c>
-      <c r="B22" s="164" t="s">
+      <c r="B23" s="164" t="s">
         <v>171</v>
       </c>
-      <c r="C22" s="177" t="s">
+      <c r="C23" s="177" t="s">
         <v>172</v>
       </c>
-      <c r="D22" s="186"/>
-      <c r="E22" s="168" t="s">
+      <c r="D23" s="186"/>
+      <c r="E23" s="168" t="s">
         <v>936</v>
       </c>
-      <c r="F22" s="185" t="s">
+      <c r="F23" s="185" t="s">
         <v>174</v>
       </c>
-      <c r="G22" s="164" t="s">
+      <c r="G23" s="164" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="164"/>
-      <c r="I22" s="165"/>
-    </row>
-    <row r="23" spans="1:9" ht="55.2">
-      <c r="A23" s="159" t="s">
-        <v>155</v>
-      </c>
-      <c r="B23" s="164" t="s">
-        <v>178</v>
-      </c>
-      <c r="C23" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="161" t="s">
-        <v>179</v>
-      </c>
-      <c r="E23" s="162"/>
-      <c r="F23" s="187" t="s">
-        <v>181</v>
-      </c>
-      <c r="G23" s="188" t="s">
-        <v>185</v>
-      </c>
       <c r="H23" s="164"/>
-      <c r="I23" s="165">
-        <v>43263</v>
-      </c>
+      <c r="I23" s="165"/>
     </row>
     <row r="24" spans="1:9" ht="55.2">
       <c r="A24" s="159" t="s">
@@ -7232,147 +7228,149 @@
         <v>22</v>
       </c>
       <c r="D24" s="161" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="172" t="s">
-        <v>198</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="E24" s="162"/>
       <c r="F24" s="187" t="s">
-        <v>199</v>
-      </c>
-      <c r="G24" s="164"/>
+        <v>181</v>
+      </c>
+      <c r="G24" s="188" t="s">
+        <v>185</v>
+      </c>
       <c r="H24" s="164"/>
       <c r="I24" s="165">
         <v>43263</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="69">
+    <row r="25" spans="1:9" ht="55.2">
       <c r="A25" s="159" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="164" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="161" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="172" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="187" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" s="164"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="165">
+        <v>43263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="69">
+      <c r="A26" s="159" t="s">
         <v>163</v>
       </c>
-      <c r="B25" s="160" t="s">
+      <c r="B26" s="160" t="s">
         <v>200</v>
       </c>
-      <c r="C25" s="160" t="s">
-        <v>201</v>
-      </c>
-      <c r="D25" s="166" t="s">
-        <v>202</v>
-      </c>
-      <c r="E25" s="168"/>
-      <c r="F25" s="163" t="s">
-        <v>203</v>
-      </c>
-      <c r="G25" s="180"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="165">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="41.4">
-      <c r="A26" s="159" t="s">
-        <v>204</v>
-      </c>
-      <c r="B26" s="160" t="s">
-        <v>205</v>
-      </c>
-      <c r="C26" s="189" t="s">
+      <c r="C26" s="160" t="s">
         <v>201</v>
       </c>
       <c r="D26" s="166" t="s">
         <v>202</v>
       </c>
       <c r="E26" s="168"/>
-      <c r="F26" s="166" t="s">
-        <v>207</v>
-      </c>
-      <c r="G26" s="180" t="s">
-        <v>208</v>
-      </c>
-      <c r="H26" s="164"/>
+      <c r="F26" s="163" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" s="180"/>
+      <c r="H26" s="185"/>
       <c r="I26" s="165">
         <v>43196</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="28.2">
+    <row r="27" spans="1:9" ht="41.4">
       <c r="A27" s="159" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B27" s="160" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="160" t="s">
-        <v>211</v>
-      </c>
-      <c r="D27" s="160" t="s">
-        <v>212</v>
+      <c r="C27" s="189" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" s="166" t="s">
+        <v>202</v>
       </c>
       <c r="E27" s="168"/>
-      <c r="F27" s="185" t="s">
-        <v>213</v>
-      </c>
-      <c r="G27" s="180"/>
-      <c r="H27" s="181" t="s">
-        <v>214</v>
-      </c>
+      <c r="F27" s="166" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" s="180" t="s">
+        <v>208</v>
+      </c>
+      <c r="H27" s="164"/>
       <c r="I27" s="165">
         <v>43196</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="69">
+    <row r="28" spans="1:9" ht="28.2">
       <c r="A28" s="159" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="160" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="160" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" s="160" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="168"/>
+      <c r="F28" s="185" t="s">
+        <v>213</v>
+      </c>
+      <c r="G28" s="180"/>
+      <c r="H28" s="181" t="s">
+        <v>214</v>
+      </c>
+      <c r="I28" s="165">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="69">
+      <c r="A29" s="159" t="s">
         <v>215</v>
       </c>
-      <c r="B28" s="160" t="s">
+      <c r="B29" s="160" t="s">
         <v>216</v>
       </c>
-      <c r="C28" s="186"/>
-      <c r="D28" s="161" t="s">
+      <c r="C29" s="186"/>
+      <c r="D29" s="161" t="s">
         <v>218</v>
       </c>
-      <c r="E28" s="178"/>
-      <c r="F28" s="187" t="s">
+      <c r="E29" s="178"/>
+      <c r="F29" s="187" t="s">
         <v>219</v>
       </c>
-      <c r="G28" s="180" t="s">
+      <c r="G29" s="180" t="s">
         <v>220</v>
       </c>
-      <c r="H28" s="181"/>
-      <c r="I28" s="165"/>
-    </row>
-    <row r="29" spans="1:9" ht="55.2">
-      <c r="A29" s="159" t="s">
+      <c r="H29" s="181"/>
+      <c r="I29" s="165"/>
+    </row>
+    <row r="30" spans="1:9" ht="55.2">
+      <c r="A30" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="B29" s="164" t="s">
+      <c r="B30" s="164" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="164"/>
-      <c r="D29" s="160" t="s">
-        <v>222</v>
-      </c>
-      <c r="E29" s="168" t="s">
-        <v>223</v>
-      </c>
-      <c r="F29" s="163" t="s">
-        <v>224</v>
-      </c>
-      <c r="G29" s="180"/>
-      <c r="H29" s="164" t="s">
-        <v>225</v>
-      </c>
-      <c r="I29" s="165">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="55.2">
-      <c r="A30" s="182" t="s">
-        <v>221</v>
-      </c>
-      <c r="B30" s="164"/>
       <c r="C30" s="164"/>
       <c r="D30" s="160" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E30" s="168" t="s">
         <v>223</v>
@@ -7381,7 +7379,9 @@
         <v>224</v>
       </c>
       <c r="G30" s="180"/>
-      <c r="H30" s="164"/>
+      <c r="H30" s="164" t="s">
+        <v>225</v>
+      </c>
       <c r="I30" s="165">
         <v>43196</v>
       </c>
@@ -7393,7 +7393,7 @@
       <c r="B31" s="164"/>
       <c r="C31" s="164"/>
       <c r="D31" s="160" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E31" s="168" t="s">
         <v>223</v>
@@ -7414,10 +7414,10 @@
       <c r="B32" s="164"/>
       <c r="C32" s="164"/>
       <c r="D32" s="160" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E32" s="168" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F32" s="163" t="s">
         <v>224</v>
@@ -7428,245 +7428,237 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="41.4">
-      <c r="A33" s="159" t="s">
+    <row r="33" spans="1:10" ht="55.2">
+      <c r="A33" s="182" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="164"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="160" t="s">
+        <v>228</v>
+      </c>
+      <c r="E33" s="168" t="s">
+        <v>229</v>
+      </c>
+      <c r="F33" s="163" t="s">
+        <v>224</v>
+      </c>
+      <c r="G33" s="180"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="165">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="41.4">
+      <c r="A34" s="159" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="190" t="str">
+      <c r="B34" s="190" t="str">
         <f>HYPERLINK("https://docs.google.com/spreadsheets/d/1CZZj8fSMSaEaqlK8KCBOVHZaJixwFi-xHDmvUY_rwCk/edit#gid=1997930010&amp;range=A3:A19","Master: Antibacterials A")</f>
         <v>Master: Antibacterials A</v>
       </c>
-      <c r="C33" s="164"/>
-      <c r="D33" s="161" t="s">
+      <c r="C34" s="164"/>
+      <c r="D34" s="161" t="s">
         <v>231</v>
       </c>
-      <c r="E33" s="162" t="s">
+      <c r="E34" s="162" t="s">
         <v>232</v>
       </c>
-      <c r="F33" s="187" t="s">
+      <c r="F34" s="187" t="s">
         <v>233</v>
       </c>
-      <c r="G33" s="164"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="165">
+      <c r="G34" s="164"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="165">
         <v>43250</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="110.4">
-      <c r="A34" s="159" t="s">
+    <row r="35" spans="1:10" ht="110.4">
+      <c r="A35" s="159" t="s">
         <v>234</v>
       </c>
-      <c r="B34" s="160" t="s">
+      <c r="B35" s="160" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="160" t="s">
+      <c r="C35" s="160" t="s">
         <v>235</v>
       </c>
-      <c r="D34" s="166" t="s">
+      <c r="D35" s="166" t="s">
         <v>202</v>
       </c>
-      <c r="E34" s="168"/>
-      <c r="F34" s="163" t="s">
+      <c r="E35" s="168"/>
+      <c r="F35" s="163" t="s">
         <v>945</v>
       </c>
-      <c r="G34" s="180"/>
-      <c r="I34" s="165">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="110.4">
-      <c r="A35" s="182" t="s">
-        <v>234</v>
-      </c>
-      <c r="B35" s="160"/>
-      <c r="C35" s="160"/>
-      <c r="D35" s="160" t="s">
-        <v>237</v>
-      </c>
-      <c r="E35" s="168" t="s">
-        <v>238</v>
-      </c>
-      <c r="F35" s="179" t="s">
-        <v>239</v>
-      </c>
-      <c r="G35" s="160" t="s">
-        <v>946</v>
-      </c>
-      <c r="H35" s="164"/>
+      <c r="G35" s="180"/>
       <c r="I35" s="165">
         <v>43196</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="69">
+    <row r="36" spans="1:10" ht="110.4">
       <c r="A36" s="182" t="s">
         <v>234</v>
       </c>
       <c r="B36" s="160"/>
       <c r="C36" s="160"/>
       <c r="D36" s="160" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E36" s="168" t="s">
-        <v>241</v>
-      </c>
-      <c r="F36" s="163" t="s">
-        <v>242</v>
+        <v>238</v>
+      </c>
+      <c r="F36" s="179" t="s">
+        <v>239</v>
       </c>
       <c r="G36" s="160" t="s">
-        <v>243</v>
+        <v>946</v>
       </c>
       <c r="H36" s="164"/>
       <c r="I36" s="165">
         <v>43196</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="55.2">
-      <c r="A37" s="159" t="s">
-        <v>244</v>
-      </c>
-      <c r="B37" s="160" t="s">
-        <v>245</v>
-      </c>
+    <row r="37" spans="1:10" ht="69">
+      <c r="A37" s="182" t="s">
+        <v>234</v>
+      </c>
+      <c r="B37" s="160"/>
       <c r="C37" s="160"/>
       <c r="D37" s="160" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E37" s="168" t="s">
-        <v>937</v>
+        <v>241</v>
       </c>
       <c r="F37" s="163" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G37" s="160" t="s">
-        <v>1046</v>
+        <v>243</v>
       </c>
       <c r="H37" s="164"/>
-      <c r="I37" s="165"/>
-    </row>
-    <row r="38" spans="1:10" ht="69">
-      <c r="A38" s="182" t="s">
+      <c r="I37" s="165">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="55.2">
+      <c r="A38" s="159" t="s">
         <v>244</v>
       </c>
       <c r="B38" s="160" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C38" s="160"/>
       <c r="D38" s="160" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E38" s="168" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F38" s="163" t="s">
         <v>250</v>
       </c>
       <c r="G38" s="160" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H38" s="164"/>
       <c r="I38" s="165"/>
     </row>
-    <row r="39" spans="1:10" ht="317.39999999999998">
-      <c r="A39" s="159" t="s">
+    <row r="39" spans="1:10" ht="69">
+      <c r="A39" s="182" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" s="160" t="s">
+        <v>251</v>
+      </c>
+      <c r="C39" s="160"/>
+      <c r="D39" s="160" t="s">
+        <v>252</v>
+      </c>
+      <c r="E39" s="168" t="s">
+        <v>938</v>
+      </c>
+      <c r="F39" s="163" t="s">
+        <v>250</v>
+      </c>
+      <c r="G39" s="160" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H39" s="164"/>
+      <c r="I39" s="165"/>
+    </row>
+    <row r="40" spans="1:10" ht="317.39999999999998">
+      <c r="A40" s="159" t="s">
         <v>959</v>
       </c>
-      <c r="B39" s="160" t="s">
+      <c r="B40" s="160" t="s">
         <v>256</v>
       </c>
-      <c r="C39" s="160"/>
-      <c r="D39" s="161" t="s">
+      <c r="C40" s="160"/>
+      <c r="D40" s="161" t="s">
         <v>257</v>
-      </c>
-      <c r="E39" s="172" t="s">
-        <v>967</v>
-      </c>
-      <c r="F39" s="163" t="s">
-        <v>960</v>
-      </c>
-      <c r="G39" s="191"/>
-      <c r="H39" s="192"/>
-      <c r="I39" s="191">
-        <v>9005524</v>
-      </c>
-      <c r="J39" s="192" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="303.60000000000002">
-      <c r="A40" s="182" t="s">
-        <v>959</v>
-      </c>
-      <c r="B40" s="166" t="s">
-        <v>935</v>
-      </c>
-      <c r="C40" s="193">
-        <v>2399733</v>
       </c>
       <c r="E40" s="172" t="s">
         <v>967</v>
       </c>
-      <c r="F40" s="194" t="s">
-        <v>961</v>
+      <c r="F40" s="163" t="s">
+        <v>960</v>
       </c>
       <c r="G40" s="191"/>
       <c r="H40" s="192"/>
-      <c r="I40" s="191"/>
-      <c r="J40" s="192"/>
-    </row>
-    <row r="41" spans="1:10" ht="151.80000000000001">
-      <c r="A41" s="159" t="s">
+      <c r="I40" s="191">
+        <v>9005524</v>
+      </c>
+      <c r="J40" s="192" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="303.60000000000002">
+      <c r="A41" s="182" t="s">
+        <v>959</v>
+      </c>
+      <c r="B41" s="166" t="s">
+        <v>935</v>
+      </c>
+      <c r="C41" s="193">
+        <v>2399733</v>
+      </c>
+      <c r="E41" s="172" t="s">
+        <v>967</v>
+      </c>
+      <c r="F41" s="194" t="s">
+        <v>961</v>
+      </c>
+      <c r="G41" s="191"/>
+      <c r="H41" s="192"/>
+      <c r="I41" s="191"/>
+      <c r="J41" s="192"/>
+    </row>
+    <row r="42" spans="1:10" ht="151.80000000000001">
+      <c r="A42" s="159" t="s">
         <v>266</v>
       </c>
-      <c r="B41" s="164" t="s">
+      <c r="B42" s="164" t="s">
         <v>267</v>
       </c>
-      <c r="D41" s="160" t="s">
+      <c r="D42" s="160" t="s">
         <v>268</v>
       </c>
-      <c r="E41" s="168" t="s">
+      <c r="E42" s="168" t="s">
         <v>269</v>
       </c>
-      <c r="F41" s="163" t="s">
+      <c r="F42" s="163" t="s">
         <v>270</v>
       </c>
-      <c r="G41" s="160" t="s">
+      <c r="G42" s="160" t="s">
         <v>271</v>
       </c>
-      <c r="H41" s="164"/>
-      <c r="I41" s="165"/>
-    </row>
-    <row r="42" spans="1:10" ht="96.6">
-      <c r="A42" s="182" t="s">
+      <c r="H42" s="164"/>
+      <c r="I42" s="165"/>
+    </row>
+    <row r="43" spans="1:10" ht="96.6">
+      <c r="A43" s="182" t="s">
         <v>272</v>
-      </c>
-      <c r="B42" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="161" t="s">
-        <v>273</v>
-      </c>
-      <c r="E42" s="168" t="s">
-        <v>274</v>
-      </c>
-      <c r="F42" s="185" t="s">
-        <v>947</v>
-      </c>
-      <c r="G42" s="185" t="s">
-        <v>275</v>
-      </c>
-      <c r="H42" s="164" t="s">
-        <v>276</v>
-      </c>
-      <c r="I42" s="165">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="82.8">
-      <c r="A43" s="159" t="s">
-        <v>277</v>
       </c>
       <c r="B43" s="164" t="s">
         <v>21</v>
@@ -7674,17 +7666,17 @@
       <c r="C43" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="186" t="s">
-        <v>278</v>
+      <c r="D43" s="161" t="s">
+        <v>273</v>
       </c>
       <c r="E43" s="168" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F43" s="185" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G43" s="185" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H43" s="164" t="s">
         <v>276</v>
@@ -7694,7 +7686,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="82.8">
-      <c r="A44" s="182" t="s">
+      <c r="A44" s="159" t="s">
         <v>277</v>
       </c>
       <c r="B44" s="164" t="s">
@@ -7704,16 +7696,16 @@
         <v>22</v>
       </c>
       <c r="D44" s="186" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E44" s="168" t="s">
-        <v>285</v>
-      </c>
-      <c r="F44" s="163" t="s">
-        <v>949</v>
+        <v>280</v>
+      </c>
+      <c r="F44" s="185" t="s">
+        <v>948</v>
       </c>
       <c r="G44" s="185" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H44" s="164" t="s">
         <v>276</v>
@@ -7722,36 +7714,36 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="96.6">
-      <c r="A45" s="159" t="s">
-        <v>288</v>
+    <row r="45" spans="1:10" ht="82.8">
+      <c r="A45" s="182" t="s">
+        <v>277</v>
       </c>
       <c r="B45" s="164" t="s">
-        <v>289</v>
-      </c>
-      <c r="C45" s="195">
-        <v>8000036</v>
-      </c>
-      <c r="D45" s="195" t="s">
-        <v>293</v>
+        <v>21</v>
+      </c>
+      <c r="C45" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="186" t="s">
+        <v>284</v>
       </c>
       <c r="E45" s="168" t="s">
-        <v>294</v>
-      </c>
-      <c r="F45" s="217" t="s">
-        <v>298</v>
-      </c>
-      <c r="G45" s="160" t="s">
-        <v>969</v>
-      </c>
-      <c r="H45" s="181" t="s">
-        <v>999</v>
+        <v>285</v>
+      </c>
+      <c r="F45" s="163" t="s">
+        <v>949</v>
+      </c>
+      <c r="G45" s="185" t="s">
+        <v>286</v>
+      </c>
+      <c r="H45" s="164" t="s">
+        <v>276</v>
       </c>
       <c r="I45" s="165">
-        <v>43292</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="41.4">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="96.6">
       <c r="A46" s="159" t="s">
         <v>288</v>
       </c>
@@ -7762,16 +7754,16 @@
         <v>8000036</v>
       </c>
       <c r="D46" s="195" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="E46" s="168" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F46" s="217" t="s">
         <v>298</v>
       </c>
       <c r="G46" s="160" t="s">
-        <v>299</v>
+        <v>969</v>
       </c>
       <c r="H46" s="181" t="s">
         <v>999</v>
@@ -7780,7 +7772,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="55.2">
+    <row r="47" spans="1:10" ht="41.4">
       <c r="A47" s="159" t="s">
         <v>288</v>
       </c>
@@ -7791,79 +7783,83 @@
         <v>8000036</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E47" s="168" t="s">
-        <v>311</v>
-      </c>
-      <c r="F47" s="187" t="s">
-        <v>968</v>
+        <v>309</v>
+      </c>
+      <c r="F47" s="217" t="s">
+        <v>298</v>
       </c>
       <c r="G47" s="160" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="H47" s="181" t="s">
-        <v>331</v>
+        <v>999</v>
       </c>
       <c r="I47" s="165">
         <v>43292</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="151.80000000000001">
+    <row r="48" spans="1:10" ht="55.2">
       <c r="A48" s="159" t="s">
+        <v>288</v>
+      </c>
+      <c r="B48" s="164" t="s">
+        <v>289</v>
+      </c>
+      <c r="C48" s="195">
+        <v>8000036</v>
+      </c>
+      <c r="D48" s="195" t="s">
+        <v>310</v>
+      </c>
+      <c r="E48" s="168" t="s">
+        <v>311</v>
+      </c>
+      <c r="F48" s="187" t="s">
+        <v>968</v>
+      </c>
+      <c r="G48" s="160" t="s">
+        <v>312</v>
+      </c>
+      <c r="H48" s="181" t="s">
+        <v>331</v>
+      </c>
+      <c r="I48" s="165">
+        <v>43292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="151.80000000000001">
+      <c r="A49" s="159" t="s">
         <v>315</v>
       </c>
-      <c r="B48" s="164" t="s">
+      <c r="B49" s="164" t="s">
         <v>316</v>
       </c>
-      <c r="C48" s="160" t="s">
+      <c r="C49" s="160" t="s">
         <v>317</v>
       </c>
-      <c r="D48" s="196" t="s">
+      <c r="D49" s="196" t="s">
         <v>318</v>
       </c>
-      <c r="E48" s="168" t="s">
+      <c r="E49" s="168" t="s">
         <v>319</v>
       </c>
-      <c r="F48" s="185" t="s">
+      <c r="F49" s="185" t="s">
         <v>1048</v>
       </c>
-      <c r="G48" s="160" t="s">
+      <c r="G49" s="160" t="s">
         <v>320</v>
       </c>
-      <c r="H48" s="164"/>
-      <c r="I48" s="165">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="69.3">
-      <c r="A49" s="159" t="s">
-        <v>336</v>
-      </c>
-      <c r="B49" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="186" t="s">
-        <v>337</v>
-      </c>
-      <c r="E49" s="168" t="s">
-        <v>338</v>
-      </c>
-      <c r="F49" s="163" t="s">
-        <v>950</v>
-      </c>
-      <c r="G49" s="185"/>
       <c r="H49" s="164"/>
       <c r="I49" s="165">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="41.4">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="69.3">
       <c r="A50" s="159" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B50" s="164" t="s">
         <v>21</v>
@@ -7871,18 +7867,16 @@
       <c r="C50" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="161" t="s">
-        <v>342</v>
+      <c r="D50" s="186" t="s">
+        <v>337</v>
       </c>
       <c r="E50" s="168" t="s">
-        <v>343</v>
-      </c>
-      <c r="F50" s="197" t="s">
-        <v>344</v>
-      </c>
-      <c r="G50" s="185" t="s">
-        <v>951</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="F50" s="163" t="s">
+        <v>950</v>
+      </c>
+      <c r="G50" s="185"/>
       <c r="H50" s="164"/>
       <c r="I50" s="165">
         <v>43240</v>
@@ -7899,7 +7893,7 @@
         <v>22</v>
       </c>
       <c r="D51" s="161" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E51" s="168" t="s">
         <v>343</v>
@@ -7915,76 +7909,78 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="193.2">
-      <c r="A52" s="198" t="s">
+    <row r="52" spans="1:9" ht="41.4">
+      <c r="A52" s="159" t="s">
+        <v>340</v>
+      </c>
+      <c r="B52" s="164" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="161" t="s">
+        <v>350</v>
+      </c>
+      <c r="E52" s="168" t="s">
+        <v>343</v>
+      </c>
+      <c r="F52" s="197" t="s">
+        <v>344</v>
+      </c>
+      <c r="G52" s="185" t="s">
+        <v>951</v>
+      </c>
+      <c r="H52" s="164"/>
+      <c r="I52" s="165">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="193.2">
+      <c r="A53" s="198" t="s">
         <v>351</v>
       </c>
-      <c r="B52" s="164" t="s">
+      <c r="B53" s="164" t="s">
         <v>356</v>
-      </c>
-      <c r="C52" s="164"/>
-      <c r="D52" s="161" t="s">
-        <v>357</v>
-      </c>
-      <c r="E52" s="168"/>
-      <c r="F52" s="199" t="s">
-        <v>359</v>
-      </c>
-      <c r="G52" s="185" t="s">
-        <v>361</v>
-      </c>
-      <c r="H52" s="164"/>
-      <c r="I52" s="165"/>
-    </row>
-    <row r="53" spans="1:9" ht="27.6">
-      <c r="A53" s="198" t="s">
-        <v>364</v>
-      </c>
-      <c r="B53" s="164" t="s">
-        <v>991</v>
       </c>
       <c r="C53" s="164"/>
       <c r="D53" s="161" t="s">
+        <v>357</v>
+      </c>
+      <c r="E53" s="168"/>
+      <c r="F53" s="199" t="s">
+        <v>359</v>
+      </c>
+      <c r="G53" s="185" t="s">
+        <v>361</v>
+      </c>
+      <c r="H53" s="164"/>
+      <c r="I53" s="165"/>
+    </row>
+    <row r="54" spans="1:9" ht="27.6">
+      <c r="A54" s="198" t="s">
+        <v>364</v>
+      </c>
+      <c r="B54" s="164" t="s">
+        <v>991</v>
+      </c>
+      <c r="C54" s="164"/>
+      <c r="D54" s="161" t="s">
         <v>992</v>
       </c>
-      <c r="E53" s="168" t="s">
+      <c r="E54" s="168" t="s">
         <v>993</v>
       </c>
-      <c r="F53" s="215" t="s">
+      <c r="F54" s="215" t="s">
         <v>994</v>
       </c>
-      <c r="G53" s="185"/>
-      <c r="H53" s="164"/>
-      <c r="I53" s="165">
-        <v>43298</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="27.6">
-      <c r="A54" s="159" t="s">
-        <v>364</v>
-      </c>
-      <c r="B54" s="160" t="s">
-        <v>365</v>
-      </c>
-      <c r="C54" s="160"/>
-      <c r="D54" s="160" t="s">
-        <v>366</v>
-      </c>
-      <c r="E54" s="168" t="s">
-        <v>367</v>
-      </c>
-      <c r="F54" s="197" t="s">
-        <v>369</v>
-      </c>
-      <c r="G54" s="164" t="s">
-        <v>370</v>
-      </c>
+      <c r="G54" s="185"/>
       <c r="H54" s="164"/>
       <c r="I54" s="165">
-        <v>43252</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="179.4">
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="27.6">
       <c r="A55" s="159" t="s">
         <v>364</v>
       </c>
@@ -7993,49 +7989,47 @@
       </c>
       <c r="C55" s="160"/>
       <c r="D55" s="160" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E55" s="168" t="s">
-        <v>372</v>
-      </c>
-      <c r="F55" s="199" t="s">
-        <v>373</v>
-      </c>
-      <c r="G55" s="164"/>
+        <v>367</v>
+      </c>
+      <c r="F55" s="197" t="s">
+        <v>369</v>
+      </c>
+      <c r="G55" s="164" t="s">
+        <v>370</v>
+      </c>
       <c r="H55" s="164"/>
       <c r="I55" s="165">
-        <v>43290</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="41.4">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="179.4">
       <c r="A56" s="159" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B56" s="160" t="s">
-        <v>375</v>
-      </c>
-      <c r="C56" s="160" t="s">
-        <v>22</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="C56" s="160"/>
       <c r="D56" s="160" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E56" s="168" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F56" s="199" t="s">
-        <v>378</v>
-      </c>
-      <c r="G56" s="164" t="s">
-        <v>379</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="G56" s="164"/>
       <c r="H56" s="164"/>
       <c r="I56" s="165">
-        <v>43277</v>
+        <v>43290</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="41.4">
-      <c r="A57" s="182" t="s">
+      <c r="A57" s="159" t="s">
         <v>374</v>
       </c>
       <c r="B57" s="160" t="s">
@@ -8045,16 +8039,20 @@
         <v>22</v>
       </c>
       <c r="D57" s="160" t="s">
-        <v>380</v>
-      </c>
-      <c r="E57" s="168"/>
-      <c r="F57" s="197" t="s">
-        <v>381</v>
-      </c>
-      <c r="G57" s="164"/>
+        <v>376</v>
+      </c>
+      <c r="E57" s="168" t="s">
+        <v>377</v>
+      </c>
+      <c r="F57" s="199" t="s">
+        <v>378</v>
+      </c>
+      <c r="G57" s="164" t="s">
+        <v>379</v>
+      </c>
       <c r="H57" s="164"/>
       <c r="I57" s="165">
-        <v>43278</v>
+        <v>43277</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="41.4">
@@ -8068,7 +8066,7 @@
         <v>22</v>
       </c>
       <c r="D58" s="160" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E58" s="168"/>
       <c r="F58" s="197" t="s">
@@ -8091,7 +8089,7 @@
         <v>22</v>
       </c>
       <c r="D59" s="160" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E59" s="168"/>
       <c r="F59" s="197" t="s">
@@ -8103,42 +8101,44 @@
         <v>43278</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="55.2">
+    <row r="60" spans="1:9" ht="41.4">
       <c r="A60" s="182" t="s">
         <v>374</v>
       </c>
       <c r="B60" s="160" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C60" s="160" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="160" t="s">
-        <v>386</v>
-      </c>
-      <c r="E60" s="168" t="s">
-        <v>939</v>
-      </c>
-      <c r="F60" s="199" t="s">
-        <v>387</v>
+        <v>383</v>
+      </c>
+      <c r="E60" s="168"/>
+      <c r="F60" s="197" t="s">
+        <v>381</v>
       </c>
       <c r="G60" s="164"/>
       <c r="H60" s="164"/>
-      <c r="I60" s="165"/>
-    </row>
-    <row r="61" spans="1:9" ht="41.4">
-      <c r="A61" s="159" t="s">
-        <v>388</v>
+      <c r="I60" s="165">
+        <v>43278</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="55.2">
+      <c r="A61" s="182" t="s">
+        <v>374</v>
       </c>
       <c r="B61" s="160" t="s">
-        <v>389</v>
-      </c>
-      <c r="C61" s="160"/>
+        <v>385</v>
+      </c>
+      <c r="C61" s="160" t="s">
+        <v>22</v>
+      </c>
       <c r="D61" s="160" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E61" s="168" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F61" s="199" t="s">
         <v>387</v>
@@ -8147,55 +8147,49 @@
       <c r="H61" s="164"/>
       <c r="I61" s="165"/>
     </row>
-    <row r="62" spans="1:9" ht="27.6">
+    <row r="62" spans="1:9" ht="41.4">
       <c r="A62" s="159" t="s">
+        <v>388</v>
+      </c>
+      <c r="B62" s="160" t="s">
+        <v>389</v>
+      </c>
+      <c r="C62" s="160"/>
+      <c r="D62" s="160" t="s">
+        <v>390</v>
+      </c>
+      <c r="E62" s="168" t="s">
+        <v>940</v>
+      </c>
+      <c r="F62" s="199" t="s">
+        <v>387</v>
+      </c>
+      <c r="G62" s="164"/>
+      <c r="H62" s="164"/>
+      <c r="I62" s="165"/>
+    </row>
+    <row r="63" spans="1:9" ht="27.6">
+      <c r="A63" s="159" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="164" t="s">
+      <c r="B63" s="164" t="s">
         <v>393</v>
       </c>
-      <c r="C62" s="164" t="s">
+      <c r="C63" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="164" t="s">
+      <c r="D63" s="164" t="s">
         <v>394</v>
       </c>
-      <c r="E62" s="162" t="s">
+      <c r="E63" s="162" t="s">
         <v>395</v>
       </c>
-      <c r="F62" s="185" t="s">
+      <c r="F63" s="185" t="s">
         <v>396</v>
-      </c>
-      <c r="H62" s="164"/>
-      <c r="I62" s="165">
-        <v>43283</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="55.2">
-      <c r="A63" s="182" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="160" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="160" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="200">
-        <v>2320789</v>
-      </c>
-      <c r="E63" s="168" t="s">
-        <v>398</v>
-      </c>
-      <c r="F63" s="199" t="s">
-        <v>400</v>
-      </c>
-      <c r="G63" s="164" t="s">
-        <v>401</v>
       </c>
       <c r="H63" s="164"/>
       <c r="I63" s="165">
-        <v>43284</v>
+        <v>43283</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="55.2">
@@ -8208,8 +8202,8 @@
       <c r="C64" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="200" t="s">
-        <v>402</v>
+      <c r="D64" s="200">
+        <v>2320789</v>
       </c>
       <c r="E64" s="168" t="s">
         <v>398</v>
@@ -8218,11 +8212,11 @@
         <v>400</v>
       </c>
       <c r="G64" s="164" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H64" s="164"/>
       <c r="I64" s="165">
-        <v>43285</v>
+        <v>43284</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="55.2">
@@ -8236,20 +8230,20 @@
         <v>22</v>
       </c>
       <c r="D65" s="200" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E65" s="168" t="s">
-        <v>100</v>
+        <v>398</v>
       </c>
       <c r="F65" s="199" t="s">
         <v>400</v>
       </c>
       <c r="G65" s="164" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H65" s="164"/>
       <c r="I65" s="165">
-        <v>43287</v>
+        <v>43285</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="55.2">
@@ -8263,7 +8257,7 @@
         <v>22</v>
       </c>
       <c r="D66" s="200" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E66" s="168" t="s">
         <v>100</v>
@@ -8271,15 +8265,15 @@
       <c r="F66" s="199" t="s">
         <v>400</v>
       </c>
-      <c r="G66" s="200" t="s">
-        <v>409</v>
+      <c r="G66" s="164" t="s">
+        <v>405</v>
       </c>
       <c r="H66" s="164"/>
       <c r="I66" s="165">
-        <v>43288</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="41.4">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="55.2">
       <c r="A67" s="182" t="s">
         <v>76</v>
       </c>
@@ -8290,19 +8284,21 @@
         <v>22</v>
       </c>
       <c r="D67" s="200" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E67" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F67" s="199" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="G67" s="200" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="H67" s="164"/>
-      <c r="I67" s="165"/>
+      <c r="I67" s="165">
+        <v>43288</v>
+      </c>
     </row>
     <row r="68" spans="1:9" ht="41.4">
       <c r="A68" s="182" t="s">
@@ -8315,7 +8311,7 @@
         <v>22</v>
       </c>
       <c r="D68" s="200" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E68" s="168" t="s">
         <v>100</v>
@@ -8324,12 +8320,12 @@
         <v>414</v>
       </c>
       <c r="G68" s="200" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="H68" s="164"/>
       <c r="I68" s="165"/>
     </row>
-    <row r="69" spans="1:9" ht="55.2">
+    <row r="69" spans="1:9" ht="41.4">
       <c r="A69" s="182" t="s">
         <v>76</v>
       </c>
@@ -8339,22 +8335,22 @@
       <c r="C69" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="186" t="s">
-        <v>424</v>
+      <c r="D69" s="200" t="s">
+        <v>416</v>
       </c>
       <c r="E69" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F69" s="199" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="G69" s="200" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H69" s="164"/>
       <c r="I69" s="165"/>
     </row>
-    <row r="70" spans="1:9" ht="41.4">
+    <row r="70" spans="1:9" ht="55.2">
       <c r="A70" s="182" t="s">
         <v>76</v>
       </c>
@@ -8365,21 +8361,21 @@
         <v>22</v>
       </c>
       <c r="D70" s="186" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E70" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F70" s="199" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="G70" s="200" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H70" s="164"/>
       <c r="I70" s="165"/>
     </row>
-    <row r="71" spans="1:9" ht="55.2">
+    <row r="71" spans="1:9" ht="41.4">
       <c r="A71" s="182" t="s">
         <v>76</v>
       </c>
@@ -8390,23 +8386,23 @@
         <v>22</v>
       </c>
       <c r="D71" s="186" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E71" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F71" s="199" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="G71" s="200" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="H71" s="164"/>
       <c r="I71" s="165"/>
     </row>
-    <row r="72" spans="1:9" ht="262.2">
-      <c r="A72" s="159" t="s">
-        <v>435</v>
+    <row r="72" spans="1:9" ht="55.2">
+      <c r="A72" s="182" t="s">
+        <v>76</v>
       </c>
       <c r="B72" s="160" t="s">
         <v>77</v>
@@ -8414,24 +8410,24 @@
       <c r="C72" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="201">
-        <v>2368196</v>
+      <c r="D72" s="186" t="s">
+        <v>429</v>
       </c>
       <c r="E72" s="168" t="s">
-        <v>437</v>
+        <v>100</v>
       </c>
       <c r="F72" s="199" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G72" s="200" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H72" s="164"/>
       <c r="I72" s="165"/>
     </row>
-    <row r="73" spans="1:9" ht="55.2">
-      <c r="A73" s="182" t="s">
-        <v>440</v>
+    <row r="73" spans="1:9" ht="262.2">
+      <c r="A73" s="159" t="s">
+        <v>435</v>
       </c>
       <c r="B73" s="160" t="s">
         <v>77</v>
@@ -8439,26 +8435,24 @@
       <c r="C73" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="202">
-        <v>2356457</v>
+      <c r="D73" s="201">
+        <v>2368196</v>
       </c>
       <c r="E73" s="168" t="s">
-        <v>100</v>
+        <v>437</v>
       </c>
       <c r="F73" s="199" t="s">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G73" s="200" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H73" s="164"/>
-      <c r="I73" s="165">
-        <v>43289</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="56.4">
-      <c r="A74" s="159" t="s">
-        <v>443</v>
+      <c r="I73" s="165"/>
+    </row>
+    <row r="74" spans="1:9" ht="55.2">
+      <c r="A74" s="182" t="s">
+        <v>440</v>
       </c>
       <c r="B74" s="160" t="s">
         <v>77</v>
@@ -8467,7 +8461,7 @@
         <v>22</v>
       </c>
       <c r="D74" s="202">
-        <v>535230</v>
+        <v>2356457</v>
       </c>
       <c r="E74" s="168" t="s">
         <v>100</v>
@@ -8476,201 +8470,203 @@
         <v>400</v>
       </c>
       <c r="G74" s="200" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H74" s="164"/>
       <c r="I74" s="165">
-        <v>43290</v>
+        <v>43289</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="56.4">
-      <c r="A75" s="203" t="s">
-        <v>445</v>
+      <c r="A75" s="159" t="s">
+        <v>443</v>
       </c>
       <c r="B75" s="160" t="s">
-        <v>446</v>
-      </c>
-      <c r="C75" s="160"/>
-      <c r="D75" s="200" t="s">
-        <v>357</v>
+        <v>77</v>
+      </c>
+      <c r="C75" s="160" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="202">
+        <v>535230</v>
       </c>
       <c r="E75" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F75" s="199" t="s">
-        <v>447</v>
-      </c>
-      <c r="G75" s="200"/>
+        <v>400</v>
+      </c>
+      <c r="G75" s="200" t="s">
+        <v>444</v>
+      </c>
       <c r="H75" s="164"/>
       <c r="I75" s="165">
-        <v>43288</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="193.2">
-      <c r="A76" s="159" t="s">
-        <v>448</v>
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="56.4">
+      <c r="A76" s="203" t="s">
+        <v>445</v>
       </c>
       <c r="B76" s="160" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76" s="160" t="s">
-        <v>22</v>
-      </c>
-      <c r="D76" s="202">
-        <v>2410583</v>
+        <v>446</v>
+      </c>
+      <c r="C76" s="160"/>
+      <c r="D76" s="200" t="s">
+        <v>357</v>
       </c>
       <c r="E76" s="168" t="s">
-        <v>449</v>
+        <v>100</v>
       </c>
       <c r="F76" s="199" t="s">
         <v>447</v>
       </c>
-      <c r="G76" s="200" t="s">
-        <v>450</v>
-      </c>
+      <c r="G76" s="200"/>
       <c r="H76" s="164"/>
       <c r="I76" s="165">
-        <v>43291</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="55.2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="193.2">
       <c r="A77" s="159" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B77" s="160" t="s">
-        <v>453</v>
+        <v>77</v>
       </c>
       <c r="C77" s="160" t="s">
-        <v>454</v>
-      </c>
-      <c r="D77" s="164" t="s">
-        <v>202</v>
-      </c>
-      <c r="E77" s="204"/>
+        <v>22</v>
+      </c>
+      <c r="D77" s="202">
+        <v>2410583</v>
+      </c>
+      <c r="E77" s="168" t="s">
+        <v>449</v>
+      </c>
       <c r="F77" s="199" t="s">
-        <v>455</v>
-      </c>
-      <c r="G77" s="164" t="s">
-        <v>456</v>
+        <v>447</v>
+      </c>
+      <c r="G77" s="200" t="s">
+        <v>450</v>
       </c>
       <c r="H77" s="164"/>
       <c r="I77" s="165">
-        <v>43196</v>
+        <v>43291</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="55.2">
-      <c r="A78" s="182" t="s">
+      <c r="A78" s="159" t="s">
         <v>452</v>
       </c>
-      <c r="B78" s="160"/>
-      <c r="C78" s="160"/>
-      <c r="D78" s="160" t="s">
-        <v>457</v>
-      </c>
-      <c r="E78" s="168" t="s">
-        <v>458</v>
-      </c>
-      <c r="F78" s="197" t="s">
-        <v>459</v>
+      <c r="B78" s="160" t="s">
+        <v>453</v>
+      </c>
+      <c r="C78" s="160" t="s">
+        <v>454</v>
+      </c>
+      <c r="D78" s="164" t="s">
+        <v>202</v>
+      </c>
+      <c r="E78" s="204"/>
+      <c r="F78" s="199" t="s">
+        <v>455</v>
       </c>
       <c r="G78" s="164" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H78" s="164"/>
       <c r="I78" s="165">
         <v>43196</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="151.80000000000001">
-      <c r="A79" s="159" t="s">
-        <v>461</v>
-      </c>
-      <c r="B79" s="160" t="s">
-        <v>453</v>
-      </c>
-      <c r="C79" s="160" t="s">
-        <v>462</v>
-      </c>
-      <c r="D79" s="164" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="204"/>
+    <row r="79" spans="1:9" ht="55.2">
+      <c r="A79" s="182" t="s">
+        <v>452</v>
+      </c>
+      <c r="B79" s="160"/>
+      <c r="C79" s="160"/>
+      <c r="D79" s="160" t="s">
+        <v>457</v>
+      </c>
+      <c r="E79" s="168" t="s">
+        <v>458</v>
+      </c>
       <c r="F79" s="197" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G79" s="164" t="s">
-        <v>465</v>
-      </c>
-      <c r="H79" s="164" t="s">
-        <v>465</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="H79" s="164"/>
       <c r="I79" s="165">
         <v>43196</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="138">
+    <row r="80" spans="1:9" ht="151.80000000000001">
       <c r="A80" s="159" t="s">
+        <v>461</v>
+      </c>
+      <c r="B80" s="160" t="s">
+        <v>453</v>
+      </c>
+      <c r="C80" s="160" t="s">
+        <v>462</v>
+      </c>
+      <c r="D80" s="164" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="204"/>
+      <c r="F80" s="197" t="s">
+        <v>464</v>
+      </c>
+      <c r="G80" s="164" t="s">
+        <v>465</v>
+      </c>
+      <c r="H80" s="164" t="s">
+        <v>465</v>
+      </c>
+      <c r="I80" s="165">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="138">
+      <c r="A81" s="159" t="s">
         <v>466</v>
       </c>
-      <c r="B80" s="160" t="s">
+      <c r="B81" s="160" t="s">
         <v>467</v>
-      </c>
-      <c r="C80" s="160"/>
-      <c r="D80" s="161" t="s">
-        <v>468</v>
-      </c>
-      <c r="E80" s="168" t="s">
-        <v>469</v>
-      </c>
-      <c r="F80" s="199" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G80" s="164" t="s">
-        <v>470</v>
-      </c>
-      <c r="H80" s="164"/>
-      <c r="I80" s="165">
-        <v>43264</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="41.4">
-      <c r="A81" s="159" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B81" s="160" t="s">
-        <v>1059</v>
       </c>
       <c r="C81" s="160"/>
       <c r="D81" s="161" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E81" s="300" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F81" s="197" t="s">
-        <v>1061</v>
+        <v>468</v>
+      </c>
+      <c r="E81" s="168" t="s">
+        <v>469</v>
+      </c>
+      <c r="F81" s="199" t="s">
+        <v>1049</v>
       </c>
       <c r="G81" s="164" t="s">
-        <v>1062</v>
+        <v>470</v>
       </c>
       <c r="H81" s="164"/>
       <c r="I81" s="165">
-        <v>43315</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="55.2">
-      <c r="A82" s="301" t="s">
-        <v>1063</v>
+        <v>43264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="41.4">
+      <c r="A82" s="159" t="s">
+        <v>1057</v>
       </c>
       <c r="B82" s="160" t="s">
         <v>1059</v>
       </c>
       <c r="C82" s="160"/>
       <c r="D82" s="161" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E82" s="221" t="s">
-        <v>1067</v>
+        <v>1058</v>
+      </c>
+      <c r="E82" s="300" t="s">
+        <v>1060</v>
       </c>
       <c r="F82" s="197" t="s">
         <v>1061</v>
@@ -8683,19 +8679,19 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="41.4">
-      <c r="A83" s="159" t="s">
-        <v>1064</v>
+    <row r="83" spans="1:9" ht="55.2">
+      <c r="A83" s="301" t="s">
+        <v>1063</v>
       </c>
       <c r="B83" s="160" t="s">
         <v>1059</v>
       </c>
       <c r="C83" s="160"/>
       <c r="D83" s="161" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E83" s="168" t="s">
-        <v>1068</v>
+        <v>1065</v>
+      </c>
+      <c r="E83" s="221" t="s">
+        <v>1067</v>
       </c>
       <c r="F83" s="197" t="s">
         <v>1061</v>
@@ -8708,35 +8704,33 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="409.5">
+    <row r="84" spans="1:9" ht="41.4">
       <c r="A84" s="159" t="s">
-        <v>472</v>
-      </c>
-      <c r="B84" s="164" t="s">
-        <v>45</v>
-      </c>
-      <c r="C84" s="180">
-        <v>8001266</v>
-      </c>
-      <c r="D84" s="186" t="s">
-        <v>479</v>
-      </c>
-      <c r="E84" s="178" t="s">
-        <v>480</v>
-      </c>
-      <c r="F84" s="185" t="s">
-        <v>481</v>
+        <v>1064</v>
+      </c>
+      <c r="B84" s="160" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C84" s="160"/>
+      <c r="D84" s="161" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E84" s="168" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F84" s="197" t="s">
+        <v>1061</v>
       </c>
       <c r="G84" s="164" t="s">
-        <v>482</v>
+        <v>1062</v>
       </c>
       <c r="H84" s="164"/>
       <c r="I84" s="165">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="41.4">
-      <c r="A85" s="182" t="s">
+        <v>43315</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="409.5">
+      <c r="A85" s="159" t="s">
         <v>472</v>
       </c>
       <c r="B85" s="164" t="s">
@@ -8746,23 +8740,23 @@
         <v>8001266</v>
       </c>
       <c r="D85" s="186" t="s">
-        <v>483</v>
-      </c>
-      <c r="E85" s="168" t="s">
+        <v>479</v>
+      </c>
+      <c r="E85" s="178" t="s">
         <v>480</v>
       </c>
       <c r="F85" s="185" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G85" s="164" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="H85" s="164"/>
       <c r="I85" s="165">
         <v>43240</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="69">
+    <row r="86" spans="1:9" ht="41.4">
       <c r="A86" s="182" t="s">
         <v>472</v>
       </c>
@@ -8773,23 +8767,23 @@
         <v>8001266</v>
       </c>
       <c r="D86" s="186" t="s">
-        <v>489</v>
-      </c>
-      <c r="E86" s="205" t="s">
-        <v>490</v>
+        <v>483</v>
+      </c>
+      <c r="E86" s="168" t="s">
+        <v>480</v>
       </c>
       <c r="F86" s="185" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G86" s="164" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H86" s="164"/>
       <c r="I86" s="165">
         <v>43240</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="55.2">
+    <row r="87" spans="1:9" ht="69">
       <c r="A87" s="182" t="s">
         <v>472</v>
       </c>
@@ -8800,23 +8794,23 @@
         <v>8001266</v>
       </c>
       <c r="D87" s="186" t="s">
-        <v>493</v>
-      </c>
-      <c r="E87" s="168" t="s">
-        <v>480</v>
+        <v>489</v>
+      </c>
+      <c r="E87" s="205" t="s">
+        <v>490</v>
       </c>
       <c r="F87" s="185" t="s">
-        <v>494</v>
-      </c>
-      <c r="G87" s="166" t="s">
-        <v>482</v>
-      </c>
-      <c r="H87" s="160"/>
+        <v>491</v>
+      </c>
+      <c r="G87" s="164" t="s">
+        <v>492</v>
+      </c>
+      <c r="H87" s="164"/>
       <c r="I87" s="165">
         <v>43240</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="138">
+    <row r="88" spans="1:9" ht="55.2">
       <c r="A88" s="182" t="s">
         <v>472</v>
       </c>
@@ -8827,23 +8821,23 @@
         <v>8001266</v>
       </c>
       <c r="D88" s="186" t="s">
-        <v>495</v>
-      </c>
-      <c r="E88" s="162" t="s">
+        <v>493</v>
+      </c>
+      <c r="E88" s="168" t="s">
         <v>480</v>
       </c>
-      <c r="F88" s="187" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G88" s="185" t="s">
-        <v>497</v>
-      </c>
-      <c r="H88" s="180"/>
+      <c r="F88" s="185" t="s">
+        <v>494</v>
+      </c>
+      <c r="G88" s="166" t="s">
+        <v>482</v>
+      </c>
+      <c r="H88" s="160"/>
       <c r="I88" s="165">
         <v>43240</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="69">
+    <row r="89" spans="1:9" ht="138">
       <c r="A89" s="182" t="s">
         <v>472</v>
       </c>
@@ -8854,18 +8848,18 @@
         <v>8001266</v>
       </c>
       <c r="D89" s="186" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E89" s="162" t="s">
         <v>480</v>
       </c>
       <c r="F89" s="187" t="s">
-        <v>499</v>
-      </c>
-      <c r="G89" s="164" t="s">
-        <v>500</v>
-      </c>
-      <c r="H89" s="164"/>
+        <v>1050</v>
+      </c>
+      <c r="G89" s="185" t="s">
+        <v>497</v>
+      </c>
+      <c r="H89" s="180"/>
       <c r="I89" s="165">
         <v>43240</v>
       </c>
@@ -8881,59 +8875,64 @@
         <v>8001266</v>
       </c>
       <c r="D90" s="186" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E90" s="162" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="F90" s="187" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G90" s="164" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H90" s="164"/>
       <c r="I90" s="165">
         <v>43240</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="27.6">
-      <c r="A91" s="159" t="s">
-        <v>1015</v>
+    <row r="91" spans="1:9" ht="69">
+      <c r="A91" s="182" t="s">
+        <v>472</v>
       </c>
       <c r="B91" s="164" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D91" s="189" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E91" s="221" t="s">
-        <v>1018</v>
+        <v>45</v>
+      </c>
+      <c r="C91" s="180">
+        <v>8001266</v>
+      </c>
+      <c r="D91" s="186" t="s">
+        <v>501</v>
+      </c>
+      <c r="E91" s="162" t="s">
+        <v>502</v>
       </c>
       <c r="F91" s="187" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G91" s="164"/>
+        <v>503</v>
+      </c>
+      <c r="G91" s="164" t="s">
+        <v>504</v>
+      </c>
       <c r="H91" s="164"/>
       <c r="I91" s="165">
-        <v>43305</v>
+        <v>43240</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="27.6">
-      <c r="A92" s="182" t="s">
+      <c r="A92" s="159" t="s">
         <v>1015</v>
       </c>
       <c r="B92" s="164" t="s">
         <v>1005</v>
       </c>
       <c r="D92" s="189" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E92" s="221" t="s">
         <v>1018</v>
       </c>
       <c r="F92" s="187" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G92" s="164"/>
       <c r="H92" s="164"/>
@@ -8941,265 +8940,260 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="55.2">
-      <c r="A93" s="159" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B93" s="160" t="s">
-        <v>1059</v>
+    <row r="93" spans="1:9" ht="27.6">
+      <c r="A93" s="182" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B93" s="164" t="s">
+        <v>1005</v>
       </c>
       <c r="D93" s="189" t="s">
-        <v>1070</v>
+        <v>1017</v>
       </c>
       <c r="E93" s="221" t="s">
-        <v>1071</v>
+        <v>1018</v>
       </c>
       <c r="F93" s="187" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G93" s="164" t="s">
-        <v>1078</v>
-      </c>
+        <v>1020</v>
+      </c>
+      <c r="G93" s="164"/>
       <c r="H93" s="164"/>
       <c r="I93" s="165">
-        <v>43315</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="69">
+        <v>43305</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="55.2">
       <c r="A94" s="159" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B94" s="164" t="s">
-        <v>1005</v>
+        <v>1069</v>
+      </c>
+      <c r="B94" s="160" t="s">
+        <v>1059</v>
       </c>
       <c r="D94" s="189" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E94" s="223" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F94" s="215" t="s">
-        <v>1079</v>
-      </c>
-      <c r="G94" s="164"/>
+        <v>1070</v>
+      </c>
+      <c r="E94" s="221" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F94" s="187" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G94" s="164" t="s">
+        <v>1078</v>
+      </c>
       <c r="H94" s="164"/>
       <c r="I94" s="165">
-        <v>43305</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="27.6">
+        <v>43315</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="69">
       <c r="A95" s="159" t="s">
-        <v>1080</v>
+        <v>1021</v>
       </c>
       <c r="B95" s="164" t="s">
         <v>1005</v>
       </c>
       <c r="D95" s="189" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E95" s="221" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F95" s="302" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G95" s="164" t="s">
-        <v>1083</v>
-      </c>
+        <v>1022</v>
+      </c>
+      <c r="E95" s="223" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F95" s="215" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G95" s="164"/>
       <c r="H95" s="164"/>
       <c r="I95" s="165">
-        <v>43315</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="69">
+        <v>43305</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="27.6">
       <c r="A96" s="159" t="s">
-        <v>505</v>
+        <v>1080</v>
       </c>
       <c r="B96" s="164" t="s">
-        <v>149</v>
-      </c>
-      <c r="C96" s="160" t="s">
-        <v>506</v>
-      </c>
-      <c r="D96" s="160" t="s">
-        <v>507</v>
-      </c>
-      <c r="E96" s="168" t="s">
-        <v>941</v>
-      </c>
-      <c r="F96" s="197" t="s">
-        <v>509</v>
-      </c>
-      <c r="G96" s="164"/>
+        <v>1005</v>
+      </c>
+      <c r="D96" s="189" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E96" s="221" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F96" s="302" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G96" s="164" t="s">
+        <v>1083</v>
+      </c>
       <c r="H96" s="164"/>
       <c r="I96" s="165">
+        <v>43315</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="69">
+      <c r="A97" s="159" t="s">
+        <v>505</v>
+      </c>
+      <c r="B97" s="164" t="s">
+        <v>149</v>
+      </c>
+      <c r="C97" s="160" t="s">
+        <v>506</v>
+      </c>
+      <c r="D97" s="160" t="s">
+        <v>507</v>
+      </c>
+      <c r="E97" s="168" t="s">
+        <v>941</v>
+      </c>
+      <c r="F97" s="197" t="s">
+        <v>509</v>
+      </c>
+      <c r="G97" s="164"/>
+      <c r="H97" s="164"/>
+      <c r="I97" s="165">
         <v>43196</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="96.6">
-      <c r="A97" s="159" t="s">
-        <v>510</v>
-      </c>
-      <c r="B97" s="164" t="s">
-        <v>511</v>
-      </c>
-      <c r="C97" s="160"/>
-      <c r="D97" s="160" t="s">
-        <v>512</v>
-      </c>
-      <c r="E97" s="168" t="s">
-        <v>513</v>
-      </c>
-      <c r="F97" s="199" t="s">
-        <v>952</v>
-      </c>
-      <c r="G97" s="164" t="s">
-        <v>515</v>
-      </c>
-      <c r="H97" s="164"/>
-      <c r="I97" s="165"/>
-    </row>
-    <row r="98" spans="1:10" ht="138">
-      <c r="A98" s="182" t="s">
+    <row r="98" spans="1:10" ht="96.6">
+      <c r="A98" s="159" t="s">
         <v>510</v>
       </c>
       <c r="B98" s="164" t="s">
         <v>511</v>
       </c>
-      <c r="C98" s="160"/>
-      <c r="D98" s="160" t="s">
-        <v>516</v>
+      <c r="C98" s="160" t="s">
+        <v>512</v>
       </c>
       <c r="E98" s="168" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F98" s="199" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G98" s="164" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H98" s="164"/>
       <c r="I98" s="165"/>
     </row>
-    <row r="99" spans="1:10" ht="234.6">
+    <row r="99" spans="1:10" ht="138">
       <c r="A99" s="182" t="s">
         <v>510</v>
       </c>
-      <c r="B99" s="164"/>
+      <c r="B99" s="164" t="s">
+        <v>511</v>
+      </c>
       <c r="C99" s="160"/>
       <c r="D99" s="160" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E99" s="168" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F99" s="199" t="s">
-        <v>954</v>
-      </c>
-      <c r="G99" s="180" t="s">
-        <v>523</v>
+        <v>953</v>
+      </c>
+      <c r="G99" s="164" t="s">
+        <v>519</v>
       </c>
       <c r="H99" s="164"/>
       <c r="I99" s="165"/>
     </row>
-    <row r="100" spans="1:10" ht="82.8">
-      <c r="A100" s="159" t="s">
+    <row r="100" spans="1:10" ht="234.6">
+      <c r="A100" s="182" t="s">
+        <v>510</v>
+      </c>
+      <c r="B100" s="164"/>
+      <c r="C100" s="160"/>
+      <c r="D100" s="160" t="s">
+        <v>520</v>
+      </c>
+      <c r="E100" s="168" t="s">
+        <v>521</v>
+      </c>
+      <c r="F100" s="199" t="s">
+        <v>954</v>
+      </c>
+      <c r="G100" s="180" t="s">
+        <v>523</v>
+      </c>
+      <c r="H100" s="164"/>
+      <c r="I100" s="165"/>
+    </row>
+    <row r="101" spans="1:10" ht="82.8">
+      <c r="A101" s="159" t="s">
         <v>524</v>
       </c>
-      <c r="B100" s="164" t="s">
+      <c r="B101" s="164" t="s">
         <v>149</v>
       </c>
-      <c r="C100" s="160" t="s">
+      <c r="C101" s="160" t="s">
         <v>525</v>
       </c>
-      <c r="D100" s="160" t="s">
+      <c r="D101" s="160" t="s">
         <v>526</v>
       </c>
-      <c r="E100" s="168" t="s">
+      <c r="E101" s="168" t="s">
         <v>942</v>
       </c>
-      <c r="F100" s="185" t="s">
+      <c r="F101" s="185" t="s">
         <v>528</v>
       </c>
-      <c r="G100" s="160" t="s">
+      <c r="G101" s="160" t="s">
         <v>529</v>
-      </c>
-      <c r="H100" s="164"/>
-      <c r="I100" s="165">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="41.4">
-      <c r="A101" s="159" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B101" s="164" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C101" s="160"/>
-      <c r="D101" s="160" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E101" s="220" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F101" s="187" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G101" s="160" t="s">
-        <v>1027</v>
       </c>
       <c r="H101" s="164"/>
       <c r="I101" s="165">
-        <v>43305</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="55.2">
-      <c r="A102" s="167" t="s">
-        <v>530</v>
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="41.4">
+      <c r="A102" s="159" t="s">
+        <v>1024</v>
       </c>
       <c r="B102" s="164" t="s">
-        <v>537</v>
-      </c>
-      <c r="C102" s="164"/>
-      <c r="D102" s="161" t="s">
-        <v>543</v>
-      </c>
-      <c r="E102" s="168" t="s">
-        <v>544</v>
+        <v>1005</v>
+      </c>
+      <c r="C102" s="160"/>
+      <c r="D102" s="160" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E102" s="220" t="s">
+        <v>1026</v>
       </c>
       <c r="F102" s="187" t="s">
-        <v>545</v>
-      </c>
-      <c r="G102" s="164" t="s">
-        <v>549</v>
+        <v>1055</v>
+      </c>
+      <c r="G102" s="160" t="s">
+        <v>1027</v>
       </c>
       <c r="H102" s="164"/>
       <c r="I102" s="165">
-        <v>76138</v>
-      </c>
-      <c r="J102" s="164"/>
-    </row>
-    <row r="103" spans="1:10" ht="96.6">
-      <c r="A103" s="159" t="s">
-        <v>555</v>
+        <v>43305</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="55.2">
+      <c r="A103" s="167" t="s">
+        <v>530</v>
       </c>
       <c r="B103" s="164" t="s">
         <v>537</v>
       </c>
       <c r="C103" s="164"/>
       <c r="D103" s="161" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="E103" s="168" t="s">
-        <v>943</v>
-      </c>
-      <c r="F103" s="185" t="s">
-        <v>569</v>
+        <v>544</v>
+      </c>
+      <c r="F103" s="187" t="s">
+        <v>545</v>
       </c>
       <c r="G103" s="164" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="H103" s="164"/>
       <c r="I103" s="165">
@@ -9207,123 +9201,120 @@
       </c>
       <c r="J103" s="164"/>
     </row>
-    <row r="104" spans="1:10" ht="41.4">
+    <row r="104" spans="1:10" ht="96.6">
       <c r="A104" s="159" t="s">
+        <v>555</v>
+      </c>
+      <c r="B104" s="164" t="s">
+        <v>537</v>
+      </c>
+      <c r="C104" s="164"/>
+      <c r="D104" s="161" t="s">
+        <v>560</v>
+      </c>
+      <c r="E104" s="168" t="s">
+        <v>943</v>
+      </c>
+      <c r="F104" s="185" t="s">
+        <v>569</v>
+      </c>
+      <c r="G104" s="164" t="s">
+        <v>573</v>
+      </c>
+      <c r="H104" s="164"/>
+      <c r="I104" s="165">
+        <v>76138</v>
+      </c>
+      <c r="J104" s="164"/>
+    </row>
+    <row r="105" spans="1:10" ht="41.4">
+      <c r="A105" s="159" t="s">
         <v>578</v>
       </c>
-      <c r="B104" s="164" t="s">
+      <c r="B105" s="164" t="s">
         <v>582</v>
-      </c>
-      <c r="C104" s="164"/>
-      <c r="D104" s="160" t="s">
-        <v>583</v>
-      </c>
-      <c r="E104" s="168" t="s">
-        <v>584</v>
-      </c>
-      <c r="F104" s="187" t="s">
-        <v>585</v>
-      </c>
-      <c r="G104" s="164" t="s">
-        <v>588</v>
-      </c>
-      <c r="H104" s="164"/>
-      <c r="I104" s="165"/>
-      <c r="J104" s="164"/>
-    </row>
-    <row r="105" spans="1:10" ht="69">
-      <c r="A105" s="159" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B105" s="164" t="s">
-        <v>1005</v>
       </c>
       <c r="C105" s="164"/>
       <c r="D105" s="160" t="s">
+        <v>583</v>
+      </c>
+      <c r="E105" s="168" t="s">
+        <v>584</v>
+      </c>
+      <c r="F105" s="187" t="s">
+        <v>585</v>
+      </c>
+      <c r="G105" s="164" t="s">
+        <v>588</v>
+      </c>
+      <c r="H105" s="164"/>
+      <c r="I105" s="165"/>
+      <c r="J105" s="164"/>
+    </row>
+    <row r="106" spans="1:10" ht="69">
+      <c r="A106" s="159" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B106" s="164" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C106" s="164"/>
+      <c r="D106" s="160" t="s">
         <v>1029</v>
       </c>
-      <c r="E105" s="168" t="s">
+      <c r="E106" s="168" t="s">
         <v>1030</v>
       </c>
-      <c r="F105" s="187" t="s">
+      <c r="F106" s="187" t="s">
         <v>1056</v>
       </c>
-      <c r="G105" s="164" t="s">
+      <c r="G106" s="164" t="s">
         <v>1031</v>
       </c>
-      <c r="H105" s="164"/>
-      <c r="I105" s="165">
+      <c r="H106" s="164"/>
+      <c r="I106" s="165">
         <v>43305</v>
       </c>
-      <c r="J105" s="164"/>
-    </row>
-    <row r="106" spans="1:10" ht="27.6">
-      <c r="A106" s="159" t="s">
+      <c r="J106" s="164"/>
+    </row>
+    <row r="107" spans="1:10" ht="27.6">
+      <c r="A107" s="159" t="s">
         <v>597</v>
       </c>
-      <c r="B106" s="164" t="s">
+      <c r="B107" s="164" t="s">
         <v>216</v>
       </c>
-      <c r="C106" s="164"/>
-      <c r="D106" s="216">
+      <c r="C107" s="164"/>
+      <c r="D107" s="216">
         <v>2243686</v>
       </c>
-      <c r="E106" s="162" t="s">
+      <c r="E107" s="162" t="s">
         <v>998</v>
       </c>
-      <c r="F106" s="206" t="s">
+      <c r="F107" s="206" t="s">
         <v>997</v>
       </c>
-      <c r="G106" s="164"/>
-      <c r="H106" s="164"/>
-      <c r="I106" s="165"/>
-    </row>
-    <row r="107" spans="1:10" ht="14.1">
-      <c r="A107" s="159" t="s">
+      <c r="G107" s="164"/>
+      <c r="H107" s="164"/>
+      <c r="I107" s="165"/>
+    </row>
+    <row r="108" spans="1:10" ht="14.1">
+      <c r="A108" s="159" t="s">
         <v>603</v>
       </c>
-      <c r="B107" s="164" t="s">
+      <c r="B108" s="164" t="s">
         <v>604</v>
       </c>
-      <c r="C107" s="164">
+      <c r="C108" s="164">
         <v>8001119</v>
       </c>
-      <c r="D107" s="180"/>
-      <c r="E107" s="162"/>
-      <c r="F107" s="185" t="s">
+      <c r="D108" s="180"/>
+      <c r="E108" s="162"/>
+      <c r="F108" s="185" t="s">
         <v>607</v>
       </c>
-      <c r="G107" s="164" t="s">
+      <c r="G108" s="164" t="s">
         <v>608</v>
-      </c>
-      <c r="H107" s="164" t="s">
-        <v>609</v>
-      </c>
-      <c r="I107" s="165">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="82.8">
-      <c r="A108" s="159" t="s">
-        <v>610</v>
-      </c>
-      <c r="B108" s="160" t="s">
-        <v>475</v>
-      </c>
-      <c r="C108" s="164">
-        <v>8001130</v>
-      </c>
-      <c r="D108" s="160" t="s">
-        <v>612</v>
-      </c>
-      <c r="E108" s="168" t="s">
-        <v>613</v>
-      </c>
-      <c r="F108" s="185" t="s">
-        <v>614</v>
-      </c>
-      <c r="G108" s="164" t="s">
-        <v>615</v>
       </c>
       <c r="H108" s="164" t="s">
         <v>609</v>
@@ -9332,154 +9323,160 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="27.6">
+    <row r="109" spans="1:10" ht="82.8">
       <c r="A109" s="159" t="s">
+        <v>610</v>
+      </c>
+      <c r="B109" s="160" t="s">
+        <v>475</v>
+      </c>
+      <c r="C109" s="164">
+        <v>8001130</v>
+      </c>
+      <c r="D109" s="160" t="s">
+        <v>612</v>
+      </c>
+      <c r="E109" s="168" t="s">
+        <v>613</v>
+      </c>
+      <c r="F109" s="185" t="s">
+        <v>614</v>
+      </c>
+      <c r="G109" s="164" t="s">
+        <v>615</v>
+      </c>
+      <c r="H109" s="164" t="s">
+        <v>609</v>
+      </c>
+      <c r="I109" s="165">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="27.6">
+      <c r="A110" s="159" t="s">
         <v>616</v>
       </c>
-      <c r="B109" s="160" t="s">
+      <c r="B110" s="160" t="s">
         <v>617</v>
       </c>
-      <c r="C109" s="160" t="s">
+      <c r="C110" s="160" t="s">
         <v>618</v>
       </c>
-      <c r="D109" s="160" t="s">
+      <c r="D110" s="160" t="s">
         <v>619</v>
       </c>
-      <c r="E109" s="168" t="s">
+      <c r="E110" s="168" t="s">
         <v>620</v>
       </c>
-      <c r="F109" s="187" t="s">
+      <c r="F110" s="187" t="s">
         <v>621</v>
       </c>
-      <c r="G109" s="164" t="s">
+      <c r="G110" s="164" t="s">
         <v>622</v>
       </c>
-      <c r="H109" s="164"/>
-      <c r="I109" s="165">
+      <c r="H110" s="164"/>
+      <c r="I110" s="165">
         <v>43266</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="41.4">
-      <c r="A110" s="159" t="s">
+    <row r="111" spans="1:10" ht="41.4">
+      <c r="A111" s="159" t="s">
         <v>623</v>
       </c>
-      <c r="B110" s="160" t="s">
+      <c r="B111" s="160" t="s">
         <v>625</v>
       </c>
-      <c r="C110" s="164"/>
-      <c r="D110" s="161" t="s">
+      <c r="C111" s="164"/>
+      <c r="D111" s="161" t="s">
         <v>626</v>
       </c>
-      <c r="E110" s="168" t="s">
+      <c r="E111" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="F110" s="187" t="s">
+      <c r="F111" s="187" t="s">
         <v>628</v>
       </c>
-      <c r="G110" s="164" t="s">
+      <c r="G111" s="164" t="s">
         <v>629</v>
       </c>
-      <c r="H110" s="164"/>
-      <c r="I110" s="165"/>
-    </row>
-    <row r="111" spans="1:10" ht="27.6">
-      <c r="A111" s="159" t="s">
+      <c r="H111" s="164"/>
+      <c r="I111" s="165"/>
+    </row>
+    <row r="112" spans="1:10" ht="27.6">
+      <c r="A112" s="159" t="s">
         <v>1032</v>
       </c>
-      <c r="B111" s="164" t="s">
+      <c r="B112" s="164" t="s">
         <v>1005</v>
-      </c>
-      <c r="C111" s="164"/>
-      <c r="D111" s="224" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E111" s="168" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F111" s="187" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G111" s="164" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H111" s="164"/>
-      <c r="I111" s="165">
-        <v>43305</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="41.4">
-      <c r="A112" s="159" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B112" s="160" t="s">
-        <v>1059</v>
       </c>
       <c r="C112" s="164"/>
       <c r="D112" s="224" t="s">
-        <v>1073</v>
+        <v>1033</v>
       </c>
       <c r="E112" s="168" t="s">
-        <v>1074</v>
+        <v>1034</v>
       </c>
       <c r="F112" s="187" t="s">
-        <v>1076</v>
+        <v>1035</v>
       </c>
       <c r="G112" s="164" t="s">
-        <v>1077</v>
+        <v>1036</v>
       </c>
       <c r="H112" s="164"/>
       <c r="I112" s="165">
-        <v>43315</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="69">
+        <v>43305</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="41.4">
       <c r="A113" s="159" t="s">
-        <v>632</v>
-      </c>
-      <c r="B113" s="164" t="s">
-        <v>45</v>
-      </c>
-      <c r="C113" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D113" s="212" t="s">
-        <v>973</v>
-      </c>
-      <c r="E113" s="214" t="s">
-        <v>979</v>
-      </c>
-      <c r="F113" s="185" t="s">
-        <v>980</v>
+        <v>1072</v>
+      </c>
+      <c r="B113" s="160" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C113" s="164"/>
+      <c r="D113" s="224" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E113" s="168" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F113" s="187" t="s">
+        <v>1076</v>
       </c>
       <c r="G113" s="164" t="s">
-        <v>989</v>
+        <v>1077</v>
       </c>
       <c r="H113" s="164"/>
       <c r="I113" s="165">
-        <v>43240</v>
+        <v>43315</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="69">
-      <c r="A114" s="182" t="s">
+      <c r="A114" s="159" t="s">
         <v>632</v>
       </c>
-      <c r="B114" s="164"/>
-      <c r="C114" s="164"/>
-      <c r="D114" s="213" t="s">
-        <v>974</v>
+      <c r="B114" s="164" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D114" s="212" t="s">
+        <v>973</v>
       </c>
       <c r="E114" s="214" t="s">
         <v>979</v>
       </c>
       <c r="F114" s="185" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G114" s="164" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H114" s="164"/>
       <c r="I114" s="165">
-        <v>43298</v>
+        <v>43240</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="69">
@@ -9489,62 +9486,62 @@
       <c r="B115" s="164"/>
       <c r="C115" s="164"/>
       <c r="D115" s="213" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E115" s="214" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="F115" s="185" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G115" s="164" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H115" s="164"/>
       <c r="I115" s="165">
         <v>43298</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="55.2">
+    <row r="116" spans="1:10" ht="69">
       <c r="A116" s="182" t="s">
         <v>632</v>
       </c>
       <c r="B116" s="164"/>
       <c r="C116" s="164"/>
       <c r="D116" s="213" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E116" s="214" t="s">
         <v>982</v>
       </c>
       <c r="F116" s="185" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G116" s="164" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H116" s="164"/>
       <c r="I116" s="165">
         <v>43298</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="69">
+    <row r="117" spans="1:10" ht="55.2">
       <c r="A117" s="182" t="s">
         <v>632</v>
       </c>
       <c r="B117" s="164"/>
       <c r="C117" s="164"/>
       <c r="D117" s="213" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E117" s="214" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F117" s="185" t="s">
         <v>981</v>
       </c>
       <c r="G117" s="164" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H117" s="164"/>
       <c r="I117" s="165">
@@ -9558,137 +9555,137 @@
       <c r="B118" s="164"/>
       <c r="C118" s="164"/>
       <c r="D118" s="213" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E118" s="214" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F118" s="185" t="s">
         <v>981</v>
       </c>
       <c r="G118" s="164" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="H118" s="164"/>
       <c r="I118" s="165">
         <v>43298</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="124.2">
-      <c r="A119" s="159" t="s">
+    <row r="119" spans="1:10" ht="69">
+      <c r="A119" s="182" t="s">
+        <v>632</v>
+      </c>
+      <c r="B119" s="164"/>
+      <c r="C119" s="164"/>
+      <c r="D119" s="213" t="s">
+        <v>978</v>
+      </c>
+      <c r="E119" s="214" t="s">
+        <v>984</v>
+      </c>
+      <c r="F119" s="185" t="s">
+        <v>981</v>
+      </c>
+      <c r="G119" s="164" t="s">
+        <v>990</v>
+      </c>
+      <c r="H119" s="164"/>
+      <c r="I119" s="165">
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="124.2">
+      <c r="A120" s="159" t="s">
         <v>646</v>
       </c>
-      <c r="B119" s="164" t="s">
+      <c r="B120" s="164" t="s">
         <v>582</v>
-      </c>
-      <c r="C119" s="164"/>
-      <c r="D119" s="160" t="s">
-        <v>647</v>
-      </c>
-      <c r="E119" s="168" t="s">
-        <v>648</v>
-      </c>
-      <c r="F119" s="185" t="s">
-        <v>649</v>
-      </c>
-      <c r="G119" s="164" t="s">
-        <v>651</v>
-      </c>
-      <c r="H119" s="164"/>
-      <c r="I119" s="165"/>
-    </row>
-    <row r="120" spans="1:10" ht="138">
-      <c r="A120" s="182" t="s">
-        <v>646</v>
-      </c>
-      <c r="B120" s="164" t="s">
-        <v>652</v>
       </c>
       <c r="C120" s="164"/>
       <c r="D120" s="160" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E120" s="168" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="F120" s="185" t="s">
         <v>649</v>
       </c>
       <c r="G120" s="164" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="H120" s="164"/>
       <c r="I120" s="165"/>
     </row>
-    <row r="121" spans="1:10" ht="124.2">
+    <row r="121" spans="1:10" ht="138">
       <c r="A121" s="182" t="s">
         <v>646</v>
       </c>
       <c r="B121" s="164" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C121" s="164"/>
       <c r="D121" s="160" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E121" s="168" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F121" s="185" t="s">
         <v>649</v>
       </c>
-      <c r="G121" s="180" t="s">
-        <v>659</v>
+      <c r="G121" s="164" t="s">
+        <v>655</v>
       </c>
       <c r="H121" s="164"/>
       <c r="I121" s="165"/>
     </row>
-    <row r="122" spans="1:10" ht="96.6">
-      <c r="A122" s="159" t="s">
+    <row r="122" spans="1:10" ht="124.2">
+      <c r="A122" s="182" t="s">
+        <v>646</v>
+      </c>
+      <c r="B122" s="164" t="s">
+        <v>656</v>
+      </c>
+      <c r="C122" s="164"/>
+      <c r="D122" s="160" t="s">
+        <v>657</v>
+      </c>
+      <c r="E122" s="168" t="s">
+        <v>658</v>
+      </c>
+      <c r="F122" s="185" t="s">
+        <v>649</v>
+      </c>
+      <c r="G122" s="180" t="s">
+        <v>659</v>
+      </c>
+      <c r="H122" s="164"/>
+      <c r="I122" s="165"/>
+    </row>
+    <row r="123" spans="1:10" ht="96.6">
+      <c r="A123" s="159" t="s">
         <v>660</v>
       </c>
-      <c r="B122" s="164" t="s">
+      <c r="B123" s="164" t="s">
         <v>149</v>
       </c>
-      <c r="C122" s="160" t="s">
+      <c r="C123" s="160" t="s">
         <v>661</v>
       </c>
-      <c r="D122" s="160" t="s">
+      <c r="D123" s="160" t="s">
         <v>663</v>
       </c>
-      <c r="E122" s="162"/>
-      <c r="F122" s="190" t="s">
+      <c r="E123" s="162"/>
+      <c r="F123" s="190" t="s">
         <v>665</v>
       </c>
-      <c r="G122" s="164" t="s">
+      <c r="G123" s="164" t="s">
         <v>674</v>
       </c>
-      <c r="H122" s="164"/>
-      <c r="I122" s="165">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="41.4">
-      <c r="A123" s="159" t="s">
-        <v>675</v>
-      </c>
-      <c r="B123" s="160" t="s">
-        <v>77</v>
-      </c>
-      <c r="C123" s="160" t="s">
-        <v>22</v>
-      </c>
-      <c r="D123" s="161" t="s">
-        <v>677</v>
-      </c>
-      <c r="E123" s="168"/>
-      <c r="F123" s="197" t="s">
-        <v>955</v>
-      </c>
-      <c r="G123" s="164"/>
       <c r="H123" s="164"/>
       <c r="I123" s="165">
-        <v>43276</v>
+        <v>43196</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="41.4">
@@ -9702,11 +9699,11 @@
         <v>22</v>
       </c>
       <c r="D124" s="161" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="E124" s="168"/>
-      <c r="F124" s="179" t="s">
-        <v>956</v>
+      <c r="F124" s="197" t="s">
+        <v>955</v>
       </c>
       <c r="G124" s="164"/>
       <c r="H124" s="164"/>
@@ -9714,118 +9711,113 @@
         <v>43276</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="55.2">
+    <row r="125" spans="1:10" ht="41.4">
       <c r="A125" s="159" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="B125" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="C125" s="160"/>
-      <c r="D125" s="160" t="s">
-        <v>695</v>
-      </c>
-      <c r="E125" s="162" t="s">
-        <v>696</v>
-      </c>
+      <c r="C125" s="160" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="161" t="s">
+        <v>687</v>
+      </c>
+      <c r="E125" s="168"/>
       <c r="F125" s="179" t="s">
-        <v>698</v>
-      </c>
-      <c r="G125" s="164" t="s">
-        <v>701</v>
-      </c>
+        <v>956</v>
+      </c>
+      <c r="G125" s="164"/>
       <c r="H125" s="164"/>
       <c r="I125" s="165">
-        <v>43293</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="207">
+        <v>43276</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="55.2">
       <c r="A126" s="159" t="s">
-        <v>702</v>
-      </c>
-      <c r="B126" s="164" t="s">
-        <v>45</v>
-      </c>
-      <c r="C126" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D126" s="186" t="s">
-        <v>705</v>
-      </c>
-      <c r="E126" s="162"/>
-      <c r="F126" s="185" t="s">
-        <v>708</v>
+        <v>694</v>
+      </c>
+      <c r="B126" s="160" t="s">
+        <v>77</v>
+      </c>
+      <c r="C126" s="160"/>
+      <c r="D126" s="160" t="s">
+        <v>695</v>
+      </c>
+      <c r="E126" s="162" t="s">
+        <v>696</v>
+      </c>
+      <c r="F126" s="179" t="s">
+        <v>698</v>
       </c>
       <c r="G126" s="164" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="H126" s="164"/>
       <c r="I126" s="165">
+        <v>43293</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="207">
+      <c r="A127" s="159" t="s">
+        <v>702</v>
+      </c>
+      <c r="B127" s="164" t="s">
+        <v>45</v>
+      </c>
+      <c r="C127" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D127" s="186" t="s">
+        <v>705</v>
+      </c>
+      <c r="E127" s="162"/>
+      <c r="F127" s="185" t="s">
+        <v>708</v>
+      </c>
+      <c r="G127" s="164" t="s">
+        <v>709</v>
+      </c>
+      <c r="H127" s="164"/>
+      <c r="I127" s="165">
         <v>43240</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="69">
-      <c r="A127" s="159" t="s">
-        <v>710</v>
-      </c>
-      <c r="B127" s="180" t="s">
-        <v>149</v>
-      </c>
-      <c r="C127" s="180">
-        <v>8000823</v>
-      </c>
-      <c r="D127" s="160" t="s">
-        <v>717</v>
-      </c>
-      <c r="E127" s="168" t="s">
-        <v>721</v>
-      </c>
-      <c r="F127" s="206" t="s">
-        <v>723</v>
-      </c>
-      <c r="G127" s="180" t="s">
-        <v>724</v>
-      </c>
-      <c r="H127" s="164" t="s">
-        <v>725</v>
-      </c>
-      <c r="I127" s="165">
-        <v>43196</v>
-      </c>
-      <c r="J127" s="166" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="82.8">
+    <row r="128" spans="1:10" ht="69">
       <c r="A128" s="159" t="s">
         <v>710</v>
       </c>
       <c r="B128" s="180" t="s">
         <v>149</v>
       </c>
-      <c r="C128" s="180"/>
+      <c r="C128" s="180">
+        <v>8000823</v>
+      </c>
       <c r="D128" s="160" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="E128" s="168" t="s">
-        <v>727</v>
-      </c>
-      <c r="F128" s="163" t="s">
-        <v>729</v>
-      </c>
-      <c r="G128" s="185" t="s">
-        <v>731</v>
-      </c>
-      <c r="H128" s="164"/>
+        <v>721</v>
+      </c>
+      <c r="F128" s="206" t="s">
+        <v>723</v>
+      </c>
+      <c r="G128" s="180" t="s">
+        <v>724</v>
+      </c>
+      <c r="H128" s="164" t="s">
+        <v>725</v>
+      </c>
       <c r="I128" s="165">
         <v>43196</v>
       </c>
-      <c r="J128" s="181" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="55.2">
-      <c r="A129" s="182" t="s">
+      <c r="J128" s="166" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="82.8">
+      <c r="A129" s="159" t="s">
         <v>710</v>
       </c>
       <c r="B129" s="180" t="s">
@@ -9833,298 +9825,299 @@
       </c>
       <c r="C129" s="180"/>
       <c r="D129" s="160" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E129" s="168" t="s">
-        <v>734</v>
-      </c>
-      <c r="F129" s="164" t="s">
-        <v>735</v>
-      </c>
-      <c r="G129" s="163" t="s">
-        <v>736</v>
+        <v>727</v>
+      </c>
+      <c r="F129" s="163" t="s">
+        <v>729</v>
+      </c>
+      <c r="G129" s="185" t="s">
+        <v>731</v>
       </c>
       <c r="H129" s="164"/>
       <c r="I129" s="165">
         <v>43196</v>
       </c>
-      <c r="J129" s="166" t="s">
+      <c r="J129" s="181" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="55.2">
+      <c r="A130" s="182" t="s">
+        <v>710</v>
+      </c>
+      <c r="B130" s="180" t="s">
+        <v>149</v>
+      </c>
+      <c r="C130" s="180"/>
+      <c r="D130" s="160" t="s">
+        <v>733</v>
+      </c>
+      <c r="E130" s="168" t="s">
+        <v>734</v>
+      </c>
+      <c r="F130" s="164" t="s">
+        <v>735</v>
+      </c>
+      <c r="G130" s="163" t="s">
+        <v>736</v>
+      </c>
+      <c r="H130" s="164"/>
+      <c r="I130" s="165">
+        <v>43196</v>
+      </c>
+      <c r="J130" s="166" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="86.4">
-      <c r="A130" s="182" t="s">
+    <row r="131" spans="1:10" ht="86.4">
+      <c r="A131" s="182" t="s">
         <v>1085</v>
       </c>
-      <c r="B130" s="180" t="s">
+      <c r="B131" s="180" t="s">
         <v>1086</v>
       </c>
-      <c r="C130" s="180"/>
-      <c r="D130" s="303" t="s">
+      <c r="C131" s="180"/>
+      <c r="D131" s="303" t="s">
         <v>1087</v>
       </c>
-      <c r="E130" s="168" t="s">
+      <c r="E131" s="168" t="s">
         <v>1088</v>
       </c>
-      <c r="F130" s="185" t="s">
+      <c r="F131" s="185" t="s">
         <v>1089</v>
       </c>
-      <c r="G130" s="163"/>
-      <c r="H130" s="164"/>
-      <c r="I130" s="165" t="s">
+      <c r="G131" s="163"/>
+      <c r="H131" s="164"/>
+      <c r="I131" s="165" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="41.4">
-      <c r="A131" s="159" t="s">
-        <v>737</v>
-      </c>
-      <c r="B131" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="C131" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D131" s="183" t="s">
-        <v>738</v>
-      </c>
-      <c r="E131" s="207" t="s">
-        <v>750</v>
-      </c>
-      <c r="F131" s="187" t="s">
-        <v>760</v>
-      </c>
-      <c r="G131" s="164" t="s">
-        <v>761</v>
-      </c>
-      <c r="H131" s="164"/>
-      <c r="I131" s="165">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="27.6">
-      <c r="A132" s="182" t="s">
+    <row r="132" spans="1:10" ht="41.4">
+      <c r="A132" s="159" t="s">
         <v>737</v>
       </c>
       <c r="B132" s="164" t="s">
         <v>142</v>
       </c>
-      <c r="C132" s="164"/>
-      <c r="D132" s="298" t="s">
-        <v>876</v>
-      </c>
-      <c r="E132" s="160" t="s">
-        <v>879</v>
+      <c r="C132" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D132" s="183" t="s">
+        <v>738</v>
+      </c>
+      <c r="E132" s="207" t="s">
+        <v>750</v>
       </c>
       <c r="F132" s="187" t="s">
-        <v>1040</v>
-      </c>
-      <c r="G132" s="164"/>
+        <v>760</v>
+      </c>
+      <c r="G132" s="164" t="s">
+        <v>761</v>
+      </c>
       <c r="H132" s="164"/>
       <c r="I132" s="165">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="27.6">
+      <c r="A133" s="182" t="s">
+        <v>737</v>
+      </c>
+      <c r="B133" s="164" t="s">
+        <v>142</v>
+      </c>
+      <c r="C133" s="164"/>
+      <c r="D133" s="298" t="s">
+        <v>876</v>
+      </c>
+      <c r="E133" s="160" t="s">
+        <v>879</v>
+      </c>
+      <c r="F133" s="187" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G133" s="164"/>
+      <c r="H133" s="164"/>
+      <c r="I133" s="165">
         <v>43311</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="96.6">
-      <c r="A133" s="159" t="s">
+    <row r="134" spans="1:10" ht="96.6">
+      <c r="A134" s="159" t="s">
         <v>762</v>
       </c>
-      <c r="B133" s="164" t="s">
+      <c r="B134" s="164" t="s">
         <v>763</v>
       </c>
-      <c r="C133" s="164" t="s">
+      <c r="C134" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="D133" s="186" t="s">
+      <c r="D134" s="186" t="s">
         <v>764</v>
       </c>
-      <c r="E133" s="207" t="s">
+      <c r="E134" s="207" t="s">
         <v>598</v>
       </c>
-      <c r="F133" s="185" t="s">
+      <c r="F134" s="185" t="s">
         <v>995</v>
       </c>
-      <c r="G133" s="164" t="s">
+      <c r="G134" s="164" t="s">
         <v>996</v>
       </c>
-      <c r="H133" s="208"/>
-      <c r="I133" s="165">
+      <c r="H134" s="208"/>
+      <c r="I134" s="165">
         <v>43264</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="41.4">
-      <c r="A134" s="182" t="s">
+    <row r="135" spans="1:10" ht="41.4">
+      <c r="A135" s="182" t="s">
         <v>796</v>
       </c>
-      <c r="B134" s="164" t="s">
+      <c r="B135" s="164" t="s">
         <v>797</v>
       </c>
-      <c r="C134" s="160" t="s">
+      <c r="C135" s="160" t="s">
         <v>798</v>
       </c>
-      <c r="D134" s="160" t="s">
+      <c r="D135" s="160" t="s">
         <v>800</v>
       </c>
-      <c r="E134" s="168" t="s">
+      <c r="E135" s="168" t="s">
         <v>805</v>
       </c>
-      <c r="F134" s="185" t="s">
+      <c r="F135" s="185" t="s">
         <v>806</v>
       </c>
-      <c r="G134" s="164" t="s">
+      <c r="G135" s="164" t="s">
         <v>807</v>
       </c>
-      <c r="H134" s="208"/>
-      <c r="I134" s="165"/>
-    </row>
-    <row r="135" spans="1:10" ht="14.1">
-      <c r="A135" s="159" t="s">
+      <c r="H135" s="208"/>
+      <c r="I135" s="165"/>
+    </row>
+    <row r="136" spans="1:10" ht="14.1">
+      <c r="A136" s="159" t="s">
         <v>808</v>
-      </c>
-      <c r="B135" s="164" t="s">
-        <v>45</v>
-      </c>
-      <c r="C135" s="160" t="s">
-        <v>809</v>
-      </c>
-      <c r="D135" s="186" t="s">
-        <v>810</v>
-      </c>
-      <c r="E135" s="162" t="s">
-        <v>598</v>
-      </c>
-      <c r="F135" s="187" t="s">
-        <v>822</v>
-      </c>
-      <c r="G135" s="164"/>
-      <c r="H135" s="164"/>
-      <c r="I135" s="165">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="96.6">
-      <c r="A136" s="159" t="s">
-        <v>828</v>
       </c>
       <c r="B136" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="C136" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D136" s="164" t="s">
-        <v>829</v>
-      </c>
-      <c r="E136" s="162"/>
+      <c r="C136" s="160" t="s">
+        <v>809</v>
+      </c>
+      <c r="D136" s="186" t="s">
+        <v>810</v>
+      </c>
+      <c r="E136" s="162" t="s">
+        <v>598</v>
+      </c>
       <c r="F136" s="187" t="s">
-        <v>835</v>
-      </c>
-      <c r="G136" s="166" t="s">
-        <v>957</v>
-      </c>
+        <v>822</v>
+      </c>
+      <c r="G136" s="164"/>
       <c r="H136" s="164"/>
       <c r="I136" s="165">
         <v>43240</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="138">
-      <c r="A137" s="173" t="s">
+    <row r="137" spans="1:10" ht="96.6">
+      <c r="A137" s="159" t="s">
+        <v>828</v>
+      </c>
+      <c r="B137" s="164" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137" s="164" t="s">
+        <v>829</v>
+      </c>
+      <c r="E137" s="162"/>
+      <c r="F137" s="187" t="s">
+        <v>835</v>
+      </c>
+      <c r="G137" s="166" t="s">
+        <v>957</v>
+      </c>
+      <c r="H137" s="164"/>
+      <c r="I137" s="165">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="138">
+      <c r="A138" s="173" t="s">
         <v>836</v>
       </c>
-      <c r="D137" s="314">
+      <c r="D138" s="304">
         <v>2420287</v>
       </c>
-      <c r="E137" s="221" t="s">
+      <c r="E138" s="221" t="s">
         <v>1093</v>
       </c>
-      <c r="F137" s="185" t="s">
+      <c r="F138" s="185" t="s">
         <v>1094</v>
       </c>
-      <c r="G137" s="166" t="s">
+      <c r="G138" s="166" t="s">
         <v>1095</v>
       </c>
-      <c r="I137" s="297">
+      <c r="I138" s="297">
         <v>372000</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="41.4">
-      <c r="A138" s="159" t="s">
+    <row r="139" spans="1:10" ht="41.4">
+      <c r="A139" s="159" t="s">
         <v>843</v>
       </c>
-      <c r="B138" s="160" t="s">
+      <c r="B139" s="160" t="s">
         <v>289</v>
       </c>
-      <c r="C138" s="160"/>
-      <c r="D138" s="195" t="s">
+      <c r="C139" s="160"/>
+      <c r="D139" s="195" t="s">
         <v>845</v>
       </c>
-      <c r="E138" s="168" t="s">
+      <c r="E139" s="168" t="s">
         <v>846</v>
       </c>
-      <c r="F138" s="163" t="s">
+      <c r="F139" s="163" t="s">
         <v>847</v>
       </c>
-      <c r="G138" s="164" t="s">
+      <c r="G139" s="164" t="s">
         <v>855</v>
       </c>
-      <c r="H138" s="164"/>
-      <c r="I138" s="165">
+      <c r="H139" s="164"/>
+      <c r="I139" s="165">
         <v>43288</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="55.2">
-      <c r="A139" s="159" t="s">
+    <row r="140" spans="1:10" ht="55.2">
+      <c r="A140" s="159" t="s">
         <v>1096</v>
       </c>
-      <c r="B139" s="160" t="s">
+      <c r="B140" s="160" t="s">
         <v>1086</v>
       </c>
-      <c r="C139" s="160"/>
-      <c r="D139" s="315" t="s">
+      <c r="C140" s="160"/>
+      <c r="D140" s="305" t="s">
         <v>1097</v>
       </c>
-      <c r="E139" s="221" t="s">
+      <c r="E140" s="221" t="s">
         <v>1098</v>
       </c>
-      <c r="F139" s="163" t="s">
+      <c r="F140" s="163" t="s">
         <v>1099</v>
       </c>
-      <c r="G139" s="164" t="s">
+      <c r="G140" s="164" t="s">
         <v>1100</v>
       </c>
-      <c r="H139" s="164"/>
-      <c r="I139" s="165" t="s">
+      <c r="H140" s="164"/>
+      <c r="I140" s="165" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="138">
-      <c r="A140" s="159" t="s">
-        <v>857</v>
-      </c>
-      <c r="B140" s="160" t="s">
-        <v>77</v>
-      </c>
-      <c r="C140" s="160" t="s">
-        <v>22</v>
-      </c>
-      <c r="D140" s="161" t="s">
-        <v>858</v>
-      </c>
-      <c r="E140" s="168"/>
-      <c r="F140" s="179" t="s">
-        <v>859</v>
-      </c>
-      <c r="G140" s="164" t="s">
-        <v>860</v>
-      </c>
-      <c r="H140" s="209" t="s">
-        <v>962</v>
-      </c>
-      <c r="I140" s="165">
-        <v>43270</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="41.4">
+    <row r="141" spans="1:10" ht="138">
       <c r="A141" s="159" t="s">
         <v>857</v>
       </c>
@@ -10135,17 +10128,17 @@
         <v>22</v>
       </c>
       <c r="D141" s="161" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E141" s="168"/>
       <c r="F141" s="179" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="G141" s="164" t="s">
-        <v>863</v>
-      </c>
-      <c r="H141" s="181" t="s">
-        <v>963</v>
+        <v>860</v>
+      </c>
+      <c r="H141" s="209" t="s">
+        <v>962</v>
       </c>
       <c r="I141" s="165">
         <v>43270</v>
@@ -10162,11 +10155,11 @@
         <v>22</v>
       </c>
       <c r="D142" s="161" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E142" s="168"/>
       <c r="F142" s="179" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="G142" s="164" t="s">
         <v>863</v>
@@ -10178,7 +10171,7 @@
         <v>43270</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="55.2">
+    <row r="143" spans="1:10" ht="41.4">
       <c r="A143" s="159" t="s">
         <v>857</v>
       </c>
@@ -10189,85 +10182,101 @@
         <v>22</v>
       </c>
       <c r="D143" s="161" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E143" s="168"/>
-      <c r="F143" s="197" t="s">
-        <v>867</v>
-      </c>
-      <c r="G143" s="164"/>
-      <c r="H143" s="209" t="s">
-        <v>962</v>
+      <c r="F143" s="179" t="s">
+        <v>865</v>
+      </c>
+      <c r="G143" s="164" t="s">
+        <v>863</v>
+      </c>
+      <c r="H143" s="181" t="s">
+        <v>963</v>
       </c>
       <c r="I143" s="165">
         <v>43270</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="41.4">
+    <row r="144" spans="1:10" ht="55.2">
       <c r="A144" s="159" t="s">
+        <v>857</v>
+      </c>
+      <c r="B144" s="160" t="s">
+        <v>77</v>
+      </c>
+      <c r="C144" s="160" t="s">
+        <v>22</v>
+      </c>
+      <c r="D144" s="161" t="s">
+        <v>866</v>
+      </c>
+      <c r="E144" s="168"/>
+      <c r="F144" s="197" t="s">
+        <v>867</v>
+      </c>
+      <c r="G144" s="164"/>
+      <c r="H144" s="209" t="s">
+        <v>962</v>
+      </c>
+      <c r="I144" s="165">
+        <v>43270</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="41.4">
+      <c r="A145" s="159" t="s">
         <v>868</v>
       </c>
-      <c r="B144" s="164" t="s">
+      <c r="B145" s="164" t="s">
         <v>142</v>
-      </c>
-      <c r="C144" s="164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D144" s="183" t="s">
-        <v>869</v>
-      </c>
-      <c r="E144" s="210" t="s">
-        <v>870</v>
-      </c>
-      <c r="F144" s="187" t="s">
-        <v>760</v>
-      </c>
-      <c r="G144" s="164" t="s">
-        <v>877</v>
-      </c>
-      <c r="H144" s="209" t="s">
-        <v>964</v>
-      </c>
-      <c r="I144" s="165">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="27.6">
-      <c r="A145" s="159" t="s">
-        <v>878</v>
-      </c>
-      <c r="B145" s="164" t="s">
-        <v>763</v>
       </c>
       <c r="C145" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="D145" s="186" t="s">
+      <c r="D145" s="183" t="s">
+        <v>869</v>
+      </c>
+      <c r="E145" s="210" t="s">
+        <v>870</v>
+      </c>
+      <c r="F145" s="187" t="s">
+        <v>760</v>
+      </c>
+      <c r="G145" s="164" t="s">
+        <v>877</v>
+      </c>
+      <c r="H145" s="209" t="s">
+        <v>964</v>
+      </c>
+      <c r="I145" s="165">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="27.6">
+      <c r="A146" s="159" t="s">
+        <v>878</v>
+      </c>
+      <c r="B146" s="164" t="s">
+        <v>763</v>
+      </c>
+      <c r="C146" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146" s="186" t="s">
         <v>883</v>
       </c>
-      <c r="F145" s="187" t="s">
+      <c r="F146" s="187" t="s">
         <v>894</v>
       </c>
-      <c r="H145" s="209" t="s">
+      <c r="H146" s="209" t="s">
         <v>962</v>
       </c>
-      <c r="I145" s="211">
+      <c r="I146" s="211">
         <v>43288</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
-      <c r="D146" s="164"/>
-    </row>
-    <row r="147" spans="1:9" ht="14.1">
-      <c r="A147" s="159"/>
-      <c r="B147" s="160"/>
-      <c r="C147" s="160"/>
-      <c r="D147" s="160"/>
-      <c r="E147" s="168"/>
-      <c r="F147" s="199"/>
-      <c r="G147" s="164"/>
-      <c r="H147" s="164"/>
-      <c r="I147" s="165"/>
+    <row r="147" spans="1:9">
+      <c r="D147" s="164"/>
     </row>
     <row r="148" spans="1:9" ht="14.1">
       <c r="A148" s="159"/>
@@ -10346,9 +10355,20 @@
       <c r="H154" s="164"/>
       <c r="I154" s="165"/>
     </row>
+    <row r="155" spans="1:9" ht="14.1">
+      <c r="A155" s="159"/>
+      <c r="B155" s="160"/>
+      <c r="C155" s="160"/>
+      <c r="D155" s="160"/>
+      <c r="E155" s="168"/>
+      <c r="F155" s="199"/>
+      <c r="G155" s="164"/>
+      <c r="H155" s="164"/>
+      <c r="I155" s="165"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F122" r:id="rId1" location="gid=314589613&amp;range=309:309" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F123" r:id="rId1" location="gid=314589613&amp;range=309:309" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -10405,10 +10425,10 @@
       <c r="H1" s="270" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="304" t="s">
+      <c r="I1" s="306" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="305"/>
+      <c r="J1" s="307"/>
     </row>
     <row r="2" spans="1:10" s="276" customFormat="1" ht="24.6">
       <c r="A2" s="273"/>
@@ -11152,10 +11172,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="308" t="s">
+      <c r="I1" s="310" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="307"/>
+      <c r="J1" s="309"/>
     </row>
     <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="1"/>
@@ -11226,13 +11246,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="86.4">
-      <c r="A5" s="311" t="s">
+      <c r="A5" s="313" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="306" t="s">
+      <c r="B5" s="308" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="306" t="s">
+      <c r="C5" s="308" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -11254,9 +11274,9 @@
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="86.4">
-      <c r="A6" s="307"/>
-      <c r="B6" s="307"/>
-      <c r="C6" s="307"/>
+      <c r="A6" s="309"/>
+      <c r="B6" s="309"/>
+      <c r="C6" s="309"/>
       <c r="D6" s="13" t="s">
         <v>68</v>
       </c>
@@ -11274,7 +11294,7 @@
       <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10" ht="36.9">
-      <c r="A7" s="311" t="s">
+      <c r="A7" s="313" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -11304,7 +11324,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="36.9">
-      <c r="A8" s="307"/>
+      <c r="A8" s="309"/>
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
@@ -11331,7 +11351,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="36.9">
-      <c r="A9" s="310"/>
+      <c r="A9" s="312"/>
       <c r="B9" s="41" t="s">
         <v>21</v>
       </c>
@@ -11383,7 +11403,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="36.9">
-      <c r="A11" s="312" t="s">
+      <c r="A11" s="314" t="s">
         <v>117</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -11412,7 +11432,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="36.9">
-      <c r="A12" s="307"/>
+      <c r="A12" s="309"/>
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
@@ -11439,7 +11459,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.6">
-      <c r="A13" s="307"/>
+      <c r="A13" s="309"/>
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -11466,7 +11486,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="36.9">
-      <c r="A14" s="307"/>
+      <c r="A14" s="309"/>
       <c r="B14" s="41" t="s">
         <v>21</v>
       </c>
@@ -12014,7 +12034,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="36.9">
-      <c r="A41" s="309" t="s">
+      <c r="A41" s="311" t="s">
         <v>368</v>
       </c>
       <c r="B41" s="77" t="s">
@@ -12044,7 +12064,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="36.9">
-      <c r="A42" s="307"/>
+      <c r="A42" s="309"/>
       <c r="B42" s="8" t="s">
         <v>21</v>
       </c>
@@ -12072,7 +12092,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="61.5">
-      <c r="A43" s="307"/>
+      <c r="A43" s="309"/>
       <c r="B43" s="8" t="s">
         <v>21</v>
       </c>
@@ -12100,7 +12120,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="36.9">
-      <c r="A44" s="307"/>
+      <c r="A44" s="309"/>
       <c r="B44" s="8" t="s">
         <v>21</v>
       </c>
@@ -12128,7 +12148,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="36.9">
-      <c r="A45" s="307"/>
+      <c r="A45" s="309"/>
       <c r="B45" s="8" t="s">
         <v>21</v>
       </c>
@@ -12156,7 +12176,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="36.9">
-      <c r="A46" s="307"/>
+      <c r="A46" s="309"/>
       <c r="B46" s="8" t="s">
         <v>21</v>
       </c>
@@ -12184,7 +12204,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="36.9">
-      <c r="A47" s="307"/>
+      <c r="A47" s="309"/>
       <c r="B47" s="8" t="s">
         <v>21</v>
       </c>
@@ -12212,7 +12232,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="36.9">
-      <c r="A48" s="307"/>
+      <c r="A48" s="309"/>
       <c r="B48" s="8" t="s">
         <v>21</v>
       </c>
@@ -12240,7 +12260,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="36.9">
-      <c r="A49" s="307"/>
+      <c r="A49" s="309"/>
       <c r="B49" s="8" t="s">
         <v>21</v>
       </c>
@@ -12268,7 +12288,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="36.9">
-      <c r="A50" s="310"/>
+      <c r="A50" s="312"/>
       <c r="B50" s="41" t="s">
         <v>21</v>
       </c>
@@ -12356,7 +12376,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="61.5">
-      <c r="A53" s="309" t="s">
+      <c r="A53" s="311" t="s">
         <v>487</v>
       </c>
       <c r="B53" s="77" t="s">
@@ -12386,7 +12406,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="36.9">
-      <c r="A54" s="310"/>
+      <c r="A54" s="312"/>
       <c r="B54" s="41" t="s">
         <v>21</v>
       </c>
@@ -13516,7 +13536,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="36.9">
-      <c r="A93" s="311" t="s">
+      <c r="A93" s="313" t="s">
         <v>770</v>
       </c>
       <c r="B93" s="8" t="s">
@@ -13546,7 +13566,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="36.9">
-      <c r="A94" s="307"/>
+      <c r="A94" s="309"/>
       <c r="B94" s="8" t="s">
         <v>45</v>
       </c>
@@ -13574,7 +13594,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="36.9">
-      <c r="A95" s="307"/>
+      <c r="A95" s="309"/>
       <c r="B95" s="8" t="s">
         <v>45</v>
       </c>
@@ -13602,7 +13622,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="36.9">
-      <c r="A96" s="307"/>
+      <c r="A96" s="309"/>
       <c r="B96" s="8" t="s">
         <v>45</v>
       </c>
@@ -13630,7 +13650,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="24.6">
-      <c r="A97" s="307"/>
+      <c r="A97" s="309"/>
       <c r="B97" s="8" t="s">
         <v>45</v>
       </c>
@@ -13658,7 +13678,7 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="24.6">
-      <c r="A98" s="307"/>
+      <c r="A98" s="309"/>
       <c r="B98" s="8" t="s">
         <v>45</v>
       </c>
@@ -13686,7 +13706,7 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="36.9">
-      <c r="A99" s="307"/>
+      <c r="A99" s="309"/>
       <c r="B99" s="8" t="s">
         <v>45</v>
       </c>
@@ -13714,7 +13734,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="36.9">
-      <c r="A100" s="307"/>
+      <c r="A100" s="309"/>
       <c r="B100" s="8" t="s">
         <v>45</v>
       </c>
@@ -14603,10 +14623,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="313" t="s">
+      <c r="I1" s="315" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="307"/>
+      <c r="J1" s="309"/>
     </row>
     <row r="2" spans="1:10" ht="24.6">
       <c r="A2" s="3"/>

--- a/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
+++ b/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barbj\Documents\Infoway-Health Canada CCDD\formulary\Working QA Team Folders\Pre- Release QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8CE121D7-BE02-4341-9643-EF065CB45640}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D3E9E178-8805-4646-ADDD-684973CCBA59}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="17268" windowHeight="5256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="1105">
   <si>
     <t>TM</t>
   </si>
@@ -4752,6 +4752,12 @@
   <si>
     <t>(Discussed at Webex meeting in July - Barb will follow up with Julie re. 23.2 vs. 20 mcg and then add to combination product table).</t>
   </si>
+  <si>
+    <t>MP: PDP-AMANTADINE HYDROCHLORIDE SYRUP (amantadine hydrochloride 10 mg per mL syrup) PENDOPHARM DIVISION OF PHARMASCIENCE INC</t>
+  </si>
+  <si>
+    <t>Louise: decision at Webex call to change this to 50 mg per 5 mL in DPD.</t>
+  </si>
 </sst>
 </file>
 
@@ -4763,7 +4769,7 @@
     <numFmt numFmtId="166" formatCode="#0"/>
     <numFmt numFmtId="167" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="64">
+  <fonts count="65">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5119,6 +5125,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00008B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5416,7 +5428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="316">
+  <cellXfs count="318">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6336,6 +6348,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6664,8 +6682,8 @@
   <dimension ref="A1:J155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
@@ -7087,15 +7105,21 @@
       </c>
       <c r="I17" s="165"/>
     </row>
-    <row r="18" spans="1:9" ht="14.1">
+    <row r="18" spans="1:9" ht="72">
       <c r="A18" s="159" t="s">
         <v>1101</v>
       </c>
       <c r="B18" s="160"/>
       <c r="C18" s="160"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="168"/>
-      <c r="F18" s="179"/>
+      <c r="D18" s="316">
+        <v>2022826</v>
+      </c>
+      <c r="E18" s="317" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F18" s="179" t="s">
+        <v>1104</v>
+      </c>
       <c r="G18" s="164"/>
       <c r="H18" s="181"/>
       <c r="I18" s="165"/>

--- a/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
+++ b/Working QA Team Folders/Pre- Release QA/Action Items (Master).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barbj\Documents\Infoway-Health Canada CCDD\formulary\Working QA Team Folders\Pre- Release QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D3E9E178-8805-4646-ADDD-684973CCBA59}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{830AF6AB-1520-4EA2-B2AA-4803E2870FBD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="17268" windowHeight="5256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,12 +610,6 @@
     <t xml:space="preserve">Presentation strength  (per 1 mL) and unit of presentation (syringe). </t>
   </si>
   <si>
-    <t>amcinonide 0.1 % cutaneous lotion*</t>
-  </si>
-  <si>
-    <t>Dose form of "lotion" under discussed. BFJ</t>
-  </si>
-  <si>
     <t>DIN: 02453762</t>
   </si>
   <si>
@@ -623,9 +617,6 @@
   </si>
   <si>
     <t>DIN: 02453819</t>
-  </si>
-  <si>
-    <t>Dose form should be cutaneous suspension; likely to be actioned by the Dose form transform</t>
   </si>
   <si>
     <t>amphetamine and dextroamphetamine</t>
@@ -4757,6 +4748,48 @@
   </si>
   <si>
     <t>Louise: decision at Webex call to change this to 50 mg per 5 mL in DPD.</t>
+  </si>
+  <si>
+    <t>amcinonide 0.1 % cutaneous lotion</t>
+  </si>
+  <si>
+    <t>Louise/Jo-Anne/DPD: Julie has requested that this be changed to cutaneous emulsion in DPD. Bfj</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dose form should be cutaneous suspension; likely to be actioned by the Dose form transform
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">From email July 17: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>o   Please can the one product in DPD change its dose form to “cutaneous emulsion”.
+§  02247097; RATIO-AMCINONIDE
+o   This contains emulsifying wax as an excipient, so must be an emulsion!  Looking at a label on the FDA website, it also says “contains 1mg of amcinonide in a white, smooth, homogenous, opaque emulsion” [https://www.drugs.com/pro/amcinonide-lotion.html]</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6325,6 +6358,12 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6348,12 +6387,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6682,8 +6715,8 @@
   <dimension ref="A1:J155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
@@ -6735,18 +6768,18 @@
     </row>
     <row r="2" spans="1:10" ht="234.6">
       <c r="A2" s="159" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B2" s="160"/>
       <c r="C2" s="160"/>
       <c r="D2" s="161" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="162" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="163" t="s">
         <v>262</v>
-      </c>
-      <c r="E2" s="162" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="163" t="s">
-        <v>265</v>
       </c>
       <c r="G2" s="160"/>
       <c r="H2" s="164"/>
@@ -6756,7 +6789,7 @@
     </row>
     <row r="3" spans="1:10" ht="98.7">
       <c r="A3" s="159" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="B3" s="160"/>
       <c r="C3" s="160"/>
@@ -6764,10 +6797,10 @@
         <v>2246848</v>
       </c>
       <c r="E3" s="219" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="F3" s="163" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="G3" s="160"/>
       <c r="H3" s="164"/>
@@ -6877,20 +6910,20 @@
     </row>
     <row r="8" spans="1:10" ht="345">
       <c r="A8" s="170" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B8" s="164" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C8" s="160"/>
       <c r="D8" s="171">
         <v>2368196</v>
       </c>
       <c r="E8" s="172" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F8" s="163" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="G8" s="160"/>
       <c r="H8" s="164"/>
@@ -6898,20 +6931,20 @@
     </row>
     <row r="9" spans="1:10" ht="358.8">
       <c r="A9" s="173" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B9" s="164" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C9" s="160"/>
       <c r="D9" s="174">
         <v>2388537</v>
       </c>
       <c r="E9" s="172" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="F9" s="163" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G9" s="160"/>
       <c r="H9" s="164"/>
@@ -6919,20 +6952,20 @@
     </row>
     <row r="10" spans="1:10" ht="409.5">
       <c r="A10" s="170" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B10" s="164" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C10" s="160"/>
       <c r="D10" s="174">
         <v>2383608</v>
       </c>
       <c r="E10" s="175" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="F10" s="176" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="G10" s="176"/>
       <c r="H10" s="164"/>
@@ -6940,23 +6973,23 @@
     </row>
     <row r="11" spans="1:10" ht="69">
       <c r="A11" s="173" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B11" s="164" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C11" s="160"/>
       <c r="D11" s="193" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E11" s="221" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="F11" s="166" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="G11" s="176" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="H11" s="164"/>
       <c r="I11" s="165">
@@ -6965,18 +6998,18 @@
     </row>
     <row r="12" spans="1:10" ht="27.6">
       <c r="A12" s="170" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B12" s="164" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="C12" s="160"/>
       <c r="D12" s="222" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="E12" s="166"/>
       <c r="F12" s="166" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="G12" s="176"/>
       <c r="H12" s="164"/>
@@ -6986,23 +7019,23 @@
     </row>
     <row r="13" spans="1:10" ht="41.4">
       <c r="A13" s="173" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B13" s="164" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C13" s="160"/>
       <c r="D13" s="222" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E13" s="221" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="F13" s="166" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G13" s="176" t="s">
         <v>1011</v>
-      </c>
-      <c r="G13" s="176" t="s">
-        <v>1014</v>
       </c>
       <c r="H13" s="164"/>
       <c r="I13" s="165">
@@ -7026,11 +7059,11 @@
         <v>92</v>
       </c>
       <c r="F14" s="163" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G14" s="180"/>
       <c r="H14" s="181" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="I14" s="165">
         <v>43196</v>
@@ -7074,7 +7107,7 @@
         <v>105</v>
       </c>
       <c r="H16" s="164" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="I16" s="165">
         <v>43271</v>
@@ -7101,24 +7134,24 @@
         <v>120</v>
       </c>
       <c r="H17" s="181" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="I17" s="165"/>
     </row>
     <row r="18" spans="1:9" ht="72">
       <c r="A18" s="159" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B18" s="160"/>
       <c r="C18" s="160"/>
-      <c r="D18" s="316">
+      <c r="D18" s="306">
         <v>2022826</v>
       </c>
-      <c r="E18" s="317" t="s">
-        <v>1103</v>
+      <c r="E18" s="307" t="s">
+        <v>1100</v>
       </c>
       <c r="F18" s="179" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="G18" s="164"/>
       <c r="H18" s="181"/>
@@ -7145,7 +7178,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="41.4">
+    <row r="20" spans="1:9" ht="289.8">
       <c r="A20" s="182" t="s">
         <v>121</v>
       </c>
@@ -7159,14 +7192,14 @@
         <v>127</v>
       </c>
       <c r="E20" s="184" t="s">
-        <v>129</v>
+        <v>1102</v>
       </c>
       <c r="F20" s="163" t="s">
-        <v>130</v>
+        <v>1103</v>
       </c>
       <c r="G20" s="180"/>
       <c r="H20" s="185" t="s">
-        <v>134</v>
+        <v>1104</v>
       </c>
       <c r="I20" s="165">
         <v>43240</v>
@@ -7174,35 +7207,35 @@
     </row>
     <row r="21" spans="1:9" ht="42.3">
       <c r="A21" s="159" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B21" s="164" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C21" s="177" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D21" s="164" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="162"/>
       <c r="F21" s="164" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G21" s="164" t="s">
-        <v>140</v>
-      </c>
-      <c r="H21" s="164"/>
+        <v>137</v>
+      </c>
+      <c r="H21" s="181"/>
       <c r="I21" s="165">
         <v>43196</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="27.6">
       <c r="A22" s="159" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B22" s="164" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C22" s="164" t="s">
         <v>22</v>
@@ -7210,7 +7243,7 @@
       <c r="D22" s="161"/>
       <c r="E22" s="162"/>
       <c r="F22" s="185" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G22" s="164"/>
       <c r="H22" s="164"/>
@@ -7220,46 +7253,46 @@
     </row>
     <row r="23" spans="1:9" ht="165.6">
       <c r="A23" s="159" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B23" s="164" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C23" s="177" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D23" s="186"/>
       <c r="E23" s="168" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F23" s="185" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="164" t="s">
         <v>174</v>
-      </c>
-      <c r="G23" s="164" t="s">
-        <v>177</v>
       </c>
       <c r="H23" s="164"/>
       <c r="I23" s="165"/>
     </row>
     <row r="24" spans="1:9" ht="55.2">
       <c r="A24" s="159" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B24" s="164" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C24" s="164" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="161" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E24" s="162"/>
       <c r="F24" s="187" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G24" s="188" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H24" s="164"/>
       <c r="I24" s="165">
@@ -7268,22 +7301,22 @@
     </row>
     <row r="25" spans="1:9" ht="55.2">
       <c r="A25" s="159" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B25" s="164" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C25" s="164" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="161" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E25" s="172" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F25" s="187" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G25" s="164"/>
       <c r="H25" s="164"/>
@@ -7293,20 +7326,20 @@
     </row>
     <row r="26" spans="1:9" ht="69">
       <c r="A26" s="159" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B26" s="160" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C26" s="160" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D26" s="166" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E26" s="168"/>
       <c r="F26" s="163" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G26" s="180"/>
       <c r="H26" s="185"/>
@@ -7316,23 +7349,23 @@
     </row>
     <row r="27" spans="1:9" ht="41.4">
       <c r="A27" s="159" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B27" s="160" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C27" s="189" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D27" s="166" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E27" s="168"/>
       <c r="F27" s="166" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G27" s="180" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H27" s="164"/>
       <c r="I27" s="165">
@@ -7341,24 +7374,24 @@
     </row>
     <row r="28" spans="1:9" ht="28.2">
       <c r="A28" s="159" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" s="160" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="160" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" s="160" t="s">
         <v>209</v>
-      </c>
-      <c r="B28" s="160" t="s">
-        <v>205</v>
-      </c>
-      <c r="C28" s="160" t="s">
-        <v>211</v>
-      </c>
-      <c r="D28" s="160" t="s">
-        <v>212</v>
       </c>
       <c r="E28" s="168"/>
       <c r="F28" s="185" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G28" s="180"/>
       <c r="H28" s="181" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I28" s="165">
         <v>43196</v>
@@ -7366,45 +7399,45 @@
     </row>
     <row r="29" spans="1:9" ht="69">
       <c r="A29" s="159" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B29" s="160" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C29" s="186"/>
       <c r="D29" s="161" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E29" s="178"/>
       <c r="F29" s="187" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G29" s="180" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H29" s="181"/>
       <c r="I29" s="165"/>
     </row>
     <row r="30" spans="1:9" ht="55.2">
       <c r="A30" s="159" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B30" s="164" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C30" s="164"/>
       <c r="D30" s="160" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E30" s="168" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F30" s="163" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G30" s="180"/>
       <c r="H30" s="164" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I30" s="165">
         <v>43196</v>
@@ -7412,18 +7445,18 @@
     </row>
     <row r="31" spans="1:9" ht="55.2">
       <c r="A31" s="182" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B31" s="164"/>
       <c r="C31" s="164"/>
       <c r="D31" s="160" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E31" s="168" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F31" s="163" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G31" s="180"/>
       <c r="H31" s="164"/>
@@ -7433,18 +7466,18 @@
     </row>
     <row r="32" spans="1:9" ht="55.2">
       <c r="A32" s="182" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B32" s="164"/>
       <c r="C32" s="164"/>
       <c r="D32" s="160" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E32" s="168" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F32" s="163" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G32" s="180"/>
       <c r="H32" s="164"/>
@@ -7454,18 +7487,18 @@
     </row>
     <row r="33" spans="1:10" ht="55.2">
       <c r="A33" s="182" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B33" s="164"/>
       <c r="C33" s="164"/>
       <c r="D33" s="160" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E33" s="168" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F33" s="163" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G33" s="180"/>
       <c r="H33" s="164"/>
@@ -7475,7 +7508,7 @@
     </row>
     <row r="34" spans="1:10" ht="41.4">
       <c r="A34" s="159" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B34" s="190" t="str">
         <f>HYPERLINK("https://docs.google.com/spreadsheets/d/1CZZj8fSMSaEaqlK8KCBOVHZaJixwFi-xHDmvUY_rwCk/edit#gid=1997930010&amp;range=A3:A19","Master: Antibacterials A")</f>
@@ -7483,13 +7516,13 @@
       </c>
       <c r="C34" s="164"/>
       <c r="D34" s="161" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E34" s="162" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F34" s="187" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G34" s="164"/>
       <c r="H34" s="164"/>
@@ -7499,20 +7532,20 @@
     </row>
     <row r="35" spans="1:10" ht="110.4">
       <c r="A35" s="159" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B35" s="160" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="160" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D35" s="166" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E35" s="168"/>
       <c r="F35" s="163" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="G35" s="180"/>
       <c r="I35" s="165">
@@ -7521,21 +7554,21 @@
     </row>
     <row r="36" spans="1:10" ht="110.4">
       <c r="A36" s="182" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B36" s="160"/>
       <c r="C36" s="160"/>
       <c r="D36" s="160" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E36" s="168" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F36" s="179" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G36" s="160" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="H36" s="164"/>
       <c r="I36" s="165">
@@ -7544,21 +7577,21 @@
     </row>
     <row r="37" spans="1:10" ht="69">
       <c r="A37" s="182" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B37" s="160"/>
       <c r="C37" s="160"/>
       <c r="D37" s="160" t="s">
+        <v>237</v>
+      </c>
+      <c r="E37" s="168" t="s">
+        <v>238</v>
+      </c>
+      <c r="F37" s="163" t="s">
+        <v>239</v>
+      </c>
+      <c r="G37" s="160" t="s">
         <v>240</v>
-      </c>
-      <c r="E37" s="168" t="s">
-        <v>241</v>
-      </c>
-      <c r="F37" s="163" t="s">
-        <v>242</v>
-      </c>
-      <c r="G37" s="160" t="s">
-        <v>243</v>
       </c>
       <c r="H37" s="164"/>
       <c r="I37" s="165">
@@ -7567,66 +7600,66 @@
     </row>
     <row r="38" spans="1:10" ht="55.2">
       <c r="A38" s="159" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B38" s="160" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C38" s="160"/>
       <c r="D38" s="160" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E38" s="168" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="F38" s="163" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G38" s="160" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="H38" s="164"/>
       <c r="I38" s="165"/>
     </row>
     <row r="39" spans="1:10" ht="69">
       <c r="A39" s="182" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B39" s="160" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C39" s="160"/>
       <c r="D39" s="160" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E39" s="168" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="F39" s="163" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G39" s="160" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="H39" s="164"/>
       <c r="I39" s="165"/>
     </row>
     <row r="40" spans="1:10" ht="317.39999999999998">
       <c r="A40" s="159" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B40" s="160" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C40" s="160"/>
       <c r="D40" s="161" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E40" s="172" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F40" s="163" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="G40" s="191"/>
       <c r="H40" s="192"/>
@@ -7634,24 +7667,24 @@
         <v>9005524</v>
       </c>
       <c r="J40" s="192" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="303.60000000000002">
       <c r="A41" s="182" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B41" s="166" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C41" s="193">
         <v>2399733</v>
       </c>
       <c r="E41" s="172" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F41" s="194" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="G41" s="191"/>
       <c r="H41" s="192"/>
@@ -7660,29 +7693,29 @@
     </row>
     <row r="42" spans="1:10" ht="151.80000000000001">
       <c r="A42" s="159" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" s="164" t="s">
+        <v>264</v>
+      </c>
+      <c r="D42" s="160" t="s">
+        <v>265</v>
+      </c>
+      <c r="E42" s="168" t="s">
         <v>266</v>
       </c>
-      <c r="B42" s="164" t="s">
+      <c r="F42" s="163" t="s">
         <v>267</v>
       </c>
-      <c r="D42" s="160" t="s">
+      <c r="G42" s="160" t="s">
         <v>268</v>
-      </c>
-      <c r="E42" s="168" t="s">
-        <v>269</v>
-      </c>
-      <c r="F42" s="163" t="s">
-        <v>270</v>
-      </c>
-      <c r="G42" s="160" t="s">
-        <v>271</v>
       </c>
       <c r="H42" s="164"/>
       <c r="I42" s="165"/>
     </row>
     <row r="43" spans="1:10" ht="96.6">
       <c r="A43" s="182" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B43" s="164" t="s">
         <v>21</v>
@@ -7691,19 +7724,19 @@
         <v>22</v>
       </c>
       <c r="D43" s="161" t="s">
+        <v>270</v>
+      </c>
+      <c r="E43" s="168" t="s">
+        <v>271</v>
+      </c>
+      <c r="F43" s="185" t="s">
+        <v>944</v>
+      </c>
+      <c r="G43" s="185" t="s">
+        <v>272</v>
+      </c>
+      <c r="H43" s="164" t="s">
         <v>273</v>
-      </c>
-      <c r="E43" s="168" t="s">
-        <v>274</v>
-      </c>
-      <c r="F43" s="185" t="s">
-        <v>947</v>
-      </c>
-      <c r="G43" s="185" t="s">
-        <v>275</v>
-      </c>
-      <c r="H43" s="164" t="s">
-        <v>276</v>
       </c>
       <c r="I43" s="165">
         <v>43240</v>
@@ -7711,7 +7744,7 @@
     </row>
     <row r="44" spans="1:10" ht="82.8">
       <c r="A44" s="159" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B44" s="164" t="s">
         <v>21</v>
@@ -7720,19 +7753,19 @@
         <v>22</v>
       </c>
       <c r="D44" s="186" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E44" s="168" t="s">
+        <v>277</v>
+      </c>
+      <c r="F44" s="185" t="s">
+        <v>945</v>
+      </c>
+      <c r="G44" s="185" t="s">
         <v>280</v>
       </c>
-      <c r="F44" s="185" t="s">
-        <v>948</v>
-      </c>
-      <c r="G44" s="185" t="s">
-        <v>283</v>
-      </c>
       <c r="H44" s="164" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I44" s="165">
         <v>43240</v>
@@ -7740,7 +7773,7 @@
     </row>
     <row r="45" spans="1:10" ht="82.8">
       <c r="A45" s="182" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B45" s="164" t="s">
         <v>21</v>
@@ -7749,19 +7782,19 @@
         <v>22</v>
       </c>
       <c r="D45" s="186" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E45" s="168" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F45" s="163" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="G45" s="185" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H45" s="164" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I45" s="165">
         <v>43240</v>
@@ -7769,28 +7802,28 @@
     </row>
     <row r="46" spans="1:10" ht="96.6">
       <c r="A46" s="159" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B46" s="164" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C46" s="195">
         <v>8000036</v>
       </c>
       <c r="D46" s="195" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E46" s="168" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F46" s="217" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G46" s="160" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="H46" s="181" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="I46" s="165">
         <v>43292</v>
@@ -7798,28 +7831,28 @@
     </row>
     <row r="47" spans="1:10" ht="41.4">
       <c r="A47" s="159" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B47" s="164" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C47" s="195">
         <v>8000036</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E47" s="168" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F47" s="217" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G47" s="160" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H47" s="181" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="I47" s="165">
         <v>43292</v>
@@ -7827,28 +7860,28 @@
     </row>
     <row r="48" spans="1:10" ht="55.2">
       <c r="A48" s="159" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B48" s="164" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C48" s="195">
         <v>8000036</v>
       </c>
       <c r="D48" s="195" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E48" s="168" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F48" s="187" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="G48" s="160" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H48" s="181" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I48" s="165">
         <v>43292</v>
@@ -7856,25 +7889,25 @@
     </row>
     <row r="49" spans="1:9" ht="151.80000000000001">
       <c r="A49" s="159" t="s">
+        <v>312</v>
+      </c>
+      <c r="B49" s="164" t="s">
+        <v>313</v>
+      </c>
+      <c r="C49" s="160" t="s">
+        <v>314</v>
+      </c>
+      <c r="D49" s="196" t="s">
         <v>315</v>
       </c>
-      <c r="B49" s="164" t="s">
+      <c r="E49" s="168" t="s">
         <v>316</v>
       </c>
-      <c r="C49" s="160" t="s">
+      <c r="F49" s="185" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G49" s="160" t="s">
         <v>317</v>
-      </c>
-      <c r="D49" s="196" t="s">
-        <v>318</v>
-      </c>
-      <c r="E49" s="168" t="s">
-        <v>319</v>
-      </c>
-      <c r="F49" s="185" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G49" s="160" t="s">
-        <v>320</v>
       </c>
       <c r="H49" s="164"/>
       <c r="I49" s="165">
@@ -7883,7 +7916,7 @@
     </row>
     <row r="50" spans="1:9" ht="69.3">
       <c r="A50" s="159" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B50" s="164" t="s">
         <v>21</v>
@@ -7892,13 +7925,13 @@
         <v>22</v>
       </c>
       <c r="D50" s="186" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E50" s="168" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F50" s="163" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="G50" s="185"/>
       <c r="H50" s="164"/>
@@ -7908,7 +7941,7 @@
     </row>
     <row r="51" spans="1:9" ht="41.4">
       <c r="A51" s="159" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B51" s="164" t="s">
         <v>21</v>
@@ -7917,16 +7950,16 @@
         <v>22</v>
       </c>
       <c r="D51" s="161" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E51" s="168" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F51" s="197" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G51" s="185" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="H51" s="164"/>
       <c r="I51" s="165">
@@ -7935,7 +7968,7 @@
     </row>
     <row r="52" spans="1:9" ht="41.4">
       <c r="A52" s="159" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B52" s="164" t="s">
         <v>21</v>
@@ -7944,16 +7977,16 @@
         <v>22</v>
       </c>
       <c r="D52" s="161" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E52" s="168" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F52" s="197" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G52" s="185" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="H52" s="164"/>
       <c r="I52" s="165">
@@ -7962,41 +7995,41 @@
     </row>
     <row r="53" spans="1:9" ht="193.2">
       <c r="A53" s="198" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B53" s="164" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C53" s="164"/>
       <c r="D53" s="161" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E53" s="168"/>
       <c r="F53" s="199" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G53" s="185" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H53" s="164"/>
       <c r="I53" s="165"/>
     </row>
     <row r="54" spans="1:9" ht="27.6">
       <c r="A54" s="198" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B54" s="164" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C54" s="164"/>
       <c r="D54" s="161" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E54" s="168" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="F54" s="215" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="G54" s="185"/>
       <c r="H54" s="164"/>
@@ -8006,23 +8039,23 @@
     </row>
     <row r="55" spans="1:9" ht="27.6">
       <c r="A55" s="159" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B55" s="160" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C55" s="160"/>
       <c r="D55" s="160" t="s">
+        <v>363</v>
+      </c>
+      <c r="E55" s="168" t="s">
+        <v>364</v>
+      </c>
+      <c r="F55" s="197" t="s">
         <v>366</v>
       </c>
-      <c r="E55" s="168" t="s">
+      <c r="G55" s="164" t="s">
         <v>367</v>
-      </c>
-      <c r="F55" s="197" t="s">
-        <v>369</v>
-      </c>
-      <c r="G55" s="164" t="s">
-        <v>370</v>
       </c>
       <c r="H55" s="164"/>
       <c r="I55" s="165">
@@ -8031,20 +8064,20 @@
     </row>
     <row r="56" spans="1:9" ht="179.4">
       <c r="A56" s="159" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B56" s="160" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C56" s="160"/>
       <c r="D56" s="160" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E56" s="168" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F56" s="199" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G56" s="164"/>
       <c r="H56" s="164"/>
@@ -8054,25 +8087,25 @@
     </row>
     <row r="57" spans="1:9" ht="41.4">
       <c r="A57" s="159" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B57" s="160" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C57" s="160" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="160" t="s">
+        <v>373</v>
+      </c>
+      <c r="E57" s="168" t="s">
+        <v>374</v>
+      </c>
+      <c r="F57" s="199" t="s">
+        <v>375</v>
+      </c>
+      <c r="G57" s="164" t="s">
         <v>376</v>
-      </c>
-      <c r="E57" s="168" t="s">
-        <v>377</v>
-      </c>
-      <c r="F57" s="199" t="s">
-        <v>378</v>
-      </c>
-      <c r="G57" s="164" t="s">
-        <v>379</v>
       </c>
       <c r="H57" s="164"/>
       <c r="I57" s="165">
@@ -8081,20 +8114,20 @@
     </row>
     <row r="58" spans="1:9" ht="41.4">
       <c r="A58" s="182" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B58" s="160" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C58" s="160" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="160" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E58" s="168"/>
       <c r="F58" s="197" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G58" s="164"/>
       <c r="H58" s="164"/>
@@ -8104,20 +8137,20 @@
     </row>
     <row r="59" spans="1:9" ht="41.4">
       <c r="A59" s="182" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B59" s="160" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C59" s="160" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="160" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E59" s="168"/>
       <c r="F59" s="197" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G59" s="164"/>
       <c r="H59" s="164"/>
@@ -8127,20 +8160,20 @@
     </row>
     <row r="60" spans="1:9" ht="41.4">
       <c r="A60" s="182" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B60" s="160" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C60" s="160" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="160" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E60" s="168"/>
       <c r="F60" s="197" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G60" s="164"/>
       <c r="H60" s="164"/>
@@ -8150,22 +8183,22 @@
     </row>
     <row r="61" spans="1:9" ht="55.2">
       <c r="A61" s="182" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B61" s="160" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C61" s="160" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="160" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E61" s="168" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="F61" s="199" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G61" s="164"/>
       <c r="H61" s="164"/>
@@ -8173,20 +8206,20 @@
     </row>
     <row r="62" spans="1:9" ht="41.4">
       <c r="A62" s="159" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B62" s="160" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C62" s="160"/>
       <c r="D62" s="160" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E62" s="168" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F62" s="199" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G62" s="164"/>
       <c r="H62" s="164"/>
@@ -8197,19 +8230,19 @@
         <v>76</v>
       </c>
       <c r="B63" s="164" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C63" s="164" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="164" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E63" s="162" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F63" s="185" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H63" s="164"/>
       <c r="I63" s="165">
@@ -8230,13 +8263,13 @@
         <v>2320789</v>
       </c>
       <c r="E64" s="168" t="s">
+        <v>395</v>
+      </c>
+      <c r="F64" s="199" t="s">
+        <v>397</v>
+      </c>
+      <c r="G64" s="164" t="s">
         <v>398</v>
-      </c>
-      <c r="F64" s="199" t="s">
-        <v>400</v>
-      </c>
-      <c r="G64" s="164" t="s">
-        <v>401</v>
       </c>
       <c r="H64" s="164"/>
       <c r="I64" s="165">
@@ -8254,16 +8287,16 @@
         <v>22</v>
       </c>
       <c r="D65" s="200" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E65" s="168" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F65" s="199" t="s">
+        <v>397</v>
+      </c>
+      <c r="G65" s="164" t="s">
         <v>400</v>
-      </c>
-      <c r="G65" s="164" t="s">
-        <v>403</v>
       </c>
       <c r="H65" s="164"/>
       <c r="I65" s="165">
@@ -8281,16 +8314,16 @@
         <v>22</v>
       </c>
       <c r="D66" s="200" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E66" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F66" s="199" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G66" s="164" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H66" s="164"/>
       <c r="I66" s="165">
@@ -8308,16 +8341,16 @@
         <v>22</v>
       </c>
       <c r="D67" s="200" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E67" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F67" s="199" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G67" s="200" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H67" s="164"/>
       <c r="I67" s="165">
@@ -8335,16 +8368,16 @@
         <v>22</v>
       </c>
       <c r="D68" s="200" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E68" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F68" s="199" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G68" s="200" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H68" s="164"/>
       <c r="I68" s="165"/>
@@ -8360,16 +8393,16 @@
         <v>22</v>
       </c>
       <c r="D69" s="200" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E69" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F69" s="199" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G69" s="200" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H69" s="164"/>
       <c r="I69" s="165"/>
@@ -8385,16 +8418,16 @@
         <v>22</v>
       </c>
       <c r="D70" s="186" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E70" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F70" s="199" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G70" s="200" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H70" s="164"/>
       <c r="I70" s="165"/>
@@ -8410,16 +8443,16 @@
         <v>22</v>
       </c>
       <c r="D71" s="186" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E71" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F71" s="199" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G71" s="200" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H71" s="164"/>
       <c r="I71" s="165"/>
@@ -8435,23 +8468,23 @@
         <v>22</v>
       </c>
       <c r="D72" s="186" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E72" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F72" s="199" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G72" s="200" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H72" s="164"/>
       <c r="I72" s="165"/>
     </row>
     <row r="73" spans="1:9" ht="262.2">
       <c r="A73" s="159" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B73" s="160" t="s">
         <v>77</v>
@@ -8463,20 +8496,20 @@
         <v>2368196</v>
       </c>
       <c r="E73" s="168" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F73" s="199" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G73" s="200" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H73" s="164"/>
       <c r="I73" s="165"/>
     </row>
     <row r="74" spans="1:9" ht="55.2">
       <c r="A74" s="182" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B74" s="160" t="s">
         <v>77</v>
@@ -8491,10 +8524,10 @@
         <v>100</v>
       </c>
       <c r="F74" s="199" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G74" s="200" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H74" s="164"/>
       <c r="I74" s="165">
@@ -8503,7 +8536,7 @@
     </row>
     <row r="75" spans="1:9" ht="56.4">
       <c r="A75" s="159" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B75" s="160" t="s">
         <v>77</v>
@@ -8518,10 +8551,10 @@
         <v>100</v>
       </c>
       <c r="F75" s="199" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G75" s="200" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H75" s="164"/>
       <c r="I75" s="165">
@@ -8530,20 +8563,20 @@
     </row>
     <row r="76" spans="1:9" ht="56.4">
       <c r="A76" s="203" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B76" s="160" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C76" s="160"/>
       <c r="D76" s="200" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E76" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F76" s="199" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G76" s="200"/>
       <c r="H76" s="164"/>
@@ -8553,7 +8586,7 @@
     </row>
     <row r="77" spans="1:9" ht="193.2">
       <c r="A77" s="159" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B77" s="160" t="s">
         <v>77</v>
@@ -8565,13 +8598,13 @@
         <v>2410583</v>
       </c>
       <c r="E77" s="168" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F77" s="199" t="s">
+        <v>444</v>
+      </c>
+      <c r="G77" s="200" t="s">
         <v>447</v>
-      </c>
-      <c r="G77" s="200" t="s">
-        <v>450</v>
       </c>
       <c r="H77" s="164"/>
       <c r="I77" s="165">
@@ -8580,23 +8613,23 @@
     </row>
     <row r="78" spans="1:9" ht="55.2">
       <c r="A78" s="159" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B78" s="160" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C78" s="160" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D78" s="164" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E78" s="204"/>
       <c r="F78" s="199" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G78" s="164" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H78" s="164"/>
       <c r="I78" s="165">
@@ -8605,21 +8638,21 @@
     </row>
     <row r="79" spans="1:9" ht="55.2">
       <c r="A79" s="182" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B79" s="160"/>
       <c r="C79" s="160"/>
       <c r="D79" s="160" t="s">
+        <v>454</v>
+      </c>
+      <c r="E79" s="168" t="s">
+        <v>455</v>
+      </c>
+      <c r="F79" s="197" t="s">
+        <v>456</v>
+      </c>
+      <c r="G79" s="164" t="s">
         <v>457</v>
-      </c>
-      <c r="E79" s="168" t="s">
-        <v>458</v>
-      </c>
-      <c r="F79" s="197" t="s">
-        <v>459</v>
-      </c>
-      <c r="G79" s="164" t="s">
-        <v>460</v>
       </c>
       <c r="H79" s="164"/>
       <c r="I79" s="165">
@@ -8628,26 +8661,26 @@
     </row>
     <row r="80" spans="1:9" ht="151.80000000000001">
       <c r="A80" s="159" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B80" s="160" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C80" s="160" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D80" s="164" t="s">
         <v>13</v>
       </c>
       <c r="E80" s="204"/>
       <c r="F80" s="197" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G80" s="164" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H80" s="164" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I80" s="165">
         <v>43196</v>
@@ -8655,23 +8688,23 @@
     </row>
     <row r="81" spans="1:9" ht="138">
       <c r="A81" s="159" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B81" s="160" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C81" s="160"/>
       <c r="D81" s="161" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E81" s="168" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F81" s="199" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="G81" s="164" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H81" s="164"/>
       <c r="I81" s="165">
@@ -8680,23 +8713,23 @@
     </row>
     <row r="82" spans="1:9" ht="41.4">
       <c r="A82" s="159" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B82" s="160" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C82" s="160"/>
       <c r="D82" s="161" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E82" s="300" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F82" s="197" t="s">
         <v>1058</v>
       </c>
-      <c r="E82" s="300" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F82" s="197" t="s">
-        <v>1061</v>
-      </c>
       <c r="G82" s="164" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="H82" s="164"/>
       <c r="I82" s="165">
@@ -8705,23 +8738,23 @@
     </row>
     <row r="83" spans="1:9" ht="55.2">
       <c r="A83" s="301" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B83" s="160" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C83" s="160"/>
       <c r="D83" s="161" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="E83" s="221" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="F83" s="197" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="G83" s="164" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="H83" s="164"/>
       <c r="I83" s="165">
@@ -8730,23 +8763,23 @@
     </row>
     <row r="84" spans="1:9" ht="41.4">
       <c r="A84" s="159" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B84" s="160" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C84" s="160"/>
       <c r="D84" s="161" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="E84" s="168" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="F84" s="197" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="G84" s="164" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="H84" s="164"/>
       <c r="I84" s="165">
@@ -8755,7 +8788,7 @@
     </row>
     <row r="85" spans="1:9" ht="409.5">
       <c r="A85" s="159" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B85" s="164" t="s">
         <v>45</v>
@@ -8764,16 +8797,16 @@
         <v>8001266</v>
       </c>
       <c r="D85" s="186" t="s">
+        <v>476</v>
+      </c>
+      <c r="E85" s="178" t="s">
+        <v>477</v>
+      </c>
+      <c r="F85" s="185" t="s">
+        <v>478</v>
+      </c>
+      <c r="G85" s="164" t="s">
         <v>479</v>
-      </c>
-      <c r="E85" s="178" t="s">
-        <v>480</v>
-      </c>
-      <c r="F85" s="185" t="s">
-        <v>481</v>
-      </c>
-      <c r="G85" s="164" t="s">
-        <v>482</v>
       </c>
       <c r="H85" s="164"/>
       <c r="I85" s="165">
@@ -8782,7 +8815,7 @@
     </row>
     <row r="86" spans="1:9" ht="41.4">
       <c r="A86" s="182" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B86" s="164" t="s">
         <v>45</v>
@@ -8791,16 +8824,16 @@
         <v>8001266</v>
       </c>
       <c r="D86" s="186" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E86" s="168" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F86" s="185" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G86" s="164" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H86" s="164"/>
       <c r="I86" s="165">
@@ -8809,7 +8842,7 @@
     </row>
     <row r="87" spans="1:9" ht="69">
       <c r="A87" s="182" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B87" s="164" t="s">
         <v>45</v>
@@ -8818,16 +8851,16 @@
         <v>8001266</v>
       </c>
       <c r="D87" s="186" t="s">
+        <v>486</v>
+      </c>
+      <c r="E87" s="205" t="s">
+        <v>487</v>
+      </c>
+      <c r="F87" s="185" t="s">
+        <v>488</v>
+      </c>
+      <c r="G87" s="164" t="s">
         <v>489</v>
-      </c>
-      <c r="E87" s="205" t="s">
-        <v>490</v>
-      </c>
-      <c r="F87" s="185" t="s">
-        <v>491</v>
-      </c>
-      <c r="G87" s="164" t="s">
-        <v>492</v>
       </c>
       <c r="H87" s="164"/>
       <c r="I87" s="165">
@@ -8836,7 +8869,7 @@
     </row>
     <row r="88" spans="1:9" ht="55.2">
       <c r="A88" s="182" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B88" s="164" t="s">
         <v>45</v>
@@ -8845,16 +8878,16 @@
         <v>8001266</v>
       </c>
       <c r="D88" s="186" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E88" s="168" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F88" s="185" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G88" s="166" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H88" s="160"/>
       <c r="I88" s="165">
@@ -8863,7 +8896,7 @@
     </row>
     <row r="89" spans="1:9" ht="138">
       <c r="A89" s="182" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B89" s="164" t="s">
         <v>45</v>
@@ -8872,16 +8905,16 @@
         <v>8001266</v>
       </c>
       <c r="D89" s="186" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E89" s="162" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F89" s="187" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="G89" s="185" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H89" s="180"/>
       <c r="I89" s="165">
@@ -8890,7 +8923,7 @@
     </row>
     <row r="90" spans="1:9" ht="69">
       <c r="A90" s="182" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B90" s="164" t="s">
         <v>45</v>
@@ -8899,16 +8932,16 @@
         <v>8001266</v>
       </c>
       <c r="D90" s="186" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E90" s="162" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F90" s="187" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G90" s="164" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H90" s="164"/>
       <c r="I90" s="165">
@@ -8917,7 +8950,7 @@
     </row>
     <row r="91" spans="1:9" ht="69">
       <c r="A91" s="182" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B91" s="164" t="s">
         <v>45</v>
@@ -8926,16 +8959,16 @@
         <v>8001266</v>
       </c>
       <c r="D91" s="186" t="s">
+        <v>498</v>
+      </c>
+      <c r="E91" s="162" t="s">
+        <v>499</v>
+      </c>
+      <c r="F91" s="187" t="s">
+        <v>500</v>
+      </c>
+      <c r="G91" s="164" t="s">
         <v>501</v>
-      </c>
-      <c r="E91" s="162" t="s">
-        <v>502</v>
-      </c>
-      <c r="F91" s="187" t="s">
-        <v>503</v>
-      </c>
-      <c r="G91" s="164" t="s">
-        <v>504</v>
       </c>
       <c r="H91" s="164"/>
       <c r="I91" s="165">
@@ -8944,19 +8977,19 @@
     </row>
     <row r="92" spans="1:9" ht="27.6">
       <c r="A92" s="159" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B92" s="164" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D92" s="189" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E92" s="221" t="s">
         <v>1015</v>
       </c>
-      <c r="B92" s="164" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D92" s="189" t="s">
+      <c r="F92" s="187" t="s">
         <v>1016</v>
-      </c>
-      <c r="E92" s="221" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F92" s="187" t="s">
-        <v>1019</v>
       </c>
       <c r="G92" s="164"/>
       <c r="H92" s="164"/>
@@ -8966,19 +8999,19 @@
     </row>
     <row r="93" spans="1:9" ht="27.6">
       <c r="A93" s="182" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B93" s="164" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D93" s="189" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E93" s="221" t="s">
         <v>1015</v>
       </c>
-      <c r="B93" s="164" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D93" s="189" t="s">
+      <c r="F93" s="187" t="s">
         <v>1017</v>
-      </c>
-      <c r="E93" s="221" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F93" s="187" t="s">
-        <v>1020</v>
       </c>
       <c r="G93" s="164"/>
       <c r="H93" s="164"/>
@@ -8988,22 +9021,22 @@
     </row>
     <row r="94" spans="1:9" ht="55.2">
       <c r="A94" s="159" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B94" s="160" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D94" s="189" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="E94" s="221" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="F94" s="187" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G94" s="164" t="s">
         <v>1075</v>
-      </c>
-      <c r="G94" s="164" t="s">
-        <v>1078</v>
       </c>
       <c r="H94" s="164"/>
       <c r="I94" s="165">
@@ -9012,19 +9045,19 @@
     </row>
     <row r="95" spans="1:9" ht="69">
       <c r="A95" s="159" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B95" s="164" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D95" s="189" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E95" s="223" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="F95" s="215" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="G95" s="164"/>
       <c r="H95" s="164"/>
@@ -9034,22 +9067,22 @@
     </row>
     <row r="96" spans="1:9" ht="27.6">
       <c r="A96" s="159" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B96" s="164" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D96" s="189" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E96" s="221" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F96" s="302" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G96" s="164" t="s">
         <v>1080</v>
-      </c>
-      <c r="B96" s="164" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D96" s="189" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E96" s="221" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F96" s="302" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G96" s="164" t="s">
-        <v>1083</v>
       </c>
       <c r="H96" s="164"/>
       <c r="I96" s="165">
@@ -9058,22 +9091,22 @@
     </row>
     <row r="97" spans="1:10" ht="69">
       <c r="A97" s="159" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B97" s="164" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C97" s="160" t="s">
+        <v>503</v>
+      </c>
+      <c r="D97" s="160" t="s">
+        <v>504</v>
+      </c>
+      <c r="E97" s="168" t="s">
+        <v>938</v>
+      </c>
+      <c r="F97" s="197" t="s">
         <v>506</v>
-      </c>
-      <c r="D97" s="160" t="s">
-        <v>507</v>
-      </c>
-      <c r="E97" s="168" t="s">
-        <v>941</v>
-      </c>
-      <c r="F97" s="197" t="s">
-        <v>509</v>
       </c>
       <c r="G97" s="164"/>
       <c r="H97" s="164"/>
@@ -9083,91 +9116,91 @@
     </row>
     <row r="98" spans="1:10" ht="96.6">
       <c r="A98" s="159" t="s">
+        <v>507</v>
+      </c>
+      <c r="B98" s="164" t="s">
+        <v>508</v>
+      </c>
+      <c r="C98" s="160" t="s">
+        <v>509</v>
+      </c>
+      <c r="E98" s="168" t="s">
         <v>510</v>
       </c>
-      <c r="B98" s="164" t="s">
-        <v>511</v>
-      </c>
-      <c r="C98" s="160" t="s">
+      <c r="F98" s="199" t="s">
+        <v>949</v>
+      </c>
+      <c r="G98" s="164" t="s">
         <v>512</v>
-      </c>
-      <c r="E98" s="168" t="s">
-        <v>513</v>
-      </c>
-      <c r="F98" s="199" t="s">
-        <v>952</v>
-      </c>
-      <c r="G98" s="164" t="s">
-        <v>515</v>
       </c>
       <c r="H98" s="164"/>
       <c r="I98" s="165"/>
     </row>
     <row r="99" spans="1:10" ht="138">
       <c r="A99" s="182" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B99" s="164" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C99" s="160"/>
       <c r="D99" s="160" t="s">
+        <v>513</v>
+      </c>
+      <c r="E99" s="168" t="s">
+        <v>514</v>
+      </c>
+      <c r="F99" s="199" t="s">
+        <v>950</v>
+      </c>
+      <c r="G99" s="164" t="s">
         <v>516</v>
-      </c>
-      <c r="E99" s="168" t="s">
-        <v>517</v>
-      </c>
-      <c r="F99" s="199" t="s">
-        <v>953</v>
-      </c>
-      <c r="G99" s="164" t="s">
-        <v>519</v>
       </c>
       <c r="H99" s="164"/>
       <c r="I99" s="165"/>
     </row>
     <row r="100" spans="1:10" ht="234.6">
       <c r="A100" s="182" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B100" s="164"/>
       <c r="C100" s="160"/>
       <c r="D100" s="160" t="s">
+        <v>517</v>
+      </c>
+      <c r="E100" s="168" t="s">
+        <v>518</v>
+      </c>
+      <c r="F100" s="199" t="s">
+        <v>951</v>
+      </c>
+      <c r="G100" s="180" t="s">
         <v>520</v>
-      </c>
-      <c r="E100" s="168" t="s">
-        <v>521</v>
-      </c>
-      <c r="F100" s="199" t="s">
-        <v>954</v>
-      </c>
-      <c r="G100" s="180" t="s">
-        <v>523</v>
       </c>
       <c r="H100" s="164"/>
       <c r="I100" s="165"/>
     </row>
     <row r="101" spans="1:10" ht="82.8">
       <c r="A101" s="159" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B101" s="164" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C101" s="160" t="s">
+        <v>522</v>
+      </c>
+      <c r="D101" s="160" t="s">
+        <v>523</v>
+      </c>
+      <c r="E101" s="168" t="s">
+        <v>939</v>
+      </c>
+      <c r="F101" s="185" t="s">
         <v>525</v>
       </c>
-      <c r="D101" s="160" t="s">
+      <c r="G101" s="160" t="s">
         <v>526</v>
-      </c>
-      <c r="E101" s="168" t="s">
-        <v>942</v>
-      </c>
-      <c r="F101" s="185" t="s">
-        <v>528</v>
-      </c>
-      <c r="G101" s="160" t="s">
-        <v>529</v>
       </c>
       <c r="H101" s="164"/>
       <c r="I101" s="165">
@@ -9176,23 +9209,23 @@
     </row>
     <row r="102" spans="1:10" ht="41.4">
       <c r="A102" s="159" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B102" s="164" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C102" s="160"/>
       <c r="D102" s="160" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="E102" s="220" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="F102" s="187" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="G102" s="160" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="H102" s="164"/>
       <c r="I102" s="165">
@@ -9201,23 +9234,23 @@
     </row>
     <row r="103" spans="1:10" ht="55.2">
       <c r="A103" s="167" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B103" s="164" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C103" s="164"/>
       <c r="D103" s="161" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E103" s="168" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F103" s="187" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G103" s="164" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H103" s="164"/>
       <c r="I103" s="165">
@@ -9227,23 +9260,23 @@
     </row>
     <row r="104" spans="1:10" ht="96.6">
       <c r="A104" s="159" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B104" s="164" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C104" s="164"/>
       <c r="D104" s="161" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E104" s="168" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F104" s="185" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G104" s="164" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="H104" s="164"/>
       <c r="I104" s="165">
@@ -9253,23 +9286,23 @@
     </row>
     <row r="105" spans="1:10" ht="41.4">
       <c r="A105" s="159" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B105" s="164" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C105" s="164"/>
       <c r="D105" s="160" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E105" s="168" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F105" s="187" t="s">
+        <v>582</v>
+      </c>
+      <c r="G105" s="164" t="s">
         <v>585</v>
-      </c>
-      <c r="G105" s="164" t="s">
-        <v>588</v>
       </c>
       <c r="H105" s="164"/>
       <c r="I105" s="165"/>
@@ -9277,23 +9310,23 @@
     </row>
     <row r="106" spans="1:10" ht="69">
       <c r="A106" s="159" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B106" s="164" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C106" s="164"/>
       <c r="D106" s="160" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E106" s="168" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="F106" s="187" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="G106" s="164" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="H106" s="164"/>
       <c r="I106" s="165">
@@ -9303,20 +9336,20 @@
     </row>
     <row r="107" spans="1:10" ht="27.6">
       <c r="A107" s="159" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B107" s="164" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C107" s="164"/>
       <c r="D107" s="216">
         <v>2243686</v>
       </c>
       <c r="E107" s="162" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="F107" s="206" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="G107" s="164"/>
       <c r="H107" s="164"/>
@@ -9324,10 +9357,10 @@
     </row>
     <row r="108" spans="1:10" ht="14.1">
       <c r="A108" s="159" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B108" s="164" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C108" s="164">
         <v>8001119</v>
@@ -9335,13 +9368,13 @@
       <c r="D108" s="180"/>
       <c r="E108" s="162"/>
       <c r="F108" s="185" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G108" s="164" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H108" s="164" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="I108" s="165">
         <v>43196</v>
@@ -9349,28 +9382,28 @@
     </row>
     <row r="109" spans="1:10" ht="82.8">
       <c r="A109" s="159" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B109" s="160" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C109" s="164">
         <v>8001130</v>
       </c>
       <c r="D109" s="160" t="s">
+        <v>609</v>
+      </c>
+      <c r="E109" s="168" t="s">
+        <v>610</v>
+      </c>
+      <c r="F109" s="185" t="s">
+        <v>611</v>
+      </c>
+      <c r="G109" s="164" t="s">
         <v>612</v>
       </c>
-      <c r="E109" s="168" t="s">
-        <v>613</v>
-      </c>
-      <c r="F109" s="185" t="s">
-        <v>614</v>
-      </c>
-      <c r="G109" s="164" t="s">
-        <v>615</v>
-      </c>
       <c r="H109" s="164" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="I109" s="165">
         <v>43196</v>
@@ -9378,25 +9411,25 @@
     </row>
     <row r="110" spans="1:10" ht="27.6">
       <c r="A110" s="159" t="s">
+        <v>613</v>
+      </c>
+      <c r="B110" s="160" t="s">
+        <v>614</v>
+      </c>
+      <c r="C110" s="160" t="s">
+        <v>615</v>
+      </c>
+      <c r="D110" s="160" t="s">
         <v>616</v>
       </c>
-      <c r="B110" s="160" t="s">
+      <c r="E110" s="168" t="s">
         <v>617</v>
       </c>
-      <c r="C110" s="160" t="s">
+      <c r="F110" s="187" t="s">
         <v>618</v>
       </c>
-      <c r="D110" s="160" t="s">
+      <c r="G110" s="164" t="s">
         <v>619</v>
-      </c>
-      <c r="E110" s="168" t="s">
-        <v>620</v>
-      </c>
-      <c r="F110" s="187" t="s">
-        <v>621</v>
-      </c>
-      <c r="G110" s="164" t="s">
-        <v>622</v>
       </c>
       <c r="H110" s="164"/>
       <c r="I110" s="165">
@@ -9405,46 +9438,46 @@
     </row>
     <row r="111" spans="1:10" ht="41.4">
       <c r="A111" s="159" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B111" s="160" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C111" s="164"/>
       <c r="D111" s="161" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E111" s="168" t="s">
         <v>100</v>
       </c>
       <c r="F111" s="187" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G111" s="164" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="H111" s="164"/>
       <c r="I111" s="165"/>
     </row>
     <row r="112" spans="1:10" ht="27.6">
       <c r="A112" s="159" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B112" s="164" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C112" s="164"/>
       <c r="D112" s="224" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E112" s="168" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F112" s="187" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G112" s="164" t="s">
         <v>1033</v>
-      </c>
-      <c r="E112" s="168" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F112" s="187" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G112" s="164" t="s">
-        <v>1036</v>
       </c>
       <c r="H112" s="164"/>
       <c r="I112" s="165">
@@ -9453,23 +9486,23 @@
     </row>
     <row r="113" spans="1:10" ht="41.4">
       <c r="A113" s="159" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B113" s="160" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C113" s="164"/>
       <c r="D113" s="224" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E113" s="168" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F113" s="187" t="s">
         <v>1073</v>
       </c>
-      <c r="E113" s="168" t="s">
+      <c r="G113" s="164" t="s">
         <v>1074</v>
-      </c>
-      <c r="F113" s="187" t="s">
-        <v>1076</v>
-      </c>
-      <c r="G113" s="164" t="s">
-        <v>1077</v>
       </c>
       <c r="H113" s="164"/>
       <c r="I113" s="165">
@@ -9478,7 +9511,7 @@
     </row>
     <row r="114" spans="1:10" ht="69">
       <c r="A114" s="159" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B114" s="164" t="s">
         <v>45</v>
@@ -9487,16 +9520,16 @@
         <v>22</v>
       </c>
       <c r="D114" s="212" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E114" s="214" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="F114" s="185" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="G114" s="164" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="H114" s="164"/>
       <c r="I114" s="165">
@@ -9505,21 +9538,21 @@
     </row>
     <row r="115" spans="1:10" ht="69">
       <c r="A115" s="182" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B115" s="164"/>
       <c r="C115" s="164"/>
       <c r="D115" s="213" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E115" s="214" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="F115" s="185" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="G115" s="164" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="H115" s="164"/>
       <c r="I115" s="165">
@@ -9528,21 +9561,21 @@
     </row>
     <row r="116" spans="1:10" ht="69">
       <c r="A116" s="182" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B116" s="164"/>
       <c r="C116" s="164"/>
       <c r="D116" s="213" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E116" s="214" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="F116" s="185" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="G116" s="164" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="H116" s="164"/>
       <c r="I116" s="165">
@@ -9551,21 +9584,21 @@
     </row>
     <row r="117" spans="1:10" ht="55.2">
       <c r="A117" s="182" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B117" s="164"/>
       <c r="C117" s="164"/>
       <c r="D117" s="213" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="E117" s="214" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="F117" s="185" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="G117" s="164" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="H117" s="164"/>
       <c r="I117" s="165">
@@ -9574,21 +9607,21 @@
     </row>
     <row r="118" spans="1:10" ht="69">
       <c r="A118" s="182" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B118" s="164"/>
       <c r="C118" s="164"/>
       <c r="D118" s="213" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E118" s="214" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F118" s="185" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="G118" s="164" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="H118" s="164"/>
       <c r="I118" s="165">
@@ -9597,21 +9630,21 @@
     </row>
     <row r="119" spans="1:10" ht="69">
       <c r="A119" s="182" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B119" s="164"/>
       <c r="C119" s="164"/>
       <c r="D119" s="213" t="s">
+        <v>975</v>
+      </c>
+      <c r="E119" s="214" t="s">
+        <v>981</v>
+      </c>
+      <c r="F119" s="185" t="s">
         <v>978</v>
       </c>
-      <c r="E119" s="214" t="s">
-        <v>984</v>
-      </c>
-      <c r="F119" s="185" t="s">
-        <v>981</v>
-      </c>
       <c r="G119" s="164" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="H119" s="164"/>
       <c r="I119" s="165">
@@ -9620,92 +9653,92 @@
     </row>
     <row r="120" spans="1:10" ht="124.2">
       <c r="A120" s="159" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B120" s="164" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C120" s="164"/>
       <c r="D120" s="160" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E120" s="168" t="s">
+        <v>645</v>
+      </c>
+      <c r="F120" s="185" t="s">
+        <v>646</v>
+      </c>
+      <c r="G120" s="164" t="s">
         <v>648</v>
-      </c>
-      <c r="F120" s="185" t="s">
-        <v>649</v>
-      </c>
-      <c r="G120" s="164" t="s">
-        <v>651</v>
       </c>
       <c r="H120" s="164"/>
       <c r="I120" s="165"/>
     </row>
     <row r="121" spans="1:10" ht="138">
       <c r="A121" s="182" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B121" s="164" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C121" s="164"/>
       <c r="D121" s="160" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E121" s="168" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F121" s="185" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G121" s="164" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H121" s="164"/>
       <c r="I121" s="165"/>
     </row>
     <row r="122" spans="1:10" ht="124.2">
       <c r="A122" s="182" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B122" s="164" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C122" s="164"/>
       <c r="D122" s="160" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E122" s="168" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F122" s="185" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G122" s="180" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="H122" s="164"/>
       <c r="I122" s="165"/>
     </row>
     <row r="123" spans="1:10" ht="96.6">
       <c r="A123" s="159" t="s">
+        <v>657</v>
+      </c>
+      <c r="B123" s="164" t="s">
+        <v>146</v>
+      </c>
+      <c r="C123" s="160" t="s">
+        <v>658</v>
+      </c>
+      <c r="D123" s="160" t="s">
         <v>660</v>
-      </c>
-      <c r="B123" s="164" t="s">
-        <v>149</v>
-      </c>
-      <c r="C123" s="160" t="s">
-        <v>661</v>
-      </c>
-      <c r="D123" s="160" t="s">
-        <v>663</v>
       </c>
       <c r="E123" s="162"/>
       <c r="F123" s="190" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G123" s="164" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="H123" s="164"/>
       <c r="I123" s="165">
@@ -9714,7 +9747,7 @@
     </row>
     <row r="124" spans="1:10" ht="41.4">
       <c r="A124" s="159" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B124" s="160" t="s">
         <v>77</v>
@@ -9723,11 +9756,11 @@
         <v>22</v>
       </c>
       <c r="D124" s="161" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E124" s="168"/>
       <c r="F124" s="197" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="G124" s="164"/>
       <c r="H124" s="164"/>
@@ -9737,7 +9770,7 @@
     </row>
     <row r="125" spans="1:10" ht="41.4">
       <c r="A125" s="159" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B125" s="160" t="s">
         <v>77</v>
@@ -9746,11 +9779,11 @@
         <v>22</v>
       </c>
       <c r="D125" s="161" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E125" s="168"/>
       <c r="F125" s="179" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="G125" s="164"/>
       <c r="H125" s="164"/>
@@ -9760,23 +9793,23 @@
     </row>
     <row r="126" spans="1:10" ht="55.2">
       <c r="A126" s="159" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B126" s="160" t="s">
         <v>77</v>
       </c>
       <c r="C126" s="160"/>
       <c r="D126" s="160" t="s">
+        <v>692</v>
+      </c>
+      <c r="E126" s="162" t="s">
+        <v>693</v>
+      </c>
+      <c r="F126" s="179" t="s">
         <v>695</v>
       </c>
-      <c r="E126" s="162" t="s">
-        <v>696</v>
-      </c>
-      <c r="F126" s="179" t="s">
+      <c r="G126" s="164" t="s">
         <v>698</v>
-      </c>
-      <c r="G126" s="164" t="s">
-        <v>701</v>
       </c>
       <c r="H126" s="164"/>
       <c r="I126" s="165">
@@ -9785,7 +9818,7 @@
     </row>
     <row r="127" spans="1:10" ht="207">
       <c r="A127" s="159" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B127" s="164" t="s">
         <v>45</v>
@@ -9794,14 +9827,14 @@
         <v>22</v>
       </c>
       <c r="D127" s="186" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E127" s="162"/>
       <c r="F127" s="185" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G127" s="164" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="H127" s="164"/>
       <c r="I127" s="165">
@@ -9810,136 +9843,136 @@
     </row>
     <row r="128" spans="1:10" ht="69">
       <c r="A128" s="159" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B128" s="180" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C128" s="180">
         <v>8000823</v>
       </c>
       <c r="D128" s="160" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E128" s="168" t="s">
+        <v>718</v>
+      </c>
+      <c r="F128" s="206" t="s">
+        <v>720</v>
+      </c>
+      <c r="G128" s="180" t="s">
         <v>721</v>
       </c>
-      <c r="F128" s="206" t="s">
-        <v>723</v>
-      </c>
-      <c r="G128" s="180" t="s">
-        <v>724</v>
-      </c>
       <c r="H128" s="164" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="I128" s="165">
         <v>43196</v>
       </c>
       <c r="J128" s="166" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="82.8">
       <c r="A129" s="159" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B129" s="180" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C129" s="180"/>
       <c r="D129" s="160" t="s">
+        <v>723</v>
+      </c>
+      <c r="E129" s="168" t="s">
+        <v>724</v>
+      </c>
+      <c r="F129" s="163" t="s">
         <v>726</v>
       </c>
-      <c r="E129" s="168" t="s">
-        <v>727</v>
-      </c>
-      <c r="F129" s="163" t="s">
-        <v>729</v>
-      </c>
       <c r="G129" s="185" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="H129" s="164"/>
       <c r="I129" s="165">
         <v>43196</v>
       </c>
       <c r="J129" s="181" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="55.2">
       <c r="A130" s="182" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B130" s="180" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C130" s="180"/>
       <c r="D130" s="160" t="s">
+        <v>730</v>
+      </c>
+      <c r="E130" s="168" t="s">
+        <v>731</v>
+      </c>
+      <c r="F130" s="164" t="s">
+        <v>732</v>
+      </c>
+      <c r="G130" s="163" t="s">
         <v>733</v>
-      </c>
-      <c r="E130" s="168" t="s">
-        <v>734</v>
-      </c>
-      <c r="F130" s="164" t="s">
-        <v>735</v>
-      </c>
-      <c r="G130" s="163" t="s">
-        <v>736</v>
       </c>
       <c r="H130" s="164"/>
       <c r="I130" s="165">
         <v>43196</v>
       </c>
       <c r="J130" s="166" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="86.4">
       <c r="A131" s="182" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B131" s="180" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C131" s="180"/>
       <c r="D131" s="303" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="E131" s="168" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F131" s="185" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="G131" s="163"/>
       <c r="H131" s="164"/>
       <c r="I131" s="165" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="41.4">
       <c r="A132" s="159" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B132" s="164" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C132" s="164" t="s">
         <v>22</v>
       </c>
       <c r="D132" s="183" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E132" s="207" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F132" s="187" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G132" s="164" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H132" s="164"/>
       <c r="I132" s="165">
@@ -9948,20 +9981,20 @@
     </row>
     <row r="133" spans="1:10" ht="27.6">
       <c r="A133" s="182" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B133" s="164" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C133" s="164"/>
       <c r="D133" s="298" t="s">
+        <v>873</v>
+      </c>
+      <c r="E133" s="160" t="s">
         <v>876</v>
       </c>
-      <c r="E133" s="160" t="s">
-        <v>879</v>
-      </c>
       <c r="F133" s="187" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="G133" s="164"/>
       <c r="H133" s="164"/>
@@ -9971,25 +10004,25 @@
     </row>
     <row r="134" spans="1:10" ht="96.6">
       <c r="A134" s="159" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B134" s="164" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C134" s="164" t="s">
         <v>22</v>
       </c>
       <c r="D134" s="186" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E134" s="207" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F134" s="185" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="G134" s="164" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="H134" s="208"/>
       <c r="I134" s="165">
@@ -9998,47 +10031,47 @@
     </row>
     <row r="135" spans="1:10" ht="41.4">
       <c r="A135" s="182" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B135" s="164" t="s">
+        <v>794</v>
+      </c>
+      <c r="C135" s="160" t="s">
+        <v>795</v>
+      </c>
+      <c r="D135" s="160" t="s">
         <v>797</v>
       </c>
-      <c r="C135" s="160" t="s">
-        <v>798</v>
-      </c>
-      <c r="D135" s="160" t="s">
-        <v>800</v>
-      </c>
       <c r="E135" s="168" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F135" s="185" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G135" s="164" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="H135" s="208"/>
       <c r="I135" s="165"/>
     </row>
     <row r="136" spans="1:10" ht="14.1">
       <c r="A136" s="159" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B136" s="164" t="s">
         <v>45</v>
       </c>
       <c r="C136" s="160" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D136" s="186" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E136" s="162" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F136" s="187" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G136" s="164"/>
       <c r="H136" s="164"/>
@@ -10048,7 +10081,7 @@
     </row>
     <row r="137" spans="1:10" ht="96.6">
       <c r="A137" s="159" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B137" s="164" t="s">
         <v>45</v>
@@ -10057,14 +10090,14 @@
         <v>22</v>
       </c>
       <c r="D137" s="164" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E137" s="162"/>
       <c r="F137" s="187" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="G137" s="166" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="H137" s="164"/>
       <c r="I137" s="165">
@@ -10073,19 +10106,19 @@
     </row>
     <row r="138" spans="1:10" ht="138">
       <c r="A138" s="173" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D138" s="304">
         <v>2420287</v>
       </c>
       <c r="E138" s="221" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F138" s="185" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="G138" s="166" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="I138" s="297">
         <v>372000</v>
@@ -10093,23 +10126,23 @@
     </row>
     <row r="139" spans="1:10" ht="41.4">
       <c r="A139" s="159" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B139" s="160" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C139" s="160"/>
       <c r="D139" s="195" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E139" s="168" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="F139" s="163" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="G139" s="164" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="H139" s="164"/>
       <c r="I139" s="165">
@@ -10118,32 +10151,32 @@
     </row>
     <row r="140" spans="1:10" ht="55.2">
       <c r="A140" s="159" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B140" s="160" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C140" s="160"/>
       <c r="D140" s="305" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E140" s="221" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F140" s="163" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G140" s="164" t="s">
         <v>1097</v>
-      </c>
-      <c r="E140" s="221" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F140" s="163" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G140" s="164" t="s">
-        <v>1100</v>
       </c>
       <c r="H140" s="164"/>
       <c r="I140" s="165" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="138">
       <c r="A141" s="159" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B141